--- a/webscraping/AmazonDataSet/ProductDetails.xlsx
+++ b/webscraping/AmazonDataSet/ProductDetails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="2228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="2225">
   <si>
     <t>ASIN</t>
   </si>
@@ -4595,481 +4595,481 @@
     <t>$129.99</t>
   </si>
   <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Keep your phone in your pocket and your head up to the world with easy access to voice control services for music, navigation, weather, and more. Confidently take a call or speak to your voice assistant in any environment, with an unrivalled adaptive four-microphone system that isolates your voice from surrounding noise. Personalize your environment with 11 levels of noise cancelling — control distractions or let ambient sound in.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Noise cancelling made for travel with One Push Artificial Intelligence Noise Cancellation (AINC) analyses background sound and adjusts it for optimal performance on aeroplanes and other noisy environments. Just press and hold the NC button on your headphones to activate it. NFC One-touch for instant connectivity Near Field Communication (NFC) technology makes complex set-up sequences a thing of the past. Simply touch selected NFC-enabled devices to the on-body N-mark for a quick, seamless connection, then start streaming content via Bluetooth connection. No NFC the no problem, You can still manually connect using your device’s settings menu. Listen all day, charge up quickly Keep your music playing all day. A built-in Li-ion battery delivers up to 35 hours of power (depending on your music settings) and is rechargeable via USB. Quick Charging gives 60 mins of play back from 10 minutes of charge.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Eliminate noisy distractions and focus on what matters most with renowned noise cancellation. Connect to your devices wirelessly with Bluetooth and NFC pairing, with voice prompts for hassle-free pairing. Keep in touch, get answers, and manage your day using just your voice with one button access to the voice assistant of your choice. Now enabled with Bose AR, a first-of-its-kind audio augmented reality platform.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ❤ Active Noise Cancelling Technology - when you need to drive into your thinking and don't want to be disturbed by other one Try wearing Bluetooth headphones over the ear (even if you don't have any music playing). ❤ UPERIOR SOUND QUALITY - iREIZTEC Bluetooth headphones World-class sound makes bass richer and more pronounced.The mid and high ranges are also clear and balanced.Even you turn to the high volume,the distortion is minimal.Free to enjoy the superb high fidelity sound with thumping bass,prominent mids and sparkling highs. ❤COMFORTABLE OVER EAR HEADPHONES - The professional protein earpad and 90° swiveling earcups. More durability and comfort, Enjoy high-quality, Long-listen comfort. Skin texture, lightweight comfortable around-ear fit you can wear all day long. Gentle Reminder: please take off the headphone every 2-3 hrs to get your ears relax, in order to get better hearing enjoyment, and keep the head comfortable. ❤ WIRELESS &amp; WIRED HEADPHONES - bluetooth function connects to all your Bluetooth enabled devices with 33ft (10 meters) effective range. AUX port with cable (included) for use in flight or with any 3.5mm jack port devices. ❤ 30 hours playtime per charge at Bluetooth mode. A built-in 750mAh battery won't allow your headphones power off, you can enjoy your world without noise for 30 hours' long time. Don't need to worry the power shortage problem on the long travel. 18-month warranty and quick response &amp; friendly customer service. Dedicated customer service team, provide you with quick response and friendly customer service, which will always serve for you and certainly satisfy you.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Ideal for iPod, iPhone and iPad Noise cancelling reduces surrounding distractions, letting music stand out. Stay Hear+ tips provide long-lasting comfort plus stability Aware mode lets you hear what’s around you when you need to, at the touch of a button Exclusive TriPort technology and Active EQ help deliver lifelike, digital-quality audio QC20 headphones are specifically designed to work with selected Apple or selected Samsung and Android devices. An inline microphone and one-touch answer/end button allow for seamless switching between your calls and music. Some phones may require you to hold the answer/end button for a few seconds to perform these functions. 1 Year International Manufacturer Warranty Ideal for iPod, iPhone and iPadNoise cancelling reduces surrounding distractions, letting music stand out. Stay Hear+ tips provide long-lasting comfort plus stabilityAware mode lets you hear what's around you when you need to, at the touch of a buttonExclusive TriPort technology and Active EQ help deliver lifelike, digital-quality audioQC20 headphones are specifically designed to work with selected Apple or selected Samsung and Android devices. An inline microphone and one-touch answer/end button allow for seamless switching between your calls and music. Some phones may require you to hold the answer/end button for a few seconds to perform these functions.Show More</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Neodymium dynamic drivers deliver precise sound Swivel folding design makes travel easy In-line remote and mic for hands-free calls Enfolding closed-back design seals in sound Wide frequency range for clear highs and lows</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 30mm dome drivers for balanced sound 12Hz–22kHz frequency range with microphone for answering of calls. High energy neodymium magnets deliver powerful sound</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) A Personal Oasis of Quiet: Enjoy your music with minimal, or no distraction, when you turn on the active noise cancellation (ANC) switch. Feel the Beat: Expect aggressive bass with balanced mid-levels and bright highs with our dual large-aperture drivers. Long-Lasting Music Playback: With a generous battery life of up to 45 hours, you can enjoy beautiful music longer or plug in the included audio cable when the battery is low. Hassle-Free Clear Calls: Built-in CVC 6.0 noise-cancelling microphone for clearer call quality, even in a loud environment. Adjustable Fit, Maximum Comfort: With 90° swiveling ear cups, super soft protein ear pads, and ergonomic headband, the materials used ensure minimum weight and maximum comfort for long term wear. These headphones are foldable and come with a carrying case.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) No Wires, No Buttons, No Limits: They are real wireless headphones, letting you get rid of the trouble of the wire forever. The side of each earbud is touch-sensitive and can be tapped or pressed to do all operations, control your music or accept your calls with just a simple touch. An interesting design that can be used as a gyro to give you some fun when you are bored. IPX7 Waterproof: The wireless earphones have top-level waterproof even able to withstand full immersion up to 33 feet for 30 minutes, means there's no need to fear the sweat, rain, dust or snow. Developed by integrating the principle of human ears, the wireless earphones are ergonomic, comfortable, and lightweight to fit securely in your ears. Extra 2 pairs of ear tips with different sizes make them suitable for more people. Confidently wear them for swimming, exercise, running, dancing, etc Longer Enjoyment: Don’t worry about low battery anymore! The stylish charging case with built-in 600mAH battery is light and compact to carry out, it can charge the earbuds 4 times so you don’t feel stranded. One 30-minute single charge for up to 6-7 hours’ playtime, which means you will get up to 16 hours of continuous music playtime, 30 hours call time and 140 hours standby time. Go out without the power shortage and enjoy your music world in your favorite activities throughout the day. Premium Sound Quality: Features an innovative acoustic design and cutting-edge Hi-Fi micro full frequency sound unit, the Bluetooth earbuds deliver an extraordinary Hi-Fi stereo sound effect and ensure zero distortion at any volume, making you feel personally on the scene of concert. With active noise reduction, the phone call will be more clear. Meanwhile, both earbuds are built-in microphones, you could response hands-free calls and access voice assistant with single or both earbuds as prefer. Universal Compatibility: Engineered with industry-leading Bluetooth technology and newest Bluetooth 5.0 chipset, the wireless earbuds provide ultra-stable connection within 33ft (10m), quick pairing and wide compatibility. They instantly connect to your iPhone, iPad, Mac, Android smartphones and tablets, windows cellphones or other Bluetooth enabled devices. Just hold them near your device and start getting lost in your music. We provide professional support to ensure your purchase enjoyment.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Lightweight, all-day listening with quality sound Up to 35 hours of battery life 10-minute quick charging  for up to 90 minutes of play Built-in microphone, enabling hands free voice calls Connects to your smartphone voice assistant</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 30mm Ferrite drivers for powerful, balanced sound Padded ear cups for comfortable listening Lightweight, folding design for ultimate music mobility Four-conductor gold plated l-shaped stereo mini</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Cutting-edge engineering and robust construction 90° swiveling earcups for easy, one-ear monitoring 40 mm drivers Circumaural design contours around the ears 1 Year Local (Singapore) Manufacturer Warranty 40 mm drivers with rare earth magnets and copper-clad aluminum wire voice coils Tuned flat for incredibly accurate sound monitoring across the entire frequency range</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 30mm dome drivers for balanced sound 12Hz–22kHz frequency range Padded earcups for comfortable listening</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Active Noise Cancellation Technology（ANC). Professional advanced noise cancellation technology,effectively cancel 85% machine noise such as airplane/bus/factory/office noise, etc.(pls kindly note:it's not 100% noise cancellation,but it will quell much background noise.)so you can focus on what are you doing.ANC function works well in both wired and wireless mode.NC25 noise cancelling headphones would be the best model in the same level of price. Sound Quality.High-end 40mm stereo drivers provide immersive Hi-Fi Deep Bass.Noise-rejecting built-in dual-microphones system for Hands-Free call,clear sound and voice pick-up.Advanced bluetooth CSR to make and receive calls with quick and stable Bluetooth connections.Well compatible with iPhone,iPad,Android,Mac,etc. Unique Foldable Lightweight Design.The professional protein ear-pads and 115° swiveling ear-cups with superb LIGHTWEIGHT only 0.4 lb and the durable foldable design for carrying and traveling. Long Hours Playtime.16-hrs music time talking time per charging and 3.5mm stereo audio cable provided.Audio cable can be used when low battery. Ultimate Fit &amp; Comfort - Exclusive Designs of Air Pressure Balance.Multi-level adjustable headband to get the best suitable size for you.To reduce sound wave pressure of active noise reduction,to feel much more comfortable to wear than all other brands.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Noise cancelling technology 30mm driver unit Tangle-free 1.2m cord</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) BLUETOOTH APTX. 30+ HOURS OF PLAYTIME ON A SINGLE CHARGE CONTROL KNOB: The multidirectional knob lets you control your music and phone functionality with ease. Custom tuned drivers provide exceptional audio, delivering a near neutral sound that perfectly balances clarity and bass, while the over-ear design offers noise isolation allowing you to focus on the music.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bluetooth 4. 1 technology Noise isolation blocks out background noise Powerful, oversized 40mm drivers provide superb bass-driven sound Up to 10 hours playtime Built-in microphone for hands-free calling</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Deep, immersive sound, improved EQ-best-in-class performance for wireless headphones Latest Bluetooth technology for easy connectivity and seamless audio/video syncs Advanced microphone system, HD voice for clear calls in windy or noisy environments Up to 15 hours play time with rechargeable lithium-ion battery, ear cushion:9.6 cm H x 7.4 cm W Switch between two Bluetooth devices so you can watch a video while staying connected to your smartphone 1 Year International Manufacturer Warranty Deep, immersive sound, improved eq-best-in-class performance for wireless headphonesLatest Bluetooth technology for easy connectivity and seamless audio/video syncsAdvanced microphone system, HD voice for clear calls in windy or noisy environmentsUp to 15 hours play time with rechargeable lithium-ion battery,Ear cushion:9.6 cm H x 7.4 cm WSwitch between two Bluetooth devices so you can watch a video while staying connected to your smartphoneShow More</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ALL-DAY LISTENING: Keep your soundtrack going with up to 22 hours of rechargeable battery. Just 10 minutes of charging offers 4 hours of play time, thanks to Rapid Charge technology, with a full battery reacharge in just 1 hour. ALL-DAY COMFORT: The pivoting armatures adjust for a perfect fit, while lightweight design and memory foam ear cushions allow for comfortable all day listening. It also allows them to lay flat on a table or around the neck when not in use. PREMIUM SOUND: For big sound no matter what you listen to, an integrated analog amplifier pushes a pair of high-quality 40mm audio drivers that give your music the rich, dynamic sound it deserves. EASY TO USE: Voice notifications assist in pairing your device. Take calls, change tracks, and adjust volume with the built-in controls and microphone.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Slim, foldable design for easy portability New 36 mm drivers reproduce full bass Rotating earpieces (180 degrees) for one-ear DJ-style monitoring Closed-back design minimizes sound leakage</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Signature JBL sound delivered by powerful 40mm drivers, in a sleek, stylish design. Enjoy an entire day or more of wireless audio without having to plug your headphonesback in to charge. A rapid two-hour charging gets you up to 16 hours of audio playback. Effortlessly switch from music on your portable device to a ring from your phone, for example,so that you never miss a call. Comfort-fi t and stylish fabric headband complement the sleek look of the headphones. In the wired mode, the bundled cable, which is compatible with most smartphones, allows for easy music control and hands-free calls. 1 Year Local (Singapore) Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Powerful Sound- 30mm Driver, Neodymium Magnet 3 Way Style for Easy Portability- Inside folding design with Swivel Mechanism Outdoor Style- Lightweight, Simple design for versatile usage and Tangle-free Flat Cable</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Lightweight headphones in White with comfortable on-ear design that minimizes outside noise L-shaped stereo mini plug for connecting to your phone, MP3 player, computer, or other device with a 3.5 mm jack Frequency range of 12 Hz-22,000 Hz helps ensure great sound reproduction; 101 decibels (dB) and 1000mW maximum input level Ear cups rotate in, allowing headphones to lay flat for compact storage and portability</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Lightweight, foldable headphones for easy on-the-go storage. Closed-back on-ear headphones reduce unwanted background noise for your comfort. Tough and tangle-free cable for long-lasting listening enjoyment. 2 Year International Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Music On, World Off: Improved Active Noise Cancellation will drown out the noise of the streets or annoying chatter to fully immerse you in your favorite tunes Hi-Fi Sound &amp; Captivating Bass: 40mm large-aperture drivers deliver riveting sound and a thumping bass New Hyper Speed Charge: Just 5 minutes of charging give you 2 hours of full sound; 30 hours playtime on a full charge Bluetooth 5.0: Steady Bluetooth 5.0 connection streams music uninterrupted while the built-in cVc 6.0 microphone ensure crisp, clear calls without ambient noise First Class Comfort: Adjustable headband, 90° rotatable ear cups &amp; pillow-soft protein cushions; fold &amp; store in the carrying case to take anywhere you go</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Active Noise Cancelling Functionality: Reduces environmental noise and distractions by up to 25dB for an immersive auditory experience that lasts up to 15 hours per charge Increase Awareness with Monitoring Mode: Clearly hear airline or subway announcements and what’s around you with the press of in-ear monitor button when ANC is on Built-In MEMS Noise Cancelling Microphone: Enables for crispy phone calls and undisturbed voice transmission while featuring a reduced footprint Feature-Packed Headphones: Comes with an active noise cancelling slider, monitoring mode button, inline controls for volume, audio track and calls, also features an airplane audio adapter for convenience when flying Sleek, Durable Aluminum Build: Metal alloy black matte finish provides wired earbuds extra durability in addition to an elegant, stealthy look</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) EXCELLENT SOUND: Stereo bass headphone with excellent sound effect, 3.5mm plug compatible with all 3.5mm jack devices. DURABLE &amp; NOT TANGLE: The headphone cord length is 4.9 ft (1.5m), using high quality cloth, so it very durable, and not tangle, suitable for kids, children, not easily damaged. ADJUSTABLE: The adjustable band allows you to get the perfect fit for your head shape. It is not only suitable for your children, but also for many adults. ESAY TO CARRY: Folding design make it convenient to carry, you can easily put it in the suitcase or bag, more easy to carry it. When you take your children out for a trip, take a plane, take a car, this headphone would be a good companion. WARRANTY: 1 Year Hassle Free limited warranty and quick response customer service, if you have any questions when using, feel free to contact us via Amazon email or through the contact information on the instructions.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Over-ear headphones with a wide, comfortable headband for prolonged use Folds into a compact configuration for easy storage and carrying 4 ft. cord with line-in mic and remote control ABS + metallic Housing, metal &amp; up-leather</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [Headphones on, World off] advanced noise reduction technology quells airplane cabin noise, city traffic or a busy office. A valuable noise cancelling headphone in protecting your ears from excessive noise. So you can focus more on what matters. The clean and crisp sound resolution will give you a lively music experience wherever you are. [Led Display] 7 Different color of led display, 24 hours of battery life when charged fully. [Unrivaled comfort, easy-carrying] with its adjustable headband and cloud-soft protein ear pads, The wireless headphones are lightweight and can be worn over long times. The practical folding design makes them a great travel companion. Hi-fi sound &amp; CAPTIVATING bass] 40mm large-aperture drivers deliver riveting sound and a thumping bass. It is designed for stereo headphones. Provide you a more pleasant music time. [Hd mic, hands-free calls] making calls has never been this personal and efficient. This modern design noise cancellation headphones support call efficiently and enhance better audibility and connection. These luxurious headphones have 5. 0 Bluetooth version in you the best hands-free call and exceptional experience. You can enjoy wireless or wired mode depend on your require.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 30mm Ferrite drivers for powerful, balanced sound Padded earcups for comfortable listening Lightweight, folding design for ultimate music mobility Four-conductor gold plated l-shaped stereo mini Used for smartphones, android, iPad, iPod, iPhone and blackberry</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) With BOOM 3 you can play, pause and skip tracks directly on the speaker. Just push for convenient control of any streaming music. Or simply set up one-touch playlists for Apple Music and Deezer Premium+ via the app. Match the moment with the vibes without reaching for your phone. BOOM 3 is covered in a two-tone fabric that’s as tough as it is hot-damn beautiful. Engineered for applications like motorcycle jackets and fire equipment, this performance textile is built for extremes. And colored two ways by our custom dying process, it comes to life in a range of drool-worthy iridescent themes. BOOM 3 runs on the same battery technology as some of the most crave-worthy electric cars. BOOM 3 will stay powered and pumping tunes for 15 hours* on a single charge.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Active noise cancelling (ANC) technology: improved hybrid active noise cancellation significantly reduces low-frequency sound by up to 96%, enjoy the music no matter if you're on a bus, train or plane Rapid charge &amp; go: Enjoy an impressive 2 hours of music with just 5 minutes of charge Customizable Comfort: Super soft protein cushions, adjustable headband, 90° rotation axis for comfy all day wear; safe storage &amp; transportation with the carry case Hassle-free clear calls: dual large-aperture 40 mm drivers deliver deep and powerful bass for an all-round impressive HD sound quality; Hear &amp; Be Heard: Built in cVc 6.0 noise cancelling microphone for clear hands-free calls; Bluetooth for excellent wireless sound</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bluetooth aptX gives you exceptional audio quality and the freedom and convenience to move with 30 feet of wireless listening range 30+ hours of wireless playtime on a single charge 40 mm dynamic drivers that are custom tuned for enhanced bass response, smooth midst and crystal clear highs that draw on over 50 years of sound heritage. With the multi-directional control knob you can play, pause, shuffle and adjust the volume of your device, as well as power your headphone on or off. Easy to use phone functionality makes the major III Bluetooth the perfect everyday companion. Wirelessly answer, reject or end a call with the control knob Collapsible design</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Exceptionally pure audio of sound reality In a wireless design Exclusively designed 40 mm drivers for outstanding sound quality Housing’s dual-layer isolation structure keeps the electric circuitry separate from the acoustic Space for optimal phase and transient response Lightweight, fold-flat design for easy portability Mic and controls built into the ear cup for convenient handling of calls, music playback and volume adjustment</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Lightweight design that delivers powerful sound Comfort for long time wearing 40mm Drivers for detailed and powerful sound Bluetooth 4.0 and wired feature 35-Hours of in-use battery</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) JBL Pure Bass sound 1-button remote with microphone Tangle-free flat cable Lightweight and foldable design Ask Siri or Google Now</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Pure Bass Comfort Fit Remote Control for handsfree calls and music 12. 2mm drivers Ergonomic Design</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Hi-res certified sound The Hi-Res logo is a of exceptional audio quality awarded only to audio devices capable of producing the most accurate representation of what the artist intended Unlike ordinary headphones life Q10 delivers sound up to 40 KHz for the richest listening experience Bassup our exclusive BASSUP technology analyzes your Audio's low frequencies in real-time and instantly increases the Bass Combined with oversized 40mm dynamic drivers bass power is boosted up to 100% a button on the right earcup of the wireless over ear headphones activates BASSUP 60-Hour playtime an advanced Bluetooth chip with reduced power draw combines with anker's world-renowned power technology to offer enormous playtime even for wireless over ear headphones Listen for 2 hours a day for an entire month Fast-charging in a rush? Charge life Q10 wireless over ear headphones for 5 minutes and listen for up to 5 hours With a USB-C charging port for charging convenience and expanded compatibility Foldable design folds down neatly for easy storage and transport Reinforced hinges ensure complete durability and reliability</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Deep, accurate bass response, extended frequency range, rechargeable 5-Button control, including play/pause/answer/hang-up, equalizer, next track/volume up, previous track/volume down Ear cups fit around ears to help isolate Audio, foldable design for easy carry, noise canceling design Micro SD card plug-in, built in radio receiver, built in mic for hands free calling New: 6 months!! Exchange warranty! If your headset breaks or is damaged for any reason, pranks will provide you with a free replacement!</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) A high-quality audio experience, consistently balanced at any volume, thanks to Bose active EQ Wireless convenience, with easy Bluetooth and NFC pairing aided by voice prompts Exclusive Stay Hear+ tips keep the headphones comfortably in place during workouts Sweat and weather resistance for reliability while exercising Up to 6-hours battery life per charge. 1 Year International Manufacturer Warranty A high-quality audio experience, consistently balanced at any volume, thanks to Bose active EQWireless convenience, with easy Bluetooth and NFC pairing aided by voice promptsExclusive Stay Hear+ tips keep the headphones comfortably in place during workoutsSweat and weather resistance for reliability while exercisingUp to 6 hours battery life per charge. Please refer the User Guide before use.Show More</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Closed circumaural design featuring Bluetooth wireless technology Stereo sound across the audible due to Sennheiser's 18 ohm high-end transducers NoiseGard hybrid active noise cancellation for isolation and high audio performance Immediate pairing to smart devices using NFC connectivity Attachable audio cable, in case Bluetooth connectivity is not permitted 2 Years International Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Semi-Open Technology Built-in Noise-cancelling Microphone Solid Bass And Clear Highs Foldable, light Weight And Compact Design Adjustable headband and padded ear pads</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) High quality wireless audio with Bluetooth technology Up to 30 hours of battery life and quick charge Hands-free calling for convenience Talk at a touch with Quick Attention Communicate without taking your headphones off. Place your hand on the right housing to turn the volume down for instant conversation.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Headband pivots backward at its base, easily converting from over-the-head style to a behind-the-head style.Connectivity Technology: Wired Foam ear cushions Collapses into a compact, protective package that tucks neatly in a briefcase, gym bag or backpack Frequency response: 5Hz-25kHz Imp: 60Ω</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Wired in ear headphones perfect for exercising; with 3 sets of ear pads (S/M/L), Headphones stay in your ears while keeping surrounding noise out Ergo fit Design for Perfect fit Ultra Soft Ergofit in ear earbud Headphones conform Instantly to Your ears (S/M/L ear pads Included for a Perfect fit) Smartphone compatible Panasonic in ear Headphones with integrated microphone and remote are compatible with Apple (iphone/ iPod/ iPad), Android and Blackberry Audio devices In ear stereo Audio tonally balanced Audio with crisp highs and deep low Notes, plus wider frequency response and lively sound quality for recorded audio Extended Headphone cord long, 3.6 Feet cord threads comfortably through clothing and Bags making it easy to connect</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bluetooth 4.0 and aptX technologies deliver exceptional wireless sound quality. Connectivity Technology: Bluetooth Noise Gard active noise cancellation reduces ambient noise levels improving the listening experience. Intuitive ear-cup mounted controls for changing tracks and for making calls via the integrated microphone. Up to 19 hour battery life with Bluetooth and Noise Gard activated and is supplied with connecting cable for battery-free listening.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Upgraded Hybrid Active Noise Cancelling Technology (QCC3003+AMS3415) : Improved hybrid noise cancelling technology not only effectively reduces external noise by 96% while travelling on subway, bus, plane or at a loud office, but also reduces the headphones' internal noise, like white noise, improve the sound you listen to; in your world, there's nothing but music. Impressive HD sound with Deep bass: upgraded Bolton active noise cancelling headphones come with 45mm large-aperture drivers for impressive HD sound quality &amp; CAPTIVATING bass, enjoy the music in a more authentic way. Cozy protein ear pads and high-tech aluminum alloy material: Bluetooth headphones equipped with professional high imitation protein ear pads that are non-toxic &amp; skin friendly for first class comfort; high-tech aluminum alloy headband is rotatable, light &amp; durable. Bluetooth 5. 0 and built-in CVC 6. 0 microphone: Bolton wireless headphones with Bluetooth 5. 0 for a more effective and stable connection range (66ft); enjoy hands-free calls with built-in CVC 6. 0 microphone. 30-Hour playtime and fast charge: Bolton over ear headphone's built-in 680mAh battery delivers 30 hours playtime with less than 1 hour of charge, charge for 5 minutes for more than 2 hours use. Bolton provides 60 days free refund &amp; 24 months with 5 Star service, Contact us anytime.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Fully weatherproof (IPX7) to keep the music flowing through adverse conditions and unexpected weather. Streamlined design with soft silicone ear gels offer a secure, ultra-comfy fit. Fast-charging, 6-hour battery powers daily runs, training workouts and weekend adventures.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [TWS &amp; BLUETOOTH 5.0] - Adopt global professional Realtek chipset, true wireless design with latest Bluetooth 5.0, the SoundPEATS TrueFree wireless earbuds own fast and stable transmission without tangling. [SINGLE &amp; COUPLE] - Support working together to enjoy stereo sound, or using one earbud only for preference or driving safety. Different from the previous version or other brand, the TrueFree wireless earbuds provide HiFi stereo sound at both music and phone calls. [ONE-STEP PAIRING] - Born to offer you every convenience, the earbuds are built with very easy operation. Pull out the earbuds from charging case and hit on Bluetooth list. That's how easily you get the earbuds paired. [EXTENDED PLAYTIME] - Compact and lightweight magnetic charging case for you to carry the earbuds around. 3.5 hours playtime per charge and 15 hours in total, the earbuds strive to keep you company longer. [BIG IN SMALL] - Sound PEATS True Free wireless earbuds fulfill all your fantasy and needs about Bluetooth earphones. As long as your device is with Bluetooth version above 4.0, you can use it with the earbuds. Sound PEATS provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 53 mm drivers reproduce clear treble and midrange Bobbin-wound CCAW voice coils for superior power handling Full open-air type headphones produce no sense of pressure on the ears, resulting in a completely natural sensation Lightweight aluminum honeycomb casing with excellent acoustic properties Self-adjusting 3D Wing Support provides a comfortable listening experience; total ear-fit design minimizes pressure</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Closed-back design and ergonomic earpads reduce background noise and provide immersive detail Integrated 3-button smart remote with in-line microphone for controlling calls and music Handy single-sided tangle free cable Soft, comfortable ear pads for enhanced comfort- you will forget that you are wearing them! Robust foldable headbands for easy storage on the go 2 Years International Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Soft body for comfy fit Vibrant, eye-catching colors Built-in mic and control make handsfree talking</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bluetooth wireless - delivers seamless integration with any Bluetooth-enabled device Up to 40 hour battery life - provides hours of untethered listening thanks a rechargeable battery Stereo immersion tech - transforms music and movies in a way that makes you feel like you're there Haptic bass response - creates powerful, adjustable bass your can feel 1 Year International Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Wired Headphone Mic and Remote Tangle - free flat cable</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ♫【Dynamic &amp; HD Stereo Sound】wireless earbuds with the built-in high-quality audio chip，achieving the sound of the immersive music scene surround sound. Immerses yourself in an astonishing sound feast. ♫【Snug And Comfortable Design】 Bluetooth headphones wireless are designed to comfortably fit in your ear (in-ear design). Light and comfortable to wear for long hours with no pain. ♫【True Wireless Experience】 You will never worry about wire tangles while on true wireless earbuds as they use no wire connections at all and the connection range of up to 42 ft.As long as your device is within the range, Bluetooth earphones guarantee you quality music better than the wire embedded earphones. ♬【One-Step Paring】: Probably the most simple tech bluetooth headphones device you've used before. The wireless earphones will automatically turn on and connect to your phone when removed from the charging case. ♬【Long battery life】:Bluetooth Earbuds can last for over 4-5 hours playtime on a single charge. While on the go the portable charging case power can last up to 20 hours (recharge up to 4-14 times full) charge for the bluetooth earphones).</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Active noise cancellation technology eliminates environmental noise for immersive gaming experiences anywhere Large, 10mm ASUS essence drivers deliver incredibly strong bass and optimized gaming audio Ambient mode lets the sounds of the outside world in for times when you need to hear what's going on around you An ergonomic design, three sizes of ear gels and fins, and a pair of foam ear tips ensure a secure and comfortable fit USB-C connector provides multiplatform support for mobile phones, PCs, Mac and Nintendo switch</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Immersive sound - 50mm premium speaker drivers deliver crisp, dynamic audio. Great humanized design - 90° rotating cloth ear cups with bionic protein cushion coat &amp; self-adjusting padding headband. Detachable noise cancellation microphone - Unidirectional Mic filters most environmental noise around you and provide real-in-time talking without any delay. Anti-static tech inside gaming headphones prevent static sound from happening. You can chat to your fellow players with crystal clarity sound and enjoy a smooth team-work play. In-Line Audio Controls - Includes an analog volume control wheel and mic mute switch. Multi-platform compatible - This gaming headset with a 3.5mm audio jack is compatible with PC, PS4 controller, Xbox One controller (Please note: newer models have a headphone jack, older ones require an adapter.), Nintendo Switch (audio), Nintendo New 3DS LL/3DS(audio), Nintendo 3DS LL/3DS(audio).</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Hi-Res Audio - Best in class audio performance with precision engineered 40mm audio drivers. Active noise cancellation - Active noise cancelling technology removes low-frequencies, so you can enjoy uninterrupted music anywhere. Bluetooth wireless - Bluetooth 5.0 technology connectivity offers up to 22 hours of music and a quick 15-minute charge provides up to 4 hours of music. Ergonomic design - The oval acoustic tube design provides a precision fit for long-term usage. Noise Isolation - Noise isolating fit helps to block out ambient noise for a better listening experience. Call &amp; music control - A built-in mic plus in-line remote to switch songs, adjust the volume and accept or reject calls. Memory foam cushions - Soft memory ear cushions provide great comfort over long listening sessions.Flat folding design - easy to fold and store away, These headphones are your ideal travel companion.Maximum Durability - Every ELIT400NC is rigorously tested by being pulled, bent, stretched, and stressed for more than 150 hours to ensure the highest quality for everyday use.What's in the Box - The ELIT400NC Headset, USB charging cable, optional 3. 5mm audio cable, and information on our 1-year and fast, friendly customer service.Show More</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) wireless Bluetooth 5. 0 waterproof TWS portable charging case</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Iconic sound - Major III features 40 mm dynamic drivers that are custom tuned for enhanced bass response, smooth midst and crystal clear highs that draw on over 50 years of sound heritage. Major III has a straight fit headband, slimmed down 3D hinges and rebuilt ear cushions. One button remote - control your headphones and phone functionality with the one button remote with microphone located on your detachable 3. 5 mm cord. When listening to music, to share audio with someone else simply have your friend Plug into the free 3. 5 mm socket. Easy to use phone functionality makes the major III the perfect everyday companion. Answer, reject or end a call with the one button remote with microphone. Collapsible design -with its collapsible design, Major III is the ultimate traveling companion. Included_components: major III headphoneUser manual3.5mm cordShow More</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ♬【NO VOLUME BUTTON &amp; METAL MATERIAL DESIGN】Bluedio V2 Bluetooth Headphones only has a button to turn on/off and without volume button, you can switch the headphone's volume via change your device volume or switch the volume on Bluedio APP. The Bluedio V2 is made of aluminum-titanium alloy with 57 reinforced processes, Unbreakable, durable and drop resistant，giving you an non-ordinaly high-end experience. ♬【A HEADSET WITH CINEMATIC EFFECT】Bluedio V2 adopt PPS 12 exclusive patents acoustics technology, specially built 12 drivers, We especially add professional S/PDIF Optical Transmission in the audio jack to transmit high-quality digital signal; combined with the high audio resolution,together with the carefully designed compound cavity will accurately reproduce every frequency to make the bass deeper and more powerful. Suitable for watching movies, listening to music in DJ scene. ♬【MORE POWERFUL BLUEDIO APP】Access the Bluedio APP, you can set the sleep protection function. When you open the Sleep Protection function, when you disconnect your headphone with Bluetooth device up to 10 min(Note:This time is derived from the company's internal testing), your Bluedio V2 will turn off automatically to save power. You can also burn-in headphones, share your experience on the social foruml, etc. ♬【VFT- Vector Flow Technology 】Bluedio V2 Bluetooth headphones has a unique design wherein a ventilated back chamber in each ear cup of the headphone can propel air out and equalize air pressure on both sides of the headphone ear cans. This results in enhanced bass reproduction and an unparalleled sound fidelity. ♬【ROTATING CUP DESIGN WITH A PORTABLE BAG &amp; GENTLE LY REMIND】The rotatable headphone cup is stylish for carrying in the provided bag. Gentle Reminder: Depending on your head/ear size/shape, it may be a little tight(feels like“on ear”) for someone to wear which is designed to avoid sound leakage. In case of that and to get both audio and wearing comfort, please take off the headphone every 1-2 hrs to get your ears to relax and protect them from the muggy environment in use.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 16 hour continuous playback: Boltune wireless headphone with exclusive charging technology, low power consumption, 5 minutes charge can play 2 hours. Ios can up to 16 hours work time, let you enjoy wonderful music when travel and sports. The most advanced Bluetooth 5. 0: Boltune Bluetooth headphone adopted latest generation chip and Bluetooth 5. 0 technology, supports various bluetooth-enabled devices with significant noise isolation and 10mm dynamic drivers. IPX7 waterproof technology: Boltune Earbuds Headphone with IPX7 sweat and water resistance, protects the headphones from heavy rains or sweat fitness even in rainy days. The magnetic wireless earbuds conveniently clasp together, Easy to take. Height quality stereo sound: adopted Bluetooth 5. 0 technology, with SBC Bluetooth profiles to tune AAC, significant noise isolation and 10mm dynamic drivers, ensure stable transmission and don't interruption, delivers HD stereo sound experience. Ergonomic fit and commitment: with 3 pairs of ear tips and 3 pairs of secure-fit ear hooks, give you additional sizes to choose, perfect fit. 18-Month promise, no matter product problem, we will replace new one or refund for you.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) EXTRA BASS for deep, punchy sound High quality wireless audio with Bluetooth technology Up to 30 hours of battery life and quick charge</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 20 Hour Battery Life: State-of-the-art chip efficiently takes up less energy for seamless listening track after track, without the need to recharge, for up to 20 hours Clear Phone Calls: Utilizes advanced noise cancelling microphone to reduce vocal interference for highly intelligible vocal reproduction Bluetooth 5.0: Stable Bluetooth 5.0 connects seamlessly with various Bluetooth-enabled devices (smartphone, laptop, tablet.) up to a 15M range Superior Sound: Built with a metal ear shell &amp; PU drivers to deliver the purest sound, experience the upper echelons of sound for compatible devices Attention: SunvalleyTek-SG is the only authorised seller of Taotronics product in Singapore. IPX6 Waterproof with Magnetic Design: Nano coating provides protection from sweat &amp; rain; magnets secure the earbuds from sliding off when not in use</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Ideal for PC, PS4, Xbox one, and more For high-quality sound and voice clarity Easily plug in and play on PC</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Fashionable Headphones- Timeless Design and Stylish Colours High-quality Sound- 40mm Driver Unit and Neodymium Magnet Comfortable Fit- Optimal Side Pressure &amp; Soft Ear pads</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ♬【Superior Music Quality】Wireless Earbuds Adopting Bluetooth 5.0 and lossless HD rendering technology that produce incredible sound quality with crystal crisp treble. Enjoy your music everywhere even in a loud environment. ♬【1-Step to Pair &amp; Newest Bluetooth 5.0】 Zhsx True Wireless Earbuds adopts smart connecting technology, easy and quick to pair by just simple power on. They use the newest Bluetooth 5.0 chip to work with more smart devices with Bluetooth function. Some of the compatible devices are iPhone Xs, iPhone X, iPhone 8, 8 Plus, 7, 7 Plus, Samsung Galaxy S9, S9 Plus, S8, S8 Plus, S7, Note 8, Note 7, Note 5, Note 4, Huawei, LG G5, G4, G3, iPad and etc. ♬【Portable Charging Case and Longer Battery Life】The charging case with built-in 650 mAh battery, it can be charged automatically once the earbuds is put in the charging case. You get 6-7 hours continuous music playtime and up to 140 hours standby time when earbuds fully charged. Else you can also use the charging case to charge your smartphone when phone is out of power. ♬【Secure Fit | Light Weight | Full IPX7 Waterproof】Thanks to the IPX7 water protection, the bluetooth earbuds are resistant to sweat, water and rain. Perfect for running, jogging, hiking, yoga, exercises, gym, fitness, travelling and etc.Ideal for Chrismas Gift/Present, Birthday Gift/Present, Public Holiday. ♬【Aduarjo 100% money back guarantee】We are so confident that we will meet your highest expectations just send us an e-mail within 30 days for a full refund, including shipping costs. No forms to fill out. Your 100% satisfaction is our guarantee! The best Birthday, Christmas, New Year’s gifts for your family, lover, friends.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) NFC and  BLUETOOTHStream effortlessly with One-touch listening over BLUETOOTH. Simply tap your device on the NFC logo. 20h battery lifeKeep music going with up to 20 hours of long-lasting battery. Stream quality sound all dayListen to your music in clear sound quality from 9mm drivers. Easy operation with buttonsUse the buttons to play, stop or skip through tracks and adjust the volume. You can also push them to activate your smartphone’s voice assistant features or make hands-free calls. Tangle-free cable managementKeep your cable clipped neatly out of the way in your neckband with the adjuster and stopper.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Designed for deep bass performance Comfortable, secure fit with adjustable headband and multi-pivoting earplates Two adjustable temporal-comfort zone pads shift the pressure and perfectly balance the ear plates on your ear Collapsible for maximum portability, includes carrying case Connector Type: 1 x Headphones (mini-phone stereo 3.5 mm)</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Keep your phone in your pocket and your head up to the world with easy access to voice assistants for music, navigation, weather, and more. Confidently take a call in any environment, with an unrivalled adaptive four-microphone system that isolates your voice from surrounding noise. Personalize your environment with 11 levels of noise cancelling — control distractions or let ambient sound in. Enhance the way you experience the world with Bose AR, a first-of-its-kind audio augmented reality platform. Optimized for the Google Assistant. Access your voice assistant with a simple button press.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ♫【Dynamic &amp; HD Stereo Sound】wireless earbuds with the built-in high-quality audio chip，achieving the sound of the immersive music scene surround sound. Immerses yourself in an astonishing sound feast. ♫【Snug And Comfortable Design】 Bluetooth headphones wireless are designed to comfortably fit in your ear (in-ear design). Light and comfortable to wear for long hours with no pain. ♫【True Wireless Experience】 You will never worry about wire tangles while on true wireless earbuds as they use no wire connections at all and the connection range of up to 150 ft.As long as your device is within the range, Bluetooth earphones guarantee you quality music better than the wire embedded earphones. ♬【One-Step Paring】: Probably the most simple tech bluetooth headphones device you've used before. The wireless earphones will automatically turn on and connect to your phone when removed from the charging case. ♬【Long battery life】:Bluetooth Earbuds can last for over 4-5 hours playtime on a single charge. While on the go the portable charging case power can last up to 20 hours (recharge up to 4-122 times full) charge for the bluetooth earphones).</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) LONG LASTING BATTERY: Rechargeable battery lets you wirelessly listen all day with up to 18 hours of power on a single charge. COMFORTABLE DESIGN: Workout headphones have a memory foam headband and earcups for comfort and sound isolation so you can enjoy music, movies and calls. SWEAT AND MOISTURE PROTECTION: P2i military-grade nano-coating protects the sport headphones against sweat, moisture, and spills. WIRELESS HEADPHONES: Ditch the wires and stream up to 33 ft/10 m from Bluetooth-compatible smartphones and tablets. PLANTRONICS SIGNATURE AUDIO: 40 mm drivers and advanced acoustic technology deliver the right audio balance and deep, rich sound, whether you're listening to music, watching movies or taking a call.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [Dual Dynamic Drivers &amp; Crossovers] - The dual dynamic drivers in each earbud with exclusive crossover ensures resonant bass and crystal-like treble performance, which creates a immersive and melodious listening experience for you. The beryllium-plated + composite diaphragm speaker provides premium sound that never had [QCC3020 &amp; aptX] - High-tech QCC3020 chipset, featuring the low power consumption and the stable connectivity, plus the latest Bluetooth 5.0, stable transmission speed can be ensured at any time and anywhere .The advanced APTX codec delivers Hi-Fi Stereo sound and clear calls with CVC noise cancellation [27 Hours Working Time] - The charging case holds roughly 4 full charges and each charge works for roughly 6 hours, 27 hours playtime in total, makes you enjoy wonderful moment all day without any interruption [Mono/Binaural Use/Multifunction Button] - The earbuds can be used separately after successful pairing, after took out of charging case, they will automatically power on and enter into pairing mode . The press button of earbuds supports a lot of functions such as volume up/down, play/pause music, answer/hang up a call, the next/previous song, activate Siri and so on [Worry-free Warranty] - SOUNDPEATS true wireless earbuds meet all your demand for TWS headphones. We provide 12 months hassle-free warranty, it allows you to use our products with confidence. If any questions, please feel free to contact us</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) No matter how hard and heavy the music, these super soft cushions will rest lightly upon your ears The double-ended coil cord with mic and remote is completely de-tachable so you can decide which side you prefer to wear it. Use the empty 3.5mm Socket to share your music with someone else If by any chance you would like to take the major off of your head, they are foldable for easy storage and transportation Microphone and remote for use with cell phones using the 3.5mm Unprotected two-way standard plug 1 Year Local (Singapore) Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Wired Headphone</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ♫【Dynamic &amp; HD Stereo Sound】wireless earbuds with the built-in high-quality audio chip，achieving the sound of the immersive music scene surround sound. Immerses yourself in an astonishing sound feast. ♫【Snug And Comfortable Design】 Bluetooth headphones wireless are designed to comfortably fit in your ear (in-ear design). Light and comfortable to wear for long hours with no pain. ♫【True Wireless Experience】 You will never worry about wire tangles while on true wireless earbuds as they use no wire connections at all and the connection range of up to 126 ft.As long as your device is within the range, Bluetooth earphones guarantee you quality music better than the wire embedded earphones. ♬【One-Step Paring】: Probably the most simple tech bluetooth headphones device you've used before. The wireless earphones will automatically turn on and connect to your phone when removed from the charging case. ♬【Long battery life】:Bluetooth Earbuds can last for over 4-5 hours playtime on a single charge. While on the go the portable charging case power can last up to 20 hours (recharge up to 4-98 times full) charge for the bluetooth earphones).</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) KG-926 Full Range Balanced Armature Driver Featherweight (15 grams) Milled Aluminum Chassis Three-Button Remote + Mic</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Ultra-slim and lightweight with extra soft earpads for outstanding comfort - you will forget you are wearing them! Robust, foldable headband for easy storage on the go Closed-back design and ergonomic earpads reduce background noise and provide immersive detail Integrated 3-button smart remote with in-line microphone for controlling calls and music 2 Years International Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 20 Hz to 20 kHz frequency response Less than 1% THD 92% linear reduction in noise pressure 35dB passive sound isolation Weighs less than 6.3 oz</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Stylish Philips MyJam Chromz in-ear Punchy bass, comfort and good looks High quality vacuum metalized matt finishing</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 9 New Updates: Bluetooth 5. 0, superior sound quality, total 12 hours play time, 4g ultra-lightweight, zero pressure multi-function touch Control, DSP noise-canceling technology, voice assistant, IPX5(Professional Laboratory Certification), magnetic lid. Wireless freedom Meets BT 5. 0: Powered by global Professional relate chipset and next-generation BT 5. 0 technology, our wireless earbuds own stable connect and easier operation. Quick pairing out of the box. And just put them back into the charging case, It will charging. These are our GT1 engineered to deliver a better wireless experience. Superior Music Quality: A better wireless experience starts with what you hear. 7. 2mm dynamic driver has been embedded in this small earbud. Coupled with Advanced Audio Coding(AAC) and high-polymer diaphragm, GT1 delivers punchy bass and soft, clear mid-highs. and the Hifi stereo sound can offer face-to-face calling experience！ Smaller but More Powerful: Slip them in your pocket and go! This charging box even smaller than a lipstick or a lighter! And other than that GT1 deliver 4 hours of listening time and 3. 5 hours of talk time on a single charge. The mini charging box is able to provide earbuds with an extra 8 hours of battery life. Easy control with taps and hold: Feel enough of the physical button in earbuds？A high-precision touch sensor in both the earbuds allows you to effortlessly and comfortable using multiple functions without reaching for your phone.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 13. 5mm Driver unit reproduces powerful bass sound Use your headphones with a Walkman, iPod or MP3 player Large range of colours available match with your music player or choose your favourite Durable and lightweight 1. 2m cord Supplied with 2 x earbuds to more secure fitting</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Professional sound combines clarity with Deep bass, you can hear highs, midst, lows and every details. Proven by lots of musicians to have good performance on stages and great listening experiences by audiophiles Powered by dual drivers dynamic speaker, This earphone has the ability to meet all musical instruments' Requirements, Includes: drum, guitar, bass, keyboard and etc Professional cable is designed and tested for maximum durability and has been developed for our items to optimize the performance of the dual drivers. This cable features an ultra-low resistance copper wire that improves the performance of the speaker. Standard MMCX connectors make cable replacement easy Own your Audio space with our patent noise isolating design that eliminates noise and keeps your experience pristine. Ergonomic earphone shell and soft silicon ear tips block noise up 25 dB For professional stage, in the studio, and the most demanding audiophile applications, bsinger maintains its sound signature regardless of the source - perfect for musicians and music lovers plugging into a variety of equipment</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) wireless Bluetooth 5.0 waterproof TWS portable charging case</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) High quality new crack triad universal conversion headphones Special crack pattern make the earbuds very fashionable and stylish Noise isolating in-ear design can enable you to listen at lower volumes and protect your hearing and improving sound quality. Unique Colorful braided cord is designed specifically to reduce wire tangles. They are easily to use and store. You will never worry that your cables will be mess up. The bright color cords make your earphones look smart. Excellent sound quality and super clear sound.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Featherlight comfort Pure Clarity Clear Sound Metallic Finish Handsfree calls</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Superior Audio Quality: 6mm dynamic speakers and noise isolation deliver clear and flawless in-ear call sound Industry-leading 40 Hours Playtime: Up to 5 hours’ playtime on one charge and a charging case holds multiple additional charges for up to 36 hours’ playtime Smart Touch Control: Answer and hang up calls or access other functions by tapping on the earbuds instead of picking up your phone when it’s a few feet away Mini Size &amp; Portable Charging Case: Measuring just 3.2in long, shorter than a bank card, for easy storing in the pocket Attention: SunvalleyTek-SG is the only authorized seller of Taotronics product in Singapore.What You Get: 2 X Earbud, 1 X Charging Case, 6 X Eartip, 1 X Micro USB Charging Cable, 1 X User Guide, and a friendly, dedicated customer service</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Additional 3. 5mm plug for music sharing Mic &amp; Remote Removable &amp; Washable headband and ear cushions</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Colour it Loud! Powerful, bass-driven stereo sound High performance dynamic driver systems Symmetrical cable Outstanding wearing comfort on the go 2 Years International Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) PLAY ALL DAY - Crisp Bluetooth 4.1 HD Audio and 11-hour battery life will have you jamming from your morning commute until your evening workout YOURS EARS, YOUR FIT - Multi-size memory foam EarTips and comfortable over ear hooks will keep your buds in place and your tunes pumping during even the most vigorous workouts. UNIVERSAL BLUETOOTH HEADPHONES - Connect to your iPhone, TV, laptop, Kindle, tablet, or other Bluetooth device LIGHT WEIGHT &amp; HEAVY DUTY - The special Behind-The-Head wearing style holds your Ear buds in place during rigorous workouts. The flexible Memory-Wire adapts to the size of your head and helps provide a perfect seal for a better listening experience. &lt;2 hour charge time. LIFETIME SWEATPROOF WARRANTY - Don’t be afraid to push your workouts to the max! We’ll replace your Earbuds if they ever get damaged by sweat! No questions asked.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Hi-Definition 6.4mm Dynamic Driver. Connectivity Technology : Wired Durable and stylish stainless steel construction Hi-Res Audio</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Planar Drivers: a flat membrane that is surrounded by magnets. When current is delivered, the membrane produces sound that has lower distortion, better bass, and pinpoint imaging that is usually not found in your typical headphone driver. The size of the driver in the Monolith M565 is 66mm. Open Back Design: Instead of an "inside your head" isolated experience that traditional closed-back headphones provide, open-back headphones provide a holographic listening experience. Removable Earpads: The Monolith M565 has been engineered to be comfortable for extended listening sessions. Large, comfy earpads made of faux leather and a padded headband are designed to keep you comfortable as you listen. However, the supplied earpads are easily removable – pad roll away!</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) With a proprietary design created for athletes, you’ll enjoy the most comfortable and secure fit. Just twist and lock – it’s that easy. They’re guaranteed never to hurt or fall out. Designed with rugged and premium materials, these headphones are extensively tested by professional athletes – built to withstand the most intense workouts. And they’re IPX5 certified with advanced nano coating to keep sweat out. Exclusive JBL premium dynamic speaker drivers create big sound, and JBL Pure Bass performance keeps you energized. Easy-to-connect Bluetooth technology delivers cable-free, zero-distraction performance. Create your personalized, optimal fit with three sizes of eartips and five sizes of fit adapters. Power a week’s worth of workouts with up to eight hours of training per charge. 1 Year Local (Singapore) Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Wired in ear Headphones : Earbuds perfect for exercising; With three sets of earpads (S/M/L), Headphones stay in your ears while keeping surrounding noise out Microphone &amp; call controller with an integrated microphone and call remote, these headphones are compatible with Apple (iphone/ iPod/ iPad), Android and Blackberry Audio and Smartphone devices Ergofit Earbud Design : Ergonomic Design for perfect fit; Black ultra soft ergofit in ear earbud Headphones conform instantly to uour ears (S/M/L earpads Included for a perfect fit) In ear stereo Audio : Tonally balanced audio with crisp highs and deep low notes, plus wider frequency response and lively sound quality for recorded audio Extended Headphone cord long, 3. 6 Ft Headphone cord threads comfortably through clothing and bags making it easy to connect</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Soft body for comfy fit Vibrant, eye-catching colors Quality sound</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Philips Flite Aerolite headphones Fold compact or flat Ultra slim. Clear sound 1 Year International Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) BLUETOOTH APTX 30+ HOURS OF PLAYTIME ON A SINGLE CHARGE Major III Bluetooth features 40 mm dynamic drivers that are custom tuned for enhanced bass, smooth midst and clear highs. CONTROL KNOB: The multidirectional knob lets you control your music and phone functionality with ease. 40mm Dynamic Driver, 97 dB SPL 1 Year Local (Singapore) Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Elevate Your Audio: 8mm drivers fed via Bluetooth 4.1 pump out rich, skip-free audio. Complete Comfort: Lightweight neckband and compact, multi-size accessories are designed to provide lasting comfort and hold. Earbuds magnetically clip together for easy, tangle-free use. Superior Playtime: Listen to audio for up to 10 hours, or talk for 12 from a single charge. In a rush? Add up to an hour of music from a 10 minute charge. Water Resistant Hydrophobic nano coating and IPX5 rating ensure effortless performance in practically any environment Whats In the Box SoundBuds Lite S/M/L Ear Tips S/M/L Earwigs Micro USB Cable 2 Cable Clips Travel Pouch Welcome Guide 52 Week Local (Singapore) Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Up to 15-hour battery life for long lasting music enjoyment Quick charge (10 minutes for 60 minutes of playback) In-line remote for music control, voice assistant and hands-free calling Magnetic earbuds for tangle-free carrying and storage Comfortable and lightweight behind-the-neck design</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Soft ear cushion Fully collapsible construction Microphone and remote for use with cell phones using the 3.5mm Unprotected two-way standard plug Impedance: 64 The built-in microphone allows you to have conversations or record voice memos through your device 1 Year Local (Singapore) Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Compact, high-quality soundHigh sensitivity 9mm driver units deliver clear highs and powerful lows from a compact design. Inline remote and mic for hands-free callsTake hands-free calls and switch tracks without ever having to touch your smartphone, thanks to the inline remote and mic. Tangle-free cableThe cable has a serrated design to resist snags and tangles, keeping your headphones knot-free. 4 sizes of earbudWith a range of 4 earbud sizes, (SS, S, M, and L), you'll be able to customise your fit for comfortable on-the-go listening. 5Hz-24,000Hz</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) DYNAMIC DRIVER - Dual layer composite driver with aerospace grade titanium delivers sizzling highs, present mids, and powerful bass. PERFECTED ERGONOMICS - Oblique angled ear fittings naturally match your ear canals. 3 sets of included ear tip sizes ensure a proper fit for all. They’re more comfortable and less likely to fall out, freeing you to enjoy your music. RETRO MEETS MODERN DESIGN - iPhone matched colors on an aluminum alloy body merges a timeless aesthetic with your current device. TUNED BY A GRAMMY WINNING SOUND ENGINEER - 1MORE collaborated with internationally acclaimed sound engineer Luca Bignardi to perfect the final tuning to deliver a precise representation of your favorite artist’s intended sound. SUPERIOR MEMS MICROPHONE - In-line microphone conveniently located allows you to take calls without cross-talk or background static.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Pure Adaptive Noise Canceling (Pure ANC) blocks out distractions, so you can get closer to your music. With Fast Fuel, 5 minutes of charging gets you 2 hours of playback when battery is low. Up to 40 hours Apple 1 year limited warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) NEW BLUETOOTH VERSION 5.0-Upgraded Bluetooth eye mask features in latest Bluetooth V5.0 technology, sleep headphones mask pairs seamlessly with any Bluetooth phone or portable device, hands-free connectivity including decline/accept phone calls and listen to music wirelessly up to 45 feet. CHARGEABLE BATTERY AND ADJUSTABLE-Built-in 200mAh high-performance battery, Charge via USB Cable. Charge about 2-2.5 hours provide more than 8 hours playing time. No "battery low" to wake you up. You can adjust the position of the speakers to near ears to hear more clearly. Connect the Bluetooth, comfortable sleep anywhere -air travel, relaxation, meditation, insomnia. INCREDIBLY SOFT AND SMOOTH MATERIAL, WASHABLE-Music Bluetooth sleep headphones shade is made of ultra soft cotton, provide you a soft and comfortable feeling. Unique design of this Bluetooth headphone mask has no risk of pressure on eyes. Fabric liner separated from stitching is not defective, it is the place to take out the Bluetooth module, wash the sleep eye mask. Adjustable Velcro, fit for both adults and kids, also a great gift idea. RELAX AT ANY OCCASION-Ultra-thin, Soft Foam-covered Headphones make you sleep better! You won‘t feel any hard panel and headphones, all you feel is softy and ease! Noise-canceling will do good for chat (especially in public transit), noisy neighbors, snoring mate, etc. Not only use for sleeping, but also use for airplane rides, travel way, Yoga, Noontime snooze. Best for sensitive sleepers, music, audio book, chat! NOISE CANCELLING &amp; INNOVATIVE NOSE DESIGN-Wireless eye mask has designed the nose section specially with a soft nose bridge and breathable silk inner eye design, zero-pressure on nose and eyes, can prevent any type of light ,perfect for light sleeper who sleep best in complete darkness, no matter in office，sleep on the plane，rest on the bed, etc , just to meet your various needs!</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [TRUE WIRELESS &amp; BLUETOOTH 5.0] - Adopt professional Bluetooth 5.0 chipset with high resolution decoder built-in and AAC/SBC audio coding technology to deliver extraordinary Hi-fi sound with low latency. [AUTO PAIRING &amp; ON-EAR CONTROL] - Auto power on and enter pairing mode right after out of charging case. User-friendly on-ear button on each side supports play/pause, switching tracks and handling phone calls easily. [MONAURAL &amp; BINAURAL CALLS] - Built-in microphones in both earbuds for you to enjoy hands-free calls and voice assistant with single or both earbuds as prefer. Voice comes from both earbuds in stereo mode. [MORE &amp; LONGER ENJOYMENT] - 3.5-4 hours working time per charge for the earbuds, 9-10 times full charge by the charging case. SoundPEATS TrueFree Plus wireless earbuds bring extended playtime and enjoyment. [COMFORT FIT &amp; WIDE COMPATIBILITY] - Different sized ear tips and in-canel cable-free design provide comfortable fit. Support Bluetooth-enabled devices with version 4.0 and above. PS: SoundPEATS provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【Wide Compatibility】This USB C earphones works with Google Pixel 2/2XL/3/3XL/4/4XL, Huawei P20/Pro, Essential Phone PH-one, HTC U11 U12, Samsung Note 10 &amp; 10+, Moto Z series, More Type C Devices 【Microphone + Volume Control】Hands-free in-line microphone and remote is more convenient with the pleasant-to-use control button, such as play/pause music, control volume, and answer/end the phone calls 【Passive Noise Canceling】Digital noise cancellation technology to hear your music without interruption. Reduces noise sound and deliver brilliant sound, enjoy your favorite music all day and all night 【Modern + Ergonomic in-Ear】Comfortable and ergonomic design headphone fit the ear perfectly without any pain even wearing all day long. Presents a distinctive sound quality that differentiates from other normal earphones 【Guaranree】Free worry 18-month warranty; If you have any problems within the warranty, do not need to return it. Please email us freely, we will resend a new one or make a full refund to you within 12 hours</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) HYPER-HD aptX SOUND QUALITY - Our best wireless workout headphones with Bluetooth 5.0 and Advanced Sound 2.0 Technology and aptX high-performance neodymium-backed 40mm speakers. That means you get the unreal audio quality that will boost up your energy. ULTRA PREMIUM MATERIALS | SUPER SOFT EAR PADS - The Z2 sports headphones are designed to make gym heads turn! They’re super-comfortable, made of high-end, ultra-soft materials that mould to the natural shape of your ear for a custom fit. That means they won’t slip around, however hard you run, jump or kick! T-Quiet ACTIVE NOISE-CANCELLING - When you’re in the zone, the last thing you want is distractions. That’s why the TREBLAB Z2 wireless over the ear headphones come with T-Quiet active noise-canceling technology. They block out the irritating external sounds so you can focus on your music and your workout. MADE TOUGH FOR SPORTS &amp; KEEPS GOING FOR A LOOONG 35 HOURS - With an incredible 35 HOURS of playtime, from PlayXTend battery, you’ll keep hearing your favourite music, workout after work-out. These top 10 Bluetooth headphones with mic offer the best Bluetooth connection, so you won’t be left in silence. For California Residents Only: Warning - Cancer and Reproductive Harm – P65Warnings ca gov.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Semi-closed acoustic architecture with custom designed Φ8.6mm high power driver Sturdy aluminium housing provides a rigid metal cabinet to eliminate unwanted vibrations Ergonomically shaped silicone caps in 3 sizes to ensure comfortable ﬁt Twisted tangle-free cable with high quality in-line control 1 Year Local (Singapore) Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) TRUE HD HIGH FIDELITY SOUND Featuring latest Bluetooth 4.1 CSR technology and state of the art acoustic components that produce incredible sound quality with deep bass and crystal clear treble. COMFORTABLE AND SECURE FIT WITH IPX-4 WATERPROOF RATING - ActivBuds feature Ergonomically designed flexible ear hooks with gel flex silicone earbuds to ensure your headphones stay comfortably firm in place to guarantee fatigue free ears and tangle free comfort. LONGEST BATTERY LIFE - The new and improved lithium polymer battery allows seamless enjoyment of music for up to 8 hours and 240 hours stand-by with a quick charge of only 1.5 hours. BLUETOOTH V4.1 WIRELESS TECHNOLOGY WITH CVC 6.0 NOISE SUPPRESSION TECHNOLOGY - Connect seamlessly with all Bluetooth enabled devices up to 30 feet away. With Noise Suppression technology focus on your favorite music and answer calls without skips or missed words. Customizable Ear Tips for the perfect everyday fit and additional Ear Wings to keep your headphones in place during tough workouts.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bluetooth 5.0: Bluetooth 5.0,exclusive chip offers fast speeds, stable connectivity (operation range up to 10 meters/33 ft.),enhanced true wireless stereo tech to deliver deep bass and crystal crisp treble,noise cancellation reduces ambient noise and echo, enable clear sound no matter in calls or music. 48H Long Lasting Playtime: Bluetooth earbuds can last for over 6 hours talking time and music playtime on a single charge.While the portable 850mAh charging case power can last up to 48 hours (recharge up to 8 times full charge for the Bluetooth earphones). Easy paring and control: One step paring. first time only pull two earbuds out of magnetic charging case and "WA10" automatically appear on your phone, then connect. You can use an earphone alone or two at the same time. One button control to achieve multiple functions- answer/reject calls, skip/play/pause songs, volume+/-, Siri assistant. Comfortable Fit: Extremely light weight,comfortable and secure in-ear earbuds,made by soft material and using the worlds leading ergonomic "ear fit" design to protect ears,come with 3 sets of silicone caps (size small,mid,large),design for various ear size to ensure comfortable wearing.They fit securely,not easy to fall from ears without recognition ensure you to exercise smoothly. True Wireless Sound for All: The tws also features an inbuilt microphone.Compatible with all bluetooth devices like iOS 7+ and android 4.1+, smart watches, apple watch, tablets, laptops and computers.The bluetooth earbuds comes with 2 easy-pair earbuds, charging case, USB cable, instructions and 3 silicone ear tips.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Tailor sized for kids Maximum volume limited perfect, comfy fit always</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 1-button remote with microphone Tangle-free flat cableComfort-fit ergonomics earbuds Premium metalized ear-housing 1 Year Local (Singapore) Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ♪♫【Individual Power Display of Earbuds and Case】 We designed a digital LED display panel in the charging case. When you put the earbuds in the case, it will display the remaining power of the L / R earphones and the charging case, you could know when is the best charging time. ♪♫【Portable Power Bank, Up to 90 Hours Playtime】 U-ROK X11 wireless earbuds can play for 6-7 hours on a single charge, while the built-in 4000mAh rechargeable battery charging box could provide an additional 90+ hours playback time. So, you could go out and have fun all day without worrying about the battery shortage. You can also use the charging case to charge your smartphone when it is out of power. ♪♫【Latest Bluetooth 5.0 Technology, Extremely Simple to Use】 The Bluetooth 5.0 technology provides more stable connections and faster data transfer speeds, which keeps the earphones free of delays and freezes. Moreover, once you take the earbuds out of the charging case, they will turn on and connect with your device automatically; when you put them in the charging case, they will automatically turn off and charing until fully charged. ♪♫【Ergonomic Designed】 Ergonomically designed to fit comfortably in your ears for the active lifestyle, and the stereo headphones also come with 3 sizes of couples silicone earplugs (S, M, L) for you to choose. Make sure you enjoy the sports for a long time without worrying that the earbuds will fall. ♪♫【IPX7 Waterproof Earbuds】 The true wireless earbuds provided IPX7 waterproof function which can easily against damage from sweat or rain. That means our earphones can adapt to more application scenarios, perfect for the gym, exercising, riding, climbing and etc, even in the rain and snow. Note: The waterproof effect may be invalid under high-temperature and high-pressure environment, so we don't suggest you take the earbuds to Hot Shower, Sauna, and Diving.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [The Chip] - Upgraded Bluetooth 5.0 QCC3034 chip supports APTX-HD codec to enhance sound and transmission. [The Playtime] - Upgraded battery and low consumption chip brings longer lasting up to 14 hours. [The Sound] - Equipped with 10mm driver to stream richer sound, especially powerful bass and mellifluous mids. [The Comfort] - Exclusive C-shape ear fins powered by Freebit provide more secure comfort fit for long time wearing. [The Power] - Engineered with IPX6 waterproof level for sports and music. Tips: Please do not use quick charger to charge the headphones. SoundPEATS provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [WIRELESS BLUETOOTH] Experience improved sound quality, greater range and extended battery life with Bluetooth 4.1 [EVERPLAY-X] EverPlay-X technology allows you to continue listening to your music even if the battery runs out or your audio device is not Bluetooth compatible. (Using supplied microphone cable) [30 HOURS OF NON-STOP PLAY] Optimized power management allows you enjoying music play more than a day non-stop. [WIRELESS MUSIC &amp; CALLS] Complete remote controls allow you to take a charge of your songs without having to find your device. (PLAY, STOP, PAUSE, FF, REW, VOL+, VOL-) [FOLDABLE &amp; CONVENIENT DESIGN Soft ear-pad and padded head band help you falling in music, and folding compact design provide to convenient.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Wired in-ear headphones – earbuds perfect for exercising. With three sets of earpads (S/M/L), headphones stay in your ears while keeping surrounding noise out Microphone &amp; Call controller - with an integrated microphone and call remote, these headphones are compatible with Apple (iPhone/ iPod/ iPad), Android and Blackberry Audio and smartphone devices Ergo fit earbud design - ergonomic design for perfect fit. Black ultra-soft Ergo Fit in-ear earbud headphones conform Instantly to your ears (S/M/L earpads included for a perfect fit) In-ear stereo Audio - tonally balanced Audio with crisp highs and Deep low notes, plus wider frequency response and lively sound quality for recorded Audio Extended headphone cord - long, 3. 6-Ft headphone cord threads comfortably through clothing and bags making it easy to connect</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Item Name: Bluetooth Earphones ，Bluetooth Protocol: 5.0 Transmission Distance: 10 meters ，Charging Time: 1-2 hours Best compatibility with quickly connection, low power consumption. Mini wireless earphones, not easy to fall from the ear, wear with lasting comfort. Features: Voice Control, Call Function, Support Music, Multi-point Connection, Key Control</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Feel the power of extra bass Wireless Audio with Bluetooth technology Up to 15 hours of battery life with Quick charging (10min charge = 60min of playback) 12mm driver units for crisp, clear sound Flexible and lightweight cables Hands-free calling and voice assistant compatible Magnetic buds for easy carrying In the box: USB Type-C</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) WIRED IN EAR HEADPHONES   Perfect for exercising; With three sets of earpads (S/M/L), headphones stay in your ears while keeping surrounding noise out ERGOFIT DESIGN FOR PERFECT FIT  Ultra soft ErgoFit in ear earbud headphones conform instantly to your ears (S/M/L earpads included for a perfect fit) SMARTPHONE COMPATIBLE  Panasonic in ear headphones with integrated microphone and remote are compatible with Apple (iPhone / iPod / iPad), Android and Blackberry Audio devices IN EAR STEREO AUDIO   Tonally balanced audio with crisp highs and deep low notes, plus wider frequency response and lively sound quality for recorded audio EXTENDED HEADPHONE CORD   Long, 3.6 ft cord threads comfortably through clothing and bags making it easy to connect</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Not only compatible with Android devices such as Xiaomi, Samsung, but also support IOS devices such as iPhone Macbook IPX4 waterproof, sweat resistant and durable Support volume control and song switchSeperate the microphone and the volume control key 1 Year Local (Singapore) Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Custom machined stainless steel acoustic pipes for more accurate sound High quality dynamic speaker system and enhanced attenuation of ambient noise Personalised fit directly into the ear canals Available in two variants with a three button in-line remote with an integrated mic optimised for either Apple iOS or Samsung Galaxy smart devices Convenient high carrying case included 2 Years International Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Model X uses hi-fidelity custom-tuned graphene dynamic driver Sub-bass and lower treble has been elevated to provide dynamic full-range response that makes the Model X Touch gesture control allows seamless operation of Model X and provide fluid and unobstructed user-experience</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【Volume Control &amp; Humane Design】- There are two small volume adjustment buttons on the side of the cordless earpiece that make it easy to adjust the volume of music or calls even while driving. The ergonomic shape makes this Bluetooth earphone fit to the auricle and ear canal perfectly. And the adjustable 360°rotated ear hook makes it suitable for left or right ears. 【Upgraded Battery &amp; HI-FI Sound】- The newly upgraded 100mAh battery provides longer playing/ talking times. You can enjoy in-ear concerts or business negotiations for up to 8 hours! Besides, the built-in AIROHA chip and HD Microphone allow you to enjoy an unparalleled Hi-Fi hearing and talking feast! 【Compact Lightweight &amp; 15M Connection】This hands-free earbud with Mic is small and portable, that is perfect for driving, traveling, business trips, business negotiations, video conferencing, etc. It weighs only 0.3oz/ 8.5g, which relieves pressure on the ears and ensures long-term comfort.The connection distance is up to 15 meters which ensures true freedom and creates a unique sense of technology. 【High Compatibility &amp; Bluetooth V5.0】- Kendir's driving headset is compatible with iPhone, Android, most of the smartphones, tablets, Windows systems, etc. With advanced Bluetooth V5.0, this wireless headset has a higher transmission speed and work efficiency than other products, as well as consuming less power during operation. 【Carry Case &amp; 1-Year Warranty】- GET YOUR FREEBIES! It comes with a carry case for easy storing, which can protect the earbud better and is a decent gift idea on Christmas, Birthday, Father’s Day, etc. We provide a 45-days money back, 1-year warranty, and 24-hour online after-sale service. ADD TO CART RIGHT NOW to get your music and business companion!</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) TWS Plus: With Role Switching Techniques, the master earbud can be switched freely on right or left earbud without any extra pairing step or interrupt. Auto turn on and pair to your phone to play music smoothly. High Fidelity Sound: 6mm PEEK + PU high fidelity dynamic driver offers a truly natural, authentic high fidelity sound clearer than CD quality. IPX7 Waterproof: High-level water-resistant makes the wireless earbuds resistant to sweat, water and rain. Perfect for running, jogging, hiking, yoga, exercises, gym, fitness, travelling and etc. Charge on-the-go: Last for over 5 hours’ playtime from a single charge with latest lower power consumption chip. The compact charging case provides extra 15 hours playtime Attention: SunvalleyTek-SG is the only authorised seller of Taotronics product in Singapore. Bluetooth 5. 0 Version: Bluetooth 5. 0 technology owns fast and stable transmission within up to 15m/50ft without signal loss or music dropouts</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) PLEASE NOTE: This USB type-c earphones do not support Google Pixel 2/2xl, HTC U11, Letv, Macbook Pro 2018 Tested and inspected to fit Motorola Moto Z, Motorola Moto Z Droid, Motorola Moto Z Force Droid, Motorola Moto Z Play, Motorola Moto Z Play Droid, Huawei P20, Huawei P20 Pro, Huawei Mate 10, Huawei Mate 10 Pro and Xiaomi Mi 6, Mix 2, Note 3 USB C cell phone. Crystal clear audio performance with dynamic stereo sound. Its strong deep bass delivers a fantastic listening experience while running or jogging. Hands-free in-line microphone and remote allows you to answer a call while driving, music streaming or on the go. Soft, snug in-ear earbuds conform instantly to your ears, packaging includes S/M/L size earpads for your a perfect fit and a waterproof black storage box.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) WHAT YOU NEED: Are you tired of always having to detangle those impractical earphones every time you take them out of the pocket? Would you like to enjoy your favorite hits without compromising on sound quality? The i-JAZZ wireless earphones are the perfect solution! HD STEREO SOUND: These Bluetooth earbuds come with state-of-the-art technology, providing an outstanding HD stereo sound quality for an enhanced experience. The noise reduction feature will allow you to enjoy your music and improves call quality as well! LARGE AUTONOMY: This wireless Bluetooth headset works with latest Bluetooth 4.1 version and a powerful 260mAh rechargeable battery, providing up to 19 hours of talking or music with a single charge. The large autonomy is backed up by a fast charging time of only 150 minutes! COMFORTABLE DESIGN: With a flexible neckband which is extremely lightweight, these workout headphones are comfortable even for long wearing time! The compact design and silicone material is 100% safe, while the 10m working range makes sure you enjoy your freedom! MULTIPURPOSE: Whether you're a veteran of the active lifestyle or you've recently decided to embrace the healthy benefits of a proper workout, the i-JAZZ hands-free microphone earbuds are a must! Use them for gym, jogging, sports, training and you'll be able to enjoy your music or calls in a comfortable manner!</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Premium design with hybrid canal type and new wingtip for secure Disturbance-free enjoyment Dynamic performance Pure and powerful sound Comfortable fit in-ear</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Lightweight, sweat-proof and equipped with adjustable ear hooks Incredible sound and barely-there comfort Sound isolation</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Big bouncing bass: 12 mm Composite drivers intensify your music into a workout-fueling, bass-driven soundtrack. Sweat proof: push your workout to the limit with zero hesitation thanks to IPX7 water resistance and sweat guard technology. Engineered for comfort: secure-fit, ergonomic design, and controlled entirely from the right earbud; with no rubbing or pulling from an in-line remote. Huge Stamina: get 10 hours of playtime. That's over a week of gym time from a single charge. Hands-free calls: built-in microphone for clear call quality.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Comfortable Sports Use- Quick Fit Adjuster, Adjustable Hanger Clips with Soft Elastomer Ultra-light Design- Lightweight Ear Clips High-Quality Sound- Powerful 14.3mm Neodymium Drivers with Bass Boost Design</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Wired Headphone Tangle - Free Snap the earphones together into a band if not in use</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Button-Free On/Off: Simply separate the magnetic earbuds to power on and join them together to power off. Manage audio &amp; calls via the in-line control panel and built-in mic Wireless Sound with Comfort: Enjoy rich and clear sound with our Bluetooth 5 wireless in-ear headphones when you're on the go. Get personalized comfort from two pairs of ear-tips with ear-hooks Crafted for Sports: Sweat and rain will never take your music away during workouts with our IPX6-certified water-resistant headphones 8-Hour Playback: Experience crystal-clear sound for up to 8 hours (about 120 songs) on one charge Package Contents: AUKEY Key Series EP-B60 Magnetic Bluetooth Earbuds, USB-A to C cable, two pairs of ear tips with ear-hooks (small and medium sizes), carrying pouch, user manual, quick-start guide, 45-day money back guarantee and 24-month product replacement warranty card</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Ultra small, big bass Philips MyJam Vibes in-ear Comfort and vacuum metalized coating Compact design with vacuum metalized protection</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Balanced armature driver offers high-quality, rich bass sound for various music genres Lightweight construction provides long-wearing comfort New earphone shape designed to fit various ear shapes for extra comfort Ultra-flexible elastomer-sheathed cable to minimise cord tangling 1 Year Local (Singapore) Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bone conduction technology delivers music through your cheekbones, ensuring ears remain completely open to hear ambient sounds Titanium wraparound headband is lightweight and flexible for durability and portability OpenFit design ensures maximum situational awareness and comfort during long-term wear 2 Years International Warranty Bone conduction technology delivers music through your cheekbones, ensuring ears remain completely open to hear ambient sounds Titanium wraparound headband is lightweight and flexible for durability and portability OpenFit design ensures maximum situational awareness and comfort during long-term wearPremiumPitch guarantees a premium audio experience, including wide dynamic range and rich bassWireless Bluetooth 4.1 connectivity and convenient multipoint pairingLeakSlayer technology significantly reduces natural sound leakageIP55 certified to repel sweat, dust and moisture, from workouts to wicked weatherEnjoy six hours of continuous music  calls on a single chargeEQ presets boost bass and reduce vibration on the goDual noise canceling microphones exclude surrounding noise, effectively enhancing speechAudrey Says voice prompts guide users through power, pair, play and talkShow More</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Soul Signature Sound Quality: Designed to deliver the SOUL’s signature sound of balanced deep low bass without sacrificing the clarity of the mids and highs. Compact, sleek and securely fits in your ears. Auto Pairing Function Portable Charging Box Bluetooth 5.0</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [DYNAMIC &amp; AGGRESSIVE DESIGN] Designed with a zet engine motif, the metallic colored outlooks deliver classy images according to it's bass boosted and powerful performance characteristics. [EXTREME BASS, CLEAR SOUND] Phiaton's newly upgraded 12mm dynamic driver unit features and high frequency clarity with rich bass. Also, it is designed light enough to use for long listening sessions with comfort. [MAXIMUM COMFORT] Newly developed oval shaped nozzle helps better fit for all ear shapes with long hours of comfort. Also, 3 sizes of eartips are provided for more secure fits with less intrusion of ambient background noise. [MUSIC &amp; CALLS] C465S earphones' in-line remote is compatible with iOS and Android devices and supports controls for listening music &amp; calls with volume controls [TANGLE-FREE CABLE] Flat cord prevents tangling in your pocket or bag.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Magic magnet attraction technology The transmission distance is up to 10 m Connects two phones simultaneously</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) SOUL SIGNATURE QUALITY SOUND - Designed with Bluetooth 5. 0 technology and AAC Codec, ST-XS2 is engineered to deliver the SOUL’s stunning signature sound continuously up to 5-hour, with only one single charge. AUTO PAIRING FUNCTION - Simply take out ST-XS2 from the charging box and connect with your smartphone in just a sec Compact, sleek and securely fits in your ears. Recharge your ST-XS2 up to 4 times and keep moving up to 25-hour on-the-go WEATHERPROOF FUNCTION - Adhere to IPX7 protection standard, ST-XS2 is designed for the added protection from exposure to sweat and rain. 1 Year Premium</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Three drivers- These headphones have two balanced armatures and a separate dynamic driver. Together they deliver an extremely accurate listening experience with unsurpassed dynamic power and clarity from deep bass to sizzling highs. Tuned By A Grammy Award Winning Sound Engineer- 1MORE collaborated with internationally acclaimed producer, mixer, and sound Engineer Luca Bernard to perfect the final Tuning to deliver a precise representation of your favorite artist's intended sound. Comfortable ergonomic design- the OBLIQUE angled ear fittings naturally match your ear canals. 9 sets of included ear tip sizes ensure a proper fit for all. They're more comfortable and less likely to fall out, freeing you to enjoy your music. Intelligent control technology- in-line remote control is conveniently located allowing you to effortlessly control volume, select songs, and take calls. Superior mems Microphone has independently set ground wires to eliminate cross-talk and background static. Contents - Triple Driver In-Ear headphones, 6 sets of silicone ear tips, 3 sets of foam ear tips, magnetic clasping traveling case, attractive storage case, quality dual prong airline adapter, matching shirt clip.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Storage Box with Charging Function 3D Stereo Super Bass Sound Single / Binaural Mode Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) SOUL SIGNATURE QUALITY SOUND - Designed with Bluetooth 5. 0 technology and AAC Codec AUTO PAIRING FUNCTION - Simply take out ST-XX from the charging box and connect with your smartphone in just a sec IPX5 WEATHERPROOFING - IPX5 Weatherproofing with Nano-coating design to give you added protection from sweat PORTABLE CHARGING BOX - Keeps you moving up to 20-hours on-the-go AUDIO TRANSPARENT MODE - Transparent audio mode allows you to hear the surrounding sound while you are enjoying your music. 1 Year Premium</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) It is Wireless 5. 5 hours play time, Bluetooth 5, dynamic driver and automatic pairing Compact charging case offers up to 3 additional charges</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Philips Actionfit WirelessFreedom sports Secure fitting, waterproof Wire-free</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bluetooth 4.2 featuring Qualcomm aptX and Qualcomm aptX Low Latency deliver superior sound quality for both music and movies with minimum delay between audio and video. Convenient multi-connection with up to 2 devices simultaneously (phones and computers) with 3-way calling support. 6-hour battery life with 1.5 hour fast USB charging. Personalized fit in the ear canals for excellent attenuation of ambient noise (S, M, L and XL ear adapters included). Two-year warranty when purchased from an authorized Sennheiser dealer. 2 Year International Manufacturer Warranty</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Wireless headphones with Bluetooth and NFC Splash proof headphones for intense workouts in rain or sweat thanks to IPX4 compatibility In-line mic for hands free calling Up to 8 hours of battery life for long listening hours 13. 5 mm Neodymium driver unit for powerful sound</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Wideband CL Dynamic transducer Aerophonic steel construction Noise isolating design Made for amplifiers</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) True wireless Bluetooth 5 Ready to use auto pair 15-M fast charge enables 3-H use aptX/AAC compatible Qualcomm chip stable connections</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bang &amp; Olufsen Signature Sound. Powerful and balanced sound experience Housing crafted from lightweight metal Robust yet ultra-light and perfect for a life on the go Fits your ears with both precision and maximum comfort Functional without batteryIn-line remote and microphone</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 24 hours of combined playback Smart charging case Hands-free callsCall mode Easy controlsComfort Stay Secure FitSplash proof</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Critically acclaimed sonic performance Rare earth magnets and copper-clad aluminum wire voice coils Detachable cable (3 cables included) Exceptional clarity, with deep, accurate bass response 1 Year Local (Singapore) Manufacturer Warranty Critically acclaimed sonic performance praised by top audio engineers and pro audio reviewers Proprietary 45 mm large-aperture drivers with rare earth magnets and copper-clad aluminum wire voice coils Exceptional clarity throughout an extended frequency range, with deep, accurate bass response</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) No distractions with Digital Noise CancellingWhen you need that special playlist to take your workout to the next level, noise cancelling blocks out distractions – like the sounds of the gym or the street. So it's just you and the beat. Stay aware with Ambient Sound ModeAmbient Sound Mode keeps you in the moment while you're moving. Mixing the music you love with the sounds of your environment, enjoy your favourite tracks and still hear your workout buddy or stay aware when running outside. Punchier basslines with EXTRA BASSBoost your beats – and your performance. EXTRA BASS delivers powerful, punchy low-end sound, giving you the drive to keep going. Safe, secure and all the power you needFully charged, the headphones give you up to three hours of music playback. While the compact charging case not only keep your headphones secure, but holds a further two full three hour charges letting you power up on the go. That's up to 9 hours of music playback, so you can keep listening all day.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Be available for every call. Enjoy superior wireless connectivity with a range up to 490 feet, and all day battery life. Crystal-clear calls, even in the busiest office. Advanced noise-cancelling microphone and enhanced speakers deliver crystal-clear calls even in noisy offices. Stay focused on the Caller. Overcome interruptions with an integrated busy light that acts as a do-not-disturb sign for colleagues. Take calls from up to two devices. Increase your availability for customer calls. Can connect to desk phone and softphone. Meets Skype for business open office requirements.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Features a graphene driver for enhanced sound clarity Automatic pairing between earbuds and device Features a microphone on both earbuds Features a single, multipurpose button on each earbud to control music/phone calls Total 35h of playtime, 7h in a single charge</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) wireless sport headset multi-function button waterproof portable earphone</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) For MOMENTUM and MOMENTUM On-Ear owners or customers (cable is also compatible with the next generation Momentum family products) 3-button in-line remote with an integrated mic optimized for Android and Windows smartphones and tablets Cable length: 1.4 m Jack plug: 3.5mm low-profile angled plug</t>
+    <t>Keep your phone in your pocket and your head up to the world with easy access to voice control services for music, navigation, weather, and more. Confidently take a call or speak to your voice assistant in any environment, with an unrivalled adaptive four-microphone system that isolates your voice from surrounding noise. Personalize your environment with 11 levels of noise cancelling — control distractions or let ambient sound in.</t>
+  </si>
+  <si>
+    <t>Noise cancelling made for travel with One Push Artificial Intelligence Noise Cancellation (AINC) analyses background sound and adjusts it for optimal performance on aeroplanes and other noisy environments. Just press and hold the NC button on your headphones to activate it. NFC One-touch for instant connectivity Near Field Communication (NFC) technology makes complex set-up sequences a thing of the past. Simply touch selected NFC-enabled devices to the on-body N-mark for a quick, seamless connection, then start streaming content via Bluetooth connection. No NFC the no problem, You can still manually connect using your device’s settings menu. Listen all day, charge up quickly Keep your music playing all day. A built-in Li-ion battery delivers up to 35 hours of power (depending on your music settings) and is rechargeable via USB. Quick Charging gives 60 mins of play back from 10 minutes of charge.</t>
+  </si>
+  <si>
+    <t>Eliminate noisy distractions and focus on what matters most with renowned noise cancellation. Connect to your devices wirelessly with Bluetooth and NFC pairing, with voice prompts for hassle-free pairing. Keep in touch, get answers, and manage your day using just your voice with one button access to the voice assistant of your choice. Now enabled with Bose AR, a first-of-its-kind audio augmented reality platform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Active Noise Cancelling Technology - when you need to drive into your thinking and don't want to be disturbed by other one Try wearing Bluetooth headphones over the ear (even if you don't have any music playing).  UPERIOR SOUND QUALITY - iREIZTEC Bluetooth headphones World-class sound makes bass richer and more pronounced.The mid and high ranges are also clear and balanced.Even you turn to the high volume,the distortion is minimal.Free to enjoy the superb high fidelity sound with thumping bass,prominent mids and sparkling highs. COMFORTABLE OVER EAR HEADPHONES - The professional protein earpad and 90° swiveling earcups. More durability and comfort, Enjoy high-quality, Long-listen comfort. Skin texture, lightweight comfortable around-ear fit you can wear all day long. Gentle Reminder: please take off the headphone every 2-3 hrs to get your ears relax, in order to get better hearing enjoyment, and keep the head comfortable.  WIRELESS &amp; WIRED HEADPHONES - bluetooth function connects to all your Bluetooth enabled devices with 33ft (10 meters) effective range. AUX port with cable (included) for use in flight or with any 3.5mm jack port devices.  30 hours playtime per charge at Bluetooth mode. A built-in 750mAh battery won't allow your headphones power off, you can enjoy your world without noise for 30 hours' long time. Don't need to worry the power shortage problem on the long travel. 18-month warranty and quick response &amp; friendly customer service. Dedicated customer service team, provide you with quick response and friendly customer service, which will always serve for you and certainly satisfy you.</t>
+  </si>
+  <si>
+    <t>Ideal for iPod, iPhone and iPad Noise cancelling reduces surrounding distractions, letting music stand out. Stay Hear+ tips provide long-lasting comfort plus stability Aware mode lets you hear what’s around you when you need to, at the touch of a button Exclusive TriPort technology and Active EQ help deliver lifelike, digital-quality audio QC20 headphones are specifically designed to work with selected Apple or selected Samsung and Android devices. An inline microphone and one-touch answer/end button allow for seamless switching between your calls and music. Some phones may require you to hold the answer/end button for a few seconds to perform these functions. 1 Year International Manufacturer Warranty Ideal for iPod, iPhone and iPadNoise cancelling reduces surrounding distractions, letting music stand out. Stay Hear+ tips provide long-lasting comfort plus stabilityAware mode lets you hear what's around you when you need to, at the touch of a buttonExclusive TriPort technology and Active EQ help deliver lifelike, digital-quality audioQC20 headphones are specifically designed to work with selected Apple or selected Samsung and Android devices. An inline microphone and one-touch answer/end button allow for seamless switching between your calls and music. Some phones may require you to hold the answer/end button for a few seconds to perform these functions.Show More</t>
+  </si>
+  <si>
+    <t>Neodymium dynamic drivers deliver precise sound Swivel folding design makes travel easy In-line remote and mic for hands-free calls Enfolding closed-back design seals in sound Wide frequency range for clear highs and lows</t>
+  </si>
+  <si>
+    <t>30mm dome drivers for balanced sound 12Hz–22kHz frequency range with microphone for answering of calls. High energy neodymium magnets deliver powerful sound</t>
+  </si>
+  <si>
+    <t>A Personal Oasis of Quiet: Enjoy your music with minimal, or no distraction, when you turn on the active noise cancellation (ANC) switch. Feel the Beat: Expect aggressive bass with balanced mid-levels and bright highs with our dual large-aperture drivers. Long-Lasting Music Playback: With a generous battery life of up to 45 hours, you can enjoy beautiful music longer or plug in the included audio cable when the battery is low. Hassle-Free Clear Calls: Built-in CVC 6.0 noise-cancelling microphone for clearer call quality, even in a loud environment. Adjustable Fit, Maximum Comfort: With 90° swiveling ear cups, super soft protein ear pads, and ergonomic headband, the materials used ensure minimum weight and maximum comfort for long term wear. These headphones are foldable and come with a carrying case.</t>
+  </si>
+  <si>
+    <t>No Wires, No Buttons, No Limits: They are real wireless headphones, letting you get rid of the trouble of the wire forever. The side of each earbud is touch-sensitive and can be tapped or pressed to do all operations, control your music or accept your calls with just a simple touch. An interesting design that can be used as a gyro to give you some fun when you are bored. IPX7 Waterproof: The wireless earphones have top-level waterproof even able to withstand full immersion up to 33 feet for 30 minutes, means there's no need to fear the sweat, rain, dust or snow. Developed by integrating the principle of human ears, the wireless earphones are ergonomic, comfortable, and lightweight to fit securely in your ears. Extra 2 pairs of ear tips with different sizes make them suitable for more people. Confidently wear them for swimming, exercise, running, dancing, etc Longer Enjoyment: Don’t worry about low battery anymore! The stylish charging case with built-in 600mAH battery is light and compact to carry out, it can charge the earbuds 4 times so you don’t feel stranded. One 30-minute single charge for up to 6-7 hours’ playtime, which means you will get up to 16 hours of continuous music playtime, 30 hours call time and 140 hours standby time. Go out without the power shortage and enjoy your music world in your favorite activities throughout the day. Premium Sound Quality: Features an innovative acoustic design and cutting-edge Hi-Fi micro full frequency sound unit, the Bluetooth earbuds deliver an extraordinary Hi-Fi stereo sound effect and ensure zero distortion at any volume, making you feel personally on the scene of concert. With active noise reduction, the phone call will be more clear. Meanwhile, both earbuds are built-in microphones, you could response hands-free calls and access voice assistant with single or both earbuds as prefer. Universal Compatibility: Engineered with industry-leading Bluetooth technology and newest Bluetooth 5.0 chipset, the wireless earbuds provide ultra-stable connection within 33ft (10m), quick pairing and wide compatibility. They instantly connect to your iPhone, iPad, Mac, Android smartphones and tablets, windows cellphones or other Bluetooth enabled devices. Just hold them near your device and start getting lost in your music. We provide professional support to ensure your purchase enjoyment.</t>
+  </si>
+  <si>
+    <t>Lightweight, all-day listening with quality sound Up to 35 hours of battery life 10-minute quick charging  for up to 90 minutes of play Built-in microphone, enabling hands free voice calls Connects to your smartphone voice assistant</t>
+  </si>
+  <si>
+    <t>30mm Ferrite drivers for powerful, balanced sound Padded ear cups for comfortable listening Lightweight, folding design for ultimate music mobility Four-conductor gold plated l-shaped stereo mini</t>
+  </si>
+  <si>
+    <t>Cutting-edge engineering and robust construction 90° swiveling earcups for easy, one-ear monitoring 40 mm drivers Circumaural design contours around the ears 1 Year Local (Singapore) Manufacturer Warranty 40 mm drivers with rare earth magnets and copper-clad aluminum wire voice coils Tuned flat for incredibly accurate sound monitoring across the entire frequency range</t>
+  </si>
+  <si>
+    <t>30mm dome drivers for balanced sound 12Hz–22kHz frequency range Padded earcups for comfortable listening</t>
+  </si>
+  <si>
+    <t>Active Noise Cancellation Technology（ANC). Professional advanced noise cancellation technology,effectively cancel 85% machine noise such as airplane/bus/factory/office noise, etc.(pls kindly note:it's not 100% noise cancellation,but it will quell much background noise.)so you can focus on what are you doing.ANC function works well in both wired and wireless mode.NC25 noise cancelling headphones would be the best model in the same level of price. Sound Quality.High-end 40mm stereo drivers provide immersive Hi-Fi Deep Bass.Noise-rejecting built-in dual-microphones system for Hands-Free call,clear sound and voice pick-up.Advanced bluetooth CSR to make and receive calls with quick and stable Bluetooth connections.Well compatible with iPhone,iPad,Android,Mac,etc. Unique Foldable Lightweight Design.The professional protein ear-pads and 115° swiveling ear-cups with superb LIGHTWEIGHT only 0.4 lb and the durable foldable design for carrying and traveling. Long Hours Playtime.16-hrs music time talking time per charging and 3.5mm stereo audio cable provided.Audio cable can be used when low battery. Ultimate Fit &amp; Comfort - Exclusive Designs of Air Pressure Balance.Multi-level adjustable headband to get the best suitable size for you.To reduce sound wave pressure of active noise reduction,to feel much more comfortable to wear than all other brands.</t>
+  </si>
+  <si>
+    <t>Noise cancelling technology 30mm driver unit Tangle-free 1.2m cord</t>
+  </si>
+  <si>
+    <t>BLUETOOTH APTX. 30+ HOURS OF PLAYTIME ON A SINGLE CHARGE CONTROL KNOB: The multidirectional knob lets you control your music and phone functionality with ease. Custom tuned drivers provide exceptional audio, delivering a near neutral sound that perfectly balances clarity and bass, while the over-ear design offers noise isolation allowing you to focus on the music.</t>
+  </si>
+  <si>
+    <t>Bluetooth 4. 1 technology Noise isolation blocks out background noise Powerful, oversized 40mm drivers provide superb bass-driven sound Up to 10 hours playtime Built-in microphone for hands-free calling</t>
+  </si>
+  <si>
+    <t>Deep, immersive sound, improved EQ-best-in-class performance for wireless headphones Latest Bluetooth technology for easy connectivity and seamless audio/video syncs Advanced microphone system, HD voice for clear calls in windy or noisy environments Up to 15 hours play time with rechargeable lithium-ion battery, ear cushion:9.6 cm H x 7.4 cm W Switch between two Bluetooth devices so you can watch a video while staying connected to your smartphone 1 Year International Manufacturer Warranty Deep, immersive sound, improved eq-best-in-class performance for wireless headphonesLatest Bluetooth technology for easy connectivity and seamless audio/video syncsAdvanced microphone system, HD voice for clear calls in windy or noisy environmentsUp to 15 hours play time with rechargeable lithium-ion battery,Ear cushion:9.6 cm H x 7.4 cm WSwitch between two Bluetooth devices so you can watch a video while staying connected to your smartphoneShow More</t>
+  </si>
+  <si>
+    <t>ALL-DAY LISTENING: Keep your soundtrack going with up to 22 hours of rechargeable battery. Just 10 minutes of charging offers 4 hours of play time, thanks to Rapid Charge technology, with a full battery reacharge in just 1 hour. ALL-DAY COMFORT: The pivoting armatures adjust for a perfect fit, while lightweight design and memory foam ear cushions allow for comfortable all day listening. It also allows them to lay flat on a table or around the neck when not in use. PREMIUM SOUND: For big sound no matter what you listen to, an integrated analog amplifier pushes a pair of high-quality 40mm audio drivers that give your music the rich, dynamic sound it deserves. EASY TO USE: Voice notifications assist in pairing your device. Take calls, change tracks, and adjust volume with the built-in controls and microphone.</t>
+  </si>
+  <si>
+    <t>Slim, foldable design for easy portability New 36 mm drivers reproduce full bass Rotating earpieces (180 degrees) for one-ear DJ-style monitoring Closed-back design minimizes sound leakage</t>
+  </si>
+  <si>
+    <t>Signature JBL sound delivered by powerful 40mm drivers, in a sleek, stylish design. Enjoy an entire day or more of wireless audio without having to plug your headphonesback in to charge. A rapid two-hour charging gets you up to 16 hours of audio playback. Effortlessly switch from music on your portable device to a ring from your phone, for example,so that you never miss a call. Comfort-fi t and stylish fabric headband complement the sleek look of the headphones. In the wired mode, the bundled cable, which is compatible with most smartphones, allows for easy music control and hands-free calls. 1 Year Local (Singapore) Warranty</t>
+  </si>
+  <si>
+    <t>Powerful Sound- 30mm Driver, Neodymium Magnet 3 Way Style for Easy Portability- Inside folding design with Swivel Mechanism Outdoor Style- Lightweight, Simple design for versatile usage and Tangle-free Flat Cable</t>
+  </si>
+  <si>
+    <t>Lightweight headphones in White with comfortable on-ear design that minimizes outside noise L-shaped stereo mini plug for connecting to your phone, MP3 player, computer, or other device with a 3.5 mm jack Frequency range of 12 Hz-22,000 Hz helps ensure great sound reproduction; 101 decibels (dB) and 1000mW maximum input level Ear cups rotate in, allowing headphones to lay flat for compact storage and portability</t>
+  </si>
+  <si>
+    <t>Lightweight, foldable headphones for easy on-the-go storage. Closed-back on-ear headphones reduce unwanted background noise for your comfort. Tough and tangle-free cable for long-lasting listening enjoyment. 2 Year International Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Music On, World Off: Improved Active Noise Cancellation will drown out the noise of the streets or annoying chatter to fully immerse you in your favorite tunes Hi-Fi Sound &amp; Captivating Bass: 40mm large-aperture drivers deliver riveting sound and a thumping bass New Hyper Speed Charge: Just 5 minutes of charging give you 2 hours of full sound; 30 hours playtime on a full charge Bluetooth 5.0: Steady Bluetooth 5.0 connection streams music uninterrupted while the built-in cVc 6.0 microphone ensure crisp, clear calls without ambient noise First Class Comfort: Adjustable headband, 90° rotatable ear cups &amp; pillow-soft protein cushions; fold &amp; store in the carrying case to take anywhere you go</t>
+  </si>
+  <si>
+    <t>Active Noise Cancelling Functionality: Reduces environmental noise and distractions by up to 25dB for an immersive auditory experience that lasts up to 15 hours per charge Increase Awareness with Monitoring Mode: Clearly hear airline or subway announcements and what’s around you with the press of in-ear monitor button when ANC is on Built-In MEMS Noise Cancelling Microphone: Enables for crispy phone calls and undisturbed voice transmission while featuring a reduced footprint Feature-Packed Headphones: Comes with an active noise cancelling slider, monitoring mode button, inline controls for volume, audio track and calls, also features an airplane audio adapter for convenience when flying Sleek, Durable Aluminum Build: Metal alloy black matte finish provides wired earbuds extra durability in addition to an elegant, stealthy look</t>
+  </si>
+  <si>
+    <t>EXCELLENT SOUND: Stereo bass headphone with excellent sound effect, 3.5mm plug compatible with all 3.5mm jack devices. DURABLE &amp; NOT TANGLE: The headphone cord length is 4.9 ft (1.5m), using high quality cloth, so it very durable, and not tangle, suitable for kids, children, not easily damaged. ADJUSTABLE: The adjustable band allows you to get the perfect fit for your head shape. It is not only suitable for your children, but also for many adults. ESAY TO CARRY: Folding design make it convenient to carry, you can easily put it in the suitcase or bag, more easy to carry it. When you take your children out for a trip, take a plane, take a car, this headphone would be a good companion. WARRANTY: 1 Year Hassle Free limited warranty and quick response customer service, if you have any questions when using, feel free to contact us via Amazon email or through the contact information on the instructions.</t>
+  </si>
+  <si>
+    <t>Over-ear headphones with a wide, comfortable headband for prolonged use Folds into a compact configuration for easy storage and carrying 4 ft. cord with line-in mic and remote control ABS + metallic Housing, metal &amp; up-leather</t>
+  </si>
+  <si>
+    <t>[Headphones on, World off] advanced noise reduction technology quells airplane cabin noise, city traffic or a busy office. A valuable noise cancelling headphone in protecting your ears from excessive noise. So you can focus more on what matters. The clean and crisp sound resolution will give you a lively music experience wherever you are. [Led Display] 7 Different color of led display, 24 hours of battery life when charged fully. [Unrivaled comfort, easy-carrying] with its adjustable headband and cloud-soft protein ear pads, The wireless headphones are lightweight and can be worn over long times. The practical folding design makes them a great travel companion. Hi-fi sound &amp; CAPTIVATING bass] 40mm large-aperture drivers deliver riveting sound and a thumping bass. It is designed for stereo headphones. Provide you a more pleasant music time. [Hd mic, hands-free calls] making calls has never been this personal and efficient. This modern design noise cancellation headphones support call efficiently and enhance better audibility and connection. These luxurious headphones have 5. 0 Bluetooth version in you the best hands-free call and exceptional experience. You can enjoy wireless or wired mode depend on your require.</t>
+  </si>
+  <si>
+    <t>30mm Ferrite drivers for powerful, balanced sound Padded earcups for comfortable listening Lightweight, folding design for ultimate music mobility Four-conductor gold plated l-shaped stereo mini Used for smartphones, android, iPad, iPod, iPhone and blackberry</t>
+  </si>
+  <si>
+    <t>With BOOM 3 you can play, pause and skip tracks directly on the speaker. Just push for convenient control of any streaming music. Or simply set up one-touch playlists for Apple Music and Deezer Premium+ via the app. Match the moment with the vibes without reaching for your phone. BOOM 3 is covered in a two-tone fabric that’s as tough as it is hot-damn beautiful. Engineered for applications like motorcycle jackets and fire equipment, this performance textile is built for extremes. And colored two ways by our custom dying process, it comes to life in a range of drool-worthy iridescent themes. BOOM 3 runs on the same battery technology as some of the most crave-worthy electric cars. BOOM 3 will stay powered and pumping tunes for 15 hours* on a single charge.</t>
+  </si>
+  <si>
+    <t>Active noise cancelling (ANC) technology: improved hybrid active noise cancellation significantly reduces low-frequency sound by up to 96%, enjoy the music no matter if you're on a bus, train or plane Rapid charge &amp; go: Enjoy an impressive 2 hours of music with just 5 minutes of charge Customizable Comfort: Super soft protein cushions, adjustable headband, 90° rotation axis for comfy all day wear; safe storage &amp; transportation with the carry case Hassle-free clear calls: dual large-aperture 40 mm drivers deliver deep and powerful bass for an all-round impressive HD sound quality; Hear &amp; Be Heard: Built in cVc 6.0 noise cancelling microphone for clear hands-free calls; Bluetooth for excellent wireless sound</t>
+  </si>
+  <si>
+    <t>Bluetooth aptX gives you exceptional audio quality and the freedom and convenience to move with 30 feet of wireless listening range 30+ hours of wireless playtime on a single charge 40 mm dynamic drivers that are custom tuned for enhanced bass response, smooth midst and crystal clear highs that draw on over 50 years of sound heritage. With the multi-directional control knob you can play, pause, shuffle and adjust the volume of your device, as well as power your headphone on or off. Easy to use phone functionality makes the major III Bluetooth the perfect everyday companion. Wirelessly answer, reject or end a call with the control knob Collapsible design</t>
+  </si>
+  <si>
+    <t>Exceptionally pure audio of sound reality In a wireless design Exclusively designed 40 mm drivers for outstanding sound quality Housing’s dual-layer isolation structure keeps the electric circuitry separate from the acoustic Space for optimal phase and transient response Lightweight, fold-flat design for easy portability Mic and controls built into the ear cup for convenient handling of calls, music playback and volume adjustment</t>
+  </si>
+  <si>
+    <t>Lightweight design that delivers powerful sound Comfort for long time wearing 40mm Drivers for detailed and powerful sound Bluetooth 4.0 and wired feature 35-Hours of in-use battery</t>
+  </si>
+  <si>
+    <t>JBL Pure Bass sound 1-button remote with microphone Tangle-free flat cable Lightweight and foldable design Ask Siri or Google Now</t>
+  </si>
+  <si>
+    <t>Pure Bass Comfort Fit Remote Control for handsfree calls and music 12. 2mm drivers Ergonomic Design</t>
+  </si>
+  <si>
+    <t>Hi-res certified sound The Hi-Res logo is a of exceptional audio quality awarded only to audio devices capable of producing the most accurate representation of what the artist intended Unlike ordinary headphones life Q10 delivers sound up to 40 KHz for the richest listening experience Bassup our exclusive BASSUP technology analyzes your Audio's low frequencies in real-time and instantly increases the Bass Combined with oversized 40mm dynamic drivers bass power is boosted up to 100% a button on the right earcup of the wireless over ear headphones activates BASSUP 60-Hour playtime an advanced Bluetooth chip with reduced power draw combines with anker's world-renowned power technology to offer enormous playtime even for wireless over ear headphones Listen for 2 hours a day for an entire month Fast-charging in a rush? Charge life Q10 wireless over ear headphones for 5 minutes and listen for up to 5 hours With a USB-C charging port for charging convenience and expanded compatibility Foldable design folds down neatly for easy storage and transport Reinforced hinges ensure complete durability and reliability</t>
+  </si>
+  <si>
+    <t>Deep, accurate bass response, extended frequency range, rechargeable 5-Button control, including play/pause/answer/hang-up, equalizer, next track/volume up, previous track/volume down Ear cups fit around ears to help isolate Audio, foldable design for easy carry, noise canceling design Micro SD card plug-in, built in radio receiver, built in mic for hands free calling New: 6 months!! Exchange warranty! If your headset breaks or is damaged for any reason, pranks will provide you with a free replacement!</t>
+  </si>
+  <si>
+    <t>A high-quality audio experience, consistently balanced at any volume, thanks to Bose active EQ Wireless convenience, with easy Bluetooth and NFC pairing aided by voice prompts Exclusive Stay Hear+ tips keep the headphones comfortably in place during workouts Sweat and weather resistance for reliability while exercising Up to 6-hours battery life per charge. 1 Year International Manufacturer Warranty A high-quality audio experience, consistently balanced at any volume, thanks to Bose active EQWireless convenience, with easy Bluetooth and NFC pairing aided by voice promptsExclusive Stay Hear+ tips keep the headphones comfortably in place during workoutsSweat and weather resistance for reliability while exercisingUp to 6 hours battery life per charge. Please refer the User Guide before use.Show More</t>
+  </si>
+  <si>
+    <t>Closed circumaural design featuring Bluetooth wireless technology Stereo sound across the audible due to Sennheiser's 18 ohm high-end transducers NoiseGard hybrid active noise cancellation for isolation and high audio performance Immediate pairing to smart devices using NFC connectivity Attachable audio cable, in case Bluetooth connectivity is not permitted 2 Years International Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Semi-Open Technology Built-in Noise-cancelling Microphone Solid Bass And Clear Highs Foldable, light Weight And Compact Design Adjustable headband and padded ear pads</t>
+  </si>
+  <si>
+    <t>High quality wireless audio with Bluetooth technology Up to 30 hours of battery life and quick charge Hands-free calling for convenience Talk at a touch with Quick Attention Communicate without taking your headphones off. Place your hand on the right housing to turn the volume down for instant conversation.</t>
+  </si>
+  <si>
+    <t>Headband pivots backward at its base, easily converting from over-the-head style to a behind-the-head style.Connectivity Technology: Wired Foam ear cushions Collapses into a compact, protective package that tucks neatly in a briefcase, gym bag or backpack Frequency response: 5Hz-25kHz Imp: 60Ω</t>
+  </si>
+  <si>
+    <t>Wired in ear headphones perfect for exercising; with 3 sets of ear pads (S/M/L), Headphones stay in your ears while keeping surrounding noise out Ergo fit Design for Perfect fit Ultra Soft Ergofit in ear earbud Headphones conform Instantly to Your ears (S/M/L ear pads Included for a Perfect fit) Smartphone compatible Panasonic in ear Headphones with integrated microphone and remote are compatible with Apple (iphone/ iPod/ iPad), Android and Blackberry Audio devices In ear stereo Audio tonally balanced Audio with crisp highs and deep low Notes, plus wider frequency response and lively sound quality for recorded audio Extended Headphone cord long, 3.6 Feet cord threads comfortably through clothing and Bags making it easy to connect</t>
+  </si>
+  <si>
+    <t>Bluetooth 4.0 and aptX technologies deliver exceptional wireless sound quality. Connectivity Technology: Bluetooth Noise Gard active noise cancellation reduces ambient noise levels improving the listening experience. Intuitive ear-cup mounted controls for changing tracks and for making calls via the integrated microphone. Up to 19 hour battery life with Bluetooth and Noise Gard activated and is supplied with connecting cable for battery-free listening.</t>
+  </si>
+  <si>
+    <t>Upgraded Hybrid Active Noise Cancelling Technology (QCC3003+AMS3415) : Improved hybrid noise cancelling technology not only effectively reduces external noise by 96% while travelling on subway, bus, plane or at a loud office, but also reduces the headphones' internal noise, like white noise, improve the sound you listen to; in your world, there's nothing but music. Impressive HD sound with Deep bass: upgraded Bolton active noise cancelling headphones come with 45mm large-aperture drivers for impressive HD sound quality &amp; CAPTIVATING bass, enjoy the music in a more authentic way. Cozy protein ear pads and high-tech aluminum alloy material: Bluetooth headphones equipped with professional high imitation protein ear pads that are non-toxic &amp; skin friendly for first class comfort; high-tech aluminum alloy headband is rotatable, light &amp; durable. Bluetooth 5. 0 and built-in CVC 6. 0 microphone: Bolton wireless headphones with Bluetooth 5. 0 for a more effective and stable connection range (66ft); enjoy hands-free calls with built-in CVC 6. 0 microphone. 30-Hour playtime and fast charge: Bolton over ear headphone's built-in 680mAh battery delivers 30 hours playtime with less than 1 hour of charge, charge for 5 minutes for more than 2 hours use. Bolton provides 60 days free refund &amp; 24 months with 5 Star service, Contact us anytime.</t>
+  </si>
+  <si>
+    <t>Fully weatherproof (IPX7) to keep the music flowing through adverse conditions and unexpected weather. Streamlined design with soft silicone ear gels offer a secure, ultra-comfy fit. Fast-charging, 6-hour battery powers daily runs, training workouts and weekend adventures.</t>
+  </si>
+  <si>
+    <t>[TWS &amp; BLUETOOTH 5.0] - Adopt global professional Realtek chipset, true wireless design with latest Bluetooth 5.0, the SoundPEATS TrueFree wireless earbuds own fast and stable transmission without tangling. [SINGLE &amp; COUPLE] - Support working together to enjoy stereo sound, or using one earbud only for preference or driving safety. Different from the previous version or other brand, the TrueFree wireless earbuds provide HiFi stereo sound at both music and phone calls. [ONE-STEP PAIRING] - Born to offer you every convenience, the earbuds are built with very easy operation. Pull out the earbuds from charging case and hit on Bluetooth list. That's how easily you get the earbuds paired. [EXTENDED PLAYTIME] - Compact and lightweight magnetic charging case for you to carry the earbuds around. 3.5 hours playtime per charge and 15 hours in total, the earbuds strive to keep you company longer. [BIG IN SMALL] - Sound PEATS True Free wireless earbuds fulfill all your fantasy and needs about Bluetooth earphones. As long as your device is with Bluetooth version above 4.0, you can use it with the earbuds. Sound PEATS provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
+  </si>
+  <si>
+    <t>53 mm drivers reproduce clear treble and midrange Bobbin-wound CCAW voice coils for superior power handling Full open-air type headphones produce no sense of pressure on the ears, resulting in a completely natural sensation Lightweight aluminum honeycomb casing with excellent acoustic properties Self-adjusting 3D Wing Support provides a comfortable listening experience; total ear-fit design minimizes pressure</t>
+  </si>
+  <si>
+    <t>Closed-back design and ergonomic earpads reduce background noise and provide immersive detail Integrated 3-button smart remote with in-line microphone for controlling calls and music Handy single-sided tangle free cable Soft, comfortable ear pads for enhanced comfort- you will forget that you are wearing them! Robust foldable headbands for easy storage on the go 2 Years International Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Soft body for comfy fit Vibrant, eye-catching colors Built-in mic and control make handsfree talking</t>
+  </si>
+  <si>
+    <t>Bluetooth wireless - delivers seamless integration with any Bluetooth-enabled device Up to 40 hour battery life - provides hours of untethered listening thanks a rechargeable battery Stereo immersion tech - transforms music and movies in a way that makes you feel like you're there Haptic bass response - creates powerful, adjustable bass your can feel 1 Year International Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Wired Headphone Mic and Remote Tangle - free flat cable</t>
+  </si>
+  <si>
+    <t>Dynamic &amp; HD Stereo Soundwireless earbuds with the built-in high-quality audio chip，achieving the sound of the immersive music scene surround sound. Immerses yourself in an astonishing sound feast. Snug And Comfortable Design Bluetooth headphones wireless are designed to comfortably fit in your ear (in-ear design). Light and comfortable to wear for long hours with no pain. True Wireless Experience You will never worry about wire tangles while on true wireless earbuds as they use no wire connections at all and the connection range of up to 42 ft.As long as your device is within the range, Bluetooth earphones guarantee you quality music better than the wire embedded earphones. One-Step Paring: Probably the most simple tech bluetooth headphones device you've used before. The wireless earphones will automatically turn on and connect to your phone when removed from the charging case. Long battery life:Bluetooth Earbuds can last for over 4-5 hours playtime on a single charge. While on the go the portable charging case power can last up to 20 hours (recharge up to 4-14 times full) charge for the bluetooth earphones).</t>
+  </si>
+  <si>
+    <t>Active noise cancellation technology eliminates environmental noise for immersive gaming experiences anywhere Large, 10mm ASUS essence drivers deliver incredibly strong bass and optimized gaming audio Ambient mode lets the sounds of the outside world in for times when you need to hear what's going on around you An ergonomic design, three sizes of ear gels and fins, and a pair of foam ear tips ensure a secure and comfortable fit USB-C connector provides multiplatform support for mobile phones, PCs, Mac and Nintendo switch</t>
+  </si>
+  <si>
+    <t>Immersive sound - 50mm premium speaker drivers deliver crisp, dynamic audio. Great humanized design - 90° rotating cloth ear cups with bionic protein cushion coat &amp; self-adjusting padding headband. Detachable noise cancellation microphone - Unidirectional Mic filters most environmental noise around you and provide real-in-time talking without any delay. Anti-static tech inside gaming headphones prevent static sound from happening. You can chat to your fellow players with crystal clarity sound and enjoy a smooth team-work play. In-Line Audio Controls - Includes an analog volume control wheel and mic mute switch. Multi-platform compatible - This gaming headset with a 3.5mm audio jack is compatible with PC, PS4 controller, Xbox One controller (Please note: newer models have a headphone jack, older ones require an adapter.), Nintendo Switch (audio), Nintendo New 3DS LL/3DS(audio), Nintendo 3DS LL/3DS(audio).</t>
+  </si>
+  <si>
+    <t>Hi-Res Audio - Best in class audio performance with precision engineered 40mm audio drivers. Active noise cancellation - Active noise cancelling technology removes low-frequencies, so you can enjoy uninterrupted music anywhere. Bluetooth wireless - Bluetooth 5.0 technology connectivity offers up to 22 hours of music and a quick 15-minute charge provides up to 4 hours of music. Ergonomic design - The oval acoustic tube design provides a precision fit for long-term usage. Noise Isolation - Noise isolating fit helps to block out ambient noise for a better listening experience. Call &amp; music control - A built-in mic plus in-line remote to switch songs, adjust the volume and accept or reject calls. Memory foam cushions - Soft memory ear cushions provide great comfort over long listening sessions.Flat folding design - easy to fold and store away, These headphones are your ideal travel companion.Maximum Durability - Every ELIT400NC is rigorously tested by being pulled, bent, stretched, and stressed for more than 150 hours to ensure the highest quality for everyday use.What's in the Box - The ELIT400NC Headset, USB charging cable, optional 3. 5mm audio cable, and information on our 1-year and fast, friendly customer service.Show More</t>
+  </si>
+  <si>
+    <t>wireless Bluetooth 5. 0 waterproof TWS portable charging case</t>
+  </si>
+  <si>
+    <t>Iconic sound - Major III features 40 mm dynamic drivers that are custom tuned for enhanced bass response, smooth midst and crystal clear highs that draw on over 50 years of sound heritage. Major III has a straight fit headband, slimmed down 3D hinges and rebuilt ear cushions. One button remote - control your headphones and phone functionality with the one button remote with microphone located on your detachable 3. 5 mm cord. When listening to music, to share audio with someone else simply have your friend Plug into the free 3. 5 mm socket. Easy to use phone functionality makes the major III the perfect everyday companion. Answer, reject or end a call with the one button remote with microphone. Collapsible design -with its collapsible design, Major III is the ultimate traveling companion. Included_components: major III headphoneUser manual3.5mm cordShow More</t>
+  </si>
+  <si>
+    <t>NO VOLUME BUTTON &amp; METAL MATERIAL DESIGNBluedio V2 Bluetooth Headphones only has a button to turn on/off and without volume button, you can switch the headphone's volume via change your device volume or switch the volume on Bluedio APP. The Bluedio V2 is made of aluminum-titanium alloy with 57 reinforced processes, Unbreakable, durable and drop resistant，giving you an non-ordinaly high-end experience. A HEADSET WITH CINEMATIC EFFECTBluedio V2 adopt PPS 12 exclusive patents acoustics technology, specially built 12 drivers, We especially add professional S/PDIF Optical Transmission in the audio jack to transmit high-quality digital signal; combined with the high audio resolution,together with the carefully designed compound cavity will accurately reproduce every frequency to make the bass deeper and more powerful. Suitable for watching movies, listening to music in DJ scene. MORE POWERFUL BLUEDIO APPAccess the Bluedio APP, you can set the sleep protection function. When you open the Sleep Protection function, when you disconnect your headphone with Bluetooth device up to 10 min(Note:This time is derived from the company's internal testing), your Bluedio V2 will turn off automatically to save power. You can also burn-in headphones, share your experience on the social foruml, etc. VFT- Vector Flow Technology Bluedio V2 Bluetooth headphones has a unique design wherein a ventilated back chamber in each ear cup of the headphone can propel air out and equalize air pressure on both sides of the headphone ear cans. This results in enhanced bass reproduction and an unparalleled sound fidelity. ROTATING CUP DESIGN WITH A PORTABLE BAG &amp; GENTLE LY REMINDThe rotatable headphone cup is stylish for carrying in the provided bag. Gentle Reminder: Depending on your head/ear size/shape, it may be a little tight(feels like“on ear”) for someone to wear which is designed to avoid sound leakage. In case of that and to get both audio and wearing comfort, please take off the headphone every 1-2 hrs to get your ears to relax and protect them from the muggy environment in use.</t>
+  </si>
+  <si>
+    <t>16 hour continuous playback: Boltune wireless headphone with exclusive charging technology, low power consumption, 5 minutes charge can play 2 hours. Ios can up to 16 hours work time, let you enjoy wonderful music when travel and sports. The most advanced Bluetooth 5. 0: Boltune Bluetooth headphone adopted latest generation chip and Bluetooth 5. 0 technology, supports various bluetooth-enabled devices with significant noise isolation and 10mm dynamic drivers. IPX7 waterproof technology: Boltune Earbuds Headphone with IPX7 sweat and water resistance, protects the headphones from heavy rains or sweat fitness even in rainy days. The magnetic wireless earbuds conveniently clasp together, Easy to take. Height quality stereo sound: adopted Bluetooth 5. 0 technology, with SBC Bluetooth profiles to tune AAC, significant noise isolation and 10mm dynamic drivers, ensure stable transmission and don't interruption, delivers HD stereo sound experience. Ergonomic fit and commitment: with 3 pairs of ear tips and 3 pairs of secure-fit ear hooks, give you additional sizes to choose, perfect fit. 18-Month promise, no matter product problem, we will replace new one or refund for you.</t>
+  </si>
+  <si>
+    <t>EXTRA BASS for deep, punchy sound High quality wireless audio with Bluetooth technology Up to 30 hours of battery life and quick charge</t>
+  </si>
+  <si>
+    <t>20 Hour Battery Life: State-of-the-art chip efficiently takes up less energy for seamless listening track after track, without the need to recharge, for up to 20 hours Clear Phone Calls: Utilizes advanced noise cancelling microphone to reduce vocal interference for highly intelligible vocal reproduction Bluetooth 5.0: Stable Bluetooth 5.0 connects seamlessly with various Bluetooth-enabled devices (smartphone, laptop, tablet.) up to a 15M range Superior Sound: Built with a metal ear shell &amp; PU drivers to deliver the purest sound, experience the upper echelons of sound for compatible devices Attention: SunvalleyTek-SG is the only authorised seller of Taotronics product in Singapore. IPX6 Waterproof with Magnetic Design: Nano coating provides protection from sweat &amp; rain; magnets secure the earbuds from sliding off when not in use</t>
+  </si>
+  <si>
+    <t>Ideal for PC, PS4, Xbox one, and more For high-quality sound and voice clarity Easily plug in and play on PC</t>
+  </si>
+  <si>
+    <t>Fashionable Headphones- Timeless Design and Stylish Colours High-quality Sound- 40mm Driver Unit and Neodymium Magnet Comfortable Fit- Optimal Side Pressure &amp; Soft Ear pads</t>
+  </si>
+  <si>
+    <t>Superior Music QualityWireless Earbuds Adopting Bluetooth 5.0 and lossless HD rendering technology that produce incredible sound quality with crystal crisp treble. Enjoy your music everywhere even in a loud environment. 1-Step to Pair &amp; Newest Bluetooth 5.0 Zhsx True Wireless Earbuds adopts smart connecting technology, easy and quick to pair by just simple power on. They use the newest Bluetooth 5.0 chip to work with more smart devices with Bluetooth function. Some of the compatible devices are iPhone Xs, iPhone X, iPhone 8, 8 Plus, 7, 7 Plus, Samsung Galaxy S9, S9 Plus, S8, S8 Plus, S7, Note 8, Note 7, Note 5, Note 4, Huawei, LG G5, G4, G3, iPad and etc. Portable Charging Case and Longer Battery LifeThe charging case with built-in 650 mAh battery, it can be charged automatically once the earbuds is put in the charging case. You get 6-7 hours continuous music playtime and up to 140 hours standby time when earbuds fully charged. Else you can also use the charging case to charge your smartphone when phone is out of power. Secure Fit | Light Weight | Full IPX7 WaterproofThanks to the IPX7 water protection, the bluetooth earbuds are resistant to sweat, water and rain. Perfect for running, jogging, hiking, yoga, exercises, gym, fitness, travelling and etc.Ideal for Chrismas Gift/Present, Birthday Gift/Present, Public Holiday. Aduarjo 100% money back guaranteeWe are so confident that we will meet your highest expectations just send us an e-mail within 30 days for a full refund, including shipping costs. No forms to fill out. Your 100% satisfaction is our guarantee! The best Birthday, Christmas, New Year’s gifts for your family, lover, friends.</t>
+  </si>
+  <si>
+    <t>NFC and  BLUETOOTHStream effortlessly with One-touch listening over BLUETOOTH. Simply tap your device on the NFC logo. 20h battery lifeKeep music going with up to 20 hours of long-lasting battery. Stream quality sound all dayListen to your music in clear sound quality from 9mm drivers. Easy operation with buttonsUse the buttons to play, stop or skip through tracks and adjust the volume. You can also push them to activate your smartphone’s voice assistant features or make hands-free calls. Tangle-free cable managementKeep your cable clipped neatly out of the way in your neckband with the adjuster and stopper.</t>
+  </si>
+  <si>
+    <t>Designed for deep bass performance Comfortable, secure fit with adjustable headband and multi-pivoting earplates Two adjustable temporal-comfort zone pads shift the pressure and perfectly balance the ear plates on your ear Collapsible for maximum portability, includes carrying case Connector Type: 1 x Headphones (mini-phone stereo 3.5 mm)</t>
+  </si>
+  <si>
+    <t>Keep your phone in your pocket and your head up to the world with easy access to voice assistants for music, navigation, weather, and more. Confidently take a call in any environment, with an unrivalled adaptive four-microphone system that isolates your voice from surrounding noise. Personalize your environment with 11 levels of noise cancelling — control distractions or let ambient sound in. Enhance the way you experience the world with Bose AR, a first-of-its-kind audio augmented reality platform. Optimized for the Google Assistant. Access your voice assistant with a simple button press.</t>
+  </si>
+  <si>
+    <t>Dynamic &amp; HD Stereo Soundwireless earbuds with the built-in high-quality audio chip，achieving the sound of the immersive music scene surround sound. Immerses yourself in an astonishing sound feast. Snug And Comfortable Design Bluetooth headphones wireless are designed to comfortably fit in your ear (in-ear design). Light and comfortable to wear for long hours with no pain. True Wireless Experience You will never worry about wire tangles while on true wireless earbuds as they use no wire connections at all and the connection range of up to 150 ft.As long as your device is within the range, Bluetooth earphones guarantee you quality music better than the wire embedded earphones. One-Step Paring: Probably the most simple tech bluetooth headphones device you've used before. The wireless earphones will automatically turn on and connect to your phone when removed from the charging case. Long battery life:Bluetooth Earbuds can last for over 4-5 hours playtime on a single charge. While on the go the portable charging case power can last up to 20 hours (recharge up to 4-122 times full) charge for the bluetooth earphones).</t>
+  </si>
+  <si>
+    <t>LONG LASTING BATTERY: Rechargeable battery lets you wirelessly listen all day with up to 18 hours of power on a single charge. COMFORTABLE DESIGN: Workout headphones have a memory foam headband and earcups for comfort and sound isolation so you can enjoy music, movies and calls. SWEAT AND MOISTURE PROTECTION: P2i military-grade nano-coating protects the sport headphones against sweat, moisture, and spills. WIRELESS HEADPHONES: Ditch the wires and stream up to 33 ft/10 m from Bluetooth-compatible smartphones and tablets. PLANTRONICS SIGNATURE AUDIO: 40 mm drivers and advanced acoustic technology deliver the right audio balance and deep, rich sound, whether you're listening to music, watching movies or taking a call.</t>
+  </si>
+  <si>
+    <t>[Dual Dynamic Drivers &amp; Crossovers] - The dual dynamic drivers in each earbud with exclusive crossover ensures resonant bass and crystal-like treble performance, which creates a immersive and melodious listening experience for you. The beryllium-plated + composite diaphragm speaker provides premium sound that never had [QCC3020 &amp; aptX] - High-tech QCC3020 chipset, featuring the low power consumption and the stable connectivity, plus the latest Bluetooth 5.0, stable transmission speed can be ensured at any time and anywhere .The advanced APTX codec delivers Hi-Fi Stereo sound and clear calls with CVC noise cancellation [27 Hours Working Time] - The charging case holds roughly 4 full charges and each charge works for roughly 6 hours, 27 hours playtime in total, makes you enjoy wonderful moment all day without any interruption [Mono/Binaural Use/Multifunction Button] - The earbuds can be used separately after successful pairing, after took out of charging case, they will automatically power on and enter into pairing mode . The press button of earbuds supports a lot of functions such as volume up/down, play/pause music, answer/hang up a call, the next/previous song, activate Siri and so on [Worry-free Warranty] - SOUNDPEATS true wireless earbuds meet all your demand for TWS headphones. We provide 12 months hassle-free warranty, it allows you to use our products with confidence. If any questions, please feel free to contact us</t>
+  </si>
+  <si>
+    <t>No matter how hard and heavy the music, these super soft cushions will rest lightly upon your ears The double-ended coil cord with mic and remote is completely de-tachable so you can decide which side you prefer to wear it. Use the empty 3.5mm Socket to share your music with someone else If by any chance you would like to take the major off of your head, they are foldable for easy storage and transportation Microphone and remote for use with cell phones using the 3.5mm Unprotected two-way standard plug 1 Year Local (Singapore) Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Wired Headphone</t>
+  </si>
+  <si>
+    <t>Dynamic &amp; HD Stereo Soundwireless earbuds with the built-in high-quality audio chip，achieving the sound of the immersive music scene surround sound. Immerses yourself in an astonishing sound feast. Snug And Comfortable Design Bluetooth headphones wireless are designed to comfortably fit in your ear (in-ear design). Light and comfortable to wear for long hours with no pain. True Wireless Experience You will never worry about wire tangles while on true wireless earbuds as they use no wire connections at all and the connection range of up to 126 ft.As long as your device is within the range, Bluetooth earphones guarantee you quality music better than the wire embedded earphones. One-Step Paring: Probably the most simple tech bluetooth headphones device you've used before. The wireless earphones will automatically turn on and connect to your phone when removed from the charging case. Long battery life:Bluetooth Earbuds can last for over 4-5 hours playtime on a single charge. While on the go the portable charging case power can last up to 20 hours (recharge up to 4-98 times full) charge for the bluetooth earphones).</t>
+  </si>
+  <si>
+    <t>KG-926 Full Range Balanced Armature Driver Featherweight (15 grams) Milled Aluminum Chassis Three-Button Remote + Mic</t>
+  </si>
+  <si>
+    <t>Ultra-slim and lightweight with extra soft earpads for outstanding comfort - you will forget you are wearing them! Robust, foldable headband for easy storage on the go Closed-back design and ergonomic earpads reduce background noise and provide immersive detail Integrated 3-button smart remote with in-line microphone for controlling calls and music 2 Years International Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>20 Hz to 20 kHz frequency response Less than 1% THD 92% linear reduction in noise pressure 35dB passive sound isolation Weighs less than 6.3 oz</t>
+  </si>
+  <si>
+    <t>Stylish Philips MyJam Chromz in-ear Punchy bass, comfort and good looks High quality vacuum metalized matt finishing</t>
+  </si>
+  <si>
+    <t>9 New Updates: Bluetooth 5. 0, superior sound quality, total 12 hours play time, 4g ultra-lightweight, zero pressure multi-function touch Control, DSP noise-canceling technology, voice assistant, IPX5(Professional Laboratory Certification), magnetic lid. Wireless freedom Meets BT 5. 0: Powered by global Professional relate chipset and next-generation BT 5. 0 technology, our wireless earbuds own stable connect and easier operation. Quick pairing out of the box. And just put them back into the charging case, It will charging. These are our GT1 engineered to deliver a better wireless experience. Superior Music Quality: A better wireless experience starts with what you hear. 7. 2mm dynamic driver has been embedded in this small earbud. Coupled with Advanced Audio Coding(AAC) and high-polymer diaphragm, GT1 delivers punchy bass and soft, clear mid-highs. and the Hifi stereo sound can offer face-to-face calling experience！ Smaller but More Powerful: Slip them in your pocket and go! This charging box even smaller than a lipstick or a lighter! And other than that GT1 deliver 4 hours of listening time and 3. 5 hours of talk time on a single charge. The mini charging box is able to provide earbuds with an extra 8 hours of battery life. Easy control with taps and hold: Feel enough of the physical button in earbuds？A high-precision touch sensor in both the earbuds allows you to effortlessly and comfortable using multiple functions without reaching for your phone.</t>
+  </si>
+  <si>
+    <t>13. 5mm Driver unit reproduces powerful bass sound Use your headphones with a Walkman, iPod or MP3 player Large range of colours available match with your music player or choose your favourite Durable and lightweight 1. 2m cord Supplied with 2 x earbuds to more secure fitting</t>
+  </si>
+  <si>
+    <t>Professional sound combines clarity with Deep bass, you can hear highs, midst, lows and every details. Proven by lots of musicians to have good performance on stages and great listening experiences by audiophiles Powered by dual drivers dynamic speaker, This earphone has the ability to meet all musical instruments' Requirements, Includes: drum, guitar, bass, keyboard and etc Professional cable is designed and tested for maximum durability and has been developed for our items to optimize the performance of the dual drivers. This cable features an ultra-low resistance copper wire that improves the performance of the speaker. Standard MMCX connectors make cable replacement easy Own your Audio space with our patent noise isolating design that eliminates noise and keeps your experience pristine. Ergonomic earphone shell and soft silicon ear tips block noise up 25 dB For professional stage, in the studio, and the most demanding audiophile applications, bsinger maintains its sound signature regardless of the source - perfect for musicians and music lovers plugging into a variety of equipment</t>
+  </si>
+  <si>
+    <t>wireless Bluetooth 5.0 waterproof TWS portable charging case</t>
+  </si>
+  <si>
+    <t>High quality new crack triad universal conversion headphones Special crack pattern make the earbuds very fashionable and stylish Noise isolating in-ear design can enable you to listen at lower volumes and protect your hearing and improving sound quality. Unique Colorful braided cord is designed specifically to reduce wire tangles. They are easily to use and store. You will never worry that your cables will be mess up. The bright color cords make your earphones look smart. Excellent sound quality and super clear sound.</t>
+  </si>
+  <si>
+    <t>Featherlight comfort Pure Clarity Clear Sound Metallic Finish Handsfree calls</t>
+  </si>
+  <si>
+    <t>Superior Audio Quality: 6mm dynamic speakers and noise isolation deliver clear and flawless in-ear call sound Industry-leading 40 Hours Playtime: Up to 5 hours’ playtime on one charge and a charging case holds multiple additional charges for up to 36 hours’ playtime Smart Touch Control: Answer and hang up calls or access other functions by tapping on the earbuds instead of picking up your phone when it’s a few feet away Mini Size &amp; Portable Charging Case: Measuring just 3.2in long, shorter than a bank card, for easy storing in the pocket Attention: SunvalleyTek-SG is the only authorized seller of Taotronics product in Singapore.What You Get: 2 X Earbud, 1 X Charging Case, 6 X Eartip, 1 X Micro USB Charging Cable, 1 X User Guide, and a friendly, dedicated customer service</t>
+  </si>
+  <si>
+    <t>Additional 3. 5mm plug for music sharing Mic &amp; Remote Removable &amp; Washable headband and ear cushions</t>
+  </si>
+  <si>
+    <t>Colour it Loud! Powerful, bass-driven stereo sound High performance dynamic driver systems Symmetrical cable Outstanding wearing comfort on the go 2 Years International Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>PLAY ALL DAY - Crisp Bluetooth 4.1 HD Audio and 11-hour battery life will have you jamming from your morning commute until your evening workout YOURS EARS, YOUR FIT - Multi-size memory foam EarTips and comfortable over ear hooks will keep your buds in place and your tunes pumping during even the most vigorous workouts. UNIVERSAL BLUETOOTH HEADPHONES - Connect to your iPhone, TV, laptop, Kindle, tablet, or other Bluetooth device LIGHT WEIGHT &amp; HEAVY DUTY - The special Behind-The-Head wearing style holds your Ear buds in place during rigorous workouts. The flexible Memory-Wire adapts to the size of your head and helps provide a perfect seal for a better listening experience. &lt;2 hour charge time. LIFETIME SWEATPROOF WARRANTY - Don’t be afraid to push your workouts to the max! We’ll replace your Earbuds if they ever get damaged by sweat! No questions asked.</t>
+  </si>
+  <si>
+    <t>Hi-Definition 6.4mm Dynamic Driver. Connectivity Technology : Wired Durable and stylish stainless steel construction Hi-Res Audio</t>
+  </si>
+  <si>
+    <t>Planar Drivers: a flat membrane that is surrounded by magnets. When current is delivered, the membrane produces sound that has lower distortion, better bass, and pinpoint imaging that is usually not found in your typical headphone driver. The size of the driver in the Monolith M565 is 66mm. Open Back Design: Instead of an "inside your head" isolated experience that traditional closed-back headphones provide, open-back headphones provide a holographic listening experience. Removable Earpads: The Monolith M565 has been engineered to be comfortable for extended listening sessions. Large, comfy earpads made of faux leather and a padded headband are designed to keep you comfortable as you listen. However, the supplied earpads are easily removable – pad roll away!</t>
+  </si>
+  <si>
+    <t>With a proprietary design created for athletes, you’ll enjoy the most comfortable and secure fit. Just twist and lock – it’s that easy. They’re guaranteed never to hurt or fall out. Designed with rugged and premium materials, these headphones are extensively tested by professional athletes – built to withstand the most intense workouts. And they’re IPX5 certified with advanced nano coating to keep sweat out. Exclusive JBL premium dynamic speaker drivers create big sound, and JBL Pure Bass performance keeps you energized. Easy-to-connect Bluetooth technology delivers cable-free, zero-distraction performance. Create your personalized, optimal fit with three sizes of eartips and five sizes of fit adapters. Power a week’s worth of workouts with up to eight hours of training per charge. 1 Year Local (Singapore) Warranty</t>
+  </si>
+  <si>
+    <t>Wired in ear Headphones : Earbuds perfect for exercising; With three sets of earpads (S/M/L), Headphones stay in your ears while keeping surrounding noise out Microphone &amp; call controller with an integrated microphone and call remote, these headphones are compatible with Apple (iphone/ iPod/ iPad), Android and Blackberry Audio and Smartphone devices Ergofit Earbud Design : Ergonomic Design for perfect fit; Black ultra soft ergofit in ear earbud Headphones conform instantly to uour ears (S/M/L earpads Included for a perfect fit) In ear stereo Audio : Tonally balanced audio with crisp highs and deep low notes, plus wider frequency response and lively sound quality for recorded audio Extended Headphone cord long, 3. 6 Ft Headphone cord threads comfortably through clothing and bags making it easy to connect</t>
+  </si>
+  <si>
+    <t>Soft body for comfy fit Vibrant, eye-catching colors Quality sound</t>
+  </si>
+  <si>
+    <t>Philips Flite Aerolite headphones Fold compact or flat Ultra slim. Clear sound 1 Year International Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>BLUETOOTH APTX 30+ HOURS OF PLAYTIME ON A SINGLE CHARGE Major III Bluetooth features 40 mm dynamic drivers that are custom tuned for enhanced bass, smooth midst and clear highs. CONTROL KNOB: The multidirectional knob lets you control your music and phone functionality with ease. 40mm Dynamic Driver, 97 dB SPL 1 Year Local (Singapore) Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Elevate Your Audio: 8mm drivers fed via Bluetooth 4.1 pump out rich, skip-free audio. Complete Comfort: Lightweight neckband and compact, multi-size accessories are designed to provide lasting comfort and hold. Earbuds magnetically clip together for easy, tangle-free use. Superior Playtime: Listen to audio for up to 10 hours, or talk for 12 from a single charge. In a rush? Add up to an hour of music from a 10 minute charge. Water Resistant Hydrophobic nano coating and IPX5 rating ensure effortless performance in practically any environment Whats In the Box SoundBuds Lite S/M/L Ear Tips S/M/L Earwigs Micro USB Cable 2 Cable Clips Travel Pouch Welcome Guide 52 Week Local (Singapore) Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Up to 15-hour battery life for long lasting music enjoyment Quick charge (10 minutes for 60 minutes of playback) In-line remote for music control, voice assistant and hands-free calling Magnetic earbuds for tangle-free carrying and storage Comfortable and lightweight behind-the-neck design</t>
+  </si>
+  <si>
+    <t>Soft ear cushion Fully collapsible construction Microphone and remote for use with cell phones using the 3.5mm Unprotected two-way standard plug Impedance: 64 The built-in microphone allows you to have conversations or record voice memos through your device 1 Year Local (Singapore) Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Compact, high-quality soundHigh sensitivity 9mm driver units deliver clear highs and powerful lows from a compact design. Inline remote and mic for hands-free callsTake hands-free calls and switch tracks without ever having to touch your smartphone, thanks to the inline remote and mic. Tangle-free cableThe cable has a serrated design to resist snags and tangles, keeping your headphones knot-free. 4 sizes of earbudWith a range of 4 earbud sizes, (SS, S, M, and L), you'll be able to customise your fit for comfortable on-the-go listening. 5Hz-24,000Hz</t>
+  </si>
+  <si>
+    <t>DYNAMIC DRIVER - Dual layer composite driver with aerospace grade titanium delivers sizzling highs, present mids, and powerful bass. PERFECTED ERGONOMICS - Oblique angled ear fittings naturally match your ear canals. 3 sets of included ear tip sizes ensure a proper fit for all. They’re more comfortable and less likely to fall out, freeing you to enjoy your music. RETRO MEETS MODERN DESIGN - iPhone matched colors on an aluminum alloy body merges a timeless aesthetic with your current device. TUNED BY A GRAMMY WINNING SOUND ENGINEER - 1MORE collaborated with internationally acclaimed sound engineer Luca Bignardi to perfect the final tuning to deliver a precise representation of your favorite artist’s intended sound. SUPERIOR MEMS MICROPHONE - In-line microphone conveniently located allows you to take calls without cross-talk or background static.</t>
+  </si>
+  <si>
+    <t>Pure Adaptive Noise Canceling (Pure ANC) blocks out distractions, so you can get closer to your music. With Fast Fuel, 5 minutes of charging gets you 2 hours of playback when battery is low. Up to 40 hours Apple 1 year limited warranty</t>
+  </si>
+  <si>
+    <t>NEW BLUETOOTH VERSION 5.0-Upgraded Bluetooth eye mask features in latest Bluetooth V5.0 technology, sleep headphones mask pairs seamlessly with any Bluetooth phone or portable device, hands-free connectivity including decline/accept phone calls and listen to music wirelessly up to 45 feet. CHARGEABLE BATTERY AND ADJUSTABLE-Built-in 200mAh high-performance battery, Charge via USB Cable. Charge about 2-2.5 hours provide more than 8 hours playing time. No "battery low" to wake you up. You can adjust the position of the speakers to near ears to hear more clearly. Connect the Bluetooth, comfortable sleep anywhere -air travel, relaxation, meditation, insomnia. INCREDIBLY SOFT AND SMOOTH MATERIAL, WASHABLE-Music Bluetooth sleep headphones shade is made of ultra soft cotton, provide you a soft and comfortable feeling. Unique design of this Bluetooth headphone mask has no risk of pressure on eyes. Fabric liner separated from stitching is not defective, it is the place to take out the Bluetooth module, wash the sleep eye mask. Adjustable Velcro, fit for both adults and kids, also a great gift idea. RELAX AT ANY OCCASION-Ultra-thin, Soft Foam-covered Headphones make you sleep better! You won‘t feel any hard panel and headphones, all you feel is softy and ease! Noise-canceling will do good for chat (especially in public transit), noisy neighbors, snoring mate, etc. Not only use for sleeping, but also use for airplane rides, travel way, Yoga, Noontime snooze. Best for sensitive sleepers, music, audio book, chat! NOISE CANCELLING &amp; INNOVATIVE NOSE DESIGN-Wireless eye mask has designed the nose section specially with a soft nose bridge and breathable silk inner eye design, zero-pressure on nose and eyes, can prevent any type of light ,perfect for light sleeper who sleep best in complete darkness, no matter in office，sleep on the plane，rest on the bed, etc , just to meet your various needs!</t>
+  </si>
+  <si>
+    <t>[TRUE WIRELESS &amp; BLUETOOTH 5.0] - Adopt professional Bluetooth 5.0 chipset with high resolution decoder built-in and AAC/SBC audio coding technology to deliver extraordinary Hi-fi sound with low latency. [AUTO PAIRING &amp; ON-EAR CONTROL] - Auto power on and enter pairing mode right after out of charging case. User-friendly on-ear button on each side supports play/pause, switching tracks and handling phone calls easily. [MONAURAL &amp; BINAURAL CALLS] - Built-in microphones in both earbuds for you to enjoy hands-free calls and voice assistant with single or both earbuds as prefer. Voice comes from both earbuds in stereo mode. [MORE &amp; LONGER ENJOYMENT] - 3.5-4 hours working time per charge for the earbuds, 9-10 times full charge by the charging case. SoundPEATS TrueFree Plus wireless earbuds bring extended playtime and enjoyment. [COMFORT FIT &amp; WIDE COMPATIBILITY] - Different sized ear tips and in-canel cable-free design provide comfortable fit. Support Bluetooth-enabled devices with version 4.0 and above. PS: SoundPEATS provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
+  </si>
+  <si>
+    <t>Wide CompatibilityThis USB C earphones works with Google Pixel 2/2XL/3/3XL/4/4XL, Huawei P20/Pro, Essential Phone PH-one, HTC U11 U12, Samsung Note 10 &amp; 10+, Moto Z series, More Type C Devices Microphone + Volume ControlHands-free in-line microphone and remote is more convenient with the pleasant-to-use control button, such as play/pause music, control volume, and answer/end the phone calls Passive Noise CancelingDigital noise cancellation technology to hear your music without interruption. Reduces noise sound and deliver brilliant sound, enjoy your favorite music all day and all night Modern + Ergonomic in-EarComfortable and ergonomic design headphone fit the ear perfectly without any pain even wearing all day long. Presents a distinctive sound quality that differentiates from other normal earphones GuaranreeFree worry 18-month warranty; If you have any problems within the warranty, do not need to return it. Please email us freely, we will resend a new one or make a full refund to you within 12 hours</t>
+  </si>
+  <si>
+    <t>HYPER-HD aptX SOUND QUALITY - Our best wireless workout headphones with Bluetooth 5.0 and Advanced Sound 2.0 Technology and aptX high-performance neodymium-backed 40mm speakers. That means you get the unreal audio quality that will boost up your energy. ULTRA PREMIUM MATERIALS | SUPER SOFT EAR PADS - The Z2 sports headphones are designed to make gym heads turn! They’re super-comfortable, made of high-end, ultra-soft materials that mould to the natural shape of your ear for a custom fit. That means they won’t slip around, however hard you run, jump or kick! T-Quiet ACTIVE NOISE-CANCELLING - When you’re in the zone, the last thing you want is distractions. That’s why the TREBLAB Z2 wireless over the ear headphones come with T-Quiet active noise-canceling technology. They block out the irritating external sounds so you can focus on your music and your workout. MADE TOUGH FOR SPORTS &amp; KEEPS GOING FOR A LOOONG 35 HOURS - With an incredible 35 HOURS of playtime, from PlayXTend battery, you’ll keep hearing your favourite music, workout after work-out. These top 10 Bluetooth headphones with mic offer the best Bluetooth connection, so you won’t be left in silence. For California Residents Only: Warning - Cancer and Reproductive Harm – P65Warnings ca gov.</t>
+  </si>
+  <si>
+    <t>Semi-closed acoustic architecture with custom designed Φ8.6mm high power driver Sturdy aluminium housing provides a rigid metal cabinet to eliminate unwanted vibrations Ergonomically shaped silicone caps in 3 sizes to ensure comfortable ﬁt Twisted tangle-free cable with high quality in-line control 1 Year Local (Singapore) Warranty</t>
+  </si>
+  <si>
+    <t>TRUE HD HIGH FIDELITY SOUND Featuring latest Bluetooth 4.1 CSR technology and state of the art acoustic components that produce incredible sound quality with deep bass and crystal clear treble. COMFORTABLE AND SECURE FIT WITH IPX-4 WATERPROOF RATING - ActivBuds feature Ergonomically designed flexible ear hooks with gel flex silicone earbuds to ensure your headphones stay comfortably firm in place to guarantee fatigue free ears and tangle free comfort. LONGEST BATTERY LIFE - The new and improved lithium polymer battery allows seamless enjoyment of music for up to 8 hours and 240 hours stand-by with a quick charge of only 1.5 hours. BLUETOOTH V4.1 WIRELESS TECHNOLOGY WITH CVC 6.0 NOISE SUPPRESSION TECHNOLOGY - Connect seamlessly with all Bluetooth enabled devices up to 30 feet away. With Noise Suppression technology focus on your favorite music and answer calls without skips or missed words. Customizable Ear Tips for the perfect everyday fit and additional Ear Wings to keep your headphones in place during tough workouts.</t>
+  </si>
+  <si>
+    <t>Bluetooth 5.0: Bluetooth 5.0,exclusive chip offers fast speeds, stable connectivity (operation range up to 10 meters/33 ft.),enhanced true wireless stereo tech to deliver deep bass and crystal crisp treble,noise cancellation reduces ambient noise and echo, enable clear sound no matter in calls or music. 48H Long Lasting Playtime: Bluetooth earbuds can last for over 6 hours talking time and music playtime on a single charge.While the portable 850mAh charging case power can last up to 48 hours (recharge up to 8 times full charge for the Bluetooth earphones). Easy paring and control: One step paring. first time only pull two earbuds out of magnetic charging case and "WA10" automatically appear on your phone, then connect. You can use an earphone alone or two at the same time. One button control to achieve multiple functions- answer/reject calls, skip/play/pause songs, volume+/-, Siri assistant. Comfortable Fit: Extremely light weight,comfortable and secure in-ear earbuds,made by soft material and using the worlds leading ergonomic "ear fit" design to protect ears,come with 3 sets of silicone caps (size small,mid,large),design for various ear size to ensure comfortable wearing.They fit securely,not easy to fall from ears without recognition ensure you to exercise smoothly. True Wireless Sound for All: The tws also features an inbuilt microphone.Compatible with all bluetooth devices like iOS 7+ and android 4.1+, smart watches, apple watch, tablets, laptops and computers.The bluetooth earbuds comes with 2 easy-pair earbuds, charging case, USB cable, instructions and 3 silicone ear tips.</t>
+  </si>
+  <si>
+    <t>Tailor sized for kids Maximum volume limited perfect, comfy fit always</t>
+  </si>
+  <si>
+    <t>1-button remote with microphone Tangle-free flat cableComfort-fit ergonomics earbuds Premium metalized ear-housing 1 Year Local (Singapore) Warranty</t>
+  </si>
+  <si>
+    <t>Individual Power Display of Earbuds and Case We designed a digital LED display panel in the charging case. When you put the earbuds in the case, it will display the remaining power of the L / R earphones and the charging case, you could know when is the best charging time. Portable Power Bank, Up to 90 Hours Playtime U-ROK X11 wireless earbuds can play for 6-7 hours on a single charge, while the built-in 4000mAh rechargeable battery charging box could provide an additional 90+ hours playback time. So, you could go out and have fun all day without worrying about the battery shortage. You can also use the charging case to charge your smartphone when it is out of power. Latest Bluetooth 5.0 Technology, Extremely Simple to Use The Bluetooth 5.0 technology provides more stable connections and faster data transfer speeds, which keeps the earphones free of delays and freezes. Moreover, once you take the earbuds out of the charging case, they will turn on and connect with your device automatically; when you put them in the charging case, they will automatically turn off and charing until fully charged. Ergonomic Designed Ergonomically designed to fit comfortably in your ears for the active lifestyle, and the stereo headphones also come with 3 sizes of couples silicone earplugs (S, M, L) for you to choose. Make sure you enjoy the sports for a long time without worrying that the earbuds will fall. IPX7 Waterproof Earbuds The true wireless earbuds provided IPX7 waterproof function which can easily against damage from sweat or rain. That means our earphones can adapt to more application scenarios, perfect for the gym, exercising, riding, climbing and etc, even in the rain and snow. Note: The waterproof effect may be invalid under high-temperature and high-pressure environment, so we don't suggest you take the earbuds to Hot Shower, Sauna, and Diving.</t>
+  </si>
+  <si>
+    <t>[The Chip] - Upgraded Bluetooth 5.0 QCC3034 chip supports APTX-HD codec to enhance sound and transmission. [The Playtime] - Upgraded battery and low consumption chip brings longer lasting up to 14 hours. [The Sound] - Equipped with 10mm driver to stream richer sound, especially powerful bass and mellifluous mids. [The Comfort] - Exclusive C-shape ear fins powered by Freebit provide more secure comfort fit for long time wearing. [The Power] - Engineered with IPX6 waterproof level for sports and music. Tips: Please do not use quick charger to charge the headphones. SoundPEATS provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
+  </si>
+  <si>
+    <t>[WIRELESS BLUETOOTH] Experience improved sound quality, greater range and extended battery life with Bluetooth 4.1 [EVERPLAY-X] EverPlay-X technology allows you to continue listening to your music even if the battery runs out or your audio device is not Bluetooth compatible. (Using supplied microphone cable) [30 HOURS OF NON-STOP PLAY] Optimized power management allows you enjoying music play more than a day non-stop. [WIRELESS MUSIC &amp; CALLS] Complete remote controls allow you to take a charge of your songs without having to find your device. (PLAY, STOP, PAUSE, FF, REW, VOL+, VOL-) [FOLDABLE &amp; CONVENIENT DESIGN Soft ear-pad and padded head band help you falling in music, and folding compact design provide to convenient.</t>
+  </si>
+  <si>
+    <t>Wired in-ear headphones – earbuds perfect for exercising. With three sets of earpads (S/M/L), headphones stay in your ears while keeping surrounding noise out Microphone &amp; Call controller - with an integrated microphone and call remote, these headphones are compatible with Apple (iPhone/ iPod/ iPad), Android and Blackberry Audio and smartphone devices Ergo fit earbud design - ergonomic design for perfect fit. Black ultra-soft Ergo Fit in-ear earbud headphones conform Instantly to your ears (S/M/L earpads included for a perfect fit) In-ear stereo Audio - tonally balanced Audio with crisp highs and Deep low notes, plus wider frequency response and lively sound quality for recorded Audio Extended headphone cord - long, 3. 6-Ft headphone cord threads comfortably through clothing and bags making it easy to connect</t>
+  </si>
+  <si>
+    <t>Item Name: Bluetooth Earphones ，Bluetooth Protocol: 5.0 Transmission Distance: 10 meters ，Charging Time: 1-2 hours Best compatibility with quickly connection, low power consumption. Mini wireless earphones, not easy to fall from the ear, wear with lasting comfort. Features: Voice Control, Call Function, Support Music, Multi-point Connection, Key Control</t>
+  </si>
+  <si>
+    <t>Feel the power of extra bass Wireless Audio with Bluetooth technology Up to 15 hours of battery life with Quick charging (10min charge = 60min of playback) 12mm driver units for crisp, clear sound Flexible and lightweight cables Hands-free calling and voice assistant compatible Magnetic buds for easy carrying In the box: USB Type-C</t>
+  </si>
+  <si>
+    <t>WIRED IN EAR HEADPHONES   Perfect for exercising; With three sets of earpads (S/M/L), headphones stay in your ears while keeping surrounding noise out ERGOFIT DESIGN FOR PERFECT FIT  Ultra soft ErgoFit in ear earbud headphones conform instantly to your ears (S/M/L earpads included for a perfect fit) SMARTPHONE COMPATIBLE  Panasonic in ear headphones with integrated microphone and remote are compatible with Apple (iPhone / iPod / iPad), Android and Blackberry Audio devices IN EAR STEREO AUDIO   Tonally balanced audio with crisp highs and deep low notes, plus wider frequency response and lively sound quality for recorded audio EXTENDED HEADPHONE CORD   Long, 3.6 ft cord threads comfortably through clothing and bags making it easy to connect</t>
+  </si>
+  <si>
+    <t>Not only compatible with Android devices such as Xiaomi, Samsung, but also support IOS devices such as iPhone Macbook IPX4 waterproof, sweat resistant and durable Support volume control and song switchSeperate the microphone and the volume control key 1 Year Local (Singapore) Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Custom machined stainless steel acoustic pipes for more accurate sound High quality dynamic speaker system and enhanced attenuation of ambient noise Personalised fit directly into the ear canals Available in two variants with a three button in-line remote with an integrated mic optimised for either Apple iOS or Samsung Galaxy smart devices Convenient high carrying case included 2 Years International Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Model X uses hi-fidelity custom-tuned graphene dynamic driver Sub-bass and lower treble has been elevated to provide dynamic full-range response that makes the Model X Touch gesture control allows seamless operation of Model X and provide fluid and unobstructed user-experience</t>
+  </si>
+  <si>
+    <t>Volume Control &amp; Humane Design- There are two small volume adjustment buttons on the side of the cordless earpiece that make it easy to adjust the volume of music or calls even while driving. The ergonomic shape makes this Bluetooth earphone fit to the auricle and ear canal perfectly. And the adjustable 360°rotated ear hook makes it suitable for left or right ears. Upgraded Battery &amp; HI-FI Sound- The newly upgraded 100mAh battery provides longer playing/ talking times. You can enjoy in-ear concerts or business negotiations for up to 8 hours! Besides, the built-in AIROHA chip and HD Microphone allow you to enjoy an unparalleled Hi-Fi hearing and talking feast! Compact Lightweight &amp; 15M ConnectionThis hands-free earbud with Mic is small and portable, that is perfect for driving, traveling, business trips, business negotiations, video conferencing, etc. It weighs only 0.3oz/ 8.5g, which relieves pressure on the ears and ensures long-term comfort.The connection distance is up to 15 meters which ensures true freedom and creates a unique sense of technology. High Compatibility &amp; Bluetooth V5.0- Kendir's driving headset is compatible with iPhone, Android, most of the smartphones, tablets, Windows systems, etc. With advanced Bluetooth V5.0, this wireless headset has a higher transmission speed and work efficiency than other products, as well as consuming less power during operation. Carry Case &amp; 1-Year Warranty- GET YOUR FREEBIES! It comes with a carry case for easy storing, which can protect the earbud better and is a decent gift idea on Christmas, Birthday, Father’s Day, etc. We provide a 45-days money back, 1-year warranty, and 24-hour online after-sale service. ADD TO CART RIGHT NOW to get your music and business companion!</t>
+  </si>
+  <si>
+    <t>TWS Plus: With Role Switching Techniques, the master earbud can be switched freely on right or left earbud without any extra pairing step or interrupt. Auto turn on and pair to your phone to play music smoothly. High Fidelity Sound: 6mm PEEK + PU high fidelity dynamic driver offers a truly natural, authentic high fidelity sound clearer than CD quality. IPX7 Waterproof: High-level water-resistant makes the wireless earbuds resistant to sweat, water and rain. Perfect for running, jogging, hiking, yoga, exercises, gym, fitness, travelling and etc. Charge on-the-go: Last for over 5 hours’ playtime from a single charge with latest lower power consumption chip. The compact charging case provides extra 15 hours playtime Attention: SunvalleyTek-SG is the only authorised seller of Taotronics product in Singapore. Bluetooth 5. 0 Version: Bluetooth 5. 0 technology owns fast and stable transmission within up to 15m/50ft without signal loss or music dropouts</t>
+  </si>
+  <si>
+    <t>PLEASE NOTE: This USB type-c earphones do not support Google Pixel 2/2xl, HTC U11, Letv, Macbook Pro 2018 Tested and inspected to fit Motorola Moto Z, Motorola Moto Z Droid, Motorola Moto Z Force Droid, Motorola Moto Z Play, Motorola Moto Z Play Droid, Huawei P20, Huawei P20 Pro, Huawei Mate 10, Huawei Mate 10 Pro and Xiaomi Mi 6, Mix 2, Note 3 USB C cell phone. Crystal clear audio performance with dynamic stereo sound. Its strong deep bass delivers a fantastic listening experience while running or jogging. Hands-free in-line microphone and remote allows you to answer a call while driving, music streaming or on the go. Soft, snug in-ear earbuds conform instantly to your ears, packaging includes S/M/L size earpads for your a perfect fit and a waterproof black storage box.</t>
+  </si>
+  <si>
+    <t>WHAT YOU NEED: Are you tired of always having to detangle those impractical earphones every time you take them out of the pocket? Would you like to enjoy your favorite hits without compromising on sound quality? The i-JAZZ wireless earphones are the perfect solution! HD STEREO SOUND: These Bluetooth earbuds come with state-of-the-art technology, providing an outstanding HD stereo sound quality for an enhanced experience. The noise reduction feature will allow you to enjoy your music and improves call quality as well! LARGE AUTONOMY: This wireless Bluetooth headset works with latest Bluetooth 4.1 version and a powerful 260mAh rechargeable battery, providing up to 19 hours of talking or music with a single charge. The large autonomy is backed up by a fast charging time of only 150 minutes! COMFORTABLE DESIGN: With a flexible neckband which is extremely lightweight, these workout headphones are comfortable even for long wearing time! The compact design and silicone material is 100% safe, while the 10m working range makes sure you enjoy your freedom! MULTIPURPOSE: Whether you're a veteran of the active lifestyle or you've recently decided to embrace the healthy benefits of a proper workout, the i-JAZZ hands-free microphone earbuds are a must! Use them for gym, jogging, sports, training and you'll be able to enjoy your music or calls in a comfortable manner!</t>
+  </si>
+  <si>
+    <t>Premium design with hybrid canal type and new wingtip for secure Disturbance-free enjoyment Dynamic performance Pure and powerful sound Comfortable fit in-ear</t>
+  </si>
+  <si>
+    <t>Lightweight, sweat-proof and equipped with adjustable ear hooks Incredible sound and barely-there comfort Sound isolation</t>
+  </si>
+  <si>
+    <t>Big bouncing bass: 12 mm Composite drivers intensify your music into a workout-fueling, bass-driven soundtrack. Sweat proof: push your workout to the limit with zero hesitation thanks to IPX7 water resistance and sweat guard technology. Engineered for comfort: secure-fit, ergonomic design, and controlled entirely from the right earbud; with no rubbing or pulling from an in-line remote. Huge Stamina: get 10 hours of playtime. That's over a week of gym time from a single charge. Hands-free calls: built-in microphone for clear call quality.</t>
+  </si>
+  <si>
+    <t>Comfortable Sports Use- Quick Fit Adjuster, Adjustable Hanger Clips with Soft Elastomer Ultra-light Design- Lightweight Ear Clips High-Quality Sound- Powerful 14.3mm Neodymium Drivers with Bass Boost Design</t>
+  </si>
+  <si>
+    <t>Wired Headphone Tangle - Free Snap the earphones together into a band if not in use</t>
+  </si>
+  <si>
+    <t>Button-Free On/Off: Simply separate the magnetic earbuds to power on and join them together to power off. Manage audio &amp; calls via the in-line control panel and built-in mic Wireless Sound with Comfort: Enjoy rich and clear sound with our Bluetooth 5 wireless in-ear headphones when you're on the go. Get personalized comfort from two pairs of ear-tips with ear-hooks Crafted for Sports: Sweat and rain will never take your music away during workouts with our IPX6-certified water-resistant headphones 8-Hour Playback: Experience crystal-clear sound for up to 8 hours (about 120 songs) on one charge Package Contents: AUKEY Key Series EP-B60 Magnetic Bluetooth Earbuds, USB-A to C cable, two pairs of ear tips with ear-hooks (small and medium sizes), carrying pouch, user manual, quick-start guide, 45-day money back guarantee and 24-month product replacement warranty card</t>
+  </si>
+  <si>
+    <t>Ultra small, big bass Philips MyJam Vibes in-ear Comfort and vacuum metalized coating Compact design with vacuum metalized protection</t>
+  </si>
+  <si>
+    <t>Balanced armature driver offers high-quality, rich bass sound for various music genres Lightweight construction provides long-wearing comfort New earphone shape designed to fit various ear shapes for extra comfort Ultra-flexible elastomer-sheathed cable to minimise cord tangling 1 Year Local (Singapore) Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Bone conduction technology delivers music through your cheekbones, ensuring ears remain completely open to hear ambient sounds Titanium wraparound headband is lightweight and flexible for durability and portability OpenFit design ensures maximum situational awareness and comfort during long-term wear 2 Years International Warranty Bone conduction technology delivers music through your cheekbones, ensuring ears remain completely open to hear ambient sounds Titanium wraparound headband is lightweight and flexible for durability and portability OpenFit design ensures maximum situational awareness and comfort during long-term wearPremiumPitch guarantees a premium audio experience, including wide dynamic range and rich bassWireless Bluetooth 4.1 connectivity and convenient multipoint pairingLeakSlayer technology significantly reduces natural sound leakageIP55 certified to repel sweat, dust and moisture, from workouts to wicked weatherEnjoy six hours of continuous music  calls on a single chargeEQ presets boost bass and reduce vibration on the goDual noise canceling microphones exclude surrounding noise, effectively enhancing speechAudrey Says voice prompts guide users through power, pair, play and talkShow More</t>
+  </si>
+  <si>
+    <t>Soul Signature Sound Quality: Designed to deliver the SOUL’s signature sound of balanced deep low bass without sacrificing the clarity of the mids and highs. Compact, sleek and securely fits in your ears. Auto Pairing Function Portable Charging Box Bluetooth 5.0</t>
+  </si>
+  <si>
+    <t>[DYNAMIC &amp; AGGRESSIVE DESIGN] Designed with a zet engine motif, the metallic colored outlooks deliver classy images according to it's bass boosted and powerful performance characteristics. [EXTREME BASS, CLEAR SOUND] Phiaton's newly upgraded 12mm dynamic driver unit features and high frequency clarity with rich bass. Also, it is designed light enough to use for long listening sessions with comfort. [MAXIMUM COMFORT] Newly developed oval shaped nozzle helps better fit for all ear shapes with long hours of comfort. Also, 3 sizes of eartips are provided for more secure fits with less intrusion of ambient background noise. [MUSIC &amp; CALLS] C465S earphones' in-line remote is compatible with iOS and Android devices and supports controls for listening music &amp; calls with volume controls [TANGLE-FREE CABLE] Flat cord prevents tangling in your pocket or bag.</t>
+  </si>
+  <si>
+    <t>Magic magnet attraction technology The transmission distance is up to 10 m Connects two phones simultaneously</t>
+  </si>
+  <si>
+    <t>SOUL SIGNATURE QUALITY SOUND - Designed with Bluetooth 5. 0 technology and AAC Codec, ST-XS2 is engineered to deliver the SOUL’s stunning signature sound continuously up to 5-hour, with only one single charge. AUTO PAIRING FUNCTION - Simply take out ST-XS2 from the charging box and connect with your smartphone in just a sec Compact, sleek and securely fits in your ears. Recharge your ST-XS2 up to 4 times and keep moving up to 25-hour on-the-go WEATHERPROOF FUNCTION - Adhere to IPX7 protection standard, ST-XS2 is designed for the added protection from exposure to sweat and rain. 1 Year Premium</t>
+  </si>
+  <si>
+    <t>Three drivers- These headphones have two balanced armatures and a separate dynamic driver. Together they deliver an extremely accurate listening experience with unsurpassed dynamic power and clarity from deep bass to sizzling highs. Tuned By A Grammy Award Winning Sound Engineer- 1MORE collaborated with internationally acclaimed producer, mixer, and sound Engineer Luca Bernard to perfect the final Tuning to deliver a precise representation of your favorite artist's intended sound. Comfortable ergonomic design- the OBLIQUE angled ear fittings naturally match your ear canals. 9 sets of included ear tip sizes ensure a proper fit for all. They're more comfortable and less likely to fall out, freeing you to enjoy your music. Intelligent control technology- in-line remote control is conveniently located allowing you to effortlessly control volume, select songs, and take calls. Superior mems Microphone has independently set ground wires to eliminate cross-talk and background static. Contents - Triple Driver In-Ear headphones, 6 sets of silicone ear tips, 3 sets of foam ear tips, magnetic clasping traveling case, attractive storage case, quality dual prong airline adapter, matching shirt clip.</t>
+  </si>
+  <si>
+    <t>Storage Box with Charging Function 3D Stereo Super Bass Sound Single / Binaural Mode Warranty</t>
+  </si>
+  <si>
+    <t>SOUL SIGNATURE QUALITY SOUND - Designed with Bluetooth 5. 0 technology and AAC Codec AUTO PAIRING FUNCTION - Simply take out ST-XX from the charging box and connect with your smartphone in just a sec IPX5 WEATHERPROOFING - IPX5 Weatherproofing with Nano-coating design to give you added protection from sweat PORTABLE CHARGING BOX - Keeps you moving up to 20-hours on-the-go AUDIO TRANSPARENT MODE - Transparent audio mode allows you to hear the surrounding sound while you are enjoying your music. 1 Year Premium</t>
+  </si>
+  <si>
+    <t>It is Wireless 5. 5 hours play time, Bluetooth 5, dynamic driver and automatic pairing Compact charging case offers up to 3 additional charges</t>
+  </si>
+  <si>
+    <t>Philips Actionfit WirelessFreedom sports Secure fitting, waterproof Wire-free</t>
+  </si>
+  <si>
+    <t>Bluetooth 4.2 featuring Qualcomm aptX and Qualcomm aptX Low Latency deliver superior sound quality for both music and movies with minimum delay between audio and video. Convenient multi-connection with up to 2 devices simultaneously (phones and computers) with 3-way calling support. 6-hour battery life with 1.5 hour fast USB charging. Personalized fit in the ear canals for excellent attenuation of ambient noise (S, M, L and XL ear adapters included). Two-year warranty when purchased from an authorized Sennheiser dealer. 2 Year International Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Wireless headphones with Bluetooth and NFC Splash proof headphones for intense workouts in rain or sweat thanks to IPX4 compatibility In-line mic for hands free calling Up to 8 hours of battery life for long listening hours 13. 5 mm Neodymium driver unit for powerful sound</t>
+  </si>
+  <si>
+    <t>Wideband CL Dynamic transducer Aerophonic steel construction Noise isolating design Made for amplifiers</t>
+  </si>
+  <si>
+    <t>True wireless Bluetooth 5 Ready to use auto pair 15-M fast charge enables 3-H use aptX/AAC compatible Qualcomm chip stable connections</t>
+  </si>
+  <si>
+    <t>Bang &amp; Olufsen Signature Sound. Powerful and balanced sound experience Housing crafted from lightweight metal Robust yet ultra-light and perfect for a life on the go Fits your ears with both precision and maximum comfort Functional without batteryIn-line remote and microphone</t>
+  </si>
+  <si>
+    <t>24 hours of combined playback Smart charging case Hands-free callsCall mode Easy controlsComfort Stay Secure FitSplash proof</t>
+  </si>
+  <si>
+    <t>Critically acclaimed sonic performance Rare earth magnets and copper-clad aluminum wire voice coils Detachable cable (3 cables included) Exceptional clarity, with deep, accurate bass response 1 Year Local (Singapore) Manufacturer Warranty Critically acclaimed sonic performance praised by top audio engineers and pro audio reviewers Proprietary 45 mm large-aperture drivers with rare earth magnets and copper-clad aluminum wire voice coils Exceptional clarity throughout an extended frequency range, with deep, accurate bass response</t>
+  </si>
+  <si>
+    <t>No distractions with Digital Noise CancellingWhen you need that special playlist to take your workout to the next level, noise cancelling blocks out distractions – like the sounds of the gym or the street. So it's just you and the beat. Stay aware with Ambient Sound ModeAmbient Sound Mode keeps you in the moment while you're moving. Mixing the music you love with the sounds of your environment, enjoy your favourite tracks and still hear your workout buddy or stay aware when running outside. Punchier basslines with EXTRA BASSBoost your beats – and your performance. EXTRA BASS delivers powerful, punchy low-end sound, giving you the drive to keep going. Safe, secure and all the power you needFully charged, the headphones give you up to three hours of music playback. While the compact charging case not only keep your headphones secure, but holds a further two full three hour charges letting you power up on the go. That's up to 9 hours of music playback, so you can keep listening all day.</t>
+  </si>
+  <si>
+    <t>Be available for every call. Enjoy superior wireless connectivity with a range up to 490 feet, and all day battery life. Crystal-clear calls, even in the busiest office. Advanced noise-cancelling microphone and enhanced speakers deliver crystal-clear calls even in noisy offices. Stay focused on the Caller. Overcome interruptions with an integrated busy light that acts as a do-not-disturb sign for colleagues. Take calls from up to two devices. Increase your availability for customer calls. Can connect to desk phone and softphone. Meets Skype for business open office requirements.</t>
+  </si>
+  <si>
+    <t>Features a graphene driver for enhanced sound clarity Automatic pairing between earbuds and device Features a microphone on both earbuds Features a single, multipurpose button on each earbud to control music/phone calls Total 35h of playtime, 7h in a single charge</t>
+  </si>
+  <si>
+    <t>wireless sport headset multi-function button waterproof portable earphone</t>
+  </si>
+  <si>
+    <t>For MOMENTUM and MOMENTUM On-Ear owners or customers (cable is also compatible with the next generation Momentum family products) 3-button in-line remote with an integrated mic optimized for Android and Windows smartphones and tablets Cable length: 1.4 m Jack plug: 3.5mm low-profile angled plug</t>
   </si>
   <si>
     <t>SUPERIOR COMFORT: The earmuffs is made of memory foam and protein leather, which adds long-session comfort than any other artificial leather earpads. The adjustable and stretchable headband of DJ headset can accommodates even the largest head. You will feel premium comfort even after long time wearing. 2-IN-1 PLUG: This studio DJ headphone has a 2-in-1 plug that includes one standard-sized 3.5mm plug inside and one 6.35mm outside. It is very simple to switch plug, only to twist the biggest plug on or off .This design expands the compatibility and gets rid of taking another cable. You can plug it into your instruments or electronic devices as you like. OUTSTANDING STEREO SOUND: Vogek DJ Headphone provides you supreme HIFI sound and greatest music experience. Neodymium magnets and 50 millimeter speaker driver reproduces deep bass response and brings the action to life with higher accuracy and wider range. The bass really rumbles without getting muddy. PORTABILITY AND DURABLE: This stereo monitor headphones can be fold up to small size with 90°rotatable earcups, which is very convenient to carry to anywhere. The great flexible and stronger spring cable long to 3 meters can easily reach from the one side of console to other side of stage. It is the best idea for you to pick one for you show or traveling tour. GREAT COMPATIBILITY: The DJ headphones are compatible with iPhone, iPad, iPod, Samsung, Android and more audio devices with 3,5mm plug. It also apply to electronic guitar, bass, drum, piano and other instruments.</t>
   </si>
   <si>
-    <t>【HD Stereo Sound】- Thanks to the upgraded bluetooth 5.0 CSR technology and advanced CSR8645 chips, this neckband design bluetooth earbuds can deliver high fidelity vivid sound with faster and stable signal connection and transmission. Built-in mic with voice notifications help you get any incoming calls in time. 【Ultra Long Working Time】- Bring you up to 18 hours of continuous talking/music time and 350 hours of standby with a single charge, set you free from worry of electric shortage when you are out for long-term use. 【Convenient Retractable Earbuds】- Auto retractable earbuds allows you to pull the retractable wire to the length you want and retract when not use, perfect for sports and outdoor activities. Ergonomics sharp in-ear buds fit your ear fully and tightly with few pressure for long time usage with unimaginable comfort. 【Vibration and Voice Prompt】- Vibration would take place to remind you when new calls coming to make sure you won't miss any phone call no matter what you're doing, where you are, making phone calls freely with built-in mic while free you hands without interrupting your daily life activities. 【12 MONTHS WARRANTY】- Bluenin backs all Amazon customers 12 months repairing and replacement warranty for defective items, lifetime tech support. Please contact Seller for troubleshooting firstly when having problems.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Lose Noise and Focus On: Mpow active noise cancelling technology effectively reduces distracting low frequency background noises like airplane cabin noise, city traffic or a busy office, makes you focus on what you want to hear, enjoying the pure audio source at the press of a button. Fast Charging Function for 30H Playtime: 5 minutes of charging give you 2 hours listening time, A built-in 650mAh battery won't allow your headphones power off, you can enjoy your world without noise for 30 hours' long time in Full charge. Hands-free Calls: Built-in CVC 6. 0 microphone ensure crisp, clear calls. Compatible with Android/iOS smartphones and tablets; MP3, MP4; iPod; PC; TV and other Bluetooth enabled devices. Soft Protein Ear Pads: Mpow noise cancelling headphones adpots Genuine Protein Earpads for your wearing comfort. Enjoy an improved and fully customizable fit with swiveling ear cups, adjustable &amp; foldable headband and super soft ear pads. Travel Friendly: Foldable &amp; swivel over-ear headphones with a carrying pouch brings you more convenience when traveling. Nice packaging makes this a decent gift for your family or friends.</t>
+    <t>HD Stereo Sound- Thanks to the upgraded bluetooth 5.0 CSR technology and advanced CSR8645 chips, this neckband design bluetooth earbuds can deliver high fidelity vivid sound with faster and stable signal connection and transmission. Built-in mic with voice notifications help you get any incoming calls in time. Ultra Long Working Time- Bring you up to 18 hours of continuous talking/music time and 350 hours of standby with a single charge, set you free from worry of electric shortage when you are out for long-term use. Convenient Retractable Earbuds- Auto retractable earbuds allows you to pull the retractable wire to the length you want and retract when not use, perfect for sports and outdoor activities. Ergonomics sharp in-ear buds fit your ear fully and tightly with few pressure for long time usage with unimaginable comfort. Vibration and Voice Prompt- Vibration would take place to remind you when new calls coming to make sure you won't miss any phone call no matter what you're doing, where you are, making phone calls freely with built-in mic while free you hands without interrupting your daily life activities. 12 MONTHS WARRANTY- Bluenin backs all Amazon customers 12 months repairing and replacement warranty for defective items, lifetime tech support. Please contact Seller for troubleshooting firstly when having problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lose Noise and Focus On: Mpow active noise cancelling technology effectively reduces distracting low frequency background noises like airplane cabin noise, city traffic or a busy office, makes you focus on what you want to hear, enjoying the pure audio source at the press of a button. Fast Charging Function for 30H Playtime: 5 minutes of charging give you 2 hours listening time, A built-in 650mAh battery won't allow your headphones power off, you can enjoy your world without noise for 30 hours' long time in Full charge. Hands-free Calls: Built-in CVC 6. 0 microphone ensure crisp, clear calls. Compatible with Android/iOS smartphones and tablets; MP3, MP4; iPod; PC; TV and other Bluetooth enabled devices. Soft Protein Ear Pads: Mpow noise cancelling headphones adpots Genuine Protein Earpads for your wearing comfort. Enjoy an improved and fully customizable fit with swiveling ear cups, adjustable &amp; foldable headband and super soft ear pads. Travel Friendly: Foldable &amp; swivel over-ear headphones with a carrying pouch brings you more convenience when traveling. Nice packaging makes this a decent gift for your family or friends.</t>
   </si>
   <si>
     <t>PREMIUM CRYSTAL SOUND -- Built in high-performance drivers,provide with super dynamic deep bass high resolution treble &amp; crisp powerful sound. It has perfect stereo sound quality, enjoy full listening comfort with soft, snug ear buds that conform to your ears, bring you crystal clear and dynamic sound. COMFORTABLE ERGONOMIC DESIGN -- Ergonomic and comfortable in-ear design effectively prevent falling off, reduces external noise while minimizing the sound leakage, giving you clear sound. There are 3 pairs of ear tips ( Small /Medium /Large Size included ) for a best fit for your ear canals. BUILT WITH MIC &amp; REMOTE CONTROL -- Earbud (in ear), The cord was built in a in-line controller and a high quality microphone, the controller was designed to play / pause music / next track / previous track / answer phone calls / hang up phone calls. WIDE COMPATIBILITY -- The earphones have a good match with almost all the devices equipped with 3.5mm headphone jack. Compatible with IOS and Android System,such as: Samsung Galaxy S8 S7 S6 S5 S4 S3 Android LG G5 MP3 MP4 music players, Nexus, HTC, laptops, tablets, PC and more. 100% Worry-Free: If you are not satisfied with our headphones, let us know and you will be offered a full refund or replacement,that ensure our products work the way you need them to. Enjoy this absolutely RISK FREE purchase by clicking the yellow Add to Cart button.</t>
@@ -5084,13 +5084,13 @@
     <t>10mm Titanium Film Dynamic Driver Unit, deliver silky highs, detailed mids, and deep bass, provide good sound quality for music and phone call.Bring you the perfect audio enjoyment. Light weight kevlar core earphones,stay in ear never fall out,Tangle-free, Y-type cord with slider,Aluminum alloy housing wired earbuds. Earbuds with microphone and volume control, which means hands free and convient for talking listen to music. Noise isolation eartips (S/M/L eartips included for a perfect fit) will form a seal around your ear and you will be able to isolate and block external noise better, hear the music louder and clearer, and the bass will be more prominent. Headphones are widely compatible with any device with 3.5mm jack, including Android and IOS smartphones, like iPhone SE/6/6s/6 Plus/6s Plus/5/5c/5s, iPad Mini, iPad Air, iPod touch 5,iPod Nano 7,Samsung Galaxy, Android Smartphones and tablets, Windows devices (devices without a 3.5mm jack, like the iPhone 7, 8, X, XS, XS Max, 11, 11 PRO and Pixel 2, require an adapter).</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ✔Professional active noise cancelling technology -- block out most ambient noise, help you better focus on what you want to hear. Even without any music playing, just the noise cancelling switch turned on, the outside world seems really far away, you can enjoy your own world. ANC(active noise cancellation) technology is only effective for most of low-frequency noise, but can not eliminate noise. ✔Used a 40mm large-aperture driver, and optimize the sound through software technology continuously, sound with deep bass, powerful and clear, provide a better balance with bass and treble-making your overall listening experience even better. ✔Wireless Connectivity &amp; up to 30+ hours battery life! Bluetooth pairing with your devices is so user-friendly, it is almost automatic. For travelers, their extra-long battery life helps these headphones last through even extra-long flights. These slim, stylish headphones slip easily into their sleek carrying case which slips easily into any carry-on bag, backpack, or purse. ✔Comfortable for hours of use -- swiveling ear pads Fully cover your ears, and extendable head band shape around your head for a comfortable fit, you can have enjoyable long listening sessions without ear soreness or fatigue. ✔6-Month -- Apollo 11 wireless Bluetooth headphones enjoys a 6-month and 24-hour Customer service, Please feel free to Contact us when you meet a problem.</t>
+    <t xml:space="preserve"> ✔Professional active noise cancelling technology -- block out most ambient noise, help you better focus on what you want to hear. Even without any music playing, just the noise cancelling switch turned on, the outside world seems really far away, you can enjoy your own world. ANC(active noise cancellation) technology is only effective for most of low-frequency noise, but can not eliminate noise. ✔Used a 40mm large-aperture driver, and optimize the sound through software technology continuously, sound with deep bass, powerful and clear, provide a better balance with bass and treble-making your overall listening experience even better. ✔Wireless Connectivity &amp; up to 30+ hours battery life! Bluetooth pairing with your devices is so user-friendly, it is almost automatic. For travelers, their extra-long battery life helps these headphones last through even extra-long flights. These slim, stylish headphones slip easily into their sleek carrying case which slips easily into any carry-on bag, backpack, or purse. ✔Comfortable for hours of use -- swiveling ear pads Fully cover your ears, and extendable head band shape around your head for a comfortable fit, you can have enjoyable long listening sessions without ear soreness or fatigue. ✔6-Month -- Apollo 11 wireless Bluetooth headphones enjoys a 6-month and 24-hour Customer service, Please feel free to Contact us when you meet a problem.</t>
   </si>
   <si>
     <t>Works with all devices that have a Lightning connector and support iOS 10 or later, including iPod touch, iPad, and iPhone Compatibility: iPhone Models iPhone 5, iPhone 5c, iPhone 5s, iPhone SE, iPhone 6, iPhone 6 Plus, iPhone 6s, iPhone 6s Plus, iPhone 7, iPhone 7 Plus, iPhone 8, iPhone 8 Plus, iPhone X, iPhone XR, iPhone XS, iPhone XS Max, iPhone 11, iPhone 11 Pro, iPhone 11 Pro Max Compatibility: iPad Models iPad with Retina display, iPad mini 2, iPad Air, iPad Air 2, iPad mini 3, iPad mini 4, iPad Pro (9.7-inch), iPad Pro (12.9-inch), iPad 5th Generation, iPad 6th Generation, iPad 7th Generation, iPad Pro (10.5-inch), iPad mini 5th Generation, iPad Air 3rd Generation Compatibility: iPod Models iPod touch 6th Generation</t>
   </si>
   <si>
-    <t>【EXCELLENT SOUND】 Engineered with high-performance dynamic dual drivers and physical frequency division tech, the in-ear headphones bring a new kind of listening experience. It pumps out powerful deep bass and balanced crisp highs, perfect for listening to music during workouts, as well as listening to audio books or video during commute. 【COMFORTABLE FIT】 Solid ergonomic wearing experience, the wired earbuds utilized optimized nozzle angle are fit for most of ears. It will come with 3 different sizes of silicone ear tips to ensure the optimum comfortable fit, sealing the ear to deliver quality sound and isolate noises. You will even forget they are in your ears after long runs. 【SECURE FIT FOR SPORTS】 Thanks to soft over the ear loops perfectly conforms to the ear and a clip which keep cable out of the way, these over ear earbuds comfortably stay in the ears to completely avoid falling out. Which make it ideal companion for running, jogging, exercise and the gym. No need to stop your workout to adjust it anymore. 【MULTI-FUNCTIONAL CONTROL】 These noise isolating earbuds with microphone and remote control give you the power to easily take and end phone calls, control music with a touch of a button, such as play/pause, skip or rewind music and wake up siri or voice assistant as well. It is much convenient control during running and sport. 【BUILT FOR ACTIVE LIFESTYLE】 Adopted with 3.5mm golden audio jack, the sport earbuds are widely compatible with iPhone, Android devices, smart phones, iPad, MP3, MP4, Mac, laptop, tablet, desktop computer, portable music player. Soft and noise block design, ensure you comfortably enjoy your music and relax during sports, travel and relaxation.</t>
+    <t>EXCELLENT SOUND Engineered with high-performance dynamic dual drivers and physical frequency division tech, the in-ear headphones bring a new kind of listening experience. It pumps out powerful deep bass and balanced crisp highs, perfect for listening to music during workouts, as well as listening to audio books or video during commute. COMFORTABLE FIT Solid ergonomic wearing experience, the wired earbuds utilized optimized nozzle angle are fit for most of ears. It will come with 3 different sizes of silicone ear tips to ensure the optimum comfortable fit, sealing the ear to deliver quality sound and isolate noises. You will even forget they are in your ears after long runs. SECURE FIT FOR SPORTS Thanks to soft over the ear loops perfectly conforms to the ear and a clip which keep cable out of the way, these over ear earbuds comfortably stay in the ears to completely avoid falling out. Which make it ideal companion for running, jogging, exercise and the gym. No need to stop your workout to adjust it anymore. MULTI-FUNCTIONAL CONTROL These noise isolating earbuds with microphone and remote control give you the power to easily take and end phone calls, control music with a touch of a button, such as play/pause, skip or rewind music and wake up siri or voice assistant as well. It is much convenient control during running and sport. BUILT FOR ACTIVE LIFESTYLE Adopted with 3.5mm golden audio jack, the sport earbuds are widely compatible with iPhone, Android devices, smart phones, iPad, MP3, MP4, Mac, laptop, tablet, desktop computer, portable music player. Soft and noise block design, ensure you comfortably enjoy your music and relax during sports, travel and relaxation.</t>
   </si>
   <si>
     <t>High quality stereo audio and bass response, call quality and superb noise-canceling Ergonomic in-ear design, lightweight, perfectly fit your ears for long-time, ideal for listening during exercise, travel or everyday wearing, with great sound quality of super bass, bring you a perfect audio enjoyment Built-in stereo microphone and remote control, convenient hands-free answer calls / end calls, play/pause music, volume down/up, previous track/ next track Standard 3.5mm earphone plug, compatible all phones with 3.5 mm port, most android smartphones, tablet, PC and other devices with 3.5mm jack plug Compatibility with Ideal for All iPhone 6S/6/Plus/iPhone SE/5S/5C/5, Samsung Galaxy S7/S6/Edge, Google, Nexus 6P/5X, HTC One, Nokia, Motorola, Windows Phone, Tablet, iPad, iPod, MP4/MP3, Laptop Computer and more devices compatible with 3.5mm headphones.</t>
@@ -5102,52 +5102,49 @@
     <t>High Definition Balanced Sound - With 9mm high definition speaker drivers, these stereo earbuds deliver high quality and balanced sound, with crystal clear detals and deep bass. No matter what you're playing, you'll get clear and immersed sound output. Great for listening to music, podcasts, audio books and watching videos/movies. Passive Noise Isolating Earbuds - These in ear earbuds help block out most ambient noise when you're listening to music. So that you can stay away from outside noise disturbance when you want to relax or need to be focused. A great companion for daily work, commute and casual use. Ergonomic Fit In Ear Headphones - These wired earphones are 20g lightweight with ergofit design. Optimized angled ear fitting naturally match your ear canals. All these allow you to wear the earbuds for a long time wihout any ear sore problems. There also comes with 3 sets of different sizes ear tips to ensure a comforatble fit for all people. Earbuds with Microphone and Volume Control - Noise cancelling mic and 3 buttons remote control are built on cord, which allows you to change tracks, adjust volume, pause musci, and take/end/reject phone calls, activate voice command. All controls are easy and just at your hands. You can use the microphone to make a clear talk with others on phone calls, online chat and in the game. Durable Earbud Headphones with Wide Compatibility - These wired metal headphones earbuds are made of aluminum alloy body, gold plated and enhanced 3.5mm plug, and sturdy tangle-free cord(140cm/55inches) to handle heavy duty use. They can work well with iPhone, iPod, iPad, Saumsung, Android smartphones, tablet, laptop, computer, ps4, kindle and chrombook.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Plug and play: Easy 3 steps. Step 1, Connect the power adapter to the charging base. Step 2, Use the long RCA cable, plug red and white ends into the back of charging base, The other end into the Audio out port/ RCA output ports of TV or set top box. (Note: for TV with RCA output ports, Please connect the spare 3.5mm to RCA Audio cable with the long RCA cable ). Step 3, power on your headphones and press auto-tune button. Put on the headphones to watch TV. Indulge in your TV moments: dual 40mm drivers guarantee high fidelity stereo sound. Without audio lag, RCA TV headphone takes you to be totally immersed in TV/movie moments without disturbing others. Suitable for parents hard of Hearing, youngsters enjoying Late night gaming etc Support multiple audio &amp; video devices: Compatible with TV, set top box, TV box, PC, phone, Tablets, MP3, iPod, VCD, DVD, hi-fi stereo system, VCR, CD player etc. RCA TV headphone comes with a RCA Audio cord, a 3.5mm to RCA Audio cable to work well with a 3.5mm Audio port or RCA Audio out ports (note: for TV without 3.5mm out port, Please connect the spare 3.5mm to RCA Audio cable with the RCA Audio cord ) Long range transmission &amp; lightweight design: up to 45 meters operating distance, you can walk freely in your house. Free your steps without worrying about signal loss or volume loss. Besides, with adjustable padded headband and soft padded ear cups, RCA TV headphones will free you from bulky burden Rechargeable battery: charging is quite easy, just switch off the headphones and put the headphones into the charging dock, making sure the charging contacts under the right ear cup and charging pins in the charging dock match well. Charging indicator lights up when charging starts. A full charge provides 8 hours playtime.</t>
-  </si>
-  <si>
-    <t>♬【6D Surround Stereo Sound and DSP Noise-Canceling】▶ The 2019 newest Bluetooth earbuds adopts 6D HD dual speaker system,delivers the full surround sound stereo experience,making you enjoy the immersive cinema sound effects experience.Noise cancellation technology reduces ambient noise and echo, Offers truly natural, authentic sound and powerful bass performance sound. ♬【Portable charging case and battery Life】▶ The earbuds offer 7.5 hours continuous music playtime and 600 hours standby time for a single full charge. The charging case with built-in 7000 mAH battery, you can also use the charging case to charge your smartphone when the phone is out of power. ♬【Latest Bluetooth 5.0 Technology &amp; Stable Connection】▶ Through built-in latest Bluetooth 5.0 chip, FALWEDI wireless earphones are able to get more stable signal connection, achieve longer connection distance, faster transmission and less audio transmission loss. ♬【IPX7 waterproof earbuds】▶ The Bluetooth earbuds are resistant to sweat, water and rain. Perfect for running, jogging, hiking, yoga, exercises, gym, fitness, travelling and etc.Note: we don't suggest you take the earbuds to shower as it doesn't resist the hot water and shampoo. ♬【 individual power display of earbuds and charging case 】▶ T9 Bluetooth earbuds battery separated LED display design, it will display how much battery remaining in the charging base When putting into the case, you can know when is the best time to charge.We provides unconditionally 30-day money back and 12-month manufacturer's warranty on our products. Please feel free to make a purchase.</t>
-  </si>
-  <si>
-    <t>🎁🎅【UNIQUE AND STYLISH LOOK】To find a perfect earbuds shell, Kuulaa tested a lot of materials. Finally, we adopt perfect material proportion. M17 earphones are made of the technology CNC Zinc Alloy, which the overall surface is metal anodized, the special housing is more corrosion-resistant and will not fade easily after prolonged use. 🎁🎅【EXTRAORDINARY SOUND】 The distinct dynamic drivers deliver powerful and balanced sound, the 20Hz–20kHz frequency range taps you into every layer of your tracks. With the match of cooper-clad aluminum voice coil and high-performance magnet, it performs distortion-free sound and better ductility of crisp highs. 🎁🎅【SMART ONE-BUTTON CONTROLLER】 The single button design compatible with most smartphones will give easy access to such functions as answering or hanging up your phone as well as music playback functions. Featuring an advanced chipset, the microphone transmits your voice with clarity while also reducing outside disturbances such as noise and wind. 🎁🎅【GREATER COMPATIBILITY】 Utilizing a 3.5 mm audio jack with impedance level of 16 ohm for perfect pairing with everyday devices such as iPhone, iPad, iPod, Samsung Galaxy, Android devices, smartphones, MP3 and MP4 music players, and more. 🎁🎅【ATTACHMENT BONUS】 Exquisite package contains 3 sets of different sized(S/M/L) silicone ear tips for your personality fit, a convenient carrying case which keeps your earphones as safe as clean and one clear user manual.Gift package makes it a good present on Thanksgiving Day,Christmas Day.We promise 24h friendly customer service, enjoy this absolutely zero risk purchase!</t>
+    <t xml:space="preserve"> Plug and play: Easy 3 steps. Step 1, Connect the power adapter to the charging base. Step 2, Use the long RCA cable, plug red and white ends into the back of charging base, The other end into the Audio out port/ RCA output ports of TV or set top box. (Note: for TV with RCA output ports, Please connect the spare 3.5mm to RCA Audio cable with the long RCA cable ). Step 3, power on your headphones and press auto-tune button. Put on the headphones to watch TV. Indulge in your TV moments: dual 40mm drivers guarantee high fidelity stereo sound. Without audio lag, RCA TV headphone takes you to be totally immersed in TV/movie moments without disturbing others. Suitable for parents hard of Hearing, youngsters enjoying Late night gaming etc Support multiple audio &amp; video devices: Compatible with TV, set top box, TV box, PC, phone, Tablets, MP3, iPod, VCD, DVD, hi-fi stereo system, VCR, CD player etc. RCA TV headphone comes with a RCA Audio cord, a 3.5mm to RCA Audio cable to work well with a 3.5mm Audio port or RCA Audio out ports (note: for TV without 3.5mm out port, Please connect the spare 3.5mm to RCA Audio cable with the RCA Audio cord ) Long range transmission &amp; lightweight design: up to 45 meters operating distance, you can walk freely in your house. Free your steps without worrying about signal loss or volume loss. Besides, with adjustable padded headband and soft padded ear cups, RCA TV headphones will free you from bulky burden Rechargeable battery: charging is quite easy, just switch off the headphones and put the headphones into the charging dock, making sure the charging contacts under the right ear cup and charging pins in the charging dock match well. Charging indicator lights up when charging starts. A full charge provides 8 hours playtime.</t>
+  </si>
+  <si>
+    <t>6D Surround Stereo Sound and DSP Noise-Canceling The 2019 newest Bluetooth earbuds adopts 6D HD dual speaker system,delivers the full surround sound stereo experience,making you enjoy the immersive cinema sound effects experience.Noise cancellation technology reduces ambient noise and echo, Offers truly natural, authentic sound and powerful bass performance sound. Portable charging case and battery Life The earbuds offer 7.5 hours continuous music playtime and 600 hours standby time for a single full charge. The charging case with built-in 7000 mAH battery, you can also use the charging case to charge your smartphone when the phone is out of power. Latest Bluetooth 5.0 Technology &amp; Stable Connection Through built-in latest Bluetooth 5.0 chip, FALWEDI wireless earphones are able to get more stable signal connection, achieve longer connection distance, faster transmission and less audio transmission loss. IPX7 waterproof earbuds The Bluetooth earbuds are resistant to sweat, water and rain. Perfect for running, jogging, hiking, yoga, exercises, gym, fitness, travelling and etc.Note: we don't suggest you take the earbuds to shower as it doesn't resist the hot water and shampoo.  individual power display of earbuds and charging case  T9 Bluetooth earbuds battery separated LED display design, it will display how much battery remaining in the charging base When putting into the case, you can know when is the best time to charge.We provides unconditionally 30-day money back and 12-month manufacturer's warranty on our products. Please feel free to make a purchase.</t>
+  </si>
+  <si>
+    <t>🎁🎅UNIQUE AND STYLISH LOOKTo find a perfect earbuds shell, Kuulaa tested a lot of materials. Finally, we adopt perfect material proportion. M17 earphones are made of the technology CNC Zinc Alloy, which the overall surface is metal anodized, the special housing is more corrosion-resistant and will not fade easily after prolonged use. 🎁🎅EXTRAORDINARY SOUND The distinct dynamic drivers deliver powerful and balanced sound, the 20Hz–20kHz frequency range taps you into every layer of your tracks. With the match of cooper-clad aluminum voice coil and high-performance magnet, it performs distortion-free sound and better ductility of crisp highs. 🎁🎅SMART ONE-BUTTON CONTROLLER The single button design compatible with most smartphones will give easy access to such functions as answering or hanging up your phone as well as music playback functions. Featuring an advanced chipset, the microphone transmits your voice with clarity while also reducing outside disturbances such as noise and wind. 🎁🎅GREATER COMPATIBILITY Utilizing a 3.5 mm audio jack with impedance level of 16 ohm for perfect pairing with everyday devices such as iPhone, iPad, iPod, Samsung Galaxy, Android devices, smartphones, MP3 and MP4 music players, and more. 🎁🎅ATTACHMENT BONUS Exquisite package contains 3 sets of different sized(S/M/L) silicone ear tips for your personality fit, a convenient carrying case which keeps your earphones as safe as clean and one clear user manual.Gift package makes it a good present on Thanksgiving Day,Christmas Day.We promise 24h friendly customer service, enjoy this absolutely zero risk purchase!</t>
   </si>
   <si>
     <t>Excellent Sound: Stereo bass headphone with excellent sound effect, 3.5mm plug compatible with all 3.5mm jack devices Durable &amp; Not Tangle: The headphone cord length is 4.9 ft (1.5m), using high quality cloth, so it's very durable, and not tangle, suitable for kids, children, not easily damaged Adjustable: The adjustable band allows you to get the perfect fit for your head shape. It is not only suitable for your children, but also for many adults Easy To Carry: Folding design make it convenient to carry, you can easily put it in the suitcase or bag, more easy to carry it. When you take your children out for a trip, take a plane, take a car, this headphone would be a good companion Support: 1 Year Hassle-Free-Protection and quickly response customer service, for any questions while using, please contact us at any time via Amazon email or through the contact information on the instructions</t>
   </si>
   <si>
-    <t>❤ [Upgraded Quality Version] - New improved version usb type c headphones with Realtek type c DAC chips and stable PET cable material, High resolution chips converts standard resolution audio to superior Lossless audio. The light but rigid PVC and metal case keeps sound stable for a richer, more dynamic performance. Especially design for Google Pixel 4/3/2/2 XL, works perfect with Google assistant. ❤ [Passive Noise Canceling] - When playing the music with this usb c earbuds headphones, no matter in the noisy streets or in the subway and plane, you will not hear these noise, thanks to the sealed silicone In-ear caps of this usb c earphones. Only the music wrapped in your ear, enjoying wonderful music with this usb c headphone. ❤ [ATTENTION: Compatibility] - This usb c earbuds ONLY supports mobile phones below: Compatible with iPad Pro 2018, Google Pixel 2/2 XL, Pixel 3/3XL, Pixel 4/4XL, Samsung Galaxy S9/S10/S10+, Samsung Galaxy Note 10/Note 10 Plus, Google Chromebook, Xiaomi, HUAWEI Mate 10 Pro/P20, Mate 20/Pro, P30/Mate 30. For HTC 10 &amp; U11, Essential PH-1, Razer Phone. Other type-c usb c interface devices NOT support. (Restart devices to try again if no sound come out) ❤ [Remote and Mic] - Hands free in-line microphone built-in this usb c earphones and remote allows you to answer a call while driving with this usb type c earphones earbuds, easily access to music volume control on the go. ❤ [Excellent Customer Service] - We can offer original factory quality ensurance and 12 hours/7 days excellent customer service, to solve all your issues about this product,. If the device fails due to a manufacturing defect, please contact seller directly to initiate return and replacement process.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Wireless Audio with Bluetooth technology Up to 15 hours of battery life 9mm driver units for crisp, clear sound Flexible and lightweight cables Hands-free calling and voice assistant compatible In The Box: USB Type-C Cable (USB-A to USB-C) (approx. 20 cm)</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Great sound quality with rich dynamic bass, balanced midst along with crisp clear highs, latest Bluetooth technology and upgraded acoustic components produce the highest fidelity music. Enjoy loud and clear conversations with the integrated advanced goertek microphone which produces call quality like you are talking directly on your cell phone. You will love the awesome sound of these and they are exactly what you are looking for. Great battery life achieved by an upgraded and improved lithium polymer battery that charges fully in less than 2 hours and can hold a charge for up to 8 hours consistently for a long time. The earphone is easy to use even if these are your first pair of blue tooth headphones or a gift, they are very easy to setup and they quickly pair with your phone right out of the box. Will stay in your ears whether you have Small or big ears, The adjustable over the ear Ear hooks can be moulded around your ears to give you the best customized and snug fit. These lightweight ear phones are comfortable and will not fall out of your ears when you run, work out at the gym, exercise, or play any other active Sport or fitness activity. Strong connection - your Audio will not cut in and out whether you put your phone in your pocket or walk up to 30 feet away from your mobile phone, A 360 degree antenna along with the Bluetooth 5.0 wireless technology ensure headphone stays seamlessly connected to your device. Engineered for durability - With a strong patented structural design and superior quality Components, These top rated headphones will last a long time and will not dissappoint you. 1-Year Manufacturer's warranty and 30 days no-questions-asked return policy. Value for money guaranteed, buy Senso products worry free.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Excellent Sound: Stereo bass headphone with excellent sound effect, 3.5mm plug compatible with all 3.5mm jack devices Durable and Not Tangle: The headphone cord length is 4.9 ft (1.5m), using high quality cloth, so it's very durable and not tangle, suitable for kids, children, not easily damaged Adjustable: The adjustable band allows you to get the perfect fit for your head shape. It is not only suitable for your children, but also for many adults Easy To Carry: Folding design make it convenient to carry, you can easily put it in the suitcase or bag, more easy to carry it. When you take your children out for a trip, take a plane, take a car, this headphone would be a good companion Support: 1 Year Hassle-Free-Protection and quickly response customer service, for any questions while using, please contact us at any time via Amazon email or through the contact information on the instructions</t>
+    <t xml:space="preserve"> [Upgraded Quality Version] - New improved version usb type c headphones with Realtek type c DAC chips and stable PET cable material, High resolution chips converts standard resolution audio to superior Lossless audio. The light but rigid PVC and metal case keeps sound stable for a richer, more dynamic performance. Especially design for Google Pixel 4/3/2/2 XL, works perfect with Google assistant.  [Passive Noise Canceling] - When playing the music with this usb c earbuds headphones, no matter in the noisy streets or in the subway and plane, you will not hear these noise, thanks to the sealed silicone In-ear caps of this usb c earphones. Only the music wrapped in your ear, enjoying wonderful music with this usb c headphone.  [ATTENTION: Compatibility] - This usb c earbuds ONLY supports mobile phones below: Compatible with iPad Pro 2018, Google Pixel 2/2 XL, Pixel 3/3XL, Pixel 4/4XL, Samsung Galaxy S9/S10/S10+, Samsung Galaxy Note 10/Note 10 Plus, Google Chromebook, Xiaomi, HUAWEI Mate 10 Pro/P20, Mate 20/Pro, P30/Mate 30. For HTC 10 &amp; U11, Essential PH-1, Razer Phone. Other type-c usb c interface devices NOT support. (Restart devices to try again if no sound come out)  [Remote and Mic] - Hands free in-line microphone built-in this usb c earphones and remote allows you to answer a call while driving with this usb type c earphones earbuds, easily access to music volume control on the go.  [Excellent Customer Service] - We can offer original factory quality ensurance and 12 hours/7 days excellent customer service, to solve all your issues about this product,. If the device fails due to a manufacturing defect, please contact seller directly to initiate return and replacement process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wireless Audio with Bluetooth technology Up to 15 hours of battery life 9mm driver units for crisp, clear sound Flexible and lightweight cables Hands-free calling and voice assistant compatible In The Box: USB Type-C Cable (USB-A to USB-C) (approx. 20 cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Great sound quality with rich dynamic bass, balanced midst along with crisp clear highs, latest Bluetooth technology and upgraded acoustic components produce the highest fidelity music. Enjoy loud and clear conversations with the integrated advanced goertek microphone which produces call quality like you are talking directly on your cell phone. You will love the awesome sound of these and they are exactly what you are looking for. Great battery life achieved by an upgraded and improved lithium polymer battery that charges fully in less than 2 hours and can hold a charge for up to 8 hours consistently for a long time. The earphone is easy to use even if these are your first pair of blue tooth headphones or a gift, they are very easy to setup and they quickly pair with your phone right out of the box. Will stay in your ears whether you have Small or big ears, The adjustable over the ear Ear hooks can be moulded around your ears to give you the best customized and snug fit. These lightweight ear phones are comfortable and will not fall out of your ears when you run, work out at the gym, exercise, or play any other active Sport or fitness activity. Strong connection - your Audio will not cut in and out whether you put your phone in your pocket or walk up to 30 feet away from your mobile phone, A 360 degree antenna along with the Bluetooth 5.0 wireless technology ensure headphone stays seamlessly connected to your device. Engineered for durability - With a strong patented structural design and superior quality Components, These top rated headphones will last a long time and will not dissappoint you. 1-Year Manufacturer's warranty and 30 days no-questions-asked return policy. Value for money guaranteed, buy Senso products worry free.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excellent Sound: Stereo bass headphone with excellent sound effect, 3.5mm plug compatible with all 3.5mm jack devices Durable and Not Tangle: The headphone cord length is 4.9 ft (1.5m), using high quality cloth, so it's very durable and not tangle, suitable for kids, children, not easily damaged Adjustable: The adjustable band allows you to get the perfect fit for your head shape. It is not only suitable for your children, but also for many adults Easy To Carry: Folding design make it convenient to carry, you can easily put it in the suitcase or bag, more easy to carry it. When you take your children out for a trip, take a plane, take a car, this headphone would be a good companion Support: 1 Year Hassle-Free-Protection and quickly response customer service, for any questions while using, please contact us at any time via Amazon email or through the contact information on the instructions</t>
   </si>
   <si>
     <t>Soundcore is anker’s audio brand, Our signature sound is loved by 10 million+ people around the world. Spirit x [2019 version] is part of our spirit Series of wireless earphones for sports and exercise. Soundcore Spirit X 2019 Version Wireless Sports Earphones, Bluetooth Headphones with IP68 Waterproof Protection, SweatGuard, Intense Bass, 18H Playtime, Wireless Earbuds for Running, Workout, Sports Highest level of protection: it also boasts ip68-rated dust and waterproof protection so they’ll stand up to the dustiest of hikes, running in the rain, and complete submersion in water. Thumping bass: powered by oversized dynamic drivers that are 40% larger Than standard ones. Their composite Bio-cellulose diaphragm produces highly-detailed treble, and is surrounded by an ultra-elastic material that increases bass output. Spirit x Wireless earphones are also equipped with our exclusive bass up technology which uses a custom algorithm to conduct real-time analysis and instant bass intensification. Up to 18 hours of playtime: The 2019 version of spirit x Wireless earphones use the latest low-power consumption chipset and a high-capacity battery to fuel up to 18-hours of playtime. When you’re in a rush and need power fast, charge for just 10 minutes and get up to 3 hours of playtime. Tailored, customized fit: Flex-Form ear hooks can be adjusted to fit around your ears perfectly to ensure your wireless earphones don’t move, even during extreme workouts.</t>
   </si>
   <si>
-    <t>[Dual Dynamic Drivers &amp; Crossovers] - The dual dynamic drivers in each earbud with exclusive crossover ensures resonant bass and crystal-like treble performance, which creates a immersive and melodious listening experience for you. The beryllium-plated + composite diaphragm speaker provides premium sound that never had [QCC3020 &amp; aptX] - High-tech QCC3020 chipset, featuring the low power consumption and the stable connectivity, plus the latest Bluetooth 5.0, stable transmission speed can be ensured at any time and anywhere .The advanced APTX codec delivers Hi-Fi Stereo sound and clear calls with CVC noise cancellation [27 Hours Working Time] - The charging case holds roughly 4 full charges and each charge works for roughly 6 hours, 27 hours playtime in total, makes you enjoy wonderful moment all day without any interruption [Mono/Binaural Use/Multifunction Button] - The earbuds can be used separately after successful pairing, after took out of charging case, they will automatically power on and enter into pairing mode . The press button of earbuds supports a lot of functions such as volume up/down, play/pause music, answer/hang up a call, the next/previous song, activate Siri and so on [Worry-free Warranty] - SOUNDPEATS true wireless earbuds meet all your demand for TWS headphones. We provide 12 months hassle-free warranty, it allows you to use our products with confidence. If any questions, please feel free to contact us</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Over ear, Noise isolating Headphones. Connectivity Technology: Wired 30mm Neodymium Driver. 110 dB/mW – Power off, 115 dB/mW – Power on Up To 80 Hours Of Battery Life Frequency response:10 22,000 Hz Impedance (Ohm) Power ON 220 ohm, OFF 45 ohm (at 1 kHz).Cord Length:3.94 ft</t>
-  </si>
-  <si>
-    <t>【No more tangled headphones!】The headphones wires don't get tangled because they are retractable. It vibrates and announces the number of incoming calls, Perfect for the job and driving! The cords are rolled up inside and out of the way. The build is bendy but sturdy and click from pulling the ear buds out it satisfying. 【You would like that it folds up nice and compact.】It is flexible, just fold them when not in use and stick them in the purse! The texture is soft to touch. 【They charge quickly and last a long time, great for long trips】Battery could literally last ten or more hours which is great for long trips. where you could listen to music the entire time while traveling. It lasts the entire 9 hours a day without telling you it’s low a single time. 【Great sound for music and conferences at full volume.】Earbuds seal well and keep outside noise to a minimum. You don't have to crank the volume to experience deep rich sounds, you can totally zone out into your music. 【The pairing is a snap】 Bluetooth staying connected when streaming music on the go. You could use it during days of heavy cardio and sweating has never been an issue.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) RICH BASS CLEAR SOUND - Quality 14.2mm dome type driver units built with innovative sound-absorbing holes deliver powerful deep bass, making the sound more layered, allowing you to clearly feel Instrument sounds and vocals. CLASSIC COMFORT - Ergonomically compact and lightweight earphones bring no burden to your ears, perfect for long time use, suitable for cycling, jogging, climbing and outdoor activities. EARBUD SPEAKER DRIVERS- Neodymium is the best material for producing a strong magnetic field for greater sensitivity in a voice coil, better bass response and a pure balanced sound quality DURABLE &amp; COMPATIBLE- The earphones cord is made soft and flexible so it’s not easy to knot and entangle, and the capability of strong tensile makes you no longer to worry about it will be torn. Compatible with the most Android and Apple devices. DESIGNED FOR EAR GEOMETRY COMFORT FIT- The design is based on ear geometry for comfortable wear and snug fit for everyone</t>
-  </si>
-  <si>
-    <t>♪♫【Bluedio T Elf II -- BRANDNEW TOUCH CONTROL】- Bluedio 5.0 T-Elf 2 Earbuds improved the connection and operation function, introduce the touch control. By doing this, switch songs, adjust volume, pause and play, answer or hang on the phone, all these function can be easily realized by your finger touching. ♪♫【MORE POWERFUL 6mm DRIVERS】- T-Elf 2 Wireless Earbuds adopt 6mm drivers, no longer one generation of 5mm drivers, which bring you a better and clear sound quality. ♪♫【EASY-LINK &amp; FAST PAIRING】- Bluetooth Earbuds are equipped with one-step pairing technology. Take the Left and the Right earbuds out of charging case,then earphones will pair with each other. LED indicator let you keep track any time of the headphone pairing status and the battery status of the charging box. ♪♫【UP TO 35-HRS WORK TIME】- The charge case holds roughly 5 full charges and each charge works for roughly 5-6 hours(The play time is twice that of similar earbuds in the market). Charge for 10 minutes and use for about one hour, about 1-hour charge you can make the earbuds battery from died to full charge, and only 2 hours for charging case. ♪♫【PACKAGE INCLUDED】- 1 x Bluedio T Elf 2; 1 x Charging Case; 1 x Charger Cable; 1 x User Manual; 3 Pairs of eartips with 3 different sizes(S,M,L)</t>
+    <t xml:space="preserve"> Over ear, Noise isolating Headphones. Connectivity Technology: Wired 30mm Neodymium Driver. 110 dB/mW – Power off, 115 dB/mW – Power on Up To 80 Hours Of Battery Life Frequency response:10 22,000 Hz Impedance (Ohm) Power ON 220 ohm, OFF 45 ohm (at 1 kHz).Cord Length:3.94 ft</t>
+  </si>
+  <si>
+    <t>No more tangled headphones!The headphones wires don't get tangled because they are retractable. It vibrates and announces the number of incoming calls, Perfect for the job and driving! The cords are rolled up inside and out of the way. The build is bendy but sturdy and click from pulling the ear buds out it satisfying. You would like that it folds up nice and compact.It is flexible, just fold them when not in use and stick them in the purse! The texture is soft to touch. They charge quickly and last a long time, great for long tripsBattery could literally last ten or more hours which is great for long trips. where you could listen to music the entire time while traveling. It lasts the entire 9 hours a day without telling you it’s low a single time. Great sound for music and conferences at full volume.Earbuds seal well and keep outside noise to a minimum. You don't have to crank the volume to experience deep rich sounds, you can totally zone out into your music. The pairing is a snap Bluetooth staying connected when streaming music on the go. You could use it during days of heavy cardio and sweating has never been an issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RICH BASS CLEAR SOUND - Quality 14.2mm dome type driver units built with innovative sound-absorbing holes deliver powerful deep bass, making the sound more layered, allowing you to clearly feel Instrument sounds and vocals. CLASSIC COMFORT - Ergonomically compact and lightweight earphones bring no burden to your ears, perfect for long time use, suitable for cycling, jogging, climbing and outdoor activities. EARBUD SPEAKER DRIVERS- Neodymium is the best material for producing a strong magnetic field for greater sensitivity in a voice coil, better bass response and a pure balanced sound quality DURABLE &amp; COMPATIBLE- The earphones cord is made soft and flexible so it’s not easy to knot and entangle, and the capability of strong tensile makes you no longer to worry about it will be torn. Compatible with the most Android and Apple devices. DESIGNED FOR EAR GEOMETRY COMFORT FIT- The design is based on ear geometry for comfortable wear and snug fit for everyone</t>
+  </si>
+  <si>
+    <t>Bluedio T Elf II -- BRANDNEW TOUCH CONTROL- Bluedio 5.0 T-Elf 2 Earbuds improved the connection and operation function, introduce the touch control. By doing this, switch songs, adjust volume, pause and play, answer or hang on the phone, all these function can be easily realized by your finger touching. MORE POWERFUL 6mm DRIVERS- T-Elf 2 Wireless Earbuds adopt 6mm drivers, no longer one generation of 5mm drivers, which bring you a better and clear sound quality. EASY-LINK &amp; FAST PAIRING- Bluetooth Earbuds are equipped with one-step pairing technology. Take the Left and the Right earbuds out of charging case,then earphones will pair with each other. LED indicator let you keep track any time of the headphone pairing status and the battery status of the charging box. UP TO 35-HRS WORK TIME- The charge case holds roughly 5 full charges and each charge works for roughly 5-6 hours(The play time is twice that of similar earbuds in the market). Charge for 10 minutes and use for about one hour, about 1-hour charge you can make the earbuds battery from died to full charge, and only 2 hours for charging case. PACKAGE INCLUDED- 1 x Bluedio T Elf 2; 1 x Charging Case; 1 x Charger Cable; 1 x User Manual; 3 Pairs of eartips with 3 different sizes(S,M,L)</t>
   </si>
   <si>
     <t>ERGONOMIC DESIGN - Provides comfortable fit for your ears and long-time wearing. Flexible lightweight, snug and secure, and they can be easily threaded through a jacket, bag, or backpack. PREMIUM SOUND QUALITY - Sound Isolating Earphones, headphones with Strong bass-driven stereo sound, feel the beats in your ears. AMAZING SOUND EFFECTS - Strong Stereo, Bass Driven Sound. HeadphonesAMAZING SOUND EFFECTS - Strong Stereo, Bass Driven Sound. Headphones provides Powerful bass enhanced sound with superb musical detail. provides Powerful bass enhanced sound with superb musical detail. PERFECT COMPATIBILITY - All other 3.5mm jack devices. Built in Microphone for Apple iPhone, Ipad, Ipod, MP3/MP4 player, Macbooks and Samsung devices with headphone socket. FLEXIBLE CONVENIENT - Durable audio cord effectively prevents natural tangling, ensures more convenient carrying and using. Cable Length 1.2 meters.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) WIDDE application: Use extension cord, desktop adapter and microphone, sports headphones can not only with the most common mobile phones, such as iPhone, Samsung, iPad, Google with the use, but can be used with PC, notebook computers, compressors. Comfortable sports: These earplugs are made of memory cotton and provide an inner earring that makes it comfortable for the ear. Do not worry about walking, yoga, reading, thinking and relaxing. Decent sound and high fidelity performance: the sound quality is very good, and to prevent the fact that external noise left you a deep impression. Strong bass stereo makes the beat more energetic and activates you during the sport. Start enjoying live music with these stereo headphones in headphones! Good headphones ipod, iphone, mp3, ipad, tablet and Android device. Common for everyone's ear: Packed with 3 pairs of inner rings and silicon earplugs (large, medium and small). So this headset can be used by everyone, do not worry about the size. Full length cable length: total cable length up to 2.2m. As a result, headphones with a microphone can fully meet the player's requirements during the game.</t>
+    <t xml:space="preserve"> WIDDE application: Use extension cord, desktop adapter and microphone, sports headphones can not only with the most common mobile phones, such as iPhone, Samsung, iPad, Google with the use, but can be used with PC, notebook computers, compressors. Comfortable sports: These earplugs are made of memory cotton and provide an inner earring that makes it comfortable for the ear. Do not worry about walking, yoga, reading, thinking and relaxing. Decent sound and high fidelity performance: the sound quality is very good, and to prevent the fact that external noise left you a deep impression. Strong bass stereo makes the beat more energetic and activates you during the sport. Start enjoying live music with these stereo headphones in headphones! Good headphones ipod, iphone, mp3, ipad, tablet and Android device. Common for everyone's ear: Packed with 3 pairs of inner rings and silicon earplugs (large, medium and small). So this headset can be used by everyone, do not worry about the size. Full length cable length: total cable length up to 2.2m. As a result, headphones with a microphone can fully meet the player's requirements during the game.</t>
   </si>
   <si>
     <t>High-Fidelity Audio: Enhanced 6mm dynamic drivers deliver rich, clean sound. MEMS microphone technology enables clearer calls Long Battery Life: Up to 8 hours of playback time (about 220 songs) or 240 hours of standby time on a single 1.5-hour charge Comfortable &amp; Secure Fit: Soundtrack your activities while maintaining your focus and freedom. The earbuds design promotes ergonomic fit and firm hold even during strenuous workouts. A magnetic attachment system, IPX5 water resistance, and low 15g / 0.53oz weight further enhance functionality The Latest Bluetooth Technology: Quick and effortless dual-device connection with Bluetooth 5 Package Contents: AUKEY EP-B56 Magnetic Wireless Earbuds, Micro-USB Cable, Three Pairs of Ear-Tips, Three Pairs of In-Ear Ear-hooks, Carrying Pouch, User Manual</t>
@@ -5165,13 +5162,13 @@
     <t>Music on World off improved active noise cancellation will drown out the noise of the streets or annoying chatter to fully immerse you in your favorite tunes Hi-fi sound &amp; CAPTIVATING bass 40mm large-aperture drivers deliver riveting sound and a thumping bass New Hyper speed charge just 5 minutes of charging give you 2 hours of full sound 30 hours playtime on a full charge Bluetooth 5 0 steady Bluetooth 5 0 connection streams music uninterrupted while the built-in CVC 6 0 microphone ensure crisp clear calls without ambient noise First class comfort Adjustable headband 90° rotatable ear cups &amp; pillow-soft protein cushions fold &amp; store in the carrying case to take anywhere you go</t>
   </si>
   <si>
-    <t>【Immerse yourself into the beat】These headphones with microphone adopt High-definition 40mm driver and compact earcups design, which deliver exceptionally clear sound with full dynamic range and rich bass and crisp mids. Effortless style and powerful sound let you tune into your own rhythms with the set of on-ear headphones 【Designed for maximum comfort】Ultra-soft ear cushions and padded headband provide you a fatigue-free listening experience even wearing these on-ear headphones during a long session. Adjustable slider helps you achieve the perfect fit without constraint. You can easily use these stereo headphones for your workouts, job commute or just for listening at home 【Durable and folding design】These headphones with microphone in bright colors are built meticulously with strong and sturdy plastic for long-lasting resilience and durability. Premium 1.5m nylon braiding cord doesn’t tangle or kink, suitable for kids and Children. Lightweight and foldable design make these wired headphones easy to put into your package and take along anywhere 【Easy in-line control with microphone】Friendly in-line microphone for making calls,and skipping tracks forward and back. These on ear headphones with microphone support a wide range of devices like cell phones, computers, laptops, MP3, MP4 players other 3.5mm audio jack devices for gym, listening to music and games 【HAPPY CUSTOMERS】We are committed to serving customers with reliable quality products, PeohZarr continues to deliver the best user experience with innovative technology from a trusted brand. Please feel free to contact us if you have any request, we will solve your problem within 24 hours</t>
+    <t>Immerse yourself into the beatThese headphones with microphone adopt High-definition 40mm driver and compact earcups design, which deliver exceptionally clear sound with full dynamic range and rich bass and crisp mids. Effortless style and powerful sound let you tune into your own rhythms with the set of on-ear headphones Designed for maximum comfortUltra-soft ear cushions and padded headband provide you a fatigue-free listening experience even wearing these on-ear headphones during a long session. Adjustable slider helps you achieve the perfect fit without constraint. You can easily use these stereo headphones for your workouts, job commute or just for listening at home Durable and folding designThese headphones with microphone in bright colors are built meticulously with strong and sturdy plastic for long-lasting resilience and durability. Premium 1.5m nylon braiding cord doesn’t tangle or kink, suitable for kids and Children. Lightweight and foldable design make these wired headphones easy to put into your package and take along anywhere Easy in-line control with microphoneFriendly in-line microphone for making calls,and skipping tracks forward and back. These on ear headphones with microphone support a wide range of devices like cell phones, computers, laptops, MP3, MP4 players other 3.5mm audio jack devices for gym, listening to music and games HAPPY CUSTOMERSWe are committed to serving customers with reliable quality products, PeohZarr continues to deliver the best user experience with innovative technology from a trusted brand. Please feel free to contact us if you have any request, we will solve your problem within 24 hours</t>
   </si>
   <si>
     <t>PREMIUM COMFORT ON-EAR HEADPHONES: Featured with comfortable on-ear design, soft leather ear cushions and adjustable silicone padded headband, the on-ear headphones provide ultimate comfort for your ears even when you wear all day long. FOLD-FLAT AND PORTABLE DESIGN: The portable folding, swivel ear cups and lightweight design makes the headphones easy to store and perfect for travel. Adjustable headband is designed to fit for different shapes of heads, suitable for kids, teenagers and adults. BUILT TO LAST: Extremely durable with reinforced steel headband and nylon braided audio cable, the headphones will not break even with rough handling. IMPRESSIVE STEREO SOUND: With advanced digital audio processing technology and high fidelity drivers, this foldable music headphones deliver superb clear stereo sound and make you enjoy music on the way. (Please NOTE: The headphones have a built-in microphone, but don’t have volume control.) UNIVERSAL COMPATIBILITY: Compatible with all 3.5mm audio jack devices, such as iPhone, iPad, iPod, Android cellphones, tablets, PC, laptops and more.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ERGONOMICS DESIGN: Earbuds with ergonomic angular design and soft &amp; premium ear tips not only give you a comfortable listening experience but also less likely to fall out even when you are running, hiking or jogging. It comes with 3 different size of ear tips(S/M/L), you can choose a better one to fit your ears Quality stereo sound: stereo ear buds produces Premium Stereo Sound, high-fidelity sound with enhanced bass. Everyone can take their music listening experience to the higher level Tangle free cord: soft and durable cable is built to last and designed to resist tangling for frustration-free use. The tangle-free cord stores neatly and keeps you connected to your device in smooth, simple style. Slim &amp; extended 3. 5mm connector is small enough that it will not conflict with your phone case cutout and is more durable than L Type connector Crisp audio &amp; enhanced bass: strong bass, comfortable earbud headphones with a great seal which minimize outside noise so you can hear the beats clearly. The perfect portable earbud headphones offer sleek style and an excellent on-the-go choice for keeping you in sync with sound that inspires. Please note: this earbuds do not support volume control, microphone 12-Month : 3. 5mm Audio jack compatible with any 3. 5mm Audio devices including iPhone, iPad, iPod, Mac, iMac, PS3/PS4, MP3/MP4 Player and more. 12-Month （free replacement or refund）</t>
+    <t xml:space="preserve"> ERGONOMICS DESIGN: Earbuds with ergonomic angular design and soft &amp; premium ear tips not only give you a comfortable listening experience but also less likely to fall out even when you are running, hiking or jogging. It comes with 3 different size of ear tips(S/M/L), you can choose a better one to fit your ears Quality stereo sound: stereo ear buds produces Premium Stereo Sound, high-fidelity sound with enhanced bass. Everyone can take their music listening experience to the higher level Tangle free cord: soft and durable cable is built to last and designed to resist tangling for frustration-free use. The tangle-free cord stores neatly and keeps you connected to your device in smooth, simple style. Slim &amp; extended 3. 5mm connector is small enough that it will not conflict with your phone case cutout and is more durable than L Type connector Crisp audio &amp; enhanced bass: strong bass, comfortable earbud headphones with a great seal which minimize outside noise so you can hear the beats clearly. The perfect portable earbud headphones offer sleek style and an excellent on-the-go choice for keeping you in sync with sound that inspires. Please note: this earbuds do not support volume control, microphone 12-Month : 3. 5mm Audio jack compatible with any 3. 5mm Audio devices including iPhone, iPad, iPod, Mac, iMac, PS3/PS4, MP3/MP4 Player and more. 12-Month （free replacement or refund）</t>
   </si>
   <si>
     <t>Deep, immersive sound, improved EQ best in class performance for wireless headphones. Connectivity Technology: Wired/Wireless Latest Bluetooth technology for easy connectivity and seamless audio/video syncs Advanced microphone system, HD voice for clear calls in windy or noisy environments Up to 15 hours play time with rechargeable lithium ion battery Switch between two Bluetooth devices so you can watch a video while staying connected to your smartphone.Wireless range up to 30 feet (9 meter)</t>
@@ -5192,28 +5189,28 @@
     <t>Lightweight in-ear stereo earphones provides natural clear and super enhanced bass sound Compatible with all Apple Devices, Android, Smartphone, MP3 player, Laptop, Tablets, other devices with 3.5mm headphone port. All metal housings tuned for accurate music reproduction and amazing clear BASS. Comfortable In-ear design earphones with soft silicone rubber eartips (S/M/L) which can isolate outside noise with highly qualified sound insulation effect 1 Year Warranty and 30 days money back guarantee</t>
   </si>
   <si>
-    <t>【Packing】 2 pairs of MAS CARNEY headphones packaged in one package, one Black color and one White color. 【Technical Details】 Headphone with 9mm high definition speaker driver, 3.5mm jack, slack-free cable, cable length 120cm. 【High Quality Stereo Sound】Headphones with Excellent Sound Quality! Provides Clear and Natural High-Quality sound,please Enjoy! 【Wide Compatibility】 Our Jiayou headphones can be connected to all music input devices with 3.5mm input, compatible with Huawei Mate Honor Mi Samsung Galaxy, Android smartphones and tablets, Windows devices and other devices with 3.5mm headphone jack. 【Reliable Guarantee】Amazon Standard Warranty, 30day Money Back Guarantee for Jiayou headphones earphones. If any assistance required, please contact us at service@jiayousmart.com, we promise to promptly handle for you and make you satisfied.</t>
-  </si>
-  <si>
-    <t>【Bluetooth 5.0 and Automatic Pairing】AMZLIFE wireless headphones are equipped with the latest Bluetooth 5.0, the signal becomes stronger and compatible with ios and android.When you remove the headset from the case, the headset will automatically enter pairing mode and you can easily connect to Bluetooth（F9 V5.0） 【Convenient Touch Operation】This is a touch bluetooth headset, you can easily play / pause, volume control and music switching just by touching the headset. In addition, wireless earphones are designed to easily adapt to the shape of the human ear, thereby reducing the burden on the ears 【One ear / Binaural mode】Left and right separation type, by opening and closing the lid, you can more easily switch the pairing of the two ears and the connection of one ear, and convert it to one ear as soon as possible without interference / Binaural mode（The storage part of the charging case is equipped with a magnet, so there is no need to worry about losing them） 【LED Display and Charging to Other Devices】The battery level indicator allows you to check the battery level. Through a storage box that can be clicked with a magnet system, the headset can be charged about 10 times by fully charging the phone with a mobile battery function, and can be quickly charged to other devices 【QUALITY GUARANTEE】12-month worry-free quality guarantee and lifetime after-sales service to demonstrate our commitment to quality. And help you solve the problem within 24 hours</t>
-  </si>
-  <si>
-    <t>【Designed For Comfort】Pliable, tri-flange ergonomically shaped in-ear tips mould to the ear cavity to maximize comfort and helps provide a secure fit to block dangerous noises effectively, which is beneficial if you intend to wear them and enjoy the music for an extended period at work. 【Great Noise Protection】They offer a noise reduction rating (NRR) of 29 decibels which will protect your ears from hazardous noise in most noisy environments, with the ability to listen to music. With the earplug tips blocking out ambient noise, the tuned speakers can deliver high quality sound that is clear, rich and satisfying. 【Sweat-resistant &amp; Lightweight】These earbuds tips are made of soft silicone, they are sweat-resistant, so workers never need to fret over their earphones in hot working conditions. Mipeace earphones are light, weighing in at just 10 grams (0.35 oz), preventing wearer fatigue even after a long day. 【Durable &amp; Long Lasting】 The earbuds are built to last, the cable is made in bulletproof tough wire and tested to the pull strength which is sturdy and tear-resistant, also the audio jack is double-reinforced, so these earphones can stand up to hours of use, day after day. The 125CM extra long wire won’t restrict your movement as well. 【Wide Application】The 3.5mm jack plug works with Apple and Android products, allowing you to enjoy your favourite audiobook or musical artist while protecting the hearing. Ideal for activities like Landscaping, Public Transit, Gun Range, Construction, Gym, Yard Work, Air Travel and many more.</t>
+    <t>Packing 2 pairs of MAS CARNEY headphones packaged in one package, one Black color and one White color. Technical Details Headphone with 9mm high definition speaker driver, 3.5mm jack, slack-free cable, cable length 120cm. High Quality Stereo SoundHeadphones with Excellent Sound Quality! Provides Clear and Natural High-Quality sound,please Enjoy! Wide Compatibility Our Jiayou headphones can be connected to all music input devices with 3.5mm input, compatible with Huawei Mate Honor Mi Samsung Galaxy, Android smartphones and tablets, Windows devices and other devices with 3.5mm headphone jack. Reliable GuaranteeAmazon Standard Warranty, 30day Money Back Guarantee for Jiayou headphones earphones. If any assistance required, please contact us at service@jiayousmart.com, we promise to promptly handle for you and make you satisfied.</t>
+  </si>
+  <si>
+    <t>Bluetooth 5.0 and Automatic PairingAMZLIFE wireless headphones are equipped with the latest Bluetooth 5.0, the signal becomes stronger and compatible with ios and android.When you remove the headset from the case, the headset will automatically enter pairing mode and you can easily connect to Bluetooth（F9 V5.0） Convenient Touch OperationThis is a touch bluetooth headset, you can easily play / pause, volume control and music switching just by touching the headset. In addition, wireless earphones are designed to easily adapt to the shape of the human ear, thereby reducing the burden on the ears One ear / Binaural modeLeft and right separation type, by opening and closing the lid, you can more easily switch the pairing of the two ears and the connection of one ear, and convert it to one ear as soon as possible without interference / Binaural mode（The storage part of the charging case is equipped with a magnet, so there is no need to worry about losing them） LED Display and Charging to Other DevicesThe battery level indicator allows you to check the battery level. Through a storage box that can be clicked with a magnet system, the headset can be charged about 10 times by fully charging the phone with a mobile battery function, and can be quickly charged to other devices QUALITY GUARANTEE12-month worry-free quality guarantee and lifetime after-sales service to demonstrate our commitment to quality. And help you solve the problem within 24 hours</t>
+  </si>
+  <si>
+    <t>Designed For ComfortPliable, tri-flange ergonomically shaped in-ear tips mould to the ear cavity to maximize comfort and helps provide a secure fit to block dangerous noises effectively, which is beneficial if you intend to wear them and enjoy the music for an extended period at work. Great Noise ProtectionThey offer a noise reduction rating (NRR) of 29 decibels which will protect your ears from hazardous noise in most noisy environments, with the ability to listen to music. With the earplug tips blocking out ambient noise, the tuned speakers can deliver high quality sound that is clear, rich and satisfying. Sweat-resistant &amp; LightweightThese earbuds tips are made of soft silicone, they are sweat-resistant, so workers never need to fret over their earphones in hot working conditions. Mipeace earphones are light, weighing in at just 10 grams (0.35 oz), preventing wearer fatigue even after a long day. Durable &amp; Long Lasting The earbuds are built to last, the cable is made in bulletproof tough wire and tested to the pull strength which is sturdy and tear-resistant, also the audio jack is double-reinforced, so these earphones can stand up to hours of use, day after day. The 125CM extra long wire won’t restrict your movement as well. Wide ApplicationThe 3.5mm jack plug works with Apple and Android products, allowing you to enjoy your favourite audiobook or musical artist while protecting the hearing. Ideal for activities like Landscaping, Public Transit, Gun Range, Construction, Gym, Yard Work, Air Travel and many more.</t>
   </si>
   <si>
     <t>ERGONOMIC &amp; SECURE FIT DESIGN - Features ergonomic behind the ear and neck human engineering frame design that securely fits and comfortably sits over the ear/neck for both indoor and sports-active outdoor use from to up 33 feet of remote distance. INTUITIVE CONTROL - 5 intuitive and dedicated remote control buttons that allows easy navigation and quick access to SIRI or Android voice command (only on supported phone models and operating system), call management, wireless music streaming control, and volume adjustments. FULL SPECTRUM &amp; BALANCED OUTPUT - Equipped with noise reduction, crystal clear audio technology, and high-performance speaker driver that reproduce and deliver natural and balanced full range music spectrum for enhanced HD listening experiences. OVER 20HRs of HD WIRELESS STREAMING - Built-in high density rechargeable lithium-ion battery and microphone for up to 12 days standby time, 25 hours of hands-free talking, or 20 hours wireless music streaming from a single charge. SWEAT RESISTANT &amp; SCRATCH RESISTANT - Swivelable earcup with ultra foldable compact water-resistant frame to provide maximum comfort and portability for everyday usage. Scratch resistant surface to prevent the headset from signs of wear and tear. Covered by 1 full year manufacturer warranty with responsive and satisfactory customer service support team.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 80 Hours Playback: Get up to 4.5 hours of play time with each earbud per full charge and the 2600mAh portable charging case can provide you with a total 80 hours playback time (it can also double as a power bank). Premium Sound Quality: Made with fantanstic audio quality in mind, you can now experience more texture of bass, and better clarity of treble, to get the best music experience when exercising. IPX6 Water Resistant: Withstand sweat and rain for reliability whilst working out in adverse conditions. Dual Charging Mode: Supports wired and wireless charging, providing you with a more convenient charging method. Dual/Single Earbud Mode: With the latest Mulita Cast sync technology, you can freely switch between your right or left earbuds without any additional pairing steps or interruption with no signal loss or delay in music.</t>
+    <t xml:space="preserve"> 80 Hours Playback: Get up to 4.5 hours of play time with each earbud per full charge and the 2600mAh portable charging case can provide you with a total 80 hours playback time (it can also double as a power bank). Premium Sound Quality: Made with fantanstic audio quality in mind, you can now experience more texture of bass, and better clarity of treble, to get the best music experience when exercising. IPX6 Water Resistant: Withstand sweat and rain for reliability whilst working out in adverse conditions. Dual Charging Mode: Supports wired and wireless charging, providing you with a more convenient charging method. Dual/Single Earbud Mode: With the latest Mulita Cast sync technology, you can freely switch between your right or left earbuds without any additional pairing steps or interruption with no signal loss or delay in music.</t>
   </si>
   <si>
     <t>UPGRADE ANC TECHNOLOGY:Mpow H19 IPO active noise cancelling headphones reduce ambient noise, giving you focus and balance. No matter you’re in crowded areas, working at your desk, or a frequent commuter, you will  lose yourself in music with Mpow noise-cancelling headphones BETTER CONNECTION, BETTER SOUND QUALITY: Bluetooth 5.0 technology integrates ultra-low power consumption, better connection performance, and wider compatibility. QCC3003 chipset and 40 mm dynamic drivers deliver Hi-Fi stereo audio. Experience unbridled wireless experience and exceptional sound ALL-DAY MUSIC STREAMING: Enjoy up to 30 hours of non-stop playtime in Bluetooth mode and 15 hours music time in wireless active noise cancellation mode. When you’re in a rush, charge Mpow H19 IPO active noise cancelling headphones for 10 minutes and get 2 hours of listening. Tips: Recommend to turn off the ANC button when not in use to avoid unnecessary power consumption CRYSTAL CLEAR HANDS-FREE CALLS: Mpow Bluetooth headphones are engineered with CVC 8.0 noise cancelling microphone, which makes you hear and be heard more clearly. Whether you are at home, on a bus or subway, you will never experience muffled speeches. Built in control buttons allows you answer/hang up calls, play/pause music, turn on/off ANC functions directly from the headset LIGHTWEIGHT &amp; COMFORTABLE WEARING: Mpow lightweight Bluetooth headphones weighs only 8.47oz (240g), you will find no burden on your ears. Soft memory-protein earpads, ergonomically-designed 90° swivel ear cups &amp; adjustable headband conform to your head shape for a seamless fit. Foldable design with a carrying pouch makes travelling with your headphones easier.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) SUPERIOR SOUND QUALITY: Enjoy superb, bass sound and supreme comfort with the OneOdio Studio monitor headphones. Large, 50 millimeter speaker unit drivers combined with neodymium magnets provides stereo Hi-Fi level sound; powerful bass, clear vocal, and crisp high tones form perfect balanced sound. MAXIMUM COMFORT: The memory-protein earmuffs is Made in Germany, which designed to disperse pressure and heat build-up, combined with the soft leather headband to gives you maximum comfort &amp; superior isolation. NO MORE ADAPTER: A long, DJ-style 9.8-foot cord easily reaches from the TV or stereo to your favorite chair. A standard-sized 6.3mm plug and a 3.5mm plug are included. They both are completely detachable, so that you don't need to spend all hours of the day plugged into your mixer. SHAREPORT TECHNOLOGY: You can daisy chain together as many of these headphones as you have, share the music or movie together with your friends or families. WORKS WITH: iPad, iPod, iPhone, Android and many other audio devices. High-quality sound, supreme durability, and maximum comfort. These are the headphones you've been looking for.</t>
-  </si>
-  <si>
-    <t>♫[Design] Ergonomically-shaped contoured earhook enhances user wearing comfort and stability. ♫[Noise Isolation] Reduces ambient noise and lower distortion, extend the frequency range for the best listening experience. ♫ [Configuration]1 click: play/pause/answer/disconnect call. 2 click: next track. 3 click: previous track. ♫[Ultra-lightweight] Ideal for working, exercise, travelling and more outdoor indoor activities. ♫[Compatible with 3.5 mm headphone port] Phone 6s Plus / 6s / 6 / 5s / 5c / 5 / Note 5 / Note 4 / S8 / S7 / S6 Edge+ / S6 / S5.</t>
+    <t xml:space="preserve"> SUPERIOR SOUND QUALITY: Enjoy superb, bass sound and supreme comfort with the OneOdio Studio monitor headphones. Large, 50 millimeter speaker unit drivers combined with neodymium magnets provides stereo Hi-Fi level sound; powerful bass, clear vocal, and crisp high tones form perfect balanced sound. MAXIMUM COMFORT: The memory-protein earmuffs is Made in Germany, which designed to disperse pressure and heat build-up, combined with the soft leather headband to gives you maximum comfort &amp; superior isolation. NO MORE ADAPTER: A long, DJ-style 9.8-foot cord easily reaches from the TV or stereo to your favorite chair. A standard-sized 6.3mm plug and a 3.5mm plug are included. They both are completely detachable, so that you don't need to spend all hours of the day plugged into your mixer. SHAREPORT TECHNOLOGY: You can daisy chain together as many of these headphones as you have, share the music or movie together with your friends or families. WORKS WITH: iPad, iPod, iPhone, Android and many other audio devices. High-quality sound, supreme durability, and maximum comfort. These are the headphones you've been looking for.</t>
+  </si>
+  <si>
+    <t>[Design] Ergonomically-shaped contoured earhook enhances user wearing comfort and stability. [Noise Isolation] Reduces ambient noise and lower distortion, extend the frequency range for the best listening experience.  [Configuration]1 click: play/pause/answer/disconnect call. 2 click: next track. 3 click: previous track. [Ultra-lightweight] Ideal for working, exercise, travelling and more outdoor indoor activities. [Compatible with 3.5 mm headphone port] Phone 6s Plus / 6s / 6 / 5s / 5c / 5 / Note 5 / Note 4 / S8 / S7 / S6 Edge+ / S6 / S5.</t>
   </si>
   <si>
     <t>Robust Sound Quality: Hear the soul of your music with clarity and precision. You’ll never miss a beat in your adrenaline-pumping game or while listening to the harmonizing notes of your favorite band. Easy and Fast NFC Pairing: We made it convenient for you to flip the switch to NFC and touch your device for instant pairing. Easily move from your phone to your friend’s to hear what she’s enjoying! Master Equalizer with 3 Selectable Modes. Whether you’re looking for more punch, a warmer sound, or bass that will rattle your innards, an EQ can help you dial in the sound that suits you best. Choose Bluetooth Connectivity or Wired Entertainment: Syncs fast with your computer, phone and other devices by cordless Bluetooth or plug in the wires for uninterrupted play when the connection is sketchy. Compatible with a Variety of Platforms: Hear your jazz, rock and hip hop from any device you use. Just sync or plug in to your laptop, Apple or Android smartphone, big screen TV and so much more! *NOTE ：You need a SEPARATE Bluetooth Transmitter when connected with TV PC and other Bluetooth devices.</t>
@@ -5222,7 +5219,7 @@
     <t>Critically acclaimed sonic performance praised by top audio engineers and pro audio reviewers Proprietary 45 millimeter large aperture drivers with rare earth magnets and copper clad aluminum wire voice coils Exceptional clarity throughout an extended frequency range, with deep, accurate bass response Circumaural design contours around the ears for excellent sound isolation in loud environments 90 degree swiveling earcups for easy, one ear monitoring, and professional grade earpad and headband material delivers more durability and comfort Professional grade studio monitor headphones with a detachable cable</t>
   </si>
   <si>
-    <t>✅HEADPHONES IN BULK 50 PACK - Factory wholesale class set of 50 pack low cost stereo headphones, each kids headphones individually packaged and sealed. ✅KIDS HEADPHONES WITH HIGH QUALITY SOUND - Bulk earphone stereo sound offers full audio clear for excellent sound quality, class set headphones for students listening and testing. ✅COMFORTABLE AND DURABLE - Use more comfortable and soft leatherette ear cushions are comfortable to wear for extended use and can be wiped down between uses for easy cleaning; Headphones bracket can be adjusted to shrink by 3cm and is made of carbon fiber plastic, which is light, elastic and not easy to break and suitable for repeated use by children. ✅COMPARTIBILITY FIT - Length 4 feet or 1.2 meter, Gold plated 3.5mm aux jack compatible with most smartphones and other devices, perfer for iPhones, iPads, Macbook, Chromebook, Laptop, PC, Andriod tablet, It's the best choice for class set of headphones for teens. ✅ HEADSET BULK SERVICE - 1 Year Hassle Free limited service and quick response customer service, if you have any questions when using, feel free to contact us via Amazon email or through the contact information on the instructions.</t>
+    <t>HEADPHONES IN BULK 50 PACK - Factory wholesale class set of 50 pack low cost stereo headphones, each kids headphones individually packaged and sealed. KIDS HEADPHONES WITH HIGH QUALITY SOUND - Bulk earphone stereo sound offers full audio clear for excellent sound quality, class set headphones for students listening and testing. COMFORTABLE AND DURABLE - Use more comfortable and soft leatherette ear cushions are comfortable to wear for extended use and can be wiped down between uses for easy cleaning; Headphones bracket can be adjusted to shrink by 3cm and is made of carbon fiber plastic, which is light, elastic and not easy to break and suitable for repeated use by children. COMPARTIBILITY FIT - Length 4 feet or 1.2 meter, Gold plated 3.5mm aux jack compatible with most smartphones and other devices, perfer for iPhones, iPads, Macbook, Chromebook, Laptop, PC, Andriod tablet, It's the best choice for class set of headphones for teens.  HEADSET BULK SERVICE - 1 Year Hassle Free limited service and quick response customer service, if you have any questions when using, feel free to contact us via Amazon email or through the contact information on the instructions.</t>
   </si>
   <si>
     <t>ENJOY BETTER SOUND: Audiophile earbuds deliver your music with the highest quality. You know you're getting the best because we use only the best parts BETTER COMPONENTS: this trademarked earphone bliss comes from dynamic Dual Drivers, (normally these are found in 100 dollar earbuds) DESIGNED FOR YOUR LISTENING DEVICE: fine-tuned 16 Ohm impedance gives you the most powerful sound from every device (cell phones, iPads, iPhones, Android, Samsung, LG, HTC, etc.), up to 118 decibels (they get loud) A MORE DETAILED EXPERIENCE: premium frequency range from 5 Hz to 31, 000 Hz: going above and beyond the total human hearing range THE AUDIOPHILE PROMISE: if you're not in love from day one, you get a full refund, no questions asked. But we're pretty sure they're goanna be your ears' new BFFs. And if you would like a second pair, we'll give you an additional 10 percent off of it. See the coupon info in the "Special Offers and Product Promotions" section below (above Technical Details and Product Description)</t>
@@ -5231,10 +5228,10 @@
     <t>ALL-IN-ONE AUDIO HEADPHONE SET – Bundle Pack Includes HD Wireless Headset, Transmitter/Charging Dock &amp; BONUS Y-Adapter w/3.5mm Stereo &amp; 2 NeeGo RCA Plugs EASY WIRELESS CONNECTIVITY – Radio Frequency Headphones Let You Move Freely Up to 150 Ft Through Walls &amp; Ceiling; Battery Life Up to 20 Hours Per Charge SENSATIONAL HD PERFORMANCE – Sony Technology Produces High Fidelity Sound &amp; Booming Bass w/ Noise Reduction, Voice Mode, Volume Control &amp; Auto Tune OPTIMIZED FOR CINEMA – Durable, Powerful 40mm Drivers Render Clear, Warm, Detailed Sound, Dynamic Music &amp; Crisp Dialogue for All Your Hi-Fi Entertainment EXTREME COMFORT DESIGN – Soft, Adjustable Over Ear Pads Provide a Secure Yet Lightweight Fit for Watching Movies, Binging TV, Playing Videogames &amp; Beyond</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Integrated microphone and smartphone playback control 9mm neodymium drivers for dynamic sound Comfortable, secure-fitting silicone earbuds Flexible, 3.94 ft y-shaped cord Lightweight design for easy portability In the box: Cord adjuster, 3 pairs of ear tips (small, medium, large). Connectivity Technology: Wired Frequency Response - 5Hz-24,000Hz , Impedance - 16 ohm</t>
-  </si>
-  <si>
-    <t>🎧【HIFI 6D STEREO SOUND&amp; TWS BLUETOOTH 5.0】Equipped with special sound-effect dynamic speaker, Mugo true wireless earbuds achieve a 6D surround sound quality and DSR surround auditory feast. Powered by latest Bluetooth 5.0+ Dual Antenna which dramatically enhances the stability and connection of the earbuds; Wireless Bluetooth headphones work flawlessly at a distance up to 33 feet (10meters). CVC 8.0 noise reduction and Bluetooth 5.0 tech provide dual stereo mic HD calls through pickup resonance ✨【3500mAh LED CHARGING CASE&amp; AUTO PAIRING】Mugo headphones wireless earbuds will be automatically activated when the charging case opened, then connecting it with your Bluetooth device. 3500mAh large capacity charging case could support 30 times fully charging for bluetooth earbuds, 5-6 hours playtime on a single charge and total 150 hours Cycling Playtime. 3500mAh charging case could also be used as a power bank via its USB port. Let's enjoy charging on-the-go. 💦【IPX8 WATERPROOF】True Wireless headphones are special designed for sports, especially equipped with IPX8 Waterproof Tech! IPX8 Waterproof Bluetooth headphones makes it suitable for sports to prevent water ingress. whether it is sunny or rainy. Perfect for running, jogging, hiking, yoga, exercises, gym, fitness, traveling and etc. (Note: The charging case is not waterproof. ) 🎸【TOUCH-CONTROL&amp; CUSTOMIZED COMFORT】 Take advantage of Ergonomic design to create a comfortable wearing experience. In-ear wireless earbuds is an ideal companion for jogging, yoga, sports, traveling etc.. They're comfortable to wear, ultralight(4 g) and has 3 different eartips sizes. Mugo wireless earbuds supports play/pause, switching tracks and handling phone calls easily by a touch. Higher stable Bluetooth connection with touch control, rid of cord, enjoy true wireless. 💖【WHAT YOU CAN GET】Mugo Wireless Earbuds x 1 (pair)；Magnetic Charging Case x 1；USB Charging Cable x 1；Ear Tips x 3 (pairs)；User Manual x 1 ♥♥MuGo provides 18 months hassle-free warranty&amp;45-Days Money-Back to ensure the enjoyment of your purchase. ♥♥</t>
+    <t xml:space="preserve"> Integrated microphone and smartphone playback control 9mm neodymium drivers for dynamic sound Comfortable, secure-fitting silicone earbuds Flexible, 3.94 ft y-shaped cord Lightweight design for easy portability In the box: Cord adjuster, 3 pairs of ear tips (small, medium, large). Connectivity Technology: Wired Frequency Response - 5Hz-24,000Hz , Impedance - 16 ohm</t>
+  </si>
+  <si>
+    <t>HIFI 6D STEREO SOUND&amp; TWS BLUETOOTH 5.0Equipped with special sound-effect dynamic speaker, Mugo true wireless earbuds achieve a 6D surround sound quality and DSR surround auditory feast. Powered by latest Bluetooth 5.0+ Dual Antenna which dramatically enhances the stability and connection of the earbuds; Wireless Bluetooth headphones work flawlessly at a distance up to 33 feet (10meters). CVC 8.0 noise reduction and Bluetooth 5.0 tech provide dual stereo mic HD calls through pickup resonance ✨3500mAh LED CHARGING CASE&amp; AUTO PAIRINGMugo headphones wireless earbuds will be automatically activated when the charging case opened, then connecting it with your Bluetooth device. 3500mAh large capacity charging case could support 30 times fully charging for bluetooth earbuds, 5-6 hours playtime on a single charge and total 150 hours Cycling Playtime. 3500mAh charging case could also be used as a power bank via its USB port. Let's enjoy charging on-the-go. 💦IPX8 WATERPROOFTrue Wireless headphones are special designed for sports, especially equipped with IPX8 Waterproof Tech! IPX8 Waterproof Bluetooth headphones makes it suitable for sports to prevent water ingress. whether it is sunny or rainy. Perfect for running, jogging, hiking, yoga, exercises, gym, fitness, traveling and etc. (Note: The charging case is not waterproof. ) 🎸TOUCH-CONTROL&amp; CUSTOMIZED COMFORT Take advantage of Ergonomic design to create a comfortable wearing experience. In-ear wireless earbuds is an ideal companion for jogging, yoga, sports, traveling etc.. They're comfortable to wear, ultralight(4 g) and has 3 different eartips sizes. Mugo wireless earbuds supports play/pause, switching tracks and handling phone calls easily by a touch. Higher stable Bluetooth connection with touch control, rid of cord, enjoy true wireless. 💖WHAT YOU CAN GETMugo Wireless Earbuds x 1 (pair)；Magnetic Charging Case x 1；USB Charging Cable x 1；Ear Tips x 3 (pairs)；User Manual x 1 ♥♥MuGo provides 18 months hassle-free warranty&amp;45-Days Money-Back to ensure the enjoyment of your purchase. ♥♥</t>
   </si>
   <si>
     <t>Amazing Sound Quality : Providing customers with outstanding sound quality and satisfaction is our paramount goal. High definition stereo headphones together with advanced software and noise reduction technology are designed to reduce ambient noises. It is ideal for phone calls, music, and entertainment. Lose yourself in immersive music even in the lowest volume levels!  Seamless Bluetooth Connection: Tuinyo Wireless Headphones are compatible with all Bluetooth or 3.5mm plug cable enabled devices such as iPhone, Smart android phones, Tablet, Laptop, iPads, MP3/4 Player, Compuer, MacBook and other Bluetooth devices. Just slide the on/off button and the headphones will be in ready to pair mode. It is built to provide a quick and stable Bluetooth connection and to enable hands-free communication through our special noise reduction technology.  Built for Comfort: The super soft memory-protein foam leather earmuff is designed to mimic human skin texture, ensuring lasting comfort and excellent durability. The foldable and stretchable design allows you to find the perfect fit without constraint. It also come with a protective Premium Case to reduce wear and tear. Tuinyo is the best Choice for Travel, Sport and Every day use by people from all ages. Amazing Stereo Hi-Fi Sound: Tuinyo High Definition Stereo Headphones provide superb music and voice clarity. It is also compatible for playstation, xbox, PC gaming, music or TV (Bluetooth headhones) with rich low frequency and clear treble. It is ideal for audio lovers and gamers. Get started and become completely immersed in the music world! Long Battery Life &amp; Dual Mode: Tuinyo Headphones are Rechargeable. 450mAh battery, 14 hours of music time, 2.5 hours Fast Charging. You have the freedom to switch between wired mode or wireless mode without interruption. You do not need to worry about power shortage problem for the long travel. You are covered with 12 Months warranty and quick response &amp; friendly customer service.</t>
@@ -5243,7 +5240,7 @@
     <t>One-Step Pairing: The true wireless earbuds with one-step pairing technology. Just pick up 2 earbuds out of the charging case. It will connect with each other automatically, then only one step easily enters your phone Bluetooth setting to pair the headphones. Comfort-Fit All Day: Ergonomic in-ear design, the wireless earbuds snug and secure fit in your ears. It will not fall during when you running, fitness or exercise and also creates a better seal for enhanced noise isolation. Breathtaking Stereo Quality：The TWS earbuds left and right headphones form a stereo system via Bluetooth 5.0. stereo sound quality and design give you the perfect sound, Also available crystal clarity and Deep, resonant bass with delicately tuned sound signature deliver immersive sound. Type-C Quick Charge &amp; Bluetooth 5.0: Type-c USB 3 Provides faster-charging speed. charge fully in 90 minutes with a more stable and safer way charge. The Bluetooth 5.0 Chip, Offers Fast Speed, Stable Connection, Enable to 33ft Transmission. Multifunctional Bluetooth 5.0 Earphones: True TWS headphones means be able to use alone or simultaneously. You can operating Music switch, call answer/end, voice control, activate Siri/Bixby, We offer 90-DAY RETURNS &amp;1-YEAR WARRANTY，TRY IT NOW WITHOUT RISK</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Exceptional clarity experience sound that's like ‘being there’ thanks to sennheiser category leading truly wireless technology Fingertip control control your music, calls and voice assistant simply through intuitive touchpad technology built into both True Wireless earbuds Stay aware transparent hearing keeps you aware of your surroundings, allowing you to easily listen and chat wirelessly Without having to remove your earbuds Extended listening 4 hours of truly wireless listening becomes 12 with our compact charging case that gives you 2 full extra charges.Microphone sensitivity: 94 dB SPL at 1 kHz Handle conditions made for every True Wireless listening environment with durable, Tough, splash resistant materials. (IPX4 rated). NOTE: Kindly refer the Instructional Video from the Image Section and User Guide from the Technical Specification before use which is highly recommended</t>
+    <t xml:space="preserve"> Exceptional clarity experience sound that's like ‘being there’ thanks to sennheiser category leading truly wireless technology Fingertip control control your music, calls and voice assistant simply through intuitive touchpad technology built into both True Wireless earbuds Stay aware transparent hearing keeps you aware of your surroundings, allowing you to easily listen and chat wirelessly Without having to remove your earbuds Extended listening 4 hours of truly wireless listening becomes 12 with our compact charging case that gives you 2 full extra charges.Microphone sensitivity: 94 dB SPL at 1 kHz Handle conditions made for every True Wireless listening environment with durable, Tough, splash resistant materials. (IPX4 rated). NOTE: Kindly refer the Instructional Video from the Image Section and User Guide from the Technical Specification before use which is highly recommended</t>
   </si>
   <si>
     <t>Natural Sound Quality &amp; Noise Isolating: GGMM wired headphones in ear design combined with the correct ear tips will seal your music in and leave the external noise out and delivers natural clear and super enhanced bass sound. Durable Earbuds: GGMM durable wired earbuds chooses aircraft grade aluminium for housings, CNC processing technology, compact light weight design make it the perfect choice when exercising, traveling, or enjoying music during your daily. Package includes 3 extra sets of ear tips from small, medium, to large for a perfect fit. Easy to Use: This earbuds with microphone is convenient for hands-free calling. 1-button in-line remote gives you the power to easily answer and end phone calls, control songs play/pause, skip or rewind, call out Siri. Wide Compatible Earphones with Mic: GGMM sport earbuds' 3.5mm Jack plug 100% fits most Smart Phones, Tablets, PC, Music Player,Laptop, other devices with 3.5mm port. What You Gets: GGMM Black earphones with microphone* 1, replaceable ear tips(S/M/L)* 4, user manual* 1, travel pouch*1, 1 year warranty and get 1 year extra free by registering on website, 1 * warranty card and 7/24 hrs friendly customer service.</t>
@@ -5252,25 +5249,25 @@
     <t>Professional Active Noise Cancelling Technology. Significant noise reduction for travel, work and anywhere in between. Advanced active noise reduction technology quells airplane cabin noise, city traffic or a busy office, makes you focus on what you want to hear,enjoy your music, movies and videos. The noise cancellation function can work well both in wire and wireless mode. Proprietary 40mm Large-aperture Drivers. Deep, accurate bass response. The Active Noise Cancelling around-ear headphones from COWIN give you crisp, powerful sound and quiet that helps you enjoy your music better. The goal that provide Customers with better sound quality, is our constant pursuit. High-quality Built-in Microphone and NFC Technology. COWIN E7 provides high-quality built-in microphone for hands-free calls, Which is convenient for you to free yourself from wires. NFC pairing aided by voice prompts, promises quick and stable connection with your Bluetooth enabled devices, Powerful Bluetooth Function. The Professional Protein Earpad and 90° Swiveling Earcups. More durability and comfort, Enjoy high-quality, Long-listen comfort. Skin texture, lightweight comfortable around-ear fit you can wear all day long. Gentle Reminder: please take off the headphone every 2-3 hrs to get your ears relax, in order to get better hearing enjoyment, and keep the head comfortable. 30 Hours Playtime Per Charge at Bluetooth Mode. A built-in 600mAh battery won't allow your headphones power off, you can enjoy your world without noise for 30 hours' long time. Don't need to worry the power shortage problem on the long travel. 18-month warranty and quick response &amp; friendly customer service. Note: The exclusive authorized seller is COWIN.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ❎ BLOCK NOISE: heat-activated memory foam eartips expand like earplugs to significantly reduce outside noise. ISOtunes PRO hearing protection headphones are ANSI-certified and OSHA-compliant with a 27 dB Noise Reduction Rating (NRR) and ISOtunes SafeMax Technology. Comes with 4 pairs of foam eartips and 1 pair of silicone triple-flange eartips. 🎵 WIRELESS MUSIC &amp; CALLS: wirelessly play music and take calls 30+ feet from your device with Bluetooth 4.1 technology. Features high-fidelity speakers and aptX streaming audio. 🔋 USE ALL DAY: 10+ hour battery life and 240-hour standby time gets you through long days without having to recharge. Custom-fit memory wires fold gently behind your ears to keep eartips securely in place during active and extended wear. Ultra-lightweight design stays comfortable all day. 📞 CLEAR CALLS IN LOUD ENVIRONMENTS: Signature noise suppressing microphone with echo cancellation technology help block steady state noise like engines, mowers, fans, vacuums, and saws for clear calls in loud environments. Isolation for you, cancellation for them 💪🏽 BUILT TO LAST: ISOtunes PRO is IP55 sweat &amp; water resistant and comes with a best-in-class 1-year limited manufacturer’s warranty.›See more product details</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) On-ear headphones has padded soft cushions and noise reduction. Adjustable headband to ensure a perfect fit, and a lightweight design for kids age 3 and up. Foldable design for a more compact storage. The cord is a 5 feet long nylon braided cable. Designed for kids, girls, boys, children, toddlers, school. 24-Month Hassle-Free Warranty, Easy to Reach Customer Service. Please note that there is NO microphone, remote or volume control on these headphones. Compatible with all smartphones and tablets with 3.5mm jack devices</t>
+    <t xml:space="preserve"> ❎ BLOCK NOISE: heat-activated memory foam eartips expand like earplugs to significantly reduce outside noise. ISOtunes PRO hearing protection headphones are ANSI-certified and OSHA-compliant with a 27 dB Noise Reduction Rating (NRR) and ISOtunes SafeMax Technology. Comes with 4 pairs of foam eartips and 1 pair of silicone triple-flange eartips. 🎵 WIRELESS MUSIC &amp; CALLS: wirelessly play music and take calls 30+ feet from your device with Bluetooth 4.1 technology. Features high-fidelity speakers and aptX streaming audio. 🔋 USE ALL DAY: 10+ hour battery life and 240-hour standby time gets you through long days without having to recharge. Custom-fit memory wires fold gently behind your ears to keep eartips securely in place during active and extended wear. Ultra-lightweight design stays comfortable all day. 📞 CLEAR CALLS IN LOUD ENVIRONMENTS: Signature noise suppressing microphone with echo cancellation technology help block steady state noise like engines, mowers, fans, vacuums, and saws for clear calls in loud environments. Isolation for you, cancellation for them 💪🏽 BUILT TO LAST: ISOtunes PRO is IP55 sweat &amp; water resistant and comes with a best-in-class 1-year limited manufacturer’s warranty.›See more product details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On-ear headphones has padded soft cushions and noise reduction. Adjustable headband to ensure a perfect fit, and a lightweight design for kids age 3 and up. Foldable design for a more compact storage. The cord is a 5 feet long nylon braided cable. Designed for kids, girls, boys, children, toddlers, school. 24-Month Hassle-Free Warranty, Easy to Reach Customer Service. Please note that there is NO microphone, remote or volume control on these headphones. Compatible with all smartphones and tablets with 3.5mm jack devices</t>
   </si>
   <si>
     <t>Waterproof:Built-in speaker of high-fidelity offers a crisp, stereo sound with strong deep bass. Waterproof design allows you use it freely in the rain and sweaty workout. Switch Freely:Single multifunctional button allows you answer/end call, play/pause, skip and replay songs by the earphones. No need to take out your phone. Built-in mic gives you hands-free calling. Comfortable Design:Ergonomics design and soft earbuds make the earphone fit your ears perfectly. Feeling comfortable after long time use. TPE soft cable is free of tangle. Universal Compatibility:Work with all devices with 3.5mm vocal port such as iPhone 6 / 6s / 6 Plus / 6s Plus / 5s / SE，iPad Mini，iPod touch 5，iPod Nano 7，Samsung Galaxy S9 / S8 / S7，Blackberry，Nexus，Sony，and other Android smart phones. What You Get:A pair of Premium metal earphones. If you have any questions, please feel free to contact us.</t>
   </si>
   <si>
-    <t>【 MFi CERTIFIED】- MFi certification means QUALITY GUARANTEED. NO damage to iOS devices, NO error message popping up. You don’t need an extra lighting connector. 【MEMS Microphone and Remote Control】- All-in-one controller allows you to control music/video playback, adjust volume, wake up Siri and take calls 【High-Quality Call】-The speakers inside the earphones have been engineered to maximize sound output and minimize sound loss, which means you get high-quality calls. 【 90 DAYS REFUND and 1-Year Replacement Warranty 】 We offer 90-day money back and 12-month replacement. If you have any issues with this product, don’t hesitate to us ﹛ support_popa@yeah.net ﹜</t>
+    <t xml:space="preserve"> MFi CERTIFIED- MFi certification means QUALITY GUARANTEED. NO damage to iOS devices, NO error message popping up. You don’t need an extra lighting connector. MEMS Microphone and Remote Control- All-in-one controller allows you to control music/video playback, adjust volume, wake up Siri and take calls High-Quality Call-The speakers inside the earphones have been engineered to maximize sound output and minimize sound loss, which means you get high-quality calls.  90 DAYS REFUND and 1-Year Replacement Warranty  We offer 90-day money back and 12-month replacement. If you have any issues with this product, don’t hesitate to us ﹛ support_popa@yeah.net ﹜</t>
   </si>
   <si>
     <t>Breakthrough 2.4GHz RF technology : Adopting advanced 2.4GHz digital wireless technology, RCA wireless over ear TV headphones gives steadier signal transmission and lower distortion, ensuring perfect audio and image synchronization without delay, allowing you to walk around in your house while listening. Triple the wireless range than the traditional Bluetooth headphone from 33ft to 100ft. Stereo sound quality &amp; No audio leakage : Solid bass and crisp highs with a solid mid range to boost yourself. Whether for elderly hard of hearing, or for yourself watching TV while not disturbing other people. RCA wireless TV headphones will be your right choice. Long-wear comfort &amp; charge easily : Fitting different heads snugly, elastic interior band with super soft ear pads offers you a comfortable wearing experience and a stylish look. 8 hours playtime are provided on a full charge.(Make sure headphones fit securely with the connections on charging dock while charging). Wide compatibility : As long as your device has a 3.5mm audio port or red and white audio out ports, RCA hearing aids headphones can easily hook up with your device. Compatible devices include TV, Set Top Box, TV Box, PC, phone, tablets, MP3, iPod, VCD, DVD, Hi-Fi Stereo System, VCR, CD player etc. 12-Month warranty : We have been committed to making high quality over ear digital wireless TV headphones. If you have any questions, just contact us, our sincere service will definitely make smile back to your face.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Feel the power of extra bass Wireless Audio with Bluetooth technology Up to 15 hours of battery life with Quick charging (10min charge = 60min of playback). Battery Charge Time - Approx. 3 hrs (Full charge) 12mm driver units for crisp, clear sound Flexible and lightweight cables Hands-free calling and voice assistant compatible Magnetic buds for easy carrying In the box: USB Type-C</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) High Fidelity Sound: 11mm vibrating diaphragm, CSR chip and Bluetooth 4. 1 technology deliver high-fidelity audio; CVC noise cancellation Built-in mic for stereo sound and superb bass sound. Clear high &amp; low volume, makes calls clear and stable IPX7 Waterproof: Sports Earbuds Design, Internal nano-coating protects the headphones from heavy rains or sweat throughout intense exercises; just enjoy your time when running, jogging, riding, hiking, fitness, or in the gym Foolproof Operation: Control buttons on the headphones so that you can play and pause music, adjust the volume, skip tracks, answer and end calls, and activate the voice control of your phone with one simple operation on the headphones Long Playtime: Built-in polymer lithium battery; Only 2 hours charge gives you up to 8 hours talk time/audio play time, enough to power your workouts with music for a week Comfortable and Stable: Lightweight and ergonomic design, customizable accessories with large, medium, and small size of gel eartips; soft silicon earhooks ensure comfortable and secure wear in even most intense workout</t>
+    <t xml:space="preserve"> Feel the power of extra bass Wireless Audio with Bluetooth technology Up to 15 hours of battery life with Quick charging (10min charge = 60min of playback). Battery Charge Time - Approx. 3 hrs (Full charge) 12mm driver units for crisp, clear sound Flexible and lightweight cables Hands-free calling and voice assistant compatible Magnetic buds for easy carrying In the box: USB Type-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High Fidelity Sound: 11mm vibrating diaphragm, CSR chip and Bluetooth 4. 1 technology deliver high-fidelity audio; CVC noise cancellation Built-in mic for stereo sound and superb bass sound. Clear high &amp; low volume, makes calls clear and stable IPX7 Waterproof: Sports Earbuds Design, Internal nano-coating protects the headphones from heavy rains or sweat throughout intense exercises; just enjoy your time when running, jogging, riding, hiking, fitness, or in the gym Foolproof Operation: Control buttons on the headphones so that you can play and pause music, adjust the volume, skip tracks, answer and end calls, and activate the voice control of your phone with one simple operation on the headphones Long Playtime: Built-in polymer lithium battery; Only 2 hours charge gives you up to 8 hours talk time/audio play time, enough to power your workouts with music for a week Comfortable and Stable: Lightweight and ergonomic design, customizable accessories with large, medium, and small size of gel eartips; soft silicon earhooks ensure comfortable and secure wear in even most intense workout</t>
   </si>
   <si>
     <t>The earphone with a remote controller and a high quality microphone, the remote controller can control volume, select songs and answer/end calls. Ergonomic and ultra-lightweight in-ear designed with durable material, reduces external noise while the sound leakage, giving you clear sound. This earphone is compatible with most 3.5mm jack device,include iPhone. iPad. iPod, also other brand. Android phone,laptops,tablets MP3,MP4,PSP and more High performance sound quality with deep bass,enjoy your Listening comfortable, and it conform to your ears, bring you the perfect audio enjoyment. If you are not satisfied with this earphone, please contact us without any hesitation, you will get our soonest reply ,and a satisfactory result.</t>
@@ -5279,16 +5276,16 @@
     <t>[TWS &amp; BLUETOOTH 5 0] - Adopt the most advanced Bluetooth 5 0 technology TOZO T10 Support HSP HFP A2DP AVRCP Provides in-call stereo sound Also own fast and stable transmission without tangling [Hi-fi stereo sound quality] - TOZO T10 offers a truly authentic sound and powerful bass performance with 8mm large size speaker driver - the drive area is 1 77 times than the normal drive area [One step pairing] - pick up 2 headsets from charging box They will connect each other automatically then only one step easily enter mobile phone Bluetooth setting to pair the earbuds [IPX8 waterproof]- earbuds and charging case inner Nano-coating makes it possible to waterproof for 1 meters deep for 30 minutes. It is suitable for sports to prevent water. Ideal for sweating it out at the gym . Even Wash the earbuds and base [Charge on-the-go]-TOZO T10 wireless earbuds can last for over 4 hours' playtime from a single charge and 14 extra hours in the compact charging case. Charging case support wireless charging. Providing convenient charging way with no strings attached</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Compatible with iPhone 11/11Pro/11Pro Max iPhone 7/7 Plus/iPhone 8/8Plus / iPhone X 10/iPhone XS / XR / XS Max Earphones, Support IOS 10/11/12 All System! ! ! It has perfect stereo sound quality, enjoy full listening comfort with soft, snug ear buds that conform to your ears, bring you the perfect audio enjoyment. Ergonomic and ultra-lightweight in-ear designed with solid sound-insulating material, reduces external noise while minimizing the sound leakage, giving you clear sound. The cord was built in a in-line controller , the controller was designed to play / pause music / next track / previous track . We are committed to providing satisfactory service to all our customers, and we will treat every customer sincerely and track each customer's orders. Don't hesitate anymore, add it to your cart now.</t>
-  </si>
-  <si>
-    <t>【Updrade Design &amp; Easy Carrying】-Upgrade version of the popular SX-991 Bluetooth headphones with active lifestyle sport yellow, feel more energetic.Unique high-end carrying case protects the Bluetooth headset from damaging and losing. Different sized ear tips with large, medium, and small size of gel eartips ensure comfortable and secure wear in even most intense workout. 【Call Vibration &amp; Top Sound Quality】-Vibration and voice prompt-when the call is coming, the Bluetooth headset will be with vibration. Will never miss any phone call even you are doing exercise or in noisy place. Latest Bluetooth technology and CVC noise cancellation Built-in mic for stereo sound and superb bass sound, makes calls clear and stable. You will love the awesome sound of these Bluetooth headphones and they are exactly what you are looking for. 【More &amp; Longer Enjoyment】BEARTWO Bluetooth headphones can provide 18 hours talking time and 16 hours music time helps you enjoy fantastic music for all day continuously during travel and sports. The earphones is easy to use even if these are your first pair of Bluetooth headphones or a gift, they are very easy to setup and they quickly pair with your smart phones and tablets. 【Ergonomic Neckband &amp; Retractable Earbuds】Ergonomic neckband design, you can wear the headphones on your neck comfort. Retractable Earbuds- a unique design for cable management, no more tangled wire obsession allows you to pull the retractable wire to the length you want and retract when not use. Perfect for long time wearing no matter in outdoor activities or in office. 【What You Get】BEARTWO offer 24-month product worry-free to make this a zero-risk purchase (If the Amazon return window is closed, please contact our customer service directly) and LIFETIME friendly 7×24 hrs customer service. PACKAGE: 1*BEARTWO Bluetooth Headphones, 1*Micro USB charging cable, 1*Carrying Case, 3*Ear Tips, 1*User Guide.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) COLLAPSIBLE FEATURE: Take your wired headphones wherever you go. Just fold them up, twist up the cord, and be on your merry way Hands-free Talking And Volume Control: The built-in mic,remote and volume control lets you pick up calls and skip between tracks without missing a beat. ADJUSTABLE HINGE: The adjustable headband gives your headphones some impressive flexibility so they can adapt to the shape of your head for a perfect fit. NOISE ISOLATION: full-sized, on-ear construction isolates from outside noise so you can hear the deep bass, and crisp mids and highs of your upcoming track. WIDELY COMPATIBLE: With a flexible and durable 47 inches braided cord and sturdy 3.5 mm stereo plug. Will not kink, twist or break under normal use. Use with all your favorite devices like Cellphones, Laptop,Computer,MP3, MP4 and other audio devices.</t>
-  </si>
-  <si>
-    <t>【High Quality Stereo Sound】Headphones with excellent sound quality! Provides clear and natural high-quality sound, please Enjoy! 【Technical Details】 Noise isolating headphone with 9mm high definition speaker driver, 3.5mm jack, slack-free cable, cable length 120cm. 【Wide Compatibility】 This headphones is designed for all music devices with 3.5mm jack input, includes smartphones, tablets, computers, laptops, MP3, PSP4 etc, compatible with Huawei Samsung Vivo Oppo Nokia Mi etc. 【Packing】 1 Pair headphones packaged in one package. 【Reliable Guarantee】Amazon Standard Warranty, 30 day Money Back Guarantee for headphones and earphones. If any assistance required, please mail us though Amazon, we promise to promptly resolve your requests.</t>
+    <t xml:space="preserve"> Compatible with iPhone 11/11Pro/11Pro Max iPhone 7/7 Plus/iPhone 8/8Plus / iPhone X 10/iPhone XS / XR / XS Max Earphones, Support IOS 10/11/12 All System! ! ! It has perfect stereo sound quality, enjoy full listening comfort with soft, snug ear buds that conform to your ears, bring you the perfect audio enjoyment. Ergonomic and ultra-lightweight in-ear designed with solid sound-insulating material, reduces external noise while minimizing the sound leakage, giving you clear sound. The cord was built in a in-line controller , the controller was designed to play / pause music / next track / previous track . We are committed to providing satisfactory service to all our customers, and we will treat every customer sincerely and track each customer's orders. Don't hesitate anymore, add it to your cart now.</t>
+  </si>
+  <si>
+    <t>Updrade Design &amp; Easy Carrying-Upgrade version of the popular SX-991 Bluetooth headphones with active lifestyle sport yellow, feel more energetic.Unique high-end carrying case protects the Bluetooth headset from damaging and losing. Different sized ear tips with large, medium, and small size of gel eartips ensure comfortable and secure wear in even most intense workout. Call Vibration &amp; Top Sound Quality-Vibration and voice prompt-when the call is coming, the Bluetooth headset will be with vibration. Will never miss any phone call even you are doing exercise or in noisy place. Latest Bluetooth technology and CVC noise cancellation Built-in mic for stereo sound and superb bass sound, makes calls clear and stable. You will love the awesome sound of these Bluetooth headphones and they are exactly what you are looking for. More &amp; Longer EnjoymentBEARTWO Bluetooth headphones can provide 18 hours talking time and 16 hours music time helps you enjoy fantastic music for all day continuously during travel and sports. The earphones is easy to use even if these are your first pair of Bluetooth headphones or a gift, they are very easy to setup and they quickly pair with your smart phones and tablets. Ergonomic Neckband &amp; Retractable EarbudsErgonomic neckband design, you can wear the headphones on your neck comfort. Retractable Earbuds- a unique design for cable management, no more tangled wire obsession allows you to pull the retractable wire to the length you want and retract when not use. Perfect for long time wearing no matter in outdoor activities or in office. What You GetBEARTWO offer 24-month product worry-free to make this a zero-risk purchase (If the Amazon return window is closed, please contact our customer service directly) and LIFETIME friendly 7×24 hrs customer service. PACKAGE: 1*BEARTWO Bluetooth Headphones, 1*Micro USB charging cable, 1*Carrying Case, 3*Ear Tips, 1*User Guide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COLLAPSIBLE FEATURE: Take your wired headphones wherever you go. Just fold them up, twist up the cord, and be on your merry way Hands-free Talking And Volume Control: The built-in mic,remote and volume control lets you pick up calls and skip between tracks without missing a beat. ADJUSTABLE HINGE: The adjustable headband gives your headphones some impressive flexibility so they can adapt to the shape of your head for a perfect fit. NOISE ISOLATION: full-sized, on-ear construction isolates from outside noise so you can hear the deep bass, and crisp mids and highs of your upcoming track. WIDELY COMPATIBLE: With a flexible and durable 47 inches braided cord and sturdy 3.5 mm stereo plug. Will not kink, twist or break under normal use. Use with all your favorite devices like Cellphones, Laptop,Computer,MP3, MP4 and other audio devices.</t>
+  </si>
+  <si>
+    <t>High Quality Stereo SoundHeadphones with excellent sound quality! Provides clear and natural high-quality sound, please Enjoy! Technical Details Noise isolating headphone with 9mm high definition speaker driver, 3.5mm jack, slack-free cable, cable length 120cm. Wide Compatibility This headphones is designed for all music devices with 3.5mm jack input, includes smartphones, tablets, computers, laptops, MP3, PSP4 etc, compatible with Huawei Samsung Vivo Oppo Nokia Mi etc. Packing 1 Pair headphones packaged in one package. Reliable GuaranteeAmazon Standard Warranty, 30 day Money Back Guarantee for headphones and earphones. If any assistance required, please mail us though Amazon, we promise to promptly resolve your requests.</t>
   </si>
   <si>
     <t>Superior Sound: Enjoy the clear sound and supreme comfort with the OneOdio Studio FUSION headphones. Large, 40-millimeter speaker unit drivers combined with neodymium magnets; powerful bass, clear vocal, and crisp high tones form perfect hi-fi sound. Built to Stay Comfortable: The high-quality padded ear cushions are specifically designed for monitor headphones maximum comfort and noise isolation. The headband is adjustable and stretchable for you to find the desired angle you like to fit in. No More Adapter: A long-style 9.8-Foot cord easily reaches from the TV or stereo to your favorite chair. A standard-sized 6.35mm plug and a 3.5mm plug are included. They both are completely detachable, you can plug in the mixer you want to use. Single-sided Monitoring: 90° swiveling earcups for single-ear monitoring anytime; self-adjustable and flexible headband delivers a fatigue-free listening experience that can last for hours, perfect for monitering and mixing. Works with: iPad, iPod, iPhone, Android, and many other audio devices. High-quality sound, supreme durability, and maximum comfort. These are the headphones you've been looking for.</t>
@@ -5300,7 +5297,7 @@
     <t>PREMIUM SOUND QUALITY NOISE CANCELLING WIRED IN EAR HEADPHONES WITH MIC- Because life's too short for sub standard audio! The Zelher MX-10 Dual Chamber Driver Earbuds block out external noise while clearly separating the mids and highs from the bass, resulting in a dramatically clear, rich balanced sound enhanced with deep bass, full midrange and crystal clear audio to ensure maximum performance. ERGONOMIC WIRED IN-EAR HEADPHONES DESIGNED WITH USER IN MIND- These superior performance wired in-ear earphones have been engineered for peak operation when you need it most- whether you’re running, working or just relaxing at home, our ergonomic design provides all-day comfort! Includes 3 sizes silicone ear tips, a protective carrying case and tangle-free cables for convenience and ease of use. ULTRA CONVENIENT IN-EAR WIRED EARBUDS WITH MIC &amp; INLINE HEADPHONE CONTROL- The innovative audio and inline mic control allows you play and pause, skip tracks, switch last or next song, adjust volume, answer, reject and end calls, or activate voice control assistance (Siri). The conveniently built-in mic on these in-ear wired headphones allow you to talk totally hands-free on your smart phone device. SLEEK AND STYLISH DUAL DRIVER EARPHONES- No need to sacrifice looks for quality- lightweight, modern and featuring a 2-toned color palette, the Zelher MX-10 inner ear headphones with mic are as trendy as they are sleek! Select from 4 different colorways: black wired earbuds, blue inner-ear earbuds, red wired earbuds or silver earbuds coupled with tangle-free cabling for a superior user experience. ULTRA COMPATIBLE IN EAR HEADPHONES WITH MIC OFFERS LIMITLESS CONNECTION- With these wired in ear headphones with microphone we offer you not only precision tuning and crystal clear audio, but a unique all-in-one versatility. Designed to be fully compatible with iOS and Android operation system: iPods, iPads, iPhones and Android devices and smartphones- the opportunities to connect are endless.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Over-ear headphones with a wide, comfortable headband for prolonged use Folds into a compact configuration for easy storage and carrying 4 ft. cord with line-in mic and remote control ABS + metallic Housing, metal &amp; up-leather</t>
+    <t xml:space="preserve"> Over-ear headphones with a wide, comfortable headband for prolonged use Folds into a compact configuration for easy storage and carrying 4 ft. cord with line-in mic and remote control ABS + metallic Housing, metal &amp; up-leather</t>
   </si>
   <si>
     <t>HIGH QUALITY SOUND: High Quality Clear Stereo Sound Make It Perfect for Classroom Test or Library Use, No Microphone SOFT RUBBER CUSHIONS: Dark Blue Soft Rubber Cushion Make This Bulk School Headphones Comfortable,Easy Change It INDIVIDUAL PACKAGE: Packed by Kaysent Carton,each Headphone Sealed by 1 Individual Plastic Bag,4 Feet Wire EFFICIENT AFTERSALES TEAM: We Will Reply Your Email in 8-12 Hours, So Easy to Contact with Us With Inner Contact Card</t>
@@ -5315,7 +5312,7 @@
     <t>Suitable for Adults &amp; Kids, Teens age 10+ Soft Over ear-pad for Kids (On ear-pad for Adults &amp; Teens), Comfortable for wearing Easy to carry and save spaces, adjustable stretching 1.5 meter cord and 3.5mm jack Ideal for use will all MP3, Phones, Tablets, Computers, DVD and CD players, and portable gaming systems</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) SUPERIOR SOUND: Enjoy clear sound and supreme comfort with the OneOdio Studio monitor headphones. Large, 50 millimeter speaker unit drivers combined with neodymium magnets; powerful bass, clear vocal, and crisp high tones form perfect hi-fi sound. BUILT TO STAY COMFORTABLE: The high quality padded ear cushions are specifically designed for monitor headphones maximum comfort and noise isolation. The headband is adjustable and stretchable for you to find the desired angle you like to fit in. NO MORE ADAPTER: A long DJ-style 9.8-foot cord easily reaches from the TV or stereo to your favorite chair. A standard-sized 6.35mm plug and a 3.5mm plug are included. They both are completely detachable, you can plug in the mixer you want to use. SINGLE-SIDE MONITORING: 90° swiveling earcups for single-ear monitoring anytime; self-adjustable and flexible headband delivers a fatigue-free listening experience that can last for hours, perfect for mastering and mixing. WORKS WITH: iPad, iPod, iPhone, Android and many other Audio devices. High-quality sound, supreme durability, and maximum comfort. These are the headphones you've been looking for.</t>
+    <t xml:space="preserve"> SUPERIOR SOUND: Enjoy clear sound and supreme comfort with the OneOdio Studio monitor headphones. Large, 50 millimeter speaker unit drivers combined with neodymium magnets; powerful bass, clear vocal, and crisp high tones form perfect hi-fi sound. BUILT TO STAY COMFORTABLE: The high quality padded ear cushions are specifically designed for monitor headphones maximum comfort and noise isolation. The headband is adjustable and stretchable for you to find the desired angle you like to fit in. NO MORE ADAPTER: A long DJ-style 9.8-foot cord easily reaches from the TV or stereo to your favorite chair. A standard-sized 6.35mm plug and a 3.5mm plug are included. They both are completely detachable, you can plug in the mixer you want to use. SINGLE-SIDE MONITORING: 90° swiveling earcups for single-ear monitoring anytime; self-adjustable and flexible headband delivers a fatigue-free listening experience that can last for hours, perfect for mastering and mixing. WORKS WITH: iPad, iPod, iPhone, Android and many other Audio devices. High-quality sound, supreme durability, and maximum comfort. These are the headphones you've been looking for.</t>
   </si>
   <si>
     <t>Up to 80 Hours Playback: Up to 4.5 hours playback combined with a 2600mAh portable case that can last up to 80 hours. The battery case can also be used as emergency power bank Amazing Audio Performance: Great balanced bass, treble and mid-range sounds; Ergonomically designed to effectively block out noise to create an immersive listening experience IPX6 Water Resistant: Handle heavy sweat or rain with ease Wireless Charging: Our charging case supports both wired and wireless charging to provide you more convenient charging methods Dual/Single Earbud Use: Switch between earbuds care-free thanks to the latest Multi Cast Synchronization Technology. Enjoy music whenever you are using the left or right earbud alone without any lag/delay</t>
@@ -5327,16 +5324,16 @@
     <t>Bulk Earphones 100 Pack, 8 different colors mixed, Red Green Blue White Orange Yellow Pink Purple, each individually opp packaged Earbuds Cheap But Good, Stereo sound clear and balanced, Less than 1 dollar a piece best class set of headphones for students Length 3.6 foot cord with 3.5mm plug enables the headphone to be compatible with iPad Chromebook and PC Great for Kids, Children, Students, Classrooms, Schools, Libraries, Museums, Test center and Shared space CN-Outlet Service：Damaged in three months, free replacement, Please inform us through the Amazon order email FIRST, Not 100% satisfied full refund, Please feel free to purchase, If you need color On-Ear Headphones you can also search us ASIN: B07R8P6TFH</t>
   </si>
   <si>
-    <t>【Semi-in-ear Design】 In comparison to other full-in-ear Headphones, our bluetooth ear buds adopts semi-in-ear design to fit most ear types and zero pressure wearing. Soft and elastic ear hooks have been passed over 3kg tension test, they will not be deformed or easy to fall off, with you using them stably and securely. 【IPX6 Waterproof】This bluetooth wireless earbuds internal nano-coating can protect Earbuds from heavy rain or sweat during strenuous exercise like running, jogging, horse riding, hiking, fitness , and after that please timely wipe the Earbuds with a soft cloth to keep dry and prolong its service life. ( Note:The charging case is not waterproof. Not for swimming, Bluetooth signal cannot be connected underwater because water block bluetooth signal) 【TWS HiFi Sound &amp; Bluetooth 5.0】 The True Wireless Stereo sports headphones are committed to being your indispensable sports partner,with utilizing 12mm diaphragm to realize true sound and powerful bass performance as well as Bluetooth 5.0 technology to ensure a fast, stable and efficient transmission, in this context, making music and voice calls smoother and clearer. 【Touch-control &amp; Button-Control】AOPOY sports wireless earphones come with dual-mode control function, you can click on the touch control area to answer / reject calls, play the previous / next music, while long press the touch area for 2s to wake up Siri. Furthermore, please click the power button when you want to adjust the music volume. 【Auto Paring &amp;Long working Time】The earbuds automatically turn on and connect with your smart phone when removed from the charging case, auto turn off and charge when return to the case.The wireless earbuds have built-in polymer lithium battery just need to charge 2 hours for 5-8 hours of call duration/audio playback time. Whereas,the charging case built-in 1050mAh battery is enough to provide at least 7 times of charging for the Earphones.</t>
+    <t>Semi-in-ear Design In comparison to other full-in-ear Headphones, our bluetooth ear buds adopts semi-in-ear design to fit most ear types and zero pressure wearing. Soft and elastic ear hooks have been passed over 3kg tension test, they will not be deformed or easy to fall off, with you using them stably and securely. IPX6 WaterproofThis bluetooth wireless earbuds internal nano-coating can protect Earbuds from heavy rain or sweat during strenuous exercise like running, jogging, horse riding, hiking, fitness , and after that please timely wipe the Earbuds with a soft cloth to keep dry and prolong its service life. ( Note:The charging case is not waterproof. Not for swimming, Bluetooth signal cannot be connected underwater because water block bluetooth signal) TWS HiFi Sound &amp; Bluetooth 5.0 The True Wireless Stereo sports headphones are committed to being your indispensable sports partner,with utilizing 12mm diaphragm to realize true sound and powerful bass performance as well as Bluetooth 5.0 technology to ensure a fast, stable and efficient transmission, in this context, making music and voice calls smoother and clearer. Touch-control &amp; Button-ControlAOPOY sports wireless earphones come with dual-mode control function, you can click on the touch control area to answer / reject calls, play the previous / next music, while long press the touch area for 2s to wake up Siri. Furthermore, please click the power button when you want to adjust the music volume. Auto Paring &amp;Long working TimeThe earbuds automatically turn on and connect with your smart phone when removed from the charging case, auto turn off and charge when return to the case.The wireless earbuds have built-in polymer lithium battery just need to charge 2 hours for 5-8 hours of call duration/audio playback time. Whereas,the charging case built-in 1050mAh battery is enough to provide at least 7 times of charging for the Earphones.</t>
   </si>
   <si>
     <t>Reduces outside noise by 25 decibels 50M/M dynamic speaker mylar con Frequency response: 20Hz - 20Khz 1/4" and 1/8" plugs</t>
   </si>
   <si>
-    <t>🎵【UNIQUE AND STYLISH LOOK】To find a perfect earbuds shell, Kuulaa tested a lot of materials. Finally, we adopt perfect material proportion. M17 earphones are made of the technology CNC Zinc Alloy, which the overall surface is metal anodized, the special housing is more corrosion-resistant and will not fade easily after prolonged use. 🎵【EXTRAORDINARY SOUND】 The distinct dynamic drivers deliver powerful and balanced sound, the 20Hz–20kHz frequency range taps you into every layer of your tracks. With the match of cooper-clad aluminum voice coil and high-performance magnet, it performs distortion-free sound and better ductility of crisp highs. 🎵【SMART ONE-BUTTON CONTROLLER】 The single button design compatible with most smartphones will give easy access to such functions as answering or hanging up your phone as well as music playback functions. Featuring an advanced chipset, the microphone transmits your voice with clarity while also reducing outside disturbances such as noise and wind. 🎵【GREATER COMPATIBILITY】 Utilizing a 3.5 mm audio jack with impedance level of 16 ohm for perfect pairing with everyday devices such as iPhone, iPad, iPod, Samsung Galaxy, Android devices, smartphones, MP3 and MP4 music players, and more. 🎵【ATTACHMENT BONUS】 Exquisite package contains 3 sets of different sized(S/M/L) silicone ear tips for your personality fit, a convenient carrying case which keeps your earphones as safe as clean and one clear user manual.Gift package makes it a good present on Thanksgiving Day,Christmas Day.We promise 24h friendly customer service, enjoy this absolutely zero risk purchase!</t>
-  </si>
-  <si>
-    <t>【Upgraded Charging Case】Upgrading the battery life on the basis of Zeus Air, it could provide up to 30 hrs playtime with 800 mah battery. The improved case cover design to ensure your wireless earbuds to charge and storage convenience. 【Improved Bluetooth Connection】Adopted latest Bluetooth 5.0 chipset, we strengthen the Bluetooth connection between L &amp; R. Once taking out from charging case, it will connect with each other automatically. The wireless earbuds support dual pairing and use it separately.（Tips: The R earphone is the master one, simple pair L earphone firstly and then connect the R earbud with another device if want to use it as single earphone when driving） 【Louder Volume for Music and Call】 Choose special drivers and upgraded the SW of Bluetooth headphones to provide loud volume and lossless sound quality for Hifi music or stereo phone calls. Ultra light and mini in-ear headphone to secure fit, snugly and stay comfortable for your urban activities. 【HiFi Stereo Sound w/ No Latency】Deep Bass, Clear treble and clear human voice with no latency, provided by the upgraded Bluetooth 5.0 chipset, which provides a high quality and stable transmission. 【12 Months hassle-free Warranty】Dudios promises 30 days no reason money-back and 12 months replacement warranty. Feel free to contact us if any issues with our products, our support team will be there for 24/7.*Note that this model of earbuds has two different outer packages, because these earbuds are produced with different batch</t>
+    <t>🎵UNIQUE AND STYLISH LOOKTo find a perfect earbuds shell, Kuulaa tested a lot of materials. Finally, we adopt perfect material proportion. M17 earphones are made of the technology CNC Zinc Alloy, which the overall surface is metal anodized, the special housing is more corrosion-resistant and will not fade easily after prolonged use. 🎵EXTRAORDINARY SOUND The distinct dynamic drivers deliver powerful and balanced sound, the 20Hz–20kHz frequency range taps you into every layer of your tracks. With the match of cooper-clad aluminum voice coil and high-performance magnet, it performs distortion-free sound and better ductility of crisp highs. 🎵SMART ONE-BUTTON CONTROLLER The single button design compatible with most smartphones will give easy access to such functions as answering or hanging up your phone as well as music playback functions. Featuring an advanced chipset, the microphone transmits your voice with clarity while also reducing outside disturbances such as noise and wind. 🎵GREATER COMPATIBILITY Utilizing a 3.5 mm audio jack with impedance level of 16 ohm for perfect pairing with everyday devices such as iPhone, iPad, iPod, Samsung Galaxy, Android devices, smartphones, MP3 and MP4 music players, and more. 🎵ATTACHMENT BONUS Exquisite package contains 3 sets of different sized(S/M/L) silicone ear tips for your personality fit, a convenient carrying case which keeps your earphones as safe as clean and one clear user manual.Gift package makes it a good present on Thanksgiving Day,Christmas Day.We promise 24h friendly customer service, enjoy this absolutely zero risk purchase!</t>
+  </si>
+  <si>
+    <t>Upgraded Charging CaseUpgrading the battery life on the basis of Zeus Air, it could provide up to 30 hrs playtime with 800 mah battery. The improved case cover design to ensure your wireless earbuds to charge and storage convenience. Improved Bluetooth ConnectionAdopted latest Bluetooth 5.0 chipset, we strengthen the Bluetooth connection between L &amp; R. Once taking out from charging case, it will connect with each other automatically. The wireless earbuds support dual pairing and use it separately.（Tips: The R earphone is the master one, simple pair L earphone firstly and then connect the R earbud with another device if want to use it as single earphone when driving） Louder Volume for Music and Call Choose special drivers and upgraded the SW of Bluetooth headphones to provide loud volume and lossless sound quality for Hifi music or stereo phone calls. Ultra light and mini in-ear headphone to secure fit, snugly and stay comfortable for your urban activities. HiFi Stereo Sound w/ No LatencyDeep Bass, Clear treble and clear human voice with no latency, provided by the upgraded Bluetooth 5.0 chipset, which provides a high quality and stable transmission. 12 Months hassle-free WarrantyDudios promises 30 days no reason money-back and 12 months replacement warranty. Feel free to contact us if any issues with our products, our support team will be there for 24/7.*Note that this model of earbuds has two different outer packages, because these earbuds are produced with different batch</t>
   </si>
   <si>
     <t>Adjust the volume limit to protect your kids' ears - Easily turn the child-proof dial on these headphones to set the volume limit and save your children's hearing Universal headphones plug into anything - iPhone, iPod, iPad, Samsung Galaxy and other Android phones, tablets, laptop computers &amp; more! Choose one of 3 settings to set the volume limit on these headphones: extra-safe (84dB), safe (94dB) or non-limited volume for standard use. Choose from 6 color options - Purple, Aqua, Black, Blue, Green, and Pink. Tough, durable construction designed to withstand the rough play of kids</t>
@@ -5351,13 +5348,13 @@
     <t>HANDCRAFTED FROM ALL-NATURAL GENUINE WOOD: Our earphones produce crisp, powerful acoustics and deep bass, tapping into the natural acoustical qualities found in wood. Receive studio tuned, premium sound with crystal clear clarity- an experience exclusively delivered by Symphonized UNIQUE COMFORT FIT IN EAR DESIGN: Custom silicone ear tips available in three sizes (S/M/L) create noise isolation to reduce ambient noise for an incomparable audio experience; ensure the perfect fit for maximum noise isolation and comfort during long term wear USER-FRIENDLY! EASY TO USE: Deluxe features including volume control, pause/play capabilities, answer/end call function, Voice Control, and a smart inline microphone give you complete control over your listening experience, all while ensuring you never have to fumble around for your device. STYLE FOR EVERYONE: These ear buds offer something for everyone, available in 6 different color options with a sleek, fashionable dual toned tangle-free TPE cable; The NRG 3.0 is where durability, practicality, necessity, convenience and style meet COMPATABILITY: With luxury design and top notch sound quality, Symphonized earbuds are compatible with the latest generations of your favorite devices: iPod, iPhone, iPad, Android, tablets, mp3 players and others with a standard 3.5mm audio jack</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [Bluetooth 5.0 &amp; TWS Technology]: The most advanced Bluetooth 5.0 true wireless headphones. The built-in high-quality sound chip provides you with the crystal clear high &amp; low frequencies. Two interconnection pieces are creating great stereo and excellent bass surrounding sound. Fast and stable transmission without tangling. [Quick Charge + Case Battery]: 24 hours of battery life with charging case &amp; earbuds are capable of 5.5 hours of use. quick charge capabilities give you 3 hours of use only 15 minutes of charging time. The charging case with built-in 2200mAh battery could recharge the earbuds about 19 times, gives up to 152 hours of continuous music time. You will never worry about running out of power. [Fast Pairing and Instant Set Up]: Engineered with industry-leading Bluetooth technology, these wireless earphones keep precise and undistorted connection within 33ft(10m). They instantly connect to your Apple ipone,ipad,Mac,Android Smartphones and tablets. Just power them on, hold near your device and start getting lost in your music. [IPX7 Waterproof, Sports Worry-Free]: RUMIXI Bluetooth hedset with IP68 waterproof design, can prevent you from sweating, running, fitness, yoga, etc., sweat and rain into the earplugs. you can also listen to the song and make a call when it rains. Note: After using it in sports or rainy days, dry the water on the surface of the earphone to prevent water from entering the battery case and damaging the electronic components. [Easy to Use]: They will be automaticaaly turned on and paired with your device as soon as you take them out of the charging case. Very simple to use.[1 Year] if you have any problem please contact our customer service to get help.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Stay with Your Music: With Sony digital noise cancellation chip, one button to block out most of the ambient noises produced by the airplane engines and the trains or enable you listen to the ambient sound without taking off the headphones, from the 3 modes – travel, office and ambient Hi-Fi Audio Soundstage: Immersive listening experience with Bluetooth 5. 0 creating an unwavering, uninterrupted connection Incredible Fast Charging: Plug in for only 5 minutes with a USB-C connector and get 2 hours playback; only 45 minutes charging time for an ultra-long playtime of up to 30 hours Hassle-Free Clear Calls: cVc 8. 0 noise cancelling microphone means you can be heard clearly on the phone no matter the level of background noise Customizable Comfort &amp; Easy To Carry: Soft protein memory foam ear pads reduce pressure on your ears, adjustable headband length and earcup angle increases comfort for long-time wear; foldable design for convenient carrying</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) SOUND MATTERS: Exceptional HiFi Sound Quality, Incredible Bass and Superb Definition. Designed by Audiophiles, Artists &amp; Producers for the Best Sounding Wireless Listening Experience. COMFORT AND DURABILITY: Perfected Ergonomics with a Fingerprint and Scratch Resistant Shell. Our Exclusive Ergonomic Design with Custom Materials provides a Superior Anti-Slip. Comes in 3 sizes S/M/L to tailor the shape of your ear for secure fit. Sizing results may vary SIMPLE TO CONNECT: Quick and Easy One-touch Bluetooth Pairing. Our Proprietary Antenna technology provides a Range 80+ Feet. Extended Listening 3.5 Hours Plus 15 Hours Additional Listening with the Custom Portable Charging Case. SMART CONTROLS AND DUAL MICROPHONES: Seamlessly Control Your Music Tracks and Volume, Make Phone Calls and Voice Assistant Activation. WATER RESISTENT: Sweat, Light Rain and Mud Approved. Perfect for Your Favorite Workout and Outdoor Activity with IPX4 Protection.</t>
+    <t xml:space="preserve"> [Bluetooth 5.0 &amp; TWS Technology]: The most advanced Bluetooth 5.0 true wireless headphones. The built-in high-quality sound chip provides you with the crystal clear high &amp; low frequencies. Two interconnection pieces are creating great stereo and excellent bass surrounding sound. Fast and stable transmission without tangling. [Quick Charge + Case Battery]: 24 hours of battery life with charging case &amp; earbuds are capable of 5.5 hours of use. quick charge capabilities give you 3 hours of use only 15 minutes of charging time. The charging case with built-in 2200mAh battery could recharge the earbuds about 19 times, gives up to 152 hours of continuous music time. You will never worry about running out of power. [Fast Pairing and Instant Set Up]: Engineered with industry-leading Bluetooth technology, these wireless earphones keep precise and undistorted connection within 33ft(10m). They instantly connect to your Apple ipone,ipad,Mac,Android Smartphones and tablets. Just power them on, hold near your device and start getting lost in your music. [IPX7 Waterproof, Sports Worry-Free]: RUMIXI Bluetooth hedset with IP68 waterproof design, can prevent you from sweating, running, fitness, yoga, etc., sweat and rain into the earplugs. you can also listen to the song and make a call when it rains. Note: After using it in sports or rainy days, dry the water on the surface of the earphone to prevent water from entering the battery case and damaging the electronic components. [Easy to Use]: They will be automaticaaly turned on and paired with your device as soon as you take them out of the charging case. Very simple to use.[1 Year] if you have any problem please contact our customer service to get help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stay with Your Music: With Sony digital noise cancellation chip, one button to block out most of the ambient noises produced by the airplane engines and the trains or enable you listen to the ambient sound without taking off the headphones, from the 3 modes – travel, office and ambient Hi-Fi Audio Soundstage: Immersive listening experience with Bluetooth 5. 0 creating an unwavering, uninterrupted connection Incredible Fast Charging: Plug in for only 5 minutes with a USB-C connector and get 2 hours playback; only 45 minutes charging time for an ultra-long playtime of up to 30 hours Hassle-Free Clear Calls: cVc 8. 0 noise cancelling microphone means you can be heard clearly on the phone no matter the level of background noise Customizable Comfort &amp; Easy To Carry: Soft protein memory foam ear pads reduce pressure on your ears, adjustable headband length and earcup angle increases comfort for long-time wear; foldable design for convenient carrying</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOUND MATTERS: Exceptional HiFi Sound Quality, Incredible Bass and Superb Definition. Designed by Audiophiles, Artists &amp; Producers for the Best Sounding Wireless Listening Experience. COMFORT AND DURABILITY: Perfected Ergonomics with a Fingerprint and Scratch Resistant Shell. Our Exclusive Ergonomic Design with Custom Materials provides a Superior Anti-Slip. Comes in 3 sizes S/M/L to tailor the shape of your ear for secure fit. Sizing results may vary SIMPLE TO CONNECT: Quick and Easy One-touch Bluetooth Pairing. Our Proprietary Antenna technology provides a Range 80+ Feet. Extended Listening 3.5 Hours Plus 15 Hours Additional Listening with the Custom Portable Charging Case. SMART CONTROLS AND DUAL MICROPHONES: Seamlessly Control Your Music Tracks and Volume, Make Phone Calls and Voice Assistant Activation. WATER RESISTENT: Sweat, Light Rain and Mud Approved. Perfect for Your Favorite Workout and Outdoor Activity with IPX4 Protection.</t>
   </si>
   <si>
     <t>Premium design:Ergonomic and ultra-lightweight in-ear design with solid sound-insulating material reduces external noise while minimizing the sound leakage, giving you stunning sound. High quality built-in design: Built-in premium Shockproof membrane and Sound units, have a better sensitivity and noise reduction than traditional headphones, can drive out good sound quality even using ordinary device. Compatibility: Ideal for All iPhone 6S/6/Plus/iPhone SE/5S/5C/5, Samsung Galaxy S7/S6/Edge, Google, Nexus 6P/5X, HTC One, Nokia, Motorola, Windows Phone, Tablet, iPad, iPod, MP4/MP3, Laptop Computer and more devices compatible with 3.5mm headphones. Humanized function: Allow hands-free calls while driving or music streaming without having to control through your phone or electronic device; In-line remote control with Play/Pause, Hands-Free Calling, Next/Previous music function.The Microphone is perfectly positioned to enable you to speak without having to move your head. What you get:（2 pack) 3.5mm aux headphones, 12-months warranty from Sobrilli.</t>
@@ -5366,22 +5363,22 @@
     <t>UNIQUE AND PRETTY COLOR: The Mkay bluetooth headphones over ear are designed with unique and pretty ROSE GOLD COLOR,and it will be a perfect surprising gift for girls, kids, lovers and wives, bringing warm and happy to your children, family, lovers and friends in any special holidays or birthday. LONG BATTERY LIFE &amp; DUAL MODE: 500mAh battery,18 hours of music time,2.5 hours fast charing. Whether you are watching TV, gaming or using your phone this over ear bluetooth headphones wireless can be used as wired headphones without battery consumption using the 3.5mm cable. Built in FM radio and also you can use a 2G-32G TF card(not included in the package) with loaded MP3 music to listen to songs directly. SUPERIOR STEREO SOUND: Experience superb music and voice clarity. Bluetooth Version 5.0 can make the wireless headphones connecting fast and stable. Advanced compatiable for with iPhone, iPad, Air, Mini, Samsung Galaxy, Huawei Phones, laptops, computers, TV and many other Bluetooth enabled devices. Perfect headset for audio lovers, make them completely immersed in the music world. Kindly notice: No Microphone in wired mode. COMFORTABLE &amp; SUPER LIGHT: These over ear bluetooth headphones come with oval-shaped not small round soft pads and adjustable headband providing lasting comfort. Best wireless bluetooth solution for long term gaming or tv(a SEPARATE Bluetooth adapter needed) use, over ear headsets are superior to using in ear bluetooth earbuds or earphones FOLDABLE DESIGN WITH A PORTABLE CASE:The foldable headband is designed not only for saving space but also for portable to carry in the provided case when travelling or work out. Auto-reconnect to your bluetooth headset easily and instantly. Buy one for yourself and an extra set for a tv, music lover, traveller or gamer you know today</t>
   </si>
   <si>
-    <t>♫【TWS &amp; Bluetooth 5.0】 MOUNTDOG Wireless Earbuds adopt the most advanced Bluetooth 5.0 technology, which can be continuously connected within the 33ft space. Keep your calls and music audio stable and will no longer be disturbed. ♫【High-Quality Stereo Sound】 The wireless Bluetooth headphones produce the unique stereo sound with deep bass to give you a more perfect sound experience. Lossless HD sound quality enables you to enjoy clear and wonderful music moment. ♫【One-Step Pairing &amp; Touch Control】 Pick up the earbuds,turn on Bluetooth,the earbuds will automatically power on and pair with each other and connect your smart phone.With the intelligent touch system, you can easily control the headphones, such as Previous Song/Next Song, Volume Up/Down and Answer/Reject Call,etc. ♫【IPX7 Waterproof】 IPX7 waterproof earbuds let you no longer worry about rain washing or suddenly dropped into the water. The headphones are suitable for sports, running, climbing, cycling, driving and yoga,etc. ♫【Long Battery Life &amp; Latest LED Display】 MOUNTDOG Wireless Earbuds can be used for 5-6 hours and only need to be charged for 1.5 hours. The charging case comes with a 2000mAh battery pack that can charge the earbuds up to 20 times.The unique LED display on the case can help you check the power at any time.(For convenience,we have a velvet storage bag to place the earphones and avoid scratches on the charging box.)</t>
-  </si>
-  <si>
-    <t>【Say Goodbye to Bulky Headphones】N018 On-ear Headphones with mic let a single user listen to an audio source privately with lightweight and super comfy on-ear design. Jelly Comb offers one year warranty and welcome guide. 【Adjustable, Foldable, and Durable】Versatile bands offer full comfort for long-time listening(suits people in glasses); Foldable for compact storage/ traveling; Flexibility means exceeding durability even for teens’ use. Suitable for children aged 6 or above and fit adult's head well, too. 【Easy In-line Operation】Handy Track Selection/ Volume Adjustment. Hands free for microphones to answer/ hang up a call. 【Dynamic Sound Quality】Rich, full frequency response(20-20kHz) with strong bass, delivering competitive acoustic performance. Great seal minimizes outside noise, hear the beats clearly when you binge watching something. 【Great Audio/ Video Companion】Vibrant color. Great Children's Headphones for girls school work. Compatible with almost all 3.5mm jack audio devices: cell phones, tablets, PC, laptops, computers and more.</t>
-  </si>
-  <si>
-    <t>✅ High-fidelity in ear headphones are ergonomically designed and compact enough to fit well into the ear canal for comfortable wear. ✅ 10-mm internal audio driver of earphones delivers crisp, natural sound and deep bass, and is also compatible with iOS and Android devices. ✅ Earbuds are forged from high-quality anodized aluminum and are rugged. The earphones with oxygen-free copper wire (best conductivity) provide professional stereo audio performance and anti-winding. ✅ Earphones with mic and volume control system (Receive | End Call | Switch Song | Activate Siri | Volume +/-). ✅ Gifts: Our worry-free 12-month warranty and friendly customer service, Silicone plug (S / M / L), Clip, Storage box.</t>
-  </si>
-  <si>
-    <t>【SUPPORT PHONE CALL】 Our earphone built in microphone,supporting answering/ending calling/play/pause/next track/previous track,you can talk in the phone anywhere and anytime. 【EXCELLENT SOUND PERFORMANCE】: These high definition stereo headphones provide the excenllent sound input&amp; output quality.Designed with solid sound-insulating material, reduces external noise while minimizing the sound leakage, giving you clear sound. 【ERGONOMIC IN-EAR DESIGN】:Wired earphones with 2 sets of different size soft silicone earbuds, ensuring a proper fit and extra comfort. 【COMPATABILITY】: Come with beautiful package,this earphone is compatible with the latest generations of your favorite devices: iPod, iPhone, iPad, Android, tablets, mp3 players and others with a standard 3.5mm audio jack.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【SUPERB BALANCED BASS SOUND QUALITY】Wireless stereo bluetooth headphones built-in unique 10mm high quality vibrating diaphragm,32OHM impedance and A2DP/AVRCP/APT-X audio processing system provides stereo balanced bass and treble sound, loud and clear high &amp; low volume for music lovers everywhere (Quiet Surroundings Offer Better Sound). Stereo/Mono two mode enable ideal for GYM/Working Use,Friends Chatting or Driving. 【900mAh PORTABLE CHARGING CASE】55mAh battery for each earbud, enjoy about 8 hrs of talk/play time, up to 250 hours standby time. 900mAh mini Intelligent fast charging case provides 3-4 times charges for continuous use. Make you in the out of the movement or travel on the way to have incredible long use of time. 【ERGONOMIC DESIGN &amp; BUILT-IN MAGNETS】Included S/M/L eartips and ergonomics ear hooks design make sure comfortable and secure fit for everyone's earThe built-in magnets will enable you to attach the two headphones together, and you can wear it like a necklace. This is a convenient way to carry the headphones around when you are not using them. The built-in microphone makes them more convenient to use. 【COMPATIBILITY &amp; WATERPROOF】S128 Earbuds work with all smartphones, tablets and music players. It seamlessly connects your devices via the Bluetooth 4.1 functionality. Enjoy your calls with no signal dropouts.IPX7 waterproof.IPX7 water resistant design will enable you to listen even if you are having a run in the rain even carry it to take a bath. 【TOP LEVEL NOISE REDUCTION】We put years of research into headphones that deliver true listening freedom.They provide balanced audio performance no matter how noisy your commute is, and clear calls even on a bustling, windy street.And the fit is light and comfortable enough for it, too.Whether you are a music lovers, music enthusiasts, sports enthusiasts,or do not know what gifts to send to friends. This headset is very suitable for your choice.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) DIGITAL NOISE CANCELLING: Blocks out distracting background noise for a better music experience AI POWERED: Hold the NC button for uniquely tuned noise cancellation courtesy of next gen AI tech HANDS FREE CALLING: A built in microphone lets you take, make calls and access your voice assistant LONG BATTERY LIFE: Enjoy up to 35 hours of wireless playback and 10 min quick charge capability VOICE ASSISTANT: Alexa enabled for voice access to music, information, and more. Activate with a simple touch</t>
+    <t>TWS &amp; Bluetooth 5.0 MOUNTDOG Wireless Earbuds adopt the most advanced Bluetooth 5.0 technology, which can be continuously connected within the 33ft space. Keep your calls and music audio stable and will no longer be disturbed. High-Quality Stereo Sound The wireless Bluetooth headphones produce the unique stereo sound with deep bass to give you a more perfect sound experience. Lossless HD sound quality enables you to enjoy clear and wonderful music moment. One-Step Pairing &amp; Touch Control Pick up the earbuds,turn on Bluetooth,the earbuds will automatically power on and pair with each other and connect your smart phone.With the intelligent touch system, you can easily control the headphones, such as Previous Song/Next Song, Volume Up/Down and Answer/Reject Call,etc. IPX7 Waterproof IPX7 waterproof earbuds let you no longer worry about rain washing or suddenly dropped into the water. The headphones are suitable for sports, running, climbing, cycling, driving and yoga,etc. Long Battery Life &amp; Latest LED Display MOUNTDOG Wireless Earbuds can be used for 5-6 hours and only need to be charged for 1.5 hours. The charging case comes with a 2000mAh battery pack that can charge the earbuds up to 20 times.The unique LED display on the case can help you check the power at any time.(For convenience,we have a velvet storage bag to place the earphones and avoid scratches on the charging box.)</t>
+  </si>
+  <si>
+    <t>Say Goodbye to Bulky HeadphonesN018 On-ear Headphones with mic let a single user listen to an audio source privately with lightweight and super comfy on-ear design. Jelly Comb offers one year warranty and welcome guide. Adjustable, Foldable, and DurableVersatile bands offer full comfort for long-time listening(suits people in glasses); Foldable for compact storage/ traveling; Flexibility means exceeding durability even for teens’ use. Suitable for children aged 6 or above and fit adult's head well, too. Easy In-line OperationHandy Track Selection/ Volume Adjustment. Hands free for microphones to answer/ hang up a call. Dynamic Sound QualityRich, full frequency response(20-20kHz) with strong bass, delivering competitive acoustic performance. Great seal minimizes outside noise, hear the beats clearly when you binge watching something. Great Audio/ Video CompanionVibrant color. Great Children's Headphones for girls school work. Compatible with almost all 3.5mm jack audio devices: cell phones, tablets, PC, laptops, computers and more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High-fidelity in ear headphones are ergonomically designed and compact enough to fit well into the ear canal for comfortable wear.  10-mm internal audio driver of earphones delivers crisp, natural sound and deep bass, and is also compatible with iOS and Android devices.  Earbuds are forged from high-quality anodized aluminum and are rugged. The earphones with oxygen-free copper wire (best conductivity) provide professional stereo audio performance and anti-winding.  Earphones with mic and volume control system (Receive | End Call | Switch Song | Activate Siri | Volume +/-).  Gifts: Our worry-free 12-month warranty and friendly customer service, Silicone plug (S / M / L), Clip, Storage box.</t>
+  </si>
+  <si>
+    <t>SUPPORT PHONE CALL Our earphone built in microphone,supporting answering/ending calling/play/pause/next track/previous track,you can talk in the phone anywhere and anytime. EXCELLENT SOUND PERFORMANCE: These high definition stereo headphones provide the excenllent sound input&amp; output quality.Designed with solid sound-insulating material, reduces external noise while minimizing the sound leakage, giving you clear sound. ERGONOMIC IN-EAR DESIGN:Wired earphones with 2 sets of different size soft silicone earbuds, ensuring a proper fit and extra comfort. COMPATABILITY: Come with beautiful package,this earphone is compatible with the latest generations of your favorite devices: iPod, iPhone, iPad, Android, tablets, mp3 players and others with a standard 3.5mm audio jack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUPERB BALANCED BASS SOUND QUALITYWireless stereo bluetooth headphones built-in unique 10mm high quality vibrating diaphragm,32OHM impedance and A2DP/AVRCP/APT-X audio processing system provides stereo balanced bass and treble sound, loud and clear high &amp; low volume for music lovers everywhere (Quiet Surroundings Offer Better Sound). Stereo/Mono two mode enable ideal for GYM/Working Use,Friends Chatting or Driving. 900mAh PORTABLE CHARGING CASE55mAh battery for each earbud, enjoy about 8 hrs of talk/play time, up to 250 hours standby time. 900mAh mini Intelligent fast charging case provides 3-4 times charges for continuous use. Make you in the out of the movement or travel on the way to have incredible long use of time. ERGONOMIC DESIGN &amp; BUILT-IN MAGNETSIncluded S/M/L eartips and ergonomics ear hooks design make sure comfortable and secure fit for everyone's earThe built-in magnets will enable you to attach the two headphones together, and you can wear it like a necklace. This is a convenient way to carry the headphones around when you are not using them. The built-in microphone makes them more convenient to use. COMPATIBILITY &amp; WATERPROOFS128 Earbuds work with all smartphones, tablets and music players. It seamlessly connects your devices via the Bluetooth 4.1 functionality. Enjoy your calls with no signal dropouts.IPX7 waterproof.IPX7 water resistant design will enable you to listen even if you are having a run in the rain even carry it to take a bath. TOP LEVEL NOISE REDUCTIONWe put years of research into headphones that deliver true listening freedom.They provide balanced audio performance no matter how noisy your commute is, and clear calls even on a bustling, windy street.And the fit is light and comfortable enough for it, too.Whether you are a music lovers, music enthusiasts, sports enthusiasts,or do not know what gifts to send to friends. This headset is very suitable for your choice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIGITAL NOISE CANCELLING: Blocks out distracting background noise for a better music experience AI POWERED: Hold the NC button for uniquely tuned noise cancellation courtesy of next gen AI tech HANDS FREE CALLING: A built in microphone lets you take, make calls and access your voice assistant LONG BATTERY LIFE: Enjoy up to 35 hours of wireless playback and 10 min quick charge capability VOICE ASSISTANT: Alexa enabled for voice access to music, information, and more. Activate with a simple touch</t>
   </si>
   <si>
     <t>[HD High Fidelity Sound Beats] This True Wireless Earbuds featuring latest Bluetooth 5.0 technology and lossless HD rendering technology that produce incredible sound quality with deep bass and crystal clear treble. Enjoy your music everywhere even in a loud environment. [Elegant Design] Lightweight and durable with fitting design that perfectly fit in your ears, our wireless earphones are secure and stable so while you moving around even when you are out for running and doing workout it wouldn’t drop. Perfect for Sports, Workout, Running, Jogging or Gym Exercise! [Extensive Compatibility] These wireless earbuds are Compatible with iPhone 11, 11 Pro, 11 Pro Max, XS, XS Max, X, 8, 7, 6, plus, iPod shuffle, iPod Nano, Android, Samsung Galaxy, BlackBerry, iPad Pro, Bluetooth-enabled Cellphones tablets. These Bluetooth Earbuds also covers a wide range up to (10 meters). [Strong Connection] Upgraded Bluetooth 5.0 with 2 Mbps delivery speed that make sure you are having strong and fast connection without calls and music dropouts, and you don’t need to worry about walking away and losing your connection. [Hassle-Free 1-Year Warranty] Any questions you have, please don't hesitate to contact us. We will get you back within 24hours. We guarantee your purchase with FREE 1-year warranty</t>
@@ -5390,25 +5387,25 @@
     <t>★ ADVANCED TECHNOLOGY: Adopted newest Bluetooth 5.0 technology, has lower energy consumption and provides 12 hours playtime, It only takes 2 hours to be fully charged. Besides, you can check the battery status on your phone, quick pairing with Android, iOS and other Bluetooth devices. ★ TOP QUALITY AUDIO: With CVC 6.0 Significant noise reduction technology,this Bluetooth Headphones reduce background noise, so you can focus on your favorite music, no matter where you are. ★ SUPER IPX7 WATERPROOF DESIGN: IPX7 sweatproof rating for worry-free use and Bluetooth Headphones improved durability in intense workouts or exercises in light rain. Perfect for running, jogging, hiking, yoga, exercises, gym, traveling and etc. ★ ERGONOMIC COMFORT AND SECURITY: Knpaimly Bluetooth Headphones, Great sound starts with proper fit, High-performance workout earphones were also crafted with a focus on ergonomic comfort to give you the best listening experience possible. ★ 18-MONTH HASSLE-FREE WARRANTY: Our Bluetooth Headphones provide a 18-month warranty and friendly customer service. If you have any questions about the product, please contact us.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Noise-rejecting dual-microphone system for clear phone calls and voice access to your phone's default Virtual assistant, like Siri Industry-leading wireless headphones let you adjust the level of noise cancellation to suit your environment Volume-optimized EQ makes your music always sounds its best, whether you turn it up on an airplane, or turn it down while at the office Bluetooth and NFC pairing with voice prompts for hassle-free wireless connections</t>
-  </si>
-  <si>
-    <t>【Truly Bluetooth 5.0 Wireless Earbuds】True wireless sport earbuds with uninterrupted Bluetooth streaming for total freedom of movement, wireless earbuds adopt advanced bluetooth 5.0 technology enables connectivity more fast and signal more stable. 【HD Stereo Saound for Music and Calls】Truly wireless earbuds with lossless HD rendering technology produce incredible sound quality and crystal crisp treble. Superb stereo sound music enjoying. Sensitive microphone support you a clear calling and high quality sound. No wires no tangling. 【Longer Playing Time】The advanced lithium polymer battery allows up to 3-6 hours playing-time and 200 hours stand-by time.The battery can be fully charged in only 1.5 hours. 【Lightweight and Comfortable】 The headset has flexible ear hooks with gel flex silicone earbuds, which ensures it sit securely and remain comfortable even during prolonged periods of usae. Lightweight design (Only 9.6g/0.3 ounces for a single earbud). 【What's In The Box】 Bluetooth Headphone, S/M/L Ear Tips, Micro USB Cable, Storage Box, 1 User Manual,90-day full refund and 12-month friendly customer service.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Advanced AS3435 noise cancelling technology: the upgrade active noise cancelling headphones can reduce the noise in just one second even when you are at a busy street and office, flight cabin, or other noisy environment. iTeknic bluetooth headphones provide you a more pleasant music time and protecting your ears from excessive noise 30-Hour playtime in less than 1 hour charging: the bluetooth headphones built-in 500mAh battery offer 30 hours playback in less than 1 hour charging and 5 minutes charging allows more than 2 hours use. iTeknic active noise cancelling headphones 24 months to give you peace of mind and don't worry the power shortage when you are on the long travel Hi-Fi Sound &amp; Captivating Bass: This wireless headphones equided with independent chip, independent switch, neodymium magnet, deep and accurate bass response. iTeknic over ear headphones provide you a more pleasant music time Conform instantly to your ears: the lightweight wireless headphones design with 90-degree revolving earmuffs and cloud-soft protein ear pads help to release the pressure even for long time wearing. The enlarged earmuffs and practical folding design makes it easy and comfy to wear - a great travel companion Noise reducing microphones: the headphones built-in CVC 6.0 double microphone noise reduction system suppresses environmental noises and help you get clear sounds. And the steady bluetooth 5.0 offer quickly and stable connection offer you the best hands-free call and exceptional experience. You can enjoy wireless or wired mode depend on your require.</t>
+    <t xml:space="preserve"> Noise-rejecting dual-microphone system for clear phone calls and voice access to your phone's default Virtual assistant, like Siri Industry-leading wireless headphones let you adjust the level of noise cancellation to suit your environment Volume-optimized EQ makes your music always sounds its best, whether you turn it up on an airplane, or turn it down while at the office Bluetooth and NFC pairing with voice prompts for hassle-free wireless connections</t>
+  </si>
+  <si>
+    <t>Truly Bluetooth 5.0 Wireless EarbudsTrue wireless sport earbuds with uninterrupted Bluetooth streaming for total freedom of movement, wireless earbuds adopt advanced bluetooth 5.0 technology enables connectivity more fast and signal more stable. HD Stereo Saound for Music and CallsTruly wireless earbuds with lossless HD rendering technology produce incredible sound quality and crystal crisp treble. Superb stereo sound music enjoying. Sensitive microphone support you a clear calling and high quality sound. No wires no tangling. Longer Playing TimeThe advanced lithium polymer battery allows up to 3-6 hours playing-time and 200 hours stand-by time.The battery can be fully charged in only 1.5 hours. Lightweight and Comfortable The headset has flexible ear hooks with gel flex silicone earbuds, which ensures it sit securely and remain comfortable even during prolonged periods of usae. Lightweight design (Only 9.6g/0.3 ounces for a single earbud). What's In The Box Bluetooth Headphone, S/M/L Ear Tips, Micro USB Cable, Storage Box, 1 User Manual,90-day full refund and 12-month friendly customer service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced AS3435 noise cancelling technology: the upgrade active noise cancelling headphones can reduce the noise in just one second even when you are at a busy street and office, flight cabin, or other noisy environment. iTeknic bluetooth headphones provide you a more pleasant music time and protecting your ears from excessive noise 30-Hour playtime in less than 1 hour charging: the bluetooth headphones built-in 500mAh battery offer 30 hours playback in less than 1 hour charging and 5 minutes charging allows more than 2 hours use. iTeknic active noise cancelling headphones 24 months to give you peace of mind and don't worry the power shortage when you are on the long travel Hi-Fi Sound &amp; Captivating Bass: This wireless headphones equided with independent chip, independent switch, neodymium magnet, deep and accurate bass response. iTeknic over ear headphones provide you a more pleasant music time Conform instantly to your ears: the lightweight wireless headphones design with 90-degree revolving earmuffs and cloud-soft protein ear pads help to release the pressure even for long time wearing. The enlarged earmuffs and practical folding design makes it easy and comfy to wear - a great travel companion Noise reducing microphones: the headphones built-in CVC 6.0 double microphone noise reduction system suppresses environmental noises and help you get clear sounds. And the steady bluetooth 5.0 offer quickly and stable connection offer you the best hands-free call and exceptional experience. You can enjoy wireless or wired mode depend on your require.</t>
   </si>
   <si>
     <t>30+ HOUR BLUETOOTH 5 PLAYTIME: Keep your music hassle-free by wirelessly linking your Bluetooth enabled device and streaming from up to 30 feet away. With up to 30+ hours Bluetooth 5 playtime of mind blowing sound that’ll leave you feeling like you're in a studio all day. EQ3 SOUND: Choose the sound to match your personal preference between three options: JLab Signature, Balanced and Bass Boost modes -without an app. TOTAL CONTROL: Control all of your music via the earcup. Play, pause, change tracks, and adjust volume with built-in buttons for easy on-the-go use. Answer and hang up phone calls with the built-in microphone, or activate your voice assistant. MUSIC ON-THE-GO: Built for everyone, the smooth-sliding metal adjustments and feather-light build are ready to hit the road. The plush circular ear cups rotate 80 degrees and fold up in the palm of your hand so you can bring them wherever life takes you, while traveling or lounging. TWO YEAR WARRANTY/30 DAY GUARANTEE: We are so sure you’ll be happy with your purchase that we offer a “30-Day Money-Back Guarantee” to ensure customer satisfaction of our Jlab products. Also included with our products is a 2-year limited warranty to ensure you are covered for up to two years in case any issues with our product arise.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Price For: Each</t>
-  </si>
-  <si>
-    <t>【UPGRADED HIGH FIDELITY MUSIC QUALITY】Advanced Bluetooth with A2DP/AVRCP audio processing system let you enjoy High-Fidelity sound, faster pairing speed and stable connectivity, up to 33ft Bluetooth range. Eliminate stethoscope effect of all wired headphones and noise reducing. With built-in Mic, great for hands-free calling, listening to music, news, friends chatting, or working use. 【QUICK CHARGE WITH UNIQUE CHARGING BOX】Portable charging case is ultra-lightweight with large capacity Lithium batteries, which can support 6 times fully charging for the wireless earbuds and let you enjoy more than 5 hours continuous music or talking time after each single charge. Only takes 1.5 hours to fully charged. Never worry about low battery when you are out all day. Easy to carry, NO Loss. 【LATEST ONE-STEP PAIRING TECHNOLOGY】No need to press any button to activate the wireless headphones. This bluetooth earbuds can be automatically powered on and paired after taking them from the charging case. Meanwhile bluetooth headphones can also be automatically powered off and charged after putting back into the charging case. Simply one press to answer or reject phone calls, Bluetooth pairing, power on and power off, pretty easy to use. 【ERGONOMIC DESIGN &amp; LIGHTWEIGHT】Super lightweight and the stabilizer design according to ear geometry to ensure a secure, comfortable fit for any ear. Anti-sweating material keeps the true wireless earbuds fully function even when dripping with sweat; offers sweat-resistant protection while running, biking, training, jogging, hiking, exercising with them in your ears. 【IP67 WATERPROOF】Owing to the success in IP67 Waterproof technology, our bluetooth earbuds has designed and provided favorable waterproof effect which can easily resist sweat and water. It’s absolutely ideal and perfect for gym, sport lovers and all kind of outdoor activities.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) PREMIUM BALANCED SOUND - Shred the slopes listening to your favorite tunes in high definition sound with the Alta Bluetooth Audio system.  Using 40mm Drivers and a premium Bluetooth 5.0 wireless chip set, the Alta wireless Bluetooth speakers deliver balanced dynamic sound with deep bass at any volume level. CRISP HANDS FREE CALLING - No more digging for you phone or taking off your helmet to make a call. Simply press the right button twice to activate Siri or Google Voice to make a call or change your playlist using the built in microphone. UNIVERSALLY COMPATIBLE - Works with most audio ready helmet brands including Wildhorn (Checkout out our Drift helmet!), Smith, Poc, K2, Giro, Bolle, Anon, Burton and others. The Altas easily drop into the ear pads and run across the backside of the helmet for comfort and easy use. INTUITIVE DESIGN - Designed in Utah by skiers and snowboarders that wanted a hassle free premium audio experience. You will never have to remove your phone from whichever coat pocket it's hiding in again. The Alta features 3 over-sized buttons (one on the Right and two on the left) so you can easily control almost every function of your phone without removing your helmet or gloves. Control the volume, change tracks, activate Siri or Google Voice, make calls, pause music and more. RUGGED CONSTRUCTION WITH ALL DAY PLAYTIME - The Alta is sweat resistant and has been tested in extreme cold, 24 degrees Fahrenheit (-4 degrees Celsius). With 10 hours of playtime you can shred the gnar all day and never run out of juice for your tunes.</t>
+    <t xml:space="preserve"> Price For: Each</t>
+  </si>
+  <si>
+    <t>UPGRADED HIGH FIDELITY MUSIC QUALITYAdvanced Bluetooth with A2DP/AVRCP audio processing system let you enjoy High-Fidelity sound, faster pairing speed and stable connectivity, up to 33ft Bluetooth range. Eliminate stethoscope effect of all wired headphones and noise reducing. With built-in Mic, great for hands-free calling, listening to music, news, friends chatting, or working use. QUICK CHARGE WITH UNIQUE CHARGING BOXPortable charging case is ultra-lightweight with large capacity Lithium batteries, which can support 6 times fully charging for the wireless earbuds and let you enjoy more than 5 hours continuous music or talking time after each single charge. Only takes 1.5 hours to fully charged. Never worry about low battery when you are out all day. Easy to carry, NO Loss. LATEST ONE-STEP PAIRING TECHNOLOGYNo need to press any button to activate the wireless headphones. This bluetooth earbuds can be automatically powered on and paired after taking them from the charging case. Meanwhile bluetooth headphones can also be automatically powered off and charged after putting back into the charging case. Simply one press to answer or reject phone calls, Bluetooth pairing, power on and power off, pretty easy to use. ERGONOMIC DESIGN &amp; LIGHTWEIGHTSuper lightweight and the stabilizer design according to ear geometry to ensure a secure, comfortable fit for any ear. Anti-sweating material keeps the true wireless earbuds fully function even when dripping with sweat; offers sweat-resistant protection while running, biking, training, jogging, hiking, exercising with them in your ears. IP67 WATERPROOFOwing to the success in IP67 Waterproof technology, our bluetooth earbuds has designed and provided favorable waterproof effect which can easily resist sweat and water. It’s absolutely ideal and perfect for gym, sport lovers and all kind of outdoor activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PREMIUM BALANCED SOUND - Shred the slopes listening to your favorite tunes in high definition sound with the Alta Bluetooth Audio system.  Using 40mm Drivers and a premium Bluetooth 5.0 wireless chip set, the Alta wireless Bluetooth speakers deliver balanced dynamic sound with deep bass at any volume level. CRISP HANDS FREE CALLING - No more digging for you phone or taking off your helmet to make a call. Simply press the right button twice to activate Siri or Google Voice to make a call or change your playlist using the built in microphone. UNIVERSALLY COMPATIBLE - Works with most audio ready helmet brands including Wildhorn (Checkout out our Drift helmet!), Smith, Poc, K2, Giro, Bolle, Anon, Burton and others. The Altas easily drop into the ear pads and run across the backside of the helmet for comfort and easy use. INTUITIVE DESIGN - Designed in Utah by skiers and snowboarders that wanted a hassle free premium audio experience. You will never have to remove your phone from whichever coat pocket it's hiding in again. The Alta features 3 over-sized buttons (one on the Right and two on the left) so you can easily control almost every function of your phone without removing your helmet or gloves. Control the volume, change tracks, activate Siri or Google Voice, make calls, pause music and more. RUGGED CONSTRUCTION WITH ALL DAY PLAYTIME - The Alta is sweat resistant and has been tested in extreme cold, 24 degrees Fahrenheit (-4 degrees Celsius). With 10 hours of playtime you can shred the gnar all day and never run out of juice for your tunes.</t>
   </si>
   <si>
     <t>PERFECT SOUND QUALITY: The built-in HD microphone and noise reduction technology of the bluetooth headphones provide crystal-clear HD stereo sound with deep bass and crystal clear treble that balances both music and voice calls. You will experience high-quality music and very clear calls anywhere. BLUETOOTH 5.0 TECHNOLOGY: Features with the most advanced Bluetooth 5.0 technology ensures an incredible stable and swift connection, enable you to hear clearly. The range of wireless transmission is up to 15 meters. This wireless headphones is the best choice for running, walking, driving and traveling, etc. TOUCH CONTROL &amp; FAST PAIRING: This wireless earbuds features a high-tech touch screen that makes it more sensitive and stylish. No pressure during music touch control play / pause, siri enable, answer / end call. The bluetooth headphones will automatically turn on and connect to your phone when removed from the charging case. Not only that, but it automatically shuts down and charges when placed back in the case, making it easy to use. PORTABLE CHARGING CASE: The bluetooth earbuds is equipped with a charging case which very portable. It can last for 4 hours' music playtime on a single charge, and the charging case can charge the headphones 3 times. Enjoy music all day to keep you free from power shortages on business trips and other activities. WARRANTY: We are committed to be a customer-oriented seller and always place your satisfactions as our top priority. Please feel free to contact us without any hesitation if you have problem or need any help.</t>
@@ -5417,22 +5414,22 @@
     <t>Rechargeable, built-in battery Built-in microphone and volume control Replaceable swivel, ear cups with comfortable, adjustable padded headband Unique, compact folding design for quick stow away Power indicator lights</t>
   </si>
   <si>
-    <t>【Superior Music Quality】Adopting Bluetooth 5.0 and lossless HD rendering technology that produce incredible sound quality with crystal crisp treble. Enjoy your music everywhere even in a loud environment.[With Bluetooth Certificated, Declaration ID:D040222, Model:TWS-X9] 【Fast Pairing】The Wireless Bluetooth Earbuds are equipped with one-step pairing technology. ONLY pull the Left and the Right earbuds out of charging box and they will pair with each other, then "X9 " automatically appear on your smartphone. In a matter of seconds, you are in your euphonic music world. (Note: Please remove the protective tapes on the earbuds before use) 【Portable Charging Case and Longer Battery Life】The charging case with built-in 2200 mAh battery, it could recharge the earbuds 15-18 times and it can be charged automatically once the earbuds is put in the charging case. You get 3-4 hours continuous music playtime and up to 60 hours standby time when earbuds fully charged. Else you can also use the charging case to charge your smartphone when phone is out of power. 【IPX7 Waterproof Earbuds】Thanks to the IPX7 water protection, the bluetooth earbuds are resistant to sweat, water and rain. Perfect for running, jogging, hiking, yoga, exercises, gym, fitness, travelling and etc.Ideal for Chrismas Gift/Present, Birthday Gift/Present, Public Holiday. 【Warranty】Our products have 12 months replacement warranty, please feel free to contact us if you have any issues.</t>
-  </si>
-  <si>
-    <t>【Upgraded Wireless Sports Headphones】Completely free of wire, cut off the cable hung around neck when compared with traditional sport Earbuds. With zero wires to hold you back, you’ll always have your music to motivate yourself. Uniquely built for sports, running, hiking, jogging &amp; other outside activity etc. 【One-step Auto Pairing】 Benefits from the latest Bluetooth 5.0 chip &amp; technology, these Vislla Sport Earphones will power on and pair with each other automatically once taken out from the Charging Box, then "S7" model will appear on the Bluetooth menu for connection. Very simple operation that suitable for all ages. 【Premium Hi-Fi Stereo Audio】Thanks to the advanced Bluetooth 5.0 chip and CVC 8.0 noise canceling features, Vislla S7 will make you immersed in powerful &amp; balanced sound with deep bass, what a premium listening experience! Boost your music enjoyment just from more stable signal and lower power consumption. 【Up to 8 hours of Listening Time】Built-in 110mAh capacity battery on each bud that will last up to 8 hours on a single full charge, so you can keep your music going. With the portable Charging Case, you will get all-day power of more than 24 hours continuous using time. Never worry about battery runs out when go out. 【Comfy and secure fit】Adjustable &amp; secure-fit earhooks keep the earbuds in place when moving or working out, soft ear tips and ergonomic design offers comfortable wearing experience. Equipped with 3 pairs of spare ear caps (L/M/S) for your choice to get the most suitable fitting.</t>
-  </si>
-  <si>
-    <t>♫【Crystal Clear Sound,Clear Calls】The bluetooth neckband headphones has large dynamic coil, 14mm loud speakers, carbon fiber composite diaphragm which can smoothly transmit low frequency and clear mid-high frequency,has high-quality sound, accurately convey music rhythm,the AEC/NR noise reduction and echo cancellation technology can filter out background noise, non-destructive sound quality, professional tone, this bluetooth neckband headphones suitable for calling,pop music,rock ect. ♫【Skin-friendly Material,Comfortable Ear Cavity】360°soft skin-friendly curve hanging neck design,light and portable,comfortable and beautiful,make your shoulder and neck feel zero burden.This bluetooth neckband headphones have 6 models of eartips for choose to make your ears in intimate contact and moisturized texture.This bluetooth headphones does not drop even during strenuous sports,make your ears bid farewell to the burden and feel comfortable in all day. ♫【Bluetooth 5.0,Stable Connection】Using newest QCC3003 chips and bluetooth 5.0 core technology,this bluetooth headphones neckband have long-distance Bluetooth wireless transmission,stronger anti-interference ability,more stable signal,without any delay,users can enjoy wireless music in high-quality.It is compatible with tablet,laptop,desktop computer,TV and cell phone etc. ♫【Ultra-large Capacity,Long-lasting Battery】The bluetooth headphones has 160mAh large-capacity battery,it can continuously play for nearly 12 hours on full power,which is equivalent to playing about 300 songs.The standby time of this bluetooth headset is about 260 hours and only takes 1.5-2 hours to be full charged.Don't need to worry about the battery draining at any time, suitable for any occasion such as business trips, travel, office, workout,subway, video and phone,etc. ♫【Multifunction,Humanized Design】The bluetooth headphones neckband is three-button IC control,one multi-function button release your hands free,farewell remote control,onehidden microphone for clear calls,no fear of sweat,long-lasting,IPX5 waterproof test,even sweating will not affect the headphones.When you are not listening to music,the magnets earbuds of the bluetooth headset will stick together automatically to prevent winding ,slipping and loss.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ♬[Decent sound &amp;touch control] These wireless earbuds offer premium 6D stereo + dsr surround sound  fast and stable transmission without tangling Equipped with built-in mics high-purity graphene diaphragm high-performance neodymium iron boron Horn and CVC6 0 intelligent noise canceling technology you can get crystal clarity and Deep bass without muffling and static T50 Bluetooth earbuds own the 2019 newest feature-touch control Enjoy the latest hands free technology no more messy wires ♬[One-step Pairing &amp; Auto turn on/off] T50 wireless Bluetooth earbuds are specialized in one-step pairing technology You will be amazed by how fast The wireless earphones are on pairing and charging just simply take the Bluetooth wireless earbuds out of charging case for automatically turning on &amp; pairing put them back into the charging case for automatically turning off &amp; charging Intelligent power on/off earbuds no worry for power consumption by themselves ♬[2 IN 1 MAGNETIC CHARGING CASE &amp; IPX8 WATERPROOF] Built with 2600mAh large capacity the on-the-go wireless charging case can be used as charging case and portable power bank It could recharge the earbuds for 22-25 times in one go and has up to 160 hours standby time They can be essentially fall into place in the charging compartment with the magnetic closure design With IPX8 waterproof system these wireless earbuds are resistant to sweat dust water and rain Come in handy for most occasi ♬[Stay snug &amp; long-time wearing comfy] PeohZarr in-ear earphones fit perfectly for different kinds of ears with 3 sets of medical silicone ear tips which are pain-free and allergy-free Thanks to the ergonomically design and spiral shape This wireless headphones are more comfortable to wear and hard to fall out Whatever sports you do this lightweight sport earbuds can always stay snug and let you fully immersed in your physical exercise ♬[2-Year ] We can vouch for it that the T50 True wireless earbuds are manufactured under strict quality standards to bring you best user experience Any problem please feel free to Contact us for professional troubleshooting and aftersales service As we offer a 24-month free replacement there is definitely no risk for your investment</t>
+    <t>Superior Music QualityAdopting Bluetooth 5.0 and lossless HD rendering technology that produce incredible sound quality with crystal crisp treble. Enjoy your music everywhere even in a loud environment.[With Bluetooth Certificated, Declaration ID:D040222, Model:TWS-X9] Fast PairingThe Wireless Bluetooth Earbuds are equipped with one-step pairing technology. ONLY pull the Left and the Right earbuds out of charging box and they will pair with each other, then "X9 " automatically appear on your smartphone. In a matter of seconds, you are in your euphonic music world. (Note: Please remove the protective tapes on the earbuds before use) Portable Charging Case and Longer Battery LifeThe charging case with built-in 2200 mAh battery, it could recharge the earbuds 15-18 times and it can be charged automatically once the earbuds is put in the charging case. You get 3-4 hours continuous music playtime and up to 60 hours standby time when earbuds fully charged. Else you can also use the charging case to charge your smartphone when phone is out of power. IPX7 Waterproof EarbudsThanks to the IPX7 water protection, the bluetooth earbuds are resistant to sweat, water and rain. Perfect for running, jogging, hiking, yoga, exercises, gym, fitness, travelling and etc.Ideal for Chrismas Gift/Present, Birthday Gift/Present, Public Holiday. WarrantyOur products have 12 months replacement warranty, please feel free to contact us if you have any issues.</t>
+  </si>
+  <si>
+    <t>Upgraded Wireless Sports HeadphonesCompletely free of wire, cut off the cable hung around neck when compared with traditional sport Earbuds. With zero wires to hold you back, you’ll always have your music to motivate yourself. Uniquely built for sports, running, hiking, jogging &amp; other outside activity etc. One-step Auto Pairing Benefits from the latest Bluetooth 5.0 chip &amp; technology, these Vislla Sport Earphones will power on and pair with each other automatically once taken out from the Charging Box, then "S7" model will appear on the Bluetooth menu for connection. Very simple operation that suitable for all ages. Premium Hi-Fi Stereo AudioThanks to the advanced Bluetooth 5.0 chip and CVC 8.0 noise canceling features, Vislla S7 will make you immersed in powerful &amp; balanced sound with deep bass, what a premium listening experience! Boost your music enjoyment just from more stable signal and lower power consumption. Up to 8 hours of Listening TimeBuilt-in 110mAh capacity battery on each bud that will last up to 8 hours on a single full charge, so you can keep your music going. With the portable Charging Case, you will get all-day power of more than 24 hours continuous using time. Never worry about battery runs out when go out. Comfy and secure fitAdjustable &amp; secure-fit earhooks keep the earbuds in place when moving or working out, soft ear tips and ergonomic design offers comfortable wearing experience. Equipped with 3 pairs of spare ear caps (L/M/S) for your choice to get the most suitable fitting.</t>
+  </si>
+  <si>
+    <t>Crystal Clear Sound,Clear CallsThe bluetooth neckband headphones has large dynamic coil, 14mm loud speakers, carbon fiber composite diaphragm which can smoothly transmit low frequency and clear mid-high frequency,has high-quality sound, accurately convey music rhythm,the AEC/NR noise reduction and echo cancellation technology can filter out background noise, non-destructive sound quality, professional tone, this bluetooth neckband headphones suitable for calling,pop music,rock ect. Skin-friendly Material,Comfortable Ear Cavity360°soft skin-friendly curve hanging neck design,light and portable,comfortable and beautiful,make your shoulder and neck feel zero burden.This bluetooth neckband headphones have 6 models of eartips for choose to make your ears in intimate contact and moisturized texture.This bluetooth headphones does not drop even during strenuous sports,make your ears bid farewell to the burden and feel comfortable in all day. Bluetooth 5.0,Stable ConnectionUsing newest QCC3003 chips and bluetooth 5.0 core technology,this bluetooth headphones neckband have long-distance Bluetooth wireless transmission,stronger anti-interference ability,more stable signal,without any delay,users can enjoy wireless music in high-quality.It is compatible with tablet,laptop,desktop computer,TV and cell phone etc. Ultra-large Capacity,Long-lasting BatteryThe bluetooth headphones has 160mAh large-capacity battery,it can continuously play for nearly 12 hours on full power,which is equivalent to playing about 300 songs.The standby time of this bluetooth headset is about 260 hours and only takes 1.5-2 hours to be full charged.Don't need to worry about the battery draining at any time, suitable for any occasion such as business trips, travel, office, workout,subway, video and phone,etc. Multifunction,Humanized DesignThe bluetooth headphones neckband is three-button IC control,one multi-function button release your hands free,farewell remote control,onehidden microphone for clear calls,no fear of sweat,long-lasting,IPX5 waterproof test,even sweating will not affect the headphones.When you are not listening to music,the magnets earbuds of the bluetooth headset will stick together automatically to prevent winding ,slipping and loss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Decent sound &amp;touch control] These wireless earbuds offer premium 6D stereo + dsr surround sound  fast and stable transmission without tangling Equipped with built-in mics high-purity graphene diaphragm high-performance neodymium iron boron Horn and CVC6 0 intelligent noise canceling technology you can get crystal clarity and Deep bass without muffling and static T50 Bluetooth earbuds own the 2019 newest feature-touch control Enjoy the latest hands free technology no more messy wires [One-step Pairing &amp; Auto turn on/off] T50 wireless Bluetooth earbuds are specialized in one-step pairing technology You will be amazed by how fast The wireless earphones are on pairing and charging just simply take the Bluetooth wireless earbuds out of charging case for automatically turning on &amp; pairing put them back into the charging case for automatically turning off &amp; charging Intelligent power on/off earbuds no worry for power consumption by themselves [2 IN 1 MAGNETIC CHARGING CASE &amp; IPX8 WATERPROOF] Built with 2600mAh large capacity the on-the-go wireless charging case can be used as charging case and portable power bank It could recharge the earbuds for 22-25 times in one go and has up to 160 hours standby time They can be essentially fall into place in the charging compartment with the magnetic closure design With IPX8 waterproof system these wireless earbuds are resistant to sweat dust water and rain Come in handy for most occasi [Stay snug &amp; long-time wearing comfy] PeohZarr in-ear earphones fit perfectly for different kinds of ears with 3 sets of medical silicone ear tips which are pain-free and allergy-free Thanks to the ergonomically design and spiral shape This wireless headphones are more comfortable to wear and hard to fall out Whatever sports you do this lightweight sport earbuds can always stay snug and let you fully immersed in your physical exercise [2-Year ] We can vouch for it that the T50 True wireless earbuds are manufactured under strict quality standards to bring you best user experience Any problem please feel free to Contact us for professional troubleshooting and aftersales service As we offer a 24-month free replacement there is definitely no risk for your investment</t>
   </si>
   <si>
     <t>POWERFUL DRIVERS &amp;ALUMINIUM ALLOY HOUSING : is brilliantly engineered with upgraded high quality dynamic drivers that pump out powerful deep bass and balanced crisp mids and highs,superior audio performance, extremely accurate listening experience. COMFORTABLE OBLIQUE ANGLED ERGONOMIC DESIGN: The oblique angled ear fittings naturally match your ear canals. 5 sets of included ear sleeves sizes ensure a proper fit for all. They're more comfortable and less likely to fall out, freeing you to enjoy your music. INTELLIGENT IN-LINE REMOTE CONTROL: In-line remote control is conveniently located allowing you to effortlessly control volume, select songs, and take calls. MORE FLEXIBLE &amp; DURABLE CORD: The hollow TPE cord with durable oxygen-free copper wire inserted by hand, this process produces a more durable and longer lasting cord. The 3.5mm gold plated jack on the end for reliable connectivity. Headphones are widely compatible with iPhone SE/ 6/6s/6 Plus/6s Plus/5/5c/5s, iPad Mini, iPad Air, iPod touch 5,iPod Nano 7,Samsung Galaxy, Android Smartphones and tablets, Windows devices, and all popular music devices with headphone socket ,Earphones headphones come with 1 year warranty.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) CRYSTAL CLEAR MUSIC CLARITY &amp; CALL CLARITY – don't settle for flat, muted noise true wireless headphones. V5 HeadSound 3D dual speaker true wireless earbuds delivers second-to-none music clarity &amp; call clarity, pumping out the “live” thumping bass, sweet full range treble, and the total 3D surround sound experience that keeps you moving for hours 25 PLAYTIME HOURS, RAPID CHARGE, AUTO PAIRING – all day (and night) cordless bluetooth earbuds automatically start charging when placed in their power case, then stop when fully charged. No turning on or off required. Portable charging case charges 5 times in a row, untethering you from the bluetooth headphones wall charger for up to 25 non-consecutive hours. STAY PUT, STAY COMFY – non-slip, chaff proof, sweat proof bluetooth earbuds with microphone gracefully mold to your ear, so you can hike, run, cycle, and stay active, without any excuse to quit! PAIR IN SECONDS, 40 FEET OF FREEDOM: universal bluetooth headset earbuds connect in seconds and allow you to maintain 100% stable connection. Perfect bluetooth ear buds for your cell phone, iphone, Samsung Galaxy android, TV, laptop, tablet, smart watch – call or chat with siri or Google Assistant too! TRY &amp; FALL IN LOVE – RISK FREE: Quickly experience full satisfaction or your money back. We guarantee these are the best wireless bluetooth ear phones with microphone, charging power case and Micro usb cable pack on market, or your money back. No questions asked.</t>
+    <t xml:space="preserve"> CRYSTAL CLEAR MUSIC CLARITY &amp; CALL CLARITY – don't settle for flat, muted noise true wireless headphones. V5 HeadSound 3D dual speaker true wireless earbuds delivers second-to-none music clarity &amp; call clarity, pumping out the “live” thumping bass, sweet full range treble, and the total 3D surround sound experience that keeps you moving for hours 25 PLAYTIME HOURS, RAPID CHARGE, AUTO PAIRING – all day (and night) cordless bluetooth earbuds automatically start charging when placed in their power case, then stop when fully charged. No turning on or off required. Portable charging case charges 5 times in a row, untethering you from the bluetooth headphones wall charger for up to 25 non-consecutive hours. STAY PUT, STAY COMFY – non-slip, chaff proof, sweat proof bluetooth earbuds with microphone gracefully mold to your ear, so you can hike, run, cycle, and stay active, without any excuse to quit! PAIR IN SECONDS, 40 FEET OF FREEDOM: universal bluetooth headset earbuds connect in seconds and allow you to maintain 100% stable connection. Perfect bluetooth ear buds for your cell phone, iphone, Samsung Galaxy android, TV, laptop, tablet, smart watch – call or chat with siri or Google Assistant too! TRY &amp; FALL IN LOVE – RISK FREE: Quickly experience full satisfaction or your money back. We guarantee these are the best wireless bluetooth ear phones with microphone, charging power case and Micro usb cable pack on market, or your money back. No questions asked.</t>
   </si>
   <si>
     <t>Noise isolating ( passive noise cancelling) in ear headphones earphones Bass driven sound, feel the power of music In ear earbuds with builtin microphone and one button remote control; let you take calls, play and pause your music on the move Ideal for Apple iPhone, iPad, iPod, Samsung, Nokia, Sony, Google Pixel Smartphones, MP3 Players, tablets and more 3 sizes of silicon earbuds and cable clip included for ultimate comfort; 1 year warranty for manufacturing defects, 30 days satisfaction guarantee</t>
@@ -5444,7 +5441,7 @@
     <t>Immersive audio: enhanced CSR chip, CVC noise cancellation, and Bluetooth 4. 1 technology deliver a robust, wide range of sound with dynamic highs and powerful lows, giving you the best music experience Sweat &amp; water-proof: waterproof Nano-coating protects the headphones during workout; rain, sweat, or shine, these IPX7 waterproof headphones push you further and handle tough training Easy Control: play and pause music, adjust the volume, skip tracks, answer/end calls, and activate Siri or virtual assistant with one-button control on the headphones Longer listening: One charge gives you up to 8 hours playtime so you can listen longer between charges Comfortable and discreet: portable and ultra-lightweight, these discreet Bluetooth headphones stay put during active use and take you comfortably from one place to the next</t>
   </si>
   <si>
-    <t>【Great if you can't stand earbuds】It would rest outside of your ears instead of within the ear canal. Ergonomic design of this headphone when you are on the treadmill, it stays in place so much better than earbuds. Wearing these with glasses is still comfortable. Would not getting ears ore like with earbuds. 【Extremely lightweight &amp; compact】The headphones are light enough that you don't even notice them when go for a run with them on which makes running easier to get through with my music shuffle. Use these earphones for backs packing and in the gym. Can easily put them in the pocket. Can wear them with your head on a pillow or under a hat. 【Easy to control music &amp; calling】Over the ear headphones have 4 control buttons, not two like in-ear ones. The right-hand earphone has controls to pick up calls, raise or lower volume, and skip ahead or go back a bit. Each button is indicated with a raised dot but if you take a minute to situate your finger on the dial it's easy to navigate. Experience true hands-free calling and enjoy music on the go. Calling is in stereo, call quality sounds like when you are holding a phone. 【Extend usability battery life with top notch sound】Headphones are arrived fully charged and ready to go out of the box. Use it several hours a day and charge it on Monday, the battery would last the whole week. 【Handy case included】The headphones come in a small travel case and the band that goes around the neck maintains a twisted position for compact storage when not being worn.</t>
+    <t>Great if you can't stand earbudsIt would rest outside of your ears instead of within the ear canal. Ergonomic design of this headphone when you are on the treadmill, it stays in place so much better than earbuds. Wearing these with glasses is still comfortable. Would not getting ears ore like with earbuds. Extremely lightweight &amp; compactThe headphones are light enough that you don't even notice them when go for a run with them on which makes running easier to get through with my music shuffle. Use these earphones for backs packing and in the gym. Can easily put them in the pocket. Can wear them with your head on a pillow or under a hat. Easy to control music &amp; callingOver the ear headphones have 4 control buttons, not two like in-ear ones. The right-hand earphone has controls to pick up calls, raise or lower volume, and skip ahead or go back a bit. Each button is indicated with a raised dot but if you take a minute to situate your finger on the dial it's easy to navigate. Experience true hands-free calling and enjoy music on the go. Calling is in stereo, call quality sounds like when you are holding a phone. Extend usability battery life with top notch soundHeadphones are arrived fully charged and ready to go out of the box. Use it several hours a day and charge it on Monday, the battery would last the whole week. Handy case includedThe headphones come in a small travel case and the band that goes around the neck maintains a twisted position for compact storage when not being worn.</t>
   </si>
   <si>
     <t>HD Stereo Sound: Bluetooth headphones technology ensures quick pairing and solid connectivity. Enjoy your music anytime with HD stereo sound even in noisy environments Built-in Magnetic Design: Lets you attach the workout headphones together when not in use, avoiding entanglement and loss. Neckband design is also easy to carry Stable and Comfortable to Wear: Ergonomic in-ear design and soft ear fins are more than apt for your ear canal. 3 ear tip sizes, 2 ear fin sizes and one earbud cover provide individualized choice and comfort 8 Hours Play Time: Sports headphones only need charging for 1. 5 hours and give up to 8 hours play time. Perfect for running, biking, hiking or other exercise What You Get: Cover with 1x bluetooth headphones, 3 pairs x interchangeable ear tips, 2 pairs x interchangeable ear fins, 1x earbud cover, 1x micro USB cable, 1x user manual.</t>
@@ -5462,7 +5459,7 @@
     <t>The Early Bird Bulk Head Phones are available in 6, 12, and 30 pack sizes and fit children, students and adults. The head phones are adjustable and are comfortable and will not pinch your ears because they are made of quality flexible materials. When you are listening, comfortable head phones are a must and that is what we are delivering with our bulk headphones. Ear pieces are stereo sound and excellent for classroom tests or library and no microphone. Great over the ear head phones for schools, classrooms, airplanes, museums, hospitals, libraries, gyms, fitness centers, hotels, tours, etc.. These bulk school headphones have cords that are longer than 5 feet. Most other bulk head phones only have a 4 foot cord. Our headphones are easy to plug into your devices and delivery excellent quality sound. These bulk headphones are comfortable, flexibility and make privacy key factors when using these over the ear headphones. Our bulk headphones are portable and light weight, yet durable and produce high quality sound. These headphones can go anywhere you go. Perfect for small to large groups of people relaxing or tuck these into your car for the kids or adults. · Bulk headphones are compatible with Apple iPhone, HTC, Blackberry, Sony Ericsson Universal, Nextel, Sharp, Nokia, Motorola, Palm, Samsung and LG, and many more devices because we use the 3.5 mm plugs Each headphone is wired for superior communication, the style is with a flexible headband, compare our cord, it is 5.75 Feet which is longer than other bulk headphones, the plug fits the majority of devices, it is 3.5mm. The head phones are a favorite for schools, libraries, kids, classrooms, fitness centers, spas, gyms, hospitals, computer labs, hotels, museum, airplanes and more. You will save time and money because we provide you with quality headphones at a very low cost. If you compare with other sellers we are providing the best head phone at the best prices. Ear pads are replaceable if needed.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Flexible flipbook, two-way design allows you to wear the headphones either in-ear or behind-the-ear Thanks to twistable and flex soft technologies, these headphones are lightweight and ergonomically built to ensure secure fi t and stability no matter the workout. Sweat proof In-line one button remote with microphone enables hands-free calling Magnetic earbuds that allow for easy cable management when not in use</t>
+    <t xml:space="preserve"> Flexible flipbook, two-way design allows you to wear the headphones either in-ear or behind-the-ear Thanks to twistable and flex soft technologies, these headphones are lightweight and ergonomically built to ensure secure fi t and stability no matter the workout. Sweat proof In-line one button remote with microphone enables hands-free calling Magnetic earbuds that allow for easy cable management when not in use</t>
   </si>
   <si>
     <t>Metal Stereo Headphones Super Bass Headset With Mic Type:Stereo in-ear earphone Magnetic adsorption,easy to wear Headphone plug type: straight type rive Unit: 10 mm in diam.</t>
@@ -5471,40 +5468,40 @@
     <t>Frequency Response - 18Hz-24kHz and Impedance - 16 ohms High fidelity stereophone utilizes neodymium rare earth magnet and 16 micron mylar element for deep bass and treble clarity Flexible headband with sling allows for easy, single sided listening and maximum durability Straight, single-entry, 8-foot cord for home and portable use Includes 1/8-inch and 1/4-inch stereo plugs for home and portable use Perfect for deejay use</t>
   </si>
   <si>
-    <t>💕【QUAL DYNAMIC DRIVERS &amp; IPX7 WATERPROOF TECHNOLOGY】Thanks to the quad drivers technology (dual 6mm driver units eqquied with PU+PEEK composite diaphragms per earbud), the headphones bring you better balanced bass, mid-range and treble performance, clearer instrument sounds and vocals. Upgrade the waterproof rating - IPX7 sweat and water resistance to protect the headphones from light rain or sweat. Tips: Please make sure that charging port is closed to maintain its waterproof performance 💕【24 HOURS NON-STOP PLAYBACK &amp; FAST CHARGING】Upgraded built in exclusive charging technology and low power consumption, up to 24 hours playback just once fully charged in only 3 hours. One full charge supports up to 7 days of use if you use the earphones for 2-3 hours a day (based on 50% volume). You can enjoy wonderful music for long time, motivates you to do sports exercises for more. Tips: Before connecting, adjust the volume on the device to 50% -60% for the best feel 💕【EASY PAIRING &amp; STABLE CONNECTION】Hi-Fi sound with Bluetooth 5.0 adopted latest generation chip, which provides faster, stable signal connection and wider compatibility, more reliable connection with most bluetooth enabled devices (phone, tablet or laptop) within 33ft (10m), allows you enjoy music anytime and anywhere and keep your hands free for driving, working, eating or other important tasks. Never miss your call! Tips: This headset can connect with 2 device simultaneously 💕【COMFORTABLE FIT &amp; WEIGHTLESS LISTENING】Ergonomic and shallow in-ear design with three sizes (S/M/L) ear tips, brings secure fit without hurting your ear and don't need to worry the earbuds fall down when sport. Can be absorbed in front of neck when not in use, gives you a convenient storage way to carry around and becomes a fashion embellishment. Single earphone weight 3g, extremely lightweight, designed to help you feel free from the constraints of bulky earpieces 💕【VOLUME CONTROL &amp; 7*24H SERVICE】Great operability - even new users also can easily wireless connect and operate. Three button in-line remote control for full audio playback includes volume adjustment, answer/end/reject a call, next/previous track, and play/pause functionality, free yourself from wires. ✎ ✉ Contact us if you have any questions regarding pairing, connection, charging, fit, sound quality or other issues. Link to contact: https://www.amazon.com/hz/help/contact/A37WW6B9H41IDK/write</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) SUPERIOR SOUND: Enjoy clear sound and supreme comfort with the OneOdio Studio monitor headphones. Large, 50 millimeter speaker unit drivers combined with neodymium magnets; powerful bass, clear vocal, and crisp high tones form perfect hi-fi sound. BUILT TO STAY COMFORTABLE: The high quality padded ear cushions are specifically designed for monitor headphones maximum comfort and noise isolation. The headband is adjustable and stretchable for you to find the desired angle you like to fit in . NO MORE ADAPTER: A long DJ-style 9.8-foot cord easily reaches from the TV or stereo to your favorite chair. A standard-sized 6.35mm plug and a 3.5mm plug are included. They both are completely detachable, you can plug in the mixer you want to use. SINGLE-SIDE MONITORING: 90° swiveling earcups for single-ear monitoring anytime; self-adjustable and flexible headband delivers a fatigue-free listening experience that can last for hours, perfect for mastering and mixing. Works with: iPad, iPod, iPhone, Android and many other Audio devices. High-quality sound, supreme durability, and maximum comfort. These are the headphones you've been looking for.</t>
+    <t>💕QUAL DYNAMIC DRIVERS &amp; IPX7 WATERPROOF TECHNOLOGYThanks to the quad drivers technology (dual 6mm driver units eqquied with PU+PEEK composite diaphragms per earbud), the headphones bring you better balanced bass, mid-range and treble performance, clearer instrument sounds and vocals. Upgrade the waterproof rating - IPX7 sweat and water resistance to protect the headphones from light rain or sweat. Tips: Please make sure that charging port is closed to maintain its waterproof performance 💕24 HOURS NON-STOP PLAYBACK &amp; FAST CHARGINGUpgraded built in exclusive charging technology and low power consumption, up to 24 hours playback just once fully charged in only 3 hours. One full charge supports up to 7 days of use if you use the earphones for 2-3 hours a day (based on 50% volume). You can enjoy wonderful music for long time, motivates you to do sports exercises for more. Tips: Before connecting, adjust the volume on the device to 50% -60% for the best feel 💕EASY PAIRING &amp; STABLE CONNECTIONHi-Fi sound with Bluetooth 5.0 adopted latest generation chip, which provides faster, stable signal connection and wider compatibility, more reliable connection with most bluetooth enabled devices (phone, tablet or laptop) within 33ft (10m), allows you enjoy music anytime and anywhere and keep your hands free for driving, working, eating or other important tasks. Never miss your call! Tips: This headset can connect with 2 device simultaneously 💕COMFORTABLE FIT &amp; WEIGHTLESS LISTENINGErgonomic and shallow in-ear design with three sizes (S/M/L) ear tips, brings secure fit without hurting your ear and don't need to worry the earbuds fall down when sport. Can be absorbed in front of neck when not in use, gives you a convenient storage way to carry around and becomes a fashion embellishment. Single earphone weight 3g, extremely lightweight, designed to help you feel free from the constraints of bulky earpieces 💕VOLUME CONTROL &amp; 7*24H SERVICEGreat operability - even new users also can easily wireless connect and operate. Three button in-line remote control for full audio playback includes volume adjustment, answer/end/reject a call, next/previous track, and play/pause functionality, free yourself from wires. ✎ ✉ Contact us if you have any questions regarding pairing, connection, charging, fit, sound quality or other issues. Link to contact: https://www.amazon.com/hz/help/contact/A37WW6B9H41IDK/write</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUPERIOR SOUND: Enjoy clear sound and supreme comfort with the OneOdio Studio monitor headphones. Large, 50 millimeter speaker unit drivers combined with neodymium magnets; powerful bass, clear vocal, and crisp high tones form perfect hi-fi sound. BUILT TO STAY COMFORTABLE: The high quality padded ear cushions are specifically designed for monitor headphones maximum comfort and noise isolation. The headband is adjustable and stretchable for you to find the desired angle you like to fit in . NO MORE ADAPTER: A long DJ-style 9.8-foot cord easily reaches from the TV or stereo to your favorite chair. A standard-sized 6.35mm plug and a 3.5mm plug are included. They both are completely detachable, you can plug in the mixer you want to use. SINGLE-SIDE MONITORING: 90° swiveling earcups for single-ear monitoring anytime; self-adjustable and flexible headband delivers a fatigue-free listening experience that can last for hours, perfect for mastering and mixing. Works with: iPad, iPod, iPhone, Android and many other Audio devices. High-quality sound, supreme durability, and maximum comfort. These are the headphones you've been looking for.</t>
   </si>
   <si>
     <t>PREMIUM SOUND : Crisp, clear sound and bumping bass make for a complete surround sound experience when listening to all types of music. LIGHTWEIGHT AND COMPACT DESIGN: Designed with comfort in mind, pillow soft cushions sit snugly on your ears for long term use; Foldable for convenient storage when not in use; lightweight materials make these headphones ideal for everyday travel. BUILD IN MICROPHONE AND VOLUME CONTROL: Enjoy a completely hands free listening experience with a microphone built into the headset for high definition calls ; Adjust Volume, Pause/Play your Music or answer/end phone calls right from your headset with built in control. UNIVERSAL COMPATIBILITY: Headphones are designed with a 3.5mm jack that fits to all standard iPhones, Androids, smartphones, iPads, Tablets, etc. 1 YEAR LIMITED WARRANTY: Hassle free and USA based Customer Service.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【Wide Compatibility】This wiereless tv headphone supports OPTICAL / AUX / RCA audio output. compatible with latest TV models,such as: Samsung SMART TV, Panasonic Plasma TV, LG Smart TV, Vizio 4K TV. ideal for watching TV, gaming or PC 【Plug and play &amp; Easy charging】 ideal for senior people because this Wireless TV Headphone does not need pair, simply turn on both devices and they will auto connect to each other. Auto headphones charging Dock built into transmitter, very convenient for charging 【Crystal clear sound &amp; Zero latency】This tv headphone let you enjoy amazing crystal clear sound with a frequency response of 30Hz - 20kHz.2.4Ghz technology with zero latency 31 Channel frequency hopping system 【Long work range &amp; play time, No harm for skin】work range reaches up to 100ft/30m, play time up to 12 hours and, come with super soft pads and elastic headband providing lasting comfort. No harm to your skin even if you use it for a long time 【Wireless TV Headphone Warranty】 we support free lifetime technical support and free 1 Year Manufacturer Warranty. Please feel free contact us if you need help, any email will reply in 24 hours,you can reach us at: amazonus@msongtech.com</t>
+    <t xml:space="preserve"> Wide CompatibilityThis wiereless tv headphone supports OPTICAL / AUX / RCA audio output. compatible with latest TV models,such as: Samsung SMART TV, Panasonic Plasma TV, LG Smart TV, Vizio 4K TV. ideal for watching TV, gaming or PC Plug and play &amp; Easy charging ideal for senior people because this Wireless TV Headphone does not need pair, simply turn on both devices and they will auto connect to each other. Auto headphones charging Dock built into transmitter, very convenient for charging Crystal clear sound &amp; Zero latencyThis tv headphone let you enjoy amazing crystal clear sound with a frequency response of 30Hz - 20kHz.2.4Ghz technology with zero latency 31 Channel frequency hopping system Long work range &amp; play time, No harm for skinwork range reaches up to 100ft/30m, play time up to 12 hours and, come with super soft pads and elastic headband providing lasting comfort. No harm to your skin even if you use it for a long time Wireless TV Headphone Warranty we support free lifetime technical support and free 1 Year Manufacturer Warranty. Please feel free contact us if you need help, any email will reply in 24 hours,you can reach us at: amazonus@msongtech.com</t>
   </si>
   <si>
     <t>[Hi-Fi Stereo Sound Quality &amp; True Wireless Earbuds ]- MIFO O7 adopt dual balanced armature speaker, it offers a truly natural, authentic sound and powerful bass. TWS Bluetooth 5.0 wireless earbuds maximum transmission distance of 20 meters and have an unmatched combination of comfort and stability. You can enjoy music anytime and anywhere. [Two Earbuds Use Together &amp; Two Earbuds Use Separately]- When you take two wireless earphones together out of the charging case, they will automatically pair, then you can search for Bluetooth device and select either mifo_O7R or mifo_O7L.Because each earbud has independent functionality, it does not matter which you choose to pair with first. Once connected successfully, you may also select and connect to other earbud. This will ensure ease of use later should you wish to use single earbud. [True Wireless Noise Cancelling Earbuds]-MIFO O7 adopt dual microphone call noise reduction technology, When you are in a high-speed ride time, call quality is still clear, No matter what environment you use this Bluetooth bass earbuds call to others, you will have a very good enjoyment. [IP67 Waterproof Wireless Earbuds &amp; Long Playtime]- Wireless sport earbud itself is with built-in 40mAh mini battery, can provide 7 hours’ play time. If put earbuds into charging box when not use it, standby time can reach 60 days. If no power, charge 10 minutes, play 1 hour. IP67 Waterproof and Dustproof, protects the aptx true wireless earbuds from sweat or water, as well as dust. [Ergonomic Design &amp; Wireless Sport Earbuds]-Lots of ear shape data collection, thousands of real people’s test, the radian adjustment precise to 0.05MM, the persistence in pursuit of perfectness. Ergonomic design makes you feel comfortable when you wear it for a long time. When you wear wireless in ear headphones, they are firm and will not fall, so that you can enjoy music better in sports.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) SUPERIOR SOUND: Enjoy a truly impressive high performance sound quality. The earbuds are acoustically perfected and balanced with 9mm dynamic drivers that offer maximum bass. The noise-isolating design will help prevent distractions at the gym. STATE-OF-THE-ART FEATURES: The Smile Jamaica earbuds have a 1 button remote on the wire that allows you to play, pause, and skip through your music. Wear the earbuds confidently as they are solid, durable and wear resistant. ECO-FRIENDLY DESIGN: The in-ear headphones offer solid construction with FSC Certified wood &amp; recyclable aluminum housings. They are durable, woven, tangle-free with a L-shaped gold plated stereo plug. Choose between 2 size earbuds for the best fit. CONVENIENCE &amp; COMPATIBILITY: The in-line microphone allows for easy access to phone calls without the hassle of unplugging the headphones. The in-ear headphones can be used with any mobile or electronic device with a standard headphone jack. HOUSE OF MARLEY: House of Marley is built on the principles of superior quality, sustainability and a commitment to charitable causes while enhancing lives through great product experiences, as well as using proceeds to support global reforestry.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Premium Audio; The DC950HI has a bass that goes deeper than deep and crisp clean trebles that hit higher than you would expect from a set of headphones at this price point; In fact, they outperform their price range with a premium listening experience Built In Microphone; The Earphone come with a built in microphone and remote control; Take and make calls anywhere and have control over your audio volume and music with detailed sound; Compatible with iPhone, iPad, Samsung Devices and Tablets , some devices may require earphone adapter Highly Functional; The earphones are sweat proof and have a heavy bass reproduction, so you can enjoy your tracks whilst going for a run, working out or other sport activities; The cable length is 1.2m and comes with a clip for more comfort and movement Tangle Resistant; Featuring an innovative anti tangle design, the Y-shaped cord of these headphones has been carefully crafted to remain smooth and hasslefree; allowing you to go about your day without wasting time untangling wires Custom Comfort; Get set to enjoy long hours of music in comfort; The shape and size of the headphones has been optimised to give a perfect fit and long lasting comfort, and they come with earbuds in various sizes so you can find the best fit for you</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) MFi Certification - Officially MFi certified lightning earphones, directly plug them into your iPhone or other Apple devices that come with a lightning port All-in-one Control with the MEMS Microphone – An in-line controller lets you accept and end calls, communicate with Siri, play music, change tracks and adjust the volume just with the click of a button Outstanding Sound Quality and Noise Isolation – These earphones feature a 10-millimeter dynamic driver in each ear, that has been tuned for crisper mids and deeper bass. The in-ear design helps minimize ambient noise for a more mellifluous experience Quality and Durability – The reliable product quality, plus our responsible replacement policy, are equivalent to your steady listening experience Compatibility List – iPhone 11, iPhone 11 Pro, iPhone 11 Pro Max, iPhone X, iPhone XS, iPhone XS Max, iPhone XR, iPhone 8, iPhone 8 Plus, iPhone 7, iPhone 7 Plus, iPad or iPod with lightning port</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Tv headset with optical - our wireless headphones for Television is compatible with all TVs with digital Audio output or optical output. Designed with intelligent auto-tune function, no Audio delay of the headphone system for TV. Enjoy TV shows at night or early morning without disturbing family. Perfect digital headset for audio lovers. Hi-fi stereo sound - MONODEAL TV headphones and optical Audio of it make a perfect Combo to create surround sound in crystal clear audio sound. Enjoy sound wireless without compromising hi-fi stereo quality sound. With 100 feet working range, you can go all around the house with these on to listen to TV or music without drop outs or interruptions. More compatibility - not just headphones for the TV, The charging dock of the TV headset can also connects directly to any device with a standard 3.5 mm headphone jack. You can use it with your smartphone/tablet/ iPad/ laptop/ radio/ CD player/MP3 player and PC computer. Convenient charging - easily charge the headphone by simply placing it on the transmitter base. Support continuous working for 25 hours with one full charge. Free yourself from charging the headphone every day! For protection of transmitter and power saving, the transmitter and the Headset will auto turn off if there is no Audio signal received for about 5 minutes. Comfortable TV headphones - over ear design and adjustable soft pads of this TV headphone provides a maximum comfortable wearing. Full-sealed ear pads effectively reduce the sound leakage to return a sweet dream to your families while you can watch TV intently. Digital signal transmitter guarantees you the extra bass and crisp treble performance without distortion! Wireless Communication Technology: 2.4Ghz Radio Frequency</t>
+    <t xml:space="preserve"> SUPERIOR SOUND: Enjoy a truly impressive high performance sound quality. The earbuds are acoustically perfected and balanced with 9mm dynamic drivers that offer maximum bass. The noise-isolating design will help prevent distractions at the gym. STATE-OF-THE-ART FEATURES: The Smile Jamaica earbuds have a 1 button remote on the wire that allows you to play, pause, and skip through your music. Wear the earbuds confidently as they are solid, durable and wear resistant. ECO-FRIENDLY DESIGN: The in-ear headphones offer solid construction with FSC Certified wood &amp; recyclable aluminum housings. They are durable, woven, tangle-free with a L-shaped gold plated stereo plug. Choose between 2 size earbuds for the best fit. CONVENIENCE &amp; COMPATIBILITY: The in-line microphone allows for easy access to phone calls without the hassle of unplugging the headphones. The in-ear headphones can be used with any mobile or electronic device with a standard headphone jack. HOUSE OF MARLEY: House of Marley is built on the principles of superior quality, sustainability and a commitment to charitable causes while enhancing lives through great product experiences, as well as using proceeds to support global reforestry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Premium Audio; The DC950HI has a bass that goes deeper than deep and crisp clean trebles that hit higher than you would expect from a set of headphones at this price point; In fact, they outperform their price range with a premium listening experience Built In Microphone; The Earphone come with a built in microphone and remote control; Take and make calls anywhere and have control over your audio volume and music with detailed sound; Compatible with iPhone, iPad, Samsung Devices and Tablets , some devices may require earphone adapter Highly Functional; The earphones are sweat proof and have a heavy bass reproduction, so you can enjoy your tracks whilst going for a run, working out or other sport activities; The cable length is 1.2m and comes with a clip for more comfort and movement Tangle Resistant; Featuring an innovative anti tangle design, the Y-shaped cord of these headphones has been carefully crafted to remain smooth and hasslefree; allowing you to go about your day without wasting time untangling wires Custom Comfort; Get set to enjoy long hours of music in comfort; The shape and size of the headphones has been optimised to give a perfect fit and long lasting comfort, and they come with earbuds in various sizes so you can find the best fit for you</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MFi Certification - Officially MFi certified lightning earphones, directly plug them into your iPhone or other Apple devices that come with a lightning port All-in-one Control with the MEMS Microphone – An in-line controller lets you accept and end calls, communicate with Siri, play music, change tracks and adjust the volume just with the click of a button Outstanding Sound Quality and Noise Isolation – These earphones feature a 10-millimeter dynamic driver in each ear, that has been tuned for crisper mids and deeper bass. The in-ear design helps minimize ambient noise for a more mellifluous experience Quality and Durability – The reliable product quality, plus our responsible replacement policy, are equivalent to your steady listening experience Compatibility List – iPhone 11, iPhone 11 Pro, iPhone 11 Pro Max, iPhone X, iPhone XS, iPhone XS Max, iPhone XR, iPhone 8, iPhone 8 Plus, iPhone 7, iPhone 7 Plus, iPad or iPod with lightning port</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tv headset with optical - our wireless headphones for Television is compatible with all TVs with digital Audio output or optical output. Designed with intelligent auto-tune function, no Audio delay of the headphone system for TV. Enjoy TV shows at night or early morning without disturbing family. Perfect digital headset for audio lovers. Hi-fi stereo sound - MONODEAL TV headphones and optical Audio of it make a perfect Combo to create surround sound in crystal clear audio sound. Enjoy sound wireless without compromising hi-fi stereo quality sound. With 100 feet working range, you can go all around the house with these on to listen to TV or music without drop outs or interruptions. More compatibility - not just headphones for the TV, The charging dock of the TV headset can also connects directly to any device with a standard 3.5 mm headphone jack. You can use it with your smartphone/tablet/ iPad/ laptop/ radio/ CD player/MP3 player and PC computer. Convenient charging - easily charge the headphone by simply placing it on the transmitter base. Support continuous working for 25 hours with one full charge. Free yourself from charging the headphone every day! For protection of transmitter and power saving, the transmitter and the Headset will auto turn off if there is no Audio signal received for about 5 minutes. Comfortable TV headphones - over ear design and adjustable soft pads of this TV headphone provides a maximum comfortable wearing. Full-sealed ear pads effectively reduce the sound leakage to return a sweet dream to your families while you can watch TV intently. Digital signal transmitter guarantees you the extra bass and crisp treble performance without distortion! Wireless Communication Technology: 2.4Ghz Radio Frequency</t>
   </si>
   <si>
     <t>Adjustable headband allows you to create a custom fit with your headphones Padded soft cushion offer superior comfort and noise reduction in all environments Made of PC Plastic| 3.5mm audio cable Cable length: approx 3 mm best sound for the price</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) SOFT ON EAR PADS - Soft Ear Pads for Sound Isolation and Comfort Fit. STAINLESS STEEL HEAD FIT SIZE EXPANDER - Rugged Stainless Steel for Perfect Head Fit. Large Head, Medium Head or Small Head Headphones. FLAT FOLDABLE CUSTOM DESIGN - Headphone Ear Pieces Swivel for Small Storage. Less than 1 inch Thick When Folded. Easy to carry in a purse, backpack, or Briefcase POWERFUL SOUND - 30MM Neodymium Driver Units for a Rich Fidelity Sound. GOLD PLATTED HEADPHONE JACK - 3.94 Foot Cord with Gold Plated Headphone Jack. Color matched to top 6 iPod nano 5G models Lightweight flat foldable design3.94-ft cord with gold-plated iPhone-compatible slim plugSensitivity: 105 dB/1mWMax input: 200mWShow more</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 16 hours continuous playback Boltune wireless headphones with exclusive charging technology low power consumption 5 minutes charge can play for 2 hours Ios can last up to 16 hours Enjoy wonderful music when travelling &amp; playing sports The most advanced Bluetooth 5 0 Boltune Bluetooth headphones adopt the latest generation chip and Bluetooth 5 0 technology supports various Bluetooth-enabled devices with significant noise isolation &amp; 10mm dynamic drivers IPX7 waterproof technology Boltune headphones with IPX7 sweat &amp; water resistance protects the headphones from heavy rain &amp; sweat The magnetic wireless headphones conveniently clasp together Easy to take anywhere High quality stereo sound Bluetooth 5 0 technology with SBC Bluetooth profiles for AAC support significant noise isolation and 10mm dynamic drivers ensure stable transmission &amp; 0 interruption for a HD stereo sound experience Ergonomic fit &amp; commitment 3 pairs of ear tips &amp; 3 pairs of secure-fit ear hooks to choose your perfect fit 18-Month promise no matter the product problem we will replace with a new one or refund you</t>
+    <t xml:space="preserve"> SOFT ON EAR PADS - Soft Ear Pads for Sound Isolation and Comfort Fit. STAINLESS STEEL HEAD FIT SIZE EXPANDER - Rugged Stainless Steel for Perfect Head Fit. Large Head, Medium Head or Small Head Headphones. FLAT FOLDABLE CUSTOM DESIGN - Headphone Ear Pieces Swivel for Small Storage. Less than 1 inch Thick When Folded. Easy to carry in a purse, backpack, or Briefcase POWERFUL SOUND - 30MM Neodymium Driver Units for a Rich Fidelity Sound. GOLD PLATTED HEADPHONE JACK - 3.94 Foot Cord with Gold Plated Headphone Jack. Color matched to top 6 iPod nano 5G models Lightweight flat foldable design3.94-ft cord with gold-plated iPhone-compatible slim plugSensitivity: 105 dB/1mWMax input: 200mWShow more</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 hours continuous playback Boltune wireless headphones with exclusive charging technology low power consumption 5 minutes charge can play for 2 hours Ios can last up to 16 hours Enjoy wonderful music when travelling &amp; playing sports The most advanced Bluetooth 5 0 Boltune Bluetooth headphones adopt the latest generation chip and Bluetooth 5 0 technology supports various Bluetooth-enabled devices with significant noise isolation &amp; 10mm dynamic drivers IPX7 waterproof technology Boltune headphones with IPX7 sweat &amp; water resistance protects the headphones from heavy rain &amp; sweat The magnetic wireless headphones conveniently clasp together Easy to take anywhere High quality stereo sound Bluetooth 5 0 technology with SBC Bluetooth profiles for AAC support significant noise isolation and 10mm dynamic drivers ensure stable transmission &amp; 0 interruption for a HD stereo sound experience Ergonomic fit &amp; commitment 3 pairs of ear tips &amp; 3 pairs of secure-fit ear hooks to choose your perfect fit 18-Month promise no matter the product problem we will replace with a new one or refund you</t>
   </si>
   <si>
     <t>Unique and stylish colours that blends into your style 28 hours battery life with noise cancelling Comfortable over-ear style headphones Hi-Resolution audio compatible Hands-free calls</t>
@@ -5540,7 +5537,7 @@
     <t>12 millimeter dome type driver units deliver powerful deep bass. Connectivity Technology: Wired Integrated microphone and smartphone playback control Hybrid silicone earbuds for secure, comfortable fit High energy neodymium magnets for powerful sound Tangle free, Y type flat cord with slider. Capacity 100 mW. Diaphragm:PET Lightweight for ultimate music mobility. 0.47 in neodymium drivers for powerful, balanced sound</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Enhanced bass speaker and breathable soft-padded cushion, isolate yourself from the noise around you and experience a premium music experience Adjustable headband with the stretchable joint, will fit anyone perfectly and even adjusts for smaller heads for youth, teens, kids boys and girls Lightweight and collapsible design, travel friendly by folding and storing in small spaces and bags. Perfect for travel, school, airplane rides Equipped with braided nylon cable and universal 3.5mm jack, being highly compatible with cell phones, laptop, tablet, mac, surface pro, mp3, mp4, audio book, or any devices with a 3.5mm aux and even most airline travel (depending on airline) Ultra-soft ear cushions and padded headband provide you a fatigue-free listening experience even wearing these on-ear headphones during a long session.</t>
+    <t xml:space="preserve"> Enhanced bass speaker and breathable soft-padded cushion, isolate yourself from the noise around you and experience a premium music experience Adjustable headband with the stretchable joint, will fit anyone perfectly and even adjusts for smaller heads for youth, teens, kids boys and girls Lightweight and collapsible design, travel friendly by folding and storing in small spaces and bags. Perfect for travel, school, airplane rides Equipped with braided nylon cable and universal 3.5mm jack, being highly compatible with cell phones, laptop, tablet, mac, surface pro, mp3, mp4, audio book, or any devices with a 3.5mm aux and even most airline travel (depending on airline) Ultra-soft ear cushions and padded headband provide you a fatigue-free listening experience even wearing these on-ear headphones during a long session.</t>
   </si>
   <si>
     <t>Superior sound: enjoy clear sound and supreme comfort with the OneOdio Studio FUSION headphones. Large, 40 millimeter speaker unit drivers combined with neodymium magnets; powerful bass, clear vocal, and crisp high tones form perfect hi-fi sound. Built to stay comfortable: The high quality padded ear cushions are specifically designed for monitor headphones maximum comfort and noise isolation. The headband is adjustable and stretchable for you to find the desired angle you like to fit in. No more adapter: a long do-style 9.8-Foot cord easily reaches from the TV or stereo to your favorite chair. A standard-sized 6.3mm Plug and a 3.5mm Plug are included. They both are completely detachable, you can plug in the mixer you want to use. Single-sided monitoring: 90° swiveling earcups for single-ear monitoring anytime; self-adjustable and flexible headband delivers a fatigue-free listening experience that can last for hours, Perfect for mastering and mixing. Works with: iPad, iPod, iPhone, Android and many other Audio devices. High-quality sound, supreme durability, and maximum comfort. These are the headphones you've been looking for.</t>
@@ -5552,7 +5549,7 @@
     <t>LONG CORD LENGTH: 4 Feet Cord Bulk Headphone Can Fit Most Customers Requirements; No Microphone Headphone INDIVIDUAL PACKAGE: Bulk Earbud Packed by Kaysent Carton,each headphone Packed by 1 Individual Plastic Bag and Sealed SOFT RUBBER EAR CUSHIONS: Soft Rubber Ear Cushions Wholesale Earphone to Make You Feel More Confortable HIGH QUALITY STEREO SOUND: Bulk Earphone Still Remain High And Clear Quality Stereo Sound; 3.5mm Plug FIT FOR LOTS CUSTOMERS: Great for School,Classroom,Hotels,Hospital,Museums etc.</t>
   </si>
   <si>
-    <t>【TRUE WIRELESS &amp; BLUETOOTH 5.0】Yinyoo kz s1d ear wireless earbuds equipped the most advanced bluetooth 5.0 with TWS technology. Sensitive touch sensor implements all functions with one button, with a gentle touch,the smart touch can do all functions and say goodbye to the pain caused by repeated button presses of traditional button-type earphones. 【EASY PAIRING &amp; STABLE CONNECTION】Yinyoo kz s1D wireless Earbuds Bluetooth headphones own fast and stable transmission. Picking up 2 Headsets from charging case ,then open mobile phone bluetooth setting to search"kz s1D" to pair the wireless earbuds. Next time They will connect each other automatically in 6 seconds when you take out the small wireless earbuds.Pls confirm you have opened bluetooth mode. 【MORE MUSIC PLAYTIME】Yinyoo kz s1D bass wireless earbuds can last for 3 hours music time on a single charge of 1.5 hours. The charging case is a power bank, It is charged for 4 hours , then can support charging of headphones for 3-4 times. and the charging case has the battery display, You can know what is time need to charge. 【HIFI SOUND &amp; COMFORT FIT】The Yinyoo kz s1D tws wireless bluetooth earphones has incredible sound quality with deep bass and crystal clear treble.You can hear hifi stereo call sound and enjoy wireless music world. Outer cavity smooth lines design, 3 sizes of eartips provided,comfortable and secure in-ear earbuds wireless headphones ,which make your phone call and music time more comfortable.best bluetooth earbuds suitable for running, biking, jogging, walking sports etc. 【12 MONTHS WARRANTY】All products of Yinyoo Audio are original. You will get 12 months warranty and friendly customer service from the date of purchase if you order tws bluetooth earbuds from Yinyoo Audio, which make your purchase absolutely risk-free and you can enjoy testing out it's quality and durability! If you have any query or issues, pls contact us freely to help you. Wish you a happy shopping, thanks~</t>
+    <t>TRUE WIRELESS &amp; BLUETOOTH 5.0Yinyoo kz s1d ear wireless earbuds equipped the most advanced bluetooth 5.0 with TWS technology. Sensitive touch sensor implements all functions with one button, with a gentle touch,the smart touch can do all functions and say goodbye to the pain caused by repeated button presses of traditional button-type earphones. EASY PAIRING &amp; STABLE CONNECTIONYinyoo kz s1D wireless Earbuds Bluetooth headphones own fast and stable transmission. Picking up 2 Headsets from charging case ,then open mobile phone bluetooth setting to search"kz s1D" to pair the wireless earbuds. Next time They will connect each other automatically in 6 seconds when you take out the small wireless earbuds.Pls confirm you have opened bluetooth mode. MORE MUSIC PLAYTIMEYinyoo kz s1D bass wireless earbuds can last for 3 hours music time on a single charge of 1.5 hours. The charging case is a power bank, It is charged for 4 hours , then can support charging of headphones for 3-4 times. and the charging case has the battery display, You can know what is time need to charge. HIFI SOUND &amp; COMFORT FITThe Yinyoo kz s1D tws wireless bluetooth earphones has incredible sound quality with deep bass and crystal clear treble.You can hear hifi stereo call sound and enjoy wireless music world. Outer cavity smooth lines design, 3 sizes of eartips provided,comfortable and secure in-ear earbuds wireless headphones ,which make your phone call and music time more comfortable.best bluetooth earbuds suitable for running, biking, jogging, walking sports etc. 12 MONTHS WARRANTYAll products of Yinyoo Audio are original. You will get 12 months warranty and friendly customer service from the date of purchase if you order tws bluetooth earbuds from Yinyoo Audio, which make your purchase absolutely risk-free and you can enjoy testing out it's quality and durability! If you have any query or issues, pls contact us freely to help you. Wish you a happy shopping, thanks~</t>
   </si>
   <si>
     <t>IMMERSE YOURSELF IN MUSIC WORLD: Mpow H19 IPO active noise-cancelling headphones reduce ambient noise, make you focus and calm down. No matter you’re in a noisy street, busy subway or bus, plane cabin with roaring engine, you can immerse yourself in music world without noise by using Mpow ANC bluetooth headphones. The noise cancellation function can work well both in wire and wireless mode. BT 5.0 BETTER CONNECTION &amp; CVC8.0 CLEARER CALLS: Upgrade Bluetooth 5.0 technology promises more quick and stable connection with your bluetooth devices, wider compatibility. Mpow H19 IPO active noise cancelling headphones are engineered with CVC 8.0 noise cancelling microphone, which makes you hear and be heard more clearly, convenient for you to communicate with others. LIGHTWEIGHT &amp; COMFORTABLE WEARING: Mpow lightweight active noise cancelling headphones weighs only 8.47oz (240g), you will find no burden on your ears. Soft memory-protein earpads, ergonomically-designed 90° swivel ear cups &amp; adjustable headband conform to your head shape for a seamless fit. Foldable design with a carrying pouch makes travelling with your headphones easier. 30HRS PALYTIME &amp; RAPID CHARGE: Enjoy up to 30 hours of non-stop playtime in bluetooth mode. Don't need to worry the power shortage problem on the long travel. And when you’re in a rush, charge H19 IPO active noise cancelling headphones for 10 minutes and get 2 hours playtime. Note: Turn off ANC to avoid power consumption if headphones are not in use. 40MM TUNED SOUND DRIVERS: The Mpow H19 IPO Active Noise Cancelling over-ear headphones engineered with dual 40mm large-aperture drivers, give you crisp, powerful bass sound and quiet for impressive immersive sound quality that helps you enjoy your music better. The goal that provide customers with better sound quality is our constant pursuit.</t>
@@ -5561,13 +5558,13 @@
     <t>These are wired headphones for Kids Boys Adult . Headphones perfect for children and adults, can be used by people of all ages.High quality sound, the headphones provide immersive listening experience in natural sound. The headphones give a powerful and crisp sound, making your overall listening experience just that much better.You are free to get lost in your music. The packing with cloth bag, so you can easily put it in the suitcase or bag, more easy to carry it. Built to stay comfortable, high quality PU ear cushions, adjustable headband design allow for comfortable all day listening. Getting better hearing enjoyment for travel, work and anywhere in between. Heavy Bass headphone, excellent sound effect and HIFI strong low bass speaker,3.5mm plug and 4.3 ft. cord, compatible with all 3.5mm jack devices Microphone with high integrity ,compatible with MP3, MP4, PC,PCD,DVD,most smartphone. When you take them everywhere and listen all day, they have to be comfortable.(This item is passive noise isolating, NOT active noise cancellation(ANC), it can't cancel the noise completely) The headphone features in-line control to allow you to answer calls by pressing the button when being used on a Phone or Tablet or Computer and play/pause a song when used in a device that supports inline control with music / Flat . For Calls: Short press to answer/hang up. For Music: Press pause/play. Gentle reminder: Depending on your head/ear size/shape, it may be a little tight for someone to wear which is designed to avoid sound leakage. In case of that and to get both audio and wearing comfort, please take off the headphone every 1-2 hrs to get your ears relax and protect them from muggy environment in use.</t>
   </si>
   <si>
-    <t>★ 【Superior Stereo Sound】- Noise Canceling 4D Stereo Sound provides you with a high quality sound and makes you enjoy the virtual gaming world. Bass and vibration can be felt clearly from this earbuds, providing you an immersive gaming experience. ★ 【Dual Microphone Design】- One detachable microphone, which is flexible to be adjusted in 360°to pick up your voice clearly in gaming time. One in line microphone could be used as normal wired headphones, is excellent for daily receiving and answering the calls. ★ 【Comfortable Using Experience】- This gaming wired earbuds are designed in soft rubber earplugs, which would not hurt your ears or drop easily even after prolonged using. The silicone ear hooks design also ensure earbuds reach deeper and fit snugly in your ear. These will make you enjoy your time comfortably. ★ 【Widely Compatible】- Gaming earbuds with mic with 3.5mm jack could not only work with Nintendo Switch, but can work with PlayStation 4, X box One, PC, laptop, computers. Please note that you need an extra Microsoft adapter (not included) when connect with an old version X box One. ★ 【Lightweight as You Want】- Unlike other heavy gaming headset, Our V-13 gaming earphones is lightweight and convenient. Adopting a tube-type design provides a comfortable fit and breath ability for a long time, it’s great for other outdoor activities.</t>
+    <t>★ Superior Stereo Sound- Noise Canceling 4D Stereo Sound provides you with a high quality sound and makes you enjoy the virtual gaming world. Bass and vibration can be felt clearly from this earbuds, providing you an immersive gaming experience. ★ Dual Microphone Design- One detachable microphone, which is flexible to be adjusted in 360°to pick up your voice clearly in gaming time. One in line microphone could be used as normal wired headphones, is excellent for daily receiving and answering the calls. ★ Comfortable Using Experience- This gaming wired earbuds are designed in soft rubber earplugs, which would not hurt your ears or drop easily even after prolonged using. The silicone ear hooks design also ensure earbuds reach deeper and fit snugly in your ear. These will make you enjoy your time comfortably. ★ Widely Compatible- Gaming earbuds with mic with 3.5mm jack could not only work with Nintendo Switch, but can work with PlayStation 4, X box One, PC, laptop, computers. Please note that you need an extra Microsoft adapter (not included) when connect with an old version X box One. ★ Lightweight as You Want- Unlike other heavy gaming headset, Our V-13 gaming earphones is lightweight and convenient. Adopting a tube-type design provides a comfortable fit and breath ability for a long time, it’s great for other outdoor activities.</t>
   </si>
   <si>
     <t>HIGH RES AUDIO VIA WIRED CONNECTION: High-resolution audio offers the best in sound performance, reproducing the quality of original studio master recordings more faithfully than 16bit/44.1kHz CD formats. Using the audio cable provided, Philips SHD8850 wireless headphones support high-resolution audio, delivering uncompromising audio quality from your preferred devices - so you can get more out of your home entertainment. Solid bass and crisp highs with a solid mid-range to boost yourself. Wheth SUPERIOR CINEMATIC SOUND FROM 40mm DRIVER: PHILIPS SHD8850's 40mm drivers are acoustically tuned to deliver superior cinematic sound. The self-adjusting lightweight hammock gives you the best fit for your head shape, while offering optimal comfort. CLASSIC COMFORT: Adjustable soft-padded headband and Over-Ear ear pads designed to provide maximum comfort. Full-sealed ear pads effectively reduce the sound leakage to return a sweet dream to your families while you can watch TV intently. LONG-LASTING COMFORT AND BATTERY LIFE: Adjustable soft padded headband and over-ear cushions designed to provide maximum comfort and durability. Watching TV for hours and even forget you wear them! On a single charge, PHILIPS tv headphones can last for 20 hours’ playtime &amp; always ready to recharge by placing the headsets on the charging dock. AUTOMATIC ON/OFF POWER: Philips SHD8850 headphones turn on automatically when you put them on your head. And when you're finished watching, they will automatically power off, to ensure power doesn't go to waste.</t>
   </si>
   <si>
-    <t>♬【Adopted Qualcomm Chip】Adopting the latest Qualcomm QCC3020 chip and 10mm dynamic drivers enable sound clear and lossless. Crystal clear vocals and super deep bass provide excellent listening experience. Wireless earbuds equipped with the Qualcomm chip bring you longer battery life, better sound quality, more stable signal transmission. ♬【Lossless Audio/ CVC 8. 0 Noise Cancellation technology】With Qualcomm Lossless and CVC 8.0 audio ensures enhances wireless sound quality as well as delivers a true audiophile experience. Delivers advanced audio enhancements plus noise suppression for improved audio quality on Bluetooth headphones. ♬【170 Hours Playing Time&amp; Power Bank Function】The wireless headphones can last for 7-9 hours’ music time on a single charge and 170H playing time in total with built-in 3000 mAh battery charging case recharging the true wireless earbuds 21 times. The advanced charging case can provide Bluetooth headsets long-term battery life while charging mobile phones, as a power bank. ♬【Humannized Design】To make the Bluetooth earphones stay snug fit in your ears, we specially design earbuds shape which is ergonomic design to fit comfortably in your ears for more versatile occasions, T11 Stereo wireless headsets come with three adjustable earcaps sizes right from the box. Now you can focus on achieving better grades in your workouts. ♬【One-Step Pairing】The Bluetooth earbuds are equipped with one-step pairing technology. Pick up 2 headsets out of the charging case,then headphones will pair with each other, then "T11 " will automatically appear on your device.</t>
+    <t>Adopted Qualcomm ChipAdopting the latest Qualcomm QCC3020 chip and 10mm dynamic drivers enable sound clear and lossless. Crystal clear vocals and super deep bass provide excellent listening experience. Wireless earbuds equipped with the Qualcomm chip bring you longer battery life, better sound quality, more stable signal transmission. Lossless Audio/ CVC 8. 0 Noise Cancellation technologyWith Qualcomm Lossless and CVC 8.0 audio ensures enhances wireless sound quality as well as delivers a true audiophile experience. Delivers advanced audio enhancements plus noise suppression for improved audio quality on Bluetooth headphones. 170 Hours Playing Time&amp; Power Bank FunctionThe wireless headphones can last for 7-9 hours’ music time on a single charge and 170H playing time in total with built-in 3000 mAh battery charging case recharging the true wireless earbuds 21 times. The advanced charging case can provide Bluetooth headsets long-term battery life while charging mobile phones, as a power bank. Humannized DesignTo make the Bluetooth earphones stay snug fit in your ears, we specially design earbuds shape which is ergonomic design to fit comfortably in your ears for more versatile occasions, T11 Stereo wireless headsets come with three adjustable earcaps sizes right from the box. Now you can focus on achieving better grades in your workouts. One-Step PairingThe Bluetooth earbuds are equipped with one-step pairing technology. Pick up 2 headsets out of the charging case,then headphones will pair with each other, then "T11 " will automatically appear on your device.</t>
   </si>
   <si>
     <t>50mm Neodymium Driver, and High-quality Built-in Microphone for hands-free calls Bluetooth 5. 0 chip, 10 meter distance for connecting 40 hours music play time or 30 hours calls The around-ear protein skin cushion design for the most comfortable long time wearing Folding design, small as a palm Compatible with almost all smartphones of IOS and Android, and ipad, laptop, Smart TV which with bluetooth connection NOTE 1: Beexcellent Q7 headphones is passive noise isolating, NOT active noise cancellation(ANC), it can't cancel the noise completely but it won't drain the battery and damage the sound.NOTE 2: The closed-back design provides immersive Hi-Fi sound with CSR chip and 50mm driver together, it is better than ANC in term of sounds quality.NOTE 3: In case of that and to get both audio and wearing comfort, please take off the headphone every 1-2 hrs to get your ears relax.Show more</t>
@@ -5591,13 +5588,13 @@
     <t>Superior talking sounding audio -- You will get the hear-and-be-heard advantages of a upgraded OneOdio bluetooth headphones, thanks to advanced 360° adjusted undirectional noise reduction boom microphone and fast stable Bluetooth transmission. Wireless for music, wired for gaming — The boom mic can ONLY be used in WIRED mode, great for gaming/meeting with the provided audio cable. Wireless mode: A built-in 500mAh battery provides up to 30 hrs play time in a single charge. 50 mm driver speaker -- Enjoy superb balanced sound and supreme comfort. Large 50 millimeter speaker unit drivers combined with neodymium magnets provides stereo sound, powerful bass, clear vocal, and crisp high tones form perfect balanced sound. Maximum comfort &amp; space saving -- Over ear ergonomic designed memory ensure long lasting comfort. The foldable Headband is not only designed for saving your desk space but for carrying in the provided carrying bag. Works With: iPad, iPod, iPhone, Android and many other audio devices. High-quality sound, supreme durability, and maximum comfort. These are the headphones you've been looking for.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [Plug &amp; play wireless TV headphones transmitter SET] Just turn on the Bluetooth transmitter (Audikast) and the Bluetooth headphone (AS9S) - they will connect automatically, without needing to pair. [Wide compatibility] Compatible with 99% of TVs on the market, supports OPTICAL / AUX / RCA audio output. Also supports computer digital USB audio without needing additional cables. (NOTE: Audikast does NOT decode Dolby / DTS - only PCM) [Flexible use] Headphones (AS9S) can be used seperately with other Bluetooth transmitting devices, e. g. cellphone, PC, TV. Transmitter (Audikast) can be used seperately with any Bluetooth receiving devices, e. g. headphones, speakers. [No audio lag and dual link] Zero lip-sync delay - ideal for watching TV, movies, videos and gaming. Add a 2nd pair of headphones to share movies with your family. (Note: For no lip sync delay, your 2nd headphone must also support the FastStream codec. ) [Up to 100 feet range] The Audikast's Bluetooth Class I technology transmits audio signals up to 100ft. Note: Operation range is affected by physical obstructions (walls, people), wireless interference (Wi-Fi routers) and also depends on receiving device.</t>
-  </si>
-  <si>
-    <t>❇️ 【HIGH QUALITY AUDIO】Nowadays, the music industry offers sound at significantly different levels. LUDOS CLAMOR wired earbuds have an optimised speaker for professional listening, offering a unique and immersive musical experience. This product was born to be great. ❇️ 【NEW GENERATION MEMORY FOAM AND MAXIMUM COMFORT】Several years ago, memory foam was found to offer more comfort when listening to music through headphones. Our new generation pads are more comfortable, their resistance to wear is 40% higher and they were designed after extended studies on ear comfort. ❇️ 【THE BASS YOU ARE LOOKING FOR】We write ‘Bass’ with a capital ‘B’ as we have implemented high quality speakers with great bass and a perfect balance of mids and treble. This way, the sound will be deeper and totally immersive. Higher quality at the right price. ❇️ 【NEW DESIGN AND MATERIALS】LUDOS CLAMOR wired earbuds have been designed so you can be fashionable on every occasion. Use them in the office, on the beach, on the train, or simply use them to relax. Never sacrifice comfort and the music you love thanks to these classy earphones. We selected the best materials, including a highly resistant cable, which are also pleasant to the touch. ❇️ 【EBOOK AND CUSTOMER CARE 24-7】Together with your purchase, you will receive an eBook via email with great advice on how to use your new earphones. You can contact us: we're here for you and we will reply as soon as possible. We believe in our clients' satisfaction and we always do our best to help.</t>
-  </si>
-  <si>
-    <t>【Superior Stereo Sound Quality and HD Binaural Call】 Adopting Bluetooth 5.0 HD Rendering Technology that Produce Incredible Sound Quality with Deep Bass and Crystal Crisp Treble. Built in High Quality Noise Reduction Technology Chip, Can Block out lots of Surrounding Noises. HD Binaural Call Can Hear Your Family or Friend Much More Clearly. 【Fast Auto-Pairing and Unbreakable Connectivity】 The Wireless Bluetooth Earbuds are equipped with auto-pairing technology. ONLY pull the Left and the Right earbuds out of charging box and they will pair with each other, then "I9X" automatically appear on your smartphone. In a matter of seconds, you are in your euphonic music world.Combines with Bluetooth 5.0 to create an almost unbreakable link between your earbuds and your device—even in busy places. No skips, no drops. 【Portable Charging Case】 The Twins Bluetooth Earbuds in ear Can Last for 3-4 hours Music Time On a Single Charge. The Charging Case Can Charge the Twins Wireless Earbuds in ear for 5-6 times, So the Twins Bluetooth Earbuds sports Can Last Up To 15-24 hours. You Can Go for a trip Without Worrying About Battery Shortage. 【Compatible With Most Devices】 Mini Wireless Earbuds sports compatible with all Bluetooth enabled devices, such as iPhone 11 xs xr x 8 7 6s 6 5s iPad Sony Samsung Galaxy S7 S8 Plus and other Android Phones. Ergonomic design allows for ultimate wearing comfort to match any active lifestyle. This Bluetooth Earbuds running can be used together or along. 【IPX5 Waterproof Earbuds】Thanks to the IPX5 water protection, the Wireless Earbuds Running are resistant to sweat, water and rain. Ideal for gym, running, excising and enjoy music even in the rainy day. Come with small, medium and large size earmuffs, you can choose the right size to fit your ears.</t>
+    <t xml:space="preserve"> [Plug &amp; play wireless TV headphones transmitter SET] Just turn on the Bluetooth transmitter (Audikast) and the Bluetooth headphone (AS9S) - they will connect automatically, without needing to pair. [Wide compatibility] Compatible with 99% of TVs on the market, supports OPTICAL / AUX / RCA audio output. Also supports computer digital USB audio without needing additional cables. (NOTE: Audikast does NOT decode Dolby / DTS - only PCM) [Flexible use] Headphones (AS9S) can be used seperately with other Bluetooth transmitting devices, e. g. cellphone, PC, TV. Transmitter (Audikast) can be used seperately with any Bluetooth receiving devices, e. g. headphones, speakers. [No audio lag and dual link] Zero lip-sync delay - ideal for watching TV, movies, videos and gaming. Add a 2nd pair of headphones to share movies with your family. (Note: For no lip sync delay, your 2nd headphone must also support the FastStream codec. ) [Up to 100 feet range] The Audikast's Bluetooth Class I technology transmits audio signals up to 100ft. Note: Operation range is affected by physical obstructions (walls, people), wireless interference (Wi-Fi routers) and also depends on receiving device.</t>
+  </si>
+  <si>
+    <t>❇️ HIGH QUALITY AUDIONowadays, the music industry offers sound at significantly different levels. LUDOS CLAMOR wired earbuds have an optimised speaker for professional listening, offering a unique and immersive musical experience. This product was born to be great. ❇️ NEW GENERATION MEMORY FOAM AND MAXIMUM COMFORTSeveral years ago, memory foam was found to offer more comfort when listening to music through headphones. Our new generation pads are more comfortable, their resistance to wear is 40% higher and they were designed after extended studies on ear comfort. ❇️ THE BASS YOU ARE LOOKING FORWe write ‘Bass’ with a capital ‘B’ as we have implemented high quality speakers with great bass and a perfect balance of mids and treble. This way, the sound will be deeper and totally immersive. Higher quality at the right price. ❇️ NEW DESIGN AND MATERIALSLUDOS CLAMOR wired earbuds have been designed so you can be fashionable on every occasion. Use them in the office, on the beach, on the train, or simply use them to relax. Never sacrifice comfort and the music you love thanks to these classy earphones. We selected the best materials, including a highly resistant cable, which are also pleasant to the touch. ❇️ EBOOK AND CUSTOMER CARE 24-7Together with your purchase, you will receive an eBook via email with great advice on how to use your new earphones. You can contact us: we're here for you and we will reply as soon as possible. We believe in our clients' satisfaction and we always do our best to help.</t>
+  </si>
+  <si>
+    <t>Superior Stereo Sound Quality and HD Binaural Call Adopting Bluetooth 5.0 HD Rendering Technology that Produce Incredible Sound Quality with Deep Bass and Crystal Crisp Treble. Built in High Quality Noise Reduction Technology Chip, Can Block out lots of Surrounding Noises. HD Binaural Call Can Hear Your Family or Friend Much More Clearly. Fast Auto-Pairing and Unbreakable Connectivity The Wireless Bluetooth Earbuds are equipped with auto-pairing technology. ONLY pull the Left and the Right earbuds out of charging box and they will pair with each other, then "I9X" automatically appear on your smartphone. In a matter of seconds, you are in your euphonic music world.Combines with Bluetooth 5.0 to create an almost unbreakable link between your earbuds and your device—even in busy places. No skips, no drops. Portable Charging Case The Twins Bluetooth Earbuds in ear Can Last for 3-4 hours Music Time On a Single Charge. The Charging Case Can Charge the Twins Wireless Earbuds in ear for 5-6 times, So the Twins Bluetooth Earbuds sports Can Last Up To 15-24 hours. You Can Go for a trip Without Worrying About Battery Shortage. Compatible With Most Devices Mini Wireless Earbuds sports compatible with all Bluetooth enabled devices, such as iPhone 11 xs xr x 8 7 6s 6 5s iPad Sony Samsung Galaxy S7 S8 Plus and other Android Phones. Ergonomic design allows for ultimate wearing comfort to match any active lifestyle. This Bluetooth Earbuds running can be used together or along. IPX5 Waterproof EarbudsThanks to the IPX5 water protection, the Wireless Earbuds Running are resistant to sweat, water and rain. Ideal for gym, running, excising and enjoy music even in the rainy day. Come with small, medium and large size earmuffs, you can choose the right size to fit your ears.</t>
   </si>
   <si>
     <t>Consumer Alert: Most users do not need a license to operate this wireless microphone system. Nevertheless, operating this microphone system without a license is subject to certain restrictions: the system may not cause harmful interference; it must operate at a low power level (not in excess of 50 milliwatts); and it has no protection from interference received from any other device. Purchasers should also be aware that the FCC is currently evaluating use of wireless microphone systems, and these rules are subject to change. For more information, call the FCC at 1-888- CALL-FCC (TTY: 1-888-TELL-FCC) or visit the FCC's wireless microphone website at fcc.gov/cgb/wirelessmicrophones.</t>
@@ -5609,7 +5606,7 @@
     <t>Almost one week of use with HIFI sound: Mpow professional 40mm drivers offer you incredible listening clarity. Supplying up to 18 hours of rechargeable battery life, twice as much as others. If not used frequently, headphone can be used about a week. 3.5mm audio cable changes the wireless to wired mode to keep listening when the battery runs out. 3-Button easy CONTROL on music, calls, audio books &amp; FM without buying an extra SD card: quickly connecting with Bluetooth V4.1 to your phones, you can operate all the audio and call function directly on the headphones without touching your cellphones to enjoy your things. Rotatable space-saving design with travel Carrying bag &amp; proper tightness in light weight for comfort: Take it to anywhere with the included carrying bag. The ergonomic design, comfy memory protein earmuff and the adjustable metal slider reduces pressure on ear and fit head perfectly. Hands free calling with CVC6.0 noise reduction technology: CVC6.0 giving you a clearer phone communication. Built-in microphone lets you pick up any incoming calls conveniently. No need to worry about missing any phone calls. Stable compatibility &amp; easy to use: Mpow H7 wireless Bluetooth headphones are compatible with most Bluetooth devices. Quickly and stable connecting with your smartphones, MP3, iPad, PC, laptop and so on. Mpow H7 over-ear stereo headphones offer you better overall user experience.</t>
   </si>
   <si>
-    <t>【BONE CONDUCTION TECHNOLOGY】 Works by vibrations, sound transmit via cheekbone to your cochleas, which avoids hearing impairment compare to ordinary earphones. Open-ear design helps you stay alert to your surroundings, avoid danger and meanwhile enjoy music. 【TRUE WIRELESS &amp; BLUETOOTH V5.0】The latest Bluetooth V5.0 technology enable GENSO headphones truly wireless to set yourself free from cable mess. And this technology provides faster pairing, stable connection and 33ft signal transmission (no-obstacle condition) 【CHARGING TIME AND BATTERY LIFE】 Each side of earphone has built in 200mAh lithium battery. Full charge take 2 hours, Standby time 10 days and play time around 5 hours. Suitable for outdoor activities. 【DESIGN FOR SPORTS】IP55 sweatrproof to resist light rain and sweat for outdoor activities, such as jogging, cycling, running, driving etc. Use ABS + titanium alloy enable the headphone lightweight but more durable. Ergonomic design for comfortable wearing make sure you do sport freely never worry about falling out. 【WARRANTY】WE PROVIDE 60 DAYS HASSLE-FREE RETURN POLICY and ONE YEAR WARRANTY, your purchase is totally RISK-FREE. Contact us if you meet any issues.</t>
+    <t>BONE CONDUCTION TECHNOLOGY Works by vibrations, sound transmit via cheekbone to your cochleas, which avoids hearing impairment compare to ordinary earphones. Open-ear design helps you stay alert to your surroundings, avoid danger and meanwhile enjoy music. TRUE WIRELESS &amp; BLUETOOTH V5.0The latest Bluetooth V5.0 technology enable GENSO headphones truly wireless to set yourself free from cable mess. And this technology provides faster pairing, stable connection and 33ft signal transmission (no-obstacle condition) CHARGING TIME AND BATTERY LIFE Each side of earphone has built in 200mAh lithium battery. Full charge take 2 hours, Standby time 10 days and play time around 5 hours. Suitable for outdoor activities. DESIGN FOR SPORTSIP55 sweatrproof to resist light rain and sweat for outdoor activities, such as jogging, cycling, running, driving etc. Use ABS + titanium alloy enable the headphone lightweight but more durable. Ergonomic design for comfortable wearing make sure you do sport freely never worry about falling out. WARRANTYWE PROVIDE 60 DAYS HASSLE-FREE RETURN POLICY and ONE YEAR WARRANTY, your purchase is totally RISK-FREE. Contact us if you meet any issues.</t>
   </si>
   <si>
     <t>Work exclusively with the Oculus Quest VR Headset for the ultimate immersive sound experience. Each earbud features a high quality 9mm dynamic driver and UltraFlex silicone wire styled to look great with the Oculus Quest. These earbuds provide deep bass, crunchy mid-tones and clear treble to ensure fully immersive gameplay. Earphones are marked with “L” and “R” and only produce one channel of audio each</t>
@@ -5618,19 +5615,19 @@
     <t>DURABLE AND KID FRIENDLY: Built with safe, impact resistant, BPA Free nontoxic materials; Let your kid be a kid!Sturdy, tear-resistant construction ensures the headphones are child-proof, even when your toddlers are yanking on the cable! 85dB VOLUME LIMITER FOR HEARING PROTECTION: KidRox wants to keep your little tiger’s hearing safe! Earphones have a volume restrictor of 85 decibels- the maximum noise level recommended by auditory health organizations. Designed for babies, toddlers, and big kids DESIGNED WITH YOUR LITTLE ONES IN MIND: Perfect for small heads, the adjustable headband conforms perfectly to provide a custom and snug fit. Comfortable, soft, tiger print on ear cushions provide the best listening experience for long term usage.Unique Tiger-Ear design makes sure your wild jungle cats are the center of attention! KidRox has turned ordinary headphones into a playtime accessory UNIVERSAL COMPATIBILITY: Built with a standard 3.5mm audio jack, KidRox Tiger-Ear Kids Headphones are suitable for listening to music or audiobooks and watching videos! Works with most smartphones, computers, laptops, tablets, mp3 players and more. Perfect for iPhone, iPad, Samsung, Android, Kindle, Mac, PC. Flat cable ensures the headphones are tangle-free so your kids won’t have to struggle SATISFACTION GUARANTEED: We offer a 1-year hassle free limited warranty and friendly US based customer support on the KidRoxTiger-Ear Head Phones</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) LONG DISTANCE LISTENING: Designed to allow you to move freely, our earphones feature a long, coiled cable and does not require an extension cable. So whether you are sitting in your favorite chair across the room from the TV or moving around your office, your listening experience will not be interrupted. CRYSTAL CLEAR SOUND: Featuring noise-isolating soft inner earbuds, our headphones deliver impeccable sound quality for all of your listening experiences. COMFORTABLE DESIGN: Featuring lightweight, soft silicone earbuds and a collar clip, our inner earbuds are engineered to create a comfortable listening environment without falling out. MEET YOUR MATCH: Whether you use with your tablet, laptop, computer or TV, our earbuds connect to all of your 3.5mm-audio-jack devices. BE AMAZED BY AVANTREE: Sometimes you just want to watch your must-see tv show, play your newest video game or groove to your favorite music without disturbing others or being bothered by the noise around you.</t>
-  </si>
-  <si>
-    <t>♬[Comfortable Design&amp;Excellent Fit]- Based on the ear-mounted type, The Earbuds Use the ergonomically designed with different sizes of gel-flexible silicone earcaps to keep them in place without ever falling off and making your wearing more comfortable. Even if you use it for a long time, you will not feel tired or ear pain at all. ♬[One-step Auto Pairing]-Benefits from the latest Bluetooth 5.0 chip &amp; technology, these Zictec Sport Earphones will power on and pair with each other automatically once taken out from the Charging Box, then "JHO-A9" model will appear on the Bluetooth menu for connection. Very simple operation that suitable for all ages. ♬[Premium Hi-Fi Stereo Audio]-Thanks to the advanced Bluetooth 5.0 chip and CVC 8.0 noise canceling features, Zictec A9 will make you immersed in powerful &amp; balanced sound with deep bass, what a premium listening experience! Boost your music enjoyment just from more stable signal and lower power consumption. ♬[Up to 8 hours of Listening Time]-Built-in 110mAh capacity battery on each bud that will last up to 8 hours on a single full charge, so you can keep your music going. With the portable Charging Case, you will get all-day power of more than 24 hours continuous using time. Never worry about battery runs out when go out. ♬[True Wireless Technology] No Trouble with Wire Tangle Anymore, Built-in Bluetooth 5.0 Chip, Offers Fast Speed, Stable Connection, Enable to 33ft Transmission. You Can Use the Earbuds to Achieve Volume +/-, Play the Next / the Previous Songs, Answer/Reject Calls, Activate the Voice Functions.</t>
+    <t xml:space="preserve"> LONG DISTANCE LISTENING: Designed to allow you to move freely, our earphones feature a long, coiled cable and does not require an extension cable. So whether you are sitting in your favorite chair across the room from the TV or moving around your office, your listening experience will not be interrupted. CRYSTAL CLEAR SOUND: Featuring noise-isolating soft inner earbuds, our headphones deliver impeccable sound quality for all of your listening experiences. COMFORTABLE DESIGN: Featuring lightweight, soft silicone earbuds and a collar clip, our inner earbuds are engineered to create a comfortable listening environment without falling out. MEET YOUR MATCH: Whether you use with your tablet, laptop, computer or TV, our earbuds connect to all of your 3.5mm-audio-jack devices. BE AMAZED BY AVANTREE: Sometimes you just want to watch your must-see tv show, play your newest video game or groove to your favorite music without disturbing others or being bothered by the noise around you.</t>
+  </si>
+  <si>
+    <t>[Comfortable Design&amp;Excellent Fit]- Based on the ear-mounted type, The Earbuds Use the ergonomically designed with different sizes of gel-flexible silicone earcaps to keep them in place without ever falling off and making your wearing more comfortable. Even if you use it for a long time, you will not feel tired or ear pain at all. [One-step Auto Pairing]-Benefits from the latest Bluetooth 5.0 chip &amp; technology, these Zictec Sport Earphones will power on and pair with each other automatically once taken out from the Charging Box, then "JHO-A9" model will appear on the Bluetooth menu for connection. Very simple operation that suitable for all ages. [Premium Hi-Fi Stereo Audio]-Thanks to the advanced Bluetooth 5.0 chip and CVC 8.0 noise canceling features, Zictec A9 will make you immersed in powerful &amp; balanced sound with deep bass, what a premium listening experience! Boost your music enjoyment just from more stable signal and lower power consumption. [Up to 8 hours of Listening Time]-Built-in 110mAh capacity battery on each bud that will last up to 8 hours on a single full charge, so you can keep your music going. With the portable Charging Case, you will get all-day power of more than 24 hours continuous using time. Never worry about battery runs out when go out. [True Wireless Technology] No Trouble with Wire Tangle Anymore, Built-in Bluetooth 5.0 Chip, Offers Fast Speed, Stable Connection, Enable to 33ft Transmission. You Can Use the Earbuds to Achieve Volume +/-, Play the Next / the Previous Songs, Answer/Reject Calls, Activate the Voice Functions.</t>
   </si>
   <si>
     <t>MUSIC AND CALL : The unique stereo sound quality and design gives you the perfect sound, and you can feel the more realistic music. Crystal clarity and Deep, resonant bass with delicately tuned sound signature deliver immersive sound and put you on the stage center. Also combined its CVC 8. 0 noise reduction functionality, you’ll experience a whole new world of crystal-clear phone calls. AUTO PAIRING &amp; SINGLE MODE : The NYZ wireless in-ear buds are a great option if you want to listen to music, podcasts, or videos, or if you want to take handsfree calls. The hi-fi earbuds have an auto-pairing function, but you can also use a single earbud for more comfort. PLAYTIME &amp; CHARGING : The wireless headphones are very easy to pair with any iOS, Android or Windows device and can play music for up to 5 hours. The buds come with a portable charging case that can be used for up to 3 complete charges. TOUCH CONTROL: Your favorite pair of stereo earbuds comes with a one touch-control button that allows you to play and pause music, answer and hang up a call, or forward a playlist with a single touch. The earbuds are very comfortable to wear and can be used at the gym or while running. PORTABLE DESIGN: One of the best parts about this pair of wireless earbuds is that they are lightweight, compact, and travel-friendly. You can use them anywhere and anytime, especially since the cordless design makes the entire experience more comfortable. Don’t worry: you are our number 1 priority, which is why we are offering premium customer support.</t>
   </si>
   <si>
-    <t>🎵【The QUAD Diaphragm Technology】The QUAD carbon fiber mycelium diaphragms adopted greatly enhances the bass and the knocking sensation of the eardrum, delivering more crisp and bright high-pitched sound with richer details 🎵【Powerful Bass Driver】14.1mm dome type driver units built with dual dynamic drivers per earbud, dual tweeters, dual woofers, and innovative sound-absorbing holes deliver powerful deep bass, making the sound more layered, allowing you to clearly feel Instrument sounds and vocals. When you play "California Hotel", it will give you the feeling of being there 🎵【Excel In Calls】The aluminum alloy cavity, built-in MEMS acoustic noise reduction microphone module, and the sound-absorbing holes which greatly reduce the noise, increase the purity of the sound, and excel in calls. It can also be used in the gaming to clearly identify the opponent's position. In-line button controls designed for your convenience. If you like to play games and record songs, Linklike is your best choice 🎵【Comfort-Fit &amp; Noise Isolating】Linklike scanned the ear canal data of thousands of people and applied the best ergonomic design. The diameter of the earphone into the ear is only 6mm, avoiding the squeeze and sultry feeling, and maintaining stability. The included two pairs of ear tips enhance the sealing and isolate exterior noise for you to enjoy music on your iPhone or Android devices with these comfort in-ear wired headphones 🎵【Durable &amp; Compatible】The earphones cord is made of soft and flexible TPE material and is enhanced by Kevlar to make it more wear-resistant and corrosion-resistant. Not easy to knot and entangle, and the capability of strong tensile makes you no longer to worry about it will be torn. Compatible with the most Android and Apple devices. ✎ ✉ Contact us if you have any questions regarding fit or other quality issues. Link to contact: https://www.amazon.com/hz/help/contact/A37WW6B9H41IDK/write</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bluetooth 4.0 and aptX technologies to deliver exceptional wireless sound quality..Connectivity Technology: Wireless NoiseGard active noise cancellation to reduce ambient noise levels improving the listening experience Intuitive ear cup mounted controls for changing tracks and for making calls via the integrated microphone. Frequency response (Microphone) : 100 10,000 Hz Up to 19 hour battery life with Bluetooth and NoiseGard activated and is supplied with connecting cable for battery free listening 2 year warranty when purchased from an authorized Sennheiser dealer</t>
+    <t>🎵The QUAD Diaphragm TechnologyThe QUAD carbon fiber mycelium diaphragms adopted greatly enhances the bass and the knocking sensation of the eardrum, delivering more crisp and bright high-pitched sound with richer details 🎵Powerful Bass Driver14.1mm dome type driver units built with dual dynamic drivers per earbud, dual tweeters, dual woofers, and innovative sound-absorbing holes deliver powerful deep bass, making the sound more layered, allowing you to clearly feel Instrument sounds and vocals. When you play "California Hotel", it will give you the feeling of being there 🎵Excel In CallsThe aluminum alloy cavity, built-in MEMS acoustic noise reduction microphone module, and the sound-absorbing holes which greatly reduce the noise, increase the purity of the sound, and excel in calls. It can also be used in the gaming to clearly identify the opponent's position. In-line button controls designed for your convenience. If you like to play games and record songs, Linklike is your best choice 🎵Comfort-Fit &amp; Noise IsolatingLinklike scanned the ear canal data of thousands of people and applied the best ergonomic design. The diameter of the earphone into the ear is only 6mm, avoiding the squeeze and sultry feeling, and maintaining stability. The included two pairs of ear tips enhance the sealing and isolate exterior noise for you to enjoy music on your iPhone or Android devices with these comfort in-ear wired headphones 🎵Durable &amp; CompatibleThe earphones cord is made of soft and flexible TPE material and is enhanced by Kevlar to make it more wear-resistant and corrosion-resistant. Not easy to knot and entangle, and the capability of strong tensile makes you no longer to worry about it will be torn. Compatible with the most Android and Apple devices. ✎ ✉ Contact us if you have any questions regarding fit or other quality issues. Link to contact: https://www.amazon.com/hz/help/contact/A37WW6B9H41IDK/write</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bluetooth 4.0 and aptX technologies to deliver exceptional wireless sound quality..Connectivity Technology: Wireless NoiseGard active noise cancellation to reduce ambient noise levels improving the listening experience Intuitive ear cup mounted controls for changing tracks and for making calls via the integrated microphone. Frequency response (Microphone) : 100 10,000 Hz Up to 19 hour battery life with Bluetooth and NoiseGard activated and is supplied with connecting cable for battery free listening 2 year warranty when purchased from an authorized Sennheiser dealer</t>
   </si>
   <si>
     <t>Premium Hi-Fi Quality: Ultra-lightweight, dynamic frequency range from 20Hz to 20,000Hz, digital in-ear stereo wired earphones delivering stunning studio-quality sound. 10mm customized composite diaphragm speaker provides crystal clear, top audio performance with surging bass, delicate and soft mids and precision treble response for music you can feel. Stylish &amp; Solid: The charm black color makes it look like more noble and elegant ( Ideal for Self-use or Gifts). Proper length of 1.2m tangle-free cable with high quality and enhanced material, 500D nylon yarn, adds more durability, strength and toughness. 14 independent 0.06mm pure copper wire cores to ensure precise and high fidelity audio signal transmission. Comfortable &amp; Noise Isolating: Ergonomic and dust-proof ear tips (3 sizes S/M/L included) that stay in for a secure and comfortable fit each time and keeps the ear buds steady during workout, sports, jogging, running and gym. The built-in microphone enables remote control for music play and phone calls answer or hang up, guarantees clear and smooth hands-free communication. Special oblique angled ear-canal design delivers superior ambient noise isolation.  Wide Compatability: Built-in microphone, the in-ear earbuds can be used for hands-free phone calls, 3.5mm audio jack is compatible with iPhone SE/ 6/6s/6 Plus/6s Plus/5/5c/5s, iPad Mini, iPad Air, iPod touch 5, iPod Nano 7, Samsung Galaxy, Android Smartphones and tablets, Windows laptop and PC, and all popular music devices with headphone socket. Package Contents:  VOHECHS MR01 Earbuds, S/M/L Ear Tips, Fit Clip, User Manual.</t>
@@ -5648,7 +5645,7 @@
     <t>Premium audio: Ultra-lightweight, digital in-ear stereo wired earphones delivering stunning studio-quality sound 12mm Large Earphone Drivers provide Crystal clear, Top audio performance with driving bass, tight mids and precision treble response for music you can feel Total comfort: Ergonomic ear tips (3 sizes included) that stay in for a secure fit each time. Special ear-canal design delivers superior ambient noise isolation Headphones are widely compatible with iPhone SE/ 6/6s/6 Plus/6s Plus/5/5c/5s, iPad Mini, iPad Air, iPod touch 5,iPod Nano 7,Samsung Galaxy, Android Smartphones and tablets, Windows devices, and all popular music devices with headphone socket ( Volume control will be compatible with Samsung and Apple Devices only ) If you are not satisfied with this wired earphone, please contact us without hesitation, our customer service will contact you within 24 hours and give you a satisfactory result.</t>
   </si>
   <si>
-    <t>🎁【TRULY WIRELESS HD STEREO WITH RICH BASS】11 mm vibrating diaphragm and advanced chip allows getting a clearer balanced sound and deep powerful bass. Listen to music and make calls with built-in mic featuring intelligent noise canceling: you will hear your interlocutor even in the noisiest places. 🎁【ULTRA-LONG WORKING TIME AND IPX7 WATERPROOF】Up to 12 Hours Per Charge and 5 Charges in the Case. Take advantage of industry-leading playtime up to 10 hours of continuous playing time per 1 hour charge and total time of 50 hours with 950mAh charging box. Rugged, waterproof and sweatproof construction with nano-coating make PowerPro ideal for reliable performance in the worst weather and workout conditions. 🎁【SUPER STABLE BLUETOOTH 5.0 CONNECTION】 Bluetooth 5.0 technology has a very low level of delay and provides a quick and reliable skip-free connection of headphones to the sound source with extended range up to 100 ft. Bluetooth headphones are easy to pair with any Bluetooth-enabled device, have low power consumption and provide crisp, high-quality sound without interruption. 🎁【ERGONOMIC FIT WITH SOFT SILICONE EARHOOKS】 Wireless tangle-free design is complemented by silicone earhooks, holding wireless Bluetooth headphones in place even during active movements. The carefully calibrated shape fits perfectly into the ear canal and does not cause fatigue even after hours of listening to music. 🎁【DESIGNED IN USA WITH LEADING SOUND ENGINEERS】The combination of advanced music technology, a powerful battery and an ergonomic shape make these deep bass Bluetooth headphones an object of praise for music lovers, athletes and all those who prefer perfectly balanced devices.</t>
+    <t>🎁TRULY WIRELESS HD STEREO WITH RICH BASS11 mm vibrating diaphragm and advanced chip allows getting a clearer balanced sound and deep powerful bass. Listen to music and make calls with built-in mic featuring intelligent noise canceling: you will hear your interlocutor even in the noisiest places. 🎁ULTRA-LONG WORKING TIME AND IPX7 WATERPROOFUp to 12 Hours Per Charge and 5 Charges in the Case. Take advantage of industry-leading playtime up to 10 hours of continuous playing time per 1 hour charge and total time of 50 hours with 950mAh charging box. Rugged, waterproof and sweatproof construction with nano-coating make PowerPro ideal for reliable performance in the worst weather and workout conditions. 🎁SUPER STABLE BLUETOOTH 5.0 CONNECTION Bluetooth 5.0 technology has a very low level of delay and provides a quick and reliable skip-free connection of headphones to the sound source with extended range up to 100 ft. Bluetooth headphones are easy to pair with any Bluetooth-enabled device, have low power consumption and provide crisp, high-quality sound without interruption. 🎁ERGONOMIC FIT WITH SOFT SILICONE EARHOOKS Wireless tangle-free design is complemented by silicone earhooks, holding wireless Bluetooth headphones in place even during active movements. The carefully calibrated shape fits perfectly into the ear canal and does not cause fatigue even after hours of listening to music. 🎁DESIGNED IN USA WITH LEADING SOUND ENGINEERSThe combination of advanced music technology, a powerful battery and an ergonomic shape make these deep bass Bluetooth headphones an object of praise for music lovers, athletes and all those who prefer perfectly balanced devices.</t>
   </si>
   <si>
     <t>Hi-fi sound: aptX HD Audio CODEC wirelessly streams high performance sound that’s rich clear &amp; perfectly defined without distortion Clear voice calls: cVc 8. 0 noise cancellation technology filters out external noise &amp; enhances the sound of your voice for clear hands-free calls note it only works when you're on a call IPX7 water-proof build: water-resistant coating effectively protects against the elements including rain &amp; sweat Unrivaled playtime: powerful rechargeable battery holds up to 20 hours of continuous wireless listening on a single charge Magnetic design: connect the earphones together via the built-in magnets for a sporty &amp; secure way to carry when not in use</t>
@@ -5660,10 +5657,10 @@
     <t>One-Step Pairing and Bluetooth 5.0 Connectivity: Liberty Air 2 wireless earphones use Bluetooth 5.0 for a fast, strong, and ultra-stable connection. Diamond-Enhanced Sound: Liberty Air 2 wireless earphones take advantage of the ultra-light, yet rigid structure of diamonds to create a driver dome that maintains its rigidity, even when vibrating at high frequencies. The diamond drivers increase the sound frequency bandwidth by 15% and deliver 2× the amount of bass. 4 Microphones with cVc 8.0 Uplink Noise Cancellation: Each earbud is equipped with two microphones that utilize the latest cVc 8.0 noise reduction technology. When making a call, environmental noises are reduced by 60%, while 95% of your voice is retained so you sound louder and clearer on the other end. Up to 28 Hours of Playtime: A single charge gives you a full 7 hours of listening, while the charging case extends it to 28 hours of playtime. And when the case needs a power boost, simply set it down on a wireless charger. HearID Technology: Take the test to create a custom set of EQ settings that are optimized for your ears. HearID maps your hearing sensitivity at multiple frequencies and intelligently analyzes the results to give you a truly personalized listening experience.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Pefect compatible with ps4 controllers. Work almost exactly same with original ps4 mono earbud. Direct connects to ps4 controllers, On/Off/Mute microphone controls. 3.5mm connector, It's very light and small for portable use. Third party products. It's not made by sony.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [Upgraded Microphone]-To reduce the environment noise and improve audio quality for calling, SOUNDPEATS TrueCapsule wireless earbuds has adjusted the microphone for both earbuds to ensure a more clear and smooth hands-free communication. [Superior Sound]-Adopt global professional Realtek chipset, true wireless design with latest Bluetooth 5.0 and Biological diaphragm, TrueCapsule bluetooth earbuds brings you excellent listening experience with superior clear sound and more stable connection. kindly note that only the right earbud can use in Mono mode if you prefer. [Upgraded Touch Control]-To make the touch buttons more sensitive, Our engineers have designed new touch solutions and enhanced touch testing before each delivery. Smart touch contorl prevents the buttons hurting your ears. Activate the voice assisstance easily by double pressing the multifunction button. [Upgraded Charging Case]-4 hours working time per charge for the earbuds, about 5 times full charge by the charging case, 24 hours playtime in total. Improved Charging contactor avoid the charging problems for earbuds. SoundPEATS TrueCapsule wireless earbuds strive to keep you company the whole days wherever you go. [Comfort fit]-Ergonomic design and 3 size of eratips provide comfortable fit, As long as your device is with Bluetooth version above 4.0, you can use it well with TrueCapsule bluetooth earphones.SoundPEATS provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
+    <t xml:space="preserve"> Pefect compatible with ps4 controllers. Work almost exactly same with original ps4 mono earbud. Direct connects to ps4 controllers, On/Off/Mute microphone controls. 3.5mm connector, It's very light and small for portable use. Third party products. It's not made by sony.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Upgraded Microphone]-To reduce the environment noise and improve audio quality for calling, SOUNDPEATS TrueCapsule wireless earbuds has adjusted the microphone for both earbuds to ensure a more clear and smooth hands-free communication. [Superior Sound]-Adopt global professional Realtek chipset, true wireless design with latest Bluetooth 5.0 and Biological diaphragm, TrueCapsule bluetooth earbuds brings you excellent listening experience with superior clear sound and more stable connection. kindly note that only the right earbud can use in Mono mode if you prefer. [Upgraded Touch Control]-To make the touch buttons more sensitive, Our engineers have designed new touch solutions and enhanced touch testing before each delivery. Smart touch contorl prevents the buttons hurting your ears. Activate the voice assisstance easily by double pressing the multifunction button. [Upgraded Charging Case]-4 hours working time per charge for the earbuds, about 5 times full charge by the charging case, 24 hours playtime in total. Improved Charging contactor avoid the charging problems for earbuds. SoundPEATS TrueCapsule wireless earbuds strive to keep you company the whole days wherever you go. [Comfort fit]-Ergonomic design and 3 size of eratips provide comfortable fit, As long as your device is with Bluetooth version above 4.0, you can use it well with TrueCapsule bluetooth earphones.SoundPEATS provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
   </si>
   <si>
     <t>[Hi-fi Stereo Sound Quality] Funcl true wireless earbuds use the latest Bluetooth 5.0 technology and upgraded acoustic components, providing you great sound quality with rich dynamic bass, balanced baritone along with crisp clear treble. [One Step Pairing] Thanks to Bluetooth 5.0, FUNCL in-ear headphones with lag-free connections and greater range pair, making it easy to connect to your devices to listening without interruption. [Ergonomic Design] Funcl TWS earbuds are ergonomically designed to fit comfortably in your ears and stay secure even with the most active lifestyles. Included soft silicone ear-tips allow you to customize your earbuds for the best fit. [Mono &amp; Twin Mode] With built-in mic in each earbud, you can use a single earbud for working or use the pair to enjoy music alone or share with your friends. [Long Battery Life] Funcl Bluetooth Earbuds deliver up to 18 hours of battery life, 3.5 hours of listening time on a single charge and 2 extra charges from charging case.</t>
@@ -5684,7 +5681,7 @@
     <t>Interactive language software with proprietary speech-recognition technology Develop your command of the language--read, write, speak, and understand Build vocabulary; negotiate complex situations; share ideas and opinions Enhance your learning on-the-go with Rosetta Stone mobile apps for the Kindle Fire HD, iPad and iPhone. Three month access included with purchase. The online games and lessons are only included for three months after which you must buy a subscription to continue using them.</t>
   </si>
   <si>
-    <t>【PREMIUM SOUND WITH DEEP BASS】：Exceptional clarity delivered via 8mm drivers with DEEP BASS &amp; dynamic output, provide richer audio experience. Earbuds can block out most of surrounding noises and avoid wind noise created during running, biking, jogging, etc. 【MORE STABLE &amp; EASY PAIRING】：Equipped with Bluetooth 5.0 technology and high sensitivity antenna offer stable and seamless connectivity without call and music dropouts. Activate earbuds and take out of case, they enter pairing mode without messy tricks. Reconnect to your cell phone automatically after initial pairing. 【CONVENIENT TO USE】：Built-in dual microphones in earbuds, you can utilize both single/Twin mode; use a single earbud for driving or use the pair to enjoy music alone or Share with your lover. One-key control, help you enjoy hands-free phone calls, manage previous/next track conveniently and activate Siri. 【SUPER BATTERY LIFE】：Earbuds last over 5-6 hours of music playback time on a full charge. Else the portable charging box can offer 18 hours of backup power. You can go for a day use without power shortage thus sufficient music joy all through your daily activities. 【100% SATISFACTION GUARANTEE】: You are fully covered by our 1 YEAR WARRANTY and 30 DAYS RETURN GUARANTEE, if you aren’t 100% satisfied. Please feel free to contact with our customer support. (TIPS: From your review, Amazon do not provide the access to your order details. So, we are not able to contact you to solve your issues.)</t>
+    <t>PREMIUM SOUND WITH DEEP BASS：Exceptional clarity delivered via 8mm drivers with DEEP BASS &amp; dynamic output, provide richer audio experience. Earbuds can block out most of surrounding noises and avoid wind noise created during running, biking, jogging, etc. MORE STABLE &amp; EASY PAIRING：Equipped with Bluetooth 5.0 technology and high sensitivity antenna offer stable and seamless connectivity without call and music dropouts. Activate earbuds and take out of case, they enter pairing mode without messy tricks. Reconnect to your cell phone automatically after initial pairing. CONVENIENT TO USE：Built-in dual microphones in earbuds, you can utilize both single/Twin mode; use a single earbud for driving or use the pair to enjoy music alone or Share with your lover. One-key control, help you enjoy hands-free phone calls, manage previous/next track conveniently and activate Siri. SUPER BATTERY LIFE：Earbuds last over 5-6 hours of music playback time on a full charge. Else the portable charging box can offer 18 hours of backup power. You can go for a day use without power shortage thus sufficient music joy all through your daily activities. 100% SATISFACTION GUARANTEE: You are fully covered by our 1 YEAR WARRANTY and 30 DAYS RETURN GUARANTEE, if you aren’t 100% satisfied. Please feel free to contact with our customer support. (TIPS: From your review, Amazon do not provide the access to your order details. So, we are not able to contact you to solve your issues.)</t>
   </si>
   <si>
     <t>✔ BONE CONDUCTION TECHNOLOGY - Bone conduction technology and Open-ear design delivers music through your cheekbones, ensuring your ears remain completely open to ambient sounds, help you stay alert to your surroundings, avoid danger and meanwhile enjoy music. ✔ BLUETOOTH CONNECTIVITY - Tayogo wireless headphones with the latest Bluetooth 5.0 connectivity and convenient multipoint pairing compatible with your iOS and Android Bluetooth-ready smartphones, tablets, Macbook, PC computers and laptops. 35 FT wireless connection distance to ensure high fidelity stereo sound quality and stable performance. ✔ COMFORTABLE WEARING - Ergonomic and anti-drop design, titanium wraparound headband is lightweight and flexible, great for durability and portability. Combined with a long battery life, this compact fit allows you to enjoy continuous music and calls for six hours at a time. ✔ ULTIMATE DURABILITY - Tayogo IP65 certified sport headphones repel sweat, dust and moisture throughout your indoor or outdoor exercise routine. These sturdy workout headphones withstand your strenuous running, cycling, and more! ✔ ONE YEAR WARRANTY - Please be advised that all Tayogo items are under one year warranty. If you encounter any issue, please contact us and we will reach you within 24 hours.</t>
@@ -5696,28 +5693,28 @@
     <t>✓ PREMIUM CLASSROOM HEADPHONES — Durable, functional class set headphones are becoming increasingly important in today's technology enhanced classrooms, for K-12 and beyond. Our 10 pack of school head phones for students and kids help greatly enhance focus, learning, and standardized testing experiences. ✓ COMFORTABLE, DURABLE, QUALITY — We pride ourselves on offering high quality, premium headphones at an affordable bulk price, and stand behind their dependable usability and sound quality. One size fits all grade levels comfortably and effectively. Easy to adjust, clean and care for. Ear buds have many drawbacks, making an over the ear budget headphone the optimal sounding choice for all media uses. ✓ NOISE REDUCING TECHNOLOGY — Effortlessly enhances student focus, lesson retention and learning. Combining listening with interactive lessons is one of the best ways to improve the brain's ability to take in information, process and retain it. Our headphones are constantly being improved upon as we receive feedback. ✓ MULTI-USE, WIRED CLASS SET — Purchase as many packs as you need for a variety of learning environments. We supply many class rooms, libraries, computer labs, museums, art galleries, schools and universities, for use with music players, tablets, listening stations, computers, in offices and many other uses. ✓ 100% MONEY-BACK GUARANTEE — Barks Tech Premium Classroom Headphones are backed by a 100% money-back guarantee. We also offer a limited lifetime warranty that ensures our product will be free from defects in materials and workmanship for the life of the product. Buy multiple packs with confidence!</t>
   </si>
   <si>
-    <t>♫【1DD+1BA Hybrid HIFI earbuds】: TRN T200 True wireless Earbuds was equipped with Dynamic Driver + Balanced Armature Hybrid Driver. Adopt professional Bluetooth 5.0 chip set with high resolution decoder built-in and APTX/AAC/SBC audio coding technology to deliver extraordinary HIFI sound with low latency. Deep bass and crystal clear treble, ensure premium sound quality. Gives you perfect music enjoying. ♫【FAST PAIRING &amp; STABLE CONNECTION】: TRN T200 Wireless earphones own fast and stable transmission without tangling. One-step pairing technology makes the R/L Bluetooth headphones auto pair when taken out of the charging case. then enter mobile phone Bluetooth setting to search and connect the “TRN T200 L” wireless earbuds to enjoy music. Smart touch control lets you answer calls, control music easily. And built-in microphones in both Bluetooth headphones for you to enjoy hands-free HD calls. ♫【IPX5 WATERPROOF &amp; LONGER ENJOYMENT】: TRN T200 Bluetooth Earbuds has IPX5 Waterproof, it can last for 7-8 hours music time on a single charge. The charging case is a power bank, So the TRN T200 earbuds can last up to 180 hours. Long battery life provides a wonderful using experience without worrying about battery run out too quickly while on the go. And mini size charging case for easy storing in the pocket. ♫【CVC8.0 Noise Canceling &amp; Compatibility】: TRN T200 support APTX/HFP/A2DP/AVRCP. You can enjoy it with iPhone X,iPhone11 pro,iPhone 8 Plus,7 Plus,Samsung,Huawei,Xiaomi,Oneplus,TV,Laptop,Tablet ect. Earbuds are lightweight, soft and comfortable. It is a good choice to use in Running,Sports,Subway,Bus,Busy Street,and so on.it is a pair of pass noise canceling ear buds and good noise isolating headphone. It can block out human noise and isolate you from the noise ambient. ♫【Buy with Confidence &amp; BEST GIFT】: You will get 1 year protective time from the date of purchase, support 7*24h technologyservice, 24 hours quick reply. Which makes your purchase absolutely risk-free and you can enjoy testing out it's quality and durability! If there are any issue with the item you purchased, please feel free tocontactwith the seller NNEX audio. TRN T200 also can be the BEST GIFT for home, parties, school, Black Friday, Christmas gift ETC</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) FOLDING DESIGN: Easy to Carry and Save Spaces, Just Fold them up, Twist up the Cord, Take it on your Trip HANDS-FREE and VOLUME CONTROL: It has Built-in Mic, Remote and Volume Control, Perfect for Answering Phones Calls or Listening Music QUALITY PARTS: the 1.5 Meter Nylon Rope Cord and 3.5mm L Shape Jack, the Powerful Audio Performance with a Deep Bass Response COMFORTABLE FIT: Softly on Your Ears with The Ultra Eco Leather and Cloud Foam Cushions. Comfort your all Day with This Headphone Compatible with all MP3, Phones, Tablets, Computers, DVD and CD players, and portable gaming systems</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【Premium Sound Experience】: Kingyou in-ear Earphones provide a pure sound quality for great joy of stereo lossless music listening. Well balance of treble, midrange, bass. 【Comfortable and lightweight】: The silicone ear tips provide moderate noise isolation. Combine with 3 size of earbuds (S/M/L), fit snugly in your ears and comfortable for long-time wearing. Lightweight, tangle free cord avoids get into a bad mess. 【Stylish Metal Construction】: Solid metal housing, 24k Gold Plated 3.5mm Jack ideal for iPod, iPhone, iPad and all Apple devices, tablets, Android, MP3/MP4 Player, PC and all other 3.5 jack devices. 【Multi-functional Button】: Ingenious single-button design brings simple operation. Built-in Mic lets hands-free calling (Answer/end/reject a call). Control music- Play/ pause, Next/previous Track. 【Quality Commitment】: 24 hours friendly customer on-line service, 30-day money back, worry-free 12-month manufacturer warranty. Buy worry free! Packaging content: Kingyou KM02 Earbuds, S/M/L Ear-tips, User Manual, clean cloth, shrapnel bag, Clip Organizer.</t>
+    <t>1DD+1BA Hybrid HIFI earbuds: TRN T200 True wireless Earbuds was equipped with Dynamic Driver + Balanced Armature Hybrid Driver. Adopt professional Bluetooth 5.0 chip set with high resolution decoder built-in and APTX/AAC/SBC audio coding technology to deliver extraordinary HIFI sound with low latency. Deep bass and crystal clear treble, ensure premium sound quality. Gives you perfect music enjoying. FAST PAIRING &amp; STABLE CONNECTION: TRN T200 Wireless earphones own fast and stable transmission without tangling. One-step pairing technology makes the R/L Bluetooth headphones auto pair when taken out of the charging case. then enter mobile phone Bluetooth setting to search and connect the “TRN T200 L” wireless earbuds to enjoy music. Smart touch control lets you answer calls, control music easily. And built-in microphones in both Bluetooth headphones for you to enjoy hands-free HD calls. IPX5 WATERPROOF &amp; LONGER ENJOYMENT: TRN T200 Bluetooth Earbuds has IPX5 Waterproof, it can last for 7-8 hours music time on a single charge. The charging case is a power bank, So the TRN T200 earbuds can last up to 180 hours. Long battery life provides a wonderful using experience without worrying about battery run out too quickly while on the go. And mini size charging case for easy storing in the pocket. CVC8.0 Noise Canceling &amp; Compatibility: TRN T200 support APTX/HFP/A2DP/AVRCP. You can enjoy it with iPhone X,iPhone11 pro,iPhone 8 Plus,7 Plus,Samsung,Huawei,Xiaomi,Oneplus,TV,Laptop,Tablet ect. Earbuds are lightweight, soft and comfortable. It is a good choice to use in Running,Sports,Subway,Bus,Busy Street,and so on.it is a pair of pass noise canceling ear buds and good noise isolating headphone. It can block out human noise and isolate you from the noise ambient. Buy with Confidence &amp; BEST GIFT: You will get 1 year protective time from the date of purchase, support 7*24h technologyservice, 24 hours quick reply. Which makes your purchase absolutely risk-free and you can enjoy testing out it's quality and durability! If there are any issue with the item you purchased, please feel free tocontactwith the seller NNEX audio. TRN T200 also can be the BEST GIFT for home, parties, school, Black Friday, Christmas gift ETC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOLDING DESIGN: Easy to Carry and Save Spaces, Just Fold them up, Twist up the Cord, Take it on your Trip HANDS-FREE and VOLUME CONTROL: It has Built-in Mic, Remote and Volume Control, Perfect for Answering Phones Calls or Listening Music QUALITY PARTS: the 1.5 Meter Nylon Rope Cord and 3.5mm L Shape Jack, the Powerful Audio Performance with a Deep Bass Response COMFORTABLE FIT: Softly on Your Ears with The Ultra Eco Leather and Cloud Foam Cushions. Comfort your all Day with This Headphone Compatible with all MP3, Phones, Tablets, Computers, DVD and CD players, and portable gaming systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Premium Sound Experience: Kingyou in-ear Earphones provide a pure sound quality for great joy of stereo lossless music listening. Well balance of treble, midrange, bass. Comfortable and lightweight: The silicone ear tips provide moderate noise isolation. Combine with 3 size of earbuds (S/M/L), fit snugly in your ears and comfortable for long-time wearing. Lightweight, tangle free cord avoids get into a bad mess. Stylish Metal Construction: Solid metal housing, 24k Gold Plated 3.5mm Jack ideal for iPod, iPhone, iPad and all Apple devices, tablets, Android, MP3/MP4 Player, PC and all other 3.5 jack devices. Multi-functional Button: Ingenious single-button design brings simple operation. Built-in Mic lets hands-free calling (Answer/end/reject a call). Control music- Play/ pause, Next/previous Track. Quality Commitment: 24 hours friendly customer on-line service, 30-day money back, worry-free 12-month manufacturer warranty. Buy worry free! Packaging content: Kingyou KM02 Earbuds, S/M/L Ear-tips, User Manual, clean cloth, shrapnel bag, Clip Organizer.</t>
   </si>
   <si>
     <t>{Hi-fi sound quality}true wireless Bluetooth 5.0 earbuds with low latency enjoy the pleasure of music In any environment.Use graphene vibrating membrane driver the earbuds could produce crisp &amp; loud and more balanced sound, you can enjoy the pleasure of music In any environment. {Quick and easy pairing} easy to use by ear buds automatically detecting and pairing with each other and with your phone flawlessly for single and double use - pick up the right ear bud from the charging case, It will automatically pair to the left ear bud and Bluetooth device. If pick up the left ear bud only, Double touch it, paring is also automatically completed. {Patented charging case design} a fully charged charging case can charge the earbuds for three times, and the earbuds can work up to 3 hours when fully charged, which is equivalent to continuous listening to 150 songs and 5 movies. The earbuds can be used separately, you can use one and leave another one in the charging case to charge. The charging case features a unique function of digit displaying the remained power to remind you to re-charge in time {Human engineering mechanics design}t shape half-in-ear light weight design with super fine silicon caps enables comfortable fit in, will not falling out during running, sports, yoga - the ears canal structures Supports the T shape ear buds in 3 point, which enables Bluetooth ear buds fits in ear tightly during moving. Total ear canal ergonomic fitting in, comfortable without hurting even for a long time use. {Excellent customer service}our product has 12 month Warranty. We provides free new one or 100% Fund back if you do not like it. To Contact us: go to your Orders, find your order in the list, and click Contact Seller.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【Excellent Stereo Sound &amp; Noise Isolation】High precision 40 mm driver, bring you vivid sound field, sound clarity, sound shock feeling, splendid ambient noise isolation, BlueFire Gaming Headset uses advanced active noise reduction technology quells airplane cabin noise, city traffic or a busy office. So you can focus more on what matters—your music, movies, videos and games. 【Comfortable and Light Weight】 The headset used skin-friendly leather material with Self-adjusting head beam and head cushion design ensures perfect fit with different head sizes (suitable for both adults and kids) and super soft Over-ear pads that is more comfortable for long time gaming. 【Long Soft Cord】 Over 6.8 feet! Which for a video gamer this is perfect, no need to sit right in front of the TV. Having such a long cord allows for much more movement and be comfortably. 【Smooth Mic and Volume Control 】There is a small controller on the cord, allowing you to turn the mic on and off, and the volume up and down with ease. 【Widely Compatible and Versatile 】Support PlayStation 4, Xbox One, Xbox One S, Xbox One X, Desktop Computer, Nintendo Switch, Nintendo 3DS, Laptop, PSP, Tablet, iPad, Cell Phone. Please note you need an extra Microsoft Adapter (Not Included) when connect with an old version Xbox One controller.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) In-ear headphones with in-line microphone and controls with 3 5mm connection High-resolution Audio capable for reproducing music in its purest form High-powered 8 6mm neodymium drivers for exceptional sound Good passive isolation blocks out noise for immerse listening frequency response 7-40 000 Hz Luxurious metallic finishing with lightweight yet durable design</t>
-  </si>
-  <si>
-    <t>【Super sound with Bluetooth 5.0】O5PLUS true wireless earbuds give you natural authentic well-balanced deep bass Hi-Fi 3D stereo sound for enjoyable music experience. Bluetooth 5.0 ensure stable connection, lossless transmission. 【Easy to Use】 O5PLUS wireless earbuds allow you to switch between three modes freely: Use two earbuds together/ Use two earbuds separately/ Only use single earbud. The earbuds sync and pair your phone every time you take them out from the smart charging case. By placing them back to the case, they will automatically power off and recharge after each use. With the press of one button you can pause and play, control the volume, skip songs, turn on monitor mode and more! 【100 hours playtime】Mifo O5PLUS sport wireless earbuds can last 7 hours for playing music with a single charge. The portable 2600mAh large-capacity charging case can be used to charge earbuds for about 15 times, it holds additional bettery for about 100 hours of listening time. 【Comfortable and Waterproof】 Thousands of ear shape data collection and wearing test, 698 times optimize, and final become what O5PLUS is now, and we offer 7 ear tips of different sizes, to ensure your in-ear earbuds fit comfortably to your ears and without falling out. O5PLUS wireless earbuds are waterproof and dustproof, perfect for running, cycling, skiing, traveling, yoga, gym exercises or other sports. 【Touch-key design】 Each earbuds has two buttons on it’s panel , the earbuds has awaken siri convenient function (double-click on the earbuds of which a key switch machine), key contains the answer/hang up the phone, play/pause music, songs and the volume up and down adjustment switch, will bring their own memory mode, remove the earbuds automatically after connected to the phone, without manual operation.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 🎧 ERGONOMICS DESIGN: Earphones with ergonomic angular design and soft &amp; premium eartips not only give you a comfortable listening experience but also less likely to fall out even when you are running, hiking or jogging. It comes with 3 different size of eartips(S/M/L), you can choose a better one to fit your ears 🎧 QUALITY STEREO SOUND: Stereo earphones produces Premium Stereo Sound,high-fidelity sound with enhanced bass. Everyone can take their music listening experience to the higher level 🎧 TANGLE FREE CABLE: Soft and durable flat cable is built to last and designed to resist tangling for frustration-free use. The tangle-free cord stores neatly and keeps you connected to your device in smooth, simple style. Slim &amp; extended 3.5mm connector is small enough that it will not conflict with your phone case cutout and is more durable than L type connector 🎧 CRISP AUDIO &amp; ENHANCED BASS: Strong bass, comfortable earbud headphones with a great seal which minimize outside noise so you can hear the beats clearly. The perfect portable earbud headphones offer sleek style and an excellent on-the-go choice for keeping you in sync with sound that inspires. Please Note: This earbuds do not support volume control, microphone 🎧 24-MONTH WARRANTY: 3.5mm audio jack compatible with any 3.5mm audio devices including iPhone, iPad, iPod, Mac, iMac, PS3/PS4, MP3/MP4 Player and more. 24-MONTH WARRANTY (Free replacement or refund）</t>
+    <t xml:space="preserve"> Excellent Stereo Sound &amp; Noise IsolationHigh precision 40 mm driver, bring you vivid sound field, sound clarity, sound shock feeling, splendid ambient noise isolation, BlueFire Gaming Headset uses advanced active noise reduction technology quells airplane cabin noise, city traffic or a busy office. So you can focus more on what matters—your music, movies, videos and games. Comfortable and Light Weight The headset used skin-friendly leather material with Self-adjusting head beam and head cushion design ensures perfect fit with different head sizes (suitable for both adults and kids) and super soft Over-ear pads that is more comfortable for long time gaming. Long Soft Cord Over 6.8 feet! Which for a video gamer this is perfect, no need to sit right in front of the TV. Having such a long cord allows for much more movement and be comfortably. Smooth Mic and Volume Control There is a small controller on the cord, allowing you to turn the mic on and off, and the volume up and down with ease. Widely Compatible and Versatile Support PlayStation 4, Xbox One, Xbox One S, Xbox One X, Desktop Computer, Nintendo Switch, Nintendo 3DS, Laptop, PSP, Tablet, iPad, Cell Phone. Please note you need an extra Microsoft Adapter (Not Included) when connect with an old version Xbox One controller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In-ear headphones with in-line microphone and controls with 3 5mm connection High-resolution Audio capable for reproducing music in its purest form High-powered 8 6mm neodymium drivers for exceptional sound Good passive isolation blocks out noise for immerse listening frequency response 7-40 000 Hz Luxurious metallic finishing with lightweight yet durable design</t>
+  </si>
+  <si>
+    <t>Super sound with Bluetooth 5.0O5PLUS true wireless earbuds give you natural authentic well-balanced deep bass Hi-Fi 3D stereo sound for enjoyable music experience. Bluetooth 5.0 ensure stable connection, lossless transmission. Easy to Use O5PLUS wireless earbuds allow you to switch between three modes freely: Use two earbuds together/ Use two earbuds separately/ Only use single earbud. The earbuds sync and pair your phone every time you take them out from the smart charging case. By placing them back to the case, they will automatically power off and recharge after each use. With the press of one button you can pause and play, control the volume, skip songs, turn on monitor mode and more! 100 hours playtimeMifo O5PLUS sport wireless earbuds can last 7 hours for playing music with a single charge. The portable 2600mAh large-capacity charging case can be used to charge earbuds for about 15 times, it holds additional bettery for about 100 hours of listening time. Comfortable and Waterproof Thousands of ear shape data collection and wearing test, 698 times optimize, and final become what O5PLUS is now, and we offer 7 ear tips of different sizes, to ensure your in-ear earbuds fit comfortably to your ears and without falling out. O5PLUS wireless earbuds are waterproof and dustproof, perfect for running, cycling, skiing, traveling, yoga, gym exercises or other sports. Touch-key design Each earbuds has two buttons on it’s panel , the earbuds has awaken siri convenient function (double-click on the earbuds of which a key switch machine), key contains the answer/hang up the phone, play/pause music, songs and the volume up and down adjustment switch, will bring their own memory mode, remove the earbuds automatically after connected to the phone, without manual operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ERGONOMICS DESIGN: Earphones with ergonomic angular design and soft &amp; premium eartips not only give you a comfortable listening experience but also less likely to fall out even when you are running, hiking or jogging. It comes with 3 different size of eartips(S/M/L), you can choose a better one to fit your ears  QUALITY STEREO SOUND: Stereo earphones produces Premium Stereo Sound,high-fidelity sound with enhanced bass. Everyone can take their music listening experience to the higher level  TANGLE FREE CABLE: Soft and durable flat cable is built to last and designed to resist tangling for frustration-free use. The tangle-free cord stores neatly and keeps you connected to your device in smooth, simple style. Slim &amp; extended 3.5mm connector is small enough that it will not conflict with your phone case cutout and is more durable than L type connector  CRISP AUDIO &amp; ENHANCED BASS: Strong bass, comfortable earbud headphones with a great seal which minimize outside noise so you can hear the beats clearly. The perfect portable earbud headphones offer sleek style and an excellent on-the-go choice for keeping you in sync with sound that inspires. Please Note: This earbuds do not support volume control, microphone  24-MONTH WARRANTY: 3.5mm audio jack compatible with any 3.5mm audio devices including iPhone, iPad, iPod, Mac, iMac, PS3/PS4, MP3/MP4 Player and more. 24-MONTH WARRANTY (Free replacement or refund）</t>
   </si>
   <si>
     <t>MAIN FEATURES: Volume control, pause/play capabilities, answer/end call function. PERFECT SOUND QUALITY: Perfect stereo headphones with high quality drivers enables you experience natural clear and super enhanced bass sound. Noise cancelling technique helps against loud and annoying noise. HUMANISTIC DESIGN: The noise isolating earphones suit ear canal naturally, and you won’t feel uncomfortable, even wear for a long time also won't fatigue; they are less likely to fall out, and free you to enjoy your music. Built-in MICROPHONE: The cable was built in an in-line remote controller and a high quality microphone, select songs and take calls. You don't need to move your head when you are talking. Compatibility: Ideal for All iPhone 6S/6/Plus/iPhone SE/5S/5C/5, Samsung Galaxy S7/S6/Edge, Google, Nexus 6P/5X, HTC One, Nokia, Motorola, Windows Phone, Tablet, iPad, iPod, MP4/MP3, Laptop Computer and more devices compatible with 3.5mm headphones.</t>
@@ -5732,13 +5729,10 @@
     <t>Advanced Bluetooth 5. 0: with fast pairing, Bluetooth 5. 0 provides strong and reliable Bluetooth connection, lower power consumption and skip-free listening experience. Brighten up your workouts with music Built-in magnets &amp; wire clip design: The Built-In magnets of this Bluetooth headsets enable you to secure the two ear buds together when you don’t need them. Besides, a wire clip is provided to prevent entanglement. 8-Hour playtime &amp; Wide Compatibility: charge the headphones 1. 5 hours with a Micro USB cable, and use the wireless headphones continuously for up to 8 hours to keep you rocking throughout the whole day. Work well with Android devices, iPhone and other Bluetooth-enabled devices. Support connecting two phones simultaneously, The remaining battery level of headphones is displayed on your phone. IPX5 design &amp; easy 3-button control: with internal Nano coating, you can wear the headphones for any outdoor and indoor activities except submerging them in the water, 3-button control offers a simple way to control your music and calls without touching your phone Ergonomic fit: small and super lightweight wireless earbuds, 2 pairs of secure-fit ear fins (s, L) and 3 pairs of ear tips (S, M, L) are included for your individual fit</t>
   </si>
   <si>
-    <t>【Bluetooth 5. 0 technology】:AIKELA TWS earbuds adopt the most advanced Bluetooth 5. 0 technology. Provide you 3D stereo sound.Earphones are easy to connect as they are available for a connection,no need any skills. 【140 HOURS PLAYTIME】:The wireless earbuds with 3500mAh charging case in total 140hours playtime.It can last 3-4hours playtime for a single charge.You can also use this ultra high capacity charging case as an alternative power bank for your iPhone XS XR X 8 7 plus, Samsung Galaxy, android phone, iPad and so on. 【One Step Pairing】The wireless bluetooth earbuds are equipped with one-step pairing technology. Take the Left and the Right earbuds out of charging case,then earphones will pair with each other, then "X10 " automatically appear on your device. In a matter of seconds, you are in euphonic music world. 【Universal Compatibility】: Compatible with iPhoneXs XR X 8 7 6 plus, ipod shuffle, ipod nano, Android, Samsung Galaxy, BlackBerry, HTC, iPad Pro, Bluetooth-enabled Cellphones tablets and all device with 4.2 bluetooth;Perfect for Sports, Workout, Running,Jogging,Gym Exercise, Audiobooks, Watching TV and so on. 【MULTI MODES &amp;WARRANTY】 - This In-Ear Wireless Earphones are designed with sensitive area on surface, you can freely switch songs, answer/reject a call, adjust volume and call Siri. Besides, the Magic earbuds have left/right ear separated design to support mono/stereo/modes. Every AIKELA product includes a 30 days money back &amp; 12-month warranty,any question,contact us freely.</t>
-  </si>
-  <si>
-    <t>🎧 BLAZE THE HOTTEST BEATS AS YOUR ROCK THESE HEADSETS IN STYLE - Want to listen to music on the way to school? Need a solid pair of quality earphones to relax on your train or bus ride while dropping the hottest tracks around? Then you need to check out the M45 headphones that provide an all-encompassing almost immersive surrounding experience of crisp, clear audio sound! 🎧 AVOID THE HECTIC ATMOSPHERE AROUND WITH THIS NOISE ISOLATING HEADSET – With powerful internal precision noise reduction headphones and top wired circuitry, our headsets effectively eliminate up to 85% of background noise allowing you to listen undisturbed to songs, audiobooks or even talk on the phone. drift effortlessly into the magical land of music while traveling to school or aboard. 🎧 HIGH QUALITY HI-FI SOUND FOR AN UNPARALLED AUDITORY EXPERIENCE - Stereo wired set premium 40mm diameter driver units ensure a high-quality auditory experience encompassing a rich symmetry of bass as well as a powerful, balanced sound to listen to videos or music in enjoyment. Powerful 50-1600Hz frequency to adjust sound perfectly. 🎧 EXTRA PADDED FOR EXTENDED COMFORTABLE LISTENING - Superb lightweight over the ear dj stereophones and ultra sound earpads deliver a comfortable fatigue free listening experience for extended periods of time. Our listening devices comes with a premium microphone built in to let you listen to music HANDS FREE. 🎧 ADJUSTABLE AND EASILY FOLDABLE FOR STORAGE CONVENIENCE - Portable earphones provide a highly flexible storage solution. Simple and easy to use, our large 40mm speaker unit drivers combine with 1.5 m about 4.9 ft length cable can be folded and placed in a purse or briefcase compartment for easy travelling. The nylon is extra tough to prevent tearing and will last for countless jam sessions.</t>
-  </si>
-  <si>
-    <t>[Headphones on, World off] advanced noise reduction technology quells airplane cabin noise, city traffic or a busy office. A valuable noise cancelling headphone in protecting your ears from excessive noise. So you can focus more on what matters. The clean and crisp sound resolution will give you a lively music experience wherever you are. [Led Display] 7 Different color of led display, 24 hours of battery life when charged fully. [Unrivaled comfort, easy-carrying] with its adjustable headband and cloud-soft protein ear pads, The wireless headphones are lightweight and can be worn over long times. The practical folding design makes them a great travel companion. Hi-fi sound &amp; CAPTIVATING bass] 40mm large-aperture drivers deliver riveting sound and a thumping bass. It is designed for stereo headphones. Provide you a more pleasant music time. [Hd mic, hands-free calls] making calls has never been this personal and efficient. This modern design noise cancellation headphones support call efficiently and enhance better audibility and connection. These luxurious headphones have 5. 0 Bluetooth version in you the best hands-free call and exceptional experience. You can enjoy wireless or wired mode depend on your require.</t>
+    <t>Bluetooth 5. 0 technology:AIKELA TWS earbuds adopt the most advanced Bluetooth 5. 0 technology. Provide you 3D stereo sound.Earphones are easy to connect as they are available for a connection,no need any skills. 140 HOURS PLAYTIME:The wireless earbuds with 3500mAh charging case in total 140hours playtime.It can last 3-4hours playtime for a single charge.You can also use this ultra high capacity charging case as an alternative power bank for your iPhone XS XR X 8 7 plus, Samsung Galaxy, android phone, iPad and so on. One Step PairingThe wireless bluetooth earbuds are equipped with one-step pairing technology. Take the Left and the Right earbuds out of charging case,then earphones will pair with each other, then "X10 " automatically appear on your device. In a matter of seconds, you are in euphonic music world. Universal Compatibility: Compatible with iPhoneXs XR X 8 7 6 plus, ipod shuffle, ipod nano, Android, Samsung Galaxy, BlackBerry, HTC, iPad Pro, Bluetooth-enabled Cellphones tablets and all device with 4.2 bluetooth;Perfect for Sports, Workout, Running,Jogging,Gym Exercise, Audiobooks, Watching TV and so on. MULTI MODES &amp;WARRANTY - This In-Ear Wireless Earphones are designed with sensitive area on surface, you can freely switch songs, answer/reject a call, adjust volume and call Siri. Besides, the Magic earbuds have left/right ear separated design to support mono/stereo/modes. Every AIKELA product includes a 30 days money back &amp; 12-month warranty,any question,contact us freely.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BLAZE THE HOTTEST BEATS AS YOUR ROCK THESE HEADSETS IN STYLE - Want to listen to music on the way to school? Need a solid pair of quality earphones to relax on your train or bus ride while dropping the hottest tracks around? Then you need to check out the M45 headphones that provide an all-encompassing almost immersive surrounding experience of crisp, clear audio sound!  AVOID THE HECTIC ATMOSPHERE AROUND WITH THIS NOISE ISOLATING HEADSET – With powerful internal precision noise reduction headphones and top wired circuitry, our headsets effectively eliminate up to 85% of background noise allowing you to listen undisturbed to songs, audiobooks or even talk on the phone. drift effortlessly into the magical land of music while traveling to school or aboard.  HIGH QUALITY HI-FI SOUND FOR AN UNPARALLED AUDITORY EXPERIENCE - Stereo wired set premium 40mm diameter driver units ensure a high-quality auditory experience encompassing a rich symmetry of bass as well as a powerful, balanced sound to listen to videos or music in enjoyment. Powerful 50-1600Hz frequency to adjust sound perfectly.  EXTRA PADDED FOR EXTENDED COMFORTABLE LISTENING - Superb lightweight over the ear dj stereophones and ultra sound earpads deliver a comfortable fatigue free listening experience for extended periods of time. Our listening devices comes with a premium microphone built in to let you listen to music HANDS FREE.  ADJUSTABLE AND EASILY FOLDABLE FOR STORAGE CONVENIENCE - Portable earphones provide a highly flexible storage solution. Simple and easy to use, our large 40mm speaker unit drivers combine with 1.5 m about 4.9 ft length cable can be folded and placed in a purse or briefcase compartment for easy travelling. The nylon is extra tough to prevent tearing and will last for countless jam sessions.</t>
   </si>
   <si>
     <t>Unique Foldable Design: Foldable Design Provides Extra Flexibility, Portability, and Durability. Convenient to Carry in Your Bag for Daily Use and for Travel Retractable Earbuds: This Amazing Design Provides a Simple, Unique Approach to Cord Management. This Bluetooth Headphone Allows You to Leave Your Phone and Leave Your Hands Free but Not Miss Any Call Battery Life: Standby Time up to 300 Hours, Music Time up to 16 Hours and Talking Time 18 Hours. With Every about 3.5 Hours Charging, You Can Just Enjoy Your Wireless Sport/music Time Without Any Worry Vibration and Voice Prompt: When There's Coming Call, This Bluetooth Headset Will Remind You with Vibration. Will Never Miss Any Phone Call When You Are Doing Exercise or Even in a Noisy Place Bluetooth 5.0 and Fast Connection: Pairing Is Just Easy and Quick with a Simple Switch Button. Compatible with: Iphone Series, Ipad Series, Samsung Series, Android and Any Bluetooth Enabled Devices</t>
@@ -5747,7 +5741,7 @@
     <t>*(MAGNETIC SWITCH): The Magnetic switch allows you to power on &amp; off, and no need to connect your mobile phone again. Built-in magnets let you attach the two headphones together when not in-use, and wear like a necklace around your neck; a convenient way to carry it around when you don't need them. It supports connection to 2 devices at the same time and connects automatically. *(WORK-OUT &amp; ERGONOMIC FIT): Perfect workout headphones that are snug fit and secure so the earphones stay-put while running, biking or at the gym. We have improved the ear hooks to the proper size for snug fit. In addition, it comes with a pair of memory-foam ear tips(adapted to ear-canal to provide a perfect seal &amp; snug fit to help keep your earbuds in place) and a cord clip. Besides we added 2 EXTRA pairs of regular ear tips in different sizes for your custom fit. Suitable for normal ear size *(10 HOURS CONTINUOUS PLAYBACK AND ADVANCED BLUETOOTH): The rechargeable long battery life means you get 10 hours of continuous music or can relax with 240 hours of standby time when powered with a 5V external charger. The IOS display at the top of your iphone shows the amount of charge (battery) left on the earphones. Latest Bluetooth technology allows easy and fast pairing with smartphones, tablets, and other Bluetooth enabled devices. *(HIGH FIDELITY AUDIO &amp; NOISE CANCELLATION): The SOUND is out of this world! The Bluetooth headphones provide CD-like sound quality, enabling you to pick out finer details in instruments, VOCALS and BASS for a richer audio experience. CVC 6.0 Noise Cancelling Microphone reduces outside noises, enable clearer microphone sound. *(WHAT'S IN THE BOX): SoundBuds Slim, S/M/L Ear-Tips, S/M/L, Ear Hooks, FitClip/Shirt Clip, Micro USB Cable, Travel Pouch, welcome guide, and our worry-free and 30-day money back &amp; 12-month worry-free guarantee.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Premium wireless, over-ear headphones with Bang &amp; Olufsen signature sound Designed with clean lines, minimalist expression and a focus on the pure essentials Up to 19 hours of battery life with Bluetooth 4.2 High quality headphones made with leather, aluminum and steel. Sensitivity: 91 dB/mw @ 1kHz In the box: beoplay H4 headphones, Audio cable, USB cable and quick start guide</t>
+    <t xml:space="preserve"> Premium wireless, over-ear headphones with Bang &amp; Olufsen signature sound Designed with clean lines, minimalist expression and a focus on the pure essentials Up to 19 hours of battery life with Bluetooth 4.2 High quality headphones made with leather, aluminum and steel. Sensitivity: 91 dB/mw @ 1kHz In the box: beoplay H4 headphones, Audio cable, USB cable and quick start guide</t>
   </si>
   <si>
     <t>Connectivity Technology: Wired Frequency Response - 10-20,000 Hz and Impedance - 16 ohms</t>
@@ -5756,7 +5750,7 @@
     <t>Proprietary 40mm large-aperture drivers.You can enjoy the precise guitars,,crisp percussion,clear vocals and bass ,which will help you discover the best sound that brings out your music-including subtle details you have never noticed Equipped with professional ear pad made of protein and 90 swiveling ear cups.More durability,high-quality,skin texture, lightweight, Which make it comfortable for customers to wear the headphones for 24 hours.And pay attention that you'd better take off the headphone every 2-3 hrs to get your ears relaxed and comfortable Built-in microphone with high quality and powerful bluetooth function. - The customers can take calls under wired. And The over ear headphones also support volume control and switching up playlist.What's more,you can require quick and stable connection with your bluetooth devices or others via bluetooth adapter 30 hours playtime per charge at Bluetooth mode. A built-in 600mAh battery won't allow your headphones power off.So you can enjoy your world without noise for 30 hours.Don't need to worry the power shortage problem on the long travel 18-month warranty and quick response &amp; friendly customer service. We will try our best to provide you with quick response and friendly customer service, which will always serve for you and certainly satisfy you</t>
   </si>
   <si>
-    <t>✔【2 Pack Earbuds】2 Pack Earbuds with Microphone and volume control,stereo sound and deep bass, with clear calling for both sides ✔【HIGH QUALITY BUILT IN MICROPHONE】---Nice wired earbuds in ear headphones for crystal clear conversation,earphones with volume control &amp; Play, pause, next control,makes you hands free, crispy buttons wired earphones ear buds with microphone ✔【EXECELLENT SOUND BLOCKS OUT EXTERIOR NOISE】including 3 sets soft silicon ear tips at different sizes for your choice,so that you can enjoy perfect noise isolation function;the included cable clip can keep the earbuds headphones cable in place when in your sports or workout activities;Also you can keep the mic in suitable position for calling with the help from the cable clip; ✔【100% MONEY BACK GUARANTEE】---Earbuds Headphones have One year warranty period.We devote ourselves to provide the best customer service and bring the best shopping experience to every customer.If you are not satisfied with Wired earbuds.just contact us and we can offer a full refund.NO questions asked! ✔【WIDE COMPATIBILITY】---Earbuds headphones compatible with apple iPhone,iPod, iPad,MP3,Tablet,PC and Android devices etc.In-ear Earphones the sound is rich, well balanced, both upper and lower end crisp, and voice is smooth natural.XMGHTU Earbuds Ear Buds in Ear Headphones Wired Earphones ♫ Have This Earbuds You will Enjoy music wantonly ♫ Have This Earbuds Your driving will be more interesting ♫ Have This Earbuds You Exercise is more fun. ♫ Have This EarbudsYour exercise</t>
+    <t>✔2 Pack Earbuds2 Pack Earbuds with Microphone and volume control,stereo sound and deep bass, with clear calling for both sides ✔HIGH QUALITY BUILT IN MICROPHONE---Nice wired earbuds in ear headphones for crystal clear conversation,earphones with volume control &amp; Play, pause, next control,makes you hands free, crispy buttons wired earphones ear buds with microphone ✔EXECELLENT SOUND BLOCKS OUT EXTERIOR NOISEincluding 3 sets soft silicon ear tips at different sizes for your choice,so that you can enjoy perfect noise isolation function;the included cable clip can keep the earbuds headphones cable in place when in your sports or workout activities;Also you can keep the mic in suitable position for calling with the help from the cable clip; ✔100% MONEY BACK GUARANTEE---Earbuds Headphones have One year warranty period.We devote ourselves to provide the best customer service and bring the best shopping experience to every customer.If you are not satisfied with Wired earbuds.just contact us and we can offer a full refund.NO questions asked! ✔WIDE COMPATIBILITY---Earbuds headphones compatible with apple iPhone,iPod, iPad,MP3,Tablet,PC and Android devices etc.In-ear Earphones the sound is rich, well balanced, both upper and lower end crisp, and voice is smooth natural.XMGHTU Earbuds Ear Buds in Ear Headphones Wired Earphones  Have This Earbuds You will Enjoy music wantonly  Have This Earbuds Your driving will be more interesting  Have This Earbuds You Exercise is more fun.  Have This EarbudsYour exercise</t>
   </si>
   <si>
     <t>MINI AND UNIQUE DESIGN¡ª¡úIt is lightweight and small, very portable to put in wallet, bags, backpack, briefcase, schoolbag and easy to carry around. Just enjoy your time with your favorite headphones at anytime anywhere. L Shape Design¡ª¡úthe L shape design is quite convenient for you to play games, will not cause any distortion of the port SMART CHIPS AND HD SOUNDS¡ª¡úAluminum alloy shell design makes it more difficult to damage, and the smart ship design, no driver needed, it¡¯s just plug and play. NOTE: IT WILL NOT SUPPORT DATA TRANSFER SERVICE: If the product has any questions, feel free to contact us, it is the best choice To send gifts!</t>
@@ -5768,7 +5762,7 @@
     <t>Ideal for iPod, iPhone and iPad.Connectivity Technology: Wired Noise cancelling reduces surrounding distractions, letting music stand out. Stay Hear+ tips provide long lasting comfort plus stability. USB cable - 30.5 cm L Aware mode lets you hear what's around you when you need to, at the touch of a button; Charging time: 2 hours Exclusive TriPort technology and Active EQ help deliver lifelike, digital quality audio. Control module(inches):3.5 Height x 1.25 Width x 0.37 Depth QC20 headphones are specifically designed to work with selected Apple or selected Samsung and Android devices. An inline microphone and one touch answer/end button allow for seamless switching between your calls and music. Some phones may require you to hold the answer/end button for a few seconds to perform these functions Assembled Product Weight:1 Pounds</t>
   </si>
   <si>
-    <t>【Adopted QCC Chip 3020】 We use the most advanced TWS earphone chip QCC3020, in these wireless earbuds, which means better sound quality, super easy pairing and lower power consumption. 【Premium Stereo AptX Audio】Adopting the QCC aptX audio and CVC 8.0 Noise Cancellation technology, Otium bluetooth earbuds offer CD-like audio quality with powerful bass and crispy mid-highs. AptX audio offers lossless transmission between your device and the wireless earbuds. 【Up to 8 -10 Hours of Continuous Playtime】 With the most advanced QCC chips 3020 the wireless earbuds have lower power consumption to deliver 8-10 hours playtime on a single charge (Up to 48 Hours of Playtime the charging case). 【Comfy and Secure Fit】Adjustable, secure-fit ear hooks are designed for lightweight comfort and keeping the wireless earbuds in place when working out. 【One Step Pairing &amp; Smart Button Controls】The bluetooth headphones will be automatically switched on and paired with your device when you open the lid of the charging case. The control button on each earbud is multifunctional, such as play/pause music, answer/hang up a call, next/previous song, activate Siri.</t>
+    <t>Adopted QCC Chip 3020 We use the most advanced TWS earphone chip QCC3020, in these wireless earbuds, which means better sound quality, super easy pairing and lower power consumption. Premium Stereo AptX AudioAdopting the QCC aptX audio and CVC 8.0 Noise Cancellation technology, Otium bluetooth earbuds offer CD-like audio quality with powerful bass and crispy mid-highs. AptX audio offers lossless transmission between your device and the wireless earbuds. Up to 8 -10 Hours of Continuous Playtime With the most advanced QCC chips 3020 the wireless earbuds have lower power consumption to deliver 8-10 hours playtime on a single charge (Up to 48 Hours of Playtime the charging case). Comfy and Secure FitAdjustable, secure-fit ear hooks are designed for lightweight comfort and keeping the wireless earbuds in place when working out. One Step Pairing &amp; Smart Button ControlsThe bluetooth headphones will be automatically switched on and paired with your device when you open the lid of the charging case. The control button on each earbud is multifunctional, such as play/pause music, answer/hang up a call, next/previous song, activate Siri.</t>
   </si>
   <si>
     <t>[PREMIUM SOUND QUALITY FOR YOU] With strong stereo and bass driven sound,our headphones provides Powerful bass enhanced sound.These in-ear headphones provide the excellent sound input&amp; output quality. [HD HIGH FIDELITY SOUND]Lightweight stereo earphones with high quality drivers, deliver clear and crisp sound and super enhanced bass, provide good sound quality for music and phone calls. [UNIVERSAL COMPTIBILITY 3.5mm INTERFACE] Fashionable CD texture makes the headphones’ shells more stylish and nice-looking.The 3.5mm interface is good at universal compatibility. [EASY TO USE WITH HUMANIZED DESIGN]The earbuds with magnetic attraction ,easy to store when not in use.Built-in microphone, convenient hands-free calling, answer, reject and end calls directly with the earphones. [BEST CHOICE WITH BEST CUSTOMER SERVICE]Three-months return warranty and whole lifelong friendly customer service are in our store.It is our honor to be here with you.</t>
@@ -5789,13 +5783,13 @@
     <t>One-step Instant Pairing:1st time: Take out two earbuds simultaneously from the charging case and click "i7" in your phone Bluetooth device list to pair them together. 2nd time: Take out two earbuds simultaneously from the charging case and pairing between earbuds and your phone will be finished automatically. Large Capacity Charging Case: Enough power to charge two earbuds 18 times. It can also charge your cellphone via the included OTG adapter. Perfect to long trips or camping. Bluetooth 5.0 Chip: With the built-in Bluetooth 5.0 chip, the earbuds can connect with your device stably from a distance of 33 feet. You can talk on phone outside your office without taking your cellphone. Comfortable to Wear: Based on data of thousands of people’s ears, both earbuds are snug to wear with unique design and smooth surface. 3 pairs of ear adapters in different sizes are designed to help prevent earbuds from falling off. Suitable ear adapters will provide you the best fit and listening experience. Excellent Sound Quality: The Bluetooth 5.0 technology and advanced driver helps reduce sound loss and transmit crisp middle and treble and deep bass. You will immerse in the music world wearing them.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) BANG &amp; OLUFSEN SIGNATURE SOUND: Earset delivers exceptional sound quality mastered by B&amp;O's acclaimed engineers. Earbuds sit just inside the ear for an enjoyable balance of music and ambient sound. Frequency response - 20 - 20,000 Hz   and Impedance - 32 ohms</t>
+    <t xml:space="preserve"> BANG &amp; OLUFSEN SIGNATURE SOUND: Earset delivers exceptional sound quality mastered by B&amp;O's acclaimed engineers. Earbuds sit just inside the ear for an enjoyable balance of music and ambient sound. Frequency response - 20 - 20,000 Hz   and Impedance - 32 ohms</t>
   </si>
   <si>
     <t>Suitable for Adults &amp; Kids, Teens age 10+ Soft Over ear-pad for Kids (On ear-pad for Adults &amp; Teens), Comfortable for wearing Easy to Carry and Save Spaces, Adjustable Stretching 1.5 meter Cord and 3.5mm Standard Jack Ideal for use will all MP3, Phones, Tablets, Computers, DVD and CD players, and portable gaming systems</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【DON'T LET BLUETOOTH PUT YOU BEHIND】The biggest drag about using headphones to listen to your shows or music is the delay that often occurs with Bluetooth technology. Our latest headset features Apt Low Latency technology to reduce the delay to non-detectable levels and deliver your sound in perfect synchronization. Pair with an Avantree Bluetooth-enabled transmitter for your best listening experience. 【AUDIO LOVERS DREAMD】Featuring Bluetooth 5. 0 technology combined with high precision drivers, our headphones deliver superior Hi-Fi sound for all of your audio needs. Whether you are watching TV, playing games, listening to music or making a call, our built-in bass and clear treble allows you to tailor your listening experience. 【WIRELESS TO WIRED. . . EASILY】Our built to last battery delivers up to 18 hours of play time in wireless mode, but can easily be switched to a wired connection with the included 3. 5mm cable to prevent draining the battery. [Note: control buttons, built-in mic can't work in wired mode] 【ALL DAY COMFORTD】Built with you in mind, our headphones are ultra light, and feature an adjustable, foldable headband with super-soft protein earpads designed for all day comfort. Designed to travel with you, these headphones also come with a high-quality travel case. 【FOLDABLE DESIGN WITH A PORTABLE BAG &amp; GENTLE REMINDER】The foldable Headband is not only designed for saving your desk space but for carrying in the provided zippeared case. it is easy to put in the zippeared case for travel or storage when not in use.</t>
+    <t xml:space="preserve"> DON'T LET BLUETOOTH PUT YOU BEHINDThe biggest drag about using headphones to listen to your shows or music is the delay that often occurs with Bluetooth technology. Our latest headset features Apt Low Latency technology to reduce the delay to non-detectable levels and deliver your sound in perfect synchronization. Pair with an Avantree Bluetooth-enabled transmitter for your best listening experience. AUDIO LOVERS DREAMDFeaturing Bluetooth 5. 0 technology combined with high precision drivers, our headphones deliver superior Hi-Fi sound for all of your audio needs. Whether you are watching TV, playing games, listening to music or making a call, our built-in bass and clear treble allows you to tailor your listening experience. WIRELESS TO WIRED. . . EASILYOur built to last battery delivers up to 18 hours of play time in wireless mode, but can easily be switched to a wired connection with the included 3. 5mm cable to prevent draining the battery. [Note: control buttons, built-in mic can't work in wired mode] ALL DAY COMFORTDBuilt with you in mind, our headphones are ultra light, and feature an adjustable, foldable headband with super-soft protein earpads designed for all day comfort. Designed to travel with you, these headphones also come with a high-quality travel case. FOLDABLE DESIGN WITH A PORTABLE BAG &amp; GENTLE REMINDERThe foldable Headband is not only designed for saving your desk space but for carrying in the provided zippeared case. it is easy to put in the zippeared case for travel or storage when not in use.</t>
   </si>
   <si>
     <t>.Ajustable Headband: the ajustable headband can let you get a perfect fit for your head shape.with the soft cushion protein earmuff,it is not only let you feel very comfortable,but also let you minimize tiredness, Lightweight Design:a lightweight design fot kids age3 and up.it is pretty light but sturdy and comfortable on the ears. it stay put and block outside noise. Foldable Design: foldable design for a more compact storage,it is convenient to carry,you can easily put it in the suitcase and bag. Durable and Tangle-Free:the cord is nylon braided ,with 4.2 feet lenght, it is very durable and tangle-free,design for kids ,children ,girl ,boys, tolddlers and school. Wide Compatibility &amp; Supporting:it is compatible with all smartphons and tablets with 3.5mm jack devices. 12-month Hassle-Free-Protection ,it is very easy to reach customer svervice Note that:please note that there is no microphone,remote or volume control on these headphones.</t>
@@ -5822,7 +5816,7 @@
     <t>SENSATIONAL ULTRA-HD SOUND EXPERIENCE - High-fidelity sound, deep bass, instant pairing and unbreakable connection due to Bluetooth 5.0 THE NEXT LEVEL OF SILENCE - The E3 noise cancelation headphones have the Patented Multi-Function Noise Cancelation for a perfect listening experience MULTIPLIED BATTERY POWER + TOTAL COMFORT - The E3 last for 50H on one charge and give 10H from a 5-min charge + ultra soft earpads &amp; premium materials DON'T MISS AN IMPORTANT PHONE CALL - The E3 come with a built-in HD microphone &amp; allow voice assistants enabling: Siri, Google Assistant, Bixby, Alexa GREAT BONUSES - Type-C adapter, 100% money back guarantee, 1 Year warranty. Manufacturer saves the right for upgrades, packaging &amp; accessories change</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bluetooth V5. 0 with wireless earbuds： compared with the previous Bluetooth V4. 2 wireless earbuds, so here you are getting 2x faster transmission speed + more stable connectivity with no signal loss or music dropouts. The range is up to 50ft away. Never worry about any cut off during listening and controlling. We are making music playback and conversations smoother and clearer than ever. Make your lifestyle cool with Bluetooth 5. 0 earbuds. One-step paring technology： open the box, you can seamlessly pair this device to your Bluetooth devices automatically without any problem. You don’t need any skills to use Bluetooth earbuds. In a couple of seconds, you will be in your euphonic music world. Type-c quick charge： Type-C USB 3. 1 connector transfer speed is up to 10 gbps and charge fully in 90 minutes Moreover, Type C offers a more stable and safer way to charge. This design also increases Bluetooth earbuds’ battery life dramatically. Impressive 40H playtime: compact and lightweight magnetic charging case exclusively for you to carry wireless earbuds around. Bluetooth V5. 0 massively reduce the level of power consumption, so you can get 6 hours of playtime (at 75% volume, multiple units tested with iPhone). 34 hours with the charging box and realistic music for several days. Breathtaking music quality： The unique stereo sound quality and design gives you the perfect sound, and you can feel the more realistic music. Crystal clarity and Deep, resonant bass with delicately tuned sound signature deliver immersive sound and put you on the stage center. Also combined its CVC 8. 0 noise reduction functionality, you’ll experience a whole new world of crystal-clear phone calls.</t>
+    <t xml:space="preserve"> Bluetooth V5. 0 with wireless earbuds： compared with the previous Bluetooth V4. 2 wireless earbuds, so here you are getting 2x faster transmission speed + more stable connectivity with no signal loss or music dropouts. The range is up to 50ft away. Never worry about any cut off during listening and controlling. We are making music playback and conversations smoother and clearer than ever. Make your lifestyle cool with Bluetooth 5. 0 earbuds. One-step paring technology： open the box, you can seamlessly pair this device to your Bluetooth devices automatically without any problem. You don’t need any skills to use Bluetooth earbuds. In a couple of seconds, you will be in your euphonic music world. Type-c quick charge： Type-C USB 3. 1 connector transfer speed is up to 10 gbps and charge fully in 90 minutes Moreover, Type C offers a more stable and safer way to charge. This design also increases Bluetooth earbuds’ battery life dramatically. Impressive 40H playtime: compact and lightweight magnetic charging case exclusively for you to carry wireless earbuds around. Bluetooth V5. 0 massively reduce the level of power consumption, so you can get 6 hours of playtime (at 75% volume, multiple units tested with iPhone). 34 hours with the charging box and realistic music for several days. Breathtaking music quality： The unique stereo sound quality and design gives you the perfect sound, and you can feel the more realistic music. Crystal clarity and Deep, resonant bass with delicately tuned sound signature deliver immersive sound and put you on the stage center. Also combined its CVC 8. 0 noise reduction functionality, you’ll experience a whole new world of crystal-clear phone calls.</t>
   </si>
   <si>
     <t>PREMIUM METAL HOUSING OF IPHONE MATCHING COLOR, Which Looks Fashion and Elegant in Ears - The metallic shine of aluminum alloy and sandblasted textured surface makes these in ear headphones feel much more elegant than those made of plastic. Wired metal earbud headphones are color matching with apple iphone, which look stylish in your ears.If you are looking for high quality buds headphones of premium feel with a reasonable price. This's a great option to complement your outfit and accessories. GREAT SOUND QUALITY WITH DEEP BASS, Enjoy Music The Way It's Meant to Be Heard - These stereo metal headphones earbuds generate excellent tune quality. Clear mids, strong bass and adequate highs without distortion. You can hear every details clearly when listening to music, audio book and watching movies. Good noise isolating feature and loud sound allows you to hear the other party clearly on the phone call even in noisy environment. SOLID BUILT BUT LIGHTWEIGHT, PORTABLE WITH CARRYING CASE - The aluminum alloy housing of these wired earbud headphones guarantee extreme durability. You don't have to worry about ear buds getting apart in bags when put together with other accesories. These durable buds headphones are lightweight, ideal for listening during exercise, walk, commute, travel or everyday use. These in ear headphones also come with a pocket size carrying case, which prevent ear buds from being scratched and squeezed. CONTROL PHONE CALLS, MUSIC TRACKS AT YOUR FINGERS and Have Hands-Free Conversation - In-line mic and remote control are bulit in these ear phones. No need to take out your phone from pocket any more. Free your hands and keep on doing home work or jobs, while talking on the phone at the same time. The answer/hang up phone call and music track control feature can work with iPhone, iPod, iPad, Smartphone, laptop, computer, mp3, tablet etc. Great earphones for skype and online video chats. 100% SATISFACTION &amp; MONEY BACK GUARANTEE - If our wired metal earbuds with microphone are not everything that we say they are or you're not completely satisfied with them for 30 days, we will refund every penny of your money without question asked. If there are any quality issues, we will offer you a toal refund or replacment without cost. There's ABSOLUTELY NO RISK for you.</t>
@@ -5849,40 +5843,37 @@
     <t>Ultra comfort sport design (with polished smooth surfaces) Vertical in ear headband: Best stay in place design for running and sports Lets in some air and sound for ear breathability and personal saftey: 1 yr seller warranty Ultra lightweight extended wear comfort for gaming and active sports Sonxtronic extra high performance magnetic drivers deliver great sound</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) True HD high Fidelity sound featuring latest Bluetooth 4.1 CSR technology and state of the art acoustic components that produce incredible sound quality with deep bass and crystal clear treble. Comfortable and secure fit with IPX-7 waterproof rating - activbuds feature ergonomically designed flexible ear hooks with gel Flex silicone earbuds to ensure your headphones stay comfortably firm in place to guarantee fatigue free ears and tangle free comfort. Longest battery life - the new and improved Lithium polymer battery allows seamless enjoyment of music for up to 8 hours and 240 hours stand-by with a quick charge of only 1.5 hours. Bluetooth V4.1 wireless technology with CVC 6.0 noise suppression technology - connect seamlessly with all Bluetooth enabled devices up to 30 feet away. With noise suppression technology focus on your favorite music and answer calls without skips or missed words. 1 year warranty and bonus items - bonus accessories with 1-year Manufacturer's warranty and 30 days no-questions-asked return policy. Value for money guaranteed, buy the Senso activebuds worry free today.</t>
-  </si>
-  <si>
-    <t>Active Noise Cancellation Technology（ANC). Professional advanced noise cancellation technology,effectively cancel 85% machine noise such as airplane/bus/factory/office noise, etc.(pls kindly note:it's not 100% noise cancellation,but it will quell much background noise.)so you can focus on what are you doing.ANC function works well in both wired and wireless mode.NC25 noise cancelling headphones would be the best model in the same level of price. Sound Quality.High-end 40mm stereo drivers provide immersive Hi-Fi Deep Bass.Noise-rejecting built-in dual-microphones system for Hands-Free call,clear sound and voice pick-up.Advanced bluetooth CSR to make and receive calls with quick and stable Bluetooth connections.Well compatible with iPhone,iPad,Android,Mac,etc. Unique Foldable Lightweight Design.The professional protein ear-pads and 115° swiveling ear-cups with superb LIGHTWEIGHT only 0.4 lb and the durable foldable design for carrying and traveling. Long Hours Playtime.16-hrs music time talking time per charging and 3.5mm stereo audio cable provided.Audio cable can be used when low battery. Ultimate Fit &amp; Comfort - Exclusive Designs of Air Pressure Balance.Multi-level adjustable headband to get the best suitable size for you.To reduce sound wave pressure of active noise reduction,to feel much more comfortable to wear than all other brands.</t>
-  </si>
-  <si>
-    <t>【Up to 50 Hrs &amp; Quick Charge】: WorWoder Bluetooth headphones over ear provide 50 hours of continuous music/talking time.Come with 3.5mm audio cable, when the battery runs out of power. WorWoder wireless headphones can be used as a wired one so the headphones will never power off.A short 10-min charge supports 5 hours of playtime. 【Comfortable Ergonomic Design】：The Memory-protein ear cushion that simulate human skin texture, ensures lasting comfort and provides excellent durability.The stainless steel slider and softly padded headband allow you to get the most comfortable enjoyment without constraint. 【Seamless Bluetooth Connection V5.0】:WorWoder W-915 wireless Bluetooth headphones are compatible with most Bluetooth devices. Quickly and stable connecting with your smartphones, MP3, iPad, PC, TV and so on.WorWoder W-915 over-ear stereo headphones offer you better overall user experience. (Note: Connecting TV needs Bluetooth transmitter which is not included) 【Build-in Microphone and Control】: A microphone is built into the headset which let you enjoy a completely hands free listening experience in high definition calls. Control your Music or answer/end phone calls right from your headset by build-in controls.The microphone can be used in wired mode too which we offer a HD mic cable. 【Hi-Fi Stereo Sound &amp; Lifetime Warranty】: WorWoder professional 40mm drivers offer you incredible listening clarity.we provide Lifetime Warranty &amp; worry-free money back. Lifetime warranty providing you with 100% Satisfaction. For information about WorWoder W-915 Bluetooth headphones over ear, please contact customer service directly, We will reply to your email within 24 hours.</t>
-  </si>
-  <si>
-    <t>【Super Easy Pairing and Charging】Open the Lid of the Charging Case, the Twins Bluetooth Headphones are Paired with Each Other Automatically, Get rid of the Complicated Pairing Problem; Turn off and Charged when They are Put into the Charging Case. 【Unique Charging Slot Design】Avoid the Problem a Large Number of Bluetooth Headphones are not Charged, Our Wireless Earbuds’ Unique Ear Slot Design Allows the Earbuds to Fully Contact with the Charging Case, So that You No Longer have to Worry about the Charging Problem of the Bluetooth Earbuds and Enjoy it Better. 【Superior Stereo Sound Quality and HD Binaural Call】Adopting Bluetooth 5.0 HD Technology that Produces Incredible Sound Quality with Deep Bass and Crystal Crisp Treble. Built in High Quality Noise Reduction Technology Chip, Can Block out lots of Surrounding Noises During Running, Sports, Jogging, etc. HD Binaural Call Can Hear Your Friend or Family Much More Clearly. 【Completely in Ear Ergonomics Design】Equipped with 3 Unique Ergonomic Ear hooks, the Bluetooth Earbuds are more Comfortable and Stable for your ears, and will not Fall from your Ear When Running. 【Voice Activate】Long Press Any Earbud 2 Secs, You Can Activate the Voice (Like Siri), Then You can Call Anyone, Which is Much More Convenient.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) IMMERSIVE SOUND &amp; CARING FOR YOUR KIDS - Adopted the most advanced auditory system for different listening purposes. iClever kids headphones are engineered with a built-in, volume-limiting circuitry that caps the sound automatically at 94dB. Not only it permits harmful noise exposure and minimize the risk of damaging children's hearing, but also gives parents a piece of mind, not having to constantly monitor the volume PILLOW-SOFT &amp; ADJUSTABLE HEADBAND - The stainless steel slider headband is covered with thicken foam, which express pillow-soft and burden-free feeling after lengthy listening sessions. It is deliberately tough and durable: no amount of grabbing, squishing and bending is going to damage it. Adjustable headband meets the requirement of all head sizes. What's more, the memory-protein cushioned earmuffs also help you minimize tiredness UNTANGLED WIRES &amp; FOLDABILITY - Made of premium nylon fabric, the audio cable is sturdy enough to withstand certain extent of pulling, dragging and rubbing. Another bright spot is that it won't knot in a mess. Let alone wasting time in untangling headachy wires. Foldable design facilitates a lot in some way. Convenient in carrying and storage. Just drag it into your bag and take it out for different sound options when you feel boring KIDS WELFARE - iClever headphones for kids are available in a stylish and kid-friendly vibrant blue, which will catch the fancy of children of different ages at their first sight. It only weighs 6.1 ounces, so it is a lightweight design for kids aged 3 and up, and won't become their burden. The wonderful sound is matched by standout comfort. Plus, iClever kids headphone is an ideal companion for sound occasions WIDE COMPATIABILITY: It is compatible with all the smartphones with 3.5mm aux, like iPhone, Android, laptops and so on. If your headset breaks or is damaged for any reasons, we will give the most satisfying reply. Please feel free to reach our customer service.</t>
+    <t xml:space="preserve"> True HD high Fidelity sound featuring latest Bluetooth 4.1 CSR technology and state of the art acoustic components that produce incredible sound quality with deep bass and crystal clear treble. Comfortable and secure fit with IPX-7 waterproof rating - activbuds feature ergonomically designed flexible ear hooks with gel Flex silicone earbuds to ensure your headphones stay comfortably firm in place to guarantee fatigue free ears and tangle free comfort. Longest battery life - the new and improved Lithium polymer battery allows seamless enjoyment of music for up to 8 hours and 240 hours stand-by with a quick charge of only 1.5 hours. Bluetooth V4.1 wireless technology with CVC 6.0 noise suppression technology - connect seamlessly with all Bluetooth enabled devices up to 30 feet away. With noise suppression technology focus on your favorite music and answer calls without skips or missed words. 1 year warranty and bonus items - bonus accessories with 1-year Manufacturer's warranty and 30 days no-questions-asked return policy. Value for money guaranteed, buy the Senso activebuds worry free today.</t>
+  </si>
+  <si>
+    <t>Up to 50 Hrs &amp; Quick Charge: WorWoder Bluetooth headphones over ear provide 50 hours of continuous music/talking time.Come with 3.5mm audio cable, when the battery runs out of power. WorWoder wireless headphones can be used as a wired one so the headphones will never power off.A short 10-min charge supports 5 hours of playtime. Comfortable Ergonomic Design：The Memory-protein ear cushion that simulate human skin texture, ensures lasting comfort and provides excellent durability.The stainless steel slider and softly padded headband allow you to get the most comfortable enjoyment without constraint. Seamless Bluetooth Connection V5.0:WorWoder W-915 wireless Bluetooth headphones are compatible with most Bluetooth devices. Quickly and stable connecting with your smartphones, MP3, iPad, PC, TV and so on.WorWoder W-915 over-ear stereo headphones offer you better overall user experience. (Note: Connecting TV needs Bluetooth transmitter which is not included) Build-in Microphone and Control: A microphone is built into the headset which let you enjoy a completely hands free listening experience in high definition calls. Control your Music or answer/end phone calls right from your headset by build-in controls.The microphone can be used in wired mode too which we offer a HD mic cable. Hi-Fi Stereo Sound &amp; Lifetime Warranty: WorWoder professional 40mm drivers offer you incredible listening clarity.we provide Lifetime Warranty &amp; worry-free money back. Lifetime warranty providing you with 100% Satisfaction. For information about WorWoder W-915 Bluetooth headphones over ear, please contact customer service directly, We will reply to your email within 24 hours.</t>
+  </si>
+  <si>
+    <t>Super Easy Pairing and ChargingOpen the Lid of the Charging Case, the Twins Bluetooth Headphones are Paired with Each Other Automatically, Get rid of the Complicated Pairing Problem; Turn off and Charged when They are Put into the Charging Case. Unique Charging Slot DesignAvoid the Problem a Large Number of Bluetooth Headphones are not Charged, Our Wireless Earbuds’ Unique Ear Slot Design Allows the Earbuds to Fully Contact with the Charging Case, So that You No Longer have to Worry about the Charging Problem of the Bluetooth Earbuds and Enjoy it Better. Superior Stereo Sound Quality and HD Binaural CallAdopting Bluetooth 5.0 HD Technology that Produces Incredible Sound Quality with Deep Bass and Crystal Crisp Treble. Built in High Quality Noise Reduction Technology Chip, Can Block out lots of Surrounding Noises During Running, Sports, Jogging, etc. HD Binaural Call Can Hear Your Friend or Family Much More Clearly. Completely in Ear Ergonomics DesignEquipped with 3 Unique Ergonomic Ear hooks, the Bluetooth Earbuds are more Comfortable and Stable for your ears, and will not Fall from your Ear When Running. Voice ActivateLong Press Any Earbud 2 Secs, You Can Activate the Voice (Like Siri), Then You can Call Anyone, Which is Much More Convenient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IMMERSIVE SOUND &amp; CARING FOR YOUR KIDS - Adopted the most advanced auditory system for different listening purposes. iClever kids headphones are engineered with a built-in, volume-limiting circuitry that caps the sound automatically at 94dB. Not only it permits harmful noise exposure and minimize the risk of damaging children's hearing, but also gives parents a piece of mind, not having to constantly monitor the volume PILLOW-SOFT &amp; ADJUSTABLE HEADBAND - The stainless steel slider headband is covered with thicken foam, which express pillow-soft and burden-free feeling after lengthy listening sessions. It is deliberately tough and durable: no amount of grabbing, squishing and bending is going to damage it. Adjustable headband meets the requirement of all head sizes. What's more, the memory-protein cushioned earmuffs also help you minimize tiredness UNTANGLED WIRES &amp; FOLDABILITY - Made of premium nylon fabric, the audio cable is sturdy enough to withstand certain extent of pulling, dragging and rubbing. Another bright spot is that it won't knot in a mess. Let alone wasting time in untangling headachy wires. Foldable design facilitates a lot in some way. Convenient in carrying and storage. Just drag it into your bag and take it out for different sound options when you feel boring KIDS WELFARE - iClever headphones for kids are available in a stylish and kid-friendly vibrant blue, which will catch the fancy of children of different ages at their first sight. It only weighs 6.1 ounces, so it is a lightweight design for kids aged 3 and up, and won't become their burden. The wonderful sound is matched by standout comfort. Plus, iClever kids headphone is an ideal companion for sound occasions WIDE COMPATIABILITY: It is compatible with all the smartphones with 3.5mm aux, like iPhone, Android, laptops and so on. If your headset breaks or is damaged for any reasons, we will give the most satisfying reply. Please feel free to reach our customer service.</t>
   </si>
   <si>
     <t>[Hi-fi stereo sound quality] – Offers a truly authentic sound and powerful bass performance with 8mm large size speaker driver – the drive area is 1. 77 times than the normal drive area. [One step pairing] – Pick up 2 headsets from charging box They will connect each other automatically, then only one step easily enter mobile phone setting to pair the earbuds. [waterproof] – Earbuds and charging case inner Nano-coating makes it possible to waterproof for 1 meters deep for 30 minutes. It is suitable for sports to prevent water. Ideal for sweating it out at the gym or singing in the rain. Even Wash the earbuds and base. [Charge on-the-go] – Earbuds can last for over 3. 5 hours' playtime from a single charge and 9 extra hours in the compact charging case. [100% Satisfied] – We provide 12 months money-back or free replacement,lifetime friendly customer support.We reply most buyer messages less than 12 hours.Buy with confidence.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 🎧 40 mm driver units of the on ear headphones deliver full, balanced sound for a complete listening experience from 20 - 22,000 Hz 🎧 Designed with padded headband, cushioned &amp; pressure-relieving ear pads that rest comfortably on your ears. Strong bass, comfortable on ear headphones with a great seal which minimize outside noise so you can hear the beats clearly 🎧 The perfect portable on ear headphones offer sleek style and an excellent on-the-go choice for keeping you in sync with sound that inspires. Please Note: This headphones do not support volume control, microphone function do not support PC 🎧 In-line microphone for hands-free phone calling. The durable, 1.5 m cable resists snags and tangles so you can get caught up in your music, not your cord. 1 wire headphones is less clutter than 2 wires headphones 🎧 12-Month Warranty (Money back or free replacement). Swivel ear cups, the on ear headphone can lay flat for compact storage. This fold-flat portable design makes the on ear headphones easy to take along or to store in your desk drawer for use at work</t>
-  </si>
-  <si>
-    <t>【Easy Pairing】ALWUP wireless earbuds are very easy to pair, just take it out from charging case and pair. You could use bluetooth ear buds together or separately, the operation is so simple. 【Truely Wireless and Hifi Stereo Sound】Truely wireless stereo featured earbuds with advanced bluetooth technology create super-accurate hi-fi sound with clear, rich details, and deep bass, ensure the premium sound quality, gives you perfect music enjoying. 【Wireless New Technology】ALWUP wireless earphones with bluetooth new technology features will be much lower power consumption, more stable signal transmission, clearer stereo surround sound production. Bluetooth working distance is up to 15m. ALWUP bluetooth headphones with microphone built-in are compatible with iphone, Samsung, Huawei, Xiaomi and all Andorid smartphones; iPad and all tablets; bluetooth transmitters and other bluetooth devices. 【Playtime and Lightweight】The wireless earbuds could be used for 4-7 hours of listening to music. The magnetic charging case could fully charge the bluetooth earbuds 2-3 times. The ergonomically designed earbud is only 0.14 ounce, you will just immerse in the music. 【Warranty of Wireless Earbuds】If you encounter any problem with our bluetooth ear phones, do not hesitate to contact us. Our team will do all our best to meet every customer's possible satisfaction. Every ALWUP wireless headphones in-ear includes a 45 days money back &amp; 12 months warranty.</t>
+    <t xml:space="preserve">  40 mm driver units of the on ear headphones deliver full, balanced sound for a complete listening experience from 20 - 22,000 Hz  Designed with padded headband, cushioned &amp; pressure-relieving ear pads that rest comfortably on your ears. Strong bass, comfortable on ear headphones with a great seal which minimize outside noise so you can hear the beats clearly  The perfect portable on ear headphones offer sleek style and an excellent on-the-go choice for keeping you in sync with sound that inspires. Please Note: This headphones do not support volume control, microphone function do not support PC  In-line microphone for hands-free phone calling. The durable, 1.5 m cable resists snags and tangles so you can get caught up in your music, not your cord. 1 wire headphones is less clutter than 2 wires headphones  12-Month Warranty (Money back or free replacement). Swivel ear cups, the on ear headphone can lay flat for compact storage. This fold-flat portable design makes the on ear headphones easy to take along or to store in your desk drawer for use at work</t>
+  </si>
+  <si>
+    <t>Easy PairingALWUP wireless earbuds are very easy to pair, just take it out from charging case and pair. You could use bluetooth ear buds together or separately, the operation is so simple. Truely Wireless and Hifi Stereo SoundTruely wireless stereo featured earbuds with advanced bluetooth technology create super-accurate hi-fi sound with clear, rich details, and deep bass, ensure the premium sound quality, gives you perfect music enjoying. Wireless New TechnologyALWUP wireless earphones with bluetooth new technology features will be much lower power consumption, more stable signal transmission, clearer stereo surround sound production. Bluetooth working distance is up to 15m. ALWUP bluetooth headphones with microphone built-in are compatible with iphone, Samsung, Huawei, Xiaomi and all Andorid smartphones; iPad and all tablets; bluetooth transmitters and other bluetooth devices. Playtime and LightweightThe wireless earbuds could be used for 4-7 hours of listening to music. The magnetic charging case could fully charge the bluetooth earbuds 2-3 times. The ergonomically designed earbud is only 0.14 ounce, you will just immerse in the music. Warranty of Wireless EarbudsIf you encounter any problem with our bluetooth ear phones, do not hesitate to contact us. Our team will do all our best to meet every customer's possible satisfaction. Every ALWUP wireless headphones in-ear includes a 45 days money back &amp; 12 months warranty.</t>
   </si>
   <si>
     <t>These sound isolating earbuds can block out 90% ambient noise. You can easily enjoy your music anytime anywhere with these noise isolating earbuds, even at noisy streets. They help stop disturbance from the outside when you are doing yoga, reading, thinking and relaxing. Patented ergonomic earpiece design and certified IPX6 Sweat-proof headphones provides long-term wearing comfort. Built-in microphone and multifunction control: Answer Calls | End Calls | Next Song | Previous Song | Play - Pause | Volume + - Earbuds for All Apple Devices, Androids Smartphone, Tablet Devices, MP3/MP4 Player, Portable Musics Player, Computer, Laptop etc. Cable Length: 52 inches, Plug: Φ3.5mm, Frequency: 20-20,000Hz, Sensitivity: 97dB±3dB, Impedance: 16Ω±15%.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Listen all day long with up to 35 hours of playback time Listen to your favorite tracks wirelessly with a Bluetooth wireless technology by pairing your smartphone or tablet 30mm driver unit for dynamic sound Swivel design for easy travel Easy hands-free calling and voice assistant commands with microphone Voice assistant-compatible for easy access to your smartphone Next-generation USB Type C chargingIn the box USB type-C CablePower Source Type: Ac &amp; BatteryShow more</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) NA Made in USA or Imported Connectivity Technology: Wired Behind the neck style Single sided cord which is suitable for outdoor usage Lightweight for comfort over long time listening High-quality soundGold-plated stereo mini-plug.3.9-Ft Cord,Color: BlackLightweight For Long-Time ListeningSingle-Sided Cord Suitable For Outdoor UsageShow more</t>
-  </si>
-  <si>
-    <t>【Comfy &amp; ErgoFit】Double-layer tip ergonomic design moulds to the ear cavity to maximize comfort and helps provide a secure fit to block the noise reduction effectively, which is specially designed for side sleepers so that you can enjoy a peaceful night's rest without pressure pain. 【Ultra Soft &amp; Lightweight】Made with soft silicone instead of plastic, making them super-comfy to wear as they don’t dig into your ear canal. Super lightweight, only weighs 10.5g(0.37oz/pair), which are incredibly light and non-obstructive so that you hardly feel them when wearing for sleeping. 【Durable &amp; Long Lasting】 The earbuds are built in bulletproof tough wire which is really sturdy and durable, you don’t need to worry that the earbuds will be broken although you toss and turn on the bed all over the night. The 125CM extra long thin wire won’t restrict your movement as well. 【Full In-line Control &amp; Wide Compatibility】Features a 3-button in-line remote, which lets you answer phone calls and play/pause/skip your music at your fingertips. With 3.5mm jack plug, fits any standard audio device, you can easily fall asleep to your favorite music, audiobooks, podcasts and soothing sounds. 【Convenient &amp; Portable】Hearprotek sleeping earphones are perfect for those that struggle with insomnia, sleep on their side, sleep with a snorer, or those that struggle to sleep on an airplane or hotel. Included a sturdy zippered case with carabiner, you can keep the earbuds safe in it on-the-go for your perfect travel companion.</t>
+    <t xml:space="preserve"> Listen all day long with up to 35 hours of playback time Listen to your favorite tracks wirelessly with a Bluetooth wireless technology by pairing your smartphone or tablet 30mm driver unit for dynamic sound Swivel design for easy travel Easy hands-free calling and voice assistant commands with microphone Voice assistant-compatible for easy access to your smartphone Next-generation USB Type C chargingIn the box USB type-C CablePower Source Type: Ac &amp; BatteryShow more</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NA Made in USA or Imported Connectivity Technology: Wired Behind the neck style Single sided cord which is suitable for outdoor usage Lightweight for comfort over long time listening High-quality soundGold-plated stereo mini-plug.3.9-Ft Cord,Color: BlackLightweight For Long-Time ListeningSingle-Sided Cord Suitable For Outdoor UsageShow more</t>
+  </si>
+  <si>
+    <t>Comfy &amp; ErgoFitDouble-layer tip ergonomic design moulds to the ear cavity to maximize comfort and helps provide a secure fit to block the noise reduction effectively, which is specially designed for side sleepers so that you can enjoy a peaceful night's rest without pressure pain. Ultra Soft &amp; LightweightMade with soft silicone instead of plastic, making them super-comfy to wear as they don’t dig into your ear canal. Super lightweight, only weighs 10.5g(0.37oz/pair), which are incredibly light and non-obstructive so that you hardly feel them when wearing for sleeping. Durable &amp; Long Lasting The earbuds are built in bulletproof tough wire which is really sturdy and durable, you don’t need to worry that the earbuds will be broken although you toss and turn on the bed all over the night. The 125CM extra long thin wire won’t restrict your movement as well. Full In-line Control &amp; Wide CompatibilityFeatures a 3-button in-line remote, which lets you answer phone calls and play/pause/skip your music at your fingertips. With 3.5mm jack plug, fits any standard audio device, you can easily fall asleep to your favorite music, audiobooks, podcasts and soothing sounds. Convenient &amp; PortableHearprotek sleeping earphones are perfect for those that struggle with insomnia, sleep on their side, sleep with a snorer, or those that struggle to sleep on an airplane or hotel. Included a sturdy zippered case with carabiner, you can keep the earbuds safe in it on-the-go for your perfect travel companion.</t>
   </si>
   <si>
     <t>UNIQUE STYLE AND PREMUM SOUND: Handcrafted from all-Natural Wood for the best acoustics possible, the NRG X reproduces the warmest of tones. These earphones produce a crisp, powerful, high-fidelity sound with strong deep bass. Studio-tuned audio with crystal clarity guaranteed. SECURE AND ERGONOMIC: The oblique angle to fit your ear canal and ergonomic ear tips ensure that these in-ear earbuds are 100% secure when jogging, biking, exercising or at your maximum performance. You’ll wear the NRG X like a second skin. Lightweight design ensures all day comfort and minimum movement, so the earbuds securely stay in your ear. USER-FRIENDLY! EASY TO USE: Deluxe features including volume control, pause/play capabilities, answer/end call function, Voice Control, and a smart inline microphone give you complete control over your listening experience, all while ensuring you never have to fumble around for your device. WHATS IN THE BOX: Accessories galore! Find the perfect customized fit for you with 18 additional ear tips (S/M/L), including dual flanged! Pin the cable to your clothing using the enclosed shirt clip so it doesn’t move around too much or get caught on anything! Finished with your headphones? Store them in our customized shell case which you can clip right on to your pocket or bag! COMPATABILITY: With luxury design and top-notch sound quality, Symphonized earbuds are compatible with the latest generations of your favorite devices: iPod, iPhone, iPad, Android, tablets, mp3 players and others with a standard 3.5mm audio jack</t>
@@ -5891,7 +5882,7 @@
     <t>High-performance wireless Bluetooth headphones in black Features the Apple W1 chip and Class 1 wireless Bluetooth connectivity With up to 40 hours of battery life, Beats Solo3 wireless is your perfect everyday headphone Compatible with iOS and Android devices With Fast Fuel, 5 minutes of charging gives you 3 hours of playback when battery is low Adjustable fit with comfort-cushioned ear cups made for everyday use Sleek, streamlined design that’s durable and foldable to go everywhere you doTake calls, control your music, and activate Siri with the multifunction on-ear controlsThe award-winning sound and design you’ve come to love from Beats, with premium playback with fine-tuned acoustics that maximize clarity, breadth, and balanceWhat’s in the Box: Beats Solo3 Wireless Headphones, Carrying Case, Universal USB charging cable (USB-A to USB Micro-B), Quick Start Guide, Warranty CardShow more</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) White headphones with comfortable in-ear design and 3.5mm gold-plated plug Built-in microphone with controller (answer or hang up calls; pause or skip tracks) Compatible with any device with a 3.5mm jack, including Android and IOS smartphones; devices without a 3.5mm jack, like the iPhone 7, 8, 10, and Pixel 2, require an adapter 3.9-foot cable can be threaded through clothing or bag; 20-20KHz frequency range; 94±3dB; 10mW max input Backed by an AmazonBasics limited 1-year warranty Upgraded internal circuit to address durability issues in the previous version</t>
+    <t xml:space="preserve"> White headphones with comfortable in-ear design and 3.5mm gold-plated plug Built-in microphone with controller (answer or hang up calls; pause or skip tracks) Compatible with any device with a 3.5mm jack, including Android and IOS smartphones; devices without a 3.5mm jack, like the iPhone 7, 8, 10, and Pixel 2, require an adapter 3.9-foot cable can be threaded through clothing or bag; 20-20KHz frequency range; 94±3dB; 10mW max input Backed by an AmazonBasics limited 1-year warranty Upgraded internal circuit to address durability issues in the previous version</t>
   </si>
   <si>
     <t>Increased Bass: Specifically designed to highlight the bass and tone of any track, the 10mm neodymium drivers of this headphone set guarantee premium sound quality. Regardless of volume, you’ll experience crystal clear audio at all times. Universal Compatibility; With a stylish design and high-end sound quality, these earbuds work with all MP3, iPod, iPhone, DVD and CD players, iPad Samsung Galaxy, Nokia, HTC and portable gaming systems with a standard 3.5mm plug.; Some devices may require earphone adapters ( earphone adapter not included) Premium sound and Great Value; Big brand quality rivalling much more expensive earphones. 24k Gold Plated 3.5mm jack for optimum performance. Powerful deep bass and balanced crisp mids and highs produce a superior audio performance and extremely accurate listening experience. Noise Isolating with Powerful Bass; The sound of these in-ear earphones is well balanced across the spectrum, the bass is deep, powerful and a delivers a clear sound. Ergonomically designed ear tips means ambient noise is also reduced. What is Included: Carry Case, various size silicon and memory foam earbuds, 1 year warranty for manufacturing defects, 30 days satisfaction guarantee.</t>
@@ -5903,7 +5894,7 @@
     <t>RICH SUPERIOR SOUND – FINALLY A PAIR OF 3D SURROUND SOUND HEADPHONES that let you crank up the volume, and hear every note, word and tune WITHOUT DISTORTION. With bumpin bass, optimized treble and innovative SCALING VOLUME technology these wireless ear buds are the ones to snag if you’re serious about your playing your games and music as LOUDLY as you’d like, without losing that premium music quality. PIN DROP CALL QUALITY – DUAL SPEAKERS: While most ear buds make you strain to hear out of just one ear, BluePhonic true wireless headphones UNWAVERING SIGNAL delivers a full crystal-clear call quality experience in both ears from 40 FEET AWAY. COMPATIBLE WITH SIRI, Samsung Galaxy Android, TV, laptop, smart watch, tablet and any Bluetooth device. 6+ DAYS OF SOLID SOUND – 3000mAh ON THE GO POWERBANK headphones charger juices up your ipod, android, iphone, and other small devices when it’s not providing your head phones with 5 additional hours of listening time, 33 times over. That’s 165 HOURS of recharge time, or 6.87 days if you’re a music loving math geek. INCREDIBLE COMFORT AS YOU MOVE – SWEATPROOF earbuds with mic gently mold into your ear then stay put so you can hit the gym, compete in that upcoming cycling race, or even listen to tunes as you tidy up the house – Won’t slide, slip, fall out or chafe, guaranteed. TRY RISK FREE – 30 DAY MONEY BACK GUARANTEE - FULL 1 YEAR WARRANTY: Feel like nothing else compares to the sound quality, stable connectivity and comfort these headphones deliver or expect an instant, no gimmicks, no hassle refund.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) CLASSIC COMFORT - Classic earbud design, comes with foam cushions BALANCED QUALITY SOUND - Large driver units produce Hi-Fi audio well-balanced for music, podcasts, and audiobooks NO EAR-CANAL IRRITATION - Excellent choice for people who are not comfortable with in-canal earphones ONE YEAR WARRANTY - Durable wire made from TPE material, 3.5mm gold-plated straight connector, 12 month USA warranty Available in black and white, also available a headset version for smartphones</t>
+    <t xml:space="preserve"> CLASSIC COMFORT - Classic earbud design, comes with foam cushions BALANCED QUALITY SOUND - Large driver units produce Hi-Fi audio well-balanced for music, podcasts, and audiobooks NO EAR-CANAL IRRITATION - Excellent choice for people who are not comfortable with in-canal earphones ONE YEAR WARRANTY - Durable wire made from TPE material, 3.5mm gold-plated straight connector, 12 month USA warranty Available in black and white, also available a headset version for smartphones</t>
   </si>
   <si>
     <t>The Difference in Mono Mode：95% true wireless earbuds in the market do not support both earbuds using independently and separately, Mpow M9 true wireless earbuds are the few. You can wear either one (left or right earbud) for mono mode when walking or driving on the road, commuting on the bus or subway. You can also wear both earbuds simultaneously to create true wireless stereo immersive sound when you are alone or want to block out surround noise. Punchy Bass, Richer Details：The excellence of Mpow M9 true wireless headphones exists in the advanced chip, the latest Bluetooth 5.0 wireless transmission technology, composite diaphragms, premium audio codec, and sound system toning operated by professional acoustic engineers, etc. Punchy bass livens your day up; richer details allow you to enjoy each detail in audiobooks. Touch Controls：Mpow M9 true wireless headset with sensitive touch buttons allows you to easily manage music and calls including playing, pausing, skipping tracks, adjusting volume, answering, ending or rejecting a call. You can also triple-touch either earbud to summon Siri or Google Assitant for voice commanding your cell phone without lifting one finger. Enjoy Music in All Weather Conditions：Featuring IPX7 waterproof rating, Mpow M9 true wireless earbuds are designed to be used in all weather conditions. This true wireless Bluetooth headphones with perfect waterproof structure and materials are durable enough to withstand daily water, sweat, rain and accident splashes. 200 Hours of Standby Time：Mpow M9 true wireless earbuds provide up to 5 hours of playback or talk time on one charge, 200 hours of standby time, extra 25 hours of listening time with 5 additional charges in the charging case. Earbuds absorb power automatically when they are put back into the charging case. It takes only 2 hours to charge the earbuds from 0% to 100%.</t>
@@ -5915,13 +5906,13 @@
     <t>CD-like Quality Sound: TaoTronics SoundLiberty 53 offers a truly natural, authentic sound and powerful bass performance with 6mm dynamic speakers and enhanced bass. 40H Playtime: Up to 5 hours playtime on one charge and a charging case holds multiple additional charges for up to 36 hours playtime. Mini size charging case for easy storing in the pocket. IPX7 Waterproof: High-level water-resistant makes it suitable for sports to prevent water and rain. Ideal for sweating it out at the gym or running outside. Single/Twin Mode for All Occasions: with built-in mic in each earbud, you can use a single earbud for working or use the pair to enjoy music alone or share with a loved one. Multifunction Touch Control: Answer and hang up calls or access other functions by tapping on the earbuds instead of picking up your phone when it’s a few feet away.</t>
   </si>
   <si>
-    <t>🎧DRIVERS produce clear highs and deep base all in a lightweight small package. 10mm dual magnet drivers produce great frequency range. The interchangeable ear cups are comfortable and fit most ears snuggly without falling out. 🎙️MICROPHONE is noise blocking with a teflon coating, making phone calls clear and understandable. Ambient noise blocking allows for usage in most conditions with background noise. 🔘MULTI FUNCTION button features one click smart operation. Enabling you to quickly and effortlessly operate without having to look at the controls. Great for people on the move. 💪BRAIDED CORD textured silicone is durable strong and will not fray, snag or tangle. Super long 45” Inch strong double crimping through-out for a longer overall lifespan. 💝QUALITY GUARANTEE If you are not pleased with your purchase for any reason, we will make it right until you are absolutely delighted with your purchase.</t>
-  </si>
-  <si>
-    <t>【Superior HD sound quality】: Your headphone has high-fidelity stereo sound quality with tuned driver, CSR chipset and Bluetooth 5.0; noise cancelling technology blocks out distractions, you can enjoy your music with nothing in the way 【Specialty and secure】:The bluetooth headphones fit with IPX-5 waterproof rating - feature ergonomically designed flexible ear hooks with gel Flex silicone earbuds to ensure your headphones stay comfortably firm in place to guarantee fatigue free ears and tangle free comfort. 【In-line Mic and Volume Control】: Your earbuds has a mute and volume control buttons, perfect for answering calls or listening. 【Practicality】: There is a simple clip, you can adjust the length to suit any situations you like. 10-meter working distance gives you strong signal. You can wear it when you are biking, running, driving and exercising. 【Quality Guarantee】: We focus on providing high quality products. If you have any questions or you are not satisfied with the item you receive, please contact us and we will provide you with satisfied service.</t>
-  </si>
-  <si>
-    <t>【Powerful Bass Sound】- 10mm Composite drivers deliver impressive audio with clear highs and powerful bass 【Durable Earbuds】- Adorer EM10 wired earbuds chooses aircraft grade aluminium for housings, CNC processing technology, compact light weight design make it the commuting or traveling enjoying music during your daily 【Reduces External Sound】 - In ear design combined with good ear tips will seal your music and stop outside noise; 3 Different sizes of ear plugs and provide you comfortable wearing to enjoy music freely 【In-line Remote】 - Built-in microphone and volume control makes you hand-free calling, switch song, adjust music's volume as you like at any time for iPhone iPad iPod Samsung Android Smartphones Tablet MP3 Player and more 3.5mm Device (Notice: iPhone7 to the latest iPhone - Please use headphone adapter.) 【Package Contents】 - Adorer EM10 Wired Earbuds, 3 sets of ear tips, user manual, travel pouch; We offer 12 months No-Worry warranty and 30 Days payment back guarantee, Please feel free to contact us order from Amazon or our support email box, we will get back to solve any issue for you within 24 hours</t>
+    <t>DRIVERS produce clear highs and deep base all in a lightweight small package. 10mm dual magnet drivers produce great frequency range. The interchangeable ear cups are comfortable and fit most ears snuggly without falling out. 🎙️MICROPHONE is noise blocking with a teflon coating, making phone calls clear and understandable. Ambient noise blocking allows for usage in most conditions with background noise. 🔘MULTI FUNCTION button features one click smart operation. Enabling you to quickly and effortlessly operate without having to look at the controls. Great for people on the move. 💪BRAIDED CORD textured silicone is durable strong and will not fray, snag or tangle. Super long 45” Inch strong double crimping through-out for a longer overall lifespan. 💝QUALITY GUARANTEE If you are not pleased with your purchase for any reason, we will make it right until you are absolutely delighted with your purchase.</t>
+  </si>
+  <si>
+    <t>Superior HD sound quality: Your headphone has high-fidelity stereo sound quality with tuned driver, CSR chipset and Bluetooth 5.0; noise cancelling technology blocks out distractions, you can enjoy your music with nothing in the way Specialty and secure:The bluetooth headphones fit with IPX-5 waterproof rating - feature ergonomically designed flexible ear hooks with gel Flex silicone earbuds to ensure your headphones stay comfortably firm in place to guarantee fatigue free ears and tangle free comfort. In-line Mic and Volume Control: Your earbuds has a mute and volume control buttons, perfect for answering calls or listening. Practicality: There is a simple clip, you can adjust the length to suit any situations you like. 10-meter working distance gives you strong signal. You can wear it when you are biking, running, driving and exercising. Quality Guarantee: We focus on providing high quality products. If you have any questions or you are not satisfied with the item you receive, please contact us and we will provide you with satisfied service.</t>
+  </si>
+  <si>
+    <t>Powerful Bass Sound- 10mm Composite drivers deliver impressive audio with clear highs and powerful bass Durable Earbuds- Adorer EM10 wired earbuds chooses aircraft grade aluminium for housings, CNC processing technology, compact light weight design make it the commuting or traveling enjoying music during your daily Reduces External Sound - In ear design combined with good ear tips will seal your music and stop outside noise; 3 Different sizes of ear plugs and provide you comfortable wearing to enjoy music freely In-line Remote - Built-in microphone and volume control makes you hand-free calling, switch song, adjust music's volume as you like at any time for iPhone iPad iPod Samsung Android Smartphones Tablet MP3 Player and more 3.5mm Device (Notice: iPhone7 to the latest iPhone - Please use headphone adapter.) Package Contents - Adorer EM10 Wired Earbuds, 3 sets of ear tips, user manual, travel pouch; We offer 12 months No-Worry warranty and 30 Days payment back guarantee, Please feel free to contact us order from Amazon or our support email box, we will get back to solve any issue for you within 24 hours</t>
   </si>
   <si>
     <t>[Dual Dynamic Drivers]:Uses magnetic strongest drive unit,equipped with high-performance dynamic driver systems,6.0mm*(Two Driver units) custom permanent magnet high-performance moving coil unit. [Comfortable to Wear]:Earplugs subvert traditional visual impression,the ultimate balance between classic Almighty. Exclusive tuning technology triband clear, natural, unique sensing technology to suppress high frequency glitches. [Amazing Sound and Noise Isolation]:Exclusive driver design pumps out the deepest bass soaring highs and ultra-clear midrange Soft silicone ear buds provide a super comfortable noise reducing fit. [Fashion and lightweight]:Fashion designed,Sweat-proof,effectively reduces tangles, much easier to carry and use.Lightweight design is ideal for listening during exercise travel or for everyday wear,Tonally balanced audio with crisp highs and deep low notes.Durable construction engineered and tested for the rigors of on-the-go listening. [Multi-functional Button]: Hands-free microphone,voice control and remote control allow you to easily answer calls,end calls,play music.</t>
@@ -5930,61 +5921,61 @@
     <t>Bluetooth 5.0 Wireless Earbuds: The wireless earphones adopt the most advanced Bluetooth 5. 0 technology, connection signal is more stable and the transmission is faster, you will no longer to worry about intermittent calls, signal loss or music dropouts. It works seamlessly with all Bluetooth enabled devices and instantly pair with your device in seconds, stereo audio quality provides clear and crisp audio. Wireless Bluetooth 5.0 Earbuds Headphones with Long-Lasting Battery: The bluetooth headphones’ charging case with built-in 300 mAh battery, just take about 1.5 hour to fully charge the battery, and could recharge the earbuds for 3 times. Wireless earbuds could be charged automatically once put in the charging case, 30 min charge time to enjoy 3-4 hours of continuous talk time or music time, and up to 20 hrs with charging case. Sensitive Touch Control Bluetooth Earphones: Smart touch control design of this wireless earbuds earphones supports a lot of functions such as play/pause music, answer/hang up call, the next song and activate Siri via tapping softly on the earbuds instead of picking up your phone, as well as could get quicker and more sensitive response, perfectly solved the uncomfortable feeling brought by traditional earphone pressing operation, bring you a better experience of music or calling. Wide Compatibility &amp; One Step Pairing: This wireless earbuds is compatible with iPhone11 Pro Max/iPhone11 / X MAX / XR / X / 8/7 / 6S / 6S Plus, Samsung Galaxy S10 / S10 PLUS / S9 / S9 PLUS / S7 / S6, LG G5 G4 G3,iPad, Tablet, etc. Once take out the earbuds from charging case and select k-88, it would be paired with your device, and will connect with the latest device automatically after first use. Earbuds will turn off and charge automatically after put back into the charging case. Comfort-Fit Wireless Bluetooth Earbuds: Ergonomic design make earbuds fit your ears snugly and keep stable for long time without worry about falling out. You could enjoy complete freedom of movement with music going as no traditional cord troubles any more. Ideal for gym, office, running, jogging, hiking, yoga,traveling etc.</t>
   </si>
   <si>
-    <t>【Ultra Stable &amp; Comfortable】After numerous tests and continuous improvement, we've finally designed the latest version of ear hooks that can completely fit your ears. With the skin-friendly material, these wireless earphones maximize comfort and stability at the same time. No more discomfort or pain even after prolonged use and no falling experience of earbuds! 【Perfect for Sports】The included ear hooks are specially designed, which can fully fit your ear contours and maximally guarantee a comfortable wearing experience without falling out. Made of IPX5 waterproof material, our Bluetooth earbuds help you fully focus on and enjoy your workouts. Due to the button operation system, you don't have to worry about misoperation like sudden pause by accidental touch caused by moving hands. 【35H Upgraded Ultra-long Play Time】Thanks to the Bluetooth 5.0 chip with lower power consumption, the Bluetooth headphones can offer 5 hours of continuous play time. In addition, the 600mAh charging case can charge the earphones 6 times, so the total play time can reach up to 35 hours. Just enjoy the music from morning till night! 【True Wireless Stereo Plus Technology】This latest wireless pairing technology helps you seamlessly and optionally switch between Stereo Mode and Mono Mode. With our wireless earphones, you don't have to reconnect them with your phone and click again to play music if you put one of the earbuds back into the case, bringing you the convenience that other headphones on the market can't provide. 【All is Under Control】We have perfected the operation system of the earbuds so that you can do daily operations through the headset itself. With the Multifunctional Button, you won't have to take out your phone to operate anymore. Besides, HolyHigh provides you with 30 days no-reason return and refund, lifetime technical support and fast reply within 24 hours. Please feel free to contact us if you have any questions.</t>
+    <t>Ultra Stable &amp; ComfortableAfter numerous tests and continuous improvement, we've finally designed the latest version of ear hooks that can completely fit your ears. With the skin-friendly material, these wireless earphones maximize comfort and stability at the same time. No more discomfort or pain even after prolonged use and no falling experience of earbuds! Perfect for SportsThe included ear hooks are specially designed, which can fully fit your ear contours and maximally guarantee a comfortable wearing experience without falling out. Made of IPX5 waterproof material, our Bluetooth earbuds help you fully focus on and enjoy your workouts. Due to the button operation system, you don't have to worry about misoperation like sudden pause by accidental touch caused by moving hands. 35H Upgraded Ultra-long Play TimeThanks to the Bluetooth 5.0 chip with lower power consumption, the Bluetooth headphones can offer 5 hours of continuous play time. In addition, the 600mAh charging case can charge the earphones 6 times, so the total play time can reach up to 35 hours. Just enjoy the music from morning till night! True Wireless Stereo Plus TechnologyThis latest wireless pairing technology helps you seamlessly and optionally switch between Stereo Mode and Mono Mode. With our wireless earphones, you don't have to reconnect them with your phone and click again to play music if you put one of the earbuds back into the case, bringing you the convenience that other headphones on the market can't provide. All is Under ControlWe have perfected the operation system of the earbuds so that you can do daily operations through the headset itself. With the Multifunctional Button, you won't have to take out your phone to operate anymore. Besides, HolyHigh provides you with 30 days no-reason return and refund, lifetime technical support and fast reply within 24 hours. Please feel free to contact us if you have any questions.</t>
   </si>
   <si>
     <t>Perfect sound quality-The USB Type c in ear headphones has a built-in high-quality chip and a Φ10mm driver, which reduces the loss of sound during transmission and ensures high-quality sound quality. There is also a fine-tuned acoustic effect that balances powerful bass, soaring treble and clear midrange. Comfortable wearing-The ear buds is designed in accordance with ergonomic principles. Even if you wear it for a long time, the soft silicone earplugs will not cause you any discomfort. An additional three pairs of earbuds (S / M / L) are supplied to accommodate different sizes of ear canals. Advanced noise reduction technology puts you in the music world. Convenient use-The three shortcut keys of earphones with microphone can adjust the volume, answer / end the call, switch songs and release your hands. High-quality materials-The metal-aluminum housing of the earbuds is characterized by light weight, high density and good sealing performance, which ensures clear sound quality and long-term use. The cable length of the headset is 3.9ft (1.2M), which can be placed in your pocket and backpack. Stereo headphones have been tested 15,000 times and are still working, they can meet all your needs in every occasion. Gifts: One pair of in ear headphones, three pairs of replacement earbuds (S / M / L), one clip, and our smiling customer service.</t>
   </si>
   <si>
-    <t>♫ 【2020 Latest LED Display Charging Case】 With the individual LED display on the case can help check the power of the wireless earbuds and charging case at any time. 3500 mAh battery brings you total 135H for using, can charge your iPhone 11 for about one time. ♫ 【TWS &amp; Bluetooth 5.0】 True Wireless Earbuds with the most advanced Bluetooth 5.0 technology. Higher stable Bluetooth connection with touch control, rid of cord, enjoy real wireless. Audio won't cut in and out anymore, your music world will no longer be disturbed. ♫ 【Hi-Fi Stereo Sound Quality】 The sound inside the Bluetooth headphones ensures that you won't miss any part or component of your music. Lossless HD sound quality with deep bass and crystal crisp treble, enjoy your music moment even in a loud environment. ♫ 【One-Step Pairing】 The 2 headsets would automatically connect to each other once you pick them out of the case, then Only one-step you click the "PowerPods" in your phone Bluetooth list to finish the connection between the wireless earbuds and phone within 5s. ♫ 【IPX7 Waterproof】 Thanks to the IPX7 Waterproof, enable you to enjoy sweat in the sun and baptism in the rain with these little Bluetooth earbuds. True wireless, true music, truly comfortable, truly free.</t>
+    <t xml:space="preserve"> 2020 Latest LED Display Charging Case With the individual LED display on the case can help check the power of the wireless earbuds and charging case at any time. 3500 mAh battery brings you total 135H for using, can charge your iPhone 11 for about one time.  TWS &amp; Bluetooth 5.0 True Wireless Earbuds with the most advanced Bluetooth 5.0 technology. Higher stable Bluetooth connection with touch control, rid of cord, enjoy real wireless. Audio won't cut in and out anymore, your music world will no longer be disturbed.  Hi-Fi Stereo Sound Quality The sound inside the Bluetooth headphones ensures that you won't miss any part or component of your music. Lossless HD sound quality with deep bass and crystal crisp treble, enjoy your music moment even in a loud environment.  One-Step Pairing The 2 headsets would automatically connect to each other once you pick them out of the case, then Only one-step you click the "PowerPods" in your phone Bluetooth list to finish the connection between the wireless earbuds and phone within 5s.  IPX7 Waterproof Thanks to the IPX7 Waterproof, enable you to enjoy sweat in the sun and baptism in the rain with these little Bluetooth earbuds. True wireless, true music, truly comfortable, truly free.</t>
   </si>
   <si>
     <t>NO PROGRAMMING NEEDED - Just put batteries in, sit in the rear seat, and you'll be good to go! (Make sure to sit in the rear seat as they will not work in the front seats). NOTE: Does not work with 2017 and newer Chrysler Pacifica. COMPTIBLE WITH YOUR CURRENT HEADPHONES - Will work with your original set of headphone and will not interfere with other headphone users. You can use as many wireless headphones in yoru car as you can fit people! AUTO OFF SWITCH - To perserve battery life, the wireless headphones will turn off automatically. Don't pay more for batteries than you have to! COMFORTABLE - Light weight and perfect for children to adults. Will not strain the head or squeeze the ears. Wear for hours in comfort and without complaint! Enjoy your road trips with convenient wireless entertainment! DUAL CHANNEL - Works if you have one or two DVD players in your car. The little "channel switch" on the side of the heapdhone allows the user to select which DVD player they want to listen to. Each rear seat occpant can listen to their own DVD. Less fighting in the back seat means road trip peace in the front seat.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Premium Audio: The B25 has a bass that goes deeper than deep and crisp clean trebles that hit higher than you would expect from a set of headphones at this price point; In fact, they outperform their price range with a premium listening experience Lightweight Design: With its attractive appearance, the B25 earphones are no less than charming; They are lightweight and provide long lasting comfort during a variety of activities; Strut in style and let the music flow anywhere you go Noise Isolation: The headphones eliminate outside noise to keep your music crystal clear; They also allow you to listen to your tracks at much lower and safer volumes; Also include various ear adaptor sets for excellent fit and ambient noise attenuation Heavy Bass: Beat Response Control technology delivers a tight, deep bass response, perfect for low end focused music. An acoustic port controls air flow for the low frequency range, optimising diaphragm movement for an accurate reproduction of bass Adaptable: Suitable for virtually all devices with a compatible headphone jack, these earphones are superbly versatile and able to be used with multiple Apple devices, Samsung smartphones, MP3 players and gaming devices.</t>
+    <t xml:space="preserve"> Premium Audio: The B25 has a bass that goes deeper than deep and crisp clean trebles that hit higher than you would expect from a set of headphones at this price point; In fact, they outperform their price range with a premium listening experience Lightweight Design: With its attractive appearance, the B25 earphones are no less than charming; They are lightweight and provide long lasting comfort during a variety of activities; Strut in style and let the music flow anywhere you go Noise Isolation: The headphones eliminate outside noise to keep your music crystal clear; They also allow you to listen to your tracks at much lower and safer volumes; Also include various ear adaptor sets for excellent fit and ambient noise attenuation Heavy Bass: Beat Response Control technology delivers a tight, deep bass response, perfect for low end focused music. An acoustic port controls air flow for the low frequency range, optimising diaphragm movement for an accurate reproduction of bass Adaptable: Suitable for virtually all devices with a compatible headphone jack, these earphones are superbly versatile and able to be used with multiple Apple devices, Samsung smartphones, MP3 players and gaming devices.</t>
   </si>
   <si>
     <t>[EXTRA LONG ENDURANCE] Available for up to 60 hours with an earphone that can be used for 5.5 hours continuously playing and the 1500mAh charging box, which can be fully charged within 3 hours, can charge the earphone about 10 times. Really meet your long time using. [GET RID OF MASTER-SLAVE RESTRICTIONS] LASUNEY Wireless Bluetooth Earphones have no master-slave restrictions, you are no longer have to wear a fixed earphone for Single Ear Mode and easily switch between Single Ear Mode and Binaural Mode. Meet your use requirements for different occasions. [BLUETOOTH 5.0 FOR EASY AND STABLE CONNECTION] LASUNEY Wireless Bluetooth Earphones adopt the most advanced Bluetooth 5.0 technology, supporting HSP, HFP, A2DP, AVRCP. You just need to pick up earphones from the charging box and connect to “Lasuney T30V” on your device. Then you can enjoy the stable connection which achieving 15 meters connected distance, faster transmission and less audio transmission loss. [ONE-CLICK MANIPULATION AND WATERPROOF] After connected, you can control your music and volume or accept and reject calls with just one button, really wireless. With waterproof technology, the earphones function well in intense sweat. You can enjoy your life without any worries. [HIGH FIDELITY SOUND AND COMFORTABLE WEARING] LASUNEY Bluetooth Earphones offer a truly natural and authentic sound performance. With ergonomic design and S, M, L, three size ear tips, own incredible comfort and seamless sound that sits effortlessly in your ears. Just choose the most suitable ear tips and immerse yourself in the music.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Lightweight in-ear earphones engineered for the most secure and comfortable fit.Connectivity Technology: Wired 10mm dynamic drivers deliver crisp and clear sound with deep, yet controlled bass Ergonomic earpiece design follows the natural shape of the ear to provide all-day comfort Compatible with iPhone, iPad, iPod, phones, tablets, computers, and other devices with a 3.5mm audio jack Includes 3 sizes of eartips; 1-year manufacturer warranty</t>
+    <t xml:space="preserve"> Lightweight in-ear earphones engineered for the most secure and comfortable fit.Connectivity Technology: Wired 10mm dynamic drivers deliver crisp and clear sound with deep, yet controlled bass Ergonomic earpiece design follows the natural shape of the ear to provide all-day comfort Compatible with iPhone, iPad, iPod, phones, tablets, computers, and other devices with a 3.5mm audio jack Includes 3 sizes of eartips; 1-year manufacturer warranty</t>
   </si>
   <si>
     <t>8 colors, 3.5mm jack</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) IMPRESSIVE SOUND QUALITY: Riwbox XBT-80 is a bluetooth headphone features with a 50mm large diameter aperture drivers and bulit-in high detail microphone. Wide frequency range reproduces precise deep base and high clarity sound. You can expect comfortable listening experience for both music playing or phone calls. BUILT TO STAY COMFORTABLE: The Memory-protein ear cushion simulate human skin texture, ensuring lasting comfort. The stainless steel slider and softly padded headband allows you to find the perfect fit without constraint and provide excellent durability. NEVER POWER OFF, BOTH WIRELESS &amp; WIRED: 1. The wireless mode: A built-in 420mAh battery provides up to 13-hr music time/15-hr talking time in a single charge; 2. The Wired mode: you can also use it as a wired headphone with the provided audio cable so the headphones will never power off. TAKE YOUR TUNES TO GO: Space-saving foldable design not only saves space but also makes it portable. Best choice to take it study, outwork, travel. Riwbox Bluetooth headphone XBT-80 fit the modern city lifestyle for everybody, no matter you are office worker or student, teenager or girls.Devices with all sorts of smart phones, tablets, computer or music player.</t>
-  </si>
-  <si>
-    <t>【IPX7 Waterproof】H02 Bluetooth earbuds support favorable waterproof effect which can endure safe in the heavy rain or sweat and The Bluetooth headphones inner Nona-coating makes it possible to waterproof for 1 meters deep for 30 minutes 【Free to Shift Single/Twin Mode】The truly wireless earbuds adopt faster one-step auto-pairing and stable connectivity, the wireless headphones can be switched freely on the right or left earbud, support working together to enjoy stereo sound, or using one earbud only for partiality or driving safety 【Charge on the go】With the individual LED display on the case can help check the power of the wireless earbuds and charging case at any time. H02 Bluetooth earbuds could last for 6H Playtime for a single charge and 85 extra hours in the compact charging case and Charging case even support wireless charging(Note: Wireless charger is not included) 【Clear &amp; HiFi Stereo Sound】The H02 wireless earphones adopting Bluetooth 5.0 and most advanced stereo technology, makes you feel personally on the scene of music and CVC6.0 noise reduction delivers the best possible stereo call quality with others 【Comfortable Wearing &amp; After-Sales Services】We offer S, M, L sizes ear tips, you can find your optimal fit. The wireless earbuds is lightweight and you will get no pain if wearing all day. We offer 45-day refund without giving a reason and 12-month replacement</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [Plug &amp; play] not a tech junkie? No problem! With our Bluetooth transmitter set, there is no need to worry about pairing. Simply turn on both the transmitter and Headphones and they will auto connect for the ultimate user friendly Audio experience. [Magical match] compatible with 99% of TV's on the market, Our HT4186 supports Optical/ AUX and RCA Audio output without extra wires to get in your way. [Works together. . . And apart] designed for the ultimate in versatility, our TV set can be used as a set or independently. Use the NB16 with your phone PC or other Bluetooth-enabled devices. Use TC418 to Bluetooth enable your headphones speakers etc. [No more delay] Featuring FastStream technology, this set allows you to reduce Bluetooth delay - delivering high quality sound in perfect synchronization. Ideal for watching TV and movies, HT4186 can also support 2 pairs of headphones simultaneously. [Long range &amp; Battery life] Featuring Bluetooth Class I technology, Audikast transmits audio signals up to 100ft/ 30M. Our headphones NB16 will last through several movies or gaming sessions with a battery life up to 20 hours.</t>
+    <t xml:space="preserve"> IMPRESSIVE SOUND QUALITY: Riwbox XBT-80 is a bluetooth headphone features with a 50mm large diameter aperture drivers and bulit-in high detail microphone. Wide frequency range reproduces precise deep base and high clarity sound. You can expect comfortable listening experience for both music playing or phone calls. BUILT TO STAY COMFORTABLE: The Memory-protein ear cushion simulate human skin texture, ensuring lasting comfort. The stainless steel slider and softly padded headband allows you to find the perfect fit without constraint and provide excellent durability. NEVER POWER OFF, BOTH WIRELESS &amp; WIRED: 1. The wireless mode: A built-in 420mAh battery provides up to 13-hr music time/15-hr talking time in a single charge; 2. The Wired mode: you can also use it as a wired headphone with the provided audio cable so the headphones will never power off. TAKE YOUR TUNES TO GO: Space-saving foldable design not only saves space but also makes it portable. Best choice to take it study, outwork, travel. Riwbox Bluetooth headphone XBT-80 fit the modern city lifestyle for everybody, no matter you are office worker or student, teenager or girls.Devices with all sorts of smart phones, tablets, computer or music player.</t>
+  </si>
+  <si>
+    <t>IPX7 WaterproofH02 Bluetooth earbuds support favorable waterproof effect which can endure safe in the heavy rain or sweat and The Bluetooth headphones inner Nona-coating makes it possible to waterproof for 1 meters deep for 30 minutes Free to Shift Single/Twin ModeThe truly wireless earbuds adopt faster one-step auto-pairing and stable connectivity, the wireless headphones can be switched freely on the right or left earbud, support working together to enjoy stereo sound, or using one earbud only for partiality or driving safety Charge on the goWith the individual LED display on the case can help check the power of the wireless earbuds and charging case at any time. H02 Bluetooth earbuds could last for 6H Playtime for a single charge and 85 extra hours in the compact charging case and Charging case even support wireless charging(Note: Wireless charger is not included) Clear &amp; HiFi Stereo SoundThe H02 wireless earphones adopting Bluetooth 5.0 and most advanced stereo technology, makes you feel personally on the scene of music and CVC6.0 noise reduction delivers the best possible stereo call quality with others Comfortable Wearing &amp; After-Sales ServicesWe offer S, M, L sizes ear tips, you can find your optimal fit. The wireless earbuds is lightweight and you will get no pain if wearing all day. We offer 45-day refund without giving a reason and 12-month replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Plug &amp; play] not a tech junkie? No problem! With our Bluetooth transmitter set, there is no need to worry about pairing. Simply turn on both the transmitter and Headphones and they will auto connect for the ultimate user friendly Audio experience. [Magical match] compatible with 99% of TV's on the market, Our HT4186 supports Optical/ AUX and RCA Audio output without extra wires to get in your way. [Works together. . . And apart] designed for the ultimate in versatility, our TV set can be used as a set or independently. Use the NB16 with your phone PC or other Bluetooth-enabled devices. Use TC418 to Bluetooth enable your headphones speakers etc. [No more delay] Featuring FastStream technology, this set allows you to reduce Bluetooth delay - delivering high quality sound in perfect synchronization. Ideal for watching TV and movies, HT4186 can also support 2 pairs of headphones simultaneously. [Long range &amp; Battery life] Featuring Bluetooth Class I technology, Audikast transmits audio signals up to 100ft/ 30M. Our headphones NB16 will last through several movies or gaming sessions with a battery life up to 20 hours.</t>
   </si>
   <si>
     <t>Soundcore is anker’s Audio brand, Our signature sound is loved by 10 million+ people around the world. Hi-Res Audio Certified: Custom oversized 40 mm dynamic drivers produce Hi-Res Audio—a certification only awarded to audio devices capable of producing exceptional sound. Life Q20 active noise cancelling headphones reproduce your music with extended high frequencies that reach up to 40 kHz for extraordinary clarity and detail. Reduce Ambient noises by up to 90%: Our Team of engineers conducted more than 100, 000 tests in real-life scenarios to fine-tune life q20's 4 built-in ANC microphones and digital active noise cancellation algorithm. As a result, the hybrid active noise cancellation can detect and cancel out A wider range of low and mid-frequency noises such as cars and airplane engines. 100% stronger bass: our exclusive BassUp technology conducts real-time analysis of the low frequencies to instantly strengthen the bass output. Double press the play button when listening to bass-heavy genres like EDM and hip-hop for an amplified listening experience. 40-Hour playtime: Up to 40 hours of non-stop playtime in wireless active noise cancellation mode (at 60% volume) is extended to an enormous 60 hours in standard music mode. A single charge gives you enough juice to listen to over 600 songs or soundtrack multiple long haul flights. And when you’re in a rush, charge life Q20 active noise cancelling headphones for 5 minutes and get 4 hours of listening. Universal Comfort: Memory foam earcups gently mold around your ears, while the headband’s rotating joints automatically adjust the angle of the earcups to fit the shape of your head. This ensures that Life Q20 active noise cancelling headphones deliver maximum comfort and a secure seal.</t>
   </si>
   <si>
-    <t>♫【 3 IN 1 Wireless Earbuds】The wireless earbuds playtime is up to 100 hours,it built-in 5000mAh battery charging case recharging the true wireless earbuds 50 times.The advanced charging case can provide Bluetooth headphones long-term battery life.As a power bank ,it can be used for charging devices wirelessly or attaching our Type C cable to support your Phone, tablet and more.You don't need to carry a lot of different devices and multiple cables any more,Just carry bluetooth earbuds to go out. ♫【Stereo Superior Music Quality】The wireless Earphones adopt the most advanced Bluetooth 5.0 technology. Fast and stable transmission with 3D Stereo Sound and Deep Bass,Bluetooth Headphones Noise Cancellation technology also reduces ambient noise and echo, Offers truly natural,authentic sound and powerful bass performance sound no matter in music or in calls time. ♫【Fast Auto Pairing】The Bluetooth headphones are equipped with one-step auto-pairing technology, just take the Wireless Earphones out of charging case and they will pair with each other. the next one step which is entering the mobile phone Bluetooth setting to pair the earbuds.Easy and sensitive operation,touch control,easy and convenient to operate. ♫【Humanized &amp; Compact Design】Wireless Bluetooth Earbuds with ear canal ergonomics for long wearing. They are more suitable for our ears, not easy to fall.The 5000 mAh battery capacity charging case can be used as a phone power bank.Take it then you can charge your wireless earbuds and smartphones on the go wherever and whenever you need it! ♫【Portable &amp; Convenient】The multi-function wireless earbuds only weight 5.1oz with pocket-size 4*2.4*0.9in.The wireless Bluetooth headphones power bank combination is Perfect for travel, running, biking, training, jogging, hiking, exercising. Attention: We take care of all quality-related issues with this Bluetooth Earbuds. Please feel free to contact us without any hesitation if you have problem or need any help.</t>
+    <t xml:space="preserve"> 3 IN 1 Wireless EarbudsThe wireless earbuds playtime is up to 100 hours,it built-in 5000mAh battery charging case recharging the true wireless earbuds 50 times.The advanced charging case can provide Bluetooth headphones long-term battery life.As a power bank ,it can be used for charging devices wirelessly or attaching our Type C cable to support your Phone, tablet and more.You don't need to carry a lot of different devices and multiple cables any more,Just carry bluetooth earbuds to go out. Stereo Superior Music QualityThe wireless Earphones adopt the most advanced Bluetooth 5.0 technology. Fast and stable transmission with 3D Stereo Sound and Deep Bass,Bluetooth Headphones Noise Cancellation technology also reduces ambient noise and echo, Offers truly natural,authentic sound and powerful bass performance sound no matter in music or in calls time. Fast Auto PairingThe Bluetooth headphones are equipped with one-step auto-pairing technology, just take the Wireless Earphones out of charging case and they will pair with each other. the next one step which is entering the mobile phone Bluetooth setting to pair the earbuds.Easy and sensitive operation,touch control,easy and convenient to operate. Humanized &amp; Compact DesignWireless Bluetooth Earbuds with ear canal ergonomics for long wearing. They are more suitable for our ears, not easy to fall.The 5000 mAh battery capacity charging case can be used as a phone power bank.Take it then you can charge your wireless earbuds and smartphones on the go wherever and whenever you need it! Portable &amp; ConvenientThe multi-function wireless earbuds only weight 5.1oz with pocket-size 4*2.4*0.9in.The wireless Bluetooth headphones power bank combination is Perfect for travel, running, biking, training, jogging, hiking, exercising. Attention: We take care of all quality-related issues with this Bluetooth Earbuds. Please feel free to contact us without any hesitation if you have problem or need any help.</t>
   </si>
   <si>
     <t>For Apple Devices Only</t>
   </si>
   <si>
-    <t>✔【DURABLE LONG LASTING LIFE EARPHONES】:This in ear headphones different from others,we focus on every small details during production to make sure long lasting life earbuds with microphone,we offer replacment for 1 year gurantee ✔【GREAT SOUND QUALITY &amp; COMFORTABLE WEARING】:In ear headphones earphones with super bass,decent clear sound,with 3 pairs different size earbuds with microphone, fits in ear comfortable and never fall out,a daily used running wired earphones ✔【HIGH QUALITY BUILT IN MICROPHONE】:Nice wired earbuds in ear headphones for crystal clear conversation,earphones with volume control &amp; Play, pause, next control,makes you hands free, crispy buttons wired earphones ear buds with microphone ✔【DESIGN FOR RUNNING WORKOUT &amp; TANGLE FREE WIRED】:Running earbuds with microphone with earhook design,earphones stay in ear never fall out when running,strong tangle free wired with 3.5mm jack wired earphones in ear headphones running ✔【LIFE TIME QUALITY WARRANTY IN EAR HEADPHONES】:Our wired earphones offer 30 days money back gurantee &amp; life time warranty,any questions pls contact us we will reply in 12 hours,best customer service earbuds with microphone</t>
-  </si>
-  <si>
-    <t>【High-performance Sound Quality】🎶The i phone 8 headphones is adopted the latest chip and 6-hole vocal system, supports digital input signals. Can maximize sound output and minimize sound loss, offers super dynamic, deep bass, high-resolution treble &amp; crisp and powerful sound. It has perfect stereo sound quality, enjoy complete listening comfort, give you the perfect sound experience. 【Plug &amp; Play &amp; Magnetic Design】 NEW generation i phone 7 earbuds allows you to listen music directly from your i Phone/i Pod/i Pad. You don't need an extra connector and no need to connct Bluetooth. ★Adopt magnetic design,the arbuds for i phone 8 can conveniently clasp together, not wound, not knotted, just hang around your neck,easy to take. 【Remote Control &amp;Mic】🎶Hands-free in-line microphone and remote control allows you to control music/video playback, adjust volume, wake up Siri and take calls. No need to take out your phone from pocket or arm band any more. 【Comfortable wear without pain】Are you still suffering from ear pain caused by wearing headphones for a long time? Now,you will not suffer pain with our i phone xr headphones.Adopt skin-friendly material and lightweight and comfortable.Ergonomically and ultra-lightweight in-ear designed USB C Headphones fit the ear perfectly without any pain even wearing all day long. 【 Lifetime warranty 】 Our heaphone customer service team will become your loyal friends if clients have any problems. ★30 Days FREE return &amp; replacement ★2-YEAR product warranty (If any quality problems after confirmation, a free one will be given) ★Contact us to get extra 3-YEARS guarantee ★Lifetime customer support.</t>
-  </si>
-  <si>
-    <t>【Bluetooth 5.0 Faster and More Stable Connection】 With the latest Bluetooth 5.0 + CSR 8645 chip. Latest Bluetooth 5.0 chip provides fast, stable and low-power connection. faster pairing, more stable wireless connection and wider compatibility with Bluetooth enabled cell phones, tablets, computers, TV,smart watches and smart speakers. 【Retractable Earbuds and Outstanding Battery Performance】The Auto retractable earbuds allows you to pull the retractable earbud wire to the length you want and press the retract button can store the earbuds wire automatically. Its powerful rechargeable 500mAh battery ,provides up to 36 hours of continuous music or phone conversation with.up to 480 hours standby time. 【Foldable and Ergonomic Neckband】Made of environmental ABS material.Foldable design enables you to take it anywhere in your pocket or in your bag. Around-the-Neck wearing design Ergonomic neckband design allow you to wear the headphones on your neck more comfortably and decrease the pressure of your ears. 【High-fidelity Stereo Sound Quality】With bass up technology and 10mm dynamic speaker system, provide more powerful bass and crisp treble. Perfect for different music styles and melodies.Tuned by professional audio engineers, you can experience high quality sound. 【Stereo Sound Quality&amp; CVC 6.0 Noise-Cancelling Mic】Call Vibration. The built-in CVC6.0 noise-cancelling microphone can reduce background noises so as to provide crystal-clear sound for hands-free calls. With bass up technology and 10mm dynamic speaker system, provide more powerful bass and crisp treble. Perfect for different music styles and melodies.</t>
-  </si>
-  <si>
-    <t>【High-Performance Sports Headphones】 HolyHigh BE1018 sports headphones are committed to being your indispensable sports partner, showing you the super performance: TwistLock technology, IPX7 waterproof, 26H battery life, incredible sound and smart connection. The earphones are not only your sports partner but also great helper for daily use. 【Excellent IPX7 Waterproof】 BE1018 wireless headphones adopt IPX7 waterproof technology, which protects headphones from damage by sweat &amp; rain and makes them suitable for more sports environments. Just enjoy your time when running, jogging, riding, hiking, fitness, or in the gym. 【Adequate Full-Day Playtime】 Wireless earbuds can provide more than 4 hours playtime on a single charge. Besides, the portable 650mAh charging case can charge the earphones 5 times, so the total playtime is up to 26 hours. Rechargeable Bluetooth headphones are very suitable for outdoor sports, workouts for a whole day! 【Deep Immersion in Music】 The most advanced Bluetooth 5.0 technology ensures an incredible stable and fast connection. With the HiFi stereo sound of deep bass and clear treble, you can truly experience the immersive music, movies or games when using these Bluetooth earbuds. 【Intelligent &amp; Convenient Connection】 Completely automatic system gives you a hassle-free experience. Only take the wireless headphones (R&amp;L) out of the charging case then "BE1018-L" automatically appears on your iPhone/Android smart phone. Instant pairing and connection make you feel everything is effortless.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ✶ [TRUE WIRELESS EARBUDS &amp; BLUETOOTH 5.0] - Adopt professional Bluetooth 5.0 chipset with high resolution decoder built-in and advanced audio coding technology to deliver extraordinary Hi-fi sound with low latency. CVC 8.0 intelligent digital noise Canceling technology give you a Clear and stable sound quality experience. ✶ [AUTO PAIRING &amp; ON-EAR CONTROL] - Auto power on and enter pairing mode right after out of charging case. One touch-control button supports a lot of functions such as play/pause music, answer/hang up a call, the next/previous song, activate Siri and so on. Ture Bluetooth Earbuds -needn't hold the phone in your hands, very comfortable and convenient. ✶ [HANDS-FREE CALL WITH NOISE ISOLATION] Saimly Bluetooth Earbuds, With built-in CVC 8.0 noise canceling microphones, perfectly filter out ambient noise while you are talking, ensuring crystal-clear voice calls.And its Bluetooth dual point connection function allows you swift between one/two earphones mode conveniently. ✶ [MORE &amp; LONGER ENJOYMENT] - 8-10 hours working time per charge for the bluetooth earbuds, 6-8 times full charge by the charging case.Saimly wireless headphones bring extended playtime and enjoyment. You will never worry about running out of power. ✶ [IPX8 Waterproof &amp; Born for Sports] -A comfortable wireless earbuds. Earbuds and charging case inner Nano-coating makes it possible to immerse in water of 1 meters deep for 30 minutes. High-level water-resistant makes it suitable for sports to prevent water ingress. Ideal for sweating it out at the gym or singing in the rain. Even Wash the earbuds and base with soak. PS: Saimly provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
+    <t>✔DURABLE LONG LASTING LIFE EARPHONES:This in ear headphones different from others,we focus on every small details during production to make sure long lasting life earbuds with microphone,we offer replacment for 1 year gurantee ✔GREAT SOUND QUALITY &amp; COMFORTABLE WEARING:In ear headphones earphones with super bass,decent clear sound,with 3 pairs different size earbuds with microphone, fits in ear comfortable and never fall out,a daily used running wired earphones ✔HIGH QUALITY BUILT IN MICROPHONE:Nice wired earbuds in ear headphones for crystal clear conversation,earphones with volume control &amp; Play, pause, next control,makes you hands free, crispy buttons wired earphones ear buds with microphone ✔DESIGN FOR RUNNING WORKOUT &amp; TANGLE FREE WIRED:Running earbuds with microphone with earhook design,earphones stay in ear never fall out when running,strong tangle free wired with 3.5mm jack wired earphones in ear headphones running ✔LIFE TIME QUALITY WARRANTY IN EAR HEADPHONES:Our wired earphones offer 30 days money back gurantee &amp; life time warranty,any questions pls contact us we will reply in 12 hours,best customer service earbuds with microphone</t>
+  </si>
+  <si>
+    <t>High-performance Sound Quality🎶The i phone 8 headphones is adopted the latest chip and 6-hole vocal system, supports digital input signals. Can maximize sound output and minimize sound loss, offers super dynamic, deep bass, high-resolution treble &amp; crisp and powerful sound. It has perfect stereo sound quality, enjoy complete listening comfort, give you the perfect sound experience. Plug &amp; Play &amp; Magnetic Design NEW generation i phone 7 earbuds allows you to listen music directly from your i Phone/i Pod/i Pad. You don't need an extra connector and no need to connct Bluetooth. ★Adopt magnetic design,the arbuds for i phone 8 can conveniently clasp together, not wound, not knotted, just hang around your neck,easy to take. Remote Control &amp;Mic🎶Hands-free in-line microphone and remote control allows you to control music/video playback, adjust volume, wake up Siri and take calls. No need to take out your phone from pocket or arm band any more. Comfortable wear without painAre you still suffering from ear pain caused by wearing headphones for a long time? Now,you will not suffer pain with our i phone xr headphones.Adopt skin-friendly material and lightweight and comfortable.Ergonomically and ultra-lightweight in-ear designed USB C Headphones fit the ear perfectly without any pain even wearing all day long.  Lifetime warranty  Our heaphone customer service team will become your loyal friends if clients have any problems. ★30 Days FREE return &amp; replacement ★2-YEAR product warranty (If any quality problems after confirmation, a free one will be given) ★Contact us to get extra 3-YEARS guarantee ★Lifetime customer support.</t>
+  </si>
+  <si>
+    <t>Bluetooth 5.0 Faster and More Stable Connection With the latest Bluetooth 5.0 + CSR 8645 chip. Latest Bluetooth 5.0 chip provides fast, stable and low-power connection. faster pairing, more stable wireless connection and wider compatibility with Bluetooth enabled cell phones, tablets, computers, TV,smart watches and smart speakers. Retractable Earbuds and Outstanding Battery PerformanceThe Auto retractable earbuds allows you to pull the retractable earbud wire to the length you want and press the retract button can store the earbuds wire automatically. Its powerful rechargeable 500mAh battery ,provides up to 36 hours of continuous music or phone conversation with.up to 480 hours standby time. Foldable and Ergonomic NeckbandMade of environmental ABS material.Foldable design enables you to take it anywhere in your pocket or in your bag. Around-the-Neck wearing design Ergonomic neckband design allow you to wear the headphones on your neck more comfortably and decrease the pressure of your ears. High-fidelity Stereo Sound QualityWith bass up technology and 10mm dynamic speaker system, provide more powerful bass and crisp treble. Perfect for different music styles and melodies.Tuned by professional audio engineers, you can experience high quality sound. Stereo Sound Quality&amp; CVC 6.0 Noise-Cancelling MicCall Vibration. The built-in CVC6.0 noise-cancelling microphone can reduce background noises so as to provide crystal-clear sound for hands-free calls. With bass up technology and 10mm dynamic speaker system, provide more powerful bass and crisp treble. Perfect for different music styles and melodies.</t>
+  </si>
+  <si>
+    <t>High-Performance Sports Headphones HolyHigh BE1018 sports headphones are committed to being your indispensable sports partner, showing you the super performance: TwistLock technology, IPX7 waterproof, 26H battery life, incredible sound and smart connection. The earphones are not only your sports partner but also great helper for daily use. Excellent IPX7 Waterproof BE1018 wireless headphones adopt IPX7 waterproof technology, which protects headphones from damage by sweat &amp; rain and makes them suitable for more sports environments. Just enjoy your time when running, jogging, riding, hiking, fitness, or in the gym. Adequate Full-Day Playtime Wireless earbuds can provide more than 4 hours playtime on a single charge. Besides, the portable 650mAh charging case can charge the earphones 5 times, so the total playtime is up to 26 hours. Rechargeable Bluetooth headphones are very suitable for outdoor sports, workouts for a whole day! Deep Immersion in Music The most advanced Bluetooth 5.0 technology ensures an incredible stable and fast connection. With the HiFi stereo sound of deep bass and clear treble, you can truly experience the immersive music, movies or games when using these Bluetooth earbuds. Intelligent &amp; Convenient Connection Completely automatic system gives you a hassle-free experience. Only take the wireless headphones (R&amp;L) out of the charging case then "BE1018-L" automatically appears on your iPhone/Android smart phone. Instant pairing and connection make you feel everything is effortless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ✶ [TRUE WIRELESS EARBUDS &amp; BLUETOOTH 5.0] - Adopt professional Bluetooth 5.0 chipset with high resolution decoder built-in and advanced audio coding technology to deliver extraordinary Hi-fi sound with low latency. CVC 8.0 intelligent digital noise Canceling technology give you a Clear and stable sound quality experience. ✶ [AUTO PAIRING &amp; ON-EAR CONTROL] - Auto power on and enter pairing mode right after out of charging case. One touch-control button supports a lot of functions such as play/pause music, answer/hang up a call, the next/previous song, activate Siri and so on. Ture Bluetooth Earbuds -needn't hold the phone in your hands, very comfortable and convenient. ✶ [HANDS-FREE CALL WITH NOISE ISOLATION] Saimly Bluetooth Earbuds, With built-in CVC 8.0 noise canceling microphones, perfectly filter out ambient noise while you are talking, ensuring crystal-clear voice calls.And its Bluetooth dual point connection function allows you swift between one/two earphones mode conveniently. ✶ [MORE &amp; LONGER ENJOYMENT] - 8-10 hours working time per charge for the bluetooth earbuds, 6-8 times full charge by the charging case.Saimly wireless headphones bring extended playtime and enjoyment. You will never worry about running out of power. ✶ [IPX8 Waterproof &amp; Born for Sports] -A comfortable wireless earbuds. Earbuds and charging case inner Nano-coating makes it possible to immerse in water of 1 meters deep for 30 minutes. High-level water-resistant makes it suitable for sports to prevent water ingress. Ideal for sweating it out at the gym or singing in the rain. Even Wash the earbuds and base with soak. PS: Saimly provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
   </si>
   <si>
     <t>IMPRESSIVE SOUND QUALITY: Riwbox XBT-880 is a bluetooth headphone features with a 50mm large diameter aperture drivers and bulit-in high detail microphone. Wide frequency range reproduces precise deep base and high clarity sound. You can expect comfortable listening experience for both music playing or phone calls. OVER EAR NOISE ISOLATION PADS: The ear cushion is made with protein, high soft elasticity, can be completely isolated from the outside noise when it cover ears, keep your skin feeling soft, comfortable and breathable, very suit for a long time wearing. HANDS-FREE CALL &amp; BUILT-IN MIC: Please Note: Headphones with Microphone and volume control works both in wireless /wired mode. Riwbox Bluetooth headphones provide a quick and stable connection with your Bluetooth enabled devices like cell phones, tablets, pc, TVs within 33 feet, with a high-quality built-in microphone for hands-free calls. Lightweight Stylish Design: Fashion design with reflective metal collocation, gives a luxurious premium feel to the headphones as well as being strong and robust to look great for many years. Foldable headphone for easy storage.</t>
@@ -5993,10 +5984,10 @@
     <t>Premium Audio Performance: Adopting AB1536 chip, a Bluetooth 5. 0 dual mode certified single chip solution supporting HD Audio, echo cancellation and noise reduction, RCA wireless earbuds deliver superb music quality and crystal-clear voice calls. 28 Hours of Playtime &amp; LED Battery Display: A fully charged (1. 5 hours) earbuds can provide 4 hours playtime. A fully charged (2 hours) charging case can recharge the earbuds 6 times. With powerful charging case, RCA earbuds can be charged on the go. The LED display outside the charging case keeps your informed of remaining battery percentage left in the case. Auto Power On/Off &amp; One-step Pairing/Charge: Open the charging case, the earbuds automatically power on and connect with each other, turn on the Bluetooth of your device, choose “T11” from the list of found Bluetooth devices to pair. Put the earbuds into the charging case and close the charging case, the earbuds automatically power off, charging starts automatically. Smart Touch Control &amp; IPX6 Waterproof: Just tap slightly, you can play/pause music, change track, answer/end/decline a call, activate voice assistant. Compared with IPX5, RCA Bluetooth Headphones can resist heavy splashing and rain. Two Using Modes &amp; Secure Fit: When both earbuds are connected to your Bluetooth device, you can use the earbuds alone or together. RCA Bluetooth earbuds are super lightweight, each earbud only weights 5g/0. 17oz. Four pairs of ear tips for choice, and in ear angle is ergonomically designed to get long-wear comfort.</t>
   </si>
   <si>
-    <t>【Stereo Sound with Thin Speakers】Thickness is only one-third of the average speaker, which is very comfortable for sleepers. True HD HIFI sound featuring latest Bluetooth V-5.0 technology that produce great sound quality, bluetooth can pair your iPhone XS Max/ iPhone XS/ iPhone XR/ iPhone X/ iPhone 7/ iPhone 8/ iPhone 6 or any other Smartphones iPad Tablets easily.Compatible with Android and Ios.It is the best gift for family or friends on travel and airplane in Festivals. 【Play Time More Than 9 Hour】Upgrade usb chargeable battery, Built-in 240mAh high-performance battery, Charge about 2-2.5 hours provide more than 9 hours playing time, won’t be waked up at night,enough to support the whole night.If you fall asleep with it on and the battery runs down , this bluetooth eyemask won’t beeps to wakes you up. you will have a very good sleeping. 【Good Companion For Sleep And Travel】Block light to make your sleep better, allows you to listen to music without wearing additional headphones,which make you fall asleep faster.Extra cushion makes eye mask and nose touch better, which can be completely shaded. Best for frequent flyers to sleep on long flights or sensitive sleepers (insomnia) who dislike glaring lights in any occasions.Sleep in a light blocked world whenever and wherever.Perfect for air travel, relaxation, meditation, insomnia. 【Comfortable and Washable】Joseche bluetooth eye mask is made from elvet and elastic cotton, and provide a soft and comfortable feeling. Fabric liner separated from stitching is not defective,it is the place to take out the bluetooth module, so you can full wash the eye mask.You don't have to worry about it shrinking and deforming. 【Size and Speakers Adjustable】Size is 20.3-26.5inch, Velcro is adjustable, also fit big heads,sleep eye mask can be adjusted according to the size of the head.The delicate wiring connected to the speakers that go from ear to ear is very sturdy, you can adjust adjust the position of the speakers for your ears to hear more clearly.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ♬【SUPER SOFT 】Tiny and made of silicone, easy to adjust and flexible, would be fine in smaller or larger ears. The silicon has a slight grip so they don't fall out too easily ♬【RELIEVE THE STRESS】 Your hard insomnia time will pass away quickly and you will enjoying a good time when you alone.Help to calm down yourself and get a better sleep and rest. ♬【WIDE COMPATIBLE】Compatible with all 3.5mm audio cable jack smart phones and devices, including the full range of Apple iPhones, iPads, iPods, Samsung Galaxy and Note Series, Game console, MP3 MP4 music players, Nexus, HTC, laptops, tablets, PC and more ♬【MULTIFUNCTIONAL BUTTON】Convenient hands-free calling, Answer, Reject and end calls directly with the earphones, easily play/pause, skip music tracks through the remote button ♬【GET A GREAT NIGHTS SLEEPl】 Soft and noise block design, ensure you comfortably enjoy your music and relax in a peace to fall sleep easily, best choice for light sleeper, sleep on side and insomnia</t>
+    <t>Stereo Sound with Thin SpeakersThickness is only one-third of the average speaker, which is very comfortable for sleepers. True HD HIFI sound featuring latest Bluetooth V-5.0 technology that produce great sound quality, bluetooth can pair your iPhone XS Max/ iPhone XS/ iPhone XR/ iPhone X/ iPhone 7/ iPhone 8/ iPhone 6 or any other Smartphones iPad Tablets easily.Compatible with Android and Ios.It is the best gift for family or friends on travel and airplane in Festivals. Play Time More Than 9 HourUpgrade usb chargeable battery, Built-in 240mAh high-performance battery, Charge about 2-2.5 hours provide more than 9 hours playing time, won’t be waked up at night,enough to support the whole night.If you fall asleep with it on and the battery runs down , this bluetooth eyemask won’t beeps to wakes you up. you will have a very good sleeping. Good Companion For Sleep And TravelBlock light to make your sleep better, allows you to listen to music without wearing additional headphones,which make you fall asleep faster.Extra cushion makes eye mask and nose touch better, which can be completely shaded. Best for frequent flyers to sleep on long flights or sensitive sleepers (insomnia) who dislike glaring lights in any occasions.Sleep in a light blocked world whenever and wherever.Perfect for air travel, relaxation, meditation, insomnia. Comfortable and WashableJoseche bluetooth eye mask is made from elvet and elastic cotton, and provide a soft and comfortable feeling. Fabric liner separated from stitching is not defective,it is the place to take out the bluetooth module, so you can full wash the eye mask.You don't have to worry about it shrinking and deforming. Size and Speakers AdjustableSize is 20.3-26.5inch, Velcro is adjustable, also fit big heads,sleep eye mask can be adjusted according to the size of the head.The delicate wiring connected to the speakers that go from ear to ear is very sturdy, you can adjust adjust the position of the speakers for your ears to hear more clearly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUPER SOFT Tiny and made of silicone, easy to adjust and flexible, would be fine in smaller or larger ears. The silicon has a slight grip so they don't fall out too easily RELIEVE THE STRESS Your hard insomnia time will pass away quickly and you will enjoying a good time when you alone.Help to calm down yourself and get a better sleep and rest. WIDE COMPATIBLECompatible with all 3.5mm audio cable jack smart phones and devices, including the full range of Apple iPhones, iPads, iPods, Samsung Galaxy and Note Series, Game console, MP3 MP4 music players, Nexus, HTC, laptops, tablets, PC and more MULTIFUNCTIONAL BUTTONConvenient hands-free calling, Answer, Reject and end calls directly with the earphones, easily play/pause, skip music tracks through the remote button GET A GREAT NIGHTS SLEEPl Soft and noise block design, ensure you comfortably enjoy your music and relax in a peace to fall sleep easily, best choice for light sleeper, sleep on side and insomnia</t>
   </si>
   <si>
     <t>50 pack earbuds bulk set, Each pair of earbuds is individually packed, 5 colors mixed Blue, green, pink, black, white. Classroom earbuds for kids bulk, the multi colored earbuds will be more popular with kids, Ideal for schools and sharing with friends. Bulk Earphone cable Length about 4feet or 1.2m, the cable is made of environment-friendly wire with thick wire and middle knot, Stronger and more durable. Cheap earbuds with great quality, clear stereo sound, 3.5mm jack compatible with most smartphones and other devices, perfect for Chromebook iPhone iPad laptop PC and Andriod tablet, It's the best choice under 1 dollar class set of headphones for students. 100% Money Back Guarantee, we tested each Earbuds before send to Amazon, if you are not 100% satisfied you can return the product for a full refund, Please feel free to buy it.</t>
@@ -6008,10 +5999,10 @@
     <t>Unlike traditional, circular earbuds, the design of the EarPods is defined by the geometry of the ear Which makes them more comfortable for more people than any other earbud-style headphones The speakers inside the EarPods have been engineered to maximize sound output and minimize sound loss, which means you get high-quality audio The EarPods with Lightning Connector also include a built-in remote that lets you adjust the volume, control the playback of music and video, and answer or end calls with a pinch of the cord Works with all devices that have a Lightning connector and support iOS 10 or later, including iPod touch, iPad, and iPhone</t>
   </si>
   <si>
-    <t>【AUTOMATICALLY ON AND CONNECTED】Size of the wireless earbud is 16*42mm. Adopt the most advanced Bluetooth 5.0 technology.The Wireless Earphones Provides in-call stereo sound.You will be pleasantly surprised at the sound quality, for an item like this. Also own fast and stable transmission without tangling. 【SEAMLESS SWITCHING BETWEEN DEVICES】Easy Pairing Comfortable design Pick up 2 bluetooth headphones from Charging Box They will Connect Each Other Automatically, then Only one step easily enter mobile phone Bluetooth setting to pair the wireless earbuds..Bluetooth earbuds are designed to comfortably fit in your ear, in-ear design. 【FASHION DESIGN,LIGHT AND PORTABLE】This truly wireless earbuds can last for over 3. 5 hours to 4 hours 'music playtime on a single charge,Not just for music, the wireless headphone is also great for making phone calls with friends and family. Noise Isolation technology filters out the surrounding noise and makes your sound loud and clear. You get high quality, hands-free phone conversation even on the street or inside shopping mall. 【RICH,HIGH-QUANLITY AUDIO AND VOICE】Ergonomical Design.Use the ergonomically designed to ensure your bluetooth headphones fit comfortably to the ears.The bluetooth earbuds never fall off from your ears 【EASY TO USE】The wireless earbuds will be automatically turned on and paired with your device as soon as you take them out of the charging case. Very simple to use. if you have any problems about this bluetooth earbuds please feel free to contact us !</t>
-  </si>
-  <si>
-    <t>✔【EXECELLENT SOUND BLOCKS OUT EXTERIOR NOISE】---Earbuds Headphones have deep base and excellent clarity,In-ear earphones’s the noice canceling technique is a real help against loud and annoying noises.Wired earbuds excellent sound including some actual bass. ✔【HIGH QUALITY BUILT IN MICROPHONE】---Nice wired earbuds in ear headphones for crystal clear conversation,earphones with volume control &amp; Play, pause, next control,makes you hands free, crispy buttons wired earphones ear buds with microphone ✔【FULL METAL HOUSING &amp; TANGLE FREE WIRED】---Earphones with microphone made by aluminum alloy materials,super durable long lasting life earbuds,strong tangle free wired ear buds with 3.5mm jack wired earphones in ear headphones ✔【WIDE COMPATIBILITY】---Earbuds headphones compatible with apple iPhone,iPod, iPad,MP3,Tablet,PC and Android devices etc.In-ear Earphones the sound is rich, well balanced, both upper and lower end crisp, and voice is smooth natural. ✔【100% MONEY BACK GUARANTEE】---Earbuds Headphones have One year warranty period.We devote ourselves to provide the best customer service and bring the best shopping experience to every customer.If you are not satisfied with Wired earbuds.just contact us and we can offer a full refund.NO questions asked!</t>
+    <t>AUTOMATICALLY ON AND CONNECTEDSize of the wireless earbud is 16*42mm. Adopt the most advanced Bluetooth 5.0 technology.The Wireless Earphones Provides in-call stereo sound.You will be pleasantly surprised at the sound quality, for an item like this. Also own fast and stable transmission without tangling. SEAMLESS SWITCHING BETWEEN DEVICESEasy Pairing Comfortable design Pick up 2 bluetooth headphones from Charging Box They will Connect Each Other Automatically, then Only one step easily enter mobile phone Bluetooth setting to pair the wireless earbuds..Bluetooth earbuds are designed to comfortably fit in your ear, in-ear design. FASHION DESIGN,LIGHT AND PORTABLEThis truly wireless earbuds can last for over 3. 5 hours to 4 hours 'music playtime on a single charge,Not just for music, the wireless headphone is also great for making phone calls with friends and family. Noise Isolation technology filters out the surrounding noise and makes your sound loud and clear. You get high quality, hands-free phone conversation even on the street or inside shopping mall. RICH,HIGH-QUANLITY AUDIO AND VOICEErgonomical Design.Use the ergonomically designed to ensure your bluetooth headphones fit comfortably to the ears.The bluetooth earbuds never fall off from your ears EASY TO USEThe wireless earbuds will be automatically turned on and paired with your device as soon as you take them out of the charging case. Very simple to use. if you have any problems about this bluetooth earbuds please feel free to contact us !</t>
+  </si>
+  <si>
+    <t>✔EXECELLENT SOUND BLOCKS OUT EXTERIOR NOISE---Earbuds Headphones have deep base and excellent clarity,In-ear earphones’s the noice canceling technique is a real help against loud and annoying noises.Wired earbuds excellent sound including some actual bass. ✔HIGH QUALITY BUILT IN MICROPHONE---Nice wired earbuds in ear headphones for crystal clear conversation,earphones with volume control &amp; Play, pause, next control,makes you hands free, crispy buttons wired earphones ear buds with microphone ✔FULL METAL HOUSING &amp; TANGLE FREE WIRED---Earphones with microphone made by aluminum alloy materials,super durable long lasting life earbuds,strong tangle free wired ear buds with 3.5mm jack wired earphones in ear headphones ✔WIDE COMPATIBILITY---Earbuds headphones compatible with apple iPhone,iPod, iPad,MP3,Tablet,PC and Android devices etc.In-ear Earphones the sound is rich, well balanced, both upper and lower end crisp, and voice is smooth natural. ✔100% MONEY BACK GUARANTEE---Earbuds Headphones have One year warranty period.We devote ourselves to provide the best customer service and bring the best shopping experience to every customer.If you are not satisfied with Wired earbuds.just contact us and we can offer a full refund.NO questions asked!</t>
   </si>
   <si>
     <t>Discover the freedom of a wireless lifestyle listening to music, managing your calls or working–out. Automatically switches to mono when making phone calls, for a more natural call experience. Take full control of your calls and music with a single intuitive button. Best–in–class ergonomics with 3 ear tip sizes and 2 gel sleeve sizes ensure a secure fit that stays with you, no matter what you are doing. IPX5–certified design keeps the music playing through sunshine and rain.</t>
@@ -6020,16 +6011,16 @@
     <t>Bone conduction technology and open Fit design delivers music through your cheekbones, ensuring ears remain completely open to ambient sounds for maximum situational awareness during long-term wear. The new, organic, wraparound design is 20% lighter than its counterpart to deliver a flexible fit for unnoticeable all-day comfort and stability. Bluetooth V4.2 connectivity and convenient multipoint pairing compatible with your iOS and Android Bluetooth-ready smartphones or tablets and Mac and PC computers and laptops. Premium pitch plus guarantees a Premium audio experience, including wide dynamic range and rich bass.Frequency response:20Hz~20KHz Enjoy six hours of continuous music + calls on a single charge, or 20 days of standby time. Charges in 2 hours.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [BREAKTHROUGH 2.4GHZ RF TECHNOLOGY] 2.4GHz RF means stronger penetrability, further wireless range, steadier signal transmission and lower distortion. Allow you to listen to music while walking around in your home without skip or interruption. Triple the wireless range than the traditional Bluetooth headphone (33ft) to 100ft! [BRILLIANT SOUND QUALITY] Enjoy Hi-Fi stereo sound without compromise. Artiste TV Headphone streaming amazing crystal clear sound with a frequency response of 25Hz - 20kHz. Digital signal guarantees you the extra bass and crisp treble performance without distortion. Distortion: 0.5% [COMPATIBILITY BEYOND YOUR IMAGINE] Be compatible with Tablet / iPads / Laptop / Cellphone / Radio / CD and MP3 players / TV sets and Computers. The package come with a RCA Cable and 6.3mm Adapter for easy access to all kinds of audio device. [COMFORTABLE THAN EVER] Adjustable soft-padded headband and Over-Ear ear pads designed to provide maximum comfort. Full-sealed ear pads effectively reduce the sound leakage to return a sweet dream to your families while you can watch TV intently. [OUTSTANDING BATTERY PERFORMANCE ] Support continuous working for 20 hours with one full charge. Artiste TV Headphone is a way more powerful than those Bluetooth headphones only support 7~8 hours of working time. Free yourself from charging the headphone every day!</t>
+    <t xml:space="preserve"> [BREAKTHROUGH 2.4GHZ RF TECHNOLOGY] 2.4GHz RF means stronger penetrability, further wireless range, steadier signal transmission and lower distortion. Allow you to listen to music while walking around in your home without skip or interruption. Triple the wireless range than the traditional Bluetooth headphone (33ft) to 100ft! [BRILLIANT SOUND QUALITY] Enjoy Hi-Fi stereo sound without compromise. Artiste TV Headphone streaming amazing crystal clear sound with a frequency response of 25Hz - 20kHz. Digital signal guarantees you the extra bass and crisp treble performance without distortion. Distortion: 0.5% [COMPATIBILITY BEYOND YOUR IMAGINE] Be compatible with Tablet / iPads / Laptop / Cellphone / Radio / CD and MP3 players / TV sets and Computers. The package come with a RCA Cable and 6.3mm Adapter for easy access to all kinds of audio device. [COMFORTABLE THAN EVER] Adjustable soft-padded headband and Over-Ear ear pads designed to provide maximum comfort. Full-sealed ear pads effectively reduce the sound leakage to return a sweet dream to your families while you can watch TV intently. [OUTSTANDING BATTERY PERFORMANCE ] Support continuous working for 20 hours with one full charge. Artiste TV Headphone is a way more powerful than those Bluetooth headphones only support 7~8 hours of working time. Free yourself from charging the headphone every day!</t>
   </si>
   <si>
     <t>Apple compatible devices Applies to: QC 25 noise cancelling headphones Apple devices The remote and mic are compatible with the following Apple devices: iPhone 3GS or later iPad iPod touch 2nd generation or later iPod classic 120GB, 160GB iPod nano 4th generation or later Deep, powerful sound for the music you love Lightweight, comfortable around ear fit you can wear all day long Control your music and calls on Apple devices with inline mic/remote</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Hi-Fi Stereo Sound: Dual 40mm large-aperture driver units and Bluetooth 5.0 Tech provide more stable transmission speed, lower latency and better audio output. (NOTE: It needs a Bluetooth transmitter for TV without built-in Bluetooth) Comfortable: Memory-protein ear cushion simulate human skin texture for lasting comfort. Adjustable slider and soft padded headband allow you to get the most comfortable enjoyment. [Warm Tip:please take off the headphone every 1-2 hrs to relax your ears] Build-in Microphone and Control: A microphone is built into the headset which let you enjoy a completely hands free listening experience in high definition calls; Control your Music or answer/end phone calls right from your headset by build-in controls. Ergonomic Design: To fit everybody’s head and ear perfectly, the headphones equips adjustable headhand and fits cushioned ear pads; Besides, it is very light and bring no burden for your head. Its foldable headband design can save desktop space for you. Wired &amp; Wireless 40H Playtime: High capacity rechargeable battery provides up to 40H playtime in wireless mode [NOTE: Playtime updated to 40H from 30H, Bluetooth updated to 5.0 from 4.1 on May.16,2019]. Audio cable provided for never power off listening.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【BLUETOOTH 5. 0 &amp; TWS】- Adopt the most advanced Bluetooth 5.0 technology. Bluedio Hi Support A2DP, HSP, HFP, AVRCP. Provides in-call stereo sound. Also own fast and stable transmission without tangling. 【ONE STEP PAIRING】- Automatic system gives you a hassle-free experience when pairing and connecting to your devices. All you need to do just take them out from the case and turn on the left and right earbuds, two earbuds will connect automatically, put them on and you are ready to immerse in your music world. 【20H PLAYTING TIME WITH PORTABLE CHARGING CASE】The charge case holds roughly 4 full charges and each charge works for roughly 5 hours. About 1-hour charging you can make the earbuds battery from died to full charge, and only 2 hours for charging case. 【Latest Face Recognition Technology to Control Pause/Play】No longer use infrared sensing technology to control music pause and play, Bluedio introduces the latest face recognition technology to control music pause/play, it is more stable. When you take down the RIGHT earbud from you head, the music will pause, when you wear it, the music will continue to play. 【PACKAGE INCLUDED】1 x Bluedio Hi; 1 x Charging Case; 1 x Charger Cable; 1 x User Manual; 3 Pairs of eartips with 3 different sizes(S,M,L)</t>
+    <t xml:space="preserve"> Hi-Fi Stereo Sound: Dual 40mm large-aperture driver units and Bluetooth 5.0 Tech provide more stable transmission speed, lower latency and better audio output. (NOTE: It needs a Bluetooth transmitter for TV without built-in Bluetooth) Comfortable: Memory-protein ear cushion simulate human skin texture for lasting comfort. Adjustable slider and soft padded headband allow you to get the most comfortable enjoyment. [Warm Tip:please take off the headphone every 1-2 hrs to relax your ears] Build-in Microphone and Control: A microphone is built into the headset which let you enjoy a completely hands free listening experience in high definition calls; Control your Music or answer/end phone calls right from your headset by build-in controls. Ergonomic Design: To fit everybody’s head and ear perfectly, the headphones equips adjustable headhand and fits cushioned ear pads; Besides, it is very light and bring no burden for your head. Its foldable headband design can save desktop space for you. Wired &amp; Wireless 40H Playtime: High capacity rechargeable battery provides up to 40H playtime in wireless mode [NOTE: Playtime updated to 40H from 30H, Bluetooth updated to 5.0 from 4.1 on May.16,2019]. Audio cable provided for never power off listening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BLUETOOTH 5. 0 &amp; TWS- Adopt the most advanced Bluetooth 5.0 technology. Bluedio Hi Support A2DP, HSP, HFP, AVRCP. Provides in-call stereo sound. Also own fast and stable transmission without tangling. ONE STEP PAIRING- Automatic system gives you a hassle-free experience when pairing and connecting to your devices. All you need to do just take them out from the case and turn on the left and right earbuds, two earbuds will connect automatically, put them on and you are ready to immerse in your music world. 20H PLAYTING TIME WITH PORTABLE CHARGING CASEThe charge case holds roughly 4 full charges and each charge works for roughly 5 hours. About 1-hour charging you can make the earbuds battery from died to full charge, and only 2 hours for charging case. Latest Face Recognition Technology to Control Pause/PlayNo longer use infrared sensing technology to control music pause and play, Bluedio introduces the latest face recognition technology to control music pause/play, it is more stable. When you take down the RIGHT earbud from you head, the music will pause, when you wear it, the music will continue to play. PACKAGE INCLUDED1 x Bluedio Hi; 1 x Charging Case; 1 x Charger Cable; 1 x User Manual; 3 Pairs of eartips with 3 different sizes(S,M,L)</t>
   </si>
   <si>
     <t>Superior Hi-Fi Sound Quality &amp; Please note. The R&amp;D team of our ELEGIANT S1 over the ear headphones lays great emphasis on refining its sound quality. With V4.1 chip and 40mm large-aperture driver unit, it can not only achieve faster connection with your devices but also provide better stereo music and lower sound latency. But please note that it is not active noise canceling(ANC). It can not completely but mostly block outside noise. Compared to ANC headphones, it is cost-effective. Ultra Long Battery Life &amp; Wired Mode. This wireless headset can provide up to 16-hour music time, 16-hour talking time (when volume level is 60%-70% high. Shorter if volume is higher) and up to 300-hour standby time in wireless mode after full charged about 2 hours, further reducing your worry about power-off. Besides, it can also be used as a wired headphone with the provided audio cable. Super Comfortable &amp; Foldable. If you care more about wearing comfort among over ear headphones, you really can’t miss this one. Based on user-friendly ideal, the earmuffs are made of soft skin-like breathable protein leather, never repressing your ears. What’s more, the whole item only weighs 3.53 ounces, at most reducing the burden to your head. Foldable design makes it portable to carry around and helps save your desk space. Built-in Mic &amp; Clearer Call. With the best chip and built-in noise-canceling mic, this bluetooth wireless headphone can achieve a more stable connection with your devices and gain a much clearer voice from the other person. Press the "phone call" button then start hands-free talking. Please note that the mic can be used only in wireless mode. You are recommended to talk with the headphone within 10 meters away from your phone. Strong Compatibility. Our over-ear headphones bluetooth can work with almost all mobile phones, tablets, PCs, and more devices. If you have any questions or advice about our product, please feel free to contact us.</t>
@@ -6038,10 +6029,10 @@
     <t>Sound core is Anker's audio brand, Our signature sound is loved by 10 million+ people around the world. Hi-Res Audio Certified: Custom oversized 40 mm dynamic drivers produce Hi-Res Audio—a certification only awarded to audio devices capable of producing exceptional sound. Life Q20 active noise cancelling headphones reproduce your music with extended high frequencies that reach up to 40 kHz for extraordinary clarity and detail. Reduce Ambient noises by up to 90%: Our Team of engineers conducted more than 100, 000 tests in real-life scenarios to fine-tune life q20's 4 built-in ANC microphones and Digital active noise cancellation algorithm. As a result, the hybrid active noise cancellation can detect and cancel out a wider range of low and mid-frequency noises such as cars and airplane engines. 100% stronger bass: our exclusive bass up technology conducts real-time analysis of the low frequencies to instantly strengthen the Bass output. Double press the play button when listening to bass-heavy genres like EDM and hip-hop for an amplified listening experience. 40-Hour playtime: Up to 40 hours of non-stop playtime in wireless active noise cancellation mode (at 60% volume) is extended to an enormous 60 hours in standard music mode. A single charge gives you enough juice to listen to over 600 songs or soundtrack multiple long haul flights. And when you’re in a rush, charge life Q20 active noise cancelling headphones for 5 minutes and get 4 hours of listening. Universal Comfort: Memory foam ear cups gently mold around your ears, while the headband’s rotating joints automatically adjust the angle of the ear cups to fit the shape of your head. This ensures that Life Q20 active noise cancelling headphones deliver maximum comfort and a secure seal.</t>
   </si>
   <si>
-    <t>NOTE: Original Bluedio T3 Bluetooth Headphones sold by" Bluedio".【Zn ALLOY BODY, DURABLE AND STRONG】Quality build that guarantees longevity. Built with an alloy frame, which allows these headphones to be super durable and strong. 【57mm TITANIZING DIAPHRAGM, DYNAMIC SOUND &amp; 3D SOUND EFFECT】57mm Titanizing diaphragm ensures quicker transient response to electrical signals and enhanced overall sound performance, delivers dynamic sound, powerful extra bass. You can hear every beat every word. Simply turn on the 3D sound to immerse yourself in the stereo surround sound effect and to let your ears enjoy the stirring rock concert. 【NEVER POWER OFF, WIRELESS &amp; WIRED HEADPHONES】1. The wireless mode: Battery up to 20-hr music time/ talking time in a single charge; 2. The Wired mode with 3.5mm audio cable: you can also use it as a wired headphone with the provided audio cable so the headphones will never power off. 【MEMORY SOFT FOAM EARMUFFS】The ear cups of T3 are padded with memory foam which is rich in protein. It is very soft and ventilated. All we want to do is to bring you comfort, to protect your ears and give you a new feeling of wearing. 【FOLDABLE DESIGN, SAVE MORE SPACE】We especially strengthen the telescopic arm to ensure that it can bear over 5 thousand times stretching and bending. The foldable design makes it very convenient and portable. Wherever you go, you can enjoy your favorite music anytime.Gentle Reminder: To get both audio and wearing comfort, please take off the headphone every 1-2 hrs to get your ears relax and protect them from muggy environment in use.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) MASTER SLAVE SWITCHING &amp; BLUETOOTH 5.0: Freely master-slave switching, Most advanced Bluetooth 5.0 technology. Supports HSP, HFP, A2DP, AVRCP. Otium T21 Bluetooth Earbuds brings you super tws, super fast connect, super easy pairing, super stable. UP TO 30 HOURS BATTERY LIFE: The wireless earbuds can last for 3-4 hours of playtime on a single charge. The fully charged charging case can continue to power the headset for 7-8 times, bringing you a total 30 hours of wonderful music world. With a weight of only 3.9g, causing zero pressure to the ear. SNUG FIT &amp; DEEP BASS: Designed to a seamless fit in your ears and offer 4 different sizes earbuds for choices, allow you to stream music with CD-like audio quality with powerful bass and crispy mid-highs through a unique speaker driver. ONE STEP PAIRING &amp; SMART TOUCH CONTROL: Automatic system brings you a hassle-free experience.You just need to open the lid of charging case and they’ll automatically connect to the last paired device. The intelligent touch control button is multifunctional, such as play/pause music, answer/hang up a call, the next/previous song, activate Siri. Smart life, choose T21 wireless earbuds. IPX7 WATERPROOF &amp; SWEATPROOF: With innovative SweatShield Technology, you can use the earphones freely for sweating it out at the gym or singing in the rain. If you are Not Satisfied with your purchase for any reason, please Feel Free to contact us at the buyer center or support email, 24/7 Quick Reply.</t>
+    <t>NOTE: Original Bluedio T3 Bluetooth Headphones sold by" Bluedio".Zn ALLOY BODY, DURABLE AND STRONGQuality build that guarantees longevity. Built with an alloy frame, which allows these headphones to be super durable and strong. 57mm TITANIZING DIAPHRAGM, DYNAMIC SOUND &amp; 3D SOUND EFFECT57mm Titanizing diaphragm ensures quicker transient response to electrical signals and enhanced overall sound performance, delivers dynamic sound, powerful extra bass. You can hear every beat every word. Simply turn on the 3D sound to immerse yourself in the stereo surround sound effect and to let your ears enjoy the stirring rock concert. NEVER POWER OFF, WIRELESS &amp; WIRED HEADPHONES1. The wireless mode: Battery up to 20-hr music time/ talking time in a single charge; 2. The Wired mode with 3.5mm audio cable: you can also use it as a wired headphone with the provided audio cable so the headphones will never power off. MEMORY SOFT FOAM EARMUFFSThe ear cups of T3 are padded with memory foam which is rich in protein. It is very soft and ventilated. All we want to do is to bring you comfort, to protect your ears and give you a new feeling of wearing. FOLDABLE DESIGN, SAVE MORE SPACEWe especially strengthen the telescopic arm to ensure that it can bear over 5 thousand times stretching and bending. The foldable design makes it very convenient and portable. Wherever you go, you can enjoy your favorite music anytime.Gentle Reminder: To get both audio and wearing comfort, please take off the headphone every 1-2 hrs to get your ears relax and protect them from muggy environment in use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MASTER SLAVE SWITCHING &amp; BLUETOOTH 5.0: Freely master-slave switching, Most advanced Bluetooth 5.0 technology. Supports HSP, HFP, A2DP, AVRCP. Otium T21 Bluetooth Earbuds brings you super tws, super fast connect, super easy pairing, super stable. UP TO 30 HOURS BATTERY LIFE: The wireless earbuds can last for 3-4 hours of playtime on a single charge. The fully charged charging case can continue to power the headset for 7-8 times, bringing you a total 30 hours of wonderful music world. With a weight of only 3.9g, causing zero pressure to the ear. SNUG FIT &amp; DEEP BASS: Designed to a seamless fit in your ears and offer 4 different sizes earbuds for choices, allow you to stream music with CD-like audio quality with powerful bass and crispy mid-highs through a unique speaker driver. ONE STEP PAIRING &amp; SMART TOUCH CONTROL: Automatic system brings you a hassle-free experience.You just need to open the lid of charging case and they’ll automatically connect to the last paired device. The intelligent touch control button is multifunctional, such as play/pause music, answer/hang up a call, the next/previous song, activate Siri. Smart life, choose T21 wireless earbuds. IPX7 WATERPROOF &amp; SWEATPROOF: With innovative SweatShield Technology, you can use the earphones freely for sweating it out at the gym or singing in the rain. If you are Not Satisfied with your purchase for any reason, please Feel Free to contact us at the buyer center or support email, 24/7 Quick Reply.</t>
   </si>
   <si>
     <t>[TWS &amp; BLUETOOTH 5. 0] - Adopt the most advanced Bluetooth 5. 0 technology. TOZO T6 Support HSP, HFP, A2DP, AVRCP. Provides in-call stereo sound. Also own fast and stable transmission without tangling. [Hi-Fi Stereo Sound Quality] - TOZO T6 Offers a Truly Natural, Authentic Sound and Powerful Bass Performance with 6mm Large Size Speaker Driver. [One step pairing] - pick up 2 headsets from charging box They will connect each other automatically, then only one step easily enter mobile phone Bluetooth setting to pair the earbuds. [IPX8 waterproof] – earbuds and charging case inner Nano-coating makes it possible to waterproof for 1 meters deep for 30 minutes. It is suitable for sports to prevent water. Ideal for sweating it out at the gym or singing in the rain. Even Wash the earbuds and base. [Charge on-the-go] - TOZO T6 wireless earbuds can last for over 6 hours’ playtime from a single charge and 24 extra hours in the compact charging case. Charging case even support wireless charging. Committed to providing more flexible and convenient charging methods with no strings attached.</t>
@@ -6053,13 +6044,13 @@
     <t>Apple MFi Certified：UGREEN 3.5mm lightning adapters are certified by Apple to meet rigid iPhone requirements and ensure completely and securely connect with your Apple devices. Extensive compatibility：This Lightning to 3.5mm Headphone Converter allows you to use your existing 3.5mm headphones with the new iPhone 11/11 Pro/11 Pro Max/XS/XS Max/XR/X/8 7 6 Plus, iPod touches 6th Generation, iPad Mini/iPad Air/ iPad Pro. (NOTE: It doesn't compatible with 2018 iPad Pro 11" / 12.9" which has a USB C interface). High performance：The iPhone lightning adapter equipped with advanced noise reduction technology, supports up to 48 kHz, 26-bit audio output, can provide you with the perfect sound. It not only support listening to music but also the wire control function such as a microphone, volume control, pause and play functions, plug and play with no setting changes. Durable design：No damages, scratches, bendings or tearings! UGREEN Apple aux adapter made of Hi-Q aluminum alloy case and nylon-braided cable material, built-in enameled copper and PVC jacket to ensure the stable sound transmission. Stylish design in a space grey color, lightweight and unique with portable size. What you get：UGREEN Lighting to 3.5 mm Headphone Adapter, Welcome Guide, our worry-free 24-month, and friendly customer service.</t>
   </si>
   <si>
-    <t>▶【Bluetooth 5.0 】Bluetooth 5.0 means that have fast and stable transmission and low power consumption.Working distance range of up to 25 feet. Speed of transmission is 24Mbps that faster 3 times than Bluetooth 4.Besides,This updeated earbuds boast the latest MediaTek 1532P True Wireless Chipset with Bluetooth Low Energy (BLE) and Laser Direct Structuring (LDS) Antenna Technology. ▶【TWS &amp; Dual-mic Noise Reduction】 Pasavant T2 PLUS offers a truly natural, authentic sound and powerful bass performance with 8mm large size speaker driver - the drive area is 1. 77 times than the normal drive area. In this way ,you can enjoy amazing music and feel every communication being close at hand.The noise reduction feature of the earbuds allow for the noisiest settings to be silenced. ▶【Quick Charging &amp; Longer Battery Life】 The charging case with built-in 2200 mAh battery, it could recharge the earbuds 4 times(old version is 3 times) and it can be charged automatically once the earbuds is put in the charging case. You get 6-8 hours((old version 3.5 hours)) continuous music playtime and seamless phone calls. ▶【One Step Automatically Pairing &amp; Effortless Touch Control】 This wireless earbuds is available to connect whenever. It will automatically pair each other when you take them out of the charging case, which is quite different from the traditional earphones that need to press the power button to connect. With just a couple taps or presses, you can easily play/pause/change music,control volume, answer/reject calls and access to Google Assistant, too. No need to reach for your phone, just tap! ▶【Activate Siri Easily &amp; IPX6 Waterproof Earbuds 】Use the built-in mic &amp; button on these true wireless earbuds to easily access Siri with Three-click.Water-resistant features enable you can use it when you are taking shower.Package Content: 1× Wireless Earbuds, 1× Charging Cable, 1× User Manual, 3 x Couples Silicone Ear Tips</t>
+    <t>Bluetooth 5.0 Bluetooth 5.0 means that have fast and stable transmission and low power consumption.Working distance range of up to 25 feet. Speed of transmission is 24Mbps that faster 3 times than Bluetooth 4.Besides,This updeated earbuds boast the latest MediaTek 1532P True Wireless Chipset with Bluetooth Low Energy (BLE) and Laser Direct Structuring (LDS) Antenna Technology. TWS &amp; Dual-mic Noise Reduction Pasavant T2 PLUS offers a truly natural, authentic sound and powerful bass performance with 8mm large size speaker driver - the drive area is 1. 77 times than the normal drive area. In this way ,you can enjoy amazing music and feel every communication being close at hand.The noise reduction feature of the earbuds allow for the noisiest settings to be silenced. Quick Charging &amp; Longer Battery Life The charging case with built-in 2200 mAh battery, it could recharge the earbuds 4 times(old version is 3 times) and it can be charged automatically once the earbuds is put in the charging case. You get 6-8 hours((old version 3.5 hours)) continuous music playtime and seamless phone calls. One Step Automatically Pairing &amp; Effortless Touch Control This wireless earbuds is available to connect whenever. It will automatically pair each other when you take them out of the charging case, which is quite different from the traditional earphones that need to press the power button to connect. With just a couple taps or presses, you can easily play/pause/change music,control volume, answer/reject calls and access to Google Assistant, too. No need to reach for your phone, just tap! Activate Siri Easily &amp; IPX6 Waterproof Earbuds Use the built-in mic &amp; button on these true wireless earbuds to easily access Siri with Three-click.Water-resistant features enable you can use it when you are taking shower.Package Content: 1× Wireless Earbuds, 1× Charging Cable, 1× User Manual, 3 x Couples Silicone Ear Tips</t>
   </si>
   <si>
     <t>Hi-fi stereo sound: stereo kids headphones with excellent sound effect, 3. 5mm plug compatible with all 3. 5mm jack devices. Distinct volume control switch &amp; built in microphone: features distinct switch that can limits volume to 85Db with the press on, to protect hearing of your child and answer phone call while using with Phone. While in a noisy environment like car or Aero plane, the volume can be adjusted to a normal sound with the press off. Happy sharing: the kids headphones provides easy access to 2 devices simultaneously connected, for a delightful sharing with friends and families. No more splitter is troubled Comfortable fit: The plush circular cups fit perfectly on your ears and provide a comfortable listening experience you can use all day. Pinch-free hinges keep your little one’s fingers safe. The easy adjustable headband allows you to get the perfect fit. The headband is also made of plush leather material to so it’s comfortable to wear, so much so you might forget you are wearing headphones. Support: Mow headphones life hassle-free- and quickly response customer service, for any questions while using, Please contact us at any time via email or through the Contact information on the instructions</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [TRUE WIRELESS &amp; BLUETOOTH 5.0] - Adopt professional Bluetooth 5.0 chipset with high resolution decoder built-in and advanced audio coding technology to deliver extraordinary Hi-fi sound with low latency. [AUTO PAIRING &amp; ON-EAR CONTROL] - Auto power on and enter pairing mode right after out of charging case. User-friendly on-ear button on each side supports play/pause, switching tracks and handling phone calls easily. [MONAURAL &amp; BINAURAL CALLS] - Built-in microphones in both earbuds for you to enjoy hands-free calls and voice assistant with single or both earbuds as prefer. Voice comes from both earbuds in stereo mode. [MORE &amp; LONGER ENJOYMENT] - 3.5-4 hours working time per charge for the earbuds, 9-10 times full charge by the charging case. SoundPEATS TrueFree Plus wireless earbuds bring extended playtime and enjoyment. [COMFORT FIT &amp; WIDE COMPATIBILITY] - Different sized ear tips and in-canel cable-free design provide comfortable fit. Support Bluetooth-enabled devices with version 4.0 and above. PS: SoundPEATS provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
+    <t xml:space="preserve"> [TRUE WIRELESS &amp; BLUETOOTH 5.0] - Adopt professional Bluetooth 5.0 chipset with high resolution decoder built-in and advanced audio coding technology to deliver extraordinary Hi-fi sound with low latency. [AUTO PAIRING &amp; ON-EAR CONTROL] - Auto power on and enter pairing mode right after out of charging case. User-friendly on-ear button on each side supports play/pause, switching tracks and handling phone calls easily. [MONAURAL &amp; BINAURAL CALLS] - Built-in microphones in both earbuds for you to enjoy hands-free calls and voice assistant with single or both earbuds as prefer. Voice comes from both earbuds in stereo mode. [MORE &amp; LONGER ENJOYMENT] - 3.5-4 hours working time per charge for the earbuds, 9-10 times full charge by the charging case. SoundPEATS TrueFree Plus wireless earbuds bring extended playtime and enjoyment. [COMFORT FIT &amp; WIDE COMPATIBILITY] - Different sized ear tips and in-canel cable-free design provide comfortable fit. Support Bluetooth-enabled devices with version 4.0 and above. PS: SoundPEATS provides 12 months hassle-free warranty to ensure the enjoyment of your purchase.</t>
   </si>
   <si>
     <t>WITH QUALCOMM CHIP AND 24 HOURS OF PLAYING TIME: Large capacity lithium battery has 380mAh which is Qualcomm chip and works for 24 hours playing time or 20 days of standby time, and with 1-3 hours of Quick recharging. BLUETOOTH 5.0 FAST AND STABLE CONNECTION: Our sleep earbuds adopts the newly upgrades Bluetooth 5.0 technology to provide faster pairing and a more stable connection. Transmission fast, high stability, strong signal and longer battery life. The advanced chip not only brings high-quality music, but also compatible with all kinds of Bluetooth devices, as well as stable connection and lower power consumption. COMFORTABLE AND SECURE: Mini earbuds design suitable for all kinds of ear types, and it can be worn firmly and comfortably. The soft silicone wire is freely bent and not entangled. The neck-mounted in-ear design is only forceful on the neck, fits the neck, and is not easy to slip. The adjustable wire buckle adjusts the length of the headphone cord. EASY TO USE WITH THREE BUTTONS REMOTE CONTROL: Excellent noise cancellation, volume control and song switching. Three-button remote control not only simply music control, but also control of the call. For a variety of operating functions, please refer to the manual. WIDE AND EASY COMPATIBLE &amp; WARANTY 2 YEARS: Compatible with more than 99% of mainstream devices, supporting lossless music playback such as HFP/A2DP/AVRCP/SPP. Tested and controlled strictly, if you suspect our sleeping earphones of high capacity 24 hours continuously, please contact us, we are always here. (Please charge this battery fully after first initial using)</t>
@@ -6068,10 +6059,10 @@
     <t>In-Ear earbud headphones connect all lightning port iPhone models, for iPhone 11/ iPhone 7 / 7 Plus / iPhone 8 / 8 Plus / iPhone X / XS Max / iPhone XR. Built-in controller with a high-quality hands-free microphone. Music and Volume controller is designed to play &amp; pause music, volume up &amp; down, next &amp; previous track, answer &amp; hang up call. Lightweight in-earphones body, naturally matches your ear canals, less noise and noise-insulating earplugs eliminate ambient noise. Ergonomic design, comfortable fit for listening to music while running, jogging,cycling, weightlifting, walking and gymnastic training. They will not fail or break with intensive outworks. Comes with portable bag–Convenient to carry around and easy to get out of tangled mess. Please feel freely to contact us if you have any questions for our hearphones, we will respond promptly and do the right for you.</t>
   </si>
   <si>
-    <t>【Wireless Charging and 2600mAh Battery】The combination of power bank and being wirelessly charged is the main bullet point that MIATONE X10 wireless earbuds distinguish improvement from others. Others only have either power bank or wireless charging. X10 wireless earbuds support 80 hours playtime with the charging case that doubles as a mini power bank to power your other electronics in emergencies, and could be charged on a wireless charger. 【Class 1 Pairing Technology】Most of bluetooth earbuds can pair and connect themselves automatically when removed from the charging case, but the right earbud loses connection from the left earbud since single earbud mode only adapt to the main(L) earbuds. MIATONE X10 wireless earbuds offer advanced technology, and can ensure much faster and stabler L/R indenpent bluetooth transmission and works well as single earbud or as a pair. No-fuss pairing to your phone. 【Qualcomm QCC 3032 Chipset + Bluetooth 5.0 Version】An advanced Qualcomm QCC 3032 chipset is compatible with Apt-X audio technology and AAC Hi-Res transmission which is optimized for iOS and Android devices to provide better sounding Audio at similar bit rates. No static and distorted sounds. 【Graphene Composite Dynamic Driver】Designed for compact earbuds, the 6mm graphene enhanced dynamic driver ensure every subtle note precisely reproduce well balance among silky highs, detailed mids, and deep bass. Listening to music is so much better compared to other earbuds. 【Expert Sound Tuning】Alex Wang, MIATONE unique sound Engineer, tunes all miatone Bluetooth headphones for a precise representation of the artist’s intended sound. It is a 10 fold improvement in sound quality. These sleek earbuds offer the perfect blend of premium sound &amp; design.</t>
-  </si>
-  <si>
-    <t>★[PAIRING SIMPLY-True wireless double5.0 design with latest Bluetooth,The pairing of these bluetooth headphones is also easy. Simply press the buttons on both earbuds until light flashes in blue and red, double-click on any of the two and these will be paired and then you can connect with your phone. You can also connect single earbud. ★[SECURE FIT&amp; LOGHTWEIGHT DESIGN- Designed according to the shape of the human ear canal and skin-friendly material, it perfectly presents a fashionable and appropriate shape with only 0.15 ounce net weight, let you feel comfortable when enjoying music. ★[UNIQUE CHARGING BOX- The portable charging box is ultra-light and has large capacity lithium batteries, allowing you to enjoy more than 4-5 hours of uninterrupted music or talk time after each individual charge. Only takes 1 hour to fully charged. Never worry about a low battery when you're out and about all day. ★LONGER BATTERY LIFE： It is up to 4-5 hours playing time when headphones fully charged. Else the portable charging case could recharge the earbuds 3 additional times. The total play time could be up to 12-15 hours. 👍FRIENDLY SERVICE】We provide 100% satisfaction service,any questions, please kindly feel free to contact us by EMALL and hence you can use it without getting worried at all.</t>
+    <t>Wireless Charging and 2600mAh BatteryThe combination of power bank and being wirelessly charged is the main bullet point that MIATONE X10 wireless earbuds distinguish improvement from others. Others only have either power bank or wireless charging. X10 wireless earbuds support 80 hours playtime with the charging case that doubles as a mini power bank to power your other electronics in emergencies, and could be charged on a wireless charger. Class 1 Pairing TechnologyMost of bluetooth earbuds can pair and connect themselves automatically when removed from the charging case, but the right earbud loses connection from the left earbud since single earbud mode only adapt to the main(L) earbuds. MIATONE X10 wireless earbuds offer advanced technology, and can ensure much faster and stabler L/R indenpent bluetooth transmission and works well as single earbud or as a pair. No-fuss pairing to your phone. Qualcomm QCC 3032 Chipset + Bluetooth 5.0 VersionAn advanced Qualcomm QCC 3032 chipset is compatible with Apt-X audio technology and AAC Hi-Res transmission which is optimized for iOS and Android devices to provide better sounding Audio at similar bit rates. No static and distorted sounds. Graphene Composite Dynamic DriverDesigned for compact earbuds, the 6mm graphene enhanced dynamic driver ensure every subtle note precisely reproduce well balance among silky highs, detailed mids, and deep bass. Listening to music is so much better compared to other earbuds. Expert Sound TuningAlex Wang, MIATONE unique sound Engineer, tunes all miatone Bluetooth headphones for a precise representation of the artist’s intended sound. It is a 10 fold improvement in sound quality. These sleek earbuds offer the perfect blend of premium sound &amp; design.</t>
+  </si>
+  <si>
+    <t>★[PAIRING SIMPLY-True wireless double5.0 design with latest Bluetooth,The pairing of these bluetooth headphones is also easy. Simply press the buttons on both earbuds until light flashes in blue and red, double-click on any of the two and these will be paired and then you can connect with your phone. You can also connect single earbud. ★[SECURE FIT&amp; LOGHTWEIGHT DESIGN- Designed according to the shape of the human ear canal and skin-friendly material, it perfectly presents a fashionable and appropriate shape with only 0.15 ounce net weight, let you feel comfortable when enjoying music. ★[UNIQUE CHARGING BOX- The portable charging box is ultra-light and has large capacity lithium batteries, allowing you to enjoy more than 4-5 hours of uninterrupted music or talk time after each individual charge. Only takes 1 hour to fully charged. Never worry about a low battery when you're out and about all day. ★LONGER BATTERY LIFE： It is up to 4-5 hours playing time when headphones fully charged. Else the portable charging case could recharge the earbuds 3 additional times. The total play time could be up to 12-15 hours. 👍FRIENDLY SERVICEWe provide 100% satisfaction service,any questions, please kindly feel free to contact us by EMALL and hence you can use it without getting worried at all.</t>
   </si>
   <si>
     <t>Immersive audio: enhanced CSR chip, CVC noise cancellation, and Bluetooth 4.1 technology deliver a robust, wide range of sound with dynamic highs and powerful lows, giving you the best music experience Sweat &amp; water-proof: waterproof Nano-coating protects the headphones during workout; rain, sweat, or shine, these IPX7 waterproof headphones push you further and handle tough training Easy Control: Play and pause music, adjust the volume, skip tracks, answer/end calls, and activate Siri or Virtual Assistant with one-button control on the headphones Longer listening: One charge gives you up to 8 hours playtime so you can listen longer between charges Comfortable and discreet: portable and ultra-lightweight, these discreet Bluetooth headphones stay put during active use and take you comfortably from one place to the next</t>
@@ -6080,31 +6071,31 @@
     <t>[SZSAGO W9 with Innovative exclusive intelligent charging compartment] The ear-buds start charging when the charging compartment cover closed, and the charging compartment is also charged while charging. W9 can be used for 6 hours in a single full charge, the charging box can charge the ear-buds fully in 3-4 times, 6*4=24 hours of continuous sound music, 6*4=24 hours of talk time, 100 hours of standby time and 1H Fast charging allows you listen continues. [Bluetooth 5.0 and unique stereo bass] The Bluetooth transmission communication speed can reach 48MBps the stronger anti-interference performance, the more stable connection is, and can be controlled from a 15-meter distance. Never worry about cutting off during listening and controlling, making music playback and conversations smoother and clearer. The unique stereo sound quality design gives perfect sound quality, and realize the true music. [ Mini ergonomic design and IPX7 protection] Coolest CD textured surface ear-buds button, mini invisible in-ear design, comfortable and soft ear-buds sleeves, true wireless frees your hands, under IPX7 protection, you can enjoy Listening in the rain, Very convenient fit. Equipped with a charging station, it is a small and stylish pocket-sized charging compartment, and it can be carried with you in one hand, allowing you to realize the real walk-and-go. [High-end ABS material charging compartment with patented independent power management technology] ABS plastic charging compartment, This exclusive patented independent power management technology enables The charging compartment can separately control the charging of the left and right earphones separately, place the L&amp;R earphone into the Charging Station, One Red LED indicates the earphone No power, One blue LED indicates the ear-bud charged fully, The ear-buds will charge automatically . [Mono and binaural mode] Two earbuds can be used alone or in two channels. Each earphone can be paired independently. Both “L” and “R” can control “play/pause/previous/next song / Volume Plus / Volume Down / Answer / End / Reject Call”, it's like you have two completely separate headphones. Functionally, you can connect to the same device to share music with your friends or use two headphones to enjoy stereo surround sound.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Extra-large φ 40 mm (1 9/16˝) Drivers for Deep bass Clear, balanced, natural sound with powerful low-frequency response Features the latest Bluetooth 5. 0 wireless technology Stamina battery supports up to 25 hours continuous playback; fast charge replenishes battery for 4 hours playback in just 10 minutes Headphones fold flat and Inward for compact storage in bags</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Premium around ear, audiophile grade open back headphones; Frequency response: 12 to 38,500 Hertz Proprietary Sennheiser 38 millimeters, 50 ohm transducers deliver exceptional clarity, detail and dynamics Angel transducers Inside the ear cups Channel sound directly into your ears improving special realism Padded headband and luxurious Extra Large size ear pads provide comfort for long listening sessions Two cables included 3 meters detachable cable with 6.3 millimeters jack and 1.2 meters detachable cable with 3.5 millimeters jack</t>
-  </si>
-  <si>
-    <t>【High-fidelity Stereo Sound Quality】- built-in high sensitivity microphone and noise canceling technology(not active noise cancellation), ensure crystal high quality sound no mater you are calling or listening to music. 【Outstanding Battery Performance】- The portable designed headphone built with large capacity battery, which provides up to 16 hours of continuous music time and 300 hours of standby with a single charge. 【Advanced Bluetooth 4.1+CVC 6.0】- latest Bluetooth 4.1chip provides fast, stable and low-power connection. These headphones are compatible with most smart phones, iPhone, Android devices and other Bluetooth Enabled Devices. 【Neckband Design】- Around-the-Neck wearing design with perfect Body-Contoured fit. Made of environmental ABS+PC material, light and soft to wear comfortably, perfect for long time wearing no matter in outdoor activities or in office. 【Foldable and Retractable Design】- Foldable design enables you to take it anywhere in your pocket or in your bag. Retractable Earbuds- a unique design for cable management, no more tangled wire obsession.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) SUPERIOR SOUND: Enjoy a truly impressive high performance sound quality. The headphones are acoustically perfected and balanced with 40mm dynamic drivers that offer maximum bass. The noise cancelling design will help prevent distractions at the gym. STATE-OF-THE-ART FEATURES: The Positive Vibration 2 wireless headset has a remote that allows you to play, pause, and skip your music. Wear the headphones confidently as they are solid, durable &amp; wear resistant. These have 2 large 50mm aperture drivers. ECO-FRIENDLY DESIGN: The on-ear headphones have aluminum ear cups and fit comfortably on your head. These foldable headphones are perfect for taking them wherever you travel. RECHARGEABLE &amp; COMPATIBLE: These wireless headphones have a rechargeable battery that can last up to 10-12 hours of playtime from a single charge. They include bluetooth wireless connectivity that uses 4.2 BT. HOUSE OF MARLEY: House of Marley is built on the principles of superior quality, sustainability and a commitment to charitable causes while enhancing lives through great product experiences as well as using proceeds to support global reforestry.</t>
-  </si>
-  <si>
-    <t>【High-end Sound Quality】The most advanced Qualcomm chipset is compatible with aptX audio technology and AAC Hi-Res transmission plus Bluetooth 5.0 not only guarantee a stable phone call connectivity but also provide lossless high-end sound quality. 【4-microphone noise canceling】Unique 4-Microphones instead of normal 2-Microphones plus CVC double noise cancelling technology and earpiece sets isolate you from noisy surroudings, pick up mifo O7 earbuds to enjoy crystal clear call without outside noise. 【Well Balanced Bass】Equipped with Iron balanced armature/ double Iron balanced armature, providing stereo sound with well balanced bass. 【Easy to Use】By tapping mifo O7 wireless earbuds, you can answer and hang up the phone, pause and play music, control the volume, skip songs, awaken voice assistant,etc. 【Comfortable and Waterproof】 Thousands of ear shape data collection and wearing test, 698 times optimize, and final become what mifo O7 is now, and we offer 7 ear tips of different sizes, to ensure your in-ear earbuds fit comfortably to your ears and without falling out. O7 wireless earbuds are waterproof and dustproof, perfect for running, cycling, skiing, traveling, yoga, gym exercises or other sports.</t>
-  </si>
-  <si>
-    <t>【DUAL MODE】&amp;【POWERFUL BATTERY】 With built-in high capacity rechargeable battery (450mAh battery, 15 hours available). You can play music, watch videos or chat with friends freely without wires tangled. The headphones can be switched wired mode after long playtime. Don't worry about no electricity 【AMAZING SOUND QUALITY】Advanced high performance stereo and noise reduction technology. High quality transmission technology can offer high sound while listening to music or watch TV, which let you immersive music even in the lowest volume levels. 【FREE YOUR HEAD】Ergonomic design and retractable headband lifts the burdens for your ear. The padded soft cushion are built from materials that are extremely nice to touch allows you to enjoy your relaxing time. Ultra-soft memory protein foam leather earmuffs and headbands provide maximum comfort when you use them for a long time. 【FORDABLE And PORTABLE】Foldable design makes it convenient to carry and easy to store them when not in use or during travels. They are foldable and stretchable, which help you save the space. Their excellent durability and long-lasting comfort make them popular. This headset is suitable for all ages. It is very convenient for your daily use, outdoor sports, and travel. It is your best choice. 【STRONG COMPATIBILITY】Compatible for all 3.5mm plug cable enabled devices and smart phones TV, laptop, PC, iPad and all other enabled devices. For any problem, please feel free to contact us to get customer service.The version of this item is W2019.2.3</t>
+    <t xml:space="preserve"> Extra-large φ 40 mm (1 9/16˝) Drivers for Deep bass Clear, balanced, natural sound with powerful low-frequency response Features the latest Bluetooth 5. 0 wireless technology Stamina battery supports up to 25 hours continuous playback; fast charge replenishes battery for 4 hours playback in just 10 minutes Headphones fold flat and Inward for compact storage in bags</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Premium around ear, audiophile grade open back headphones; Frequency response: 12 to 38,500 Hertz Proprietary Sennheiser 38 millimeters, 50 ohm transducers deliver exceptional clarity, detail and dynamics Angel transducers Inside the ear cups Channel sound directly into your ears improving special realism Padded headband and luxurious Extra Large size ear pads provide comfort for long listening sessions Two cables included 3 meters detachable cable with 6.3 millimeters jack and 1.2 meters detachable cable with 3.5 millimeters jack</t>
+  </si>
+  <si>
+    <t>High-fidelity Stereo Sound Quality- built-in high sensitivity microphone and noise canceling technology(not active noise cancellation), ensure crystal high quality sound no mater you are calling or listening to music. Outstanding Battery Performance- The portable designed headphone built with large capacity battery, which provides up to 16 hours of continuous music time and 300 hours of standby with a single charge. Advanced Bluetooth 4.1+CVC 6.0- latest Bluetooth 4.1chip provides fast, stable and low-power connection. These headphones are compatible with most smart phones, iPhone, Android devices and other Bluetooth Enabled Devices. Neckband Design- Around-the-Neck wearing design with perfect Body-Contoured fit. Made of environmental ABS+PC material, light and soft to wear comfortably, perfect for long time wearing no matter in outdoor activities or in office. Foldable and Retractable Design- Foldable design enables you to take it anywhere in your pocket or in your bag. Retractable Earbuds- a unique design for cable management, no more tangled wire obsession.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUPERIOR SOUND: Enjoy a truly impressive high performance sound quality. The headphones are acoustically perfected and balanced with 40mm dynamic drivers that offer maximum bass. The noise cancelling design will help prevent distractions at the gym. STATE-OF-THE-ART FEATURES: The Positive Vibration 2 wireless headset has a remote that allows you to play, pause, and skip your music. Wear the headphones confidently as they are solid, durable &amp; wear resistant. These have 2 large 50mm aperture drivers. ECO-FRIENDLY DESIGN: The on-ear headphones have aluminum ear cups and fit comfortably on your head. These foldable headphones are perfect for taking them wherever you travel. RECHARGEABLE &amp; COMPATIBLE: These wireless headphones have a rechargeable battery that can last up to 10-12 hours of playtime from a single charge. They include bluetooth wireless connectivity that uses 4.2 BT. HOUSE OF MARLEY: House of Marley is built on the principles of superior quality, sustainability and a commitment to charitable causes while enhancing lives through great product experiences as well as using proceeds to support global reforestry.</t>
+  </si>
+  <si>
+    <t>High-end Sound QualityThe most advanced Qualcomm chipset is compatible with aptX audio technology and AAC Hi-Res transmission plus Bluetooth 5.0 not only guarantee a stable phone call connectivity but also provide lossless high-end sound quality. 4-microphone noise cancelingUnique 4-Microphones instead of normal 2-Microphones plus CVC double noise cancelling technology and earpiece sets isolate you from noisy surroudings, pick up mifo O7 earbuds to enjoy crystal clear call without outside noise. Well Balanced BassEquipped with Iron balanced armature/ double Iron balanced armature, providing stereo sound with well balanced bass. Easy to UseBy tapping mifo O7 wireless earbuds, you can answer and hang up the phone, pause and play music, control the volume, skip songs, awaken voice assistant,etc. Comfortable and Waterproof Thousands of ear shape data collection and wearing test, 698 times optimize, and final become what mifo O7 is now, and we offer 7 ear tips of different sizes, to ensure your in-ear earbuds fit comfortably to your ears and without falling out. O7 wireless earbuds are waterproof and dustproof, perfect for running, cycling, skiing, traveling, yoga, gym exercises or other sports.</t>
+  </si>
+  <si>
+    <t>DUAL MODE&amp;POWERFUL BATTERY With built-in high capacity rechargeable battery (450mAh battery, 15 hours available). You can play music, watch videos or chat with friends freely without wires tangled. The headphones can be switched wired mode after long playtime. Don't worry about no electricity AMAZING SOUND QUALITYAdvanced high performance stereo and noise reduction technology. High quality transmission technology can offer high sound while listening to music or watch TV, which let you immersive music even in the lowest volume levels. FREE YOUR HEADErgonomic design and retractable headband lifts the burdens for your ear. The padded soft cushion are built from materials that are extremely nice to touch allows you to enjoy your relaxing time. Ultra-soft memory protein foam leather earmuffs and headbands provide maximum comfort when you use them for a long time. FORDABLE And PORTABLEFoldable design makes it convenient to carry and easy to store them when not in use or during travels. They are foldable and stretchable, which help you save the space. Their excellent durability and long-lasting comfort make them popular. This headset is suitable for all ages. It is very convenient for your daily use, outdoor sports, and travel. It is your best choice. STRONG COMPATIBILITYCompatible for all 3.5mm plug cable enabled devices and smart phones TV, laptop, PC, iPad and all other enabled devices. For any problem, please feel free to contact us to get customer service.The version of this item is W2019.2.3</t>
   </si>
   <si>
     <t>High-fidelity in ear headphones are ergonomically designed and compact enough to fit well into the ear canal for comfortable wear and isolates external noise. 10 mm internal audio driver of earphones delivers crisp, natural sound and deep bass, and is also compatible with IOS and Android devices. The earphones with oxygen-free copper wire (best conductivity) provide professional stereo audio performance and anti-winding. Earphones with microphone and volume control system (Receive | End Call | Switch Song | Activate siri | Volume +/-). Our worry-free 12 month warranty and friendly customer service.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) SUPERIOR SOUND QUALITY- Experience music, movies, podcasts, calls, and more in a whole new way. Bluetooth 5.0 technology gives you high quality sound for listening and conversations. Provides superior connectivity and the ability to enjoy your earbuds happily. [IMPORTANT: Remember to experiment with the 3 different earcap sizes (S, M, L) to find a snug and secure fit.] QUICK PAIRING- Stress-free pairing right out of the charging case. Purity earbuds will give flashing light and voice indications when done synching so you can pair to your smartphone easily. (Please remove protective film from earbuds before use). PORTABLE CHARGING CASE- A portable charging case gives you the opportunity to recharge your earbuds when on-the-go. Four bright white LED lights will illuminate to indicate charging percentage of your earbuds. Play time up to 4 hrs. And up to 10 hrs with charging case. IPX5 SWEAT RESISTANT - Never worry about damaging your earbuds during an intense workout in the gym or on a trail. IPX5 sweat resistant design allows you to remain focused on your music or calls and not external sources like dirt or sweat. WARRANTY- Purity is proud to offer a 1 year warranty.</t>
-  </si>
-  <si>
-    <t>【Unique Game Mode &amp; Enhanced Audio Quality】 Triple tap the Multifunction Button of Right earbud to turn on the Game Mode, this mode is specially designed for game lovers, with crystal-clear clarity and low delay across the entire frequency range(20-20KHz). 【18 Hours Working Time &amp; Charge On the Go】The wireless earbuds offer 4.5 hours continuous music playtime and 70 hours standby time for a single full charge. Portable charging case with built-in 380mAh lithum battery can recharge up to 4 times. 【Auto Pairing】The Wireless Bluetooth Earbuds are equipped with one-step pairing technology. Turn on your Bluetooth device, and take out both earbuds, then they will pair automatically. 【Newest Bluetooth 5.0 Technology】Adopting Bluetooth 5.0 with fast and stable transmission and lossless HD rendering technology that produce incredible sound quality with crystal crisp treble. 【Snug Fit】 Wireless headsets are ergonomically designed to comfortably fit in your ear and could wear a long time with no pain. 30-days hassle-free money-back guarantee and 12-month warranty, within 24 hours customer service team. we are always dedicated to provide good quality products and service. If you are not satisfied with your purchase for any reasons, Please feel free to Contact us at any time.</t>
+    <t xml:space="preserve"> SUPERIOR SOUND QUALITY- Experience music, movies, podcasts, calls, and more in a whole new way. Bluetooth 5.0 technology gives you high quality sound for listening and conversations. Provides superior connectivity and the ability to enjoy your earbuds happily. [IMPORTANT: Remember to experiment with the 3 different earcap sizes (S, M, L) to find a snug and secure fit.] QUICK PAIRING- Stress-free pairing right out of the charging case. Purity earbuds will give flashing light and voice indications when done synching so you can pair to your smartphone easily. (Please remove protective film from earbuds before use). PORTABLE CHARGING CASE- A portable charging case gives you the opportunity to recharge your earbuds when on-the-go. Four bright white LED lights will illuminate to indicate charging percentage of your earbuds. Play time up to 4 hrs. And up to 10 hrs with charging case. IPX5 SWEAT RESISTANT - Never worry about damaging your earbuds during an intense workout in the gym or on a trail. IPX5 sweat resistant design allows you to remain focused on your music or calls and not external sources like dirt or sweat. WARRANTY- Purity is proud to offer a 1 year warranty.</t>
+  </si>
+  <si>
+    <t>Unique Game Mode &amp; Enhanced Audio Quality Triple tap the Multifunction Button of Right earbud to turn on the Game Mode, this mode is specially designed for game lovers, with crystal-clear clarity and low delay across the entire frequency range(20-20KHz). 18 Hours Working Time &amp; Charge On the GoThe wireless earbuds offer 4.5 hours continuous music playtime and 70 hours standby time for a single full charge. Portable charging case with built-in 380mAh lithum battery can recharge up to 4 times. Auto PairingThe Wireless Bluetooth Earbuds are equipped with one-step pairing technology. Turn on your Bluetooth device, and take out both earbuds, then they will pair automatically. Newest Bluetooth 5.0 TechnologyAdopting Bluetooth 5.0 with fast and stable transmission and lossless HD rendering technology that produce incredible sound quality with crystal crisp treble. Snug Fit Wireless headsets are ergonomically designed to comfortably fit in your ear and could wear a long time with no pain. 30-days hassle-free money-back guarantee and 12-month warranty, within 24 hours customer service team. we are always dedicated to provide good quality products and service. If you are not satisfied with your purchase for any reasons, Please feel free to Contact us at any time.</t>
   </si>
   <si>
     <t>HEAVY BASS EARPHONE: Built-in high-quality stereo which delivers a balanced sound effect. Nice heavy bass, clear metallic treble, palpable midrange, these earbuds allow you an immersion in your music. MULTI-PURPOSE HEADPHONES: These corded ear-pods suit all environments, and effectively isolate the noise outside, no matter you are exercising, reading or relaxing. A magnet is used on the side of the headphone head. When you are exercising, running or jogging, if you don't use it for a while, you can combine the two headphones behind your neck and hang them around your neck. MULTI-FUNCTIONAL EARPHONES: The hand-free microphone allows you to adjust the music or phone calls with control button. And these 3.5mm ear buds are compatible with all the following devices: iphone 6/ 6 plus/ 6s/ 6s plus/ 5s/ 5/ ES/ 4S/ ipad/ Samsung Galaxy s9 plus/ s8 plus/ s7/ s6/ s5/ s4/ s3, Android/ LG G5/ MP3/ MP4 HTC/ Laptops/ tablets/ pcs and so on. FASHIONAL AND ERGONOMIC DESIGN EARPHONES: These comfortable earbuds will stay stably in your ears no matter if you’re exercising, performing on the stage or working out. The headsets which only 0.46oz in weight, 3.9ft long are made of strong TPE material, making it so soft but durable, hard to wear out. Fashionable design and amazing quality make these in-ear headphones a perfect gift for friends. 100% REFUNDABLE: we assure you a “Lifetime Warranty”, so let us know if you are not satisfied with our headsets, you will get a full refund or a replacement.</t>
@@ -6113,28 +6104,28 @@
     <t>IMPRESSIVE HIFI SOUND QUALITY: Enjoy clear and crisp sound with Vogek over-ear headphones. Equipped with neodymium magnets and 40 millimeter speaker driver, these headphones deliver rich bass, clear vocal and stereo Hi-Fi level sound. Just indulge yourself in the music with the perfect balanced sound. COMFORTABLE WEARING EXPERIENCE: Soft memory over-ear earpads and padded headband are designed for maximum wearing comfort and dissipate pressure on your ears or head. Stretchable headband allows you to find the perfect fit without constraint. With the ultra-soft ear cushions and adjustable headband, these over-ear headsets provide you with amazing long-time wearing comfort. FOLDABLE &amp; PORTABLE DESIGN: Featuring 90° swiveling ear pads and retractable headband, these headphones can be folded up easily and save your space to the most extent. Lightweight, portable and foldable design makes Vogek headphone a good travel companion and allows you to bring music with you wherever you go. HASSLE-FREE CALLING &amp; FUNCTION BUTTON: Build-in microphone make you answer or end up a call by simply pressing the control button without holding your phone for a long time. Function button In-line controls let you control the music and skipping between tracks and enjoy every beat at the same time. (Please note that the microphone only work with cellphones) GREAT COMPATIBILITY: Our over-ear headphones with sturdy 3.5mm plug are compatible with iPhone, iPad, iPod, Samsung, Android and more audio devices of which audio jack is 3.5mm.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【Sleep Headphones &amp; Sports Headband 2 in 1】- Lavince Sports Headband allows you to listen to your music without having to wear additional headphones, and protect you from being disturbed by your mess hair and sweat.Microphone to let you won't miss any callings.Perfect suitable for gym, workout, running, yoga and other outdoor activities. Ideal for children, college students, dorm life, shared apartments, noisy roommates, snoring spouses and co-eds. 【Wireless Version-5.0 Technology 】- Wireless Headband pair with any Bluetooth-enabled smartphone or tablet devices quicker &amp; easier. 45 feet wireless range, rechargeable LiPO battery and with a 2 hour charging time provides up to 10 hours of Playing Music or 12 hours of Talking with a 100 hours standby time. Perfect fit Sports or Sleep. 【Premium Audio Quality 】 - Thickness is only 0.25 inch speaker, which is very comfortable for sleepers. True HD HIFI sound featuring latest Bluetooth technology that produce great sound quality. 【Best Sleeping Headphones for Side Sleeper】Devices module is in the middle of speakers, won’t press the ears, which is very comfortable for side sleepers sleeping. The ultra-thin flat headphone speakers are comfortable enough to wear while lying down or sleeping on your side. They block out ambient noise without using earplugs that are painful &amp; fall out. 【Fashion, Comfy &amp; Washable】 - Our sports headband is made of special fabric, compressive on pressure to protect your ears and great breathability. Please take out the devices module before full wash the headband.</t>
+    <t xml:space="preserve"> Sleep Headphones &amp; Sports Headband 2 in 1- Lavince Sports Headband allows you to listen to your music without having to wear additional headphones, and protect you from being disturbed by your mess hair and sweat.Microphone to let you won't miss any callings.Perfect suitable for gym, workout, running, yoga and other outdoor activities. Ideal for children, college students, dorm life, shared apartments, noisy roommates, snoring spouses and co-eds. Wireless Version-5.0 Technology - Wireless Headband pair with any Bluetooth-enabled smartphone or tablet devices quicker &amp; easier. 45 feet wireless range, rechargeable LiPO battery and with a 2 hour charging time provides up to 10 hours of Playing Music or 12 hours of Talking with a 100 hours standby time. Perfect fit Sports or Sleep. Premium Audio Quality  - Thickness is only 0.25 inch speaker, which is very comfortable for sleepers. True HD HIFI sound featuring latest Bluetooth technology that produce great sound quality. Best Sleeping Headphones for Side SleeperDevices module is in the middle of speakers, won’t press the ears, which is very comfortable for side sleepers sleeping. The ultra-thin flat headphone speakers are comfortable enough to wear while lying down or sleeping on your side. They block out ambient noise without using earplugs that are painful &amp; fall out. Fashion, Comfy &amp; Washable - Our sports headband is made of special fabric, compressive on pressure to protect your ears and great breathability. Please take out the devices module before full wash the headband.</t>
   </si>
   <si>
     <t>ASTONISHING SOUND PRODUCTION : High Definition Stereo Headphones, specially developed software and noise reduction technology designed to prevent you from heating ambient noises and makes you focus on what you want to hear. Lose yourself in immersive music even in the lowest volume levels! The goal that provide Customers with outstanding sound quality is our constant pursuit BUILT FOR YOUR COMFORTABILITY: The Earmuff imitate human skin texture, ensuring lasting comfort. They are foldable and stretchable, which allows you to find the perfect fit without constraint and excellent durability. Zihnic is the best Choice for Travel, Sport and Every day use by Unisex Kids, Teens and Adults. SEAMLESS BLUETOOTH CONNECTION: Built to provide a quick and stable Bluetooth connection . Just slide the on/off button and the headphones will be in ready to pair mode. The Wireless Headphones are compatible with all Bluetooth or 3.5mm plug cable enabled devices! You can also receive calls and have hands-free communication through the special noise reduction technology microphone Zihnic Headphones are compatible with all iPhone X, 8 Plus, Samsung S9, S8, iPad, iPod, Huawei, Nexus, Amazon Alexa ERGONOMIC DESIGN : Zihnic headphones are built from materials that are extremely nice to touch which provides the model premium outlook. The super soft memory-protein foam leather earmuffs and headbands contribute to maximum comfort regardless of how long you use them.Zihnic headphones also come with a protective Premium Case - a great way to reduce wear and tear. LONG BATTERY LIFE &amp; DUAL MODE: Zihnic Headphones are Rechargeable. 450mAh battery, 14 hours of music time, 2.5 hours Fast Charing. After 20 hours of playtime, you can switch to wired mode and enjoy your music NON-STOP. You do not need to worry about power shortage problem for the long travel. By choosing Zihnic You are covered with 24 Months Zihnic warranty and 100% Customer satisfaction in addition to 24/7 Customer Support service.</t>
   </si>
   <si>
-    <t>♬ RADIATION PROTECTION PATENT CERTIFIED by the World Intellectual Property Organization(WIPO), US and German, perfectly reduces 99.9 percent of EMF radiation and protect you and your family from headache, insomnia and other EMF-related disease. ♬ TRIPLEX ANTI-RADIATION FUNCTIONS which cannot found in traditional earphones: no speaker in earbuds, air tube isolates magnetic field &amp; radiation source and metal shielding line prevents transmission of high frequency electromagnetic wave to achieve optimal anti-radiation effect, avoid direct damage to eardrum and brain! ♬ FULL COMPATIBILITY by adopting international standard port (CTIA) with high-quality 3.5mm earplug which is compatible with most 3.5mm audio devices, like iPhone 6s(Plus) 6(Plus) 5S 5, iPad, iPod, Samsung or other Android or Windows cell phones, Smart Phones, PC, tablet, Notebook, Player, MP3 / MP4, etc. ♬ MUSIC &amp; CALLS CONTROLLING function buttons on headset enable easy sound control and also free your hands from answering/hanging up phone calls. ♬ Any problem or inquires for your purchase, please do not hesitate to contact us directly via Amazon email(Click "Your Account" on Amazon, click "Your Orders", find your order from Tuisy, and then click "Contact Seller") to get a 100% satisfactory solution.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Professional Active Noise Cancelling Technology. Significant noise reduction for travel, work and anywhere in between. Advanced active noise reduction technology quells airplane cabin noise, city traffic or a busy office, makes you focus on what you want to hear, enjoy your music, movies and videos. The noise cancellation function can work well both in wire and wireless mode Much Better Sound. Proprietary 45mm large-aperture drivers provide you with deep, accurate bass response. From 75dB to 85dB, the COWIN E7 PRO Active Noise Cancelling Over Ear headphones give you crisp, powerful sound and quiet that helps you enjoy your music better. The goal that provides Customers with better sound quality, is our constant pursuit Upgraded Soft Ear Cushions for Comfort with The professional protein earpad and 90 swiveling earcups: This Bluetooth headphones are equipped with Upgraded Soft Ear Cushions, which not only make it much more durability and comfort, but also make customers enjoy this high-quality, Long-listen feast. And the Skin texture, lightweight comfortable around-ear fit you can wear all day long. Gentle Reminder: please take off the headphones every 2-3 hrs to get your ears relax Much Higher-quality Built-in Microphone and BT 4.0. COWIN E7 PRO provides high-quality built-in microphones for hands-free calls, Which is convenient for you to free yourself from wires. Bluetooth 4.0 promises quick and stable connection with your Bluetooth enabled devices, Powerful Bluetooth Function More Stable Battery Life. 30-hour playtime per full charge at Bluetooth mode. A built-in 800mAh battery won't allow your headphones power off, you can enjoy your world without noise for 30 hours' long time. Don't need to worry the power shortage problem on the long travel. 18-month warranty and quick response &amp; friendly customer service. Note: The exclusive authorized seller is COWIN.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Sleek &amp; ergonomic: designed to reach deeper into the ear for a snug fit that stays comfortably put even during the most vigorous workout Stellar battery life: 120mAh battery streams music wirelessly for up to 9 hours with only 2 hours of charge IPX6 Splash proof build: water-resistant internal Nano coating protects against sweat and light rain Superior Audio quality: apt audio CODEC produces incredibly rich, high resolution sound free From wires Magnetic design: Lock the aluminum headphones together for a secure way to carry</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Connectivity Technology: Wired Black Ultra Soft ErgoFit in ear earbud Headphones conform instantly to Your ears Eight vivid fashion color options with color matching earbuds and cords (color matching for iPod nano 5th generation) Wider frequency response for fuller listening enjoyment Long 3.6 feet cord threads comfortably through clothing and bags Frequency Response : 5 to 24,000 Hz and Impedance 16 ohms</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Ideal for blocking noise caused Ideal for blocking noise caused by large crowds, airports, sporting events, garden and household tools, or any other troublesome noise or sound Perfect for kids on the autism spectrum for blocking out crowds and other triggers Low profile clam design keeps the muffs safe and secure on little ears and offers a stylish look. Strong high quality parts make them sturdy and robust, so much so we give them a 5 YEAR GUARANTEE! Lightweight and comfortable to suit little ones. Padded ear cushions offer superior comfort and a snug fit Foldable for easy storage and portability. Adjustable (just slide the cups up and down the wire frame to adjust), so they fit children as young as six months and as old as grandpa›See more product details</t>
-  </si>
-  <si>
-    <t>【POP-UPS AUTO PAIRING &amp; SMART TOUCH】 Just take them out from magnetic charging case and they automatically turn on and connect to your device (for IOS). With smart touch control design, there is no pressure when touching the control,easy to operate and have a great enjoy with it.Reduce the pain caused by the buttons. 【Latest Bluetooth 5.0 &amp; 3D STEREO SURROUND SOUND】Our wireless earphone adopt advanced Bluetooth 5.0 technology and antenna technology, which provides fast and stable transmission, 33ft-50ft bluetooh range, never worry about the connection issues. With built- in high-quality audio chip, It catches every details of music and transmits rich sounds with crisp treble and proper bass. 【 WITH QUICK CHARGING BOX 】The portable charging box is ultra- light and has 650mAh large capacity lithium batteries, allowing you to enjoy more than 5-6 hours of uninterrupted music or talk time after each individual charge. The headset can be fully charged about 4 times, only takes 45 mins to fully charged. 【WEARING COMFORTABLE &amp; IPX5 WATERPROOF】We tested the earbuds with over 100 unique human ears to create an incredibly ergonomic and comfortable design. With the weight of 3.5g each, fit your ears and will not be easy to fall off. The sealed shell and interior nano- coating can easily repel Sweat and rain, making the headphones great for outdoor sports and long workouts. Don't worry if your sweat will damage it. 【GOOD QUALITY 】Each headset has been tested before shipment, so please feel free to buy! All of our i11 TWS Bluetooth headsets offer a 24 month warranty. If you have any questions or concerns during use. Please contact us and we will respond promptly within 24 hours.</t>
+    <t xml:space="preserve"> RADIATION PROTECTION PATENT CERTIFIED by the World Intellectual Property Organization(WIPO), US and German, perfectly reduces 99.9 percent of EMF radiation and protect you and your family from headache, insomnia and other EMF-related disease.  TRIPLEX ANTI-RADIATION FUNCTIONS which cannot found in traditional earphones: no speaker in earbuds, air tube isolates magnetic field &amp; radiation source and metal shielding line prevents transmission of high frequency electromagnetic wave to achieve optimal anti-radiation effect, avoid direct damage to eardrum and brain!  FULL COMPATIBILITY by adopting international standard port (CTIA) with high-quality 3.5mm earplug which is compatible with most 3.5mm audio devices, like iPhone 6s(Plus) 6(Plus) 5S 5, iPad, iPod, Samsung or other Android or Windows cell phones, Smart Phones, PC, tablet, Notebook, Player, MP3 / MP4, etc.  MUSIC &amp; CALLS CONTROLLING function buttons on headset enable easy sound control and also free your hands from answering/hanging up phone calls.  Any problem or inquires for your purchase, please do not hesitate to contact us directly via Amazon email(Click "Your Account" on Amazon, click "Your Orders", find your order from Tuisy, and then click "Contact Seller") to get a 100% satisfactory solution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Professional Active Noise Cancelling Technology. Significant noise reduction for travel, work and anywhere in between. Advanced active noise reduction technology quells airplane cabin noise, city traffic or a busy office, makes you focus on what you want to hear, enjoy your music, movies and videos. The noise cancellation function can work well both in wire and wireless mode Much Better Sound. Proprietary 45mm large-aperture drivers provide you with deep, accurate bass response. From 75dB to 85dB, the COWIN E7 PRO Active Noise Cancelling Over Ear headphones give you crisp, powerful sound and quiet that helps you enjoy your music better. The goal that provides Customers with better sound quality, is our constant pursuit Upgraded Soft Ear Cushions for Comfort with The professional protein earpad and 90 swiveling earcups: This Bluetooth headphones are equipped with Upgraded Soft Ear Cushions, which not only make it much more durability and comfort, but also make customers enjoy this high-quality, Long-listen feast. And the Skin texture, lightweight comfortable around-ear fit you can wear all day long. Gentle Reminder: please take off the headphones every 2-3 hrs to get your ears relax Much Higher-quality Built-in Microphone and BT 4.0. COWIN E7 PRO provides high-quality built-in microphones for hands-free calls, Which is convenient for you to free yourself from wires. Bluetooth 4.0 promises quick and stable connection with your Bluetooth enabled devices, Powerful Bluetooth Function More Stable Battery Life. 30-hour playtime per full charge at Bluetooth mode. A built-in 800mAh battery won't allow your headphones power off, you can enjoy your world without noise for 30 hours' long time. Don't need to worry the power shortage problem on the long travel. 18-month warranty and quick response &amp; friendly customer service. Note: The exclusive authorized seller is COWIN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sleek &amp; ergonomic: designed to reach deeper into the ear for a snug fit that stays comfortably put even during the most vigorous workout Stellar battery life: 120mAh battery streams music wirelessly for up to 9 hours with only 2 hours of charge IPX6 Splash proof build: water-resistant internal Nano coating protects against sweat and light rain Superior Audio quality: apt audio CODEC produces incredibly rich, high resolution sound free From wires Magnetic design: Lock the aluminum headphones together for a secure way to carry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Connectivity Technology: Wired Black Ultra Soft ErgoFit in ear earbud Headphones conform instantly to Your ears Eight vivid fashion color options with color matching earbuds and cords (color matching for iPod nano 5th generation) Wider frequency response for fuller listening enjoyment Long 3.6 feet cord threads comfortably through clothing and bags Frequency Response : 5 to 24,000 Hz and Impedance 16 ohms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ideal for blocking noise caused Ideal for blocking noise caused by large crowds, airports, sporting events, garden and household tools, or any other troublesome noise or sound Perfect for kids on the autism spectrum for blocking out crowds and other triggers Low profile clam design keeps the muffs safe and secure on little ears and offers a stylish look. Strong high quality parts make them sturdy and robust, so much so we give them a 5 YEAR GUARANTEE! Lightweight and comfortable to suit little ones. Padded ear cushions offer superior comfort and a snug fit Foldable for easy storage and portability. Adjustable (just slide the cups up and down the wire frame to adjust), so they fit children as young as six months and as old as grandpa›See more product details</t>
+  </si>
+  <si>
+    <t>POP-UPS AUTO PAIRING &amp; SMART TOUCH Just take them out from magnetic charging case and they automatically turn on and connect to your device (for IOS). With smart touch control design, there is no pressure when touching the control,easy to operate and have a great enjoy with it.Reduce the pain caused by the buttons. Latest Bluetooth 5.0 &amp; 3D STEREO SURROUND SOUNDOur wireless earphone adopt advanced Bluetooth 5.0 technology and antenna technology, which provides fast and stable transmission, 33ft-50ft bluetooh range, never worry about the connection issues. With built- in high-quality audio chip, It catches every details of music and transmits rich sounds with crisp treble and proper bass.  WITH QUICK CHARGING BOX The portable charging box is ultra- light and has 650mAh large capacity lithium batteries, allowing you to enjoy more than 5-6 hours of uninterrupted music or talk time after each individual charge. The headset can be fully charged about 4 times, only takes 45 mins to fully charged. WEARING COMFORTABLE &amp; IPX5 WATERPROOFWe tested the earbuds with over 100 unique human ears to create an incredibly ergonomic and comfortable design. With the weight of 3.5g each, fit your ears and will not be easy to fall off. The sealed shell and interior nano- coating can easily repel Sweat and rain, making the headphones great for outdoor sports and long workouts. Don't worry if your sweat will damage it. GOOD QUALITY Each headset has been tested before shipment, so please feel free to buy! All of our i11 TWS Bluetooth headsets offer a 24 month warranty. If you have any questions or concerns during use. Please contact us and we will respond promptly within 24 hours.</t>
   </si>
   <si>
     <t>Connectivity Technology: Wired Philips Flexible Earhook Headphones SHS3200/28 Black (replaces SHS3200/37) Bass pipe emphasizes low tones for a clear, realistic sound Enjoy best-in-class performance and optimum sound quality 15mm speaker driver optimizes wearing comfort 3D flexible earhook ensures secure fit in all ear sizes Ergonomically-shaped headphone enhances user comfort Contoured earhook increase wearing comfort and stability A 1.2m long cable that is ideal for outdoor use Stays comfortably in your ear when you are on the move Extremely durable</t>
@@ -6143,10 +6134,10 @@
     <t>LIGHTWEIGHT AND STAY IN EARS WHILE RUNNING - These workout earbuds is 20g super lightweight with soft over ear wire design, very comfortable and holds the ear buds firmly in place even after longtime workout. These running headphones are also sweatproof in ear headphones, which makes them more durable and ideal for sport, exercise, running, biking, jogging, working out, gym, etc. NOISE ISOLATING &amp; BLOCK OUTSIDE DISTURBANCE - These gym earbuds are also sound isolating that can block out 90% of the sound around you. You can easily enjoy your music anytime anywhere with these noise isolating earbuds, even at noisy streets. They help keep disturbance from the outside away when you are doing yoga, reading, thinking and relaxing. Just stay in your private world. DECENT SOUND &amp; ENHANCED BASS OFFERED - High quality audio signal transmission ensure outstanding HiFi performance. The sound comes out is loud and clear. Strong bass stereo makes the beats more energetic and activate you in sports. Start to enjoy live concert-like music with these stereo wrap around earbuds! Good wired earphones for iPhone, iPad, Computer, Tablet, Android devices and all devices with 3.5mm jack. HANDS FREE PHONE CALL &amp; MUSIC TRACK CONTROL - Wired earbuds with microphone and remote, easy to answer/end phone calls, play/pause songs, skip music tracks by the remote button. Press the "+" or "-" to control the music volume or take photos/selfie. No need to take out your phone from pocket or arm band when you are running or exercising. Enjoy a cheerful chat with your friends without pick up background noise or make an echo. SATISFACTION - Order from KINVOCA for a Truly Worry-free Experience. If there are any issues or you think everything is not as advertised, please feel free to contact us.</t>
   </si>
   <si>
-    <t>【Quality Sound】iTeknic wireless earbuds with Bluetooth V5.0 with high-resolution decoder built-in AAC/SBC audio coding technology to the stable transmission and realistic sound, don't worry cut off during listening or controlling. If you have any problem, please feel free to contact us, iTeknic team provides you lifetime customer service. 【Reddot Design Award Winner】iTeknic True Wireless Earbuds exquisite unique appearance and comfortable ear tips design won the Reddot Design Award. IPX5 Waterproof makes it suitable for the gym or running outside to prevent water and sweat. Great ideal for Chrismas Gift, Birthday Present. 【30H Playtime】iTeknic Bluetooth headphones can last for about 8 hours playtime on a single charge (at 75% volume), the charging case holds additional charging for up to 30 hours’ playtime. Mini size charging case for easy storing in the pocket, sufficient music for several days even if there's a power shortage. 【Multifunction Touch Control】Answer and hang up calls or switch the music by tapping on the earbuds instead of picking up your phone when it’s a few feet away, built-in mic in each earbud. ( more details, please refer to the instruction manual or contact iTeknic team) 【ONE-STEP Pairing】iTeknic Bluetooth Earbuds with one-step pairing technology. Pick up 2 headsets from charging box, open the Bluetooth List: iTeknic IK-BH004, earbuds will connect each other automatically, but please attention the RIGHT side earphone is used as the main earphone, the left side earphone will connection after 1-second.</t>
-  </si>
-  <si>
-    <t>[Excellent Sound Quality]: With Bluetooth V5.0 + EDR and TWS technology, it provides faster pairing and more stable connectivity. Enjoy listening with the high-definition stereo music output. So you can stay in the music world, watch movies and share headphones with your surroundings. 【Sport Bluetooth Ear Bud 】: Great For Running, Jogging, Hiking, Biking, Gym Etc. Stay In Ear Tech With Comfortable Fit. Wireless Design, No Wires Tangling, And It's Easy To Storage To Your Sports Armband Or Arm Package Bag. [High Capacity]: Extremely low power consumption, allowing 4-5 hours playback time in high quality. With only 1.5 hour charging time, you can enjoy up to 4 hours of carefree music enjoyment. The tiny charging box recharges the earphones up to four times completely. So you never run out of music on the go, even when you're out for a whole day. [Perfect fit and small size]: Ergonomic and ergonomic design of the headphones allows for long-term comfortable use, extremely light and elegant design, fits perfectly to your ear and is comfortable for many hours without pain. and are therefore safe and stable when running, cycling, training, jogging, hiking or exercising. [Excellent Customer Service]: We offer free lifetime technical support and a 12-month worry-free warranty. No need to worry about a replacement or refund. If you are not satisfied with the purchase, please do not hesitate to contact us, we provide the perfect solution and satisfactory service.</t>
+    <t>Quality SoundiTeknic wireless earbuds with Bluetooth V5.0 with high-resolution decoder built-in AAC/SBC audio coding technology to the stable transmission and realistic sound, don't worry cut off during listening or controlling. If you have any problem, please feel free to contact us, iTeknic team provides you lifetime customer service. Reddot Design Award WinneriTeknic True Wireless Earbuds exquisite unique appearance and comfortable ear tips design won the Reddot Design Award. IPX5 Waterproof makes it suitable for the gym or running outside to prevent water and sweat. Great ideal for Chrismas Gift, Birthday Present. 30H PlaytimeiTeknic Bluetooth headphones can last for about 8 hours playtime on a single charge (at 75% volume), the charging case holds additional charging for up to 30 hours’ playtime. Mini size charging case for easy storing in the pocket, sufficient music for several days even if there's a power shortage. Multifunction Touch ControlAnswer and hang up calls or switch the music by tapping on the earbuds instead of picking up your phone when it’s a few feet away, built-in mic in each earbud. ( more details, please refer to the instruction manual or contact iTeknic team) ONE-STEP PairingiTeknic Bluetooth Earbuds with one-step pairing technology. Pick up 2 headsets from charging box, open the Bluetooth List: iTeknic IK-BH004, earbuds will connect each other automatically, but please attention the RIGHT side earphone is used as the main earphone, the left side earphone will connection after 1-second.</t>
+  </si>
+  <si>
+    <t>[Excellent Sound Quality]: With Bluetooth V5.0 + EDR and TWS technology, it provides faster pairing and more stable connectivity. Enjoy listening with the high-definition stereo music output. So you can stay in the music world, watch movies and share headphones with your surroundings. Sport Bluetooth Ear Bud : Great For Running, Jogging, Hiking, Biking, Gym Etc. Stay In Ear Tech With Comfortable Fit. Wireless Design, No Wires Tangling, And It's Easy To Storage To Your Sports Armband Or Arm Package Bag. [High Capacity]: Extremely low power consumption, allowing 4-5 hours playback time in high quality. With only 1.5 hour charging time, you can enjoy up to 4 hours of carefree music enjoyment. The tiny charging box recharges the earphones up to four times completely. So you never run out of music on the go, even when you're out for a whole day. [Perfect fit and small size]: Ergonomic and ergonomic design of the headphones allows for long-term comfortable use, extremely light and elegant design, fits perfectly to your ear and is comfortable for many hours without pain. and are therefore safe and stable when running, cycling, training, jogging, hiking or exercising. [Excellent Customer Service]: We offer free lifetime technical support and a 12-month worry-free warranty. No need to worry about a replacement or refund. If you are not satisfied with the purchase, please do not hesitate to contact us, we provide the perfect solution and satisfactory service.</t>
   </si>
   <si>
     <t>BONE CONDUCTION TECHNOLOGY - Our bone conduction technology and Open Fit design delivers music through your cheekbones, ensuring your ears remain completely open to ambient sounds for maximum situational awareness during long-term wear. Bluetooth connectivity - modern wireless headphones with Bluetooth V4. 1 connectivity and convenient multipoint pairing compatible with your iOS and Android Bluetooth-ready smartphones or tablets and Mac and PC computers and laptops. Designed for long wear - Titanium wraparound headbands are lightweight and flexible to ensure maximum comfort during extended wear. Combined with a long battery life, This compact, slim fit allows you to enjoy continuous music and calls for six hours at a time. QUALITY SOUND - Innovative Aftershocks headphones deliver a premium audio experience. With Premium Pitch technology that delivers a wide dynamic range and rich bass, and Leaks layer technology to significantly reduce natural sound leakage, you are ensured the best on-the-go audio. Ultimate durability - our IP55 certified Sport headphones repel sweat, dust and moisture throughout your indoor or outdoor exercise routine. These sturdy workout headphones withstand your most strenuous running, cycling, and more! Eq presets reduce vibration.</t>
@@ -6161,7 +6152,7 @@
     <t>Superior Sound; Specifically designed to deliver stellar audio quality regardless of volume, this earphone set provides premium performance; Featuring 12mm drivers for heavy, precision driven bass, you can enjoy an authentic live music experience Comfortable; Equipped with 3 different sized rubber earbuds, you can select the perfect fit for your personal ear shape; Ergonomically designed for maximum comfort and staying power, these earbuds are perfect for daily use Noise Isolation; Featuring a specialist design crafted to mould alongside your ear canal, this in ear headphone set cancels out surrounding noise allowing you to enjoy your favorite tracks with zero distraction Versatile; Compatible with a range of electronics devices, you can plug these earphones into virtually any device with a headphone jack; Suitable for a variety of iPhones, iPads and Samsung Cell Phones and tablets ( some devices may not support volume control) Multifunctional; These earphones with mic also feature built in controls; Allowing you to skip tracks, pause, and even take and hang up phone calls, you don’t even have to touch your device to complete a variety of essential functions</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Top Performing Audio: Betron B25 earphones offer an outstanding audio performance, thanks to their high powered dynamic speaker systems; If you love crystal clear sound whilst listening to music, then these are the earphones for you Noise Isolation: The headphones eliminate outside noise to keep your music crystal clear; They also allow you to listen to your tracks at much lower and safer volumes; Also include various ear adaptor sets for excellent fit and ambient noise attenuation Heavy Bass: Beat Response Control technology delivers a tight, deep bass response, perfect for low end focused music; An acoustic port controls air flow for the low frequency range, optimising diaphragm movement for an accurate reproduction of bass Lightweight Design: With its attractive appearance, the B25 earphones are no less than charming; They are lightweight and provide long lasting comfort during a variety of activities; Strut in style and let the music flow anywhere you go Multi Functional: These earphones with mic allow you to easily take calls handsfree; The built in microphone makes answering and terminating calls simple and easy, meaning listening to music is not the only function you can achieve with this set.</t>
+    <t xml:space="preserve"> Top Performing Audio: Betron B25 earphones offer an outstanding audio performance, thanks to their high powered dynamic speaker systems; If you love crystal clear sound whilst listening to music, then these are the earphones for you Noise Isolation: The headphones eliminate outside noise to keep your music crystal clear; They also allow you to listen to your tracks at much lower and safer volumes; Also include various ear adaptor sets for excellent fit and ambient noise attenuation Heavy Bass: Beat Response Control technology delivers a tight, deep bass response, perfect for low end focused music; An acoustic port controls air flow for the low frequency range, optimising diaphragm movement for an accurate reproduction of bass Lightweight Design: With its attractive appearance, the B25 earphones are no less than charming; They are lightweight and provide long lasting comfort during a variety of activities; Strut in style and let the music flow anywhere you go Multi Functional: These earphones with mic allow you to easily take calls handsfree; The built in microphone makes answering and terminating calls simple and easy, meaning listening to music is not the only function you can achieve with this set.</t>
   </si>
   <si>
     <t>Excellent quality, fashionable appearance design, 5 Colors to choose this earphones is the best choice for you. Standard 3. 5mm audio jack, length is about 3 feet or 1 meter. Works on all Mobile phone and other MP3 Players. Plug in headphones will be able to enjoy the fun of music, it is very convenient and comfortable. All earphones have been selected carefully, and were heavily tested before sending to you. Whole package includes 5 pieces of earphones, and each earphone has a different color.</t>
@@ -6173,19 +6164,19 @@
     <t>[Steady Bluetooth 5.0 Technology &amp; Binaural Call] : Adopted with the newest bluetooth 5.0 technology that wireless earbuds not only produced uninterrupted calls, but also deliver enjoyable music. Both earphones have the function of answering calls, which frees your hands well. [Extra Long Stand by &amp; Magnetic Charging] : The wireless earphones can be used for 3-4 hours from a single full charge, and the magnetic charging box has a power storage function, which can additional provide 24 hours of music playback time, you will never worry about power off when you are running or playing in outside. [Hi-Fi Stereo Sound Quality &amp; Noise Reduction]：Equipped with superior chipest，this high-quality earbuds ensure that you get a clear Hi-Fi stereo sound. What’s more, the bluetooth earbuds is perfectly designed with the high-grade components, which is with the function of noise reduction, so that you can enjoy music everywhere even in a noisy environment. [Comfort Fit &amp; Exquisite Portable Design ] : This headset is ergonomically designed and earbud sleeves are made from silicone materials. There are three sizes to choose from, you can choose the right one according to your needs. Really gives you a soft and comfortable wearing experience, even children can use it. Small portable design for easy pocket, carry out the wireless headphones anywhere as you want. [Auto on &amp; One Step Pairing] : Take out both earbuds from magnetic charging box, they will automatically turn on and connect each other within few seconds, and then only one step turn on the bluetooth setting choose the "J2" to pair the bluetooth earphones. (Please turn off the Bluetooth before you pick up the earbuds)</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [Headphones on, World off] advanced noise reduction technology quells airplane cabin noise, city traffic or a busy office. A valuable noise cancelling headphone in protecting your ears from excessive noise. So you can focus more on what matters. The clean and crisp sound resolution will give you a lively music experience wherever you are. [Ultra-high speed charging] just 5 minutes of charging give you 2 hours of full sound, 30 hours of battery life when charged fully; 24 months to give you peace of mind. We try our best to provide you a first-class experience. [Unrivaled comfort, easy-carrying] with its adjustable headband, 90° rotatable ear cups, and cloud-soft protein ear pads, The wireless headphones are lightweight and can be worn over long times. The practical folding design with a carrying case makes them a great travel companion. [Note]: Please take off the headphone every 1-2hrs for a few minutes to relax your ears. [Hi-fi sound &amp; CAPTIVATING bass] 40mm large-aperture drivers deliver riveting sound and a thumping bass. It is designed for stereo headphones. Provide you a more pleasant music time. [Hd mic, hands-free calls] making calls has never been this personal and efficient. This modern design noise cancellation headphones support call efficiently and enhance better audibility and connection. These luxurious headphones have 5. 0 Bluetooth version in you The best hands-free call and exceptional experience. You can enjoy wireless or wired mode depend on your require.</t>
+    <t xml:space="preserve"> [Headphones on, World off] advanced noise reduction technology quells airplane cabin noise, city traffic or a busy office. A valuable noise cancelling headphone in protecting your ears from excessive noise. So you can focus more on what matters. The clean and crisp sound resolution will give you a lively music experience wherever you are. [Ultra-high speed charging] just 5 minutes of charging give you 2 hours of full sound, 30 hours of battery life when charged fully; 24 months to give you peace of mind. We try our best to provide you a first-class experience. [Unrivaled comfort, easy-carrying] with its adjustable headband, 90° rotatable ear cups, and cloud-soft protein ear pads, The wireless headphones are lightweight and can be worn over long times. The practical folding design with a carrying case makes them a great travel companion. [Note]: Please take off the headphone every 1-2hrs for a few minutes to relax your ears. [Hi-fi sound &amp; CAPTIVATING bass] 40mm large-aperture drivers deliver riveting sound and a thumping bass. It is designed for stereo headphones. Provide you a more pleasant music time. [Hd mic, hands-free calls] making calls has never been this personal and efficient. This modern design noise cancellation headphones support call efficiently and enhance better audibility and connection. These luxurious headphones have 5. 0 Bluetooth version in you The best hands-free call and exceptional experience. You can enjoy wireless or wired mode depend on your require.</t>
   </si>
   <si>
     <t>Deep, clear sound enhanced by exclusive TriPort technology for crisp highs and natural-sounding lows Proprietary Stay Hear tips, in three sizes, conform to your ear's shape to stay comfortably in place all day Sweat- and weather-resistant; engineered and tested for lasting quality and durability Inline microphone and remote for easy switching between calls and music with select iPhone models Matching protective carrying case included</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Precision German engineering ensures excellent audio clarity, so you will hear every detail of your music. Secure over-ear fit provides excellent reduction of ambient noise, so you can relax and focus on the music. A lightweight foldable design allows for easy storage making the headphone easy to carry anywhere.</t>
+    <t xml:space="preserve"> Precision German engineering ensures excellent audio clarity, so you will hear every detail of your music. Secure over-ear fit provides excellent reduction of ambient noise, so you can relax and focus on the music. A lightweight foldable design allows for easy storage making the headphone easy to carry anywhere.</t>
   </si>
   <si>
     <t>PREMIUM SOUND : Crisp, clear sound and bumping bass make for a complete surround sound experience when listening to all types of music. LIGHTWEIGHT AND COMPACT DESIGN: Designed with comfort in mind, pillow soft cushions sit snugly on your ears for long term use; Foldable for convenient storage when not in use; lightweight materials make these headphones ideal for everyday travel. BUILD IN MICROPHONE AND VOLUME CONTROL: Enjoy a completely hands free listening experience with a microphone built into the headset for high definition calls ; Adjust Volume, Pause/Play your Music or answer/end phone calls right from your headset with built in control.calls ; Adjust Volume, Pause/Play your Music or answer/end phone calls right from your headset with built in control UNIVERSAL COMPATIBILITY: Headphones are designed with a 3.5mm jack that fits to all standard iPhones, Androids, smartphones, iPads, Tablets, etc. 1 YEAR LIMITED WARRANTY: Hassle free and USA based Customer Service.</t>
   </si>
   <si>
-    <t>🎶【Bluetooth 5.0】Bluetooth 5.0 and DSR lossless HD rendering technology ,faster, more stable and efficient. Enhance the audio quality and Powerful Bass Performance of headset . Headphones built-in microphone provide the best stereo call quality and clarity 🎶 【3500mAh Ultra Large Capacity】wireless earbuds with 3500mah charging case, which can provides more than 25 charges and 120 hours of playtime. You can also use the charging case as a power bank to charge your smartphone. 🎶 【Auto and Fast pairing 】Remove the earphone from the charing case, lightning earbuds automatically turns on and matches,more convenient and fast,Compatible with all moblie phone, iPhone X,XR,XS,iPhone 8,Samsung Galaxy ,huawei,iPad, Android, and all Bluetooth-enabled device. 🎶 【IPX8 Waterproof 】IPX8 waterproof sports wireless earbuds design, design for sweat &amp; water resistance during. Perfect for Sports,Gym and most of the places.The earphones adopts touch design, provides multiple operations, adjust volume, answer calls, and switch songs.( Note:Not for swimming, Bluetooth signal CAN NOT be connected underwater because water block bluetooth signal) 🎶【MULTI MODES 】Bluetooth earbuds are designed with on-touch control, you can freely switch songs, answer/reject a call, adjust volume and Siri. Earbuds support mono/stereo/modes，provide the best stereo call quality and clarity.Cover the lid of case when charging,Earbuds will charges quickly and successfully</t>
+    <t>🎶Bluetooth 5.0Bluetooth 5.0 and DSR lossless HD rendering technology ,faster, more stable and efficient. Enhance the audio quality and Powerful Bass Performance of headset . Headphones built-in microphone provide the best stereo call quality and clarity 🎶 3500mAh Ultra Large Capacitywireless earbuds with 3500mah charging case, which can provides more than 25 charges and 120 hours of playtime. You can also use the charging case as a power bank to charge your smartphone. 🎶 Auto and Fast pairing Remove the earphone from the charing case, lightning earbuds automatically turns on and matches,more convenient and fast,Compatible with all moblie phone, iPhone X,XR,XS,iPhone 8,Samsung Galaxy ,huawei,iPad, Android, and all Bluetooth-enabled device. 🎶 IPX8 Waterproof IPX8 waterproof sports wireless earbuds design, design for sweat &amp; water resistance during. Perfect for Sports,Gym and most of the places.The earphones adopts touch design, provides multiple operations, adjust volume, answer calls, and switch songs.( Note:Not for swimming, Bluetooth signal CAN NOT be connected underwater because water block bluetooth signal) 🎶MULTI MODES Bluetooth earbuds are designed with on-touch control, you can freely switch songs, answer/reject a call, adjust volume and Siri. Earbuds support mono/stereo/modes，provide the best stereo call quality and clarity.Cover the lid of case when charging,Earbuds will charges quickly and successfully</t>
   </si>
   <si>
     <t>[HD Stereo Quality &amp; Noise Canceling]: Customized driver unit achieves wide-range sound reproduction. Featuring with Stereo Hi-Fi output, OULDPA wireless headphones delivers an extremely accurate listening experience. Thanks to CVC8.0 intelligent Noise Canceling, these bluetooth earbuds reduce outside noise to a significantly high degree. [LED Battery Display &amp; 180 Hours Playing Time]: The wireless headphones with 6000 mAh charging case, LED battery display, 5-6 hours playtime for a single charge. The charging case can charge bluetooth earbuds 30 times, only needs one hour to fully charge the bluetooth earbuds. It also could be used as a portable power bank for your cellphone or tablet, very useful in your travel or business trip. [TWS &amp; Bluetooth 5.0]: Utilizing the most advanced Bluetooth 5.0 technology, Provides in-call stereo sound. Also owns fast and stable transmission. TWS technology, bluetooth headphones can pair easily with any two devices at once. [IPX7 Waterproof For Sports]: IPX7 Waterproof Nano-coating efficiently protects the bluetooth headphones from sweat or water, perfect for workout, skiing, running, jogging, gym exercise, etc. [Easy to Use &amp; Warranty]：Wireless earbuds will be automatically turned on and paired with your device as soon as you take them out of the charging case. After the first successful connection to the device, subsequent use is very automatic and efficient. OULDPA wireless earbuds is proud to offer a 1 year warranty,if you have any problem please contact our customer service to get help.</t>
@@ -6203,16 +6194,16 @@
     <t>HIGH DEFINITION STEREO HEADSET: CSR chip and Bluetooth V4.1 for stereo sound and superb bass sound, Clear high &amp; low volume, bring you to a pure touching music world  NOISE REDUCTION: CVC6.0 Bluetooth intelligent noise isolation technology,HD noise isolation microphone. clear talking experience,Be able to connect 2 devices at the same time  EASY TO USE: Magnet attched design, stick 2 ear-plugs together when they are standby, like a necklace prevent cable tangles  HIGHLY COMPATIBLE: Bluetooth 4.1, which compatible with IOS or Android smartphones with clear and mellow music play.Sweat-proof function let you enjoy music and call while doing sport without worries  18-MONTH WARRANTY: 18-month no-questions-asked return policy to ensure the enjoyment of your purchase</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Advanced build quality and engineering 40 millimeter drivers with rare earth magnets and copper clad aluminum wire voice coils Tuned for enhanced detail, with excellent mid range definition Circumaural design contours around the ears for excellent sound isolation in loud environments Convenient single side cable exit Collapsible for space saving portability</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Answer calls with built-in microphone High quality bass for pulse-pounding music Enhanced moisture protection to resist sweat and splashes Seamless music and video playback control Compatible with all Lightning-enabled devices that support iOS 10 or later, including iPod Touch, iPad and iPhone</t>
+    <t xml:space="preserve"> Advanced build quality and engineering 40 millimeter drivers with rare earth magnets and copper clad aluminum wire voice coils Tuned for enhanced detail, with excellent mid range definition Circumaural design contours around the ears for excellent sound isolation in loud environments Convenient single side cable exit Collapsible for space saving portability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Answer calls with built-in microphone High quality bass for pulse-pounding music Enhanced moisture protection to resist sweat and splashes Seamless music and video playback control Compatible with all Lightning-enabled devices that support iOS 10 or later, including iPod Touch, iPad and iPhone</t>
   </si>
   <si>
     <t>AUDACIOUS AUDIO: apt-X HD audio combines with 10mm drivers deliver clear and smooth sound; listen to clear music with plenty of detail and no hard edges. Advanced codec apt-X HD offer superior stereo sound with reinforced clarity. CRISP VOICE CALLS: Built-in microphone with advanced cVc 8.0 noise cancellation technology allows you to take clear hands free calls on the go. Even in unpleasant noisy environments, you can enjoy a very clear call. 3 EQUALIZER MODES: Adjust the intensity of your music with Bass, Normal and Treble modes to optimize your soundtracks, audio books, and more. A simple push of V+ and multifunction button activates the EQ settings feature getting your music more rhythmic and richer. IPX7 WATERPROOF: Fully waterproof build delivers serious defense against rain, sweat, and more; listen to music whilst running, hiking, and doing other exercises, protects the headphones from heavy rains or sweat fitness even in rainy days. LISTEN FOR LONGER: Bluetooth 5.0 technology combines with high-performing rechargeable batteries for up to an incredible 16 hours playback on a full charge. 18-month warranty promise, no matter product problem, we will replace new one or refund for you.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Sony MDR-EX15LPL Blue In Ear Headphones MDREX15</t>
+    <t xml:space="preserve"> Sony MDR-EX15LPL Blue In Ear Headphones MDREX15</t>
   </si>
   <si>
     <t>Improved Active Noise Cancelling (ANC) Technology. E9 can work better and significantly cancel noise for travel, work and anywhere in between. Quells airplane cabin noise, city traffic or a busy office, help you focus on what you want to hear. Great for cancelling noise during long trips on a plane or in places with city traffic. Superior Sound Quality. AptX, aptX HD, aptX Low Latency, and AAC audio codecs. They will give you a deep, powerful, and immersive sound at any volume, make your overall listening experience just that much better. The goal that provides Customers with better sound quality, is our constant pursuit. CVC HD Calls and Bluetooth 5.0. The high-quality built-in microphones provides CVC HD calls, the business class communications even in windy or noisy environments, Which is convenient for you to conmunicate with others. Bluetooth 5.0 promises quick and stable connection with your Bluetooth enabled devices. Bluetooth transmission distance: &gt;15m. The Upgraded Soft Ear Cushions and Premium Material. More durability and comfort, Enjoy high-quality, Long-listen comfort. Skin texture, lightweight comfortable around-ear fit you can wear all day long. The foldable design is designed for saving your travel bag space, perfect for travel. 30 Hours Playtime. A built-in 800mAh battery won't allow your headphones power off, 30 hours playtime and 60 months standby time. Don't need to worry the power shortage problem on the long travel. 18-month warranty and quick response &amp; friendly customer service. Note: The exclusive authorized seller is COWIN.</t>
@@ -6224,13 +6215,13 @@
     <t>Newly hybrid active noise cancellation tech: Mpow hybrid active noise cancelling headphones combines feed forward and feedback ANC by placing a microphone inside and outside the ear cup, which enables to cancel out a wider range of low and mid-frequency noises such as cars and airplane engines. Immerse yourself in the world of music, even in a busy street or a busy office. Note: the human voice can not be eliminated. Bluetooth 5. 0 Hi-fi sound &amp; deep Bass: Mpow H12 active noise cancelling headphones bluetooth Headphones use dual 40mm large-aperture drivers to deliver hi-fi stereo sound and powerful deep bass for you. And Mpow Bluetooth headphones adpots BT5. 0 Tech can stream rich, dynamic audio. 30H playtime &amp; independent ANC switch: 500mAh battery provides up to 30 hours of music/talking time after fully charged for 2-3 hours. Non-music ANC mode enables you to enjoy your personal time. Note: turn off ANC when not in use to saving power. Unmatched wearing Comfort &amp; foldable design: adjustable headband and 90° rotatable ear cups, soft memory-protein ear pads of Mpow over-ear bluetooth headphones let you listen in total comfort. Folding space-saving design with a carrying bag makes it a great travel companion. Note: Please note Mpow H12 is designed a little oversized for fit in most people's head and long-time wear comfort. Cvc 6. 0 microphone &amp; hands-free call: built in CVC 6. 0 noise Cancelling microphone lets you take/make hassle-free calls and access your voice assistant. Compatible with Android/iOS smartphones and tablets; MP3, MP4; iPod; PC; TV and other Bluetooth enabled devices.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) We have improved the sound quality of the headphones, in order to bring you a better experience. Each package contains 4 headphones in different colors with 3.5 mm standard audio jack. The length of each headphone cable is 120 cm/4.72 ft. REMOTE CONTROLS &amp; MICROPHONE- Built with a multi-functional button in line which makes the earphones more convenient to Play / Pause / Answer / End Calls / Next Track / Previous Track. The built-in microphone is convenient for hands-free calling, Answer, Reject and End calls directly with the earphones Suitable for MP3, iPod, iPhone, DVD and CD players, as well as portable gaming systems. In-ear headphones allow you to listen to music without interference. 100% Guarantee: VPB Earphones come with 1 year limited warranty and 30 days money-back guarantee. We look forward to bringing you a good experience. If you are not satisfied with our products, Please contact us。</t>
+    <t xml:space="preserve"> We have improved the sound quality of the headphones, in order to bring you a better experience. Each package contains 4 headphones in different colors with 3.5 mm standard audio jack. The length of each headphone cable is 120 cm/4.72 ft. REMOTE CONTROLS &amp; MICROPHONE- Built with a multi-functional button in line which makes the earphones more convenient to Play / Pause / Answer / End Calls / Next Track / Previous Track. The built-in microphone is convenient for hands-free calling, Answer, Reject and End calls directly with the earphones Suitable for MP3, iPod, iPhone, DVD and CD players, as well as portable gaming systems. In-ear headphones allow you to listen to music without interference. 100% Guarantee: VPB Earphones come with 1 year limited warranty and 30 days money-back guarantee. We look forward to bringing you a good experience. If you are not satisfied with our products, Please contact us。</t>
   </si>
   <si>
     <t>[Active Noise Cancelling Functionality] LASUNEY Active Noise Cancelling Headphone adopts advanced active noise reduction technology, which mainly focus on cancelling out lower frequency sounds like engines, aviation environment, trains, traffic noise,the noise of busy office and so on. So you can focus on your music, movies or books without being disturbed by outside noise. NOTE: ANC earbuds can not cancel out the middle-high frequency sounds like snoring, talking, music and traffic horns etc. [Built-In MEMS Noise Cancelling Microphone] LASUNEY ANC headphone can eliminate more than 85% of lower frequency noise. Built in MEMS noise cancelling microphone can reducing the noise of busy office/ city traffic/ airplane cabin as much as possible for crispier phone calls. [Catch Announcement with Monitoring Mode] Slider switch turns ANC on and off. Three button remote allows you to manage calls and music. When the ANC is turned on (the indicator light shows green), you only need press the button of monitor mode, you will enter the monitor mode (the indicator light shows blue), you can clearly hear the announcement of the airline or subway and what is saying around you without removing the headphones. [Well Performance in Soft Music Playing] LASUNEY Noise Cancelling Headphones built in 10mm horns and wool diaphragm, which shows good performance when playing soft music and have a natural mellow voice. You can enjoy your music life and your peace. Noise Cancelling Earphones play for up to 20 hours with 2-hour charge. [Comfortable Wearing and Suitable Devices] We offer S, M, L sizes ear tips and ear hook, you can find your optimal fit. It also features 3. 5mm audio jack and braided line. Compatible with most 3.5mm enabled devices like: iPhone, Android devices, iPad, laptop, MP3,MP4 and other portable music player. NOTE: Make sure your device has 3.5mm audio port or you have 3.5mm headphone jack adapter.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 150 Ohms impedance, made for use with headphone amplifiers &amp; DACs Frequency response - 16 – 45,000Hz</t>
+    <t xml:space="preserve"> 150 Ohms impedance, made for use with headphone amplifiers &amp; DACs Frequency response - 16 – 45,000Hz</t>
   </si>
   <si>
     <t>One-Step Pairing: The true wireless earbuds with one-step pairing technology. Just pick up 2 earbuds out of the charging box. They will connect each other automatically, then only one step easily enters your phone Bluetooth setting to pair the headphones. Comfort-Fit All Day: Ergonomic in-ear design, the wireless earbuds snug and secure fit in your ears. It will not fall during when you running, fitness or exercise and also creates a better seal for enhanced noise isolation. Breathtaking Stereo Quality：The TWS earbuds left and right headphones form a stereo system via Bluetooth 5.0. stereo sound quality and design give you the perfect sound, Also available crystal clarity and Deep, resonant bass with delicately tuned sound signature deliver immersive sound. Type-C Quick Charge &amp; Bluetooth 5.0: type-c USB 3 Provides faster-charging speed. charge fully in 90 minutes with a more stable and safer way charge. The Bluetooth 5.0 Chip, Offers Fast Speed, Stable Connection, Enable to 33ft Transmission. Multifunctional Bluetooth 5.0 Earphones: True TWS headphones means be able to use alone or simultaneously. You can operating Music switch, call answer/end, voice control, activate Siri/Bixby, We offer 90-DAY RETURNS &amp;1-YEAR WARRANTY，TRY IT NOW WITHOUT RISK</t>
@@ -6242,7 +6233,7 @@
     <t>Wireless, on the go design delivers the same critically acclaimed sonic performance as the original ATH M50x Professional studio Headphones Touch control provides convenient access to voice assist. Sensitivity - 99 dB/mW. Impedance - Impedance Mic and button controls built into the ear cup allow for easy handling of calls, music playback and volume adjustment Proprietary 45 millimeter large aperture drivers deliver exceptional clarity throughout an extended frequency range, with deep, accurate bass response Includes 30 centimeter (1.0 feet) USB charging cable and carrying pouch; Magnet: neodymium</t>
   </si>
   <si>
-    <t>✔【EXECELLENT SOUND BLOCKS OUT EXTERIOR NOISE】---Earbuds Headphones have deep base and excellent clarity,In-ear earphones’s the noice canceling technique is a real help against loud and annoying noises.Wired earbuds excellent sound including some actual bass. ✔【HIGH QUALITY BUILT IN MICROPHONE】---Nice wired earbuds in ear headphones for crystal clear conversation,earphones with volume control &amp; Play, pause, next control,makes you hands free, crispy buttons wired earphones ear buds with microphone ✔【FULL METAL HOUSING &amp; TANGLE FREE WIRED】---Earphones with microphone made by aluminum alloy materials,super durable long lasting life earbuds,strong tangle free wired ear buds with 3.5mm jack wired earphones in ear headphones ✔【WIDE COMPATIBILITY】---Earbuds headphones compatible with apple iPhone,iPod, iPad,MP3,Tablet,PC and Android devices etc.In-ear Earphones the sound is rich, well balanced, both upper and lower end crisp, and voice is smooth natural. ✔【EXCELLENT CUSTOMER SERVICE】---Earbuds Headphones is provided brand protection. If you are not satisfied with our earbuds , please contact us. We will provide full refund of your earphones. The full refund policy that it will become your best purchase for earbuds.</t>
+    <t>✔EXECELLENT SOUND BLOCKS OUT EXTERIOR NOISE---Earbuds Headphones have deep base and excellent clarity,In-ear earphones’s the noice canceling technique is a real help against loud and annoying noises.Wired earbuds excellent sound including some actual bass. ✔HIGH QUALITY BUILT IN MICROPHONE---Nice wired earbuds in ear headphones for crystal clear conversation,earphones with volume control &amp; Play, pause, next control,makes you hands free, crispy buttons wired earphones ear buds with microphone ✔FULL METAL HOUSING &amp; TANGLE FREE WIRED---Earphones with microphone made by aluminum alloy materials,super durable long lasting life earbuds,strong tangle free wired ear buds with 3.5mm jack wired earphones in ear headphones ✔WIDE COMPATIBILITY---Earbuds headphones compatible with apple iPhone,iPod, iPad,MP3,Tablet,PC and Android devices etc.In-ear Earphones the sound is rich, well balanced, both upper and lower end crisp, and voice is smooth natural. ✔EXCELLENT CUSTOMER SERVICE---Earbuds Headphones is provided brand protection. If you are not satisfied with our earbuds , please contact us. We will provide full refund of your earphones. The full refund policy that it will become your best purchase for earbuds.</t>
   </si>
   <si>
     <t>CD-like Quality Sound: TaoTronics SoundLiberty 53 offers a truly natural, authentic sound and powerful bass performance with 6mm dynamic speakers and enhanced bass. IPX7 Waterproof: High-level water-resistant makes it suitable for sports to prevent water and rain. Ideal for sweating it out at the gym or running outside. Single/Twin Mode for All Occasions: with built-in mic in each earbud, you can use a single earbud for working or use the pair to enjoy music alone or share with a loved one. 40H Playtime: Up to 5 hours’ playtime on one charge and a charging case holds multiple additional charges for up to 36 hours’ playtime. Mini size charging case for easy storing in the pocket. Multifunction Touch Control: Answer and hang up calls or access other functions by tapping on the earbuds instead of picking up your phone when it’s a few feet away.</t>
@@ -6254,25 +6245,25 @@
     <t>Superior Bass; Specifically designed to highlight the bass and tone of any track, the 10mm neodymium drivers of this headphone set provide premium sound quality; Regardless of volume, you will experience crystal clear audio at all times. Premium sound; Big brand quality rivalling much more expensive earphones; 24k Gold Plated 3.5mm jack for optimum performance; Powerful deep bass and balanced crisp mids and highs produce premium audio performance and accurate listening experience. Volume Controller and Microphone; With a built in microphone and volume control on the earphone cord, you can control your music and take handsfree calls; Some Apple devices without headphone socket may require earphone adapter which is not included Noise Isolating with Powerful Bass; The sound of these in ear earphones is well balanced across the spectrum, the bass is deep, powerful and a delivers a clear sound; Ergonomically designed ear tips means ambient noise is also reduced What is Included: Carry Case, 6 different pairs of earbuds and a pair memory foam ear buds, earphone wire clip</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) TWS &amp; BLUETOOTH 5.0 - Adopt the most advanced Bluetooth 5.0 technology and Qualcomm QCC3020 Chip, these truly wireless earbuds support HSP, HFP, A2DP, AVRCP and provides the fast and stable transmission without tangling, in-call stereo sound quality and lower power consumption. it's the most advanced TWS earphones in a flooded market. ENJOY MUSIC ON-THE-GO - iTeknic BH003 wireless earbuds can last for 4-5 hours playtime from a single charge and 20 extra hours in the compact charging case. About 1-hour charging you can make the earbuds battery from died to full charge, and only 2 hours for charging case. You will never worry about running out of power. IPX7 WATERPROOF - earbuds and charging case sealed shell and interior Nano coating can easily repel sweat and rain, High-level water-resistant making the headphones good for outdoor sports and long workouts to prevent water ingress. Ideal for sweating it out at the gym or singing in the rain. Even Wash the earbuds and base with soak. HI-FI STEREO / SECURE FIT - iTeknic wireless earbuds offers a truly natural, authentic sound and powerful bass performance with 8mm large size speaker driver. We tested the earbuds with over 100 unique human ears to create an incredibly ergonomic and comfortable design. Enjoy all day listening comfort with soft, snug earbuds that perfectly fit your ears. ONE STEP PAIRING - All you need to do just take earbuds out from the charging box and they will connect each other automatically, put them on and you are ready to immerse in your music world. User-friendly on-ear button on each side supports play/pause, switching tracks and handling phone calls easily, free your hands.</t>
+    <t xml:space="preserve"> TWS &amp; BLUETOOTH 5.0 - Adopt the most advanced Bluetooth 5.0 technology and Qualcomm QCC3020 Chip, these truly wireless earbuds support HSP, HFP, A2DP, AVRCP and provides the fast and stable transmission without tangling, in-call stereo sound quality and lower power consumption. it's the most advanced TWS earphones in a flooded market. ENJOY MUSIC ON-THE-GO - iTeknic BH003 wireless earbuds can last for 4-5 hours playtime from a single charge and 20 extra hours in the compact charging case. About 1-hour charging you can make the earbuds battery from died to full charge, and only 2 hours for charging case. You will never worry about running out of power. IPX7 WATERPROOF - earbuds and charging case sealed shell and interior Nano coating can easily repel sweat and rain, High-level water-resistant making the headphones good for outdoor sports and long workouts to prevent water ingress. Ideal for sweating it out at the gym or singing in the rain. Even Wash the earbuds and base with soak. HI-FI STEREO / SECURE FIT - iTeknic wireless earbuds offers a truly natural, authentic sound and powerful bass performance with 8mm large size speaker driver. We tested the earbuds with over 100 unique human ears to create an incredibly ergonomic and comfortable design. Enjoy all day listening comfort with soft, snug earbuds that perfectly fit your ears. ONE STEP PAIRING - All you need to do just take earbuds out from the charging box and they will connect each other automatically, put them on and you are ready to immerse in your music world. User-friendly on-ear button on each side supports play/pause, switching tracks and handling phone calls easily, free your hands.</t>
   </si>
   <si>
     <t>Suitable for all mobile phones with 3.5mm headphone jacks. Built-in remote and microphone. Long 3.6-ft cord threads comfortably through clothing and bags. Control the playback of music and video, answer or end calls. Fast delivery, 365 day warranty.</t>
   </si>
   <si>
-    <t>【SAFE &amp; VOLUME LIMITED TECHNOLOGY】Built-in volume-controlled technology that ensures the sound is within levels recommended safe for young children's eardrums and inner ear at 80-95dB, one button switch the sounds levels easily. 【HAPPY SHARING &amp; EXCEELENT SOUND】The Wireless kids headphones provides easy access to 2 devices simultaneously connected, and will not influence the stereo sound effect. 【CHILDREN- FRIENDLY MATERAIL】 EasySMX Kids headphone is specially designed for children ages at 3 and up. It is equipped with high quality polycarbonate headband,Soft Washable Memory Earmuffs and tangle-free cords, Lightweight. Environment-friendly and children-friendly material, approved by CPSIA,FCC. 【UNIVERSAL COMPATIBILITY &amp; BUTTON CONTROL】Built-in Bluetooth 5.0, support all bluetooth devices wirth Fast and stable connection . With function buttons on the earcup give you the power to easily control the headphone 【NEVER POWER OFF, WIRELESS &amp; WIRED 2 IN 1】 1. Wireless mode: Battery offer 15~20-hr music/ talking time in a single charge. 2. The Wired mode: you can also use it as a wired headphone with the provided audio cable so the headphones will never power off.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Up to 100 hours playtime: 1200mAh rechargeable battery enables up to 100 hours of playtime. You can use the Bluetooth headphones for 40 days when you use them for 3 hours A day, or travel with the headphones for a month without charging. Deep bass function: The wireless headphones with 40mm large-aperture drivers and Deep bass function deliver premium playback with superb bass depth and high-frequency clarity. Immerse yourself in music without distractions. Lose wired : latest Bluetooth technology ensures easy and stable connectivity and seamless Audio/video syncs so that you can take calls and listen to music without worrying about Audio dropouts. Unparalleled comfort: Comfortable ear cups are soft, durable, and built for all-day listening. Soft-cushion ear pads made from synthetic protein leather provide a comfortable around-ear fit. Folding design: Headphones over-ear can be folded into a compact size and stored in the portable carry bag so that you can take music with you wherever you go.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Advanced Active Noise Cancelling Technology: TaoTronics Bluetooth headphones come with professional active noise cancelling function let you immerse yourself in music world without noise，no matter you are in a noisy street, busy subway or bus, flight cabin with roaring engine. Hi-Fi Audio Sound &amp; Deep Bass: TaoTronics wireless headphones equid with 40mm drivers and aptX codec, which delivers powerful sound and rich music with lesser audio delay. Upgrade Bluetooth 5.0 technology provide an ultra-fast and virtually unbreakable connection. 40H Playtime &amp; Incredible Fast Charging: Plug in for only 5 minutes with a USB-C connector and get 2 hours playback; only 45 minutes charging time for an ultra-long playtime up to 40 hours. Note: Turn off ANC to avoid power consumption if headphones are not in use. Customizable Comfort &amp; Ultra-Lightweight: Adjustable headband and 90° rotatable ear cups , soft protein memory foam ear pads with over ear cups to completely cover your ears and reduce pressure on your ears, while the headphones itself only weights 7. 8oz(220g) for long-time wear. Hassle-Free Clear Calls: cVc 8. 0 noise cancelling microphone for hands-free calls means you can be heard clearly on the phone, which let you enjoy wireless or wired mode no matter the level of background noise depend on your need.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ★ Super Sound Performance:These high definition stereo headphones provide the excenllent sound input&amp; output quality that produce incredible natural high fidelity sound with deep bass and crystal clear treble ★ Ergonomic in-ear Design:Wired earphones with 3 sets of different soft silicone earbuds tips ensure a proper fit and extra comfort ★ Smart Button in-line Control:The built-in microphone enables convenient remote control for music play and phone calls, guarantees clear and smooth hands-free communication ★ Magnetic Design:Power Magnetic Design,effectively prevents natural tangling, ensures more convenient carrying and using. ★ Perfect Compatibility:Compatible with the devices plug 3.5mm Such as Samsung S7/S7 edge /S8/S8 Plus/ S9 S9 Plus /Note, iPhone SE/ 6/6s/6 Plus/6s Plus/5/5c/5s, iPad Mini, iPad Air, iPod,Huawei, MP3/MP4 Player, Portable Music Player PC Gaming and other popular electronics.</t>
-  </si>
-  <si>
-    <t>❤️Upgraded 3D Sleep Eye Mask with Headphones :The sleep headphones mask adopted 3D ergonomic technology for eyes area,which designed with breathable and comfortable material,breathable slow rebound memory foam and smooth fabric let you release facial pressure and help you fall asleep quickly.(Equipped with a 3.5MM AUDIO CABLE , plug in your phone to play music directly without bluetooth , you can also use this function when the eye mask have not powered ) ❤️Bluetooth 5.0 Sleep Headphones: Featuring with bluetooth 5.0 technology,built-in adjustable HD stereo speaker and microphone for handfree and clear call, listening to music without wearing additional headphones,for you sweet deep sleep. Effectively blocking lights and allows your eyes freely blinking. Ideal for meditation, Yoga, travel, napping, insomnia. ❤️Adjustable,Comfortable &amp; Washable :Sleep mask ,adjustable Velcro can be adjusted according to the size of the head.Built-in adjustable speakers, you can adjust the position of speakers for your ears to hear more clearly.ZesGood Bluetooth sleeping mask can be washed , simply remove the speakers, and control panel . ❤️Play Long Battery Life:Upgrade usb chargeable battery.Built-in 200mAh high-performance battery,Charge about 2-2.5 hours provide more than 8 -9 hours playing time,If the battery runs down,this eye mask won’t beeps to wakes you up.You can sleep peacefully all night! Pefect for side sleeper! ❤️Satisfaction Service :ZesGood sleep headphones come with 1 year customer service and 365 days technical support. Any confusion with Bluetooth sleeping mask, please contact us instantly, we will respond in 24 hours. Pefect gifts for parents, lover, friends etc. Perfect for relaxation, nap, meditation, insomnia, whether at home, in a hotel or on the plane.</t>
+    <t>SAFE &amp; VOLUME LIMITED TECHNOLOGYBuilt-in volume-controlled technology that ensures the sound is within levels recommended safe for young children's eardrums and inner ear at 80-95dB, one button switch the sounds levels easily. HAPPY SHARING &amp; EXCEELENT SOUNDThe Wireless kids headphones provides easy access to 2 devices simultaneously connected, and will not influence the stereo sound effect. CHILDREN- FRIENDLY MATERAIL EasySMX Kids headphone is specially designed for children ages at 3 and up. It is equipped with high quality polycarbonate headband,Soft Washable Memory Earmuffs and tangle-free cords, Lightweight. Environment-friendly and children-friendly material, approved by CPSIA,FCC. UNIVERSAL COMPATIBILITY &amp; BUTTON CONTROLBuilt-in Bluetooth 5.0, support all bluetooth devices wirth Fast and stable connection . With function buttons on the earcup give you the power to easily control the headphone NEVER POWER OFF, WIRELESS &amp; WIRED 2 IN 1 1. Wireless mode: Battery offer 15~20-hr music/ talking time in a single charge. 2. The Wired mode: you can also use it as a wired headphone with the provided audio cable so the headphones will never power off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Up to 100 hours playtime: 1200mAh rechargeable battery enables up to 100 hours of playtime. You can use the Bluetooth headphones for 40 days when you use them for 3 hours A day, or travel with the headphones for a month without charging. Deep bass function: The wireless headphones with 40mm large-aperture drivers and Deep bass function deliver premium playback with superb bass depth and high-frequency clarity. Immerse yourself in music without distractions. Lose wired : latest Bluetooth technology ensures easy and stable connectivity and seamless Audio/video syncs so that you can take calls and listen to music without worrying about Audio dropouts. Unparalleled comfort: Comfortable ear cups are soft, durable, and built for all-day listening. Soft-cushion ear pads made from synthetic protein leather provide a comfortable around-ear fit. Folding design: Headphones over-ear can be folded into a compact size and stored in the portable carry bag so that you can take music with you wherever you go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Active Noise Cancelling Technology: TaoTronics Bluetooth headphones come with professional active noise cancelling function let you immerse yourself in music world without noise，no matter you are in a noisy street, busy subway or bus, flight cabin with roaring engine. Hi-Fi Audio Sound &amp; Deep Bass: TaoTronics wireless headphones equid with 40mm drivers and aptX codec, which delivers powerful sound and rich music with lesser audio delay. Upgrade Bluetooth 5.0 technology provide an ultra-fast and virtually unbreakable connection. 40H Playtime &amp; Incredible Fast Charging: Plug in for only 5 minutes with a USB-C connector and get 2 hours playback; only 45 minutes charging time for an ultra-long playtime up to 40 hours. Note: Turn off ANC to avoid power consumption if headphones are not in use. Customizable Comfort &amp; Ultra-Lightweight: Adjustable headband and 90° rotatable ear cups , soft protein memory foam ear pads with over ear cups to completely cover your ears and reduce pressure on your ears, while the headphones itself only weights 7. 8oz(220g) for long-time wear. Hassle-Free Clear Calls: cVc 8. 0 noise cancelling microphone for hands-free calls means you can be heard clearly on the phone, which let you enjoy wireless or wired mode no matter the level of background noise depend on your need.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ★ Super Sound Performance:These high definition stereo headphones provide the excenllent sound input&amp; output quality that produce incredible natural high fidelity sound with deep bass and crystal clear treble ★ Ergonomic in-ear Design:Wired earphones with 3 sets of different soft silicone earbuds tips ensure a proper fit and extra comfort ★ Smart Button in-line Control:The built-in microphone enables convenient remote control for music play and phone calls, guarantees clear and smooth hands-free communication ★ Magnetic Design:Power Magnetic Design,effectively prevents natural tangling, ensures more convenient carrying and using. ★ Perfect Compatibility:Compatible with the devices plug 3.5mm Such as Samsung S7/S7 edge /S8/S8 Plus/ S9 S9 Plus /Note, iPhone SE/ 6/6s/6 Plus/6s Plus/5/5c/5s, iPad Mini, iPad Air, iPod,Huawei, MP3/MP4 Player, Portable Music Player PC Gaming and other popular electronics.</t>
+  </si>
+  <si>
+    <t>️Upgraded 3D Sleep Eye Mask with Headphones :The sleep headphones mask adopted 3D ergonomic technology for eyes area,which designed with breathable and comfortable material,breathable slow rebound memory foam and smooth fabric let you release facial pressure and help you fall asleep quickly.(Equipped with a 3.5MM AUDIO CABLE , plug in your phone to play music directly without bluetooth , you can also use this function when the eye mask have not powered ) ️Bluetooth 5.0 Sleep Headphones: Featuring with bluetooth 5.0 technology,built-in adjustable HD stereo speaker and microphone for handfree and clear call, listening to music without wearing additional headphones,for you sweet deep sleep. Effectively blocking lights and allows your eyes freely blinking. Ideal for meditation, Yoga, travel, napping, insomnia. ️Adjustable,Comfortable &amp; Washable :Sleep mask ,adjustable Velcro can be adjusted according to the size of the head.Built-in adjustable speakers, you can adjust the position of speakers for your ears to hear more clearly.ZesGood Bluetooth sleeping mask can be washed , simply remove the speakers, and control panel . ️Play Long Battery Life:Upgrade usb chargeable battery.Built-in 200mAh high-performance battery,Charge about 2-2.5 hours provide more than 8 -9 hours playing time,If the battery runs down,this eye mask won’t beeps to wakes you up.You can sleep peacefully all night! Pefect for side sleeper! ️Satisfaction Service :ZesGood sleep headphones come with 1 year customer service and 365 days technical support. Any confusion with Bluetooth sleeping mask, please contact us instantly, we will respond in 24 hours. Pefect gifts for parents, lover, friends etc. Perfect for relaxation, nap, meditation, insomnia, whether at home, in a hotel or on the plane.</t>
   </si>
   <si>
     <t>2 Pack Earbuds with Microphone and volume control,stereo sound and deep bass, with clear calling for both sides Built-in hands free in line remote control ear buds headphones,allows easily answer/end calls,Play/Pause,Next/Previous track for the music;with volume control function Earphones with lightweight and comfortable design,including 3 sets soft silicon ear tips at different sizes for your choice,so that you can enjoy perfect noise isolation function;the included cable clip can keep the earbuds headphones cable in place when in your sports or workout activities;Also you can keep the mic in suitable position for calling with the help from the cable clip; Earbuds with zipper case,convenient for storage;more value for your order;3.5 mm gold-plated jack ensured widely compatible with most devices with headphone socket , such as Mp3 players, cellphones, ipod, PC and so on 24 hours responsible customer service ensured your happy shopping experience in Amazon;</t>
@@ -6293,7 +6284,7 @@
     <t>Latest AMS as3435 noise cancelling technology : cancelling the noises in just one second no matter when and where you are. Bolton active noise cancelling headphones can reduce the noise with the upgrade active noise cancelling technology, even when you are at a busy street, flight cabin, or other noisy environment. Provide you a more pleasant music time. 30-Hour playtime in less than 1 hour charging: Qualcomm CVC Audio technology Qcc3003 is designed for Bluetooth 5. 0 mono channel/stereo headphone. Qcc3003 integrated Ultra low power consumption DSP, high-performance stereo codec with power management subsystem. It is designed for stereo headphones. 500mAh battery offer 30-hour playtime in less than 1 hour charging and 5 minutes Charging allows more than 2 hours use. Non-music noise reduction mode This Bluetooth headphones equid with independent chip, independent switch, neodymium magnet, Deep and accurate bass response. Bolton noise cancelling headphones create a tranquil environment of your own. The effective range of BT-BH010 wireless headphone is up to 66ft, four times longer than other Bluetooth 4. 2 headphones. Cozy feeling Professional high imitation protein ear pads and 90-degree revolving earmuffs. Head-curved design helps to release the pressure even for long-time-wearing. Ergonomic designed earmuffs give more comfortable feelings. Polyurethane foam dispersion spreads the pressure. Enlarged earmuffs make it easy and comfy to wear. Bolton wireless headphones try our best to provide you a first-class experience. Noise-reducing microphone: upgraded call quality. Double microphone noise reduction system suppresses environmental noises. Built-in CVC 6. 0 microphone help you get clear sounds in spite of strong wind or other noises, and you can enjoy wireless or wired mode depend on your require. And 60 days free refund and 24 months with 5 stars service. Just feel free to Contact us anytime.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Feel the power of EXTRA BASS Next level digital noise cancelling technology Get up to 30 hours of battery life. Frequency Range 2.4 GHz band (2.4000 GHz–2.4835 GHz). Frequency Response (Active Operation) 2 Hz–20,000 Hz. Frequency Response (Bluetooth Communication) 20 Hz–20,000 Hz (44.1 kHz Sampling)/20 Hz–40,000 Hz (LDAC 96 kHz Sampling, 990 kbps) Touch Sensor controls to pause/play/skip tracks, control volume, activate your voice assistant, and answer phone calls Quick Attention Mode for effortless conversations without taking your headphones off Activate Alexa, the Google Assistant, or your voice assistant with a simple touch Optimize your sound settings with the Sony Headphones Connect appClear hands free callingHigh quality wireless audio with Bluetooth and NFC, plus LDACIn the Box: Carrying Pouch, Connection Cable (Headphone cable (approx. 1. 2m, stereo mini plug), USB Cable, Card, Operating Instructions, Reference GuideShow more</t>
+    <t xml:space="preserve"> Feel the power of EXTRA BASS Next level digital noise cancelling technology Get up to 30 hours of battery life. Frequency Range 2.4 GHz band (2.4000 GHz–2.4835 GHz). Frequency Response (Active Operation) 2 Hz–20,000 Hz. Frequency Response (Bluetooth Communication) 20 Hz–20,000 Hz (44.1 kHz Sampling)/20 Hz–40,000 Hz (LDAC 96 kHz Sampling, 990 kbps) Touch Sensor controls to pause/play/skip tracks, control volume, activate your voice assistant, and answer phone calls Quick Attention Mode for effortless conversations without taking your headphones off Activate Alexa, the Google Assistant, or your voice assistant with a simple touch Optimize your sound settings with the Sony Headphones Connect appClear hands free callingHigh quality wireless audio with Bluetooth and NFC, plus LDACIn the Box: Carrying Pouch, Connection Cable (Headphone cable (approx. 1. 2m, stereo mini plug), USB Cable, Card, Operating Instructions, Reference GuideShow more</t>
   </si>
   <si>
     <t>🎁TRIPLE DRIVERS FOR SUPERB HIGH-QUALITY BASS – triple drivers deliver the high-quality sound experience with rich and deep bass, while CVC6.0 noise reduction allows you to immerse yourself in music without side tones. 🎁CHIPSET FOR STRONG BLUETOOTH 5.0 CONNECTION – Up to 100 ft distance you will have strong connection with our in-ear headphones with the high-end Qualcomm QCC 3003 chipset and Bluetooth 5.0 connection allows you to quickly and easily connect them with any phone, tablet or laptop and enjoy high-quality clear audio anytime and anywhere. 🎁UP TO 28 HOURS OF HIGH-END MUSIC – high performance polymer batteries with less than 2 hours of charge will allow you to listen to your favorite music up to 28 hours · (about 560 songs): no longer need to fear a sudden shutdown. 🎁WATERPROOF TBI I6 PRO EARBUDS – internal coating protects headphones from rain and sweat during trainings, so there is no need to worry about water getting into the headphones – just enjoy your workout or walk in the rain. 🎁DESIGNED IN CHICAGO WITH LEADING AUDIO ENGINEERS. Careful study of every detail, consultation with leading engineers in the audio industry and rigorous testing allows you to enjoy a clean, balanced sound every day.</t>
@@ -6302,7 +6293,7 @@
     <t>Excellent Sound: Stereo bass headphone with excellent sound effect, 3.5mm plug compatible with all 3.5mm jack devices Durable and Not Tangle: The headphone cord length is 4.9 ft (1.5m), using high quality cloth, so it very durable, and not tangle, suitable for kids, children, not easily damaged Built in Microphone: Enjoy a completely hands free listening experience with a microphone built into the headset for high definition calls; Pause/Play your Music or answer/end phone calls right from your headset with built in control Adjustable and Easy To Carry: The adjustable band allows you to get the perfect fit for your head shape. It is not only suitable for your children, but also for many adults. Folding design make it convenient to carry, you can easily put it in the suitcase or bag, more easy to carry it. When you take your children out for a trip, take a plane, take a car, this headphone would be a good companion Support: 1 Year Hassle-Free-Protection and quickly response customer service, for any questions while using, please contact us at any time via Amazon email or through the contact information on the instructions</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Wired sports headphones for runners and gym-goers utilize flex-wire ear hooks and six (6) sets of ear tips for a secure fit that never falls out of your ears Noise isolating in-ear design with energetic sound and enhanced bass is perfect for taking your tunes with you to the gym or on your run Built-in microphone and remote for headset use Let you answer calls and play, pause, and skip music tracks without getting your phone out Certified IPX5 sweat- and water-resistant for increased durability; Compatible with all devices utilizing a standard 3.5mm Audio jack Includes shirt clip (to keep the cable out of your way during exercise) and 6 sets of ear-tips for the best fit and comfort; 1-year Manufacturer's warranty</t>
+    <t xml:space="preserve"> Wired sports headphones for runners and gym-goers utilize flex-wire ear hooks and six (6) sets of ear tips for a secure fit that never falls out of your ears Noise isolating in-ear design with energetic sound and enhanced bass is perfect for taking your tunes with you to the gym or on your run Built-in microphone and remote for headset use Let you answer calls and play, pause, and skip music tracks without getting your phone out Certified IPX5 sweat- and water-resistant for increased durability; Compatible with all devices utilizing a standard 3.5mm Audio jack Includes shirt clip (to keep the cable out of your way during exercise) and 6 sets of ear-tips for the best fit and comfort; 1-year Manufacturer's warranty</t>
   </si>
   <si>
     <t>BRAND NEW 2019 MODEL SAME LEGENDARY KICKER AUDIO QUALITY: 10mm drivers, backed by a Neodymium Iron Boron magnet and air vented ear casing ensures your ears receive the Legendary Kicker signature sound. Big deep bass, super crisp treble, premium earbuds that everyone can afford. COMFORTABLE ERGONOMIC DESIGN: Everyone has a different shaped ear canal, we include 3 Silicone ear tips that fit and shape to your ear canal so you can enjoy your active lifestyle. Perfect for biking, jogging, gym days, or eliminating any unwanted noise. EASY TO USE MULTIFUNCTION BUTTON: iOS, tap once to play or pause, pickup or end call. Tap twice to Skip song. Tap 3 times to go back one song. Hold button for Siri. ANDROID, tap once to play or pause, pickup or end call. Tap twice to Skip song. Tap 3 times to go back one song. TANGLE FREE WIRES ANGLED 3. 5mm JACK: The tangle free braided cable and 3. 5mm headphone jack ensures you’ll never have to worry about the frustration of untangling your in-ear headphones from your pocket. The 3. 5mm jack ensures compatibility with any music player, iPhone, Samsung Galaxy, Google Pixel, and tablet. 100% CUSTOMER SATISFACTION 1 YEAR : We pride ourselves in ensuring customer satisfaction. Kicker provides Lifetime Support with our Professional Customer Support team. If it’s a technical question or a basic question we’ll be more than happy to help!</t>
@@ -6314,7 +6305,7 @@
     <t>Natural HD sound: finely tuned neodymium driver 40mm stereo driver together with over-the-ear ear pads provide immersive listening experience in natural sound. The Mpow H1 headphones give a powerful and crisp sound, making your overall listening experience Just that much better. You’re free to get lost in your music. Lightweight &amp; comfy for prolonged wearing: weighs 8.1oz (230G), Made of lightweight yet solid materials, improved structure, Mpow H1 is much lighter(10%-30% lighter) and more comfortable than the most Mpow over ear/ on ear headphones and other brands. When you take them everywhere and listen all day, They have to be comfortable. Wireless and wired playback: extended battery capacity provides 15-20hrs music/call in wireless mode, what is more, for that rare time when you do get caught without battery, use the included 3.5mm Audio cable to plug in and keep the music playing. Quick control over music &amp; Call: you can adjust the volume, change the track, play and pause the music via the headphones. Built-in microphone offers hands-free calling convenience. An advanced mic system with HD voice provides clarity, while controls on the earcup let you take/end calls without reaching for your device. Take your tunes to go: space-saving design not only saves space but also makes it portable. It also comes with a carrying case for easy storage. In case of that and to get both audio and wearing comfort, Please take off the headphone every 1-2 hours to get your ears relax.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【Wide Compatibility】Supports PS4, new Xbox One, PC, laptop, Nintendo Switch, PSP, tablet, and mobile phone. Perfect for FPS and Sports games, for example: Call of Duty: WWII, Destiny 2, etc. Appearance full of game elements while not exaggerated at all, good choice for gaming, working and daily use. 【Advance Design Concept】Different from other headphones paid close attention to lighting and mechanical shape, NUBWO N2 gaming headphones focus on simplicity of appearance and practicality of function. 【Ultimate Comfort】High-quality materials, by comparing NUBWO N2 with products of the same price range, you will realize that its material is far better, true over-ear, skin-friendly and comfortable. Adjustable headband with a scale for easy adjustment, suitable for heads of different sizes. 【High Quality Microphone】Soft directional microphone, can be adjusted to any position you need. A built-in noise-reduction chip is equipped to ensure clear online communication. The hardness of the silicone microphone was carefully designed to balance the practicality and durability to the utmost extent. 【Stereo Surround Sound】Advanced 50mm drivers produce powerful stereo sound, which let you quickly locate your enemies during FPS games and take the lead. The surround sound create an immersive experience which makes you feel like really on the game scene.</t>
+    <t xml:space="preserve"> Wide CompatibilitySupports PS4, new Xbox One, PC, laptop, Nintendo Switch, PSP, tablet, and mobile phone. Perfect for FPS and Sports games, for example: Call of Duty: WWII, Destiny 2, etc. Appearance full of game elements while not exaggerated at all, good choice for gaming, working and daily use. Advance Design ConceptDifferent from other headphones paid close attention to lighting and mechanical shape, NUBWO N2 gaming headphones focus on simplicity of appearance and practicality of function. Ultimate ComfortHigh-quality materials, by comparing NUBWO N2 with products of the same price range, you will realize that its material is far better, true over-ear, skin-friendly and comfortable. Adjustable headband with a scale for easy adjustment, suitable for heads of different sizes. High Quality MicrophoneSoft directional microphone, can be adjusted to any position you need. A built-in noise-reduction chip is equipped to ensure clear online communication. The hardness of the silicone microphone was carefully designed to balance the practicality and durability to the utmost extent. Stereo Surround SoundAdvanced 50mm drivers produce powerful stereo sound, which let you quickly locate your enemies during FPS games and take the lead. The surround sound create an immersive experience which makes you feel like really on the game scene.</t>
   </si>
   <si>
     <t>EXCLUSIVE PACK - Includes Xtrainerz bone conduction headphones and swim cap. Unlike traditional headphones that send sound through the ear canals, our patented bone conduction technology delivers audio through the cheekbones. With nothing inside or over your ears, enjoy total awareness and comfort while you listen. LEAVE YOUR DEVICE BEHIND - 4GB of built-in MP3 storage holds up to 1, 200 songs, so you can load your favorite music, podcasts or audiobooks and dive into your workout. Xtrainerz support MP3, WAV, WMA, AAC, and FLAC files. Not Bluetooth compatible. 8 HOURS OF PLAY - Enjoy 8 continuous hours of premium audio while you’re cross-training. Adjust volume and tracks at the touch of a button. IP68 RATED - Fully waterproof, Xtrainerz headphones perform in and out of the water so your favorite open-ear headphones can keep you company wherever your training takes you. COMFORTABLE + SECURE - The unique open-ear design of Xtrainerz enables bud-free, pain-free listening, and keeps the headphones in place stroke after stroke.</t>
@@ -6326,16 +6317,16 @@
     <t>Superior Sound Quality: Experience crisp, high-fidelity sound while Bluetooth 5 provides faster pairing and a stable, efficient wireless connection One-Step Reconnection: Simply take the earbuds out of the charging case and they will automatically connect to your phone (after being paired the first time) Convenient Touch Control: Effortlessly manage audio playback &amp; calls with the multi-function touch panel and microphone on each earbud. The earbuds can even be used alone like a Bluetooth headset Great Battery Life: The earbuds alone provide up to 5 hours of high-quality sound output on a single charge, and the included charging case provides an additional 4 charges, giving 25 hours of total playtime Package Contents: AUKEY EP-T21 True Wireless Earbuds, Micro-USB Cable, Three Pairs of Ear-Tips, User Manual</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 16 hour continuous playback Boltune wireless earphones with exclusive charging technology low power consumption 5 minutes charge can play 2 hours Ios can up to 16 hours work time let you enjoy wonderful music when travel and sports The most advanced Bluetooth 5 0 Boltune Bluetooth earphones adopted latest generation chip and Bluetooth 5 0 technology supports various bluetooth-enabled devices with significant noise isolation and 10mm dynamic drivers IPX7 waterproof technology Boltune Earbuds Headphone with IPX7 sweat and water resistance protects the earphones from heavy rains or sweat fitness even in rainy days The magnetic wireless earbuds conveniently clasp together Easy to take Height quality stereo sound adopted Bluetooth 5 0 technology with SBC Bluetooth profiles to tune AAC significant noise isolation and 10mm dynamic drivers ensure stable transmission and don't interruption delivers HD stereo sound experience Ergonomic fit and commitment with 3 pairs of ear tips and 3 pairs of secure-fit ear hooks give you additional sizes to choose perfect fit 18-Month promise no matter product problem we will replace new one or refund for you</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Noise isolating fit Call and track control Microphone 2 extra sets of ear gels for perfect fit 2 year warranty</t>
+    <t xml:space="preserve"> 16 hour continuous playback Boltune wireless earphones with exclusive charging technology low power consumption 5 minutes charge can play 2 hours Ios can up to 16 hours work time let you enjoy wonderful music when travel and sports The most advanced Bluetooth 5 0 Boltune Bluetooth earphones adopted latest generation chip and Bluetooth 5 0 technology supports various bluetooth-enabled devices with significant noise isolation and 10mm dynamic drivers IPX7 waterproof technology Boltune Earbuds Headphone with IPX7 sweat and water resistance protects the earphones from heavy rains or sweat fitness even in rainy days The magnetic wireless earbuds conveniently clasp together Easy to take Height quality stereo sound adopted Bluetooth 5 0 technology with SBC Bluetooth profiles to tune AAC significant noise isolation and 10mm dynamic drivers ensure stable transmission and don't interruption delivers HD stereo sound experience Ergonomic fit and commitment with 3 pairs of ear tips and 3 pairs of secure-fit ear hooks give you additional sizes to choose perfect fit 18-Month promise no matter product problem we will replace new one or refund for you</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Noise isolating fit Call and track control Microphone 2 extra sets of ear gels for perfect fit 2 year warranty</t>
   </si>
   <si>
     <t>ANIFONES— Perfect gift choice for this holiday season! Present your kids and loved ones with a unique Christmas gift. Our new lightweight headset designs feature Bear, Cat, and a classic Spooky Devil shaped style loved by kids and adults. PERFECT GIFT FOR CHRISTMAS— Compatible with all 3.5MM audio jack smartphones and other devices, including full range of iPhones, iPads, iPods, Samsung Galaxy, Android devices, smartphones, MP3 and MP4 music players, and more WIRED CAPABILITY— Great for iPhone 7, 7plus, 6, 6s, 6 plus, 6s plus, 5s, 5, iPod, iPad, compatible with Galaxy s7 7 edge, s6 6 edge, Huawei Mate 10, and Moto Nexus,LG Nokia,Blackberry phones 30mm/47 WARNING— Please make sure you are purchasing from 'LUX ACCESSORIES' and not any other company who may be spam sellers. Products from other sellers may not be same color or quality. We offer a 30-day return policy on every item to ensure that you are absolutely satisfied with your experience.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) DIGITAL NOISE CANCELING: Industry leading ANC lends a personalized, virtually soundproof experience VOICE ASSISTANT: Alexa enabled for voice access to music, information and more. Activate with a simple touch QUICK ATTENTION MODE: Cover the right ear cup to turn down your music for instant, easy conversation SMART LISTENING: Adjusts the ambient sound to your activity to give you the best noise cancellation TOUCH CONTROLS: Control music tracks and volume, activate your voice assistant and take phone calls LONG BATTERY LIFE: A single charge provides up to 30 hrs of playtime for reliable all day listening COMFORTABLE TO WEAR: Ergonomically redesigned foldable earphones for easy travel / listening comfort IN THE BOX: Foldable headphone, carry case, charging cable and audio cable for a wired connection</t>
+    <t xml:space="preserve"> DIGITAL NOISE CANCELING: Industry leading ANC lends a personalized, virtually soundproof experience VOICE ASSISTANT: Alexa enabled for voice access to music, information and more. Activate with a simple touch QUICK ATTENTION MODE: Cover the right ear cup to turn down your music for instant, easy conversation SMART LISTENING: Adjusts the ambient sound to your activity to give you the best noise cancellation TOUCH CONTROLS: Control music tracks and volume, activate your voice assistant and take phone calls LONG BATTERY LIFE: A single charge provides up to 30 hrs of playtime for reliable all day listening COMFORTABLE TO WEAR: Ergonomically redesigned foldable earphones for easy travel / listening comfort IN THE BOX: Foldable headphone, carry case, charging cable and audio cable for a wired connection</t>
   </si>
   <si>
     <t>High-performance wireless Bluetooth headphones in club white Features the Apple W1 chip and Class 1 wireless Bluetooth connectivity With up to 40 hours of battery life, Beats Solo3 wireless is your perfect everyday headphone Compatible with iOS and Android devices With Fast Fuel, 5 minutes of charging gives you 3 hours of playback when battery is low Adjustable fit with comfort-cushioned ear cups made for everyday use Sleek, streamlined design that’s durable and foldable to go everywhere you doTake calls, control your music, and activate Siri with the multifunction on-ear controlsThe award-winning sound and design you’ve come to love from Beats, with premium playback with fine-tuned acoustics that maximize clarity, breadth, and balanceWhat’s in the Box: Beats Solo3 Wireless Headphones, Carrying Case, Universal USB charging cable (USB-A to USB Micro-B), Quick Start Guide, Warranty CardShow more</t>
@@ -6353,10 +6344,10 @@
     <t>Authentic PANDORA Charm, Comes with Original PANDORA Packaging (Packaging type may vary) 797902EN160 925 Sterling Silver Headphones dangle in sterling silver with 2 flush-set and 2 bezel-set clear cubic zirconia and transparent pale pink enamel This sterling silver and pink enamel headphones dangle will tune into your style and show your love of music. The hearts inside the headphones, the sparkle and the PANDORA logo are great details for mixing and matching</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) The in-ear headphones using active noise isolation technology, natural sound quality, bass surround. These earbuds are made of a sweat proof silicone,The inner ear loop provided makes it fit comfortably in the ear.No worries while out walking,yoga,reading,thinking and relaxing. The sport earphone can not only worked with the most common cellphone like iPhone, Samsung, iPad, Google but can work with PC, Laptop, Compters. Wired earphones is in-ear design can fit in ear’s inner sides perfectly, 3.5mm alloy joint, resistant to wear and oxidation. 110mm long, component interface anti-pull design. Package Content:headphones come in plain clear plastic case,with a gift bag for the earphones . 4 headphones color (black,white,green,pink)</t>
-  </si>
-  <si>
-    <t>【HiFi Sound Quality】Features with the most advanced tech, the 1/4" Dynamic Driver ensures an incredible HiFi sound and endow a premium and fined-tuned music quality for you. 【1-Second Pairing】Simply open the FIIL earbuds case near your phone to pair effortlessly within 1s. FIIL T1X uses Bluetooth 5.0 and LDS tech to improve the stability of the wireless connection. Completely automatic system gives you a hassle-free experience when pairing and connecting to your devices. 【24H Playing &amp; 36H Calling with Portable Charging Case】 The ultra-high-capacity of the charging case keeps you free from the anxiety even if you far away from home. FIIL T1X case uses the Type-C charge. It can support 2H playing with only 10 mins charging. 【Crystal Voice Call】DSP voice noise reduction technology upgrade noise recognition ability, so that others can only hear your voice clearly no matter how noisy the environment you are in. 【Smart Touch】Smart touch design for easily pausing or turning on music, changing the volume, picking up or hanging up calls. It supports the connection to Siri or Google Assistant.</t>
+    <t xml:space="preserve"> The in-ear headphones using active noise isolation technology, natural sound quality, bass surround. These earbuds are made of a sweat proof silicone,The inner ear loop provided makes it fit comfortably in the ear.No worries while out walking,yoga,reading,thinking and relaxing. The sport earphone can not only worked with the most common cellphone like iPhone, Samsung, iPad, Google but can work with PC, Laptop, Compters. Wired earphones is in-ear design can fit in ear’s inner sides perfectly, 3.5mm alloy joint, resistant to wear and oxidation. 110mm long, component interface anti-pull design. Package Content:headphones come in plain clear plastic case,with a gift bag for the earphones . 4 headphones color (black,white,green,pink)</t>
+  </si>
+  <si>
+    <t>HiFi Sound QualityFeatures with the most advanced tech, the 1/4" Dynamic Driver ensures an incredible HiFi sound and endow a premium and fined-tuned music quality for you. 1-Second PairingSimply open the FIIL earbuds case near your phone to pair effortlessly within 1s. FIIL T1X uses Bluetooth 5.0 and LDS tech to improve the stability of the wireless connection. Completely automatic system gives you a hassle-free experience when pairing and connecting to your devices. 24H Playing &amp; 36H Calling with Portable Charging Case The ultra-high-capacity of the charging case keeps you free from the anxiety even if you far away from home. FIIL T1X case uses the Type-C charge. It can support 2H playing with only 10 mins charging. Crystal Voice CallDSP voice noise reduction technology upgrade noise recognition ability, so that others can only hear your voice clearly no matter how noisy the environment you are in. Smart TouchSmart touch design for easily pausing or turning on music, changing the volume, picking up or hanging up calls. It supports the connection to Siri or Google Assistant.</t>
   </si>
   <si>
     <t>THE HD STEREO SOUND - The headphones are equipped with intelligent digital decoding chips, which can restore the clear essence of the music, guarantee high fidelity music and give people a wonderful musical experience BUILT-IN MICROPHONE AND VOLUME CONTROL - The built-in microphone of the headphones transmits high-fidelity voice and built-in volume control keys, allowing you to make hands-free calls while listening to music with the multifunction button without having to access your device DESIGN OF EARPLUGS - The headphones are ergonomically designed with three sizes (S / M / L) of earplugs that are more suitable for the human ear and provide comfort to the ears WIDE COMPATIBILITY - Auricular compatible with Ipad Pro, HUAWEI Mate10 / 10 pro / 20 pro / Mate Res / P20 / P20 pro / 30 pro, Samsung Note10 + 5G / Note10 / A8s, Xiaomi 5/6/8/9, Meizu 16s , SONY Xperia XZ2. Universal Type C jack cable, which makes it possible to adapt to most USB C type audio output devices on the market AFTER-SALES SERVICE - If you have any questions, contact us directly by email, we will provide a satisfactory after-sales service</t>
@@ -6365,13 +6356,13 @@
     <t>[Flexible Neckband &amp; Carrying Bag] weighs only 1.3 oz in flexible and durable silicone neckband, 50% lighter than any other neckband headset,you’ll even forget you have them on!It also comes with a hard protective carrying bag for your easy carrying.now,you can put the headphones,charging cords,even your keys or cards in the bag,very convenient and safe. [Bluetooth 5.0 &amp; CSR8645 Chip]: The latest Bluetooth 5.0 + CSR 8645 chip offers enhanced sound transmission, faster pairing, more stable wireless connection and wider compatibility with Bluetooth enabled cell phones, tablets, computers, smart watches and smart speakers (e.g., Amazon Echo). [Auto Retractable Earbuds]: One button to control, the auto retractable earbuds allows you to pull the retractable wire to the length you want and press the button can store the earbuds wire automatically, the earbuds wire can be retracted more than 5000 times. Premium quality, portable and convenient to use. [Long Battery Life]: The powerful rechargeable battery provides up to more than 10 hours music time, 12 hours talking time, 180 hours standby time with a single charge, you can use it for all day work! When the headphones connected with your bluetooth device, you can see the status of the battery in your device. [Call Vibration &amp; CVC 6.0 Noise-Cancelling Mic]: Doltech bluetooth headphones will vibrate when a call comes in so that you won't miss any calls.The built-in CVC6.0 noise-cancelling microphone can reduce background noises so as to provide crystal-clear sound for hands-free calls. Warranty: Every Doltech product has 45 Days money back guarantee &amp; One Years Warranty.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Premium Audio; MK23 has a high performance earphone driver that brings out the bass in your favorite tracks, as well as enhancing mids and highs so that every note is clear and crisp; They out perform their price range with a premium listening experience Noise Isolation; The headphones eliminate outside noise to keep your music crystal clear; They also allow you to listen to your tracks at much lower and safer volumes; The MK23 includes various size silicone earbuds for maximum comfort and the perfect fit Built In Microphone; The earbuds come with a built in microphone. Take and make calls anywhere and have control over your audio volume and music with detailed sound; Compatible with iPhone, iPad, iPod, MP3 Players, Android Devices, Tablets and more Highly Functional; The earbuds are sweatproof and have a heavy bass reproduction, so you can enjoy your tracks whilst going for a run or working out. Metal housing makes them extra durable and stable, and the lightweight earpieces are very comfortable Versatile; Compatible with virtually any device with a 3.5mm headphone jack, these earbuds are hugely versatile; Suitable for many branded smartphones, tablets, laptops and MP3 players, these earphones are perfect for daily use</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ✅ COMFORTABLE. KLIM Fusion are fitted with memory foam which will retain the shape of your ear for a perfect fit. Some people may prefer more standardized in-ear extensions so we're providing 3 additional pairs of all sizes. ✅ BUILT TO LAST + WARRANTY. There’s a problem with earphones: they often tend to simply stop working after a few months. We prefer to be honest: when it comes to electronics there’s always going to be some defects. We focused on building a product that lasts. 98.5% of earphones are still working after 6 months and 97% still operational after a year. We're confident enough in our product to offer a 5 year warranty, something you’ll find is quite rare for electronics. This is a zero risk purchase. ✅ HIGH QUALITY AUDIO. You will surely get a higher quality audio output with $100 earphones. But KLIM Fusion offers the absolute best sound quality for its price range, if you want high quality audio at an affordable price, you won’t get better value for your money anywhere else. Enjoy your music without breaking the bank ✅ MEMORY FOAM. It’s innovative, these in ear extensions have a two fold advantage 1) they’re extremely comfortable and fit your ears perfectly and 2) they completely block out outside noise. Once they’re in your ears, it’s just you and your music. ✅ CAREFULLY CRAFTED DESIGN. KLIM Fusion have a confident gamer look. At KLIM we prefer a design which stands out while retaining some minimalist traits, if this is what you’re looking for, the KLIM Fusion earphones will be perfect for you.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) High Fidelity Sound: 11mm vibrating diaphragm, CSR chip and technology deliver high-fidelity audio; CVC noise cancellation Built-in mic for stereo sound and superb bass sound. Clear high &amp; low volume, makes calls clear and stable IPX7 Waterproof: Sports Earbuds Design, Internal nano-coating protects the headphones from heavy rains or sweat throughout intense exercises; just enjoy your time when running, jogging, riding, hiking, fitness, or in the gym Foolproof Operation: Control buttons on the headphones so that you can play and pause music, adjust the volume, skip tracks, answer and end calls, and activate the voice control of your phone with one simple operation on the headphones Long Playtime:Built-in polymer lithium battery; Only 2 hours charge gives you up to 8 hours talk time/audio play time, enough to power your workouts with music for a week Comfortable and Stable: Lightweight and ergonomic design, customizable accessories with large, medium, and small size of gel eartips; soft silicon earhooks ensure comfortable and secure wear in even most intense workout</t>
+    <t xml:space="preserve"> Premium Audio; MK23 has a high performance earphone driver that brings out the bass in your favorite tracks, as well as enhancing mids and highs so that every note is clear and crisp; They out perform their price range with a premium listening experience Noise Isolation; The headphones eliminate outside noise to keep your music crystal clear; They also allow you to listen to your tracks at much lower and safer volumes; The MK23 includes various size silicone earbuds for maximum comfort and the perfect fit Built In Microphone; The earbuds come with a built in microphone. Take and make calls anywhere and have control over your audio volume and music with detailed sound; Compatible with iPhone, iPad, iPod, MP3 Players, Android Devices, Tablets and more Highly Functional; The earbuds are sweatproof and have a heavy bass reproduction, so you can enjoy your tracks whilst going for a run or working out. Metal housing makes them extra durable and stable, and the lightweight earpieces are very comfortable Versatile; Compatible with virtually any device with a 3.5mm headphone jack, these earbuds are hugely versatile; Suitable for many branded smartphones, tablets, laptops and MP3 players, these earphones are perfect for daily use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMFORTABLE. KLIM Fusion are fitted with memory foam which will retain the shape of your ear for a perfect fit. Some people may prefer more standardized in-ear extensions so we're providing 3 additional pairs of all sizes.  BUILT TO LAST + WARRANTY. There’s a problem with earphones: they often tend to simply stop working after a few months. We prefer to be honest: when it comes to electronics there’s always going to be some defects. We focused on building a product that lasts. 98.5% of earphones are still working after 6 months and 97% still operational after a year. We're confident enough in our product to offer a 5 year warranty, something you’ll find is quite rare for electronics. This is a zero risk purchase.  HIGH QUALITY AUDIO. You will surely get a higher quality audio output with $100 earphones. But KLIM Fusion offers the absolute best sound quality for its price range, if you want high quality audio at an affordable price, you won’t get better value for your money anywhere else. Enjoy your music without breaking the bank  MEMORY FOAM. It’s innovative, these in ear extensions have a two fold advantage 1) they’re extremely comfortable and fit your ears perfectly and 2) they completely block out outside noise. Once they’re in your ears, it’s just you and your music.  CAREFULLY CRAFTED DESIGN. KLIM Fusion have a confident gamer look. At KLIM we prefer a design which stands out while retaining some minimalist traits, if this is what you’re looking for, the KLIM Fusion earphones will be perfect for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High Fidelity Sound: 11mm vibrating diaphragm, CSR chip and technology deliver high-fidelity audio; CVC noise cancellation Built-in mic for stereo sound and superb bass sound. Clear high &amp; low volume, makes calls clear and stable IPX7 Waterproof: Sports Earbuds Design, Internal nano-coating protects the headphones from heavy rains or sweat throughout intense exercises; just enjoy your time when running, jogging, riding, hiking, fitness, or in the gym Foolproof Operation: Control buttons on the headphones so that you can play and pause music, adjust the volume, skip tracks, answer and end calls, and activate the voice control of your phone with one simple operation on the headphones Long Playtime:Built-in polymer lithium battery; Only 2 hours charge gives you up to 8 hours talk time/audio play time, enough to power your workouts with music for a week Comfortable and Stable: Lightweight and ergonomic design, customizable accessories with large, medium, and small size of gel eartips; soft silicon earhooks ensure comfortable and secure wear in even most intense workout</t>
   </si>
   <si>
     <t>Compact, ergonomic over ear headphones. Connectivity Technology: Wireless Bass boost and surround sound listening modes. Maximum sound pressure level : 114 dB at 1kHz, 3 percentage THD. THD, total harmonic distortion : less than 0.5 percentage at 1 kHz, 100 dB SPL Digital wireless technology ensures that signal transmission remains clear and accurate.Carrier frequencies:2.4 – 2.48 GHz Easy to set up and enjoy. Range Up to 100 m. Frequency response 17 22,000 Hz. Signal to noise ratio Analog input typ. 85 dBA at 1 Vrms. Signal to noise ratio Digital input greater than 90 dBA MAIN controls located on headphones</t>
@@ -6380,7 +6371,7 @@
     <t>Separate headphones and 3.5mm plugs for each ear. Custom length to avoid snagging. This is an Oculus Quest accessory only. Quest headset sold separately.</t>
   </si>
   <si>
-    <t>【Bluetooth V5.0 With Instant Pairing 】 The Bluetooth V5.0 makes sure a Automatically &amp; Instant reconnection to your devices after the initial pairing via the 'H9'. Upgraded chip ensures the most stable connectivity and transmission range measures 33ft. 【16 HOURS BATTERY PLAYTIME 】 Each earbud contains build-in 50mAh battery, which offers 4 hours music playtime. Equipped with 400mAh portable battery case, it extends totally up to 16 hours and takes 1.5 hours a time to top off both earbuds. No worries about low power battery in business travel. 【 Hi-Fi STEREO SOUND 】 Featuring High Fidelity Sound Technology creates a Truly Natural &amp; Authentic Sound and Powerful Bass, Luscious Mids and Crisp Highs Performance. The latest CVC 8.0 Noise Canceling Technology helps block surrounding noise out, you won’t miss any beats of your musics. While the build-in Audio Sync System will make sure no audio or video delay. 【 COMFORT &amp; Easy Playing 】 Our lightweight earbuds comes with 3 pairs of rubber ear caps (Size S,M,L), fits for your ears comfortably. Perfect for Sports, Running, Jogging, Gym, Driving or other indoors and outdoors activities. And this headset is controlled via one button.In addition, one button operation, you can easily play,pause,switch musics; answer,end,reject calls and wake Siri voice assistance up, getting rid of annoyance of tangle wires. 【 WARRANTY &amp; SERVICE 】 our products are of premium quality, so we are glad to offer 30 days money back warranty and 12 months free replacement services. If you have any concerns about our TWS Bluetooth Earbuds, please email us freely via Amazon for any compensations.</t>
+    <t>Bluetooth V5.0 With Instant Pairing  The Bluetooth V5.0 makes sure a Automatically &amp; Instant reconnection to your devices after the initial pairing via the 'H9'. Upgraded chip ensures the most stable connectivity and transmission range measures 33ft. 16 HOURS BATTERY PLAYTIME  Each earbud contains build-in 50mAh battery, which offers 4 hours music playtime. Equipped with 400mAh portable battery case, it extends totally up to 16 hours and takes 1.5 hours a time to top off both earbuds. No worries about low power battery in business travel.  Hi-Fi STEREO SOUND  Featuring High Fidelity Sound Technology creates a Truly Natural &amp; Authentic Sound and Powerful Bass, Luscious Mids and Crisp Highs Performance. The latest CVC 8.0 Noise Canceling Technology helps block surrounding noise out, you won’t miss any beats of your musics. While the build-in Audio Sync System will make sure no audio or video delay.  COMFORT &amp; Easy Playing  Our lightweight earbuds comes with 3 pairs of rubber ear caps (Size S,M,L), fits for your ears comfortably. Perfect for Sports, Running, Jogging, Gym, Driving or other indoors and outdoors activities. And this headset is controlled via one button.In addition, one button operation, you can easily play,pause,switch musics; answer,end,reject calls and wake Siri voice assistance up, getting rid of annoyance of tangle wires.  WARRANTY &amp; SERVICE  our products are of premium quality, so we are glad to offer 30 days money back warranty and 12 months free replacement services. If you have any concerns about our TWS Bluetooth Earbuds, please email us freely via Amazon for any compensations.</t>
   </si>
   <si>
     <t>Increased Bass; Specifically designed to highlight the bass and tone of any track, the 9mm neodymium drivers of this headphone set guarantee premium sound quality. Regardless of volume, you’ll experience crystal clear audio at all times Noise Isolation; Complete with innovative sound isolation technology, these in ear headphones have been carefully crafted to keep unwanted surrounding noise to a minimum. Eliminating distraction, these earbuds provide a truly immersive experience Perfect Fit; Betron ELR50 headphones equipped with three earbud pairs sized small, medium and large, you can select the most compatible fit for your exact ear shape; guaranteed to provide maximum comfort and stay in place all day long. Built-in Controls; These earphones with mic also feature built-in volume controls, allowing you to both answer and hang-up phone calls in addition to adjusting volume, pausing and skipping tracks solely using your headphones ( Remote control is only compatible with Apple and Samsung Devices. Some cell phones may need earphone adapter) Travel Case; Including a convenient storage pouch ideal for keeping your headphones safe whilst not in use, you can easily take this set on-the-go; Super lightweight and easy to carry, this noise isolating headphone set is simple to take travelling</t>
@@ -6392,7 +6383,7 @@
     <t>[TWS &amp; BLUETOOTH 5. 0] - Adopt the most advanced Bluetooth 5. 0 technology. TOZO T6 Support HSP, HFP, A2DP, AVRCP. Provides in-call stereo sound. Also own fast and stable transmission without tangling. [Hi-Fi Stereo Sound Quality] - TOZO T6 Offers a Truly Natural, Authentic Sound and Powerful Bass Performance with 6mm Large Size Speaker Driver. [One step pairing] - pick up 2 headsets from charging box They will connect each other automatically, then only one step easily enter mobile phone Bluetooth setting to pair the earbuds. [IPX8 waterproof]- earbuds and charging case inner Nano-coating makes it possible to waterproof for 1 meters deep for 30 minutes. It is suitable for sports to prevent water. Ideal for sweating it out at the gym . Even Wash the earbuds and base. [Charge on-the-go] - TOZO T6 wireless earbuds can last for over 6 hours' playtime from a single charge and 24 extra hours in the compact charging case. Charging case support wireless charging. Providing convenient charging way with no strings attached.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Wind your earbud cables easily and keep them tangle free and organized Side Winder Mini works with all cables 1-5 feet in length Keep your charger portable and headphones organized on-the-go in the Side Winder Mini cable case The patent pending "snotch" keeps the cables tight and organized in your backpack or at your desk Side Winder Mini - 1 to 5 foot cables | Side Winder Max - 1 to 8 foot cables›See more product details</t>
+    <t xml:space="preserve"> Wind your earbud cables easily and keep them tangle free and organized Side Winder Mini works with all cables 1-5 feet in length Keep your charger portable and headphones organized on-the-go in the Side Winder Mini cable case The patent pending "snotch" keeps the cables tight and organized in your backpack or at your desk Side Winder Mini - 1 to 5 foot cables | Side Winder Max - 1 to 8 foot cables›See more product details</t>
   </si>
   <si>
     <t>AILIHEN Comfortable Kids Headphones: A must gift headphones for your children with an adorable design and pillow soft headband for ultra comfort. What’s more, memory-protein cushioned earmuffs also help you minimize tiredness Foldable and Portable: Collapsible design provide convenient take out. Fold the headphone up and take it anywhere while you are on airplane, travel or in a car. Just enjoy your music everywhere with your kids Adjustable design: Adjustable headband meets the requirement of all head sizes. Lightweight design for kids aged 3 and up, and won’t become their burden. The wonderful sound is matched by standout comfort Inline Microphone: The HD microphone on the braided cable provides clear, hands-free communication, with one button to control music play and phone calls Wide compatibility: With standard 3.5mm audio jack suitable for listening to music or audiobooks. Compatible with most of the Smartphones, PC and Tablets, such as iPhone/ iPad/ Android Cellphones/ PC and more.</t>
@@ -6401,13 +6392,13 @@
     <t>Quick-fit, lightweight, over-the-ear DJ monitor headphones offer great sound and DJ-style monitoring. Connectivity Technology: Wired Rich bass and natural treble with 50mm neodymium drivers Lightweight, comfortable design and noise isolation with easy headband adjustment and soft, snug earpads Reversible housing for single-side monitoring DJ use. Extra long, professional-length and single-sided 9.8ft. Cord</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) [Get Rid Of Master-Slave Restriction] Only need to take earbuds out and connect it on BT list. No need to worry about traditional pairing issues. Single-earbud mode and 2-earbuds mode could switch easily without reconnection and you can enjoy either earbud alone. [Long Sustainable Playtime &amp; Waterproof] Earbuds can be fully charged within 2H. Single charging maintains 4.5H playtime and Charging case with fully charged offers 4-5 times full charge, totally 25H playtime, which offers enough playtime for enjoying your daily life freely. Equipped with IPX5 Waterproof, avoids rainwater and sweat effectively, which is good for sports as most applicable choice. [Touch Control Technology] Touch control technology helps you get rid of the button control mode, providing you comfortable wear sense and no need to worry about hurting your ears. Via touching, control the songs and calls on your own. [3D Stereo Sound Quality] True wireless stereo delivers deep bass and crystal crisp treble, and Built-in high-definition microphone ensures call quality and stable transmission. LASUNEY T21 could offer Superior Sound Quality for you. Sound field is open and meticulous. Music voice is real and accurate, sounding pleasant to you. [In-Ears Design &amp; Easy To Carry] Due to In-Ears Design and S, M, L sizes ear tips, exchange ear tips for comfort wearing and get rid of falling issues. Charging case with delicate as well as compact design, single earbud only weight 4g, charging case is 38g. Such light weight, is convenient for you to carry it and it is comfortable for you to charge your earbuds anywhere.</t>
+    <t xml:space="preserve"> [Get Rid Of Master-Slave Restriction] Only need to take earbuds out and connect it on BT list. No need to worry about traditional pairing issues. Single-earbud mode and 2-earbuds mode could switch easily without reconnection and you can enjoy either earbud alone. [Long Sustainable Playtime &amp; Waterproof] Earbuds can be fully charged within 2H. Single charging maintains 4.5H playtime and Charging case with fully charged offers 4-5 times full charge, totally 25H playtime, which offers enough playtime for enjoying your daily life freely. Equipped with IPX5 Waterproof, avoids rainwater and sweat effectively, which is good for sports as most applicable choice. [Touch Control Technology] Touch control technology helps you get rid of the button control mode, providing you comfortable wear sense and no need to worry about hurting your ears. Via touching, control the songs and calls on your own. [3D Stereo Sound Quality] True wireless stereo delivers deep bass and crystal crisp treble, and Built-in high-definition microphone ensures call quality and stable transmission. LASUNEY T21 could offer Superior Sound Quality for you. Sound field is open and meticulous. Music voice is real and accurate, sounding pleasant to you. [In-Ears Design &amp; Easy To Carry] Due to In-Ears Design and S, M, L sizes ear tips, exchange ear tips for comfort wearing and get rid of falling issues. Charging case with delicate as well as compact design, single earbud only weight 4g, charging case is 38g. Such light weight, is convenient for you to carry it and it is comfortable for you to charge your earbuds anywhere.</t>
   </si>
   <si>
     <t>Professional Active Noise Cancelling (ANC) Technology. Our improved ANC technology significantly quells airplane cabin noise, city traffic or a busy office, help you focus on what you want to hear. ANC works both with and without the audio cable and is great for reducing noise during long trips on a plane or in places with city traffic. Amazing Sound with AptX Hi-Fi Technology. Low latency, good fault tolerance, high sound quality. The 90dB give a deep, powerful, and crisp sound, make your overall listening experience just that much better. The goal that provides Customers with better sound quality, is our constant pursuit. High-quality Built-in Microphone and Bluetooth 5.0. COWIN SE7 provides high-quality built-in microphones for hands-free calls, Which is convenient for you to free yourself from wires. Bluetooth 5.0 promises quick and stable connection with your Bluetooth enabled devices. Bluetooth transmission distance: &gt;15m. The Professional Protein Earpad and Foldable Design. More durability and comfort, Enjoy high-quality, Long-listen comfort. Skin texture, lightweight comfortable around-ear fit you can wear all day long. The foldable Headband is designed for saving your desk and travel bag space. Great Playtime. 50 hours playtime in Bluetooth model, 30 hours playtime in bluetooth and ANC model. A built-in 800mAh battery won't allow your headphones power off. Don't need to worry the power shortage problem on the long travel. 18-month warranty and quick response &amp; friendly customer service. Note: The exclusive authorized seller is COWIN.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Consumer Alert: Most users do not need a license to operate this wireless microphone system. Nevertheless, operating this microphone system without a license is subject to certain restrictions: the system may not cause harmful interference; it must operate at a low power level (not in excess of 50 milliwatts); and it has no protection from interference received from any other device. Purchasers should also be aware that the FCC is currently evaluating use of wireless microphone systems, and these rules are subject to change. For more information, call the FCC at 1-888- CALL-FCC (TTY: 1-888-TELL-FCC) or visit the FCC's wireless microphone website at fcc.gov/cgb/wirelessmicrophones.</t>
+    <t xml:space="preserve"> Consumer Alert: Most users do not need a license to operate this wireless microphone system. Nevertheless, operating this microphone system without a license is subject to certain restrictions: the system may not cause harmful interference; it must operate at a low power level (not in excess of 50 milliwatts); and it has no protection from interference received from any other device. Purchasers should also be aware that the FCC is currently evaluating use of wireless microphone systems, and these rules are subject to change. For more information, call the FCC at 1-888- CALL-FCC (TTY: 1-888-TELL-FCC) or visit the FCC's wireless microphone website at fcc.gov/cgb/wirelessmicrophones.</t>
   </si>
   <si>
     <t>★ LED Battery Display &amp; Portable Power Bank ★. The 3500mAh charging case of wireless earbuds equips LED display screen that showing the power volume, and earbuds power volume. The charging case can charge earbuds 35 times, provide 180H play time,earbuds can play 4-5 hours each time. It also could be used as a portable power bank for your cellphone or tablet, very useful in your travel or business trip. ★Two Earbuds Pairing &amp; Bluetooth Connection ★. When take off the earbuds from charging case, it will automatic power on , and will automatic pairing the each other, if pairing successfully, there will have noticed voice "Left Chanel Right Chanel". After two earbuds pairing success, then can use cellphone bluetooth to connect earbuds. ★ Outstanding Stereo Sound Quality ★ The bluetooth earphones will ensure that you don’t miss any part or component of your music. The heave low bass from the amazing earbuds is to act your ears to enjoy the great music.The music output is HD stereo audio that will make high class listening enviroment, and the sound is very clear without any noise because of noise cancellation technology. The sound output of our wireless earbuds earphones meet the recommended health standards. ★ Button Control &amp; Multiple Functions★ This wireless earphone is very light that you can not fell the weight when wear it. The operation of earbuds is very simple by botton control, you can Play or Pause by press earbud 1 time, Answer or Shut off the call by press 1 time, Next or Last song by press 2 times, Power On/Off by long press 5 seconds. ★ 3 Years-Warranty: ★ 3-year replacement for any defective and 30-day return policy. If you are not satisfied with your purchase ,or for any reason our product doesn’t exceed your expectations, ship it back to us for a full and prompt refund (or replace if there’s an issue). For any problem please feel free to contact us, your any feedbacks or requirements will be processed within 24 hours by us</t>
@@ -6416,31 +6407,31 @@
     <t>Lifetime Warranty 2 Pack durable magnetic Earbuds with microphone deliver powerful bass and dynamic clarity---Premium Earbuds delivers incredible natural high fidelity sound with deep bass and crystal clear treble;Built-In Microphone with clear conversations for both sides in calling with our ear buds Much more value for these in ear headphones with microphone---Come with one zipper case which convenient to storage two pack earbuds ,this is a great bonus for your ear buds order; Lightweight comfortable in ear earbuds ---Each earbuds with 3 sets soft silicon ear tips for you Convenient Workout&amp;running headphones--Both earbuds with convenient hands free in line remote control for the music and calling;It is convenient for you to control the music or calling during your workout or sports; Lifetime Warranty worry-free shopping experience for our durable 3.5mm wired earbuds 2 pack---Our customer service is always at your service if you purchased this 2 pack earbuds;Ear buds is widely suitable for all the devices with 3.5mm jack such as for iPhone,iPad,Radio,Android devices and more</t>
   </si>
   <si>
-    <t>【High-Fidelity Stereo Sound】This headphones for iphone with advanced DAC chipsets, offer a truly natural and authentic sound, Immerse yourself in the clear sound of 32bit/384K digital audio 【Magnetic Design&amp; Comfortable Fit】-With magnetic design, the headset more convenient storage, not wound. Unlike traditional, circular earbuds, the design of the Earphones is defined by the geometry of the ear Which makes them more comfortable for more people than any other earbud-style headphones 【Mic and Volume Control】The remote control buttons allow you to play/pause songs, skip next/previous song without picking up your phone. Easy access to volume control on the go. This earphones for ipad equipped with a high-quality microphone which can hand free calling, allow you to easily answer/end calls calls. 【Compatibility 】-Works with all devices that have Li-ghtning connector and support iOS 10 or later, including 100% compatible with iPhone 11/11 Pro/iPhone X/XS/XS Max/XR, iPhone 8 &amp; 8 Plus/7 &amp; 7 Plus, iPad/ipod 【What you get】1*Light-ning Earphone; 1*carry case; 18-month after-sales service &amp; easy-to-reach support. Any reason you aren't satisfied with the adapter, please feel free to contact us, we will arrange the replacement or 100% refund for you without return</t>
+    <t>High-Fidelity Stereo SoundThis headphones for iphone with advanced DAC chipsets, offer a truly natural and authentic sound, Immerse yourself in the clear sound of 32bit/384K digital audio Magnetic Design&amp; Comfortable Fit-With magnetic design, the headset more convenient storage, not wound. Unlike traditional, circular earbuds, the design of the Earphones is defined by the geometry of the ear Which makes them more comfortable for more people than any other earbud-style headphones Mic and Volume ControlThe remote control buttons allow you to play/pause songs, skip next/previous song without picking up your phone. Easy access to volume control on the go. This earphones for ipad equipped with a high-quality microphone which can hand free calling, allow you to easily answer/end calls calls. Compatibility -Works with all devices that have Li-ghtning connector and support iOS 10 or later, including 100% compatible with iPhone 11/11 Pro/iPhone X/XS/XS Max/XR, iPhone 8 &amp; 8 Plus/7 &amp; 7 Plus, iPad/ipod What you get1*Light-ning Earphone; 1*carry case; 18-month after-sales service &amp; easy-to-reach support. Any reason you aren't satisfied with the adapter, please feel free to contact us, we will arrange the replacement or 100% refund for you without return</t>
   </si>
   <si>
     <t>Superior Audio Quality: With dual 11mm dynamic units, RCA Bluetooth headphones bring power bass, smooth mids and rich trebles. Adopting MEMS (Micro Electro Mechanical Systems) technology and Realtek’s RCV (Real Clear Voice) noise cancellation technology, built-in microphone delivers crystal-clear call. IPX7: Compared with IPX5 and IXP6, IPX7-rate headphones can completely resist rain and sweat in any weather conditions. You can enjoy sweating in gym or outdoor workouts. Bluetooth 5.0 &amp; 12 Hours Playtime: Bluetooth 5.0 chip features less power consumption compared to Bluetooth 4.1 and Bluetooth 4.2, RCA Bluetooth headphones can provide up to 12 hours of playtime after 1-2 hours charging. Handy Button Control: Control the music and calls by pressing the buttons on headphones, free your hands from touching your phone. Comfortable and Stable Fit: Weighing less than 1oz, RCA wireless sport headphones is quite lightweight. Coming with soft silicon ear hooks, and ear tips (L, M, S, XS) for choice, RCA wireless earbuds are ergonomically designed to ensure comfortable and stable fit in intense workouts.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Feel the power of extra bass.Connectivity Technology: Wired 30 mm driver units deliver balanced sound with an exceptional low-end thanks to 5 - 22,000 Hz Dynamic Frequency Response Take calls and switch tracks with the in-line remote and mic Customize your controls with the smart key App1 Bold style and cushioned ear pads for long-listening comfort</t>
-  </si>
-  <si>
-    <t>❤ [New Wired Type-c Over Ear Headphone] This is the first newest model of over-ear type c headphones designed by Acessorz, especially for the type-c cellphones and laptops. we using premium durable material and advanced inner hi-res Realtek DAC chips. The high quality padded ear cushions are specifically designed for music/gym headphones maximum comfort and passive noise isolation. The headband is adjustable and stretchable for you to find the desired angle you like to fit in . ❤ [Passive Noise Canceling] - When playing the music with this over ear usb c headphones, no matter in the noisy streets or in the subway and plane, you will not hear these noise, thanks to the sealed over ear soundproof padded ear cushions of this usb c headphones. Only the music wrapped in your ear, enjoying wonderful music with this usb c over-ear headphone. ❤ [Superior Sound Deep Bass]: Enjoy clear sound and super comfort with the Acessorz over ear usb c headphones. Large, 50 millimeter speaker unit drivers combined with neodymium magnets; powerful bass, clear vocal, and crisp high tones form perfect hi-fi sound. ❤ [ATTENTION: Compatibility] - This usb c over-ear headphones support these below: Compatible with iPad Pro 2018, New Macbook Air/Pro, Chromebook, Dell Xps, Google Pixel 2/3/4 &amp; XL, Samsung Galaxy S9/S10/S10+, Samsung Galaxy Note 10/Note 10 Plus 5G, Google Chromebook, Xiaomi, HUAWEI, Oneplus, LG, Essential PH-1, Razer Phone. Other type-c usb c interface devices NOT support. (Restart devices to try again if no sound come out) ❤ [BUY WITH CONFIDENCE]: We can offer excellent assistance for all your purchase, any problem please feel free to contact us, kindly email us your questions, our support team will be ready for you anytime 24 hours/7 days..</t>
+    <t xml:space="preserve"> Feel the power of extra bass.Connectivity Technology: Wired 30 mm driver units deliver balanced sound with an exceptional low-end thanks to 5 - 22,000 Hz Dynamic Frequency Response Take calls and switch tracks with the in-line remote and mic Customize your controls with the smart key App1 Bold style and cushioned ear pads for long-listening comfort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [New Wired Type-c Over Ear Headphone] This is the first newest model of over-ear type c headphones designed by Acessorz, especially for the type-c cellphones and laptops. we using premium durable material and advanced inner hi-res Realtek DAC chips. The high quality padded ear cushions are specifically designed for music/gym headphones maximum comfort and passive noise isolation. The headband is adjustable and stretchable for you to find the desired angle you like to fit in .  [Passive Noise Canceling] - When playing the music with this over ear usb c headphones, no matter in the noisy streets or in the subway and plane, you will not hear these noise, thanks to the sealed over ear soundproof padded ear cushions of this usb c headphones. Only the music wrapped in your ear, enjoying wonderful music with this usb c over-ear headphone.  [Superior Sound Deep Bass]: Enjoy clear sound and super comfort with the Acessorz over ear usb c headphones. Large, 50 millimeter speaker unit drivers combined with neodymium magnets; powerful bass, clear vocal, and crisp high tones form perfect hi-fi sound.  [ATTENTION: Compatibility] - This usb c over-ear headphones support these below: Compatible with iPad Pro 2018, New Macbook Air/Pro, Chromebook, Dell Xps, Google Pixel 2/3/4 &amp; XL, Samsung Galaxy S9/S10/S10+, Samsung Galaxy Note 10/Note 10 Plus 5G, Google Chromebook, Xiaomi, HUAWEI, Oneplus, LG, Essential PH-1, Razer Phone. Other type-c usb c interface devices NOT support. (Restart devices to try again if no sound come out)  [BUY WITH CONFIDENCE]: We can offer excellent assistance for all your purchase, any problem please feel free to contact us, kindly email us your questions, our support team will be ready for you anytime 24 hours/7 days..</t>
   </si>
   <si>
     <t>Sunglasses with built-in Bose speakers that produce rich, immersive sound for you, while others hear practically nothing Open-ear audio allows you to stay aware of your surroundings, while enjoying your music Bose Frames Alto feature a classic angular shape and commanding lenses in two sizes.  Bose Frames S/M lens  Width: 51 mm | Bridge Width: 16 mm | Temple Length: 155 mm Integrated microphone for clear calls and access to your phone’s virtual assistant Blocks up to 99% of UVA/UVB Rays Bose AR enabled* — an innovative audio-only version of augmented reality. *Bose AR availability and functionality varies. Battery Life: 3.5 hours streaming; 12 hours on standby. Charge Time: 2 hoursBluetooth Range: 30 ft. or 9 mCompatible Operating Systems: iOS: 9.0 or newer/ Android: 5.0 or newerShow more</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Lightweight headphones in Black with comfortable on-ear design that minimizes outside noise L-shaped stereo mini plug for connecting to your phone, MP3 player, computer, or other device with a 3.5 mm jack Frequency range of 12 Hz-22,000 Hz helps ensure great sound reproduction; 101 decibels (dB) and 1000mW maximum input level Ear cups rotate in, allowing headphones to lay flat for compact storage and portability Long cord measures 47.3 inches (1.2 meters); backed by an AmazonBasics 1-year limited warranty</t>
+    <t xml:space="preserve"> Lightweight headphones in Black with comfortable on-ear design that minimizes outside noise L-shaped stereo mini plug for connecting to your phone, MP3 player, computer, or other device with a 3.5 mm jack Frequency range of 12 Hz-22,000 Hz helps ensure great sound reproduction; 101 decibels (dB) and 1000mW maximum input level Ear cups rotate in, allowing headphones to lay flat for compact storage and portability Long cord measures 47.3 inches (1.2 meters); backed by an AmazonBasics 1-year limited warranty</t>
   </si>
   <si>
     <t>WIDE COMPATIBILITY &amp; GO FURTHER: Mpow bluetooth headphone with upgraded 5.0 bluetooth transmitter provides a virtually latency-free wireless experience up to 30M/100FT, can be quickly connected to your PC, TV, AV receiver and any other non-Bluetooth devices with analog audio output. IMPRESSIVE SOUND QUALITY: Mpow 059 over-ear bluetooth heaphone comes with improved Hi-Fi sound with CSR chip and 40mm driver together, ensuring an immersive bass experience without disturbance to your family by using the transmitter. NOTE: Mpow bluetooth headset is PASSIVE noise isolating, not ANC. You may cosider other alternatives if you care more about Noise Cancellation than Sound Quality. EXTREME COMFORT: With Memory-protein ear cushion, this wireless headphones provides you a comfortable, skin-like texture that feels good even after hours of use. Besides, the adjustable and padded headband of Mpow headphone allows you to find the right fit for you. NOTE: Please take off the headphone every 1-2 hrs to get your ears relax and protect them from muggy environment in use. ELEGANT STAND &amp; FOLDABLE STRUCTURE: Equipped with a useful headset stand, Mpow headphones can be stayed securely in place, making your desk organized and elegant. Mpow headphones can be also folded neatly into the carrying bag for easy storage and portability. LONG BATTERY &amp; HANDS-FREE CALLING: Bulit-in rechargeable battery, Mpow over-ear headphones gives you 20 hours of listening time on a single charge. You can take hands-free calls with the built-in mic, never miss the call when watching TV. NOTE: The Microphone function ONLY works in the Wireless mode.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【Digital Power Display of Charging Case】The digital of the charging case shows the remaining battery，you can know when the charging case need to be charged according to the digital,you are no longer afraid of the charging case does not have enough power to supply the wireless earbuds. 【One Step Pairing and Charging】 The Twins Earbuds Turn On and Pair with Each Other Automatically When Take Out of the Charging Case; Turn Off and Charge Automatically When Put them Back into the Charging Case. 【Binaural Call and Stereo Sound Quality】 Call Audio in Both Ears, Don’t Worry About Just One Earbud has the Voice. Enjoy a Real Wireless Experience. Adopting Bluetooth 5.0 HD Rendering Technology that Produce Incredible Sound Quality with Deep Bass and Crystal Crisp Treble. Built in High Quality Noise Reduction Technology Chip, Can Block out lots of Surrounding Noises During Sports, Running, Jogging etc. 【Portable Charging Case and Long Battery Life】 The Twins Wireless Earbuds Can Last for 3.5-4 hours’ Music Time On a Single Charge. The Charging Case is a Power Bank, It Can Charge the Twins Earbuds for 5-6 times, So the Twins Earbuds Can Last Up To 17-24 hours. And the Charging Case has the Battery LED Display, You can Know When is the Best time to Charge. You Can Go out for fun Without Worrying About Battery Shortage. 【True Wireless Technology】 No Trouble with Wire Tangle Anymore, Built-in Bluetooth 5.0 Chip, Offers Fast Speed, Stable Connection, Enable to 33ft Transmission. You Can Use the Twins Earbuds to Achieve Volume +/-, Play the Next / the Previous Songs, Answer/Reject Calls, Activate the Voice Functions.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) This combo kit includes GA00485-US (earbuds) this is the same earbuds that Google included with their pixel lineup of phones on the 3rd Gen series, G019BA88A (Audio Jack Adapter) this adapter will make any headphones with a 3.5MM Jack function on any USB-C only device, 73H00641-00M. (USB-C Dongle). This is to transfer your data from any USB-C only device to and from any other device. Enjoy pure 24-bit digital audio on all Android devices 8.0 (Oreo) &amp; up, Experience rich bass, clear mids, and crisp highs with premium speakers and a wide frequency range (Cord length 44 in). Control your music, find directions, call, and text, and manage your day with access to your phone's Google Assistant. Get the latest without touching your phone; Press and hold the volume up button to hear your latest notifications Communicate in over 40 languages with in-ear help from Google Translate; Just press and hold the black button and say Hey Google, Help Me Speak Japanese</t>
+    <t xml:space="preserve"> Digital Power Display of Charging CaseThe digital of the charging case shows the remaining battery，you can know when the charging case need to be charged according to the digital,you are no longer afraid of the charging case does not have enough power to supply the wireless earbuds. One Step Pairing and Charging The Twins Earbuds Turn On and Pair with Each Other Automatically When Take Out of the Charging Case; Turn Off and Charge Automatically When Put them Back into the Charging Case. Binaural Call and Stereo Sound Quality Call Audio in Both Ears, Don’t Worry About Just One Earbud has the Voice. Enjoy a Real Wireless Experience. Adopting Bluetooth 5.0 HD Rendering Technology that Produce Incredible Sound Quality with Deep Bass and Crystal Crisp Treble. Built in High Quality Noise Reduction Technology Chip, Can Block out lots of Surrounding Noises During Sports, Running, Jogging etc. Portable Charging Case and Long Battery Life The Twins Wireless Earbuds Can Last for 3.5-4 hours’ Music Time On a Single Charge. The Charging Case is a Power Bank, It Can Charge the Twins Earbuds for 5-6 times, So the Twins Earbuds Can Last Up To 17-24 hours. And the Charging Case has the Battery LED Display, You can Know When is the Best time to Charge. You Can Go out for fun Without Worrying About Battery Shortage. True Wireless Technology No Trouble with Wire Tangle Anymore, Built-in Bluetooth 5.0 Chip, Offers Fast Speed, Stable Connection, Enable to 33ft Transmission. You Can Use the Twins Earbuds to Achieve Volume +/-, Play the Next / the Previous Songs, Answer/Reject Calls, Activate the Voice Functions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This combo kit includes GA00485-US (earbuds) this is the same earbuds that Google included with their pixel lineup of phones on the 3rd Gen series, G019BA88A (Audio Jack Adapter) this adapter will make any headphones with a 3.5MM Jack function on any USB-C only device, 73H00641-00M. (USB-C Dongle). This is to transfer your data from any USB-C only device to and from any other device. Enjoy pure 24-bit digital audio on all Android devices 8.0 (Oreo) &amp; up, Experience rich bass, clear mids, and crisp highs with premium speakers and a wide frequency range (Cord length 44 in). Control your music, find directions, call, and text, and manage your day with access to your phone's Google Assistant. Get the latest without touching your phone; Press and hold the volume up button to hear your latest notifications Communicate in over 40 languages with in-ear help from Google Translate; Just press and hold the black button and say Hey Google, Help Me Speak Japanese</t>
   </si>
   <si>
     <t>12mm dome type driver units deliver powerful deep bass.Connectivity Technology: Wired Integrated microphone and smartphone playback control Hybrid silicone earbuds for secure, comfortable fit High-energy neodymium magnets for powerful sound Tangle-free, Y-type flat cord with slider</t>
@@ -6449,10 +6440,10 @@
     <t>TRUE WIRELESS BLUETOOTH EARBUDS: With wireless V5.0 and smart noise canceling technology, this Bluetooth headsets offers authentic 3D stereo sound and deep, resonant bass performance, delivering very fast and stable transmission without tangling. GREAT ONE-STEP PAIRING: With high advanced automatic paring construction, the wireless earbuds will auto power on and enter paring mode right after out of charging case. Completely automatic system gives you hassle-free and convenient experience. HIGH QUALITY ON-EAR CONTROL: Built-in microphones in both earbuds, high quality 5.0 Bluetooth chips can make you have good experience in hand-free calls and stereo music. It is very easy for you to play &amp; pause, switch tracks and handle phone calls by pressing the On-ear button each side. Ultra lightweight design releases the ears. SUPER LONG BATTERY LIFE: Work with 3500mAh high capacity charging case, this wireless earphones can up to 60 hours playtime, and can use 6 hours for per charge, long playtime and IPX7 waterproof performance give you relaxing and happy mood when running or walking outside without the phone. We provides 4 different earplug sizes for most people, ergonomic perfect earbuds angle can fit and protect your ear well. PACKAGE DETAILS: The package including: 1 * wireless Bluetooth headphones + 1 * USB cable + 4 * different sizes soft ear caps. We offer 24 hours online service, any question, please kindly contact us.</t>
   </si>
   <si>
-    <t>♪【Coaxial Dual Driver Speaker 】This In-ear Earbud use the coaxial dual speakers acoustic structure -6 mm micro driver speaker + 10 mm large diameter speaker, you can hear more details of the music,the powerful bass,soft mid tone and clear high frequency with this wired earphone. ♪【Crystal Clear Sound】The Tuddrom H2 stereo earbuds headphones have been certified by the Japan Audio Association's Hi-Res.This 3.5mm headphone delivers a more complete analysis and high fidelity sound quality of music for a more natural and realistic listening experience. ♪【Comfortable &amp; Noise Cancelling Design】120 degree oblique design, which is perfect to isolate noise,you can enjoy music anywhere with this noise cancelling earphone.Three sizes memory foam(S/M/L) tips of the wired headphone can be choose.Lightweight and ergonomic design ensures comfortable daily wearing. ♪【MIC Volume Control &amp; Widerly Compatability 】:Comfortable multi-function control button of our noise cancelling earbud including mic and volume control,which is convenient to remote control for music play and gaming.Perfect compatible with MP3/ Cellphone/Laptop/Tablet other 3.5 mm audio port devices. Kind Notice:Need lightning to 3.5mm adpater to work with iphone 7 and above version when you use this in ear headphone. ♪【100% Satisfaction Guaranteed 】:We provide 30-day money back and 12-month warranty, please feel free to contact our customer service with your order number if you have any problems.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Suitable for Kid age 10+ &amp; Adults Soft ear-pad,comfortable for wearing,noise cancelling perfectly Folding design, easy to carry and save spaces, adjustable stretching Great sound perfect for answering phones calls or listening music,1.5 meter nylon rope cord and 3.5mm L shape jack Compatible with all MP3, Phones, Tablets, Computers, DVD and CD players, and portable gaming systems</t>
+    <t>Coaxial Dual Driver Speaker This In-ear Earbud use the coaxial dual speakers acoustic structure -6 mm micro driver speaker + 10 mm large diameter speaker, you can hear more details of the music,the powerful bass,soft mid tone and clear high frequency with this wired earphone. Crystal Clear SoundThe Tuddrom H2 stereo earbuds headphones have been certified by the Japan Audio Association's Hi-Res.This 3.5mm headphone delivers a more complete analysis and high fidelity sound quality of music for a more natural and realistic listening experience. Comfortable &amp; Noise Cancelling Design120 degree oblique design, which is perfect to isolate noise,you can enjoy music anywhere with this noise cancelling earphone.Three sizes memory foam(S/M/L) tips of the wired headphone can be choose.Lightweight and ergonomic design ensures comfortable daily wearing. MIC Volume Control &amp; Widerly Compatability :Comfortable multi-function control button of our noise cancelling earbud including mic and volume control,which is convenient to remote control for music play and gaming.Perfect compatible with MP3/ Cellphone/Laptop/Tablet other 3.5 mm audio port devices. Kind Notice:Need lightning to 3.5mm adpater to work with iphone 7 and above version when you use this in ear headphone. 100% Satisfaction Guaranteed :We provide 30-day money back and 12-month warranty, please feel free to contact our customer service with your order number if you have any problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suitable for Kid age 10+ &amp; Adults Soft ear-pad,comfortable for wearing,noise cancelling perfectly Folding design, easy to carry and save spaces, adjustable stretching Great sound perfect for answering phones calls or listening music,1.5 meter nylon rope cord and 3.5mm L shape jack Compatible with all MP3, Phones, Tablets, Computers, DVD and CD players, and portable gaming systems</t>
   </si>
   <si>
     <t>Fine-tuned acoustic design delivers an exceptional listening experience Optimal ergonomic design for all-day comfort Variety of Ear tip options provide individualized fit for noise isolation Tangle-free flat cable and magnetic ear buds offer easy portability Take calls, control your music, and activate Siri with remote Talk What's in the box: urBeats3 Earphones, Eartips with four size options, Quick Start Guide, Warranty Card</t>
@@ -6467,22 +6458,22 @@
     <t>[SECURE FIT] Perfectly angles design of the earbuds to fit in ear, even small ears could wear and obtain comfortable experiences by adjusting the size of eartips. Feeling free to use it in drizzle weather or light sweat with IPX5 rating, but charging earbuds while it’ s dryness. [PREMIUM SOUND QUALITY] 7.2mm dynamic drivers with ergonomics earbuds design, it delivers crisp, clean, refined sound, enjoying your superior sound without missing any notes. [15 HOURS PLAYTIME] Bluetooth 5.0 provides low-power consumption and low-latency, you will enjoy 15 hours playtime with 380 mah chargeable Case for whole day usage. Feeling no burden to carry the mini size charging case with you. [SENSITIVE TOUCH CONTROL] Instead of controlling your earbuds by pressing ears hurtful , You could simply tap the earbuds to answer/hang up stereo phone calls, or play/pause music. Noise isolation could release the surround noise as much as possible if securing fit and comfortable. [AUTO PAIRING] One step to pair earbuds with your phone, once taking out from charging case, the right earbuds will enter in pairing mode. (Only Right one could use as single earphones, Left one couldn’ t use separately.)</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【Sleep Headphones &amp; Wireless Earphones &amp; Sports Headband 3 in 1】Perytong Bluetooth Sleep Headphones feature a headband design with wireless speakers inside which help to tune out external noises and lull yourself to sleep Wireless headband adopt latest Bluetooth 5 0 version with 33 feet of wireless range and compatible with most iOS Android or windows system wireless devices like smartphone table ipad or laptop 【Best Sleeping Headphones for Side Sleeper】The devices control module is in the middle of speakers won’t press the ears which is very comfortable for side sleepers sleeping The ultra-thin flat headphone speakers are comfortable enough to wear while lying down or sleeping on your side They block out ambient noise without using earplugs that are painful &amp; fall out 【Comfortable and breathable material】this sports headband is made from a soft cool material that absorbs sweat is very breathable and fast drying making it excellent for jogging or working out These headbands are washable very easy to clean (just remove headphones from the headband) 【Long Battery Life】Perytong sleep headphones offer a rechargeable battery that lasts up to 10 hours Quality chip set ensure clear sound and lossless music even the headphones are in the sports headphones There are built-in microphone and volume control buttons which enable users to answer hands-free phone calls and handle previous/next song without having to use your phone 【Fashion Comfy &amp; Washable】Our headphones headband is made of special fabric compressive on pressure to protect your ears and great breathability Please take out the Bluetooth module before full wash the headband</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Superior sound: Asante HF026 on-ear headset adopts high precision drivers provide a natural clear sound with super stereo, giving you a fantastic music experience. Long-cord &amp; Universal compatibility - 60-inch (150mm) cable length with fastening cable ties allow you move all around your cubicle and keep cords organized and tidy. L-shaped 3.5mm Audio plug ideal for devices with 3.5mm jack, compatible with computers, laptops, cell phones, MP3, MP4 players, etc. Note: some functions are dependent on the make/model of your device. Comfortable&amp; portable: super light at only 110G! Adjustable headband and super soft on-ear pads provide you all-day comfort. Swivel ear cups design with an additional carry pouch, you can take them to everywhere with you. Built-in mic &amp; hands free: Built-in microphone and in-line control allowing you to handle hands-free calls and control your music ideal for video calls and video gaming on phones, tablets and laptops. 24-Month &amp; ongoing support: feel confident in your purchase with the included 24-month . Have questions? Please send US an email for a response within 1 working day.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【 TWS Technology&amp; Noice Reducation Wireless Earbuds】Bluetooth 5.0 and lossless HD rendering technology that produce incredible sound quality with deep bass and ensure your great experience with fast, stable and efficient transmission. High Quality Bluetooth Chip which will proivde wonderful noice reduction, you will be immersed in your Music World. Wear these earbuds to enjoy music when you are doing workout, cleanning where you cannot always have your phone handy. ( Keep the range within 33ft) 【One Step Pairing &amp; Build-in Mic Bluetooth Headphones】D2 wireless Bluetooth earbuds are one-step pairing and it will automatically connect to its memorized phone when power on next time. Two Earbuds will turn on and interconnect automatically when taking out of the charging case; turn off and charge automatically when put back into the charging case. With the built-in mic, you can answer your phone with one click on the ear bud. 【90H Playtime Wireless Earphones with Charging Case】Built-in 2000mAh rechargeable battery charging case, wireless earbuds can play for 4-5 hours on a single charge, portalbe charging case can recharge the earbuds 18 times after a single full charge, provide total 90 hours playback. It can be charged automatically once put earbuds in the charging case. You can go out for fun without worrying about battery shortage. There are also LEDs indicator show battery remaining and earbud charging status. 【Confortable Fit &amp; Sweat-Resistant In-Ear Headset Earphones】In-Ear stereo wireless earbuds fit perfectly for different kinds of ears with 3 different size sets of silicone ear tips. Ergonomically design for comfortably fit in your ear for long hours with no pain. Resistant to sweat, water and rain, this lightweight sport earbuds can always stay snug whatever sports you are doing, ideal for sweating it out at the gym.(Remember to wrip dry the earbuds after exercise) 【Widely Compability Wireless Bluetooth Earbuds】Compatible with iPhone11 / X MAX / XR / X / 8/7 / 6S / 6S Plus, Samsung Galaxy S10 / S10 PLUS / S9 / S9 PLUS / S7 / S6, Huawei, LG G5 G4 G3, Sony, iPad, Tablet, etc. Note: If the earbuds crashed (earbuds does not respond ), press and hold the earbuds for about 12 seconds to reset the earbuds. Package included: 2x earubds, 1x charging case, 3x pairs of earbuds covering, 1x micro USB charging cable, 1x user manual.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Open back, around ear design.Connectivity Technology: Wired Powered by proprietary Sennheiser 38 millimeter, 50 ohm transducers Soft, replaceable ear pads for enhanced comfort Two cables included 3 meter detachable cable with 6.3 millimeter jack and 1.2 meter detachable cable with 3.5 millimeter jack Two year warranty when purchased from an authorized Sennheiser dealer</t>
+    <t xml:space="preserve"> Sleep Headphones &amp; Wireless Earphones &amp; Sports Headband 3 in 1Perytong Bluetooth Sleep Headphones feature a headband design with wireless speakers inside which help to tune out external noises and lull yourself to sleep Wireless headband adopt latest Bluetooth 5 0 version with 33 feet of wireless range and compatible with most iOS Android or windows system wireless devices like smartphone table ipad or laptop Best Sleeping Headphones for Side SleeperThe devices control module is in the middle of speakers won’t press the ears which is very comfortable for side sleepers sleeping The ultra-thin flat headphone speakers are comfortable enough to wear while lying down or sleeping on your side They block out ambient noise without using earplugs that are painful &amp; fall out Comfortable and breathable materialthis sports headband is made from a soft cool material that absorbs sweat is very breathable and fast drying making it excellent for jogging or working out These headbands are washable very easy to clean (just remove headphones from the headband) Long Battery LifePerytong sleep headphones offer a rechargeable battery that lasts up to 10 hours Quality chip set ensure clear sound and lossless music even the headphones are in the sports headphones There are built-in microphone and volume control buttons which enable users to answer hands-free phone calls and handle previous/next song without having to use your phone Fashion Comfy &amp; WashableOur headphones headband is made of special fabric compressive on pressure to protect your ears and great breathability Please take out the Bluetooth module before full wash the headband</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Superior sound: Asante HF026 on-ear headset adopts high precision drivers provide a natural clear sound with super stereo, giving you a fantastic music experience. Long-cord &amp; Universal compatibility - 60-inch (150mm) cable length with fastening cable ties allow you move all around your cubicle and keep cords organized and tidy. L-shaped 3.5mm Audio plug ideal for devices with 3.5mm jack, compatible with computers, laptops, cell phones, MP3, MP4 players, etc. Note: some functions are dependent on the make/model of your device. Comfortable&amp; portable: super light at only 110G! Adjustable headband and super soft on-ear pads provide you all-day comfort. Swivel ear cups design with an additional carry pouch, you can take them to everywhere with you. Built-in mic &amp; hands free: Built-in microphone and in-line control allowing you to handle hands-free calls and control your music ideal for video calls and video gaming on phones, tablets and laptops. 24-Month &amp; ongoing support: feel confident in your purchase with the included 24-month . Have questions? Please send US an email for a response within 1 working day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TWS Technology&amp; Noice Reducation Wireless EarbudsBluetooth 5.0 and lossless HD rendering technology that produce incredible sound quality with deep bass and ensure your great experience with fast, stable and efficient transmission. High Quality Bluetooth Chip which will proivde wonderful noice reduction, you will be immersed in your Music World. Wear these earbuds to enjoy music when you are doing workout, cleanning where you cannot always have your phone handy. ( Keep the range within 33ft) One Step Pairing &amp; Build-in Mic Bluetooth HeadphonesD2 wireless Bluetooth earbuds are one-step pairing and it will automatically connect to its memorized phone when power on next time. Two Earbuds will turn on and interconnect automatically when taking out of the charging case; turn off and charge automatically when put back into the charging case. With the built-in mic, you can answer your phone with one click on the ear bud. 90H Playtime Wireless Earphones with Charging CaseBuilt-in 2000mAh rechargeable battery charging case, wireless earbuds can play for 4-5 hours on a single charge, portalbe charging case can recharge the earbuds 18 times after a single full charge, provide total 90 hours playback. It can be charged automatically once put earbuds in the charging case. You can go out for fun without worrying about battery shortage. There are also LEDs indicator show battery remaining and earbud charging status. Confortable Fit &amp; Sweat-Resistant In-Ear Headset EarphonesIn-Ear stereo wireless earbuds fit perfectly for different kinds of ears with 3 different size sets of silicone ear tips. Ergonomically design for comfortably fit in your ear for long hours with no pain. Resistant to sweat, water and rain, this lightweight sport earbuds can always stay snug whatever sports you are doing, ideal for sweating it out at the gym.(Remember to wrip dry the earbuds after exercise) Widely Compability Wireless Bluetooth EarbudsCompatible with iPhone11 / X MAX / XR / X / 8/7 / 6S / 6S Plus, Samsung Galaxy S10 / S10 PLUS / S9 / S9 PLUS / S7 / S6, Huawei, LG G5 G4 G3, Sony, iPad, Tablet, etc. Note: If the earbuds crashed (earbuds does not respond ), press and hold the earbuds for about 12 seconds to reset the earbuds. Package included: 2x earubds, 1x charging case, 3x pairs of earbuds covering, 1x micro USB charging cable, 1x user manual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Open back, around ear design.Connectivity Technology: Wired Powered by proprietary Sennheiser 38 millimeter, 50 ohm transducers Soft, replaceable ear pads for enhanced comfort Two cables included 3 meter detachable cable with 6.3 millimeter jack and 1.2 meter detachable cable with 3.5 millimeter jack Two year warranty when purchased from an authorized Sennheiser dealer</t>
   </si>
   <si>
     <t>30 millimeter drivers for rich, full frequency response Lightweight and comfortable on ear design Swivel design for portability 47 ¼ inch (1.2 meter) tangle free, Y type cord</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) EARHOOK ADJUSTABLE: Hook-shaped earbud is clip easily onto your Ear, then loop around your ear to keep the headphone securely in place during sports &amp; rigorous activity. FLEXES &amp; CONFORMS TO YOUR EAR: Ear loops have bendable wires to provide a custom fit that won't fail you during running, aerobics, or lifting weights. These sports headphones also come with 3 ear piece sizes to ensure a custom comfortable fit, sealing the ear to deliver bass and isolate noises.Enjoy a frustration-free workout! GOOD SOUND QUALITY --- The sound of these sport earbuds is clear and crisp. Call quality and mic is good. You can hear the person on the other end clearly even on a noisy treadmill. It is fully compatible with Samsung Galaxy Series, mp3, smartphone, laptop, computer, tablet, psp etc. SUPERIOR COMFORT: Soft rubber ear loop provides ultra-comfortable, “forget it’s there” support, even with glasses. No more making your ears sore from jamming rubber or foam pieces inside! 1-YEAR MONEY BACK GUARANTEE: Should you have any issues at all with your earbuds, we’ll either provide a replacement</t>
+    <t xml:space="preserve"> EARHOOK ADJUSTABLE: Hook-shaped earbud is clip easily onto your Ear, then loop around your ear to keep the headphone securely in place during sports &amp; rigorous activity. FLEXES &amp; CONFORMS TO YOUR EAR: Ear loops have bendable wires to provide a custom fit that won't fail you during running, aerobics, or lifting weights. These sports headphones also come with 3 ear piece sizes to ensure a custom comfortable fit, sealing the ear to deliver bass and isolate noises.Enjoy a frustration-free workout! GOOD SOUND QUALITY --- The sound of these sport earbuds is clear and crisp. Call quality and mic is good. You can hear the person on the other end clearly even on a noisy treadmill. It is fully compatible with Samsung Galaxy Series, mp3, smartphone, laptop, computer, tablet, psp etc. SUPERIOR COMFORT: Soft rubber ear loop provides ultra-comfortable, “forget it’s there” support, even with glasses. No more making your ears sore from jamming rubber or foam pieces inside! 1-YEAR MONEY BACK GUARANTEE: Should you have any issues at all with your earbuds, we’ll either provide a replacement</t>
   </si>
   <si>
     <t>Compatible with Galaxy S10/S10+/S9 / S8 / S7 / S6 / Edge + Plus Samsung Galaxy Note 9 / Note 8, Galaxy S9 / S9 Plus / S8 / S8 Plus / S8 Active LG G7 ThinQ / G5 / G6 / G6 Pro / G6 Plus, V20 / V20S / V30, X Venture / V40 / V35 Google Pixel / Pixel XL / Pixel 2 / Pixel 3 / Pixel 3XL / Pixel XL2, Nexus 5X / 6P Nintendo Switch SONY XZ / XZS / XZ Premium / XZ Compact / X Ultra Moto Z / Z Force / Z Play / Z2 / Z2 Force / Z2 Play OnePlus 2 / 3 / 3T Perfect stereo headphones with high quality drivers enables you experience natural clear and super enhanced bass sound. Noise cancelling technique helps against loud and annoying noise. The earbuds was built in a in-line remote controller and a high quality microphone, the controller was designed to control volume, select songs and take calls. You don't need to move your head when you are talking. The noise isolating earphones suit ear canal naturally, and you wont feel uncomfortable,even wear for a long time also wont fatigue; they are less likely to fall out, and enjoy your music. We are committed to providing satisfactory service to all our customers, and we will treat every customer sincerely and track each customer's orders. Don't hesitate anymore, add it to your cart now.</t>
@@ -6491,19 +6482,19 @@
     <t>WIRELESS HEADPHONES: Jabra Move Style Edition provides unparalleled wireless sound quality; The crisp digital sound of Jabra’s signature (Digital Signal Processing) DSP gives your music, movies and calls true depth and real clarity wherever you are MULTI FUNCTIONAL BLUETOOTH HEADPHONES: Take control of your music and calls directly from the headphones; Conveniently placed buttons mean you can control your calls and music at the touch of a button and enjoy the true freedom of wireless technology ALL DAY COMFORT: An ultra light, adjustable headband means you can wear the Move Style Edition all day long; So you can comfortably chat and listen to music for hours DURABLE DESIGN: The clean, simple, Scandinavian design of Move Style Edition encompasses a powerhouse of sound and functionality that’s as durable as it is stylish; These cordless headphones are designed to inspire and built to last UP TO 14 HOURS OF USE: The Move Style Edition is designed to keep up with your busy day; Enjoy up to 14 hours of battery life on a single charge and up to 12 days of standby; If you run out of battery, simply attach the 3.5mm cable (included standard)</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Collapsible feature: take your headphones wherever you go. Just fold them up, twist up the cord, and be on your merry way Hands-free talking and volume control: the built-in mic, remote and volume control lets you pick up calls and skip between tracks without missing a beat. Adjustable hinge: the adjustable headband gives your headphones some impressive flexibility so they can adapt to the shape of your head for a perfect fit. Noise isolation: full-sized, on-ear construction isolates from outside noise so you can hear the deep bass, and crisp midst and highs of your upcoming track. Widely compatible: with a flexible and durable 47 inches braided cord and sturdy 3. 5 mm stereo Plug. Will not kink, twist or break under normal use. Use with all your favorite devices like cellphones, laptop, computer, MP3, MP4 and other Audio devices.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Frequency Response - 20 – 20,000 Hz and Impedance - 45 ohms</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Redmi AirDots is equipped with the latest Bluetooth 5. 0 chip, the data transfer rate is up to 2 times compared with the previous generation, the connection is faster and more stable. Listening to songs and playing games are smoother. 7. 2mm Dynamic unit And DSP intelligent environment noise reduction, nice music and clear calling. 4. 1g Ultra-Light, Three models of earplugs to meet your higher requirements for closure and firmness, even when running, punching, and listening to music on the road. Dustproof and IPX4 waterproof, Double-eared split design, single and double ears are free to wear. Redmi AirDots uses multi-function button physical buttons to support voice control. Double-click to activate the phone's voice assistant. 4 hours battery life, 12 hours Endurance; 40mAh headphones &amp; 300mAh charging box to meet daily needs.</t>
+    <t xml:space="preserve"> Collapsible feature: take your headphones wherever you go. Just fold them up, twist up the cord, and be on your merry way Hands-free talking and volume control: the built-in mic, remote and volume control lets you pick up calls and skip between tracks without missing a beat. Adjustable hinge: the adjustable headband gives your headphones some impressive flexibility so they can adapt to the shape of your head for a perfect fit. Noise isolation: full-sized, on-ear construction isolates from outside noise so you can hear the deep bass, and crisp midst and highs of your upcoming track. Widely compatible: with a flexible and durable 47 inches braided cord and sturdy 3. 5 mm stereo Plug. Will not kink, twist or break under normal use. Use with all your favorite devices like cellphones, laptop, computer, MP3, MP4 and other Audio devices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frequency Response - 20 – 20,000 Hz and Impedance - 45 ohms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redmi AirDots is equipped with the latest Bluetooth 5. 0 chip, the data transfer rate is up to 2 times compared with the previous generation, the connection is faster and more stable. Listening to songs and playing games are smoother. 7. 2mm Dynamic unit And DSP intelligent environment noise reduction, nice music and clear calling. 4. 1g Ultra-Light, Three models of earplugs to meet your higher requirements for closure and firmness, even when running, punching, and listening to music on the road. Dustproof and IPX4 waterproof, Double-eared split design, single and double ears are free to wear. Redmi AirDots uses multi-function button physical buttons to support voice control. Double-click to activate the phone's voice assistant. 4 hours battery life, 12 hours Endurance; 40mAh headphones &amp; 300mAh charging box to meet daily needs.</t>
   </si>
   <si>
     <t>Ergo fit design for ultimate comfort and fit In ear headphone 10. 7 driver unit</t>
   </si>
   <si>
-    <t>❶【Hi-Fi Stereo Sound and Binaural Call】Compared to other single headset calls, both of our earbuds have microphones and Bluetooth 5.0 chips which can produce incredible 5D stereo sound, deliver faster and more stable connections, New dual-channel synchronous transmission without worry about audio delay or interrupted. ❷【Auto Bluetooth Pairing and Charging】After initial Bluetooth pairing, all you need to do is take 2 earbuds out from the charging case, they will turn on and interconnect automatically and have no master-slave restrictions, switch easily between mono and share mode; turn off and charge automatically when put back into the charging case. ❸【200H Playtime and Power Display】Bluetooth earbuds can get 5-6hrs playtime from a single charge, 3500mAh charging case can charge about 40 times, providing up to 200hrs of cycle work time, L/R separated LED power and Digital display are designed for check the battery's capacity more timely. ❹【Snug Fit and IPX7 Sweatproof】4.5g lightweight and ergonomic design fits your ears comfortably and will not fall, 3 sizes of silicone ear cups seal your ears well and cancel noise, suitable for teenagers and adults. IPX7 Waterproof Nano-coating protects the earbuds from sweat or rain, It’s an ideal gift for sports lovers. ❺【True Wireless and Portable】Touch control design can adjust volume +/-, play next/previous songs, answer/reject calls, activate voice functions. The charging case can also be used as an alternative power bank for other devices and rounded corner design makes it safer and more portable.</t>
+    <t>❶Hi-Fi Stereo Sound and Binaural CallCompared to other single headset calls, both of our earbuds have microphones and Bluetooth 5.0 chips which can produce incredible 5D stereo sound, deliver faster and more stable connections, New dual-channel synchronous transmission without worry about audio delay or interrupted. ❷Auto Bluetooth Pairing and ChargingAfter initial Bluetooth pairing, all you need to do is take 2 earbuds out from the charging case, they will turn on and interconnect automatically and have no master-slave restrictions, switch easily between mono and share mode; turn off and charge automatically when put back into the charging case. ❸200H Playtime and Power DisplayBluetooth earbuds can get 5-6hrs playtime from a single charge, 3500mAh charging case can charge about 40 times, providing up to 200hrs of cycle work time, L/R separated LED power and Digital display are designed for check the battery's capacity more timely. ❹Snug Fit and IPX7 Sweatproof4.5g lightweight and ergonomic design fits your ears comfortably and will not fall, 3 sizes of silicone ear cups seal your ears well and cancel noise, suitable for teenagers and adults. IPX7 Waterproof Nano-coating protects the earbuds from sweat or rain, It’s an ideal gift for sports lovers. ❺True Wireless and PortableTouch control design can adjust volume +/-, play next/previous songs, answer/reject calls, activate voice functions. The charging case can also be used as an alternative power bank for other devices and rounded corner design makes it safer and more portable.</t>
   </si>
   <si>
     <t>Necano earphones Headphones come with 1 Year and 30 days money back, please contact for manufacturer defects Premium audio: Ultra-lightweight, digital in-ear stereo wired earphones delivering stunning studio-quality sound 12mm large earphone drivers provide crystal clear, top audio performance with driving bass, tight midst and precision treble response for music you can feel Package comes with 2 Earphones with 2 pairs extra ear gel Compatible with Galaxy S10 / S9 / S8 / S7 / S6 / Edge + Plus Samsung Galaxy Note 9 / Note 8, Galaxy S9 / S9 Plus / S8 / S8 Plus / S8 Active LG G7 ThinQ / G5 / G6 / G6 Pro / G6 Plus, V20 / V20S / V30, X Venture / V40 / V35 Google Pixel / Pixel XL / Pixel 2 / Pixel 3 / Pixel 3XL / Pixel XL2, Nexus 5X / 6P Nintendo Switch SONY XZ / XZS / XZ Premium / XZ Compact / X Ultra Moto Z / Z Force / Z Play / Z2 / Z2 Force / Z2 Play OnePlus 2 / 3 / 3T</t>
@@ -6515,10 +6506,10 @@
     <t>Triple Driver Systems: Triple neodymium magnets and high-performance dynamic drive systems deliver powerful,detailed sound. Noise Isolating: In-ear design and soft silicone earplugs provide comfort and significantly reduce external noise. Exclusive Tuning Technology: natural, unique sensing technology to suppress high frequency glitches, the ultimate balance between classic Almighty. Daily Uses: Lightweight design is ideal for listening during exercise travel or for everyday wear,Tonally balanced audio with crisp highs and deep low notes. Compatible Models: Built-in mic lets you talk hands-free on your device.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) EASY LISTENING: Adjust the volume, change tracks and take calls with on-device touch controls. Enjoy added convenience with the proximity sensor that pauses playback when headphones are removed and resumes when placed back on. Frequency response - 20-20,000Hz and Impedance - 16 Ohms Lithium-Ion Battery Capacity: 770 mAh</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) COMFORTABLE TO WEAR: Ultra-soft ear cushions and padded headband provide you a fatigue-free listening experience even wearing these on-ear headphones during a long session. Adjustable slider helps you achieve the perfect fit without constraint. You can easily use these stereo headphones for your workouts, job commute or just for listening at home DURABLE AND FOLDING DESIGN: Lightweight design, Stretchable with Small size, make these wired headphones easy to put into your package and take along anywhere,Premium 1.2m nylon braiding cord doesn’t tangle or kink, suitable for kids and Children. BUILD IN MICROPHONE AND VOLUME CONTROL: Enjoy a completely hands free listening experience with a microphone built into the headset for high definition calls ; Adjust Volume, Pause/Play your Music or answer/end phone calls right from your headset with built in control. UNIVERSAL COMPATIBILITY: Headphones are designed with a 3.5mm jack that fits to all standard iPhones, Androids, smartphones, iPads, Tablets, etc.for gym, listening to music and games. WARRANTY: Besom earphones have 1year replacement warranty.Please feel free to contact us if you have any request, we will solve your problem within 24 hours.</t>
+    <t xml:space="preserve"> EASY LISTENING: Adjust the volume, change tracks and take calls with on-device touch controls. Enjoy added convenience with the proximity sensor that pauses playback when headphones are removed and resumes when placed back on. Frequency response - 20-20,000Hz and Impedance - 16 Ohms Lithium-Ion Battery Capacity: 770 mAh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMFORTABLE TO WEAR: Ultra-soft ear cushions and padded headband provide you a fatigue-free listening experience even wearing these on-ear headphones during a long session. Adjustable slider helps you achieve the perfect fit without constraint. You can easily use these stereo headphones for your workouts, job commute or just for listening at home DURABLE AND FOLDING DESIGN: Lightweight design, Stretchable with Small size, make these wired headphones easy to put into your package and take along anywhere,Premium 1.2m nylon braiding cord doesn’t tangle or kink, suitable for kids and Children. BUILD IN MICROPHONE AND VOLUME CONTROL: Enjoy a completely hands free listening experience with a microphone built into the headset for high definition calls ; Adjust Volume, Pause/Play your Music or answer/end phone calls right from your headset with built in control. UNIVERSAL COMPATIBILITY: Headphones are designed with a 3.5mm jack that fits to all standard iPhones, Androids, smartphones, iPads, Tablets, etc.for gym, listening to music and games. WARRANTY: Besom earphones have 1year replacement warranty.Please feel free to contact us if you have any request, we will solve your problem within 24 hours.</t>
   </si>
   <si>
     <t>Package Include 10Pack Bulk Earphones and 10Pack 10mm Replacement Earpieces For Kids, no built-in mic.6 colors mixed black, white,yellow, green, pink, red. Factory Wholesale Bulk Earbuds for Classroom Kids, Earphones uses perfect for families,kids, birthday parties, Schools, Libraries, Museums,gym and other Promotion. Cheap Earbuds with Great Quality：Bulk Earphones equipped with high quality drivers stereo Headphones, sound balance clear, Soft silicone Earbuds, enough to wear for a long time without discomfort, Under 1 dollar Earbuds great for students. Bulk Headphones Compatibility Fit：Length about 4feet or 1.2m, 3.5mm Aux jack compatible with most smartphones and other devices. We tested each Earbuds before send to Amazon,please feel free to buy it.Don't hesitate to contact us if you need any help with your order,we will get back to you within 24hours.</t>
@@ -6527,28 +6518,28 @@
     <t>World-Leading Digital Active Noise Cancelling (ANC): Advanced noise cancellation technology effectively quells 90% stable low frequency background noise when in noisy environment airplane/subway/car/office/factory/crowd etc.(not 100% sound canceling.).ANC works well in both wired and wireless mode.ANC ON,World OFF.To be better and better noise reducing is our goal! Elegant Appearance &amp; Tiny Lightweight Folding: Light for head relaxing and portable for traveling storage. Durable headset 0.4 lb ONLY! 90°-170°ear-cups’ multi-angle flexible rotation with adjustable headband of 8 levels’ size stretch. Ergonomic international standard size. Fast Charge &amp; 40+Hours Enjoyment: Charging 10 minutes to use 3 hours.High efficiency and energy-saving Bluetooth 5.0 to prolong playtime up to 40 hours after 1-2 hours’ full charge.Built-in sensitive microphones for easy communication under Bluetooth mode.Support Siri voice control.3.5mm stereo audio cable as back-up when in low battery.Extra Charging protection especially for high-end cars Benz,Porsche,etc. Ultimate Sound: Clear mega bass from unique designed sound chamber and 40mm HD premium speakers.Professionally stereo drivers’ and other frequency bands’ improvements make music grace to find the rhythm of your soul.Sometimes quality just needs to be heard. Superior Comfort: Extremely comfortable memory protein leather with skin-friendly breathable feel.Exclusive Designs of Air Pressure Balance to reduce sound wave pressure of active noise reduction. Wearing much more comfortable than all other brands. Designed in Japan. Note: the exclusive authorized seller is Srhythm.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bluetooth 4.2 wireless technology in an ergonomically designed lightweight, comfortable and collapsible travel headset perfect for travel. Connectivity Technology: Wireless NoiseGard adaptive noise cancellation ensures superior sound quality in every environment. Impedance:Active 490 Ohm/ Passive 46 Ohm Intuitive user control and convenience thanks for voice prompts, touch controls, NFC pairing, smart pause and automatic on/off Triple microphone array delivers business class communications with exceptional vocal clarity. Sennheiser sound signature quality with selective sound modes to enhance the listening experience The PXC 550 wireless is fully compatible with CapTune, sennheiser's premium quality music player and powerful sound tuning app to perfectly adjust the feel of your music to your personal preference</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Excellent sound quality with set of 3 packs makes your music and wearing vivid. Standard 3.5mm jack fits all your devices with 3.5mm jack. Nylon braided wired makes it more durable. Ergonomic design provides you comfortable wearing for long time listening. The earbud case is aluminum which brings high end look. You can do the following operations via the remote control: pause / play / next song / previous song / pick up the phone / hang the phone Bonus with 3 Pair silicone ear tips to let your have better wearing fit.</t>
-  </si>
-  <si>
-    <t>【ADVANCED BLUETOOTH 5.0】Bluetooth 5.0 technology provides a stable wireless connections to your Smart phones. No wires to mess with equal no tangling. Faster pairing with stable connection up to 33ft/10m Bluetooth range, support all Bluetooth device cell phones, iphones, iwatch, Samsung Galaxy, tablets, laptops and so on 【EASY PAIRING】 Take out Two earbuds from charging box, the earbuds will power on automatically and connect to each other, then pairing to your Bluetooth device. Use the earbuds in dual mode (two earbuds) or it can be used in single mode, just give one earbud to your lover/familiar/friend to share your moment 【CUSTOM FIT】 Reinforced design for sweat and water resistance with adjustable, secure-fit silicone earhooks for added comfort and stability. Ergonomically designed for Sport, Workout, Running, Jogging, Hiking, Biking, Gym; Come with 3 replacement sets of silicone caps (Size Small,Mid,Large), Design for various ear size to ensure comfortable Wearing 【CHARGE ON THE GO】 Hands-free wireless earbuds built-in 100mAh battery, up to 8-10 hours playing time, 1.5 hours fully charging time; Equipped with a mini and portable 950mAh charging case that will support recharging of your earphones up to 5x that can conveniently be stored in you pocket or bag. Never worry about low battery when you are out all day 【High-Definition Sound】Our this design bluetooth earphones featuring latest Bluetooth 5.0 CSR with CVC 6.0 noise reduction technology, acoustic echo cancellation guarantees high quality sound and enables you to call clearly at any place. True wireless stereo 360 degree, left and right channel separation, can be used alone or in pairs</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 【Bluetooth 4.1 technology】 - Provides fast and stable pairing with any iOS and Android smart phones, tablets, laptops, MP3 players from up to 33' Away. It can pair easily with any two Bluetooth devices at once. 【Noise suppression】- built-in HD microphone with advanced CVC6.0 noise reduction technology blocks out disruptive background noise like wind, traffic or crowds, offers crystal clear audio and natural sound, allowing you to enjoy high quality music and clear phone calls wherever. 【Hands-free for calling】 - This Bluetooth headset With mic Supports Siri and Google voice assistant. Easily mute/unmute with the touch of a button. Voice alerts battery level, connection status, mute/unmute status, and even announce the phone number of caller except the caller name. Easy-to-reach buttons let you enjoy real hands-free. 【Comfortable &amp; convenient】 - designed to fit either ear, The retractable ear hook and Flip-boom arm swivels and rotates for a secure fit. It is lightweight and comfortable enough to be worn for hours at a time. Ultimate comfort ear gels are available in 3 different sizes to provide a snug, secure tailored fit. Unique high-end carrying case protects the headset from damaging and losing. 【Great battery life】- With up to 8-10 hours of continuous calls and up to 7.5 days in standby mode, This Bluetooth earpiece lets you make reliable wireless calls throughout the day on a single 1.5 hours quick charge.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) 50mm neodymium drivers deliver full spectrum of sound 1.5m cable gives you freedom of movement for indoor use Comfortable double layered headband cushion, breathable ear cushion for longer wearing comfort Finishing of connector: gold-plated, acoustic system: open, Magnet type: neodymium Impedance: 32 ohm, maximum power input: 200Mw, sensitivity: 101 dB, speaker diameter: 50mm, Frequency response: 12-35 000Hz</t>
+    <t xml:space="preserve"> Bluetooth 4.2 wireless technology in an ergonomically designed lightweight, comfortable and collapsible travel headset perfect for travel. Connectivity Technology: Wireless NoiseGard adaptive noise cancellation ensures superior sound quality in every environment. Impedance:Active 490 Ohm/ Passive 46 Ohm Intuitive user control and convenience thanks for voice prompts, touch controls, NFC pairing, smart pause and automatic on/off Triple microphone array delivers business class communications with exceptional vocal clarity. Sennheiser sound signature quality with selective sound modes to enhance the listening experience The PXC 550 wireless is fully compatible with CapTune, sennheiser's premium quality music player and powerful sound tuning app to perfectly adjust the feel of your music to your personal preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excellent sound quality with set of 3 packs makes your music and wearing vivid. Standard 3.5mm jack fits all your devices with 3.5mm jack. Nylon braided wired makes it more durable. Ergonomic design provides you comfortable wearing for long time listening. The earbud case is aluminum which brings high end look. You can do the following operations via the remote control: pause / play / next song / previous song / pick up the phone / hang the phone Bonus with 3 Pair silicone ear tips to let your have better wearing fit.</t>
+  </si>
+  <si>
+    <t>ADVANCED BLUETOOTH 5.0Bluetooth 5.0 technology provides a stable wireless connections to your Smart phones. No wires to mess with equal no tangling. Faster pairing with stable connection up to 33ft/10m Bluetooth range, support all Bluetooth device cell phones, iphones, iwatch, Samsung Galaxy, tablets, laptops and so on EASY PAIRING Take out Two earbuds from charging box, the earbuds will power on automatically and connect to each other, then pairing to your Bluetooth device. Use the earbuds in dual mode (two earbuds) or it can be used in single mode, just give one earbud to your lover/familiar/friend to share your moment CUSTOM FIT Reinforced design for sweat and water resistance with adjustable, secure-fit silicone earhooks for added comfort and stability. Ergonomically designed for Sport, Workout, Running, Jogging, Hiking, Biking, Gym; Come with 3 replacement sets of silicone caps (Size Small,Mid,Large), Design for various ear size to ensure comfortable Wearing CHARGE ON THE GO Hands-free wireless earbuds built-in 100mAh battery, up to 8-10 hours playing time, 1.5 hours fully charging time; Equipped with a mini and portable 950mAh charging case that will support recharging of your earphones up to 5x that can conveniently be stored in you pocket or bag. Never worry about low battery when you are out all day High-Definition SoundOur this design bluetooth earphones featuring latest Bluetooth 5.0 CSR with CVC 6.0 noise reduction technology, acoustic echo cancellation guarantees high quality sound and enables you to call clearly at any place. True wireless stereo 360 degree, left and right channel separation, can be used alone or in pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bluetooth 4.1 technology - Provides fast and stable pairing with any iOS and Android smart phones, tablets, laptops, MP3 players from up to 33' Away. It can pair easily with any two Bluetooth devices at once. Noise suppression- built-in HD microphone with advanced CVC6.0 noise reduction technology blocks out disruptive background noise like wind, traffic or crowds, offers crystal clear audio and natural sound, allowing you to enjoy high quality music and clear phone calls wherever. Hands-free for calling - This Bluetooth headset With mic Supports Siri and Google voice assistant. Easily mute/unmute with the touch of a button. Voice alerts battery level, connection status, mute/unmute status, and even announce the phone number of caller except the caller name. Easy-to-reach buttons let you enjoy real hands-free. Comfortable &amp; convenient - designed to fit either ear, The retractable ear hook and Flip-boom arm swivels and rotates for a secure fit. It is lightweight and comfortable enough to be worn for hours at a time. Ultimate comfort ear gels are available in 3 different sizes to provide a snug, secure tailored fit. Unique high-end carrying case protects the headset from damaging and losing. Great battery life- With up to 8-10 hours of continuous calls and up to 7.5 days in standby mode, This Bluetooth earpiece lets you make reliable wireless calls throughout the day on a single 1.5 hours quick charge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50mm neodymium drivers deliver full spectrum of sound 1.5m cable gives you freedom of movement for indoor use Comfortable double layered headband cushion, breathable ear cushion for longer wearing comfort Finishing of connector: gold-plated, acoustic system: open, Magnet type: neodymium Impedance: 32 ohm, maximum power input: 200Mw, sensitivity: 101 dB, speaker diameter: 50mm, Frequency response: 12-35 000Hz</t>
   </si>
   <si>
     <t>Enjoy Your Sleeping Faster and Deeper: HD stereo system can cut out most noise quietly,not disturbing your sleep and making you get lost in the music. Besides,upgraded nose design can effectively block out light to create total darkness. Better Than Regular Earphones: Made of cotton and plush as well as Interior padding without any pressure on your eyes, you barely feel like you’re wearing anything. No worry about hurting your ears like a regular earphone even you wear it all night. Bluetooth 5.0 Technology &amp; HD HIFI Sound: Unimi Bluetooth sleep mask adopts newest stable Bluetooth 5.0 Technology can easily pairs with Bluetooth compatible devices. Immersed in HD HIFI Sound, empty your mind, enjoy this magical music journey. Detachable and Washable: Zipper design allows you to remove the internal Bluetooth module at any time let you can full wash the eye mask. You never worry about it shrinking and deforming. It is recommended to dry naturally after hand washing. Best Sleep Partner: This Bluetooth Sleep Mask is ideal for travel, napping, meditation, shift work. Meanwhile Unimi provide 12 months warranty and technical support. Please contact us any time.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Stereo Sound &amp; Foolproof Volume Limiting: Full-coverage padded earmuffs will wrap your little ones in powerful, high-quality sound. Your child's safety is our priority. iClever kids Bluetooth headphones max out the volume level at 94db for immersive yet safe listening. They'll get lost in the music, movie, game, and more! Wireless &amp; Effortless - Volume control, Microphone: You are in the pursuit of catching up the technology, your children need as well. Say goodbye to tangled wired headphones. iClever kids wireless headphones adopts the latest Bluetooth 5. 0 to maintain stable connection. Play, pause, answer, and end calls with a touch of a button. The built-in microphone of kids headphones provides hands-free control and easy operation. Comfort Come First: The Memory foam ear cushions of iClever kids headphones are very comfortable and breathable, gently covering little ears. The fully adjustable headband with soft padding rests on your head without any feeling of strain. Hours of Uninterrupted Listening: Enjoy enough listening time with up to 20 hours of music, study, movies, and calls on a single charge. With a 3. 5 mm backup jack, you can stay in the zone without interruption with iClever toddler headphones. Foldable &amp; Durable: iClever kids headphones for school are foldable and portable for easy travel. Stash these lightweight headphones a backpack, purse, or suitcase for music that moves with you. The soft headband can be twisted, turned and bent without breaking.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) TRUE SURROUND SOUND EFFECT FOR IMMERSIVE GAMING EXPERIENCE. RUNMUS gaming headset adopt superior 50mm audio drivers combined with advanced audio techniques. It delivers quality simulated surround sound to enhance the immersive gaming experience. With the high responsive audio drivers, you can be better to make out the direction from which the sound is coming, like the gun fire, enemy footsteps and scenario indicators. Let you gain the competitive edge you need to take gaming to the next level ERGONOMIC DESIGN &amp; LIGHTWEIGHT MATERIAL FOR ALL-DAY COMFORT. Using self-adjusting padding headband &amp; all-cover ear cups with soft memory foam, RUNMUS gaming headset presents the ultra-comfortable wearing experience. The soft ear cups with bionic protein cushion coat covers your ears gently. Thanks to its lightweight flexible plastic material, RUNMUS gaming headset is only 12 OZ. You won't feel any discomfort from headband and ear cups even after a long gaming sessions MULTI-PLATFORM COMPATIBILITY FOR PLUG AND PLAY. RUNMUS gaming headset works on PS4, PS3 (Adapter needed), PS vita, PSP, Xbox One, Nintendo Switch (audio), Nintendo New 3DS LL/3DS (audio), Nintendo 3DS LL/3DS (audio), Windows PC, Mac OS PC, iOS device and Android device. Xbox One headset adapter might be needed. With RUNMUS gaming headset, gamer can always enjoy a immersive gaming experience no matter in which platform. Plug and play NOISE CANCELING &amp; ANTI-STATIC MICROPHONE FOR CRYSTAL-CLEAR COMMUNICATION. RUNMUS gaming headset has a sensitive adjustable microphone using noise canceling techniques. It filters most environmental noise around you and provide real-in-time talking without any delay. Anti-static tech inside gaming headphones prevent static sound from happening. You can chat to your fellow players with crystal clarity sound and enjoy a smooth team-work play 100% QUALITY GUARANTEED &amp; 12-MONTH-WARRANTY. Every RUNMUS gaming headset will go trough a strict quality test process before sending out. We promised to bring the best quality gaming headset to our customer. From the day of purchase of RUNMUS gaming headset, we offer 12 months warranty to our customer. Every customer’s right is fully guaranteed during the warranty period</t>
+    <t xml:space="preserve"> Stereo Sound &amp; Foolproof Volume Limiting: Full-coverage padded earmuffs will wrap your little ones in powerful, high-quality sound. Your child's safety is our priority. iClever kids Bluetooth headphones max out the volume level at 94db for immersive yet safe listening. They'll get lost in the music, movie, game, and more! Wireless &amp; Effortless - Volume control, Microphone: You are in the pursuit of catching up the technology, your children need as well. Say goodbye to tangled wired headphones. iClever kids wireless headphones adopts the latest Bluetooth 5. 0 to maintain stable connection. Play, pause, answer, and end calls with a touch of a button. The built-in microphone of kids headphones provides hands-free control and easy operation. Comfort Come First: The Memory foam ear cushions of iClever kids headphones are very comfortable and breathable, gently covering little ears. The fully adjustable headband with soft padding rests on your head without any feeling of strain. Hours of Uninterrupted Listening: Enjoy enough listening time with up to 20 hours of music, study, movies, and calls on a single charge. With a 3. 5 mm backup jack, you can stay in the zone without interruption with iClever toddler headphones. Foldable &amp; Durable: iClever kids headphones for school are foldable and portable for easy travel. Stash these lightweight headphones a backpack, purse, or suitcase for music that moves with you. The soft headband can be twisted, turned and bent without breaking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRUE SURROUND SOUND EFFECT FOR IMMERSIVE GAMING EXPERIENCE. RUNMUS gaming headset adopt superior 50mm audio drivers combined with advanced audio techniques. It delivers quality simulated surround sound to enhance the immersive gaming experience. With the high responsive audio drivers, you can be better to make out the direction from which the sound is coming, like the gun fire, enemy footsteps and scenario indicators. Let you gain the competitive edge you need to take gaming to the next level ERGONOMIC DESIGN &amp; LIGHTWEIGHT MATERIAL FOR ALL-DAY COMFORT. Using self-adjusting padding headband &amp; all-cover ear cups with soft memory foam, RUNMUS gaming headset presents the ultra-comfortable wearing experience. The soft ear cups with bionic protein cushion coat covers your ears gently. Thanks to its lightweight flexible plastic material, RUNMUS gaming headset is only 12 OZ. You won't feel any discomfort from headband and ear cups even after a long gaming sessions MULTI-PLATFORM COMPATIBILITY FOR PLUG AND PLAY. RUNMUS gaming headset works on PS4, PS3 (Adapter needed), PS vita, PSP, Xbox One, Nintendo Switch (audio), Nintendo New 3DS LL/3DS (audio), Nintendo 3DS LL/3DS (audio), Windows PC, Mac OS PC, iOS device and Android device. Xbox One headset adapter might be needed. With RUNMUS gaming headset, gamer can always enjoy a immersive gaming experience no matter in which platform. Plug and play NOISE CANCELING &amp; ANTI-STATIC MICROPHONE FOR CRYSTAL-CLEAR COMMUNICATION. RUNMUS gaming headset has a sensitive adjustable microphone using noise canceling techniques. It filters most environmental noise around you and provide real-in-time talking without any delay. Anti-static tech inside gaming headphones prevent static sound from happening. You can chat to your fellow players with crystal clarity sound and enjoy a smooth team-work play 100% QUALITY GUARANTEED &amp; 12-MONTH-WARRANTY. Every RUNMUS gaming headset will go trough a strict quality test process before sending out. We promised to bring the best quality gaming headset to our customer. From the day of purchase of RUNMUS gaming headset, we offer 12 months warranty to our customer. Every customer’s right is fully guaranteed during the warranty period</t>
   </si>
   <si>
     <t>EXTRA DEEP BASS HI-RES SOUND -10MM high-fidelity dynamic dome type driver units with multilayer graphene coded vibrating diagram gives a heavy boosted extra bass sound with less distortion. 4Hz to 40KHz High Resolution(Hi-Res) audio certified by Sony fully expresses clear mids and highs for true original music sound. Top stereo experience for music, computer or phone gaming, Xbox and audio books. In-line remote control microphone makes pause/play, skip songs and accept/reject calls easy. STRONG PASSIVE NOISE CANCELLING WITH 100%-CANAL-SEAL TECH - Seals ear canals 100% is the key to optimizing noise reduction and extra bass response as well as maximizing comfort during long-time wear. By effectively blocking ambient noise or isolating unwanted sound, the music can be heard crisp clear even when played in low volume. Ideal for hearing protection in loud noise environment such as airplane cabinet, sleeping snoring sound, mowing the lawn, at work office gym school or call centers. SECURE FIT DURING INTENSIVE SPORTS - Extra Soft Silicone Ear Hook is flexible for any ear shape which prevents earbuds from moving around or falling out of ears. It is designed to stay in-ear securely even during intensive workout sports at the gym and outdoor running. Earphone support sweatproof which block sweat from coming into the inside of the earbuds for any damage. An earphone clip is provided to keep cord tangle free and to prevent it making noise by rubbing cloth during the workout. LIGHTWEIGHT COMFORT &amp; SAFE EDGES - Earbuds is extremely lightweight built to provide the best comfortable fit during long-time wearing while remaining the great sound quality with light metal. One side single earbud weight is 0.13 oz which is lighter than one regular 2B wood pencil. The sleek Silver Black look with safe and round edges make it worry-free to use by both adults and kids teens, women and men. 3.5mm jack plug is compatible with pc tv laptop devices and most Apple Android cell phone. LEATHER CARRY CASE - A dust-proof, waterproof, high quality, smooth-touch zipper case comes with the headphone. It helps earbuds to stay tangle-free and protect it from sweat or water damage. Special coded wire makes it durable and tangle free. Enjoy the freedom to carry your favorite song with this noise cancelling headphone anywhere you go. 3 ear size replacement ear buds tips are included. Snug fit for even small size ears. Happy shopping with 30 days money back guaranteed warranty and more!</t>
@@ -6557,19 +6548,19 @@
     <t>ULTRA BASS - Dual 8mm Graphene Speakers combined with Bluetooth 5.0 and AptX create ultra accurate HD sound tuned for powerful bass. The bullet-shaped Comply T-400 M memory foam tips provide Total Isolation from external noise. SWEAT PROOF - Say Goodbye to Water-Damage! Protected by Hydrophobic Nano Coating your Buds withstand sweaty workouts and will survive accidental dropping into water - Guaranteed! 40 HOURS PLAYTIME - The charging case holds about 5 full charges and each charge works for roughly 6-7 hours, 40 hours playtime in total, once charged, enjoy a whole week of listening. SECURE FIT - Comfortable earphone tips hold your Buds in place during rigorous workouts. There are 7 different pairs included so you will definitely find your perfect fit. LIFETIME SWEATPROOF WARRANTY - Don’t be afraid to push your workouts to the max! We’ll replace your Earbuds if they ever get damaged by sweat! No questions asked.</t>
   </si>
   <si>
-    <t>【True Wireless Bluetooth 5.0】This bluetooth earbuds adopt the lnewest Bluetooth 5.0 technology, enables fast and uninterrupted transmission, efficient battery consumption and low latency. provided more stable connection, faster paring and universal compatibility, without loss of signal or music. True wireless stereo bluetooth 5. 0 earphone make your life better. 【High Sound Quality】True wireless stereo earphoone with 3D surround sound, can produce incredible perfect sound quality and let you be in the wonderful world of music and have an immersive theatrical experience when listening music, watching movie, playing games. 【Noise Cancelling &amp; Waterproof】This bluetooth earbuds built in high quality noise reduction technology chip, can block out lots of surrounding noises so that you get the best music experience even in noisy environments. And it can easily repel sweat and rain. These true wireless earbuds are perfect for running, jogging, gym workouts, hiking, cycling, travel and more. 【Intelligent Control &amp; Auto Pairing】Intelligent touch control is easier and more convenient to access the different functions of the earbuds. You only need to pick up earbuds from the charging case, After the first pairing is successful, every time you take them out of its charging case, two earbuds will connect automatically, it is very convenient that is no need to repeat operations. put them on and you are ready to enjoy in your music world. 【Comfortable Using】We available 3 pairs different sizes of silicon earmuffs, you can choose the earmuff that best suits your comfort.This wireless earbuds are designed in an in-ear style, you won't feel any discomfort even after a long using time. Let your ears and heart enjoy the joy of music together. Let you have a good mood all day.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Plug and Play – The MFi-Certified Lightning connector earphones are designed to integrate flawlessly with your iPhone, iPad or iPod, so you won’t need any additional accessories to enjoy your music Optimal Acoustics – Engineered for the highest quality sound. Designed with powerful bass and clear mids and highs for the best possible listening experience Universal Controller with in-line mic – The 3 button controller features a microphone, volume buttons and a main button which can be used to answer/end calls, wake up siri, play/pause/next-track/previous-track/fast-forward/rewind songs Noise Isolation and Precise Fit - Ergonomic, sleek and lightweight in-ear design, sealing out external noise. Comes with a selection of 3 different sized ear tips for a perfect fit and comfort, especially for attaining the best audio performance Unbreakable Sound – Our Kevlar core cables offer great protection from physical damage, and our responsible customer support makes your listening experience even longer</t>
+    <t>True Wireless Bluetooth 5.0This bluetooth earbuds adopt the lnewest Bluetooth 5.0 technology, enables fast and uninterrupted transmission, efficient battery consumption and low latency. provided more stable connection, faster paring and universal compatibility, without loss of signal or music. True wireless stereo bluetooth 5. 0 earphone make your life better. High Sound QualityTrue wireless stereo earphoone with 3D surround sound, can produce incredible perfect sound quality and let you be in the wonderful world of music and have an immersive theatrical experience when listening music, watching movie, playing games. Noise Cancelling &amp; WaterproofThis bluetooth earbuds built in high quality noise reduction technology chip, can block out lots of surrounding noises so that you get the best music experience even in noisy environments. And it can easily repel sweat and rain. These true wireless earbuds are perfect for running, jogging, gym workouts, hiking, cycling, travel and more. Intelligent Control &amp; Auto PairingIntelligent touch control is easier and more convenient to access the different functions of the earbuds. You only need to pick up earbuds from the charging case, After the first pairing is successful, every time you take them out of its charging case, two earbuds will connect automatically, it is very convenient that is no need to repeat operations. put them on and you are ready to enjoy in your music world. Comfortable UsingWe available 3 pairs different sizes of silicon earmuffs, you can choose the earmuff that best suits your comfort.This wireless earbuds are designed in an in-ear style, you won't feel any discomfort even after a long using time. Let your ears and heart enjoy the joy of music together. Let you have a good mood all day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plug and Play – The MFi-Certified Lightning connector earphones are designed to integrate flawlessly with your iPhone, iPad or iPod, so you won’t need any additional accessories to enjoy your music Optimal Acoustics – Engineered for the highest quality sound. Designed with powerful bass and clear mids and highs for the best possible listening experience Universal Controller with in-line mic – The 3 button controller features a microphone, volume buttons and a main button which can be used to answer/end calls, wake up siri, play/pause/next-track/previous-track/fast-forward/rewind songs Noise Isolation and Precise Fit - Ergonomic, sleek and lightweight in-ear design, sealing out external noise. Comes with a selection of 3 different sized ear tips for a perfect fit and comfort, especially for attaining the best audio performance Unbreakable Sound – Our Kevlar core cables offer great protection from physical damage, and our responsible customer support makes your listening experience even longer</t>
   </si>
   <si>
     <t>Top Audio Performance: digital in-ear stereo wired earphones delivers pure sound and powerful bass. Total Comfort: M1943 are fitted with memory foam which will retain the shape of your ear for a perfect fit, they're extremely comfortable and will seal your music in and leave the external noise out to hear your music without interruption. Package included 3 extra sets of ear tips from small, medium, to large for a perfect fit. More Flexible &amp; Durable Cord: The hollow TPE cord with durable oxygen-free copper wire inserted by hand, this process produces a more durable and longer lasting cord. The 3.5mm gold plated jack on the end for reliable connectivity. Durable Earbuds: Premium aluminium for housings, CNC processing technology, compact light weight design make it withstand wear and tear from daily usage 100% Worry-Free: If you are not satisfied with our headphones, let us know and you will be offered a full refund or replacement,that ensure our products work the way you need them to. Enjoy this absolutely RISK FREE purchase by clicking the yellow Add to Cart button.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Up to 100 hours of playtime: You can use the Bluetooth headphones for 40 days when you use them for 3 hours A day or travel with the headphones for a month without charging Deep bass function: The wireless headphones with 40mm large-aperture drivers and Deep bass function deliver premium playback with superb bass depth and HD clarity Lose wired：Lastest Bluetooth technology ensures easy and stable connectivity and seamless Audio/video syncs so that you can take calls and listen to music without worrying about Audio dropouts Unparalleled comfort: Comfortable ear cups are soft durable and built for all-day listening Soft-cushion ear pads made from synthetic protein leather provide a comfortable around-ear fit Folding design: Headphones over-ear can be folded into a compact size and stored in the portable carry bag so that you can take music with you wherever you go</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Bluetooth V5. 0 with wireless earbuds： compared with the previous Bluetooth V4. 2 wireless earbuds, so here you are getting 2x faster transmission speed + more stable connectivity with no signal loss or music dropouts. The range is up to 50ft away. Never worry about any cut off during listening and controlling. We are making music playback and conversations smoother and clearer than ever. Make your lifestyle cool with Bluetooth 5. 0 earbuds One-step paring technology： open the box, you can seamlessly pair this device to your Bluetooth devices automatically without any problem. You don’t need any skills to use Bluetooth earbuds. In a couple of seconds, you will be in your euphonic music world. Breathtaking music quality： The unique stereo sound quality and design gives you the perfect sound, and you can feel the more realistic music. Crystal clarity and Deep, resonant bass with delicately tuned sound signature deliver immersive sound and put you on the stage center. Also combined its CVC 8. 0 noise reduction functionality, you’ll experience a whole new world of crystal-clear phone calls. Impressive 40H playtime: compact and lightweight magnetic charging case exclusively for you to carry wireless earbuds around. Bluetooth V5.0 massively reduce the level of power consumption, so you can get 6 hours of playtime (at 75% volume, multiple units tested with iPhone). 34 hours with the charging box and realistic music for several days. Type-c quick charge： Type-C USB 3. 1 connector transfer speed is up to 10 gbps and charge fully in 90 minutes Moreover, Type C offers a more stable and safer way to charge. This design also increases Bluetooth earbuds’ battery life dramatically.</t>
+    <t xml:space="preserve"> Up to 100 hours of playtime: You can use the Bluetooth headphones for 40 days when you use them for 3 hours A day or travel with the headphones for a month without charging Deep bass function: The wireless headphones with 40mm large-aperture drivers and Deep bass function deliver premium playback with superb bass depth and HD clarity Lose wired：Lastest Bluetooth technology ensures easy and stable connectivity and seamless Audio/video syncs so that you can take calls and listen to music without worrying about Audio dropouts Unparalleled comfort: Comfortable ear cups are soft durable and built for all-day listening Soft-cushion ear pads made from synthetic protein leather provide a comfortable around-ear fit Folding design: Headphones over-ear can be folded into a compact size and stored in the portable carry bag so that you can take music with you wherever you go</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bluetooth V5. 0 with wireless earbuds： compared with the previous Bluetooth V4. 2 wireless earbuds, so here you are getting 2x faster transmission speed + more stable connectivity with no signal loss or music dropouts. The range is up to 50ft away. Never worry about any cut off during listening and controlling. We are making music playback and conversations smoother and clearer than ever. Make your lifestyle cool with Bluetooth 5. 0 earbuds One-step paring technology： open the box, you can seamlessly pair this device to your Bluetooth devices automatically without any problem. You don’t need any skills to use Bluetooth earbuds. In a couple of seconds, you will be in your euphonic music world. Breathtaking music quality： The unique stereo sound quality and design gives you the perfect sound, and you can feel the more realistic music. Crystal clarity and Deep, resonant bass with delicately tuned sound signature deliver immersive sound and put you on the stage center. Also combined its CVC 8. 0 noise reduction functionality, you’ll experience a whole new world of crystal-clear phone calls. Impressive 40H playtime: compact and lightweight magnetic charging case exclusively for you to carry wireless earbuds around. Bluetooth V5.0 massively reduce the level of power consumption, so you can get 6 hours of playtime (at 75% volume, multiple units tested with iPhone). 34 hours with the charging box and realistic music for several days. Type-c quick charge： Type-C USB 3. 1 connector transfer speed is up to 10 gbps and charge fully in 90 minutes Moreover, Type C offers a more stable and safer way to charge. This design also increases Bluetooth earbuds’ battery life dramatically.</t>
   </si>
   <si>
     <t>High quality HD stereo sound adopts the latest Bluetooth technology with BK3266 Bluetooth profiles which ensures faster pairing a more stable connectivity and clearer HD stereo sound Providing you with crystal clear calls and powerful skip- free music Magnetic design IPX5 waterproof our magnetic Bluetooth headphones conveniently clasps The right &amp; left headphones together making it easy to carry and won't can be secured when not in use Our wireless sports Earphones are IPX5 waterproof and are protected against heavy rain or sweat from your workouts Ergonomic design &amp; Comfort fit ANBES wireless headphones are small lightweight and come with 4 interchangeable ear-tip and 3 secure-fit ear hooks that vary in size Giving you a comfortable listening experience at all times 8 hours play time ANBES wireless headphone can be charged in just 1 5 hours and a full charge lasts up to 8 hours long You can also enjoy up to 160 hours standby time from a single charge Los phones can display the amount of battery that is remaining meaning you’ll never unexpectedly run out of battery Perfect for running jogging hiking yoga exercises gym fitness travelling etc What's in the box Your package includes ANBES wireless headphones 4 pairs of ear tips (S/M/L/XL) 3 pairs of ear-hooks (S/M/L) a fit Clip Micro USB cable carry bag and user manual</t>
@@ -6578,46 +6569,46 @@
     <t>Bluetooth 5. 0 &amp; stereo sound: features powerful dual 40mm speaker and Bluetooth 5. 0 technology, Mpow kids headphones provide you with stereo Deep sound and strong bass. More than 10m/33ft of wireless range allows your child to enjoy the freedom of music and call. Compatible with almost all Bluetooth-enabled devices. Adjustable, comfortable and foldable: the headband can be extended and adjusted to fit different head sizes, suitable for children aged 416. Soft-padded and skin-friendly ear pads fit snugly around the ears. Ergonomically-designed silicone and padded headband rests on the head without pressure. Can be nicely folded into a compact size, perfect for travel. 85dB volume limited for hearing protection: Mpow kids on-ear headphones protect your boys and girls from hearing damage when they play for a long time at a limited volume of 85dB. The volume can be switched from 85dB to a normal 95dB when in a noisy environment. Blocks ambient noise and listen to every melody and lyrics clearly. Wireless or wired mode: built-in rechargeable 300mAh battery, only takes 1. 5 hours to charge and children can enjoy up to 14 hours of fun (with the LED light off). we also provide a 3. 5mm Audio cable, freely switch to wired mode to keep the music going when the battery is used up. Works with Smart phones, tablet, PC and music players. Built-in mic &amp; LED lights: designed with a mic for on-line Learning and hands-free calls (mic only works in Bluetooth mode). simply press the LED button, The headphone will glow in the dark, your kids will love this cool design, easily turn it off to save battery for longer playing. Surprise Gift for kids.</t>
   </si>
   <si>
-    <t>The 0.36 inches (9.2mm) dynamic driver unit ensures a uncompressed listening experience. It offers deep rich bass, balanced mid to clear and crisp treble. Aviation grade aluminum-alloy housing design optimizes the environment for signal transmission , also creates a higher level of premium enjoyment Anti-tangle design with a rugged double-twisted PU cable of maximum durability and reliability. Frequency response widely ranges from 10Hz to 70,000Hz to guarantee the deep bass, precise mids and crystal clear treble 24K gold plated 3.5mm jack minimizes signal loss from transmission while delivering the most original sound. 2 extra pairs of earbuds with different sizes included. No microphone and in-line control.【Take a look on our A1 if you want the microphone】1 Year Brand New Replacement Service. 30 Days Return.</t>
+    <t>The 0.36 inches (9.2mm) dynamic driver unit ensures a uncompressed listening experience. It offers deep rich bass, balanced mid to clear and crisp treble. Aviation grade aluminum-alloy housing design optimizes the environment for signal transmission , also creates a higher level of premium enjoyment Anti-tangle design with a rugged double-twisted PU cable of maximum durability and reliability. Frequency response widely ranges from 10Hz to 70,000Hz to guarantee the deep bass, precise mids and crystal clear treble 24K gold plated 3.5mm jack minimizes signal loss from transmission while delivering the most original sound. 2 extra pairs of earbuds with different sizes included. No microphone and in-line control.Take a look on our A1 if you want the microphone1 Year Brand New Replacement Service. 30 Days Return.</t>
   </si>
   <si>
     <t>OVERVIEW: In-line remote controller, volume-control, microphone enabled, sweat-proof for sports-and-exercise or daily use, lightweight, uni-sex, TPE soft cable is free of tangle and hands-free. Small Earbuds: Fits securely and directs music into your ears for full, uninterrupted stereo audio. Guides sound directly into your ears for deep bass and extended frequency response. All-in-One Headphones: Take Calls, Switch Tracks: The in-line remote lets you change the volume from your headphones, play/pause tracks, and answer the call. Simplistic and Modern: Simply plug in and play. Connect 3.5mm plug directly to your desktop computer, laptop, tablet, smartphone, MP3 player or gaming system. The volume control slide bar on the headphone cord makes it easy to manage the volume. Product Content: 2 X Premium Headphones. Perfect for today’s demanding classrooms and open office environments. This headset utilizes a single 3.5mm plug and is compatible with PCs, Macs, Chromebooks, tablets, smartphones, MP3 digital audio players and most gaming systems with an aux port.</t>
   </si>
   <si>
-    <t>★【Earbuds in Bulk Mixed Color with 5 Colors】5 Different Colors Earbuds:Black/White,Black/Blue,Black/Red,Black/Yellow,Grey/White.10 Pieces Earbuds for Each Color,Total 100 Pieces Earphones in the Package. ★【Individually Wrapped 100 Earbuds】Bundle bulk ear buds individually wrapped for kids adults,Each earbuds with individually poly bag and sealed,convenient and hygienic for you use this inexpensive headphones. ★【Wholesale Kids Earbuds with Good Quality】Under 1 dollar earbuds,no worry kids or students broken your expensive headphones;use TPE material wire,different with PVC hard wire,bring quality and good texture feeling for you. ★【Customer Support】If you have any questions when using, please contact us through the contact information on the instructions card or Amazon email,We will Reply You in the first time. ★【Strong Compatibility】These earbuds in bulk, use 3.5MM audio jack is able to compatible with most smartphones,class set of headphones for students,and other devices,it's a cheap earbuds for iPhones/iPads/iPods/Mac/PC/Andriod/Fitness&amp;Audio Equipment.</t>
+    <t>★Earbuds in Bulk Mixed Color with 5 Colors5 Different Colors Earbuds:Black/White,Black/Blue,Black/Red,Black/Yellow,Grey/White.10 Pieces Earbuds for Each Color,Total 100 Pieces Earphones in the Package. ★Individually Wrapped 100 EarbudsBundle bulk ear buds individually wrapped for kids adults,Each earbuds with individually poly bag and sealed,convenient and hygienic for you use this inexpensive headphones. ★Wholesale Kids Earbuds with Good QualityUnder 1 dollar earbuds,no worry kids or students broken your expensive headphones;use TPE material wire,different with PVC hard wire,bring quality and good texture feeling for you. ★Customer SupportIf you have any questions when using, please contact us through the contact information on the instructions card or Amazon email,We will Reply You in the first time. ★Strong CompatibilityThese earbuds in bulk, use 3.5MM audio jack is able to compatible with most smartphones,class set of headphones for students,and other devices,it's a cheap earbuds for iPhones/iPads/iPods/Mac/PC/Andriod/Fitness&amp;Audio Equipment.</t>
   </si>
   <si>
     <t>Premium HiFi Sound Quality: VOHECHS MR02 wired earbuds will deliver powerful bass and crystal clear acoustics from a 10mm high definition speaker driver. Optimized for MP3, iPad, iPod, iPhone, Samsung Galaxy cell phones, smartphones, tablets, laptop, and PC. Stylish &amp; Durable: The specially designed black/gold metal case makes the wired earphones more stylish, noble and elegant ( Ideal for Self-use or Gifts). 1.2M tangle-free cable with high quality and enhanced material adds more durability and ensures precise and high fidelity audio signal transmission. Comfortable &amp; Noise Isolating: The ultra-lightweight, in ear stereo headphones feature noise isolating technology that will allow you to flow in your world of music. Ergonomic and noise isolating ear tips (3 sizes S/M/L included) and the earhook (1 pair) that stay in for a secure and comfortable fit each time and keeps the ear buds steady during the workout, sports, jogging, running and gym. Microphone &amp; Remote: The MR02 in ear headphones have the built-in microphone and enables remote control for music play and phone calls to answer or hang up, guarantees clear and smooth hands-free communication. Package Contents: MR02 wired earphones, S/M/L Ear Tips, Fit Clip, Protective Case, User Manual. We make sure our products work the way you need them to. If you are not satisfied with our earphones, let us know and you will be offered a full refund or replacement. Enjoy this absolutely risk-free purchase.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) CONTOURED EARHOOK AND EAR CUSHIONS FOR WEARING COMFORT AND BASS RESPONSE - The ear hook stays put behind your ear even when you're on the move, keeping the earphone comfortably in place. The special shape and luxurious materials used for the ear cushions of these Philips headphones ensure a perfect fit for maximum comfort. They prevent audio leakage and enhance bass performance too. 27MM SPEAKER DRIVER DELIVERS BIG SOUND PERFORMANCE - Compact for wearing comfort yet big enough to deliver crisp, powerful sound, the 27 mm speaker driver is a perfect size for non-distorted listening enjoyment. ASYMMETRIC 1.2 M LONG CABLE - The ideal cable length to give you the freedom to put device where you want. asymmetric design keeps the cable out of the way. NEODYMIUM MAGNETS AND BASS BEAT VENTS - Neodynium is the best material for producing a strong magnetic field for greater sensitivity in a voice coil, better bass response and higher overall sound quality.Additionally, the Bass beat vents allow air movement for better sound with a deep rich bass.</t>
+    <t xml:space="preserve"> CONTOURED EARHOOK AND EAR CUSHIONS FOR WEARING COMFORT AND BASS RESPONSE - The ear hook stays put behind your ear even when you're on the move, keeping the earphone comfortably in place. The special shape and luxurious materials used for the ear cushions of these Philips headphones ensure a perfect fit for maximum comfort. They prevent audio leakage and enhance bass performance too. 27MM SPEAKER DRIVER DELIVERS BIG SOUND PERFORMANCE - Compact for wearing comfort yet big enough to deliver crisp, powerful sound, the 27 mm speaker driver is a perfect size for non-distorted listening enjoyment. ASYMMETRIC 1.2 M LONG CABLE - The ideal cable length to give you the freedom to put device where you want. asymmetric design keeps the cable out of the way. NEODYMIUM MAGNETS AND BASS BEAT VENTS - Neodynium is the best material for producing a strong magnetic field for greater sensitivity in a voice coil, better bass response and higher overall sound quality.Additionally, the Bass beat vents allow air movement for better sound with a deep rich bass.</t>
   </si>
   <si>
     <t>Classic and ultra lightweight design. Fit your ears perfectly, give you long-time comfortable wearing experience. High performance sound quality with super dynamic Deep bass high resolution treble &amp; crisp powerful sound. Stereo sound: It has perfect stereo sound quality. Ergonomic and ultra-lightweight in-ear designed with solid sound-insulating material. Allow hands-free calls while driving or music streaming without having to control through your phone or electronic device.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) IMPRESSIVE SOUND QUALITY IS THE ULTIMATE GOAL: The High-fidelity stereo sound benefits from the 40mm neodymium driver, CSR chip, and the around-ear cushion design which provide a well-closed and immersed enviroment for your ears, Just lose yourself in the music! NOTE: Mpow 059 headphones is passive noise isolating, NOT active noise cancellation(ANC), it can't cancel the noise completely but it won't drain the battery and damage the sound. 2. The closed-back design provides immersive Hi-Fi sound with CSR chip and 40mm driver together, it is better than ANC in term of sounds quality. BUILT TO STAY COMFORTABLE: The Memory-protein ear cushion simulate human skin texture, ensuring lasting comfort. The stainless steel slider and softly padded headband allows you to find the perfect fit without constraint and provide excellent durability. NEVER POWER OFF, BOTH WIRELESS &amp; WIRED: 1. The wireless mode: Battery update to 20-hr music time/ talking time in a single charge. A 10-minute charge gives 2 hours of play when battery is low. 2. The Wired mode: you can also use it as a wired headphone with the provided audio cable so the headphones will never power off. FOLDABLE DESIGN WITH A PORTABLE BAG &amp; GENTLE REMINDER: The foldable Headband is not only designed for saving your desk space but for carrying in the provided bag. In case of that and to get both audio and wearing comfort, please take off the headphone every 1-2 hrs to get your ears relax.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Arctis 5 combines cutting edge audio technology with independent game and chat controls and RGB illumination for an immersive gaming experience Award winning Arctis speaker drivers produce ultra low distortion, paired with DTS Headphone:X v2.0 surround sound for rich, immersive audio Widely recognized as the best mic in gaming, Arctis Clear Cast bidirectional microphone delivers studio quality voice clarity and background noise cancelation The inline USB ChatMix dial balances game audio and chat volume on the fly Padded Air Weave ear cushions and adjustable, steel reinforced headband provide longlasting comfort and durability</t>
-  </si>
-  <si>
-    <t>【Bluetooth 5.1 &amp; 3D Stereo Sound】This bluetooth headphones is equipped with the latest Bluetooth 5.1 technology provides fast and stable transmission without tangling wide range up to 33ft. CVC8.0 noise cancelling technology reduces ambient noise and echo, achieving the sound of the immersive music scene surround sound. 【Long-lasting Battery &amp; Alternative Power Bank 】Protable charging box built-in 3100mAh battery can recharge wireless earphones up to 30 times, the earbuds offer about 4 hours playtime for a single charge and gives up to 120 hours of continuous music time. The charging case with usb to Type-C usb adapter can be used as an alternative power bank for other devices. Ideal for everyday sports, workout, even traveling around the world. 【 LED Display &amp; Auto Pairing 】L/R Bluetooth earbuds battery separated LED display design will display how much battery remaining in the charging case. Do not distinguish between primary and secondary earbuds, the earbuds will pair with each other automatically when you open the charging box, then only one step easily turn on mobile phone Bluetooth setting to pair the earbuds with S3 PRO. 【Multiple Modes &amp; IPX7 Waterproof】Full in-touch and no physical button, touch screen of wireless headphones is more sensitive, convenient and stylish. The Bluetooth earphones have left/right ear separated design to support mono/stereo modes. IPX7 waterproof rating let you don't have to worry about any rains, water, sweat. Perfect for the workout, ourdoor sports, running. 【Comfortable Wearing】Ergonomic design of the Light &amp; Compact earbuds for exceptional in-ear comfort and immersive listening. Provide 3 different eartips ensure everyone has a perfect listening experience. If you have any question, please feel free to contact us at any time.</t>
+    <t xml:space="preserve"> IMPRESSIVE SOUND QUALITY IS THE ULTIMATE GOAL: The High-fidelity stereo sound benefits from the 40mm neodymium driver, CSR chip, and the around-ear cushion design which provide a well-closed and immersed enviroment for your ears, Just lose yourself in the music! NOTE: Mpow 059 headphones is passive noise isolating, NOT active noise cancellation(ANC), it can't cancel the noise completely but it won't drain the battery and damage the sound. 2. The closed-back design provides immersive Hi-Fi sound with CSR chip and 40mm driver together, it is better than ANC in term of sounds quality. BUILT TO STAY COMFORTABLE: The Memory-protein ear cushion simulate human skin texture, ensuring lasting comfort. The stainless steel slider and softly padded headband allows you to find the perfect fit without constraint and provide excellent durability. NEVER POWER OFF, BOTH WIRELESS &amp; WIRED: 1. The wireless mode: Battery update to 20-hr music time/ talking time in a single charge. A 10-minute charge gives 2 hours of play when battery is low. 2. The Wired mode: you can also use it as a wired headphone with the provided audio cable so the headphones will never power off. FOLDABLE DESIGN WITH A PORTABLE BAG &amp; GENTLE REMINDER: The foldable Headband is not only designed for saving your desk space but for carrying in the provided bag. In case of that and to get both audio and wearing comfort, please take off the headphone every 1-2 hrs to get your ears relax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arctis 5 combines cutting edge audio technology with independent game and chat controls and RGB illumination for an immersive gaming experience Award winning Arctis speaker drivers produce ultra low distortion, paired with DTS Headphone:X v2.0 surround sound for rich, immersive audio Widely recognized as the best mic in gaming, Arctis Clear Cast bidirectional microphone delivers studio quality voice clarity and background noise cancelation The inline USB ChatMix dial balances game audio and chat volume on the fly Padded Air Weave ear cushions and adjustable, steel reinforced headband provide longlasting comfort and durability</t>
+  </si>
+  <si>
+    <t>Bluetooth 5.1 &amp; 3D Stereo SoundThis bluetooth headphones is equipped with the latest Bluetooth 5.1 technology provides fast and stable transmission without tangling wide range up to 33ft. CVC8.0 noise cancelling technology reduces ambient noise and echo, achieving the sound of the immersive music scene surround sound. Long-lasting Battery &amp; Alternative Power Bank Protable charging box built-in 3100mAh battery can recharge wireless earphones up to 30 times, the earbuds offer about 4 hours playtime for a single charge and gives up to 120 hours of continuous music time. The charging case with usb to Type-C usb adapter can be used as an alternative power bank for other devices. Ideal for everyday sports, workout, even traveling around the world.  LED Display &amp; Auto Pairing L/R Bluetooth earbuds battery separated LED display design will display how much battery remaining in the charging case. Do not distinguish between primary and secondary earbuds, the earbuds will pair with each other automatically when you open the charging box, then only one step easily turn on mobile phone Bluetooth setting to pair the earbuds with S3 PRO. Multiple Modes &amp; IPX7 WaterproofFull in-touch and no physical button, touch screen of wireless headphones is more sensitive, convenient and stylish. The Bluetooth earphones have left/right ear separated design to support mono/stereo modes. IPX7 waterproof rating let you don't have to worry about any rains, water, sweat. Perfect for the workout, ourdoor sports, running. Comfortable WearingErgonomic design of the Light &amp; Compact earbuds for exceptional in-ear comfort and immersive listening. Provide 3 different eartips ensure everyone has a perfect listening experience. If you have any question, please feel free to contact us at any time.</t>
   </si>
   <si>
     <t>106 Hrs Playtime: Featured with low power consumption and high power charging case, Mpow M20 wireless earbuds can support 6 hours single charge. While on the go, the 2600 mAh power charging can support extra 100 hrs and also can act as a power bank. Which it is suitable for outdoor sports, workouts few days. Aptx Stereo Bass Sound: Adopted the industry-leading audio technology and Bluetooth 5.0 chip from Qualcomm and LDS antenna, Mpow Bluetooth sports earbuds provides premium music experience, crystal clear bass sound, also the faster and stable wireless signal transmission, no skips, no drops. One suitable ear buds from 3 sizes also necessary. (Mpow M20 is universally compatible with most Bluetooth enabled devices, including Android / IOS cellphones, tablets, computers, TV.) CVC 8.0 Noise Cancelling Mics: With built in CVC 8.0 noise cancelling mics, Mpow M20 can provide you clear hands-free call with extremely clear conversation even in noisy and windy environments. This tech can filter out disruptive background noise around you when you are taking a call, make you hear and be heard. Sensitive Touch Control: Features with touch control sensors, Mpow wireless earbuds largely minimize the pressure to your ears when you touch the button for various functions. Touch buttons allow you to adjust the volume, play or pause music, skip to previous or next track, answer or hang up or reject a call, activate Siri, etc. Switch freely between twin mode and mono mode(Only right earbud can be used with mono mode) IPX7 Waterproof: MPOW M20 Bluetooth earbuds adopt waterproof graphene drivers which are fully waterproof and 100 times harder than steel and 35% lighter than traditional driver diaphragms. You can wash it after using a period of time as it resists water, sweat, rain and accident splashes perfectly.</t>
   </si>
   <si>
-    <t>🎵【Main Feature】Hands-free answer call/ end call, play/pause music, volume down/up, previous track/ next track. The cord was Built-in mic and remote control 🌸【Universal Compatibility】Ideal for All iPhone 6S/6/Plus/iPhone SE/5S/5C/5, Samsung Galaxy S7/S6/Edge, Google, Nexus 6P/5X, HTC One, Nokia, Motorola, Windows Phone, Tablet, iPad, iPod, MP4/MP3, Laptop Computer and more devices compatible with 3.5mm headphones. Plug and Play! 🎧【High Quality Technology】Built-in speaker of high-fidelity. Comfortable premium in-ear headphone-headphone design for first-class sound quality offers a crisp, stereo sound with strong deep bass, high-resolution treble and razor-sharp sound 🍀【Noise Isolation】Enjoy a quiet phone. in-ear design Headphones take the initiative to eliminate noise can minimize background noise, extended frequency range, lower distortion, and clearer sound &amp; optimal listening experience ❤️【Ergonomic Design】The ergonomic design makes them more comfortable, ultra-lightweight, perfectly fit your ears for long-time. The noise isolating earphones suit ear canal naturally, and you won’t feel uncomfortable, even wear for a long time also won't fatigue; they are less likely to fall out and free you to enjoy your music</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Rich wireless sound: finely tuned by expert sound engineers to deliver a pristine audio experience with strong bass, bioplay E6 earphones pack Big Bang &amp; Olsen signature sound into a compact package. A secure custom fit: with a choice of comfortable earbuds to ensure an ergonomic custom fit, the lightweight wireless E6 are the perfect companions for your active, on-the-go lifestyle. Built to last: Great looking and easy-to-clean bioplay E6 are Crafted from high-quality aluminum, textile, rubber and polymer materials with a durable splash- and dust-resistant design. Never miss a beat: With up to 5 hours of battery life and the ability to charge while in use, E6 wireless earphones mean you'll never be without your music. Click together, power down: when not in use, Click the magnetic earphones together and wear them comfortably around your neck. They’ll stay handy while automatically powering down to conserve play time.</t>
-  </si>
-  <si>
-    <t>♫【Bluetooth 5.0 &amp; Hi-Fi Stereo Sound Quality】 :Donerton Wireless Headphones uses the latest Bluetooth 5.0 technology to ensure incredibly stable and fast connections. Lossless 3D stereo HD rendering technology produces incredible sound quality and creates an immersive music world for you. ♫【One Step Pairing &amp; Touch Control】:Connect fast and use without any skills. After successfully connecting for the first time, take the Wireless Headphones out of the charging case and it will connect automatically. Let you enjoy music one step faster than others. And bluetooth earphones with a touch screen gives you a better experience. ♫【IPX8 Waterproof &amp; Ergonomic Design】:IPX8 waterproof material allows you to wear them without fear of walking in the rain or sweating in the gym. Using ergonomic principles, Donerton bluetooth earphones fit your ears better. Comes with two earbuds, Wireless Headphones will bring you a comfortable experience. ♫【3500mAh Charging Case &amp; LED Display】 :Donerton Wireless Earbuds with 3500 mAh Charging case, single headset can be recharged 20-25 times in cycle, with 80 hours of standby time.The intimate design of the LED display allows you to understand the power usage and avoid the embarrassment of insufficient power. ♫【Powerful Compatibility &amp; After Sales Service】 :Donerton wireless headsets can be easily paired with any device that supports Bluetooth 5.0. We are always dedicated to provide good quality products and service. If you are not satisfied with these sports headphones for any reason, please feel free to contact us and we will always be here to help you.</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Unparalleled Noise Reduction Effect: CE-approved (European Standard) and ANSI-certified (American National Standards Institute) to 25dB NNR. Completely cover the ear and surroundings, keep out the harmful noises of the world, provide the most reliable safety. Super Comfortable and Extremely Durable: Comfy and trustworthy material, safe for kids, ensures that your kids are comfortable while wearing it for a longer duration. Fully Wrapped Headband: Encased headband is for greatest security, stability and durability, which strengthens internal construction and makes sure kids’s heads all wrapped in safe and comfortable condition. Unique Adjustable Pin: Position earcups over ears. Adjust height through telescopic rod. Mpow adjustable kids earmuffs can be used for different aged kids. Easy to Store and Widely Application: Foldable design for carry around. Applicable in monster jam/ monster trucks, hunting, sports events, concerts, Disneyland, airplane flights, studying, fireworks and sleeping. A great gift for autism kids.›See more product details</t>
+    <t>🎵Main FeatureHands-free answer call/ end call, play/pause music, volume down/up, previous track/ next track. The cord was Built-in mic and remote control 🌸Universal CompatibilityIdeal for All iPhone 6S/6/Plus/iPhone SE/5S/5C/5, Samsung Galaxy S7/S6/Edge, Google, Nexus 6P/5X, HTC One, Nokia, Motorola, Windows Phone, Tablet, iPad, iPod, MP4/MP3, Laptop Computer and more devices compatible with 3.5mm headphones. Plug and Play! High Quality TechnologyBuilt-in speaker of high-fidelity. Comfortable premium in-ear headphone-headphone design for first-class sound quality offers a crisp, stereo sound with strong deep bass, high-resolution treble and razor-sharp sound 🍀Noise IsolationEnjoy a quiet phone. in-ear design Headphones take the initiative to eliminate noise can minimize background noise, extended frequency range, lower distortion, and clearer sound &amp; optimal listening experience ️Ergonomic DesignThe ergonomic design makes them more comfortable, ultra-lightweight, perfectly fit your ears for long-time. The noise isolating earphones suit ear canal naturally, and you won’t feel uncomfortable, even wear for a long time also won't fatigue; they are less likely to fall out and free you to enjoy your music</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rich wireless sound: finely tuned by expert sound engineers to deliver a pristine audio experience with strong bass, bioplay E6 earphones pack Big Bang &amp; Olsen signature sound into a compact package. A secure custom fit: with a choice of comfortable earbuds to ensure an ergonomic custom fit, the lightweight wireless E6 are the perfect companions for your active, on-the-go lifestyle. Built to last: Great looking and easy-to-clean bioplay E6 are Crafted from high-quality aluminum, textile, rubber and polymer materials with a durable splash- and dust-resistant design. Never miss a beat: With up to 5 hours of battery life and the ability to charge while in use, E6 wireless earphones mean you'll never be without your music. Click together, power down: when not in use, Click the magnetic earphones together and wear them comfortably around your neck. They’ll stay handy while automatically powering down to conserve play time.</t>
+  </si>
+  <si>
+    <t>Bluetooth 5.0 &amp; Hi-Fi Stereo Sound Quality :Donerton Wireless Headphones uses the latest Bluetooth 5.0 technology to ensure incredibly stable and fast connections. Lossless 3D stereo HD rendering technology produces incredible sound quality and creates an immersive music world for you. One Step Pairing &amp; Touch Control:Connect fast and use without any skills. After successfully connecting for the first time, take the Wireless Headphones out of the charging case and it will connect automatically. Let you enjoy music one step faster than others. And bluetooth earphones with a touch screen gives you a better experience. IPX8 Waterproof &amp; Ergonomic Design:IPX8 waterproof material allows you to wear them without fear of walking in the rain or sweating in the gym. Using ergonomic principles, Donerton bluetooth earphones fit your ears better. Comes with two earbuds, Wireless Headphones will bring you a comfortable experience. 3500mAh Charging Case &amp; LED Display :Donerton Wireless Earbuds with 3500 mAh Charging case, single headset can be recharged 20-25 times in cycle, with 80 hours of standby time.The intimate design of the LED display allows you to understand the power usage and avoid the embarrassment of insufficient power. Powerful Compatibility &amp; After Sales Service :Donerton wireless headsets can be easily paired with any device that supports Bluetooth 5.0. We are always dedicated to provide good quality products and service. If you are not satisfied with these sports headphones for any reason, please feel free to contact us and we will always be here to help you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unparalleled Noise Reduction Effect: CE-approved (European Standard) and ANSI-certified (American National Standards Institute) to 25dB NNR. Completely cover the ear and surroundings, keep out the harmful noises of the world, provide the most reliable safety. Super Comfortable and Extremely Durable: Comfy and trustworthy material, safe for kids, ensures that your kids are comfortable while wearing it for a longer duration. Fully Wrapped Headband: Encased headband is for greatest security, stability and durability, which strengthens internal construction and makes sure kids’s heads all wrapped in safe and comfortable condition. Unique Adjustable Pin: Position earcups over ears. Adjust height through telescopic rod. Mpow adjustable kids earmuffs can be used for different aged kids. Easy to Store and Widely Application: Foldable design for carry around. Applicable in monster jam/ monster trucks, hunting, sports events, concerts, Disneyland, airplane flights, studying, fireworks and sleeping. A great gift for autism kids.›See more product details</t>
   </si>
   <si>
     <t>Upgraded sound quality upgraded 8mm high fidelity dynamic driver offers superior clear sound with powerful bass brings you excellent listening experience More stable connection Wireless earbuds with professional Bluetooth chipset own fast and stable transmission without tangling Ergonomic fit redesigned Housing in combination with ear tips which optimize the wearing comfort and secure fit ensures undisturbed listening pleasure even during intensive training Improved microphone new mems mic reduces background noise and enhance voice pick-up to ensure a more clear and smooth hands-free communication Package Contents AUKEY EP-B40s Wireless Earbuds Micro-USB Cable Three Pairs of Ear-Tips Three Pairs of In-Ear Ear-hooks Carrying Pouch User Manual 45-Day Money Back and 24-Month Product Replacement</t>
@@ -6626,7 +6617,7 @@
     <t>Super Sound Quality--These premium headphones earbuds generate excellent sound quality. Noise isolation, low bass and high fidelity allow you to enjoy high quality music and have a call without bother in noisy environment. One Smart Button--To answer/ end call, play/pause, choose songs by one multifunctional button. Free your hands for other tasks like homework, typing or writing, while on the phone. Needless to take out phones from pocket. Perfect Compatibility--The earphone with 3.5mm vocal port is compatible with iPad, iPhone, iPod, cellphones, tablet, laptop, computer, MP3 players, etc. Widely compatible earphones for watching video, chatting online and listening to music. Flexible &amp; durable cord--The wired earbud headphones guarantee extreme durability and flexibility. These durable headphones are lightweight, and the cords bear tangle and bend, ideal for listening during exercise or commute in daily use. Comfort Fit--There comes with 3 backup silicone ear tips (M/L/S), which offer you suitable and comfortable size. Looks Fashion and Elegant in Ears.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Comfortable &amp; snug fit Perfect for workouts: An ergonomic design with 3 different sizes of silicone ear buds ensures the optimum fit for your ears. The wrap around ear hook design gives a secure fit making it perfect companion for running, jogging or the gym. Multi-functional in-line control: the included in-line control best enables you to play/ pause music, adjust volume, skip tracks, accept or reject calls, activate the voice assistant or call The last dialed number. Built-in mic for clear calls: built-in microphone provides you crystal clear sound during call, whatever for phone call or VoIP call. You can receive calls easily whenever you are at gyms or walking on the street. Wide compatibility: 3. 5 mm gold Plated Plug jack is suitable for audio connection and s that sound spread without distortion. Compatible with most 3. 5mm enabled devices like: iPhone, Android devices, smart phones, iPad, MP3, MP4, Mac, laptop, tablet, desktop computer, portable music player. 24-Month &amp; ongoing support: purchase with confidence with our 24-month that's included with earphones. You can also get in touch with our email support team If you have any questions about your purchase.</t>
+    <t xml:space="preserve"> Comfortable &amp; snug fit Perfect for workouts: An ergonomic design with 3 different sizes of silicone ear buds ensures the optimum fit for your ears. The wrap around ear hook design gives a secure fit making it perfect companion for running, jogging or the gym. Multi-functional in-line control: the included in-line control best enables you to play/ pause music, adjust volume, skip tracks, accept or reject calls, activate the voice assistant or call The last dialed number. Built-in mic for clear calls: built-in microphone provides you crystal clear sound during call, whatever for phone call or VoIP call. You can receive calls easily whenever you are at gyms or walking on the street. Wide compatibility: 3. 5 mm gold Plated Plug jack is suitable for audio connection and s that sound spread without distortion. Compatible with most 3. 5mm enabled devices like: iPhone, Android devices, smart phones, iPad, MP3, MP4, Mac, laptop, tablet, desktop computer, portable music player. 24-Month &amp; ongoing support: purchase with confidence with our 24-month that's included with earphones. You can also get in touch with our email support team If you have any questions about your purchase.</t>
   </si>
   <si>
     <t>Frequency Response 22 19500 Hertz Impedance 24 ohm 926 MegaHertz Radio Frequency (FR) wireless headphone system Not Bluetooth Receiver weight: 0.5 pound (Batteries); Transmitter weight: 0.44 pound Signal-to-noise ratio &gt; 65 dBA Extends The Range Of Any Remote To Control A/V Devices Through Obstacles From Up To 120 Feet Away Detailed, Analytical Sound Reproduction With StrongBass Response. Range of up to 100 metres (300 feet)Perfectly Suitable For All Types Of Modern Music &amp; Tv ApplicationsReceives Reception Through Walls, Ceilings &amp; OutdoorsShow more</t>
@@ -6638,28 +6629,28 @@
     <t>★Bluetooth V5.0+ EDR: EDR Tech enhanced Bluetooth connecting speed and range. Range up to 33 feet from paired Bluetooth devices. Easily to answer/end calls, play/pause music through the multi-function button. ★Upgraded Sound Quality: Upgraded 8mm high fidelity dynamic driver offers superior clear sound with powerful bass, brings you excellent listening experience ★More stable connection: Wireless earbuds with professional bluetooth chipset, own fast and stable transmission without tangling ★Noise Cancellation: CVC 6.0 noise reduction, built in HD microphone, inputting high quality voice, promoting a call conversation of the transmission performance. ★Comfortable &amp; Suitable: Ergonomic design, Only 0.38oz/11g lightweight design, will not cause ear swelling, you can feel nothing when running. it not just Secure fit to your ear, but also anti-falling off and painless for wearing. Note: Long time music listening may hurt your hearing, please have a rest per 2 hours.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ♬【Newest Bluetooth 5.0】Rademax bluetooth earbuds adopt the most advanced Bluetooth 5.0 technology which provided more stable connection (connection distance up to 45ft), faster paring(just need 2 seconds ) and universal compatibility. ♬【High Fidelity Sound】True wireless earbuds with 13mm vibrating diaphragm and HD rendering technology produce incredible sound quality with crystal crisp treble. Enjoy your music everywhere even in a loud environment. ♬【30 Hours Playtime】Bluetooth headphones get 4-5 hour’s playtime from a single charge(only 1 hour charge time) and 30 extra hours in the mini portable charging case. ♬【One Step Pairing】Just pick up earbuds from the charging case,the last-paired device automatically connects. And only one step easily enter mobile phone bluetooth setting to pair the earbuds. ♬【Stable &amp; Best Gift】Lighter(4g) and ergonomic design, own incredible comfort and seamless sound that sits effortlessly in your ears. This wireless headphones also the best choice for your Christmas or New Year gift list.</t>
-  </si>
-  <si>
-    <t>This fits your .     Enter your model numberto make sure this fits.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) IEM TRIPLE DRIVER</t>
+    <t xml:space="preserve"> Newest Bluetooth 5.0Rademax bluetooth earbuds adopt the most advanced Bluetooth 5.0 technology which provided more stable connection (connection distance up to 45ft), faster paring(just need 2 seconds ) and universal compatibility. High Fidelity SoundTrue wireless earbuds with 13mm vibrating diaphragm and HD rendering technology produce incredible sound quality with crystal crisp treble. Enjoy your music everywhere even in a loud environment. 30 Hours PlaytimeBluetooth headphones get 4-5 hour’s playtime from a single charge(only 1 hour charge time) and 30 extra hours in the mini portable charging case. One Step PairingJust pick up earbuds from the charging case,the last-paired device automatically connects. And only one step easily enter mobile phone bluetooth setting to pair the earbuds. Stable &amp; Best GiftLighter(4g) and ergonomic design, own incredible comfort and seamless sound that sits effortlessly in your ears. This wireless headphones also the best choice for your Christmas or New Year gift list.</t>
+  </si>
+  <si>
+    <t>IEM TRIPLE DRIVER</t>
   </si>
   <si>
     <t>Suitable for Children age 8+ &amp; Adults Foldable Design Make it Convenient to Carry, Soft Ear Pad Make it Comfortable for Long Time Wearing 4.9FT Length Durable Cord with 3.5mm Standard Jack It Compatible with all 3.5mm Jack Devices, Such as: all Android Phones, iPod, iPhone 7 Previous Version, iPad, MP3/4, DVD/CD Players, Laptop, Tablets, Computers and Portable Gaming Systems 1 Year Free Warranty AT NO EXTRA COST and Quick Response Customer Service.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) Klipsch patented oval ear tips give you ultimate comfort and an excellent seal for noise isolation and superior bass. Experience the legendary, detailed and dynamic Klipsch sound No wires, 8-hour battery and seamless connection to the digital assistant of your choice. Connectivity Technology: Bluetooth Included Components: Wireless Earphones;Charging Case;Ear Tips;Manual;Charging Cable</t>
+    <t xml:space="preserve"> Klipsch patented oval ear tips give you ultimate comfort and an excellent seal for noise isolation and superior bass. Experience the legendary, detailed and dynamic Klipsch sound No wires, 8-hour battery and seamless connection to the digital assistant of your choice. Connectivity Technology: Bluetooth Included Components: Wireless Earphones;Charging Case;Ear Tips;Manual;Charging Cable</t>
   </si>
   <si>
     <t>Cleaner Sound: The sound quality is pitch perfect and clear, delivering a strong audio experience every time. The BS10 earphones provide perfect listening pleasure for music, video or phone calls. Enjoy crystal clear audio performance with surging bass Noise Isolation: The earbuds eliminate outside noise to keep your music crystal clear. The in ear design reduces background noise and sound leakage significantly, while achieving optimum music playback. Listen your favorite tracks during work and travel Portable Comfort : Easy to slip in your pocket or backpack, comes with 3 sizes of silicon earbuds and will stay in place when you're on the move. The BS10 also includes a cable clip for ultimate comfort. Take them with you everywhere you go Premium Materials: Betron BS10 earphones include metal housing and a tangle free reinforced cable, making them more durable. Good sound starts with signal quality. The BS10 comes with a gold plated audio connector to deliver the signal on max definition Travel Friendly: Easy to slip in your pocket or backpack, these earphones also come with a convenient carry case. The compact and functional hard case keeps items safe and extremely portable</t>
   </si>
   <si>
-    <t>【Superior Sound Quality】Wireless earbuds are equipped with the most advanced Bluetooth 5.0 technology. Provides stable connectivity and high quality sound. It features the detailed sound , which is warm and never harsh. The CVC 8. 0 Noise Cancelling technology mitigates environmental noise and promotes clear voice transmission. 【Light &amp; Fashionable design】True wireless earbud means movement is not limited because there is no cable.And cables won't get tangled in your bag. Because it is small and lightweight, it is easy to carry and does not interfere with fashion. 【 Charge on the go 】The charging case can also be used as an alternative power source for your earphones. You don't need to worry about power outage when you on the go. LED battery display screen will allow you to easily see the percentage of battery usage left in the charging case. You will never worry about running out of power. 【Automatic Pairing &amp; IPX7 Waterproof】The Wireless Bluetooth earphones are equipped with one-step pairing technology. Take the Left and the Right earbuds out of charging case, then earphones will pair with each other, then "XG-5.0" automatically appear on your device. Completely automatic system gives you a hassle-free experience. IPX7 Waterproof technology can easily resist sweat and rain. 【100% Customer Satisfaction Service】What You Get：wireless Bluetooth earphones, charging box, USB cable, 3* earplugs （S，L，M）and user manual. If you have any problems, please feel free to send email contact us. we will always be here to help you .</t>
-  </si>
-  <si>
-    <t>🎧 ERGONOMICS DESIGN: Earphones with ergonomic angular design and soft &amp; premium eartips not only give you a comfortable listening experience but also less likely to fall out even when you are running, hiking or jogging. 🎧 QUALITY STEREO SOUND: Stereo earphones produces Premium Stereo Sound,high-fidelity sound with enhanced bass. Everyone can take their music listening experience to the higher level 🎧 TANGLE FREE CABLE: Soft and durable flat cable is built to last and designed to resist tangling for frustration-free use. The tangle-free cord stores neatly and keeps you connected to your device in smooth, simple style. Slim &amp; extended 3.5mm connector is small enough that it will not conflict with your phone case cutout and is more durable than L type connector 🎧 AUDIO &amp; ENHANCED BASS: Strong bass, comfortable earbud headphones with a great seal which minimize outside noise so you can hear the beats clearly. The perfect portable earbud headphones offer sleek style and an excellent on-the-go choice for keeping you in sync with sound that inspires. 🎧 24-MONTH WARRANTY: 3.5mm audio jack compatible with any 3.5mm audio devices . 24-MONTH WARRANTY (Free replacement or refund）</t>
-  </si>
-  <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) ✅GREAT SOUND QUALITY WITH APTX+: high-fidelity stereo sound quality with aptx codec and CSR8645 chipset. These headphones are compatible with most smartphones, iPhone and Android. ✅THE BEST BATTERY IN THE CLASS WITH UP TO 12+ HOURS PLAYTIME - New 2018 updated battery of 170mAh - provides Longest PlayTime Up to 12+ hours of continuous talking / music time and up to 240 hours of standby with a single charge for best sport or other experience, so you can enjoy long lasting music and less time charging. Wherever your day takes you, ELZU keeps your music. ✅MORE STABLE CONNECTION WITH NEW BLUETOOTH 4.1 TECHNOLOGY: Compared to Bluetooth 3.0, 4.0, the latest version features faster &amp; stable signal transmission, clearer sound quality and lower power consumption. ✅FULLY WATERPROOF IPX7 PROTECTION - new wireless earbuds upgraded IPX7 sweatproof rating, prevent the headphones damaged from ordinary splashing water and rain. Keep the earphones working well no matter you’re getting drenched in sweat after a grueling workout. ✅ SATISFACTION GUARANTEED + CUSTOMER SUPPORT 24/7: Our team of professionals is constantly working to make you happier with your decoration. We are confident in the quality of our product and give you a 100% money back guarantee within 30 days and great customer support.</t>
+    <t>Superior Sound QualityWireless earbuds are equipped with the most advanced Bluetooth 5.0 technology. Provides stable connectivity and high quality sound. It features the detailed sound , which is warm and never harsh. The CVC 8. 0 Noise Cancelling technology mitigates environmental noise and promotes clear voice transmission. Light &amp; Fashionable designTrue wireless earbud means movement is not limited because there is no cable.And cables won't get tangled in your bag. Because it is small and lightweight, it is easy to carry and does not interfere with fashion.  Charge on the go The charging case can also be used as an alternative power source for your earphones. You don't need to worry about power outage when you on the go. LED battery display screen will allow you to easily see the percentage of battery usage left in the charging case. You will never worry about running out of power. Automatic Pairing &amp; IPX7 WaterproofThe Wireless Bluetooth earphones are equipped with one-step pairing technology. Take the Left and the Right earbuds out of charging case, then earphones will pair with each other, then "XG-5.0" automatically appear on your device. Completely automatic system gives you a hassle-free experience. IPX7 Waterproof technology can easily resist sweat and rain. 100% Customer Satisfaction ServiceWhat You Get：wireless Bluetooth earphones, charging box, USB cable, 3* earplugs （S，L，M）and user manual. If you have any problems, please feel free to send email contact us. we will always be here to help you .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ERGONOMICS DESIGN: Earphones with ergonomic angular design and soft &amp; premium eartips not only give you a comfortable listening experience but also less likely to fall out even when you are running, hiking or jogging.  QUALITY STEREO SOUND: Stereo earphones produces Premium Stereo Sound,high-fidelity sound with enhanced bass. Everyone can take their music listening experience to the higher level  TANGLE FREE CABLE: Soft and durable flat cable is built to last and designed to resist tangling for frustration-free use. The tangle-free cord stores neatly and keeps you connected to your device in smooth, simple style. Slim &amp; extended 3.5mm connector is small enough that it will not conflict with your phone case cutout and is more durable than L type connector  AUDIO &amp; ENHANCED BASS: Strong bass, comfortable earbud headphones with a great seal which minimize outside noise so you can hear the beats clearly. The perfect portable earbud headphones offer sleek style and an excellent on-the-go choice for keeping you in sync with sound that inspires.  24-MONTH WARRANTY: 3.5mm audio jack compatible with any 3.5mm audio devices . 24-MONTH WARRANTY (Free replacement or refund）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GREAT SOUND QUALITY WITH APTX+: high-fidelity stereo sound quality with aptx codec and CSR8645 chipset. These headphones are compatible with most smartphones, iPhone and Android. THE BEST BATTERY IN THE CLASS WITH UP TO 12+ HOURS PLAYTIME - New 2018 updated battery of 170mAh - provides Longest PlayTime Up to 12+ hours of continuous talking / music time and up to 240 hours of standby with a single charge for best sport or other experience, so you can enjoy long lasting music and less time charging. Wherever your day takes you, ELZU keeps your music. MORE STABLE CONNECTION WITH NEW BLUETOOTH 4.1 TECHNOLOGY: Compared to Bluetooth 3.0, 4.0, the latest version features faster &amp; stable signal transmission, clearer sound quality and lower power consumption. FULLY WATERPROOF IPX7 PROTECTION - new wireless earbuds upgraded IPX7 sweatproof rating, prevent the headphones damaged from ordinary splashing water and rain. Keep the earphones working well no matter you’re getting drenched in sweat after a grueling workout.  SATISFACTION GUARANTEED + CUSTOMER SUPPORT 24/7: Our team of professionals is constantly working to make you happier with your decoration. We are confident in the quality of our product and give you a 100% money back guarantee within 30 days and great customer support.</t>
   </si>
   <si>
     <t>[NO MASTER-SLAVE RESTRICTIONS] FALWEDI Wireless Bluetooth Earbuds have no master-slave restrictions, you are no longer have to wear a fixed earphone for Single Ear Mode and easily switch between Single Ear Mode and Binaural Mode. Meet your use requirements for different occasions. [NEWEST BLUETOOTH 5.0 TECHNOLOGY] FALWEDI Wireless Bluetooth Earbuds adopt the most advanced Bluetooth 5.0 technology, supporting HSP, HFP, A2DP, AVRCP. Provides in-call stereo sound and fast, stable transmission. You just need to open the charging case and connect to “Falwedi T12” on your device. They will connect to the last connected device automatically after first used. [4.5H CONTINUOUS 30H CYCLIC PLAYTIME] Less than 2 hours of charging gives you 4-5 hour of continuously playing, the mini portable charging case can recharge 5 additional times. Total play time up to 30h. The size of charging case just likes a car key and very light. Built for your convenience to carry the earbuds around and charge them anywhere. [HIGH FIDELITY SOUND] FALWEDI True Wireless Earbuds with 13mm vibrating diaphragm and HD rendering technology produce incredible sound quality with crystal crisp treble. Enjoy your music everywhere even in a loud environment. [ONE-CLICK MANIPULATION AND COMFORTABLE WEARING] After connected, you can control your music and accept or reject calls with just one button, really wireless. With ergonomic design, own incredible comfort and seamless sound that sits effortlessly in your ears. Let you immerse yourself in the music.</t>
@@ -6668,16 +6659,16 @@
     <t>Sound by meridian-experience three-dimensional audio that’s remarkably close to the original recording with rich bass and clear treble Power battery life- Talk time 8 hours. Music play time 8 hours. Standby time 18 days Fast Charging - 10 minute charging for 3 hours use Dual microphones-two mics make sure every conversation is crystal clear Vibration alert-the neckband vibrates when you get a text or call</t>
   </si>
   <si>
-    <t>★【Bulk Earbuds Mixed Color with 5 Colors】5 Arrorted Colors Earbuds:Black,Blue,Orange,Green,Purple.10 Pieces Earbuds for Each Color,Total 100 Pieces Ear buds Earphones in the Package. ★【Individually Wrapped Earbuds】Bundle bulk ear buds individually wrapped for kids adults,Each earbuds with individually poly bag and sealed,convenient and hygienic for you use this inexpensive headphones. ★【Low cost Earbuds with Good Quality】Under 1 dollar earbuds,no worry kids or students broken your expensive headphones,with high quality material ,bring quality and good texture feeling for you. ★【Strong Compatibility】These earbuds in bulk, use 3.5MM audio jack is able to compatible with most smartphones,class set of headphones for students,and other devices,it's a inexpensive earbuds for iPhones/iPads/iPods/Mac/PC/Chrome book/Andriod/Fitness&amp;Audio Equipment. ➤Customer Support: If you have any questions when using, please contact us through the contact information on the instructions card or Amazon email,We will Reply You in the first time.</t>
+    <t>★Bulk Earbuds Mixed Color with 5 Colors5 Arrorted Colors Earbuds:Black,Blue,Orange,Green,Purple.10 Pieces Earbuds for Each Color,Total 100 Pieces Ear buds Earphones in the Package. ★Individually Wrapped EarbudsBundle bulk ear buds individually wrapped for kids adults,Each earbuds with individually poly bag and sealed,convenient and hygienic for you use this inexpensive headphones. ★Low cost Earbuds with Good QualityUnder 1 dollar earbuds,no worry kids or students broken your expensive headphones,with high quality material ,bring quality and good texture feeling for you. ★Strong CompatibilityThese earbuds in bulk, use 3.5MM audio jack is able to compatible with most smartphones,class set of headphones for students,and other devices,it's a inexpensive earbuds for iPhones/iPads/iPods/Mac/PC/Chrome book/Andriod/Fitness&amp;Audio Equipment. ➤Customer Support: If you have any questions when using, please contact us through the contact information on the instructions card or Amazon email,We will Reply You in the first time.</t>
   </si>
   <si>
     <t>AMAZING SOUND QUALITY: High Definition Stereo Headphones, specially developed software and noise reduction technology that aims to deliver the music from your iPod on a whole new level! Deep Bass in combination with Dynamic Power Sound, results in Superior Audio Quality, even in the highest volume levels! GREAT COMFORT FOR ALL AGES: The over-ear headphones are foldable and stretchable, so they can fit perfectly almost any size head. PowerLocus are always are ready to impress with elegance and convenience, bringing more joy during the everyday use! PowerLocus is #1 Choice for Travel, Sport and Every day use by Unisex Kids, Teens and Adults. CONNECT QUICKLY via Bluetooth 5.0: We made the bluetooth over ear headphones super easy to use. Just slide the on/off button and the headphones will be in ready to pair mode. The Wireless Headphones are compatible with all Bluetooth or 3.5mm plug cable enabled devices! You can also receive calls and have hands-free communication through the special noise reduction technology microphone. Compatible with all iPhone X, 8 Plus, Samsung S9, S8, iPad, iPod, Huawei, Nexus, Amazon Fire Tablet. QUALITY MADE DESIGN: PowerLocus is built from materials which are extremely nice to touch and provides the model premium outlook. The super soft memory-protein foam leather earmuffs and headband will contribute to optimum comfort even if you wear them for long time. Use them everywhere, together with the Protective Premium Case – great way to carry them without having scratches on them for long term. Wireless and Wired FLEXIBLE HEADPHONES: They are rechargable, but After 15 hours of playtime, you can switch to wired mode and enjoy your music NON-STOP. By choosing PowerLocus, You are covered with 24 Months PowerLocus warranty and 100% Customer satisfaction – 24/7 Customer Support.</t>
   </si>
   <si>
-    <t>This fits your .     Make sure this fitsby entering your model number.    P.when("ReplacementPartsBulletLoader").execute(function(module){ module.initializeDPX(); }) PREMIUM SOUND QUALITY - Enjoy the world of music, calls, videos, and more with premium sound quality. Experience seamless sounds and crystal clear calls via a high quality Bluetooth 5.0 system. Listen, laugh, and talk with high quality sounds. FAST PAIRING - Worry-free, fast, and easy pairing just by opening up the charging case. Bright LED lights will signal pairing process and connect quickly via smartphone Bluetooth. Pair quickly and effortlessly to start enjoying faster. COMPACT CHARGING CASE - Portable charging case can be taken to the gym, school, or office. With up to 5 hrs. max play time on a single charge and 14 hrs. max with the charging case, you can now listen even longer. A Digital LED Battery Indicator will provide a helpful reminder of when to charge the XClear Earbuds. COMFORTABLE FIT - Simplistic yet stylish design offers overall comfort for users. A sleek design provides a snug and secure fit for the majority of ears. A sense of comfort and security during daily use. WARRANTY - XClear is proud to offer all customers a 1-Year Warranty.</t>
-  </si>
-  <si>
-    <t>【Qualcomm QCC3020 Chip &amp; Apt-X Technology 】 Adopted the industry-leading aptX audio and 12mm dynamic drivers enable sound clear and lossless. Crystal clear vocals and super deep bass provide excellent listening experience. Wireless earbuds equipped with the Qualcomm QCC3020 chip bring you longer battery life, better sound quality, more stable signal transmission. 【2500mAh LED Display Charging Case】 With the individual LED display on the case can help check the power of the wireless earbuds and charging case at any time. 2500mAh battery brings you total 136H for using,besides the charging case can work as a power bank to charge your cellphone and other devices. 【One-Step Pairing】 Thanks to the most advanced Bluetooth 5.0 technology,the 2 earbuds will automatically turned on, automatically connected and paired when you pick them up from the charging case.One more thing,you can use both earbuds or just one at a time. 【One Touch Control】 Features with touch control sensors, Bluenin wireless earbuds largely minimize the pressure to your ears when you touch the button for various functions. Touch buttons allow you to adjust the volume, play or pause music, skip to previous or next track, answer or hang up or reject a call, activate Siri, etc. 【IPX7 Waterproof &amp; Ergonomic Earhooks】 Designed for your active life,now you can wash your earbuds after using a period of time as it resists water, sweat, and accident splashes perfectly.The adjustable,secure-fit earhooks keep are customizable with multiple eartip options for extended comfort and made to stay in place,no matter how hard you go.</t>
+    <t xml:space="preserve"> PREMIUM SOUND QUALITY - Enjoy the world of music, calls, videos, and more with premium sound quality. Experience seamless sounds and crystal clear calls via a high quality Bluetooth 5.0 system. Listen, laugh, and talk with high quality sounds. FAST PAIRING - Worry-free, fast, and easy pairing just by opening up the charging case. Bright LED lights will signal pairing process and connect quickly via smartphone Bluetooth. Pair quickly and effortlessly to start enjoying faster. COMPACT CHARGING CASE - Portable charging case can be taken to the gym, school, or office. With up to 5 hrs. max play time on a single charge and 14 hrs. max with the charging case, you can now listen even longer. A Digital LED Battery Indicator will provide a helpful reminder of when to charge the XClear Earbuds. COMFORTABLE FIT - Simplistic yet stylish design offers overall comfort for users. A sleek design provides a snug and secure fit for the majority of ears. A sense of comfort and security during daily use. WARRANTY - XClear is proud to offer all customers a 1-Year Warranty.</t>
+  </si>
+  <si>
+    <t>Qualcomm QCC3020 Chip &amp; Apt-X Technology  Adopted the industry-leading aptX audio and 12mm dynamic drivers enable sound clear and lossless. Crystal clear vocals and super deep bass provide excellent listening experience. Wireless earbuds equipped with the Qualcomm QCC3020 chip bring you longer battery life, better sound quality, more stable signal transmission. 2500mAh LED Display Charging Case With the individual LED display on the case can help check the power of the wireless earbuds and charging case at any time. 2500mAh battery brings you total 136H for using,besides the charging case can work as a power bank to charge your cellphone and other devices. One-Step Pairing Thanks to the most advanced Bluetooth 5.0 technology,the 2 earbuds will automatically turned on, automatically connected and paired when you pick them up from the charging case.One more thing,you can use both earbuds or just one at a time. One Touch Control Features with touch control sensors, Bluenin wireless earbuds largely minimize the pressure to your ears when you touch the button for various functions. Touch buttons allow you to adjust the volume, play or pause music, skip to previous or next track, answer or hang up or reject a call, activate Siri, etc. IPX7 Waterproof &amp; Ergonomic Earhooks Designed for your active life,now you can wash your earbuds after using a period of time as it resists water, sweat, and accident splashes perfectly.The adjustable,secure-fit earhooks keep are customizable with multiple eartip options for extended comfort and made to stay in place,no matter how hard you go.</t>
   </si>
   <si>
     <t>POWERFUL DRIVERS &amp;ALUMINIUM ALLOY HOUSING : Marsno M2 is brilliantly engineered with upgraded high quality dynamic drivers that pump out powerful deep bass and balanced crisp mids and highs,superior audio performance, extremely accurate listening experience COMFORTABLE OBLIQUE ANGLED ERGONOMIC DESIGN: The oblique angled ear fittings naturally match your ear canals. 3 sets of included ear sleeves sizes ( Small / Medium / Large ) ensure a proper fit for all. They're more comfortable and less likely to fall out, freeing you to enjoy your music. INTELLIGENT IN-LINE REMOTE CONTROL: In-line remote control is conveniently located allowing you to effortlessly control volume, select songs, and take calls. MORE FLEXIBLE &amp; DURABLE CORD: The hollow TPE cord with durable oxygen-free copper wire inserted by hand, this process produces a more durable and longer lasting cord. The 3.5mm gold plated jack on the end for reliable connectivity. 100% Worry-Free: If you are not satisfied with our headphones, let us know and you will be offered a full refund or replacement,that ensure our products work the way you need them to. Enjoy this absolutely RISK FREE purchase by clicking the yellow Add to Cart button.</t>
@@ -6686,7 +6677,7 @@
     <t>Latest Bluetooth V5.0: Advanced CSR 5.0 enables you to pair with all kinds of Bluetooth Enabled Devices. Supports 2 connections simultaneously with faster pairing speed lower latency Lightweight and Comfortable: Lightweight and ergonomic design offers you extra flexibility, portability and durability. 10-meter working distance gives you strong signal. Bluetooth Wireless, Built-In Microphone, Call functions, Echo Cancellation, Foldable, HD Voice, Noise Cancellation, Noise Isolation, Playback Controls, Rechargeable Cool Magnetic Attraction: The magnet can attach the ends together, creating a fashionable sport lifestyle. Allow you to enjoy digital-quality music wirelessly and convert between music and phone calling mode freely</t>
   </si>
   <si>
-    <t>✅HEADPHONES IN BULK 25 PACK - Very Colorful, 5 colors mixed: Baby blue / Light green / Orange / Pink / Dark blue, Each color 5 sets, total of 25 Pack, Colors are as pictured, Each kids headphones individually packaged and sealed. ✅CHEAP HEADPHONES WITH HIGH QUALITY SOUND - Bulk earphone stereo sound offers full audio clear for excellent sound quality, class set headphones for students listening and testing. ✅COMFORTABLE AND DURABLE - Use more comfortable and soft leatherette ear cushions are comfortable to wear for extended use and can be wiped down between uses for easy cleaning; Headphones bracket can be adjusted to shrink by 3cm and is made of carbon fiber plastic, which is light, elastic and not easy to break and suitable for repeated use by children. ✅KIDS HEADPHONES COMPARTIBILITY FIT - Length 4 feet or 1.2 meter, Gold plated 3.5mm aux jack compatible with most smartphones and other devices, perfer for iPhones, iPads, Macbook, Chromebook, Laptop, PC, Andriod tablet, It's the best choice for class set of headphones for teens. ✅Hongzan Supprot - 1 Year Hassle Free limited service and quick response customer service, if you have any questions when using, feel free to contact us via Amazon email or through the contact information on the instructions.</t>
+    <t>HEADPHONES IN BULK 25 PACK - Very Colorful, 5 colors mixed: Baby blue / Light green / Orange / Pink / Dark blue, Each color 5 sets, total of 25 Pack, Colors are as pictured, Each kids headphones individually packaged and sealed. CHEAP HEADPHONES WITH HIGH QUALITY SOUND - Bulk earphone stereo sound offers full audio clear for excellent sound quality, class set headphones for students listening and testing. COMFORTABLE AND DURABLE - Use more comfortable and soft leatherette ear cushions are comfortable to wear for extended use and can be wiped down between uses for easy cleaning; Headphones bracket can be adjusted to shrink by 3cm and is made of carbon fiber plastic, which is light, elastic and not easy to break and suitable for repeated use by children. KIDS HEADPHONES COMPARTIBILITY FIT - Length 4 feet or 1.2 meter, Gold plated 3.5mm aux jack compatible with most smartphones and other devices, perfer for iPhones, iPads, Macbook, Chromebook, Laptop, PC, Andriod tablet, It's the best choice for class set of headphones for teens. Hongzan Supprot - 1 Year Hassle Free limited service and quick response customer service, if you have any questions when using, feel free to contact us via Amazon email or through the contact information on the instructions.</t>
   </si>
   <si>
     <t>Suitable for Adults &amp; Kids, Teens age 8+ Foldable and Adjustable, Star Classics Pattern, Comfortable Wear 1.5 meter Cord and 3.5mm L Shape Standard Jack Ideal for use will all Android and OS Phones and Tablets, DVD/CD and MP3/4 Music Players, Portable Gaming Consoles. 1 Year Warranty at no extra cost, any problem please contact us.</t>
@@ -11501,7 +11492,7 @@
         <v>1345</v>
       </c>
       <c r="F223" t="s">
-        <v>1703</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -11521,7 +11512,7 @@
         <v>718</v>
       </c>
       <c r="F224" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -11541,7 +11532,7 @@
         <v>1344</v>
       </c>
       <c r="F225" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -11561,7 +11552,7 @@
         <v>718</v>
       </c>
       <c r="F226" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -11581,7 +11572,7 @@
         <v>1357</v>
       </c>
       <c r="F227" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -11601,7 +11592,7 @@
         <v>1358</v>
       </c>
       <c r="F228" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -11621,7 +11612,7 @@
         <v>1351</v>
       </c>
       <c r="F229" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -11641,7 +11632,7 @@
         <v>718</v>
       </c>
       <c r="F230" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -11661,7 +11652,7 @@
         <v>1346</v>
       </c>
       <c r="F231" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -11681,7 +11672,7 @@
         <v>1359</v>
       </c>
       <c r="F232" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -11701,7 +11692,7 @@
         <v>718</v>
       </c>
       <c r="F233" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -11721,7 +11712,7 @@
         <v>1360</v>
       </c>
       <c r="F234" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -11741,7 +11732,7 @@
         <v>1361</v>
       </c>
       <c r="F235" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -11761,7 +11752,7 @@
         <v>718</v>
       </c>
       <c r="F236" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -11781,7 +11772,7 @@
         <v>1362</v>
       </c>
       <c r="F237" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -11801,7 +11792,7 @@
         <v>1363</v>
       </c>
       <c r="F238" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -11821,7 +11812,7 @@
         <v>718</v>
       </c>
       <c r="F239" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -11841,7 +11832,7 @@
         <v>1351</v>
       </c>
       <c r="F240" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -11861,7 +11852,7 @@
         <v>1364</v>
       </c>
       <c r="F241" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -11881,7 +11872,7 @@
         <v>1357</v>
       </c>
       <c r="F242" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -11901,7 +11892,7 @@
         <v>1364</v>
       </c>
       <c r="F243" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -11921,7 +11912,7 @@
         <v>1365</v>
       </c>
       <c r="F244" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -11941,7 +11932,7 @@
         <v>1366</v>
       </c>
       <c r="F245" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -11961,7 +11952,7 @@
         <v>718</v>
       </c>
       <c r="F246" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -11981,7 +11972,7 @@
         <v>718</v>
       </c>
       <c r="F247" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -12001,7 +11992,7 @@
         <v>718</v>
       </c>
       <c r="F248" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -12038,7 +12029,7 @@
         <v>1367</v>
       </c>
       <c r="F250" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -12058,7 +12049,7 @@
         <v>1368</v>
       </c>
       <c r="F251" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -12078,7 +12069,7 @@
         <v>1369</v>
       </c>
       <c r="F252" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -12098,7 +12089,7 @@
         <v>1366</v>
       </c>
       <c r="F253" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -12118,7 +12109,7 @@
         <v>1370</v>
       </c>
       <c r="F254" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -12138,7 +12129,7 @@
         <v>1350</v>
       </c>
       <c r="F255" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -12158,7 +12149,7 @@
         <v>1371</v>
       </c>
       <c r="F256" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -12178,7 +12169,7 @@
         <v>718</v>
       </c>
       <c r="F257" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -12198,7 +12189,7 @@
         <v>718</v>
       </c>
       <c r="F258" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -12218,7 +12209,7 @@
         <v>1368</v>
       </c>
       <c r="F259" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -12238,7 +12229,7 @@
         <v>1357</v>
       </c>
       <c r="F260" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -12258,7 +12249,7 @@
         <v>1371</v>
       </c>
       <c r="F261" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -12278,7 +12269,7 @@
         <v>1372</v>
       </c>
       <c r="F262" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -12298,7 +12289,7 @@
         <v>1365</v>
       </c>
       <c r="F263" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -12318,7 +12309,7 @@
         <v>1348</v>
       </c>
       <c r="F264" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -12338,7 +12329,7 @@
         <v>1373</v>
       </c>
       <c r="F265" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -12358,7 +12349,7 @@
         <v>718</v>
       </c>
       <c r="F266" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -12378,7 +12369,7 @@
         <v>1365</v>
       </c>
       <c r="F267" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -12398,7 +12389,7 @@
         <v>1357</v>
       </c>
       <c r="F268" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -12418,7 +12409,7 @@
         <v>1374</v>
       </c>
       <c r="F269" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -12438,7 +12429,7 @@
         <v>718</v>
       </c>
       <c r="F270" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -12458,7 +12449,7 @@
         <v>1375</v>
       </c>
       <c r="F271" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -12478,7 +12469,7 @@
         <v>1376</v>
       </c>
       <c r="F272" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -12498,7 +12489,7 @@
         <v>1368</v>
       </c>
       <c r="F273" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -12518,7 +12509,7 @@
         <v>1377</v>
       </c>
       <c r="F274" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -12538,7 +12529,7 @@
         <v>1378</v>
       </c>
       <c r="F275" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -12558,7 +12549,7 @@
         <v>1375</v>
       </c>
       <c r="F276" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -12578,7 +12569,7 @@
         <v>1379</v>
       </c>
       <c r="F277" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -12598,7 +12589,7 @@
         <v>1368</v>
       </c>
       <c r="F278" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -12618,7 +12609,7 @@
         <v>1362</v>
       </c>
       <c r="F279" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -12638,7 +12629,7 @@
         <v>1380</v>
       </c>
       <c r="F280" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -12658,7 +12649,7 @@
         <v>1381</v>
       </c>
       <c r="F281" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -12678,7 +12669,7 @@
         <v>1382</v>
       </c>
       <c r="F282" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -12698,7 +12689,7 @@
         <v>1383</v>
       </c>
       <c r="F283" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -12718,7 +12709,7 @@
         <v>718</v>
       </c>
       <c r="F284" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -12738,7 +12729,7 @@
         <v>1365</v>
       </c>
       <c r="F285" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -12758,7 +12749,7 @@
         <v>1384</v>
       </c>
       <c r="F286" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -12778,7 +12769,7 @@
         <v>718</v>
       </c>
       <c r="F287" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -12798,7 +12789,7 @@
         <v>1373</v>
       </c>
       <c r="F288" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -12818,7 +12809,7 @@
         <v>1385</v>
       </c>
       <c r="F289" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -12838,7 +12829,7 @@
         <v>1348</v>
       </c>
       <c r="F290" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -12858,7 +12849,7 @@
         <v>1386</v>
       </c>
       <c r="F291" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -12878,7 +12869,7 @@
         <v>1361</v>
       </c>
       <c r="F292" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -12898,7 +12889,7 @@
         <v>1387</v>
       </c>
       <c r="F293" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -12918,7 +12909,7 @@
         <v>1388</v>
       </c>
       <c r="F294" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -12938,7 +12929,7 @@
         <v>718</v>
       </c>
       <c r="F295" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -12958,7 +12949,7 @@
         <v>1365</v>
       </c>
       <c r="F296" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -12978,7 +12969,7 @@
         <v>718</v>
       </c>
       <c r="F297" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -12998,7 +12989,7 @@
         <v>1368</v>
       </c>
       <c r="F298" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -13018,7 +13009,7 @@
         <v>1389</v>
       </c>
       <c r="F299" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -13038,7 +13029,7 @@
         <v>1390</v>
       </c>
       <c r="F300" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -13058,7 +13049,7 @@
         <v>1365</v>
       </c>
       <c r="F301" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -13078,7 +13069,7 @@
         <v>1366</v>
       </c>
       <c r="F302" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -13098,7 +13089,7 @@
         <v>1391</v>
       </c>
       <c r="F303" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -13118,7 +13109,7 @@
         <v>1354</v>
       </c>
       <c r="F304" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -13138,7 +13129,7 @@
         <v>1392</v>
       </c>
       <c r="F305" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -13158,7 +13149,7 @@
         <v>1393</v>
       </c>
       <c r="F306" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -13178,7 +13169,7 @@
         <v>1380</v>
       </c>
       <c r="F307" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -13198,7 +13189,7 @@
         <v>718</v>
       </c>
       <c r="F308" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -13218,7 +13209,7 @@
         <v>1343</v>
       </c>
       <c r="F309" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -13238,7 +13229,7 @@
         <v>1394</v>
       </c>
       <c r="F310" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -13258,7 +13249,7 @@
         <v>1395</v>
       </c>
       <c r="F311" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -13278,7 +13269,7 @@
         <v>1366</v>
       </c>
       <c r="F312" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -13298,7 +13289,7 @@
         <v>1396</v>
       </c>
       <c r="F313" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -13318,7 +13309,7 @@
         <v>1397</v>
       </c>
       <c r="F314" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -13338,7 +13329,7 @@
         <v>1398</v>
       </c>
       <c r="F315" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -13358,7 +13349,7 @@
         <v>1343</v>
       </c>
       <c r="F316" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -13378,7 +13369,7 @@
         <v>1399</v>
       </c>
       <c r="F317" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -13398,7 +13389,7 @@
         <v>1343</v>
       </c>
       <c r="F318" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -13418,7 +13409,7 @@
         <v>1400</v>
       </c>
       <c r="F319" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -13438,7 +13429,7 @@
         <v>718</v>
       </c>
       <c r="F320" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -13458,7 +13449,7 @@
         <v>1368</v>
       </c>
       <c r="F321" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -13478,7 +13469,7 @@
         <v>718</v>
       </c>
       <c r="F322" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -13498,7 +13489,7 @@
         <v>718</v>
       </c>
       <c r="F323" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -13518,7 +13509,7 @@
         <v>1380</v>
       </c>
       <c r="F324" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -13538,7 +13529,7 @@
         <v>1400</v>
       </c>
       <c r="F325" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -13558,7 +13549,7 @@
         <v>718</v>
       </c>
       <c r="F326" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -13578,7 +13569,7 @@
         <v>1401</v>
       </c>
       <c r="F327" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -13598,7 +13589,7 @@
         <v>718</v>
       </c>
       <c r="F328" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -13618,7 +13609,7 @@
         <v>1343</v>
       </c>
       <c r="F329" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -13638,7 +13629,7 @@
         <v>718</v>
       </c>
       <c r="F330" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -13658,7 +13649,7 @@
         <v>1361</v>
       </c>
       <c r="F331" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -13678,7 +13669,7 @@
         <v>718</v>
       </c>
       <c r="F332" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -13698,7 +13689,7 @@
         <v>1358</v>
       </c>
       <c r="F333" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -13718,7 +13709,7 @@
         <v>1383</v>
       </c>
       <c r="F334" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -13738,7 +13729,7 @@
         <v>1402</v>
       </c>
       <c r="F335" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -13758,7 +13749,7 @@
         <v>718</v>
       </c>
       <c r="F336" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -13778,7 +13769,7 @@
         <v>1403</v>
       </c>
       <c r="F337" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -13798,7 +13789,7 @@
         <v>1404</v>
       </c>
       <c r="F338" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -13818,7 +13809,7 @@
         <v>1405</v>
       </c>
       <c r="F339" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -13838,7 +13829,7 @@
         <v>1406</v>
       </c>
       <c r="F340" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -13858,7 +13849,7 @@
         <v>1368</v>
       </c>
       <c r="F341" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -13878,7 +13869,7 @@
         <v>1389</v>
       </c>
       <c r="F342" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -13898,7 +13889,7 @@
         <v>718</v>
       </c>
       <c r="F343" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -13918,7 +13909,7 @@
         <v>1407</v>
       </c>
       <c r="F344" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -13938,7 +13929,7 @@
         <v>1351</v>
       </c>
       <c r="F345" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -13958,7 +13949,7 @@
         <v>1408</v>
       </c>
       <c r="F346" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -13978,7 +13969,7 @@
         <v>1373</v>
       </c>
       <c r="F347" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -13998,7 +13989,7 @@
         <v>1409</v>
       </c>
       <c r="F348" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -14018,7 +14009,7 @@
         <v>1410</v>
       </c>
       <c r="F349" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -14038,7 +14029,7 @@
         <v>1411</v>
       </c>
       <c r="F350" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -14058,7 +14049,7 @@
         <v>1412</v>
       </c>
       <c r="F351" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -14078,7 +14069,7 @@
         <v>1368</v>
       </c>
       <c r="F352" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -14098,7 +14089,7 @@
         <v>1413</v>
       </c>
       <c r="F353" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -14118,7 +14109,7 @@
         <v>1414</v>
       </c>
       <c r="F354" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -14138,7 +14129,7 @@
         <v>1368</v>
       </c>
       <c r="F355" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -14158,7 +14149,7 @@
         <v>1415</v>
       </c>
       <c r="F356" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -14178,7 +14169,7 @@
         <v>718</v>
       </c>
       <c r="F357" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -14198,7 +14189,7 @@
         <v>1354</v>
       </c>
       <c r="F358" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -14218,7 +14209,7 @@
         <v>1355</v>
       </c>
       <c r="F359" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -14238,7 +14229,7 @@
         <v>1416</v>
       </c>
       <c r="F360" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -14275,7 +14266,7 @@
         <v>1396</v>
       </c>
       <c r="F362" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -14295,7 +14286,7 @@
         <v>1417</v>
       </c>
       <c r="F363" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -14315,7 +14306,7 @@
         <v>1375</v>
       </c>
       <c r="F364" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -14352,7 +14343,7 @@
         <v>1368</v>
       </c>
       <c r="F366" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -14372,7 +14363,7 @@
         <v>1413</v>
       </c>
       <c r="F367" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -14392,7 +14383,7 @@
         <v>1418</v>
       </c>
       <c r="F368" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -14412,7 +14403,7 @@
         <v>718</v>
       </c>
       <c r="F369" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -14432,7 +14423,7 @@
         <v>1345</v>
       </c>
       <c r="F370" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -14452,7 +14443,7 @@
         <v>1365</v>
       </c>
       <c r="F371" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -14472,7 +14463,7 @@
         <v>1419</v>
       </c>
       <c r="F372" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -14492,7 +14483,7 @@
         <v>718</v>
       </c>
       <c r="F373" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -14512,7 +14503,7 @@
         <v>1396</v>
       </c>
       <c r="F374" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -14532,7 +14523,7 @@
         <v>1420</v>
       </c>
       <c r="F375" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -14552,7 +14543,7 @@
         <v>1380</v>
       </c>
       <c r="F376" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -14572,7 +14563,7 @@
         <v>718</v>
       </c>
       <c r="F377" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -14592,7 +14583,7 @@
         <v>718</v>
       </c>
       <c r="F378" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -14612,7 +14603,7 @@
         <v>718</v>
       </c>
       <c r="F379" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -14632,7 +14623,7 @@
         <v>1365</v>
       </c>
       <c r="F380" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -14652,7 +14643,7 @@
         <v>1396</v>
       </c>
       <c r="F381" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -14672,7 +14663,7 @@
         <v>1373</v>
       </c>
       <c r="F382" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -14692,7 +14683,7 @@
         <v>1421</v>
       </c>
       <c r="F383" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -14712,7 +14703,7 @@
         <v>1404</v>
       </c>
       <c r="F384" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -14732,7 +14723,7 @@
         <v>1422</v>
       </c>
       <c r="F385" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -14752,7 +14743,7 @@
         <v>1348</v>
       </c>
       <c r="F386" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -14772,7 +14763,7 @@
         <v>1383</v>
       </c>
       <c r="F387" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -14792,7 +14783,7 @@
         <v>718</v>
       </c>
       <c r="F388" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -14812,7 +14803,7 @@
         <v>1401</v>
       </c>
       <c r="F389" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -14832,7 +14823,7 @@
         <v>1351</v>
       </c>
       <c r="F390" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -14852,7 +14843,7 @@
         <v>1380</v>
       </c>
       <c r="F391" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -14872,7 +14863,7 @@
         <v>718</v>
       </c>
       <c r="F392" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -14892,7 +14883,7 @@
         <v>1383</v>
       </c>
       <c r="F393" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -14912,7 +14903,7 @@
         <v>1343</v>
       </c>
       <c r="F394" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -14932,7 +14923,7 @@
         <v>1423</v>
       </c>
       <c r="F395" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -14952,7 +14943,7 @@
         <v>1364</v>
       </c>
       <c r="F396" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -14972,7 +14963,7 @@
         <v>1411</v>
       </c>
       <c r="F397" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -14992,7 +14983,7 @@
         <v>1344</v>
       </c>
       <c r="F398" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -15012,7 +15003,7 @@
         <v>1400</v>
       </c>
       <c r="F399" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -15032,7 +15023,7 @@
         <v>1393</v>
       </c>
       <c r="F400" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -15052,7 +15043,7 @@
         <v>1424</v>
       </c>
       <c r="F401" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -15072,7 +15063,7 @@
         <v>1425</v>
       </c>
       <c r="F402" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -15092,7 +15083,7 @@
         <v>1426</v>
       </c>
       <c r="F403" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -15112,7 +15103,7 @@
         <v>1427</v>
       </c>
       <c r="F404" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -15132,7 +15123,7 @@
         <v>1354</v>
       </c>
       <c r="F405" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -15152,7 +15143,7 @@
         <v>1365</v>
       </c>
       <c r="F406" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -15172,7 +15163,7 @@
         <v>1404</v>
       </c>
       <c r="F407" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -15192,7 +15183,7 @@
         <v>1418</v>
       </c>
       <c r="F408" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -15212,7 +15203,7 @@
         <v>1343</v>
       </c>
       <c r="F409" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -15232,7 +15223,7 @@
         <v>718</v>
       </c>
       <c r="F410" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -15252,7 +15243,7 @@
         <v>1428</v>
       </c>
       <c r="F411" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -15272,7 +15263,7 @@
         <v>1429</v>
       </c>
       <c r="F412" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -15292,7 +15283,7 @@
         <v>1430</v>
       </c>
       <c r="F413" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -15312,7 +15303,7 @@
         <v>1368</v>
       </c>
       <c r="F414" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -15332,7 +15323,7 @@
         <v>1405</v>
       </c>
       <c r="F415" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -15352,7 +15343,7 @@
         <v>1431</v>
       </c>
       <c r="F416" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -15372,7 +15363,7 @@
         <v>1348</v>
       </c>
       <c r="F417" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -15392,7 +15383,7 @@
         <v>1360</v>
       </c>
       <c r="F418" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -15412,7 +15403,7 @@
         <v>1408</v>
       </c>
       <c r="F419" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -15432,7 +15423,7 @@
         <v>1364</v>
       </c>
       <c r="F420" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -15452,7 +15443,7 @@
         <v>1368</v>
       </c>
       <c r="F421" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -15472,7 +15463,7 @@
         <v>1346</v>
       </c>
       <c r="F422" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -15492,7 +15483,7 @@
         <v>1432</v>
       </c>
       <c r="F423" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -15512,7 +15503,7 @@
         <v>1373</v>
       </c>
       <c r="F424" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -15532,7 +15523,7 @@
         <v>1362</v>
       </c>
       <c r="F425" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -15552,7 +15543,7 @@
         <v>1433</v>
       </c>
       <c r="F426" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -15572,7 +15563,7 @@
         <v>1434</v>
       </c>
       <c r="F427" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -15592,7 +15583,7 @@
         <v>1365</v>
       </c>
       <c r="F428" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -15612,7 +15603,7 @@
         <v>1365</v>
       </c>
       <c r="F429" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -15632,7 +15623,7 @@
         <v>1353</v>
       </c>
       <c r="F430" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -15652,7 +15643,7 @@
         <v>1421</v>
       </c>
       <c r="F431" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -15672,7 +15663,7 @@
         <v>1435</v>
       </c>
       <c r="F432" t="s">
-        <v>1906</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -15692,7 +15683,7 @@
         <v>1436</v>
       </c>
       <c r="F433" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -15712,7 +15703,7 @@
         <v>1401</v>
       </c>
       <c r="F434" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -15732,7 +15723,7 @@
         <v>1437</v>
       </c>
       <c r="F435" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -15752,7 +15743,7 @@
         <v>1438</v>
       </c>
       <c r="F436" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -15772,7 +15763,7 @@
         <v>1396</v>
       </c>
       <c r="F437" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -15792,7 +15783,7 @@
         <v>1361</v>
       </c>
       <c r="F438" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -15812,7 +15803,7 @@
         <v>1354</v>
       </c>
       <c r="F439" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -15832,7 +15823,7 @@
         <v>1439</v>
       </c>
       <c r="F440" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -15852,7 +15843,7 @@
         <v>1440</v>
       </c>
       <c r="F441" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -15872,7 +15863,7 @@
         <v>1396</v>
       </c>
       <c r="F442" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -15892,7 +15883,7 @@
         <v>1362</v>
       </c>
       <c r="F443" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -15912,7 +15903,7 @@
         <v>1441</v>
       </c>
       <c r="F444" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -15932,7 +15923,7 @@
         <v>1402</v>
       </c>
       <c r="F445" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -15952,7 +15943,7 @@
         <v>1404</v>
       </c>
       <c r="F446" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -15972,7 +15963,7 @@
         <v>1373</v>
       </c>
       <c r="F447" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -15992,7 +15983,7 @@
         <v>1442</v>
       </c>
       <c r="F448" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -16012,7 +16003,7 @@
         <v>1373</v>
       </c>
       <c r="F449" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -16032,7 +16023,7 @@
         <v>1365</v>
       </c>
       <c r="F450" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -16052,7 +16043,7 @@
         <v>1399</v>
       </c>
       <c r="F451" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -16072,7 +16063,7 @@
         <v>1365</v>
       </c>
       <c r="F452" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -16092,7 +16083,7 @@
         <v>718</v>
       </c>
       <c r="F453" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -16129,7 +16120,7 @@
         <v>1365</v>
       </c>
       <c r="F455" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -16149,7 +16140,7 @@
         <v>718</v>
       </c>
       <c r="F456" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -16169,7 +16160,7 @@
         <v>1443</v>
       </c>
       <c r="F457" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -16189,7 +16180,7 @@
         <v>1444</v>
       </c>
       <c r="F458" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -16209,7 +16200,7 @@
         <v>1445</v>
       </c>
       <c r="F459" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -16229,7 +16220,7 @@
         <v>1446</v>
       </c>
       <c r="F460" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -16249,7 +16240,7 @@
         <v>1346</v>
       </c>
       <c r="F461" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -16269,7 +16260,7 @@
         <v>1447</v>
       </c>
       <c r="F462" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -16289,7 +16280,7 @@
         <v>718</v>
       </c>
       <c r="F463" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -16309,7 +16300,7 @@
         <v>1364</v>
       </c>
       <c r="F464" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -16329,7 +16320,7 @@
         <v>1414</v>
       </c>
       <c r="F465" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -16349,7 +16340,7 @@
         <v>1343</v>
       </c>
       <c r="F466" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -16369,7 +16360,7 @@
         <v>1351</v>
       </c>
       <c r="F467" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -16389,7 +16380,7 @@
         <v>718</v>
       </c>
       <c r="F468" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -16409,7 +16400,7 @@
         <v>1368</v>
       </c>
       <c r="F469" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -16429,7 +16420,7 @@
         <v>1401</v>
       </c>
       <c r="F470" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -16449,7 +16440,7 @@
         <v>1448</v>
       </c>
       <c r="F471" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -16469,7 +16460,7 @@
         <v>718</v>
       </c>
       <c r="F472" t="s">
-        <v>1944</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -16489,7 +16480,7 @@
         <v>1343</v>
       </c>
       <c r="F473" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -16509,7 +16500,7 @@
         <v>1368</v>
       </c>
       <c r="F474" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -16529,7 +16520,7 @@
         <v>1354</v>
       </c>
       <c r="F475" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -16549,7 +16540,7 @@
         <v>1449</v>
       </c>
       <c r="F476" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -16569,7 +16560,7 @@
         <v>1364</v>
       </c>
       <c r="F477" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -16589,7 +16580,7 @@
         <v>1384</v>
       </c>
       <c r="F478" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -16609,7 +16600,7 @@
         <v>1450</v>
       </c>
       <c r="F479" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -16629,7 +16620,7 @@
         <v>718</v>
       </c>
       <c r="F480" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -16649,7 +16640,7 @@
         <v>1451</v>
       </c>
       <c r="F481" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -16669,7 +16660,7 @@
         <v>1452</v>
       </c>
       <c r="F482" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -16689,7 +16680,7 @@
         <v>718</v>
       </c>
       <c r="F483" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -16709,7 +16700,7 @@
         <v>1453</v>
       </c>
       <c r="F484" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -16729,7 +16720,7 @@
         <v>1454</v>
       </c>
       <c r="F485" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -16749,7 +16740,7 @@
         <v>1347</v>
       </c>
       <c r="F486" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -16769,7 +16760,7 @@
         <v>1396</v>
       </c>
       <c r="F487" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -16789,7 +16780,7 @@
         <v>1455</v>
       </c>
       <c r="F488" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -16809,7 +16800,7 @@
         <v>1377</v>
       </c>
       <c r="F489" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -16829,7 +16820,7 @@
         <v>1456</v>
       </c>
       <c r="F490" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -16849,7 +16840,7 @@
         <v>1364</v>
       </c>
       <c r="F491" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -16869,7 +16860,7 @@
         <v>1457</v>
       </c>
       <c r="F492" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -16889,7 +16880,7 @@
         <v>718</v>
       </c>
       <c r="F493" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -16909,7 +16900,7 @@
         <v>1398</v>
       </c>
       <c r="F494" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -16929,7 +16920,7 @@
         <v>1357</v>
       </c>
       <c r="F495" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -16949,7 +16940,7 @@
         <v>1458</v>
       </c>
       <c r="F496" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -16969,7 +16960,7 @@
         <v>1361</v>
       </c>
       <c r="F497" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -16989,7 +16980,7 @@
         <v>1366</v>
       </c>
       <c r="F498" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -17009,7 +17000,7 @@
         <v>1456</v>
       </c>
       <c r="F499" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -17029,7 +17020,7 @@
         <v>1356</v>
       </c>
       <c r="F500" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -17049,7 +17040,7 @@
         <v>718</v>
       </c>
       <c r="F501" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -17069,7 +17060,7 @@
         <v>1459</v>
       </c>
       <c r="F502" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -17089,7 +17080,7 @@
         <v>1351</v>
       </c>
       <c r="F503" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -17109,7 +17100,7 @@
         <v>1404</v>
       </c>
       <c r="F504" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -17129,7 +17120,7 @@
         <v>1460</v>
       </c>
       <c r="F505" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -17149,7 +17140,7 @@
         <v>1461</v>
       </c>
       <c r="F506" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -17169,7 +17160,7 @@
         <v>1462</v>
       </c>
       <c r="F507" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="508" spans="1:6">
@@ -17189,7 +17180,7 @@
         <v>1391</v>
       </c>
       <c r="F508" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="509" spans="1:6">
@@ -17209,7 +17200,7 @@
         <v>1399</v>
       </c>
       <c r="F509" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -17229,7 +17220,7 @@
         <v>1348</v>
       </c>
       <c r="F510" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -17249,7 +17240,7 @@
         <v>1396</v>
       </c>
       <c r="F511" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -17269,7 +17260,7 @@
         <v>1370</v>
       </c>
       <c r="F512" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -17289,7 +17280,7 @@
         <v>718</v>
       </c>
       <c r="F513" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -17309,7 +17300,7 @@
         <v>1452</v>
       </c>
       <c r="F514" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -17329,7 +17320,7 @@
         <v>1463</v>
       </c>
       <c r="F515" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -17349,7 +17340,7 @@
         <v>718</v>
       </c>
       <c r="F516" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -17386,7 +17377,7 @@
         <v>1371</v>
       </c>
       <c r="F518" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -17406,7 +17397,7 @@
         <v>1464</v>
       </c>
       <c r="F519" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -17426,7 +17417,7 @@
         <v>1422</v>
       </c>
       <c r="F520" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -17446,7 +17437,7 @@
         <v>1383</v>
       </c>
       <c r="F521" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -17466,7 +17457,7 @@
         <v>718</v>
       </c>
       <c r="F522" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -17486,7 +17477,7 @@
         <v>1465</v>
       </c>
       <c r="F523" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -17506,7 +17497,7 @@
         <v>1466</v>
       </c>
       <c r="F524" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -17526,7 +17517,7 @@
         <v>1357</v>
       </c>
       <c r="F525" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -17546,7 +17537,7 @@
         <v>1368</v>
       </c>
       <c r="F526" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -17566,7 +17557,7 @@
         <v>1351</v>
       </c>
       <c r="F527" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -17586,7 +17577,7 @@
         <v>1445</v>
       </c>
       <c r="F528" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -17606,7 +17597,7 @@
         <v>718</v>
       </c>
       <c r="F529" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -17626,7 +17617,7 @@
         <v>1467</v>
       </c>
       <c r="F530" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -17646,7 +17637,7 @@
         <v>1468</v>
       </c>
       <c r="F531" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -17666,7 +17657,7 @@
         <v>1384</v>
       </c>
       <c r="F532" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -17686,7 +17677,7 @@
         <v>1443</v>
       </c>
       <c r="F533" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -17706,7 +17697,7 @@
         <v>1428</v>
       </c>
       <c r="F534" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -17726,7 +17717,7 @@
         <v>1348</v>
       </c>
       <c r="F535" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -17746,7 +17737,7 @@
         <v>1396</v>
       </c>
       <c r="F536" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -17766,7 +17757,7 @@
         <v>1387</v>
       </c>
       <c r="F537" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -17786,7 +17777,7 @@
         <v>1396</v>
       </c>
       <c r="F538" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="539" spans="1:6">
@@ -17806,7 +17797,7 @@
         <v>1469</v>
       </c>
       <c r="F539" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -17826,7 +17817,7 @@
         <v>1347</v>
       </c>
       <c r="F540" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -17846,7 +17837,7 @@
         <v>1348</v>
       </c>
       <c r="F541" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -17866,7 +17857,7 @@
         <v>1346</v>
       </c>
       <c r="F542" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -17886,7 +17877,7 @@
         <v>1384</v>
       </c>
       <c r="F543" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="544" spans="1:6">
@@ -17906,7 +17897,7 @@
         <v>1368</v>
       </c>
       <c r="F544" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -17943,7 +17934,7 @@
         <v>718</v>
       </c>
       <c r="F546" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -17980,7 +17971,7 @@
         <v>718</v>
       </c>
       <c r="F548" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -18000,7 +17991,7 @@
         <v>1396</v>
       </c>
       <c r="F549" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -18020,7 +18011,7 @@
         <v>1380</v>
       </c>
       <c r="F550" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -18040,7 +18031,7 @@
         <v>718</v>
       </c>
       <c r="F551" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -18060,7 +18051,7 @@
         <v>1375</v>
       </c>
       <c r="F552" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -18080,7 +18071,7 @@
         <v>1368</v>
       </c>
       <c r="F553" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -18100,7 +18091,7 @@
         <v>1470</v>
       </c>
       <c r="F554" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -18120,7 +18111,7 @@
         <v>1453</v>
       </c>
       <c r="F555" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -18140,7 +18131,7 @@
         <v>718</v>
       </c>
       <c r="F556" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -18160,7 +18151,7 @@
         <v>1467</v>
       </c>
       <c r="F557" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -18180,7 +18171,7 @@
         <v>1468</v>
       </c>
       <c r="F558" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -18200,7 +18191,7 @@
         <v>1411</v>
       </c>
       <c r="F559" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -18220,7 +18211,7 @@
         <v>1471</v>
       </c>
       <c r="F560" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -18240,7 +18231,7 @@
         <v>1387</v>
       </c>
       <c r="F561" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -18260,7 +18251,7 @@
         <v>718</v>
       </c>
       <c r="F562" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -18280,7 +18271,7 @@
         <v>1404</v>
       </c>
       <c r="F563" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -18300,7 +18291,7 @@
         <v>1365</v>
       </c>
       <c r="F564" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -18320,7 +18311,7 @@
         <v>1347</v>
       </c>
       <c r="F565" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -18340,7 +18331,7 @@
         <v>1357</v>
       </c>
       <c r="F566" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -18360,7 +18351,7 @@
         <v>718</v>
       </c>
       <c r="F567" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -18380,7 +18371,7 @@
         <v>1378</v>
       </c>
       <c r="F568" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -18400,7 +18391,7 @@
         <v>718</v>
       </c>
       <c r="F569" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -18420,7 +18411,7 @@
         <v>1346</v>
       </c>
       <c r="F570" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -18440,7 +18431,7 @@
         <v>1472</v>
       </c>
       <c r="F571" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -18460,7 +18451,7 @@
         <v>1473</v>
       </c>
       <c r="F572" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -18480,7 +18471,7 @@
         <v>718</v>
       </c>
       <c r="F573" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -18500,7 +18491,7 @@
         <v>1346</v>
       </c>
       <c r="F574" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -18520,7 +18511,7 @@
         <v>718</v>
       </c>
       <c r="F575" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -18540,7 +18531,7 @@
         <v>1396</v>
       </c>
       <c r="F576" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -18560,7 +18551,7 @@
         <v>1383</v>
       </c>
       <c r="F577" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -18580,7 +18571,7 @@
         <v>1444</v>
       </c>
       <c r="F578" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -18600,7 +18591,7 @@
         <v>1362</v>
       </c>
       <c r="F579" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -18620,7 +18611,7 @@
         <v>1474</v>
       </c>
       <c r="F580" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -18640,7 +18631,7 @@
         <v>1346</v>
       </c>
       <c r="F581" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -18677,7 +18668,7 @@
         <v>1346</v>
       </c>
       <c r="F583" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -18697,7 +18688,7 @@
         <v>1361</v>
       </c>
       <c r="F584" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -18717,7 +18708,7 @@
         <v>1476</v>
       </c>
       <c r="F585" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -18737,7 +18728,7 @@
         <v>1357</v>
       </c>
       <c r="F586" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -18757,7 +18748,7 @@
         <v>1348</v>
       </c>
       <c r="F587" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -18777,7 +18768,7 @@
         <v>1477</v>
       </c>
       <c r="F588" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -18797,7 +18788,7 @@
         <v>1478</v>
       </c>
       <c r="F589" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -18817,7 +18808,7 @@
         <v>1400</v>
       </c>
       <c r="F590" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -18837,7 +18828,7 @@
         <v>1351</v>
       </c>
       <c r="F591" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -18857,7 +18848,7 @@
         <v>1418</v>
       </c>
       <c r="F592" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="593" spans="1:6">
@@ -18877,7 +18868,7 @@
         <v>1479</v>
       </c>
       <c r="F593" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -18897,7 +18888,7 @@
         <v>1480</v>
       </c>
       <c r="F594" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -18917,7 +18908,7 @@
         <v>1364</v>
       </c>
       <c r="F595" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -18937,7 +18928,7 @@
         <v>718</v>
       </c>
       <c r="F596" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -18957,7 +18948,7 @@
         <v>718</v>
       </c>
       <c r="F597" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -18977,7 +18968,7 @@
         <v>1481</v>
       </c>
       <c r="F598" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="599" spans="1:6">
@@ -18997,7 +18988,7 @@
         <v>1343</v>
       </c>
       <c r="F599" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -19017,7 +19008,7 @@
         <v>1368</v>
       </c>
       <c r="F600" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -19037,7 +19028,7 @@
         <v>1482</v>
       </c>
       <c r="F601" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -19057,7 +19048,7 @@
         <v>1483</v>
       </c>
       <c r="F602" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="603" spans="1:6">
@@ -19077,7 +19068,7 @@
         <v>1484</v>
       </c>
       <c r="F603" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -19097,7 +19088,7 @@
         <v>1485</v>
       </c>
       <c r="F604" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -19134,7 +19125,7 @@
         <v>1365</v>
       </c>
       <c r="F606" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -19154,7 +19145,7 @@
         <v>1343</v>
       </c>
       <c r="F607" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -19174,7 +19165,7 @@
         <v>1486</v>
       </c>
       <c r="F608" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -19194,7 +19185,7 @@
         <v>1371</v>
       </c>
       <c r="F609" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -19214,7 +19205,7 @@
         <v>1365</v>
       </c>
       <c r="F610" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -19234,7 +19225,7 @@
         <v>718</v>
       </c>
       <c r="F611" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -19254,7 +19245,7 @@
         <v>1487</v>
       </c>
       <c r="F612" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -19274,7 +19265,7 @@
         <v>1351</v>
       </c>
       <c r="F613" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -19294,7 +19285,7 @@
         <v>1396</v>
       </c>
       <c r="F614" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -19314,7 +19305,7 @@
         <v>718</v>
       </c>
       <c r="F615" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -19334,7 +19325,7 @@
         <v>1488</v>
       </c>
       <c r="F616" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -19354,7 +19345,7 @@
         <v>1343</v>
       </c>
       <c r="F617" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -19374,7 +19365,7 @@
         <v>1489</v>
       </c>
       <c r="F618" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -19394,7 +19385,7 @@
         <v>1428</v>
       </c>
       <c r="F619" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -19414,7 +19405,7 @@
         <v>718</v>
       </c>
       <c r="F620" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -19434,7 +19425,7 @@
         <v>1345</v>
       </c>
       <c r="F621" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -19454,7 +19445,7 @@
         <v>1414</v>
       </c>
       <c r="F622" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="623" spans="1:6">
@@ -19474,7 +19465,7 @@
         <v>1490</v>
       </c>
       <c r="F623" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -19494,7 +19485,7 @@
         <v>1365</v>
       </c>
       <c r="F624" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -19514,7 +19505,7 @@
         <v>1443</v>
       </c>
       <c r="F625" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -19534,7 +19525,7 @@
         <v>1443</v>
       </c>
       <c r="F626" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="627" spans="1:6">
@@ -19554,7 +19545,7 @@
         <v>718</v>
       </c>
       <c r="F627" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -19574,7 +19565,7 @@
         <v>1444</v>
       </c>
       <c r="F628" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -19611,7 +19602,7 @@
         <v>718</v>
       </c>
       <c r="F630" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="631" spans="1:6">
@@ -19631,7 +19622,7 @@
         <v>1491</v>
       </c>
       <c r="F631" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="632" spans="1:6">
@@ -19651,7 +19642,7 @@
         <v>1492</v>
       </c>
       <c r="F632" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="633" spans="1:6">
@@ -19691,7 +19682,7 @@
         <v>1455</v>
       </c>
       <c r="F634" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="635" spans="1:6">
@@ -19711,7 +19702,7 @@
         <v>1347</v>
       </c>
       <c r="F635" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -19731,7 +19722,7 @@
         <v>1351</v>
       </c>
       <c r="F636" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="637" spans="1:6">
@@ -19751,7 +19742,7 @@
         <v>1394</v>
       </c>
       <c r="F637" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -19771,7 +19762,7 @@
         <v>718</v>
       </c>
       <c r="F638" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -19791,7 +19782,7 @@
         <v>1415</v>
       </c>
       <c r="F639" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -19828,7 +19819,7 @@
         <v>1357</v>
       </c>
       <c r="F641" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="642" spans="1:6">
@@ -19848,7 +19839,7 @@
         <v>1493</v>
       </c>
       <c r="F642" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="643" spans="1:6">
@@ -19868,7 +19859,7 @@
         <v>1494</v>
       </c>
       <c r="F643" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -19888,7 +19879,7 @@
         <v>1495</v>
       </c>
       <c r="F644" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -19908,7 +19899,7 @@
         <v>1344</v>
       </c>
       <c r="F645" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -19928,7 +19919,7 @@
         <v>1354</v>
       </c>
       <c r="F646" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -19948,7 +19939,7 @@
         <v>1496</v>
       </c>
       <c r="F647" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -19968,7 +19959,7 @@
         <v>1497</v>
       </c>
       <c r="F648" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -19988,7 +19979,7 @@
         <v>1453</v>
       </c>
       <c r="F649" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -20008,7 +19999,7 @@
         <v>1357</v>
       </c>
       <c r="F650" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -20028,7 +20019,7 @@
         <v>1498</v>
       </c>
       <c r="F651" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -20048,7 +20039,7 @@
         <v>1405</v>
       </c>
       <c r="F652" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -20068,7 +20059,7 @@
         <v>1499</v>
       </c>
       <c r="F653" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -20088,7 +20079,7 @@
         <v>1500</v>
       </c>
       <c r="F654" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="655" spans="1:6">
@@ -20108,7 +20099,7 @@
         <v>1396</v>
       </c>
       <c r="F655" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -20128,7 +20119,7 @@
         <v>1501</v>
       </c>
       <c r="F656" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -20148,7 +20139,7 @@
         <v>1371</v>
       </c>
       <c r="F657" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -20168,7 +20159,7 @@
         <v>1361</v>
       </c>
       <c r="F658" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="659" spans="1:6">
@@ -20188,7 +20179,7 @@
         <v>1448</v>
       </c>
       <c r="F659" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="660" spans="1:6">
@@ -20208,7 +20199,7 @@
         <v>1375</v>
       </c>
       <c r="F660" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -20228,7 +20219,7 @@
         <v>1361</v>
       </c>
       <c r="F661" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -20248,7 +20239,7 @@
         <v>1502</v>
       </c>
       <c r="F662" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -20268,7 +20259,7 @@
         <v>1503</v>
       </c>
       <c r="F663" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -20288,7 +20279,7 @@
         <v>1343</v>
       </c>
       <c r="F664" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="665" spans="1:6">
@@ -20308,7 +20299,7 @@
         <v>1354</v>
       </c>
       <c r="F665" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="666" spans="1:6">
@@ -20328,7 +20319,7 @@
         <v>718</v>
       </c>
       <c r="F666" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="667" spans="1:6">
@@ -20348,7 +20339,7 @@
         <v>1396</v>
       </c>
       <c r="F667" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="668" spans="1:6">
@@ -20368,7 +20359,7 @@
         <v>1344</v>
       </c>
       <c r="F668" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -20388,7 +20379,7 @@
         <v>718</v>
       </c>
       <c r="F669" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -20408,7 +20399,7 @@
         <v>718</v>
       </c>
       <c r="F670" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="671" spans="1:6">
@@ -20428,7 +20419,7 @@
         <v>1365</v>
       </c>
       <c r="F671" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="672" spans="1:6">
@@ -20448,7 +20439,7 @@
         <v>1418</v>
       </c>
       <c r="F672" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="673" spans="1:6">
@@ -20468,7 +20459,7 @@
         <v>1384</v>
       </c>
       <c r="F673" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -20488,7 +20479,7 @@
         <v>1427</v>
       </c>
       <c r="F674" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -20508,7 +20499,7 @@
         <v>1346</v>
       </c>
       <c r="F675" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -20528,7 +20519,7 @@
         <v>1366</v>
       </c>
       <c r="F676" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -20548,7 +20539,7 @@
         <v>718</v>
       </c>
       <c r="F677" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -20568,7 +20559,7 @@
         <v>1408</v>
       </c>
       <c r="F678" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -20588,7 +20579,7 @@
         <v>1346</v>
       </c>
       <c r="F679" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -20608,7 +20599,7 @@
         <v>1504</v>
       </c>
       <c r="F680" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -20628,7 +20619,7 @@
         <v>1357</v>
       </c>
       <c r="F681" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -20648,7 +20639,7 @@
         <v>1505</v>
       </c>
       <c r="F682" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -20668,7 +20659,7 @@
         <v>1347</v>
       </c>
       <c r="F683" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -20688,7 +20679,7 @@
         <v>1467</v>
       </c>
       <c r="F684" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="685" spans="1:6">
@@ -20708,7 +20699,7 @@
         <v>1506</v>
       </c>
       <c r="F685" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="686" spans="1:6">
@@ -20728,7 +20719,7 @@
         <v>1344</v>
       </c>
       <c r="F686" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -20748,7 +20739,7 @@
         <v>1417</v>
       </c>
       <c r="F687" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="688" spans="1:6">
@@ -20768,7 +20759,7 @@
         <v>1507</v>
       </c>
       <c r="F688" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="689" spans="1:6">
@@ -20788,7 +20779,7 @@
         <v>1346</v>
       </c>
       <c r="F689" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -20808,7 +20799,7 @@
         <v>1361</v>
       </c>
       <c r="F690" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="691" spans="1:6">
@@ -20828,7 +20819,7 @@
         <v>1480</v>
       </c>
       <c r="F691" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="692" spans="1:6">
@@ -20848,7 +20839,7 @@
         <v>1508</v>
       </c>
       <c r="F692" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="693" spans="1:6">
@@ -20868,7 +20859,7 @@
         <v>1355</v>
       </c>
       <c r="F693" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -20888,7 +20879,7 @@
         <v>718</v>
       </c>
       <c r="F694" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -20908,7 +20899,7 @@
         <v>1357</v>
       </c>
       <c r="F695" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="696" spans="1:6">
@@ -20928,7 +20919,7 @@
         <v>1357</v>
       </c>
       <c r="F696" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -20948,7 +20939,7 @@
         <v>1343</v>
       </c>
       <c r="F697" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="698" spans="1:6">
@@ -20968,7 +20959,7 @@
         <v>1509</v>
       </c>
       <c r="F698" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="699" spans="1:6">
@@ -20988,7 +20979,7 @@
         <v>718</v>
       </c>
       <c r="F699" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -21008,7 +20999,7 @@
         <v>1357</v>
       </c>
       <c r="F700" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="701" spans="1:6">
@@ -21028,7 +21019,7 @@
         <v>1380</v>
       </c>
       <c r="F701" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -21048,7 +21039,7 @@
         <v>1510</v>
       </c>
       <c r="F702" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="703" spans="1:6">
@@ -21068,7 +21059,7 @@
         <v>1346</v>
       </c>
       <c r="F703" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="704" spans="1:6">
@@ -21088,7 +21079,7 @@
         <v>1511</v>
       </c>
       <c r="F704" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="705" spans="1:6">
@@ -21108,7 +21099,7 @@
         <v>1366</v>
       </c>
       <c r="F705" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="706" spans="1:6">
@@ -21128,7 +21119,7 @@
         <v>1376</v>
       </c>
       <c r="F706" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -21148,7 +21139,7 @@
         <v>1396</v>
       </c>
       <c r="F707" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -21168,7 +21159,7 @@
         <v>1361</v>
       </c>
       <c r="F708" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="709" spans="1:6">
@@ -21188,7 +21179,7 @@
         <v>1365</v>
       </c>
       <c r="F709" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -21208,7 +21199,7 @@
         <v>1512</v>
       </c>
       <c r="F710" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -21228,7 +21219,7 @@
         <v>1513</v>
       </c>
       <c r="F711" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -21248,7 +21239,7 @@
         <v>1347</v>
       </c>
       <c r="F712" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -21268,7 +21259,7 @@
         <v>1346</v>
       </c>
       <c r="F713" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -21288,7 +21279,7 @@
         <v>1467</v>
       </c>
       <c r="F714" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -21308,7 +21299,7 @@
         <v>1514</v>
       </c>
       <c r="F715" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="716" spans="1:6">
@@ -21328,7 +21319,7 @@
         <v>1354</v>
       </c>
       <c r="F716" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -21348,7 +21339,7 @@
         <v>1515</v>
       </c>
       <c r="F717" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -21368,7 +21359,7 @@
         <v>1368</v>
       </c>
       <c r="F718" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -21388,7 +21379,7 @@
         <v>1516</v>
       </c>
       <c r="F719" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -21408,7 +21399,7 @@
         <v>1383</v>
       </c>
       <c r="F720" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="721" spans="1:6">
@@ -21428,7 +21419,7 @@
         <v>1357</v>
       </c>
       <c r="F721" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="722" spans="1:6">
@@ -21448,7 +21439,7 @@
         <v>1517</v>
       </c>
       <c r="F722" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="723" spans="1:6">
@@ -21468,7 +21459,7 @@
         <v>1366</v>
       </c>
       <c r="F723" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="724" spans="1:6">
@@ -21488,7 +21479,7 @@
         <v>1396</v>
       </c>
       <c r="F724" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="725" spans="1:6">
@@ -21508,7 +21499,7 @@
         <v>1357</v>
       </c>
       <c r="F725" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="726" spans="1:6">
@@ -21528,7 +21519,7 @@
         <v>1408</v>
       </c>
       <c r="F726" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="727" spans="1:6">
@@ -21548,7 +21539,7 @@
         <v>1500</v>
       </c>
       <c r="F727" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="728" spans="1:6">
@@ -21568,7 +21559,7 @@
         <v>718</v>
       </c>
       <c r="F728" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="729" spans="1:6">
@@ -21588,7 +21579,7 @@
         <v>1456</v>
       </c>
       <c r="F729" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="730" spans="1:6">
@@ -21608,7 +21599,7 @@
         <v>1346</v>
       </c>
       <c r="F730" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="731" spans="1:6">
@@ -21628,7 +21619,7 @@
         <v>1343</v>
       </c>
       <c r="F731" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="732" spans="1:6">
@@ -21648,7 +21639,7 @@
         <v>1343</v>
       </c>
       <c r="F732" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="733" spans="1:6">
@@ -21685,7 +21676,7 @@
         <v>1346</v>
       </c>
       <c r="F734" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="735" spans="1:6">
@@ -21722,7 +21713,7 @@
         <v>1518</v>
       </c>
       <c r="F736" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -21742,7 +21733,7 @@
         <v>1347</v>
       </c>
       <c r="F737" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -21762,7 +21753,7 @@
         <v>1401</v>
       </c>
       <c r="F738" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -21782,7 +21773,7 @@
         <v>1364</v>
       </c>
       <c r="F739" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -21802,7 +21793,7 @@
         <v>1343</v>
       </c>
       <c r="F740" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -21822,7 +21813,7 @@
         <v>1519</v>
       </c>
       <c r="F741" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -21842,7 +21833,7 @@
         <v>1353</v>
       </c>
       <c r="F742" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -21862,7 +21853,7 @@
         <v>1396</v>
       </c>
       <c r="F743" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -21882,7 +21873,7 @@
         <v>1351</v>
       </c>
       <c r="F744" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -21902,7 +21893,7 @@
         <v>1520</v>
       </c>
       <c r="F745" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -21922,7 +21913,7 @@
         <v>1442</v>
       </c>
       <c r="F746" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="747" spans="1:6">
@@ -21942,7 +21933,7 @@
         <v>1351</v>
       </c>
       <c r="F747" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -21962,7 +21953,7 @@
         <v>1355</v>
       </c>
       <c r="F748" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -21982,7 +21973,7 @@
         <v>1354</v>
       </c>
       <c r="F749" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -22002,7 +21993,7 @@
         <v>1380</v>
       </c>
       <c r="F750" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="751" spans="1:6">
@@ -22022,7 +22013,7 @@
         <v>1521</v>
       </c>
       <c r="F751" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="752" spans="1:6">
@@ -22042,7 +22033,7 @@
         <v>1354</v>
       </c>
       <c r="F752" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="753" spans="1:6">
@@ -22062,7 +22053,7 @@
         <v>1522</v>
       </c>
       <c r="F753" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="754" spans="1:6">
@@ -22082,7 +22073,7 @@
         <v>1455</v>
       </c>
       <c r="F754" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="755" spans="1:6">
@@ -22170,7 +22161,7 @@
         <v>1523</v>
       </c>
       <c r="F759" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="760" spans="1:6">
@@ -22190,7 +22181,7 @@
         <v>1365</v>
       </c>
       <c r="F760" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="761" spans="1:6">
@@ -22210,7 +22201,7 @@
         <v>1524</v>
       </c>
       <c r="F761" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="762" spans="1:6">
@@ -22230,7 +22221,7 @@
         <v>1364</v>
       </c>
       <c r="F762" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="763" spans="1:6">
@@ -22250,7 +22241,7 @@
         <v>1344</v>
       </c>
       <c r="F763" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="764" spans="1:6">
@@ -22270,7 +22261,7 @@
         <v>1365</v>
       </c>
       <c r="F764" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -22290,7 +22281,7 @@
         <v>718</v>
       </c>
       <c r="F765" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -22310,7 +22301,7 @@
         <v>1428</v>
       </c>
       <c r="F766" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="767" spans="1:6">
@@ -22330,7 +22321,7 @@
         <v>718</v>
       </c>
       <c r="F767" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="768" spans="1:6">
@@ -22418,7 +22409,7 @@
         <v>1518</v>
       </c>
       <c r="F772" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -22438,7 +22429,7 @@
         <v>1344</v>
       </c>
       <c r="F773" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -22458,7 +22449,7 @@
         <v>1355</v>
       </c>
       <c r="F774" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -22478,7 +22469,7 @@
         <v>1396</v>
       </c>
       <c r="F775" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="776" spans="1:6">
@@ -22498,7 +22489,7 @@
         <v>1365</v>
       </c>
       <c r="F776" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -22518,7 +22509,7 @@
         <v>718</v>
       </c>
       <c r="F777" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="778" spans="1:6">
@@ -22538,7 +22529,7 @@
         <v>1444</v>
       </c>
       <c r="F778" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -22558,7 +22549,7 @@
         <v>1361</v>
       </c>
       <c r="F779" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="780" spans="1:6">
@@ -22578,7 +22569,7 @@
         <v>1402</v>
       </c>
       <c r="F780" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="781" spans="1:6">
@@ -22598,7 +22589,7 @@
         <v>1477</v>
       </c>
       <c r="F781" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="782" spans="1:6">
@@ -22618,7 +22609,7 @@
         <v>1354</v>
       </c>
       <c r="F782" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="783" spans="1:6">
@@ -22638,7 +22629,7 @@
         <v>1448</v>
       </c>
       <c r="F783" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
     </row>
   </sheetData>
